--- a/ocr_output/市场策略.xlsx
+++ b/ocr_output/市场策略.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全部数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="300">
   <si>
     <t>附件子目录</t>
   </si>
@@ -43,6 +43,123 @@
     <t>Kimi_分析时间</t>
   </si>
   <si>
+    <t>2026-02-04_东方证券_资产配置月报202602：风险偏好主导资产表现，权益关注风格切换</t>
+  </si>
+  <si>
+    <t>2026-02-04_东方财富证券_2月资产配置展望：金银大幅波动后怎么看？</t>
+  </si>
+  <si>
+    <t>2026-02-04_中邮证券_业绩之锚6：A股对业绩预告的反应机制与偏好</t>
+  </si>
+  <si>
+    <t>2026-02-04_国信证券_大类资产月度策略（2026.2）：乍暖还寒试韧性，估值修复入深水</t>
+  </si>
+  <si>
+    <t>2026-02-04_国泰海通_中观景气跟踪_2月第1期：科技资源景气延续，内需或迎景气拐点</t>
+  </si>
+  <si>
+    <t>2026-02-04_国泰海通_国泰海通资产配置月度方案（202602）：市场波动加剧，权益商品迎配置良机</t>
+  </si>
+  <si>
+    <t>2026-02-04_国泰海通_每日报告精选（2026-02-03_0900——2026-02-04_1500）</t>
+  </si>
+  <si>
+    <t>2026-02-02_华安证券_估值修复行情近尾声，把握确定性强的基建季节性机会</t>
+  </si>
+  <si>
+    <t>2026-02-02_国信证券_市场调整的原因及性质</t>
+  </si>
+  <si>
+    <t>2026-02-02_甬兴证券_流动性1月第3期：美元指数下行，1月募集资金显著提升</t>
+  </si>
+  <si>
+    <t>2026-02-03_东方证券_20260202多资产配置周报：提名沃什不改美元信用弱化格局</t>
+  </si>
+  <si>
+    <t>2026-02-03_中航证券_2026年A股年度策略报告：AI兴，再通胀，驭慢牛</t>
+  </si>
+  <si>
+    <t>2026-02-03_华创证券_【策略快评】：调整或已到位，把握配置区间</t>
+  </si>
+  <si>
+    <t>2026-02-03_华宝证券_ETF及指数产品网格策略周报</t>
+  </si>
+  <si>
+    <t>2026-02-03_华泰证券_资金透视：资金面韧性仍存</t>
+  </si>
+  <si>
+    <t>2026-02-03_华鑫证券_华鑫证券双融日报</t>
+  </si>
+  <si>
+    <t>2026-02-03_国元证券_元瞻经纬总量月报（2026年1月）：慢牛深化，长路徐行</t>
+  </si>
+  <si>
+    <t>2026-02-03_国泰海通_全球股市立体投资策略周报_2月第1期：鹰派沃什交易落地，股市波动率攀升</t>
+  </si>
+  <si>
+    <t>2026-02-03_国泰海通_国泰海通证券每日报告精选</t>
+  </si>
+  <si>
+    <t>2026-02-03_国泰海通_投资者微观行为洞察手册·1月第4期：融资资金开始回流</t>
+  </si>
+  <si>
+    <t>2026-02-03_国证国际_沃什冲击：沃什的杠铃策略与跨资产去杠杆风暴</t>
+  </si>
+  <si>
+    <t>2026-02-03_国都香港_黑天鹅开局，港股2月不乐观</t>
+  </si>
+  <si>
+    <t>2026-02-03_太平洋证券_写在2026丙午赤马年之前：贵金属的灰犀牛</t>
+  </si>
+  <si>
+    <t>2026-02-03_开源证券_中小盘策略专题：SpaceX拟部署百万颗卫星系统，重视运力和太空算力投资机会</t>
+  </si>
+  <si>
+    <t>2026-02-03_开源证券_机构调研周跟踪：机构关注度环比回升：计算机、环保、交通运输</t>
+  </si>
+  <si>
+    <t>2026-02-03_德邦证券_强势反弹，光伏领涨</t>
+  </si>
+  <si>
+    <t>2026-02-03_招银国际_每日投资策略</t>
+  </si>
+  <si>
+    <t>2026-02-03_浙商国际_港股市场策略周报</t>
+  </si>
+  <si>
+    <t>2026-02-03_海通国际证券_海外宏观策略：宏观预期差为投机情绪降温</t>
+  </si>
+  <si>
+    <t>2026-02-03_第一上海证券_第一上海：一月回顾与二月前瞻</t>
+  </si>
+  <si>
+    <t>2026-02-03_粤开证券_粤开市场日报-20260203</t>
+  </si>
+  <si>
+    <t>2026-02-03_财信证券_经济金融高频数据周报（02.02-02.06）</t>
+  </si>
+  <si>
+    <t>2026-02-03_财通证券_财通策略、多行业：2026年2月金股月度金股</t>
+  </si>
+  <si>
+    <t>2026-02-03_麦高证券_策略周报（20260126-20260130）</t>
+  </si>
+  <si>
+    <t>2026-02-04_东莞证券_A股市场大势研判：大盘探底回升，三大指数集体收红</t>
+  </si>
+  <si>
+    <t>2026-02-04_中原证券_月度策略：温和修复中的震荡蓄势</t>
+  </si>
+  <si>
+    <t>2026-02-04_华泰证券_港股IPO投资指南</t>
+  </si>
+  <si>
+    <t>2026-02-04_华鑫证券_双融日报</t>
+  </si>
+  <si>
+    <t>2026-02-04_甬兴证券_情绪与估值1月第3期：沪深300成交额放量，周期风格PE估值分位领涨</t>
+  </si>
+  <si>
     <t>2026-02-02_东吴证券_2月度金股：蓄势再出发</t>
   </si>
   <si>
@@ -212,6 +329,6351 @@
   </si>
   <si>
     <t>2026-02-02_银河证券_北交所周报：市场回落，北交所合格投资者突破千万户</t>
+  </si>
+  <si>
+    <t># 风险偏好主导资产表现， 权益关注风格切 换
+# 资产配置月报 202602
+# 研究结论
+# ⚫ 2 月资产观点： A 股关注风格切换，中债/美股中性，黄金短期谨慎中期看好。
+✓ 境内股票：预期方面，分子端盈利预期、科技引领的成长预期相对平稳。分母端无风险利率下行无增量信息驱动，风险偏好从两端向中间回归，不影响整体但结构上重点关注中盘蓝筹。两融新规后融资买入仍在高位，情绪整体乐观，预计板块轮动加快。1月以来开门红呈量缩价涨，涨价逻辑下优先看上游，重点关注有色化工和农业。科技板块中长期仍然看好。整体而言，分子分母端的边际变化对 A股有一定支撑，但上行空间有限。交易层面，A股不确定性相对平稳。总体而言，A股震荡，板块关注中盘蓝筹。  
+✓ 境内债券：预期层面，1月风险资产调整和经济偏弱预期对债市有所支撑，但供给压力仍在，预期整体平稳。交易层面中期不确定性略有上行。整体而言债券中性。  
+✓ 黄金：预期层面，历史上黄金价格由货币属性和投资属性交替主导，2023年以来进入二者共振的时期，当前这一逻辑尚未发生变化。1月底冲高回落主要是交易结构恶化，短期波动加大，中期仍然看好。本次黄金下跌不会类似 1980和 2012年的深度调整，因为前两次都是黄金的货币属性转向投资属性，美国进入债务收缩的时期。当前美国债务压力仍然较大，且降息周期尚未结束。交易层面中期不确定性略有上行。整体而言，黄金短期谨慎，中期仍然看好。  
+✓ 商品：商品重点关注有色。预期层面铜近期补库较快与铜矿减产预期共同作用，需求端支撑仍在。电解铝库存相对更低。美联储仍在降息周期以及传统经济、新经济对铜铝的需求继续提供一定支撑。短期波动主要受到全球流动性影响。交易层面，不确定性上行较快。整体而言，短期适当谨慎。  
+✓ 美股：预期层面，美股估值较高但 K型经济下科技产业发展引领美股基本面预期，形成一定支撑，后续有待进一步催化或业绩兑现。交易层面，美股风险整体平稳。历史上美股和黄金的对冲效果较好，主因黄金和美股处于风险偏好两端，且实际利率对二者影响不同。若持有 1-3个月以上则二者可进行对冲配置（详见报告《对冲配置思路应对美股黄金畏高》）。整体而言，美股中性。  
+√ 美债：预期层面美国就业市场疲软形成支撑，但沃什提名可能带来的“降息 $^ { + }$ 缩表”预期可能导致曲线陡峭化。同时北欧卖美债若进一步传导，则可能带来美国长债更大的压力。交易层面，美债风险整体平稳。但投资美债还需考虑汇率，当前人民币汇率处于升值周期，配置美债性价比有限。整体而言，美债适当谨慎。
+模型业绩表现：（1）资产配置策略：低波 25年以来年化 $6 . 0 \%$ ，中低波年化$1 1 . 8 \%$ ，中高波年化 $1 8 . 1 \%$ （2）行业轮动策略：25年以来年化 $4 5 . 3 \%$ （3）ETF 策略：资产配置 ETF策略 25年以来低波 $6 . 3 \%$ /中低波 $1 1 . 9 \%$ 中高波 $1 8 . 0 \%$ ，行业轮动 ETF2025 年以来 $4 4 . 8 \%$ 。  
+. 2月配置观点：（1）资产配置策略：继续看好 A股，低波策略小幅加仓 A股/美股，中波策略加仓 A股/中债/美股减仓黄金（2）行业轮动策略：有色/化工/电新/军工/通信/电子等板块（3）ETF策略：资产配置 ETF加仓 A股/中债/美股等 ETF。ETF 行业策略推荐有色金属/化工/新能源/军工/通信/信息技术等 ETF。从风险偏好和涨价逻辑出发，我们重点看好有色/化工/农业等板块。
+# 风险提示
+极端风险事件出现可能影响结果；  
+量化模型失效的风险。
+报告发布日期
+2026 年 02 月 04 日
+#
+郑月灵 执业证书编号：S0860525120003
+zhengyueling@orientsec.com.cn
+021-63326320
+#
+周仕盈 执业证书编号：S0860125060012
+zhoushiying@orientsec.com.cn
+021-63326320
+董翱翔 执业证书编号：S0860125030016
+dongaoxiang@orientsec.com.cn
+021-63326320
+#
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;提名沃什不改美元信用弱化格局：&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20260202多资产配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预期的变化利好中盘蓝筹：20260126A股&lt;/td&gt;&lt;td&gt;2026-01-28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;风格及行业配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;以对冲配置思路应对美股/黄金“畏高”&lt;/td&gt;&lt;td&gt;2026-01-19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;配置关注权益商品，行业聚焦中盘蓝筹：&lt;/td&gt;&lt;td&gt;2026-01-04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;——资产配置月报 202601&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 目 录
+一、从 $^ { 6 } 2 + 1$ 思维”看下阶段大类资产 4  
+二、资产配置策略：增持 A 股/中债/美股.. 6
+（一）低波策略：动态全天候. .6  
+（二）中波策略：被动策略 $^ +$ 主动增强
+三、行业轮动策略：2 月推荐有色/化工/电新/军工/通信/电子等板块...............9
+（一）行业轮动策略收益跑赢基准 C  
+（二）2 月推荐有色/化工/电新/军工/通信/电子等板块. ..10
+四、ETF策略：行业轮动和资产配置 .10
+（一）ETF 行业轮动策略：2 月推荐有色金属/化工/新能源/军工/通信/信息技术等 ETF...11  
+（二）ETF资产配置策略：低波策略小幅加仓 A股/美股，中波策略加仓 A股/中债/美股 11
+五、小结.. .12
+风险提示.. .13
+# 图表目录
+图 1：A股融资买入仍在高位. 4  
+图 2：A股不确定性平稳. 4  
+图 3： 2026 年 1 月 PMI 大幅回落（%） 4  
+图 4：债券中期不确定性上行 4  
+图 5：金价阶段性受货币属性/投资属性影响. 5  
+图 6：黄金不确定性略有上行 .5  
+图 7：铝库存仍处低位. .5  
+图 8：商品不确定性上行. 5  
+图 9：美股市值/GDP 指标处于高位. ..5  
+图 10：历史上美股和黄金对冲效果较好. ..5  
+图 11：美国劳动力市场仍然疲软.. ...6  
+图 12：美债不确定性整体平稳 ...6  
+图 13：动态全天候策略表现优于全天候（净值）.. ..7  
+图 14：小幅加仓 A股/美股.  
+图 15：主动型资产配置增强可提高组合弹性. .8  
+图 16：中低波策略加仓 A股/中债/美股，减持黄金 .8  
+图 17：中高波策略加仓 A股/中债/美股，减持黄金 .8  
+图 18：基于增长预期和利率预期的四象限框架 9  
+图 19：行业策略表现强于基准 .10  
+图 20：三种组合2月仓位变化.. .12
+表 1：动态全天候风险因子及对应资产.  
+表 2：动态全天候策略表现优于全天候  
+表 3：主动型资产配置增强可提高组合弹性 .8  
+表 4：行业策略表现强于基准 9  
+表 5：2月行业推荐. .10  
+表 6：ETF行业策略表现强于基准. .11  
+表 7：2 月行业 ETF 推荐.. .11  
+表 8：不同风险水平的组合业绩存在差异. .12
+# 一、从 $^ { 6 6 } 2 + 1$ 思维”看下阶段大类资产
+境内股票： 预期方面，分子端盈利预期、科技引领的成长预期相对平稳。分母端无风险利率下行无增量信息驱动，风险偏好从两端向中间回归，不影响整体但结构上重点关注中盘蓝筹。两融新规后融资买入仍在高位，情绪整体乐观，预计板块轮动加快。1 月以来开门红呈量缩价涨，涨价逻辑下优先看上游，重点关注有色化工和农业（详见报告《继续看好中盘蓝筹，关注化工/农业等涨价线索》）。科技板块中长期仍然看好。整体而言，分子分母端的边际变化对 A 股有一定支撑，但上行空间有限。交易层面，A 股不确定性相对平稳。总体而言，A 股震荡，板块关注中盘蓝筹。
+图 1：A股融资买入仍在高位  
+![](images/70371aed61eae86be2587feeacb86464337997a187549802a7abcdfd6fd931e3.jpg)  
+数据来源：WIND，东方证券研究所
+图 2： A股不确定性平稳  
+![](images/54176528b0233d79b4b82e33ed74131deacaeea94ac90c87d8f4fc34f77e6125.jpg)  
+数据来源：WIND，东方证券研究所
+境内债券：预期层面，1 月风险资产调整和经济偏弱预期对债市有所支撑，但供给压力仍在，预期整体平稳。交易层面中期不确定性略有上行。整体而言债券中性。
+图 3： 2026 年 1 月 PMI 大幅回落（%）  
+![](images/a8d49463f93198ad164c49356f2b375e838902c5d7feda62c71da905f462bb21.jpg)  
+数据来源：同花顺，东方证券研究所
+图 4：债券中期不确定性上行  
+![](images/4bd20b6422050aefff2253308d983abc93116b98cc3429b6eae8917df9b10487.jpg)  
+数据来源：WIND，东方证券研究所
+黄金：预期层面，历史上黄金价格由货币属性和投资属性交替主导，2023 年以来进入二者共振的时期，当前这一逻辑尚未发生变化。1 月底冲高回落主要是交易结构恶化，短期波动加大，中期仍然看好。本次黄金下跌不会类似 1980 和 2012 年的深度调整，因为前两次都是黄金的货币属性转向投资属性，美国进入债务收缩的时期。当前美国债务压力仍然较大，且降息周期尚未结束。交易层面中期不确定性略有上行。整体而言，黄金短期谨慎，中期仍然看好。
+图 5：金价阶段性受货币属性/投资属性影响  
+![](images/54472929cb7dc8545a5db1d40b1e342496a47e63d81476e9ab0e9d1e8defb0a4.jpg)  
+数据来源：WIND，东方证券研究所
+图 6：黄金不确定性略有上行  
+![](images/6370760998dd3e40ef0a27f7e02dd50167678af92772cea50198b9f6d1a9da1f.jpg)  
+数据来源：WIND，东方证券研究所
+商品：商品重点关注有色。预期层面铜近期补库较快与铜矿减产预期共同作用，需求端支撑仍在。电解铝库存相对更低。美联储仍在降息周期以及传统经济、新经济对铜铝的需求继续提供一定支撑。短期波动主要受到全球流动性影响。交易层面，不确定性上行较快。整体而言，短期适当谨慎。
+图 7：铝库存仍处低位  
+![](images/4f7479d3da943d990129a05e355b97197991e7f6d64e02d01eb21a918531d337.jpg)  
+数据来源：WIND，东方证券研究所
+图 8：商品不确定性上行
+图 9：美股市值/GDP指标处于高位  
+图 10：历史上美股和黄金对冲效果较好  
+![](images/fd8c411365dea406ea77b0c8495b0664274669c073f97815eeb4dc05d271d3e4.jpg)  
+数据来源：WIND，东方证券研究所
+美股：预期层面，美股估值较高但 K 型经济下科技产业发展引领美股基本面预期，形成一定支撑，后续有待进一步催化或业绩兑现。交易层面，美股风险整体平稳。历史上美股和黄金的对冲效果较好，主因黄金和美股处于风险偏好两端，且实际利率对二者影响不同。若持有 1-3 个月以上则二者可进行对冲配置（详见报告《对冲配置思路应对美股黄金畏高》）。整体而言，美股中性。
+![](images/18e209662f9297ef001b0810d04fc39f513995e28648a78fd6366fc7683474c5.jpg)  
+数据来源：WIND，东方证券研究所
+![](images/936913fd587a16bf8f1777f85d2c0141fc085252d887ef5afa9038f2e7d6edb4.jpg)  
+数据来源：WIND，东方证券研究所
+美债：预期层面美国就业市场疲软形成支撑，但沃什提名可能带来的“降息 $^ +$ 缩表”预期可能导致曲线陡峭化。同时北欧卖美债若进一步传导，则可能带来美国长债更大的压力。交易层面，美债风险整体平稳。但投资美债还需考虑汇率，当前人民币汇率处于升值周期，配置美债性价比有限。整体而言，美债适当谨慎。
+图 11：美国劳动力市场仍然疲软  
+![](images/3996f66dea8cedbb006a6f0252a69400a1a089a65a6a9f6721a05eecb0072bcc.jpg)  
+数据来源：WIND，东方证券研究所
+图 12：美债不确定性整体平稳  
+![](images/9545d8258e34e9615d458a31e2fa3efb1ef77a5f7d758b3b27105257570c5a8f.jpg)  
+数据来源：WIND，东方证券研究所
+# 二、资产配置策略：增持 A 股/中债/美股
+之前我们构建了资产配置策略，包括被动型资产配置（如动态全天候）以及主动型资产配置策略。我们也构建了行业轮动策略。详见《基于风险因子择时的动态全天候思路》、《资产配置不仅仅是风险分散——主动型资产配置新思路》、《股债跷跷板的成因、影响和策略应对》。本文即对其业绩表现进行回溯，对 2月最新仓位进行更新。
+# （一）低波策略：动态全天候
+动态全天候策略基于对宏观风险因子的判断，将宏观风险因子与相应资产进行对应，当宏观风险因子不显著时将相应资产从组合中剔除。换言之，动态全天候做负面剔除而非正面筛选，优点有三：其一，保证绝大多数时候充分的分散化，此为全天候精髓。其二，给重要的宏观因子以更高的权重；其三，降低组合中资产的不确定性。（详见《基于风险因子择时的动态全天候思路》）
+表 1：动态全天候风险因子及对应资产  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;因子&lt;/td&gt;&lt;td&gt;指标&lt;/td&gt;&lt;td&gt;资产&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;高通胀&lt;/td&gt;&lt;td&gt;通胀水平&lt;/td&gt;&lt;td&gt;商品&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;汇率贬值&lt;/td&gt;&lt;td&gt;贬值预期&lt;/td&gt;&lt;td&gt;海外定价商品&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;事件冲击&lt;/td&gt;&lt;td&gt;花旗经济意外指数&lt;/td&gt;&lt;td&gt;黄金&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所
+策略回测以指数为资产代表，具体而言，权益用中证 800 指数，债券用中长期纯债基金指数，商品用上期所有色金属指数，黄金用 AU9999。2025 年以来年化 $6 . 0 \%$ ，卡玛 4.2。
+表 2：动态全天候策略表现优于全天候  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;动态全天候&lt;/td&gt;&lt;td&gt;全天候&lt;/td&gt;&lt;td&gt;动态全天候&lt;/td&gt;&lt;td&gt;全天候&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;样本起点&lt;/td&gt;&lt;td colspan="2"&gt;2025年&lt;/td&gt;&lt;td colspan="2"&gt;2017年&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;6.0%&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;6.7%&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标准差&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;下行波动&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;-1.4%&lt;/td&gt;&lt;td&gt;-1.3%&lt;/td&gt;&lt;td&gt;-5.9%&lt;/td&gt;&lt;td&gt;-6.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;夏普比&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;2.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;索提纳比&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卡玛比&lt;/td&gt;&lt;td&gt;4.2&lt;/td&gt;&lt;td&gt;4.4&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所，数据截至 2026.01.30
+图 13：动态全天候策略表现优于全天候（净值）  
+![](images/9fcfc71a77065e6b4f3a30dd62cacead2ca089e0ad955e2d8efc5c71cc66053c.jpg)  
+数据来源：WIND，东方证券研究所
+图 14：小幅加仓 A股/美股  
+![](images/6d8962ced0bf73820e9af246a6b4e68f0b11a583e0b151a266a35a35be66c7c5.jpg)  
+数据来源：WIND，东方证券研究所
+上述“1 月仓位”对应 12 月底动态全天候策略给出的各类资产仓位，“2 月仓位”对应截至 1 月30号模型给出的各类资产仓位。
+全天候的底层逻辑仍为风险均衡，基于风险贡献和宏观风险因子信号的变化情况，2 月持仓整体相对平稳，小幅增持 A股/美股。
+# （二）中波策略：被动策略+主动增强
+基于我们之前的报告《资产配置不仅仅是风险分散——主动型资产配置新思路》，主动型资产配置可增厚收益，但有一定局限性，包括仓位易集中在少数资产，需要对资产有预判能力。因此，
+中波策略可仍然通过动态全天候打底，以主动型资产配置进行增强，从而结合二者优势，在尽可能分散的情况下实现收益增强。
+表 3：主动型资产配置增强可提高组合弹性  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;2025 年以来&lt;/td&gt;&lt;td&gt;中低波策略&lt;/td&gt;&lt;td&gt;中高波策略&lt;/td&gt;&lt;td&gt;动态全天候&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;11.8%&lt;/td&gt;&lt;td&gt;18.1%&lt;/td&gt;&lt;td&gt;6.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标准差&lt;/td&gt;&lt;td&gt;4.2%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;下行波动&lt;/td&gt;&lt;td&gt;4.2%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;-2.4%&lt;/td&gt;&lt;td&gt;-3.5%&lt;/td&gt;&lt;td&gt;-1.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;夏普比&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;索提纳比&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卡玛比&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;4.2&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所，数据截止 2026.01.30
+图 15：主动型资产配置增强可提高组合弹性  
+![](images/2f3f156630d6e51436354aaa11370dcfc6be1f97f78ca1e7b213a2c32643613c.jpg)  
+数据来源：WIND，东方证券研究所
+图 16：中低波策略加仓 A股/中债/美股，减持黄金  
+![](images/fcf791aecf6ce1559e85c49e23454d08fcdb55b70096d28c14556f3fb26a97d2.jpg)  
+数据来源：WIND，东方证券研究所
+图 17：中高波策略加仓 A股/中债/美股，减持黄金  
+![](images/133bb4f7200d58dcbd513ca47e0540308a615549bdb2b4059094aceb2a4c5cbb.jpg)  
+数据来源：WIND，东方证券研究所
+# 三、行业轮动策略：2 月推荐有色/化工/电新/军工/通信/电子等板块
+# （一）行业轮动策略收益跑赢基准
+全天候行业轮动策略通过对股债的四种状态——股强债弱/股弱债强/股债双强/股债双弱等市场环境下行业层面的价格规律进行挖掘，底层逻辑在于四种情况下市场活跃资金的行为存在差异。结合上述四种状态在历史上出现的概率，得到全天候行业轮动策略。（详见《股债跷跷板的成因、影响和策略应对》）
+图 18：基于增长预期和利率预期的四象限框架  
+![](images/b8fc6d20acbdc3a8e6d08dfd8fbc3f63bbd4a8693c1f389d18dc66386977ff5e.jpg)  
+来源：东方证券研究所绘制
+策略回测用申万一级行业指数作为行业代表，2025年以来样本外年化 $4 5 . 3 \%$ ，跑赢偏股混 $1 2 . 3 \%$ 。基准还包括中证 800和申万一级行业平均（以下简称“行业平均”），见下表。
+表 4：行业策略表现强于基准  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;行业策略&lt;/td&gt;&lt;td&gt;中证800&lt;/td&gt;&lt;td&gt;偏股混&lt;/td&gt;&lt;td&gt;行业平均&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;起始日期&lt;/td&gt;&lt;td colspan="4"&gt;2025-01-02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;45.3%&lt;/td&gt;&lt;td&gt;21.6%&lt;/td&gt;&lt;td&gt;33.0%&lt;/td&gt;&lt;td&gt;23.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标准差&lt;/td&gt;&lt;td&gt;24.6%&lt;/td&gt;&lt;td&gt;15.8%&lt;/td&gt;&lt;td&gt;18.2%&lt;/td&gt;&lt;td&gt;16.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;下行波动&lt;/td&gt;&lt;td&gt;25.2%&lt;/td&gt;&lt;td&gt;16.6%&lt;/td&gt;&lt;td&gt;19.2%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;-17.2%&lt;/td&gt;&lt;td&gt;-11.3%&lt;/td&gt;&lt;td&gt;-13.8%&lt;/td&gt;&lt;td&gt;-12.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;夏普比&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;索提纳比&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卡玛比&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所，数据截止 2026.01.30
+图 19：行业策略表现强于基准  
+![](images/c776e0532cd7be15f8bc4c78bc35d5d8c6e4efea1fde0f01dac9b252457c5a4b.jpg)  
+数据来源：WIND，东方证券研究所
+# （二）2月推荐有色/化工/电新/军工/通信/电子等板块
+行业轮动在实操中通常有两种做法，在每月选前 5 的前提下，第一种做法为提高模型容错率和稳健性，降低换手率，每期的前五若在下期仍在前十则予以保留，否则剔除（以下简称“方案一”）。第二种做法为第一时间捕捉行业信号的变化，每月取最优的前五个行业（以下简称“方案二”）。8月科技板块动量持续，方案一表现更优。9月有色表现亮眼，方案二则能更快地捕捉。因此，两种方案各有利弊。此处都予以列出，供投资者参考。
+表 5：2月行业推荐  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;2月行业推荐&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全天候行业轮动（方案一）&lt;/td&gt;&lt;td&gt;全天候行业轮动（方案二）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所
+综上，2月看好有色/化工/电新/军工/通信/电子等板块。
+# 四、ETF策略：行业轮动和资产配置
+上述行业策略基于申万一级行业指数，本章根据 ETF 和行业指数的对应关系，从相关性、跟踪误差、规模、成分股重合度等多个维度对 ETF进行打分，选出各行业最接近的 ETF。
+从申万一级行业与 ETF 的对应情况来看，除了商贸零售/社会服务/纺织服装/交通运输等行业与ETF 相关性在 $8 0 \% - 9 0 \%$ ，美容护理/石油石化/综合等行业与 ETF 的相关性在 $70 \% 8 0 \%$ ，其他行业与 ETF 的相关性基本在 $90 \%$ 以上。通过上述方式打分可得到各行业对应分数最高的 ETF。将ETF带入第三章第二节的行业轮动方案，得到基于 ETF的行业轮动策略。
+# （一）ETF 行业轮动策略：2 月推荐有色金属/化工/新能源/军工/通信/信息技术等ETF
+表6：ETF行业策略表现强于基准  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;2025 年以来&lt;/td&gt;&lt;td&gt;行业策略&lt;/td&gt;&lt;td&gt;中证 800&lt;/td&gt;&lt;td&gt;偏股混&lt;/td&gt;&lt;td&gt;行业平均&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;44.8%&lt;/td&gt;&lt;td&gt;21.6%&lt;/td&gt;&lt;td&gt;33.0%&lt;/td&gt;&lt;td&gt;23.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标准差&lt;/td&gt;&lt;td&gt;25.7%&lt;/td&gt;&lt;td&gt;15.8%&lt;/td&gt;&lt;td&gt;18.2%&lt;/td&gt;&lt;td&gt;16.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;下行波动&lt;/td&gt;&lt;td&gt;25.6%&lt;/td&gt;&lt;td&gt;16.6%&lt;/td&gt;&lt;td&gt;19.2%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;-18.0%&lt;/td&gt;&lt;td&gt;-11.3%&lt;/td&gt;&lt;td&gt;-13.8%&lt;/td&gt;&lt;td&gt;-12.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;夏普比&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;索提纳比&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卡玛比&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所，数据截止 2026.01.30
+前面提到，行业轮动在实操层面常见的有两种做法，在选 5 只 ETF 的前提下，方案一在每个月保留上个月前五本月前 10 的 ETF，方案二则每月重新选择 ETF。两种方案各有利弊。方案一有更强的稳健性和更低的交易成本，方案二有更强的时效性和对信号的敏感性。此处对二者都进行展示，给投资者提供参考。
+表 7：2月行业 ETF推荐  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;2月行业推荐&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基于ETF的全天候行业轮动（方案一）&lt;/td&gt;&lt;td&gt;基于ETF的全天候行业轮动（方案二）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信ETF&lt;/td&gt;&lt;td&gt;有色ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色ETF&lt;/td&gt;&lt;td&gt;通信ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能源ETF&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;化工ETF&lt;/td&gt;&lt;td&gt;游戏ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;信息技术ETF&lt;/td&gt;&lt;td&gt;新能源ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;军工ETF&lt;/td&gt;&lt;td&gt;化工ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;游戏ETF&lt;/td&gt;&lt;td&gt;建材ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材ETF&lt;/td&gt;&lt;td&gt;钢铁ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁ETF&lt;/td&gt;&lt;td&gt;军工ETF&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所
+综上，ETF 推荐有色金属/化工/新能源/军工/通信/信息技术等 ETF。
+# （二）ETF 资产配置策略：低波策略小幅加仓 $\mathsf { A }$ 股/美股，中波策略加仓 $\mathsf { A }$ 股/中债/美股
+在上述资产配置策略中，我们用ETF行业轮动策略替代股票指数，用债券ETF替代债券偏债混合型基金指数。具体而言，取全市场债券 ETF 拟合中长期纯债基金指数，选择相关性最高的债券ETF，通过回归分析复制得到偏债混合型基金指数。黄金用黄金 ETF，商品用有色 ETF。美股用纳斯达克 ETF。得到三个版本的资产配置策略。
+表 8：不同风险水平的组合业绩存在差异  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;2025 年以来&lt;/td&gt;&lt;td&gt;低波&lt;/td&gt;&lt;td&gt;中低波&lt;/td&gt;&lt;td&gt;中高波&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;动态全天候 ETF&lt;/td&gt;&lt;td&gt;中低波策略 ETF&lt;/td&gt;&lt;td&gt;中高波策略 ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;6.3%&lt;/td&gt;&lt;td&gt;11.9%&lt;/td&gt;&lt;td&gt;18.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标准差&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;4.4%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;下行风险&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;4.4%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;-2.1%&lt;/td&gt;&lt;td&gt;-3.2%&lt;/td&gt;&lt;td&gt;-4.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;夏普比&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;2.7&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;索提纳比&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;2.7&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卡玛比&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;4.2&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：WIND，东方证券研究所，数据截止 2026.01.30
+图 20：三种组合2月仓位变化  
+![](images/5e998adb1a3c23ee697026c1cd53869ea03ee0018cf9be851d88935de5fe2254.jpg)  
+数据来源：WIND，东方证券研究所
+综上，基于 ETF的资产配置策略，低波策略小幅加仓 A股/美股，中波策略加仓 A股/中债/美股。
+# 五、小结
+2 月资产观点： A 股关注风格切换，中债/美股中性，黄金短期谨慎中期看好。A 股风险偏好变化，整体震荡重点关注结构性机会。债券近期受风险资产调整的情绪支撑，2 月表现将很大程度继续跟随风险偏好，整体中性。黄金冲高回落主因交易结构恶化，当前货币属性和投资属性共振的逻辑并未发生变化，也难出现 1980/2012 年的深度调整，短期谨慎中期看好。商品近期同样受流动性预期和风险偏好影响，交易层面不确定性有所上行，短期相对谨慎。美股估值较高，后续建议和黄金同步进行配置。美债曲线或将陡峭化且考虑到人民币升值周期，维持谨慎。
+模型业绩表现：（1）资产配置策略：低波25年以来年化 $6 . 0 \%$ ，中低波年化 $1 1 . 8 \%$ ，中高波年化$1 8 . 1 \%$ （2）行业轮动策略：25年以来年化 $4 5 . 3 \%$ （3）ETF策略：资产配置 ETF策略 25年以来低波 $6 . 3 \%$ /中低波 $1 1 . 9 \%$ 中高波 $1 8 . 0 \%$ ，行业轮动 ETF 2025年以来 $4 4 . 8 \%$ 。
+2 月配置观点：（1）资产配置策略：继续看好 A 股，低波策略小幅加仓 A 股/美股，中波策略加仓 A 股/中债/美股减仓黄金（2）行业轮动策略：有色/化工/电新/军工/通信/电子等板块（3）ETF策略：资产配置 ETF加仓 A股/中债/美股等 ETF。ETF行业策略推荐有色金属/化工/新能源/军工/通信/信息技术等 ETF。从风险偏好和涨价逻辑出发，我们重点看好有色/化工/农业等板块。
+# 风险提示
+1、 极端风险事件，例如中美关系、全球地缘超预期事件等，可能打破统计上的历史规律；  
+2、 量化模型失效的风险，历史数据对未来的指引效果有限。
+# 分析师申明
+# 每位负责撰写本研究报告全部或部分内容的研究分析师在此作以下声明：
+分析师在本报告中对所提及的证券或发行人发表的任何建议和观点均准确地反映了其个人对该证券或发行人的看法和判断；分析师薪酬的任何组成部分无论是在过去、现在及将来，均与其在本研究报告中所表述的具体建议或观点无任何直接或间接的关系。
+# 投资评级和相关定义
+报告发布日后的12个月内行业或公司的涨跌幅相对同期相关证券市场代表性指数的涨跌幅为基准（A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普 500 指数）；
+# 公司投资评级的量化标准
+买入：相对强于市场基准指数收益率 $1 5 \%$ 以上；
+增持：相对强于市场基准指数收益率 $5 \% \sim 1 5 \%$ ；
+中性：相对于市场基准指数收益率在 $. 5 \% \sim + 5 \%$ 之间波动；
+减持：相对弱于市场基准指数收益率在- $5 \%$ 以下。
+未评级 —— 由于在报告发出之时该股票不在本公司研究覆盖范围内，分析师基于当时对该股票的研究状况，未给予投资评级相关信息。
+暂停评级 —— 根据监管制度及本公司相关规定，研究报告发布之时该投资对象可能与本公司存在潜在的利益冲突情形；亦或是研究报告发布当时该股票的价值和价格分析存在重大不确定性，缺乏足够的研究依据支持分析师给出明确投资评级；分析师在上述情况下暂停对该股票给予投资评级等信息，投资者需要注意在此报告发布之前曾给予该股票的投资评级、盈利预测及目标价格等信息不再有效。
+# 行业投资评级的量化标准：
+看好：相对强于市场基准指数收益率 $5 \%$ 以上；
+中性：相对于市场基准指数收益率在- $. 5 \% \sim + 5 \%$ 之间波动；
+看淡：相对于市场基准指数收益率在- $. 5 \%$ 以下。
+未评级：由于在报告发出之时该行业不在本公司研究覆盖范围内，分析师基于当时对该行业的研究状况，未给予投资评级等相关信息。
+暂停评级：由于研究报告发布当时该行业的投资价值分析存在重大不确定性，缺乏足够的研究依据支持分析师给出明确行业投资评级；分析师在上述情况下暂停对该行业给予投资评级信息，投资者需要注意在此报告发布之前曾给予该行业的投资评级信息不再有效。
+# HeadertTabl e_Discl ai mer 免责声明
+本证券研究报告（以下简称“本报告”）由东方证券股份有限公司（以下简称“本公司”）制作及发布。
+本报告仅供本公司的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告的全体接收人应当采取必要措施防止本报告被转发给他人。
+本报告是基于本公司认为可靠的且目前已公开的信息撰写，本公司力求但不保证该信息的准确性和完整性，客户也不应该认为该信息是准确和完整的。同时，本公司不保证文中观点或陈述不会发生任何变更，在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的证券研究报告。本公司会适时更新我们的研究，但可能会因某些规定而无法做到。除了一些定期出版的证券研究报告之外，绝大多数证券研究报告是在分析师认为适当的时候不定期地发布。
+在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需求。客户应考虑本报告中的任何意见或建议是否符合其特定状况，若有必要应寻求专家意见。本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并非作为或被视为出售或购买证券或其他投资标的的邀请或向人作出邀请。
+本报告中提及的投资价格和价值以及这些投资带来的收入可能会波动。过去的表现并不代表未来的表现，未来的回报也无法保证，投资者可能会损失本金。外汇汇率波动有可能对某些投资的价值或价格或来自这一投资的收入产生不良影响。那些涉及期货、期权及其它衍生工具的交易，因其包括重大的市场风险，因此并不适合所有投资者。
+在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任，投资者自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告主要以电子版形式分发，间或也会辅以印刷品形式分发，所有报告版权均归本公司所有。未经本公司事先书面协议授权，任何机构或个人不得以任何形式复制、转发或公开传播本报告的全部或部分内容。不得将报告内容作为诉讼、仲裁、传媒所引用之证明或依据，不得用于营利或用于未经允许的其它用途。
+经本公司事先书面协议授权刊载或转发的，被授权机构承担相关刊载或者转发责任。不得对本报告进行任何有悖原意的引用、删节和修改。
+提示客户及公众投资者慎重使用未经授权刊载或者转发的本公司证券研究报告，慎重使用公众媒体刊载的证券研究报告。
+# 东方证券研究所
+地址： 上海市中山南路 318号东方国际金融广场 26楼
+电话： 021-63325888
+传真： 021-63326786
+网址： www.dfzq.com.cn</t>
+  </si>
+  <si>
+    <t># 金银大幅波动后怎么看？
+# 2 月资产配置展望
+2026 年 02 月 04 日
+# 【策略观点】
+金银大幅波动后怎么看？沃什的政策主张可能导致实际利率上升和美元强势预期增强，从而对黄金价格构成利空影响。尤其是在 TIPS收益率上升时，黄金的持有成本增加，机构投资者可能会选择抛售黄金 ETF。从中期来看，沃什的政策确实对黄金的逻辑产生了一定的利空，尤其是随着强美元的预期加剧，黄金可能面临一定的压力，但全球经济和地缘政治的不确定性依然对黄金形成支撑，因此黄金的长期表现依然值得关注。所以，我们认为交易角度，仓位不足的高风险偏好投资者可以参与黄金白银博弈，低位补足仓位，但长期资产配置的角度，基于沃什对通胀控制与强美元政策的不确定性，适当减少黄金在资产组合中的配置比例。
+$\spadesuit$ 1 月风险资产定价边际修复，权益情绪回暖但分化较强；地缘与政治事件反复推升避险需求，黄金白银继续领跑。能源方面，伊朗局势升温使原油风险溢价抬升。
+$\spadesuit$ 股市结构性慢牛演绎、股债震荡再平衡。在风险偏好边际修复与政策预期支撑下，权益资产温和回暖，但行业分化显著，上游资源、有色金属及基建链条领涨，金融与消费相对承压，涨价链继续演绎；债券市场则在海外利率扰动与股市走强的情况下阶段性承压，10 年期国债收益率预计维持在 $1 . 8 \% - 1 . 9 \%$ 的区间内波动。
+$\spadesuit$ 商品呈现“地缘扰动加剧、实物资产风险溢价上行”的特征。有色金属走强主要受制造业景气回暖、AI算力等结构性需求释放支撑，同时供给端约束与战略资源属性强化，使价格中枢维持偏强。原油价格则对伊朗等中东局势高度敏感，冲突升温带来阶段性风险溢价，但从中期看全球供给增长或使油市面临过剩压力。贵金属方面，美元走弱、降息预期与地缘不确定性共振，叠加美元信用基础削弱与央行持续购金，推动黄金白银继续成为重要的避险与对冲资产。
+$\spadesuit$ 综合宏观修复进程、地缘政治不确定性及各类资产的相对表现，二月资产配置看好权益资产第二段春季行情，重视商品与资源金属方向，低配债券资产。参考配置为：股票大于商品大于债券。其中，商品配置可以以铜、铝等工业金属为主，以“贵金属 工业金属 能源化工”产业轮动主线，把握实体需求修复与补库存阶段的定价机会，同时兼顾稀土等战略资源品种；原油及能源相关资产以事件驱动型参与为主。权益资产配置上，更侧重自下而上的行业与主题选择，重点关注行业方向延续之前的观点，包括电子（存储/半导体等）、保险、传媒、机械设备、通信、化工等。重点关注主题为机器人、无人驾驶、AI应用等；债券资产则主要承担组合稳定对冲功能，以中短久期利率债和高等级信用债为主。
+# 【风险提示】
+$\spadesuit$ 全球经济放缓、大宗商品价格波动、地缘政治风险、数据统计存在误差等
+挖掘价值投资成长
+# 东方财富证券研究所
+证券分析师：陈果
+证书编号：S1160525040001
+证券分析师：姚皓天
+证书编号：S1160525110001
+# 相关研究
+《布局顺周期，基金经理如何展望2026？25Q4 基金持仓及文本透视》
+2026.01.27
+《南方中证 A500ETF，一键布局中国优质资产》
+2025.12.12
+《景气线索占比重新回升——25Q3 A 股财报分析（一）》
+2025.11.04
+《科技配置高企，基金经理怎么看Q4？——25Q3 基金持仓及文本透视》
+2025.11.03
+《科技高景气，中游盈利占比继续扩张——25中报业绩速览》
+2025.09.02
+# 正文目录
+1. 金银大幅波动之后怎么看？ 3  
+2. 资产1 月复盘：贵金属延续强势，风险资产修复.. 4   
+3. 国内股市：春季行情或有两段，继续关注涨价链.. 5  
+4. 国内债市：区间窄幅震荡. 6  
+5. 商品：金融预期向实体需求传导，关注地缘影响.... 8  
+6. 风险提示... ..11
+# 图表目录
+图表 1： 近期美元指数抬升.. 2  
+图表 2： 贵金属剧烈波动.  
+图表 3： 美联储降息预测.. 4  
+图表 4： 美国债务情况. 4  
+图表 5： 各类资产在2026 年年初涨幅情况. 5  
+图表 6： 一月行业涨多跌少，有色金属板块领涨. 6  
+图表 7： 日本国债收益率剧烈波动..  
+图表 8： 日元贬值情况.  
+图表 9： 国内国债表现相对稳健.  
+图表 10： 一月股债表现较好..  
+图表 11： 央行进行公开市场净投放，保持市场流动性.  
+图表 12： 制造业回暖.. 8  
+图表 13： 有色金属产量同比减缓. 8  
+图表 14： 伊朗原油产量处在高位 9  
+图表 15： 布伦特/迪拜原油价差走阔.. 9  
+图表 16： 2009年商品轮动 9
+# 1.金银大幅波动之后怎么看？
+1 月，贵金属市场整体表现较为强势，受到了地缘政治不确定性和避险需求的推动。美元指数的持续下跌以及全球政治风险加剧，引发了投资者的避险情绪，尤其是在格陵兰岛问题和中东紧张局势的背景下，资金从美元流出，转向黄金和白银等传统避险资产。全球经济的不确定性和货币政策的变动预期也进一步支撑了贵金属价格的上涨。
+图表 1：近期美元指数抬升  
+![](images/3c68c41c1509c240905997565dcacb1a35e292378c7a4752802a303d52336637.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+图表 2：贵金属剧烈波动  
+![](images/d060da91f808ae6eb845b725e0ff0d3b96c0a6d1cbe3e93f24a15bdbb47ac7c4.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+但是一月末贵金属市场经历了剧烈的回调，价格大幅下跌。北京时间1月31 日凌晨，现货黄金单日最大跌幅达 $1 2 . 9 2 \%$ ，最低触及 4682 美元/盎司，白银更是暴跌 $3 5 . 8 9 \%$ ，最低跌至 74.28 美元/盎司。这波暴跌的直接催化是凯文·沃什被提名为美联储主席，这一消息迅速改变了市场对美联储货币政策的预期。沃什可能的鹰派政策，尤其是在他的货币政策组合可能包括降息与缩表的情况下，美元走强的预期增加，导致贵金属出现剧烈波动。同时，极端的超买情绪导致了算法平仓和保证金上调的连锁反应，进一步加剧了价格波动。
+短期内，贵金属价格波动剧烈，尤其是黄金价格的剧烈回调。沃什作为新任美联储主席的提名是黄金逻辑的一个边际变化。作为鹰派人物，沃什的提名使得市场对美元走强的预期再度升温，特别是由于他可能采取更加严格的货币政策，尤其是缩表措施，这可能导致真实利率上升，从而给黄金带来压力。
+沃什的政策主张可能导致实际利率上升和美元强势预期增强，从而对黄金价格构成利空影响。尤其是在 TIPS 收益率上升时，黄金的持有成本增加，机构投资者可能会选择抛售黄金ETF。从中期来看，沃什的政策确实对黄金的逻辑产生了一定的利空，尤其是随着强美元的预期加剧，黄金可能面临一定的压力，但全球经济和地缘政治的不确定性依然对黄金形成支撑，因此黄金的长期表现依然值得关注。
+所以，我们认为交易角度，仓位不足的高风险偏好投资者可以参与黄金白银博弈，低位补足仓位，但长期资产配置的角度，基于沃什对通胀控制与强美元政策的不确定性，适当减少黄金在资产组合中的配置比例。
+图表 3：美联储降息预测  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="9"&gt;CME FEDWATCH TOOL - CONDITIONAL MEETING PROBABILITIES&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MEETING DATE&lt;/td&gt;&lt;td&gt;200-225&lt;/td&gt;&lt;td&gt;225-250&lt;/td&gt;&lt;td&gt;250-275&lt;/td&gt;&lt;td&gt;275-300&lt;/td&gt;&lt;td&gt;300-325&lt;/td&gt;&lt;td&gt;325-350&lt;/td&gt;&lt;td&gt;350-375&lt;/td&gt;&lt;td&gt;375-400&lt;/td&gt;&lt;td&gt;400-425&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/3/18&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;86.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/4/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;27.0%&lt;/td&gt;&lt;td&gt;70.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/6/17&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;13.7%&lt;/td&gt;&lt;td&gt;46.9%&lt;/td&gt;&lt;td&gt;38.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/7/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;5.4%&lt;/td&gt;&lt;td&gt;25.1%&lt;/td&gt;&lt;td&gt;43.9%&lt;/td&gt;&lt;td&gt;25.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/9/16&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;13.3%&lt;/td&gt;&lt;td&gt;32.6%&lt;/td&gt;&lt;td&gt;36.4%&lt;/td&gt;&lt;td&gt;15.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/10/28&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;17.6%&lt;/td&gt;&lt;td&gt;33.5%&lt;/td&gt;&lt;td&gt;31.7%&lt;/td&gt;&lt;td&gt;11.8%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/12/9&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;td&gt;24.0%&lt;/td&gt;&lt;td&gt;32.8%&lt;/td&gt;&lt;td&gt;23.6%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/1/27&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;8.4%&lt;/td&gt;&lt;td&gt;21.1%&lt;/td&gt;&lt;td&gt;30.9%&lt;/td&gt;&lt;td&gt;25.5%&lt;/td&gt;&lt;td&gt;10.4%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/3/17&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;21.2%&lt;/td&gt;&lt;td&gt;30.9%&lt;/td&gt;&lt;td&gt;25.4%&lt;/td&gt;&lt;td&gt;10.4%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/4/28&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;8.0%&lt;/td&gt;&lt;td&gt;20.3%&lt;/td&gt;&lt;td&gt;30.3%&lt;/td&gt;&lt;td&gt;25.8%&lt;/td&gt;&lt;td&gt;11.4%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/6/9&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;19.5%&lt;/td&gt;&lt;td&gt;29.6%&lt;/td&gt;&lt;td&gt;26.1%&lt;/td&gt;&lt;td&gt;12.4%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/7/28&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;7.1%&lt;/td&gt;&lt;td&gt;18.4%&lt;/td&gt;&lt;td&gt;28.7%&lt;/td&gt;&lt;td&gt;26.4%&lt;/td&gt;&lt;td&gt;13.6%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/9/15&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;18.3%&lt;/td&gt;&lt;td&gt;28.6%&lt;/td&gt;&lt;td&gt;26.4%&lt;/td&gt;&lt;td&gt;13.7%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/10/27&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;17.3%&lt;/td&gt;&lt;td&gt;27.7%&lt;/td&gt;&lt;td&gt;26.6%&lt;/td&gt;&lt;td&gt;14.9%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/12/8&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;8.6%&lt;/td&gt;&lt;td&gt;19.2%&lt;/td&gt;&lt;td&gt;27.5%&lt;/td&gt;&lt;td&gt;24.4%&lt;/td&gt;&lt;td&gt;12.9%&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：CME，东方财富证券研究所
+图表 4：美国债务情况  
+![](images/d7c3bb30d4a1207e7a624c7ba98bdfa90ee865c66ee4dfd850c361f5f5dcdcac.jpg)  
+资料来源：Tradingeconomics，MacroMicro，东方财富证券研究所
+综合宏观修复进程、地缘政治不确定性及各类资产的相对表现，二月资产配置看好权益资产第二段春季行情，重视商品与资源金属方向，低配债券资产。参考配置为：股票大于商品大于债券。其中，商品配置可以以铜、铝等工业金属为主，顺应“贵金属 工业金属 能源化工”的产业轮动主线，把握实体需求修复与补库存阶段的定价机会，同时兼顾稀土等战略资源品种；原油及能源相关资产以事件驱动型参与为主。权益资产配置上，更侧重自下而上的行业与主题选择，重点关注行业方向延续之前的观点，包括电子（存储/半导体等）、保险、传媒、机械设备、通信、化工等。重点关注主题为机器人、无人驾驶、AI应用等。债券资产则主要承担组合稳定对冲功能，以中短久期利率债和高等级信用债为主。
+# 2.资产 1月复盘：贵金属延续强势，风险资产修复
+展望二月，市场对风险资产的定价仍处于边际修复与结构分化并存的阶段，而这一特征在一月的资产表现中已初步显现。但不同资产之间分化仍然存在。从驱动因素看，2026年1月，一方面地缘与政治事件反复发酵，推动贵金属价格持续走强，黄金与白银成为本轮行情中最为突出的资产类别；另一方面，科技与有色板块在产业与事件催化下维持相对活跃，带动股市整体情绪回暖。不过，国内债券表现相对分化，防御属性阶段性弱化。
+资产表现来看，贵金属延续强势走势。2025 年 11 月至 2026 年 1 月 28日，COMEX 白银累计涨幅高达 $1 3 1 . 6 1 \%$ ，表现显著领先于其他大类资产；COMEX 黄金累计上涨 $2 6 . 4 4 \%$ ，在不确定性上升背景下，避险与对冲属性持续凸显。相较之下，权益市场整体呈现温和上行态势。
+图表 5：各类资产在 2026 年年初涨幅情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2025.11&lt;/td&gt;&lt;td&gt;2025.12&lt;/td&gt;&lt;td&gt;2026.1&lt;/td&gt;&lt;td&gt;总涨幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;COMEX白银&lt;/td&gt;&lt;td&gt;15.82%&lt;/td&gt;&lt;td&gt;37.24%&lt;/td&gt;&lt;td&gt;45.72%&lt;/td&gt;&lt;td&gt;131.61%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;COMEX黄金&lt;/td&gt;&lt;td&gt;5.71%&lt;/td&gt;&lt;td&gt;2.38%&lt;/td&gt;&lt;td&gt;16.83%&lt;/td&gt;&lt;td&gt;26.44%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;-0.18%&lt;/td&gt;&lt;td&gt;-0.88%&lt;/td&gt;&lt;td&gt;8.57%&lt;/td&gt;&lt;td&gt;7.41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳指&lt;/td&gt;&lt;td&gt;-1.51%&lt;/td&gt;&lt;td&gt;-0.53%&lt;/td&gt;&lt;td&gt;2.65%&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;-0.05%&lt;/td&gt;&lt;td&gt;1.94%&lt;/td&gt;&lt;td&gt;2.01%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证综合&lt;/td&gt;&lt;td&gt;-1.67%&lt;/td&gt;&lt;td&gt;2.06%&lt;/td&gt;&lt;td&gt;4.60%&lt;/td&gt;&lt;td&gt;4.97%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;-2.46%&lt;/td&gt;&lt;td&gt;2.28%&lt;/td&gt;&lt;td&gt;1.90%&lt;/td&gt;&lt;td&gt;1.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成份&lt;/td&gt;&lt;td&gt;-2.95%&lt;/td&gt;&lt;td&gt;4.17%&lt;/td&gt;&lt;td&gt;6.05%&lt;/td&gt;&lt;td&gt;7.21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板&lt;/td&gt;&lt;td&gt;-4.23%&lt;/td&gt;&lt;td&gt;4.93%&lt;/td&gt;&lt;td&gt;3.76%&lt;/td&gt;&lt;td&gt;4.27%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;-4.12%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;6.00%&lt;/td&gt;&lt;td&gt;1.81%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中债国债&lt;/td&gt;&lt;td&gt;-0.34%&lt;/td&gt;&lt;td&gt;-0.37%&lt;/td&gt;&lt;td&gt;0.40%&lt;/td&gt;&lt;td&gt;-0.31%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中债信用债&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;0.29%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;南华期货&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;3.09%&lt;/td&gt;&lt;td&gt;8.93%&lt;/td&gt;&lt;td&gt;12.90%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：choice宏观经济数据库，东方财富证券研究所注：截至 20260128
+海外市场方面，美股指数整体表现相对稳健，截至2026年 1月 28 日（下同），1 月纳斯达克指数和标普 500 指数分别上涨 $2 . 6 5 \%$ 和 $1 . 9 4 \%$ ，在风险偏好边际修复背景下录得温和反弹，但自 2025 年 11 月以来累计涨幅仍然有限，整体以震荡修复为主。日本股市延续相对强势，日经 225指数2026 年1月上涨 $6 \%$ 。港股市场波动相对较大，恒生指数 1 月上涨 $8 . 5 7 \%$ ，但此前连续回调后基数较低，整体仍处于低位震荡修复格局。
+国内市场方面，1 月 A 股整体呈现结构性修复特征。上证综指当月上涨$4 . 6 \%$ ，深证成份指数和创业板指数分别上涨 $6 . 0 5 \%$ 和 $3 . 7 6 \%$ ，相对表现占优，而沪深 300 指数仅上涨 $1 . 9 \%$ ，权重板块修复节奏偏慢。整体来看，资金更多流向成长与中小市值方向，市场内部分化依然明显。政策层面，围绕再贷款工具及房地产相关预期的边际改善，对风险偏好形成一定支撑，但对指数层面的拉动仍相对有限。
+商品市场方面，1月延续回暖趋势，南华商品指数当月上涨 $8 . 9 3 \%$ ，2025年 11 月至今累计涨幅 $12 . 9 \%$ ，商品价格中枢明显抬升。贵金属表现尤为突出，COMEX白银1 月大幅上涨 $4 5 . 7 2 \%$ ，阶段性累计涨幅高达 $1 3 1 . 6 1 \%$ ；COMEX黄金1 月上涨 $1 6 . 8 3 \%$ ，累计涨幅 $2 6 . 4 4 \%$ ，在不确定性上升背景下持续体现避险与对冲属性。
+债券市场方面，1 月防御属性继续弱化，整体表现相对平淡。中债国债指数当月小幅上涨 $0 . 4 \%$ ，但 2025 年 11 月至今仍小幅下跌 $0 . 3 1 \%$ ；信用债指数1 月上涨 $0 . 2 9 \%$ ，累计涨幅 $0 . 4 6 \%$ 。在海外利率扰动与风险偏好边际回升的背景下，资金对债券的配置意愿有所下降。综合来看，1 月市场更多体现为在政策预期与事件扰动下，资金在权益、商品与贵金属之间进行再平衡配置，而贵金属的持续走强既反映阶段性的避险需求，也包含对货币环境与信用体系不确定性的前瞻性定价。
+# 3.国内股市：春季行情或有两段，继续关注涨价链
+进入二月，我们认为市场仍运行在结构性慢牛格局之中，行业表现或继续围绕资源、科技等高景气方向展开，而一月板块走势已率先呈现出“上游资源与基建链条领涨、金融与消费相对承压”的结构性特征。截至 2026年 1月 28 日
+有色金属板块表现最为突出，涨幅达到 $3 0 . 7 9 \%$ ，主要受益于贵金属价格大幅走强、资源品风险溢价抬升，带动板块整体上行。紧随其后的是石油石化和传媒板块，涨幅分别为 $1 4 . 3 9 \%$ 和 $1 4 . 1 2 \%$ ，显示出能源和传媒在当前市场环境中的活跃度。基建相关的板块也表现不俗，建筑材料涨幅达到 $1 3 . 6 6 \%$ ，钢铁涨幅为 $9 . 9 4 \%$ 。这些行业的表现反映出市场对稳增长政策的预期，以及基建投资对相关产业链的持续支撑。
+此外，周期性行业如煤炭、计算机和电子板块的涨幅也表现较好，分别为7.33%、9.07%和 $1 3 . 8 1 \%$ ，显示出在供给端约束强化与需求边际企稳的背景下，这些行业的基本面修复预期逐步增强。
+图表 6：一月行业涨多跌少，有色金属板块领涨  
+![](images/469f6709c4bc828493b01c6dbdce939ef88a981311ebccb0e9b91a5d917f51ba.jpg)  
+资料来源：Choice数据浏览器，东方财富证券研究所  
+注：截至 20260128 行业按照申万分类
+相比之下，金融与消费类板块整体表现偏弱，特别是非银金融和银行板块，分别出现了-1.17%和- $. 7 . 6 8 \%$ 的跌幅，显示在风险偏好回升阶段，防御型行业的相对吸引力明显下降。食品饮料板块也下跌约 $3 . 3 9 \%$ ，进一步印证了这一趋势。总体来看，1 月行情呈现出典型的“慢牛 $^ { \cdot + }$ 强结构”特征，行业轮动较为频繁，资金持续向资源、基建与科技等高弹性方向集中，而金融与传统消费板块则阶段性承压。
+# 4.国内债市：区间窄幅震荡
+在政策托底与风险偏好回升并存的环境下，二月国内债市或维持区间震荡走势，而海外利率资产波动，尤其是日本国债市场的调整，对全球债市形成明显扰动。海外利率资产波动显著放大，日本国债市场的剧烈调整成为近期全球债市的重要扰动源。1月20 日受集中抛售影响，日本超长期国债收益率快速上行，其中 40 年期国债收益率一度突破 $4 \%$ ，创该期限设立以来新高，10 年期国债收益率亦升至近二十余年来高位。从原因上看，市场对日本解除众议院后的财政状况的担忧有所升温，尤其是围绕财政政策取向及消费税减税安排的不确定性，放大了期限较长国债的抛售压力。
+图表 7：日本国债收益率剧烈波动  
+![](images/759c0d635f9e9c749c78c0080884c096a4c6cf19a078eec4e12141b8276a7b29.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+图表 8：日元贬值情况  
+![](images/2254c2cbcb7fb68b08bc119bf07edbdf7726fed2312cb96297d88f16848d0fb6.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+1 月23 日，日元兑美元汇率经历了显著的“V型反转”主要受到美联储执行“汇率检查”信号的推动，暗示美日可能协同干预汇率。此举背后反映了美国与日本的金融合作，旨在维护美债市场稳定，并防止日元过度贬值对美国金融稳定产生影响。
+国内国债市场整体保持震荡偏稳格局。2025 年 12 月以来，10 年期国债收益率虽然有阶段性上行，但随后回落，显示利率上行空间仍受基本面与政策预期约束；与此同时，10—1 年期国债期限利差走阔，反映市场对短端政策利率稳定预期较强，而长端对风险扰动的敏感度有所提升。整体来看，国内债市运行节奏相对有序，未出现明显流动性冲击。
+在1月，股市和债市之间的“跷跷板”效应先显现后逐渐趋于不明显。具体来看，初期股市表现强劲，推动了风险偏好的回升，债市则因资金流出而承压，尤其是在 2025 年 12 月底 1 月初，债市表现较弱，10 年期国债收益率一度上升至 $1 . 9 \%$ 的水平左右。然而，随着股市的持续上涨，债市逐步回稳，利率开始趋于稳定并小幅回落，这一变化主要源于政策的支持和市场预期的稳定。
+图表 9：国内国债表现相对稳健  
+![](images/80586bf1f032e878846f4f64fefc9260564bed90481972abf30df43367f521a4.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+图表 10：一月股债表现较好  
+![](images/ea2be2f2f305f87557ed6fcdeccc9b7c170ed932d0d01e0080186e89c267f7d2.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+在此过程中，央行灵活适度的货币政策保持了较好的流动性，防止了市场过度波动。而银行、保险等机构的配置需求持续存在，进一步支撑了债市的稳定性。此外，政策对债市的调控及对长期利率的相对宽松预期，帮助债市在股市风险偏好提升的背景下，逐步恢复了平稳走势。
+图表 11：央行进行公开市场净投放，保持市场流动性
+![](images/a907fedd6a235c76e5eb5554f545357d0ae900ec16fe3be63eac10bdae4ec17d.jpg)  
+资料来源：财联社，东方财富证券研究所
+展望未来，债市的总体趋势将继续受到政策支持的支撑，但由于股市的强势表现和风险偏好的回升，债市可能会维持区间震荡的态势。短期内，10年期国债收益率可能在 $1 . 8 \% - 1 . 9 \%$ 的区间内震荡波动。整体来看，债市将保持稳定，但上涨空间有限，收益率大概率维持在一个相对狭窄的区间内。
+# 5.商品：金融预期向实体需求传导，关注地缘影响
+展望二月，宏观需求修复对商品价格形成支撑，而在多重地缘扰动下，有色金属与原油的定价逻辑进一步分化。近期有色金属板块走强，核心在于制造业景气修复与需求预期改善形成共振。随着PMI持续回升并接近荣枯线，制造业活动边际回暖迹象明确，叠加AI算力、新能源、电网投资等结构性需求持续释放，有色金属作为基础工业原材料的需求韧性逐步显现。在宏观经济处于“慢牛”阶段的背景下，市场对顺周期品种的风险偏好抬升，推动有色板块估值中枢上移。
+图表 12：制造业回暖  
+![](images/0fa4f377d73e4e9be69f3172149b47d8aa99dd4fae704820a20ebe8b2d347a8e.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+图表 13：有色金属产量同比减缓  
+![](images/6bcdee18cd9d4c073608bb5743de4868c1fa680a66a499e68a8b76c7b19a5720.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+从供给端来看，受资源禀赋、环保约束及能源成本等因素制约，有色金属产量虽保持稳定增长，但整体弹性有限，供需结构边际趋紧。同时，全球地缘
+政治不确定性及关税政策扰动加剧，有色金属的战略资源属性进一步强化，部分品种被纳入战略储备预期，风险溢价上行。综合来看，在需求修复与供给约束并存的背景下，有色金属价格中枢有望维持偏强运行。
+图表 14：伊朗原油产量处在高位  
+![](images/0ad5316ee634954043c9d075122f790e05be56303afcf107de44417a347e33ac.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+图表 15：布伦特/迪拜原油价差走阔  
+![](images/ab684ac34c758c72d38775adf8f1b5288b14e4fd0228b7c472edc785917d10a4.jpg)  
+资料来源：Choice宏观经济数据库，东方财富证券研究所
+近期油价在上周后半段明显走强，主要受到多重地缘政治因素叠加影响：一方面，特朗普公开表态将持续关注伊朗局势，叠加“林肯号”母打击群在中东部署到位，市场对伊朗相关风险的定价迅速抬升；另一方面，美俄乌三方 2026年 1 月 23 日开始的谈判未释放积极信号，美俄双方会后均未给出官方结论，显示冲突短期内难以实质性缓和，进一步强化了市场对地缘不确定性的风险定价。除地缘因素外，据能源咨询机构 Energy Aspects 测算，美国寒潮已造成最高约200 万桶/日的油田产量损失，且持续时间尚不明朗，该不确定性在短期内对油价形成支撑。
+当前全球石油价格的波动主要由地缘政治和短期扰动因素驱动，而非基本面的供需失衡，因为全球石油供应持续增长，IEA 预计 2026 年供应很可能再增加 250万桶/日，而需求仅增加 93万桶/日，市场将面临显著的供给过剩。
+图表 16：2009 年商品轮动  
+![](images/5c94bb96bc07e6a1693a8f8dbe322fb4f2667a81681b41e979540cd740c5c89d.jpg)  
+资料来源： Choice宏观经济数据库，陶丽萍《2009年美国经济形势分析及 2010年展望》，东方财富证券研究所
+当前大宗商品上涨沿着“贵金属 工业金属 能源化工 农产品”的经典轮动路径演绎，本质是从金融预期驱动逐步向实体需求验证与成本扩散传导。参考 2009 年金融危机后复苏阶段，黄金率先启动反映流动性宽松与避险情绪，随后铜铝等工业金属接力上行，标志着实体需求改善与补库存周期开启，之后原油及化工品补涨带动成本端全面抬升，最终向农产品与终端通胀扩散。当前金银已领涨，铜等工业金属正处于接力阶段，后续能源（原油、天然气）、化工链条及部分农产品仍具补涨空间，其中铜、原油、稀土及农产品或将成为下一阶段轮动主线与弹性方向。
+# 6.风险提示
+1）全球经济放缓风险：若全球主要经济体增长不及预期，特别是中国和美国的经济放缓，可能导致全球需求萎缩，对大宗商品、股市及债市产生负面影响，尤其是消费、科技和周期性板块。  
+2）大宗商品价格波动：大宗商品，尤其是能源和贵金属的价格可能因供需变化、政策调整或国际冲突发生剧烈波动，进而影响相关行业和投资回报。  
+3）地缘政治风险：全球范围内的地缘政治事件，尤其是中东、欧洲及美国与其他大国之间的紧张局势，可能引发市场波动，影响风险资产定价，并进一步加剧全球经济的不确定性。  
+4）数据统计存在误差。
+# 分析师申明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响。
+# 投资评级说明
+报告中所涉及的评级分为股票评级和行业评级（另有说明的除外）。评级标准为以报告发布日后的 3-12个月内的公司股价（或行业指数）相对同期相关证券市场代表性指数的涨跌幅。其中：A 股市场以沪深 300 指数为基准；新三板市场以三板成指为基准；香港市场以恒生指数为基准；美国市场以标普 500 指数为基准。
+# 股票评级
+买入：相对同期相关证券市场代表性指数涨幅 $1 5 \%$ 以上；
+增持：相对同期相关证券市场代表性指数涨幅介于 $5 \% \sim 1 5 \%$ 之间；
+中性：相对同期相关证券市场代表性指数涨跌幅介于- $. 5 \% \sim 5 \%$ 之间；
+减持：相对同期相关证券市场代表性指数跌幅介于 $1 5 \% \sim 5 \%$ 之间；
+卖出：相对同期相关证券市场代表性指数跌幅 $1 5 \%$ 以上。
+# 行业评级
+强于大市：相对同期相关证券市场代表性指数涨幅 $10 \%$ 以上；
+中性：相对同期相关证券市场代表性指数涨跌幅介于- $. 1 0 \% \sim 1 0 \%$ 之间；
+弱于大市：相对同期相关证券市场代表性指数跌幅 $10 \%$ 以上。
+# 免责声明
+东方财富证券股份有限公司（以下简称“本公司”）具有中国证监会核准的证券投资咨询业务资格。
+本报告由本公司制作及在中华人民共和国（香港和澳门特别行政区、台湾省除外）发布。
+本报告仅供本公司的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。
+本报告信息均来源于公开资料或本公司认为可靠的资料，但本公司对该等信息的真实性、准确性和完整性不作任何保证。本报告所载的资料、意见及预测仅反映报告出具日的判断，且预测方法及结果存在一定程度局限性。在不同时期，本公司可发出与本报告所刊载的意见、预测不一致的报告，但本公司没有义务和责任及时更新本报告所涉及的内容并通知客户。
+本报告所载的盈利预测、评级、估值等观点，均基于特定的假设和前提条件，不构成所述证券买卖的出价或征价，亦不构成对具体证券在具体价位、具体时点、具体市场表现的投资建议。
+在任何情况下，本报告的内容不构成对任何人的投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需求。客户需充分考虑自身特定状况，不应单纯依靠本报告所载的内容而取代个人的独立判断。本公司不对任何人因使用本报告所载任何内容所引致的任何损失负任何责任，投资者需自行承担风险。
+在法律允许的情况下，本公司或其关联机构可能会持有报告中提到的公司所发行的证券头寸并进行交易，也可能为这些公司提供或争取提供投资银行、财务顾问等服务。客户应充分考虑可能存在的利益冲突，勿将本报告作为投资决策的唯一参考依据。
+本报告版权均归本公司所有，未经本公司事先书面授权，任何机构或个人不得以任何形式复制、发布、传播本报告的全部或部分内容。经授权刊载、转发本报告或者摘要的，应当注明本报告发布人和发布日期，并提示使用本报告的风险。未经授权或未按要求刊载、转发本报告的，应当承担相应的法律责任。本公司将保留向其追究法律责任的权利。</t>
+  </si>
+  <si>
+    <t>![](images/d900b8c8e60289a1b1e68349441f558974de10cd16ef941fac883b7d6da5eec2.jpg)  
+大盘指数
+![](images/712581726971e1a59de26a4cd08ae09d0ae86104668c1410c9efe17c96309f48.jpg)  
+资料来源：聚源，中邮证券研究所
+# 研究所
+分析师:黄子崟
+SAC 登记编号:S1340523090002
+Email:huangziyin@cnpsec.com
+# 近期研究报告
+《枪炮与黄油-2026 年度投资策略》 -2026.01.27
+# 策略观点
+# 业绩之锚 6：A 股对业绩预告的反应机制与偏好
+# ⚫ 投资要点
+2025年报业绩预告显示A股业绩延续2025三季报以来的改善趋势。单纯从业绩预告的预喜率（预增、略增、续盈、扭亏）和预忧率（预减、略减、首亏、续亏）来看，A股上市公司在 2025年报或将出现边际回升。根据 2025 年报的业绩预告，预增和扭亏上市公司数量和占比显著提升，同时预减和首亏数量同比也明显减少。但续亏的上市公司数量和占比较 2024 财年也有明显上升，说明业绩的好转是分化的，仍有相当数量的上市公司陷在连年亏损的桎梏之中。
+回溯2019-2024年报业绩预告发布后的个股相对万得全A超额收益，预喜预忧并不是一个很好的选股依据。发现除了发布续亏业绩预告的个股外（30天胜率 $4 2 . 8 \%$ ，60天胜率 $4 4 . 7 \%$ ），其他喜忧分类之间的胜率差距并不大，也就预增分类在两个时间截面上的胜率均超过了 $50 \%$ （30天胜率 $5 0 . 8 \%$ ，60 天胜率 $5 3 . 6 \%$ ）。显然市场并不会简单根据业绩预告的喜忧分类给予股价上的反馈。
+由于股票价格是对投资者对公司未来回报的折现，而公司业绩是校准投资者预期的锚，因此应当将投资者对公司业绩的预期纳入考量之中。在对公司业绩预告中的净利增速范围和万得一致预期进行比较后，可以引入业绩预告是否及预期的新维度无论是在 30天还是60天时间截面上，个股超额收益率的胜率大致符合“超预期&gt;符合预期&gt;不及预期”。也就是说业绩是否超预期能成为一个可行的增强方向。
+使用“业绩预告增速—业绩预告超预期幅度”的二维空间进行搜索可以发现A 股对业绩预告的反应机制与偏好。基于 2019-2024财年业绩预告选出的30天和60 天时间截面组合所包括的样本点在“增速—超预期”二维空间上的分布。可见在 30 天时间截面上，市场仍会选择一些业绩预告高增的个股，要求的净利增速需要达到 $400 \%$ 以上。而在 60 天的时间截面上，统计数据显示高业绩预告的净利增速无法提供超额收益，选择的簇集中于略增的分类，体现了符合预期的可持续温和增速在更长时间维度上获得超额收益的确定性。同时也需要注意某些预忧分类的簇在30天和60天时间截面上都展现出了良好的胜率和赔率，也反应了市场对于业绩下滑确实存在“利空出尽是利好”的反应机制。
+基于 A 股对业绩预告的反应机制与偏好，在此也构建了 2025 年报业绩预告的30 天和60天可行股票池。
+# 风险提示：
+统计存在误差、市场学习效应等
+# 目录
+1 预喜率回升，延续 2025 三季报以来的改善趋势 4   
+2 如何从业绩预告中获得超额收益？ 6
+2.1 A 股市场对业绩预告中喜忧分类的反应机制 . 6  
+2.2 A 股市场对业绩预告是否超预期的反应机制 . 8  
+2.3 如何基于业绩预告构建投资组合 . 10
+3 根据 2025 年报业绩预告构建超额收益策略组合 14  
+4 风险提示 .. 16
+CHINA POST SECURITIES
+# 图表目录
+图表 1： 2025 年报业绩预告预喜率较 2024 年和 2023 年较高 . 4  
+图表 2： 2025年报业绩预告各行业披露数量及占比(%) . 5  
+图表 3： 各行业2023-2025 年报业绩预告预喜概率（%） 5  
+图表 4： 2019-2024 年报业绩预告各喜忧分类胜率（%） 6  
+图表 5： 业绩预告预喜分类个股 30天胜率（%）  
+图表 6： 业绩预告预喜分类个股 60天胜率（%）  
+图表 7： 业绩预告预忧分类个股 30天胜率（%）  
+图表 8： 业绩预告预忧分类个股 60 天胜率（%）  
+图表 9： 业绩预告预忧分类个股 30天赔率（%） 8  
+图表 10： 业绩预告预忧分类个股 60天赔率（%） 8  
+图表 11： 业绩预期是否及预期维度个股 30天胜率（%） 8  
+图表 12： 业绩预期是否及预期维度个股 60天胜率（%） 8  
+图表 13： 业绩预期是否及预期维度个股 30天赔率（%）  
+图表 14： 业绩预期是否及预期维度个股 60天赔率（%）  
+图表 15： 引入业绩预期维度后的喜忧分类 30 天胜率(%) 10  
+图表 16： 引入业绩预期维度后的喜忧分类 60 天胜率(%) 10  
+图表 17： 引入业绩预期维度后的喜忧分类 30 天赔率(%) 10  
+图表 18： 引入业绩预期维度后的喜忧分类 60 天赔率(%) 10  
+图表 19： 2019-2024 财年全样本 30 天赔率（%） 11  
+图表 20： 2019-2024 财年全样本 60 天赔率（%） 11  
+图表 21： 各喜忧分类聚类法下中心簇对应的胜率和赔率 11  
+图表 22： 2019-2024 财年组合内样本 30 天赔率（%） 13  
+图表 23： 2019-2024 财年组合内样本 60 天赔率（%） 13  
+图表 24： 业绩预告30天组合历史回测 . 13  
+图表 25： 业绩预告60天组合历史回测 . 13  
+图表 26： 基于 2025年业绩预告的 60天组合 . 14  
+图表 27： 基于 2025 年业绩预告的 30 天组合 . 15
+至 2026 年 1 月 31 日，A 股上市公司已完成 2025 年度业绩预告披露，为当前缺乏经济和财务数据指引的 A股提供了校准股价预期的业绩之锚。在本篇报告中我们从 A 股上市公司的 2025 年度业绩预告喜忧出发，结合市场一致预期和历史市场定价行为，在揭示市场如何运用业绩预告校准股价的同时也尝试发掘在一季度能够从业绩预告定价中获得相对收益的个股组合。
+# 1 预喜率回升，延续 2025 三季报以来的改善趋势
+2025 年报业绩预告显示 A 股业绩延续 2025 三季报以来的改善趋势。单纯从业绩预告的预喜率（预增、略增、续盈、扭亏）和预忧率（预减、略减、首亏、续亏）来看，A 股上市公司在 2025 年报或将出现边际回升。根据 2025 年报的业绩预告，预增和扭亏上市公司数量和占比显著提升，同时预减和首亏数量同比也明显减少。但续亏的上市公司数量和占比较 2024 财年也有明显上升，说明业绩的好转是分化的，仍有相当数量的上市公司陷在连年亏损的桎梏之中。
+图表1：2025 年报业绩预告预喜率较 2024 年和 2023 年较高  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;预告类型&lt;/td&gt;&lt;td colspan="3"&gt;2025&lt;/td&gt;&lt;td colspan="3"&gt;2024&lt;/td&gt;&lt;td colspan="3"&gt;2023&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;个数&lt;/td&gt;&lt;td colspan="2"&gt;占比&lt;/td&gt;&lt;td&gt;个数&lt;/td&gt;&lt;td colspan="2"&gt;占比&lt;/td&gt;&lt;td&gt;个数&lt;/td&gt;&lt;td colspan="2"&gt;占比&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;597&lt;/td&gt;&lt;td&gt;21.2%&lt;/td&gt;&lt;td rowspan="4"&gt;36.9%&lt;/td&gt;&lt;td&gt;494&lt;/td&gt;&lt;td&gt;18.4%&lt;/td&gt;&lt;td rowspan="4"&gt;32.8%&lt;/td&gt;&lt;td&gt;608&lt;/td&gt;&lt;td&gt;22.0%&lt;/td&gt;&lt;td rowspan="4"&gt;41.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;90&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;147&lt;/td&gt;&lt;td&gt;5.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续盈&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;扭亏&lt;/td&gt;&lt;td&gt;361&lt;/td&gt;&lt;td&gt;12.8%&lt;/td&gt;&lt;td&gt;289&lt;/td&gt;&lt;td&gt;10.7%&lt;/td&gt;&lt;td&gt;365&lt;/td&gt;&lt;td&gt;13.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预减&lt;/td&gt;&lt;td&gt;344&lt;/td&gt;&lt;td&gt;12.2%&lt;/td&gt;&lt;td rowspan="4"&gt;63.1&lt;/td&gt;&lt;td&gt;451&lt;/td&gt;&lt;td&gt;16.8%&lt;/td&gt;&lt;td rowspan="4"&gt;67.2%&lt;/td&gt;&lt;td&gt;485&lt;/td&gt;&lt;td&gt;17.5%&lt;/td&gt;&lt;td rowspan="4"&gt;59.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;58&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;首亏&lt;/td&gt;&lt;td&gt;433&lt;/td&gt;&lt;td&gt;15.4%&lt;/td&gt;&lt;td&gt;553&lt;/td&gt;&lt;td&gt;20.5%&lt;/td&gt;&lt;td&gt;456&lt;/td&gt;&lt;td&gt;16.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续亏&lt;/td&gt;&lt;td&gt;960&lt;/td&gt;&lt;td&gt;34.1%&lt;/td&gt;&lt;td&gt;777&lt;/td&gt;&lt;td&gt;28.9%&lt;/td&gt;&lt;td&gt;631&lt;/td&gt;&lt;td&gt;22.8%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+发布 2025 年报业绩预告的公司数量基本和过去两年持平，在公司的行业分布上以电子、机械设备、医药生物、计算机、基础化工和电力设备 6 大行业为主。除银行、非银金融、交通运输、公用事业和家用电器等行业外，大部分申万一级行业的业绩预告披露率都大致达到了 $50 \%$ ，因此对于大部分行业而言，本次业绩预告对最终的年报有着较强的指引作用。
+图表2：2025 年报业绩预告各行业披露数量及占比(%)  
+![](images/737d79e8ca02a90d0c628b27194363c2e7866fabc9a97fe5b8b24ea419157b19.jpg)  
+资料来源：Wind，中邮证券研究所
+申万一级行业层面预喜概率普遍回升，非银金融、美容护理、汽车、公用事业、家用电器等 10 个行业的预喜概率达到 $50 \%$ ，煤炭、综合、房地产、国防军工、电子预喜率倒数。如果对比 2024 年同期，纺织服饰、传媒、钢铁、商贸零售、社会服务的预喜概率大幅提升。
+图表3：各行业 2023-2025 年报业绩预告预喜概率（%）  
+![](images/e450797d533afd5baf17f62215dc9242612b3abc24de0afa0a6902cc92703eba.jpg)  
+资料来源：Wind，中邮证券研究所
+# 2 如何从业绩预告中获得超额收益？
+# 2.1 A 股市场对业绩预告中喜忧分类的反应机制
+回溯 2019-2024年报业绩预告发布后的个股相对万得全 A超额收益，预喜预忧并不是一个很好的选股依据。如图 4 所示的是 2019-2024 财年公布年报业绩预告后以喜忧分类个股相较万得全 A 获得超额收益的概率（胜率），以业绩预告公布后 30 天和 60 天分类两档，可以发现除了发布续亏业绩预告的个股外（30 天胜率 $4 2 . 8 \%$ ，60 天胜率 $4 4 . 7 \%$ ），其他喜忧分类之间的胜率差距并不大，也就预增分类在两个时间截面上的胜率均超过了 $50 \%$ （30天胜率 50.8%，60 天胜率 $5 3 . 6 \% $ ）。显然市场并不会简单根据业绩预告的喜忧分类给予股价上的反馈。
+图表4：2019-2024 年报业绩预告各喜忧分类胜率（%）  
+![](images/648cf89d9ed870ee6d8c77765ac11cb5f914d1a4405373e2ff8b5104be29543f.jpg)  
+资料来源：Wind，中邮证券研究所
+从时间序列数据（如图5-8）来看，扭亏是最容易得到超额收益的预喜分类，在 2019-2024 财年的样本中，30 天截面上有 4 年获得超额收益的概率在 $50 \%$ 以上，60 天截面上仅 2023 年获得超额收益的概率在 $50 \%$ 以下。其余三个预喜分类中，略增和预增在 60 天时间截面上获得超额收益的概率尚可，而续盈在两个时间截面上的胜率都差强人意。
+图表5： 业绩预告预喜分类个股 30 天胜率（%）  
+![](images/dd173c868ed8c3371411a72ca66c00f7786314272dfde9a20214714644f9e281.jpg)  
+资料来源：Wind，中邮证券研究所
+图表6：业绩预告预喜分类个股 60 天胜率（%）  
+![](images/b888d7d78641645d657151ae793e2a35121cc210582bd2f4625300011590e355.jpg)  
+资料来源：Wind，中邮证券研究所
+在预忧分类中，各个细项的胜率走势之间并没有明显的差异，更多取决于当年的 A 股整体走势。于是在以喜忧分类衡量年报的业绩预告时也就得到了一个简单策略，买入业绩扭亏的个股在 2023 财年这样的极端熊市年份之外都有 $50 \%$ 以上的概率在 60 天能获得超额收益。而业绩预忧的个股在这个粗略的分类策略中属于是完全无法触碰的类型。
+图表7： 业绩预告预忧分类个股 30 天胜率（%）  
+![](images/43ae1d40b4b754b8a41a84246b723728ebcef1e028e0e19e5361b9a30be54567.jpg)  
+资料来源：Wind，中邮证券研究所
+图表8：业绩预告预忧分类个股 60 天胜率（%）  
+![](images/1eb6a95f545886f838eff0801e532a920b8a6bf824e8b9faf2711590af0c10ec.jpg)  
+资料来源：Wind，中邮证券研究所
+但如果细究不同喜忧分类的预期超额收益率，如图10-11所示，可以发现在30 天的时间截面上略减分类反而是预期超额收益率最高的。若单纯按照胜率分类就会错失预忧分类中潜在的高赔率机会。这一点在业绩之锚系列的开篇之作
+《业绩预告的喜忧与预期》中就有发现，也因此提出了基于市场一致预期对于财报业绩进行校准的基础方法。
+图表9：业绩预告预忧分类个股 30 天赔率（%）  
+![](images/850fbf1be01c6b52bee2046b2c85af8d170a04e9306ae5733aca4890f1623dc8.jpg)  
+资料来源：Wind，中邮证券研究所
+图表10：业绩预告预忧分类个股 60 天赔率（%）  
+![](images/f804957240e03092083209ee89668b8cee2ffea980b5cc2c118ccc583160537d.jpg)  
+资料来源：Wind，中邮证券研究所
+# 2.2 A 股市场对业绩预告是否超预期的反应机制
+由于股票价格是对投资者对公司未来回报的折现，而公司业绩是校准投资者预期的锚，因此应当将投资者对公司业绩的预期纳入考量之中。在对公司业绩预告中的净利增速范围和万得一致预期进行比较后，可以引入业绩预告是否及预期的新维度。如图 12-13所示，引入业绩预期维度后，无论是在 30 天还是60天时间截面上，个股获取超额收益率的胜率大致符合“超预期&gt;符合预期&gt;不及预期”。也就是说业绩是否超预期能成为一个可行的增强方向。
+![](images/cd7257cf97e867fd3047dccbc2e666422e1de93ae61f89e1dd2b4b98c540cd4e.jpg)  
+图表11： 业绩预期是否及预期维度个股 30 天胜率（%）
+![](images/0b55099a10e590e6568cb28baebe3b8812f602fc48bd1861db000eff17b0deba.jpg)  
+图表12：业绩预期是否及预期维度个股 60 天胜率（%）
+资料来源：Wind，中邮证券研究所
+资料来源：Wind，中邮证券研究所
+在引入业绩预期改善胜率之后，还需要思考的一个定量问题是 A股市场会对业绩预告的超预期给予足够奖励吗？从 2019-2024 财年的历史数据来看，A 股对于业绩预告超预期给予了明显的相对万得全 A 超额收益（赔率），赔率方面也基本符合“超预期&gt;符合预期&gt;不及预期”的直觉。因此，从统计角度来看，买业绩预告超预期在一季度不失为一个胜率和赔率双优的选择。
+图表13： 业绩预期是否及预期维度个股 30 天赔率（%）  
+![](images/b332e1573bd4658a68246985a1b9f13b1928a8e9a70fd453897801ec34b94d7d.jpg)  
+资料来源：Wind，中邮证券研究所
+图表14：业绩预期是否及预期维度个股 60 天赔率（%）  
+![](images/d3b506add36fd7948509481312cd848b3e291ece3be3eb161999c5d4142a336e.jpg)  
+资料来源：Wind，中邮证券研究所
+但一次性买入所有业绩预告超预期个股以量取胜显然是一个不现实的策略，在此选择以“预喜预忧+业绩预告是否及预期”的方式进行再分类。和“预喜+业绩超预期”将获得最高胜率和赔率的直觉不同，“首亏+业绩超预期”在胜率和赔率方面表现最佳，甚至“首亏+符合预期”也是高胜率且高赔率的组合。此外“预减+超预期”也是出人意料的高胜率且高赔率组合，“落难凤凰”类的个股在一季度或是更优选。而以预喜分类为基础的搭配中，仅“预增 $^ +$ 超预期”、“略增+超预期”和“略增+符合预期”在胜率和赔率方面较为令人满意。如此看来，业绩预告中的高增速或并不能指向股价方面的超额收益，这或许和市场的提前交易有关，也和长期以来 A股“利好落地即利空”的习惯相符。
+图表15：引入业绩预期维度后的喜忧分类 30 天胜率(%)  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;55.5%&lt;/td&gt;&lt;td&gt;48.3%&lt;/td&gt;&lt;td&gt;43.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;57.9%&lt;/td&gt;&lt;td&gt;58.0%&lt;/td&gt;&lt;td&gt;42.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续盈&lt;/td&gt;&lt;td&gt;25.0%&lt;/td&gt;&lt;td&gt;56.0%&lt;/td&gt;&lt;td&gt;44.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;扭亏&lt;/td&gt;&lt;td&gt;46.3%&lt;/td&gt;&lt;td&gt;45.0%&lt;/td&gt;&lt;td&gt;42.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预减&lt;/td&gt;&lt;td&gt;67.7%&lt;/td&gt;&lt;td&gt;51.6%&lt;/td&gt;&lt;td&gt;43.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;37.5%&lt;/td&gt;&lt;td&gt;44.7%&lt;/td&gt;&lt;td&gt;42.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;首亏&lt;/td&gt;&lt;td&gt;80.0%&lt;/td&gt;&lt;td&gt;62.5%&lt;/td&gt;&lt;td&gt;43.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续亏&lt;/td&gt;&lt;td&gt;47.2%&lt;/td&gt;&lt;td&gt;44.9%&lt;/td&gt;&lt;td&gt;39.8%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+图表16：引入业绩预期维度后的喜忧分类 60 天胜率(%)  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;57.2%&lt;/td&gt;&lt;td&gt;50.2%&lt;/td&gt;&lt;td&gt;43.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;66.4%&lt;/td&gt;&lt;td&gt;57.2%&lt;/td&gt;&lt;td&gt;49.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续盈&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;48.0%&lt;/td&gt;&lt;td&gt;44.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;扭亏&lt;/td&gt;&lt;td&gt;47.2%&lt;/td&gt;&lt;td&gt;43.4%&lt;/td&gt;&lt;td&gt;47.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预减&lt;/td&gt;&lt;td&gt;58.1%&lt;/td&gt;&lt;td&gt;48.4%&lt;/td&gt;&lt;td&gt;42.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;43.8%&lt;/td&gt;&lt;td&gt;55.3%&lt;/td&gt;&lt;td&gt;41.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;首亏&lt;/td&gt;&lt;td&gt;80.0%&lt;/td&gt;&lt;td&gt;56.3%&lt;/td&gt;&lt;td&gt;42.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续亏&lt;/td&gt;&lt;td&gt;44.4%&lt;/td&gt;&lt;td&gt;42.9%&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+图表17：引入业绩预期维度后的喜忧分类 30 天赔率(%)  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;-0.4%&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续盈&lt;/td&gt;&lt;td&gt;-7.9%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;-1.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;扭亏&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-0.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预减&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-5.3%&lt;/td&gt;&lt;td&gt;-0.4%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;首亏&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;-0.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续亏&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;-0.8%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+图表18：引入业绩预期维度后的喜忧分类 60 天赔率(%)  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续盈&lt;/td&gt;&lt;td&gt;-6.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;扭亏&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-2.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;预减&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;-0.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;-2.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;首亏&lt;/td&gt;&lt;td&gt;4.9%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;-0.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;续亏&lt;/td&gt;&lt;td&gt;-3.3%&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+# 2.3 如何基于业绩预告构建投资组合
+在《业绩之锚》系列的第一篇中，面对如何基于业绩预告获得超额收益这一命题，当时采用了再分类蒸馏的方法，在后续系列中改进了数理统计方法使用聚类的方法来寻找能获得稳定超额收益的区间。在本篇报告中，也采用聚类的方法来构建基于年报业绩预告的投资组合。
+在进行聚类之前，先需要定义一个空间，在此使用“业绩预告增速—业绩预告超预期幅度”的二维空间进行搜索。基于 2019-2024财年的所有样本，可见样本点和其相对万得全 A 指数的超额收益分布如图 20-21 所示。在这个二维空间中，可以发现其分布有着明显的违和感。在以类似的一季报“增速—超预期”构建空间中，样本的分布是呈单一中心化的，而业绩预告的样本分布由于交易所强
+制披露要求的规则有着多个肉眼可见的中心。如果想要基于所有样本进行空间聚类，就需要设置非常多的聚类中心，而这又容易陷入过拟合的陷阱，至少在最符合主观直觉的“增速—超预期”二维空间下，对所有业绩预告样本进行聚类来寻找高收益点并不是一个合理选项。在此选择以不同喜忧分类分别聚类的方法来寻找高收益空间。
+图表19：2019-2024 财年全样本 30 天赔率（%）  
+![](images/88441149322067ca461467490422a67b1c6dfea4fe906273d92c474c16562978.jpg)  
+资料来源：Wind，中邮证券研究所
+图表20：2019-2024 财年全样本 60 天赔率（%）  
+![](images/629e6f7d821543fdab0f01908231b270d4e4844a98734a7fabf92828b5150c7c.jpg)  
+资料来源：Wind，中邮证券研究所
+具体各分类的聚类结果如图表 21 所示，以样本数&gt;25、胜率 $\mathrm { &gt; } 5 5 \%$ 、赔率 $&gt; 2 . 5 \%$ 为标准来选取合格的簇，于是可以得到 30 天时间截面上“预增-4, 略增-1, 略增-4, 略减-3”和 60 天截面上“略增-1, 略增-2, 略增-3, 略增-4, 略增-5, '略增-7, 略减-3”的合意簇，这提供了后续建立基于业绩预告的短期和长期股票组合的依据。
+图表21：各喜忧分类聚类法下中心簇对应的胜率和赔率  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;业绩预告分类&lt;/td&gt;&lt;td&gt;聚类中心&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;预增&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;2081&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;131&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;423&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率 30D&lt;/td&gt;&lt;td&gt;48.9%&lt;/td&gt;&lt;td&gt;33.3%&lt;/td&gt;&lt;td&gt;68.8%&lt;/td&gt;&lt;td&gt;71.4%&lt;/td&gt;&lt;td&gt;60.3%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;51.1%&lt;/td&gt;&lt;td&gt;47.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率 30D&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;-1.52%&lt;/td&gt;&lt;td&gt;13.10%&lt;/td&gt;&lt;td&gt;4.72%&lt;/td&gt;&lt;td&gt;5.40%&lt;/td&gt;&lt;td&gt;7.48%&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;0.92%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率 60D&lt;/td&gt;&lt;td&gt;50.8%&lt;/td&gt;&lt;td&gt;66.7%&lt;/td&gt;&lt;td&gt;68.8%&lt;/td&gt;&lt;td&gt;42.9%&lt;/td&gt;&lt;td&gt;51.1%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;44.7%&lt;/td&gt;&lt;td&gt;48.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率 60D&lt;/td&gt;&lt;td&gt;2.34%&lt;/td&gt;&lt;td&gt;8.78%&lt;/td&gt;&lt;td&gt;14.51%&lt;/td&gt;&lt;td&gt;5.78%&lt;/td&gt;&lt;td&gt;3.87%&lt;/td&gt;&lt;td&gt;8.58%&lt;/td&gt;&lt;td&gt;5.98%&lt;/td&gt;&lt;td&gt;2.63%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;略增&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;103&lt;/td&gt;&lt;td&gt;94&lt;/td&gt;&lt;td&gt;79&lt;/td&gt;&lt;td&gt;126&lt;/td&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;85&lt;/td&gt;&lt;td&gt;81&lt;/td&gt;&lt;td&gt;121&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率 30D&lt;/td&gt;&lt;td&gt;50.5%&lt;/td&gt;&lt;td&gt;57.4%&lt;/td&gt;&lt;td&gt;51.9%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;td&gt;55.6%&lt;/td&gt;&lt;td&gt;51.8%&lt;/td&gt;&lt;td&gt;49.4%&lt;/td&gt;&lt;td&gt;57.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率 30D&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;4.71%&lt;/td&gt;&lt;td&gt;2.40%&lt;/td&gt;&lt;td&gt;2.12%&lt;/td&gt;&lt;td&gt;3.58%&lt;/td&gt;&lt;td&gt;2.74%&lt;/td&gt;&lt;td&gt;2.%14&lt;/td&gt;&lt;td&gt;2.22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率 60D&lt;/td&gt;&lt;td&gt;51.5%&lt;/td&gt;&lt;td&gt;59.6%&lt;/td&gt;&lt;td&gt;57.0%&lt;/td&gt;&lt;td&gt;57.9%&lt;/td&gt;&lt;td&gt;66.7%&lt;/td&gt;&lt;td&gt;55.3%&lt;/td&gt;&lt;td&gt;54.3%&lt;/td&gt;&lt;td&gt;56.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;3.18&lt;/td&gt;&lt;td&gt;6.70%&lt;/td&gt;&lt;td&gt;2.88%&lt;/td&gt;&lt;td&gt;5.04%&lt;/td&gt;&lt;td&gt;7.19%&lt;/td&gt;&lt;td&gt;5.46%&lt;/td&gt;&lt;td&gt;3.45%&lt;/td&gt;&lt;td&gt;3.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;扭亏&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;380&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;97&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;44.7%&lt;/td&gt;&lt;td&gt;37.5%&lt;/td&gt;&lt;td&gt;46.2%&lt;/td&gt;&lt;td&gt;66.7%&lt;/td&gt;&lt;td&gt;42.3%&lt;/td&gt;&lt;td&gt;16.7%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;td&gt;-4.78%&lt;/td&gt;&lt;td&gt;4.95%&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;td&gt;-3.71%&lt;/td&gt;&lt;td&gt;-8.03%&lt;/td&gt;&lt;td&gt;7.04%&lt;/td&gt;&lt;td&gt;-0.35%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;50.3%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;46.2%&lt;/td&gt;&lt;td&gt;66.7%&lt;/td&gt;&lt;td&gt;41.2%&lt;/td&gt;&lt;td&gt;33.3%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;57.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;2.67%&lt;/td&gt;&lt;td&gt;-9.35%&lt;/td&gt;&lt;td&gt;4.01%&lt;/td&gt;&lt;td&gt;7.63%&lt;/td&gt;&lt;td&gt;-1.27%&lt;/td&gt;&lt;td&gt;-6.91%&lt;/td&gt;&lt;td&gt;19.70%&lt;/td&gt;&lt;td&gt;2.23%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;续盈&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;td&gt;85.7%&lt;/td&gt;&lt;td&gt;33.3%&lt;/td&gt;&lt;td&gt;22.2%&lt;/td&gt;&lt;td&gt;87.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;2.44%&lt;/td&gt;&lt;td&gt;-12.23%&lt;/td&gt;&lt;td&gt;-5.75%&lt;/td&gt;&lt;td&gt;0.85%&lt;/td&gt;&lt;td&gt;10.27%&lt;/td&gt;&lt;td&gt;-4.03%&lt;/td&gt;&lt;td&gt;-7.40%&lt;/td&gt;&lt;td&gt;5.04%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;42.3%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;25.0%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;71.4%&lt;/td&gt;&lt;td&gt;66.7%&lt;/td&gt;&lt;td&gt;11.1%&lt;/td&gt;&lt;td&gt;62.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;2.55%&lt;/td&gt;&lt;td&gt;-9.29%&lt;/td&gt;&lt;td&gt;-7.61%&lt;/td&gt;&lt;td&gt;7.52%&lt;/td&gt;&lt;td&gt;3.13%&lt;/td&gt;&lt;td&gt;8.08%&lt;/td&gt;&lt;td&gt;-4.89%&lt;/td&gt;&lt;td&gt;8.94%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;预减&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;156&lt;/td&gt;&lt;td&gt;104&lt;/td&gt;&lt;td&gt;136&lt;/td&gt;&lt;td&gt;140&lt;/td&gt;&lt;td&gt;162&lt;/td&gt;&lt;td&gt;125&lt;/td&gt;&lt;td&gt;165&lt;/td&gt;&lt;td&gt;129&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;47.4%&lt;/td&gt;&lt;td&gt;49.0%&lt;/td&gt;&lt;td&gt;48.5%&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;td&gt;46.3%&lt;/td&gt;&lt;td&gt;44.8%&lt;/td&gt;&lt;td&gt;43.6%&lt;/td&gt;&lt;td&gt;46.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;-1.01%&lt;/td&gt;&lt;td&gt;-0.17%&lt;/td&gt;&lt;td&gt;1.11%&lt;/td&gt;&lt;td&gt;-1.55%&lt;/td&gt;&lt;td&gt;-0.48%&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;-0.82%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;44.9%&lt;/td&gt;&lt;td&gt;47.1%&lt;/td&gt;&lt;td&gt;41.2%&lt;/td&gt;&lt;td&gt;41.4%&lt;/td&gt;&lt;td&gt;40.7%&lt;/td&gt;&lt;td&gt;39.2%&lt;/td&gt;&lt;td&gt;49.1%&lt;/td&gt;&lt;td&gt;52.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;1.00%&lt;/td&gt;&lt;td&gt;-0.18%&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;-1.15%&lt;/td&gt;&lt;td&gt;-0.24%&lt;/td&gt;&lt;td&gt;-0.53%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;3.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;略减&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;47.2%&lt;/td&gt;&lt;td&gt;45.8%&lt;/td&gt;&lt;td&gt;33.3%&lt;/td&gt;&lt;td&gt;59.3%&lt;/td&gt;&lt;td&gt;39.1%&lt;/td&gt;&lt;td&gt;32.0%&lt;/td&gt;&lt;td&gt;51.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;-0.66%&lt;/td&gt;&lt;td&gt;4.06%&lt;/td&gt;&lt;td&gt;-1.58%&lt;/td&gt;&lt;td&gt;18.18%&lt;/td&gt;&lt;td&gt;-1.55%&lt;/td&gt;&lt;td&gt;-1.70%&lt;/td&gt;&lt;td&gt;2.61%&lt;/td&gt;&lt;td&gt;-8.09%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;45.3%&lt;/td&gt;&lt;td&gt;41.7%&lt;/td&gt;&lt;td&gt;54.5%&lt;/td&gt;&lt;td&gt;63.0%&lt;/td&gt;&lt;td&gt;32.6%&lt;/td&gt;&lt;td&gt;32.0%&lt;/td&gt;&lt;td&gt;48.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;0.39%&lt;/td&gt;&lt;td&gt;6.57%&lt;/td&gt;&lt;td&gt;4.03%&lt;/td&gt;&lt;td&gt;16.48%&lt;/td&gt;&lt;td&gt;-0.20%&lt;/td&gt;&lt;td&gt;-3.09%&lt;/td&gt;&lt;td&gt;1.62%&lt;/td&gt;&lt;td&gt;-7.56%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;首亏&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;512&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;80&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;189&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;46.3%&lt;/td&gt;&lt;td&gt;57.1%&lt;/td&gt;&lt;td&gt;45.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;45.0%&lt;/td&gt;&lt;td&gt;53.4%&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;td&gt;36.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;0.31%&lt;/td&gt;&lt;td&gt;5.02%&lt;/td&gt;&lt;td&gt;1.21%&lt;/td&gt;&lt;td&gt;-2.22%&lt;/td&gt;&lt;td&gt;-1.64%&lt;/td&gt;&lt;td&gt;2.24%&lt;/td&gt;&lt;td&gt;3.12%&lt;/td&gt;&lt;td&gt;-0.86%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;43.0%&lt;/td&gt;&lt;td&gt;57.1%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;td&gt;47.6%&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;td&gt;50.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;0.67%&lt;/td&gt;&lt;td&gt;-0.47%&lt;/td&gt;&lt;td&gt;2.68%&lt;/td&gt;&lt;td&gt;11.86%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;3.21%&lt;/td&gt;&lt;td&gt;-2.58%&lt;/td&gt;&lt;td&gt;2.84%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;续亏&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;352&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;111&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率30D&lt;/td&gt;&lt;td&gt;46.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;38.5%&lt;/td&gt;&lt;td&gt;44.8%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;45.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率30D&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;-4.98%&lt;/td&gt;&lt;td&gt;-1.12%&lt;/td&gt;&lt;td&gt;-4.96%&lt;/td&gt;&lt;td&gt;-3.01%&lt;/td&gt;&lt;td&gt;-5.20%&lt;/td&gt;&lt;td&gt;5.89%&lt;/td&gt;&lt;td&gt;-0.71%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胜率60D&lt;/td&gt;&lt;td&gt;48.0%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;td&gt;23.1%&lt;/td&gt;&lt;td&gt;34.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;42.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赔率60D&lt;/td&gt;&lt;td&gt;2.65%&lt;/td&gt;&lt;td&gt;11.08%&lt;/td&gt;&lt;td&gt;26.40%&lt;/td&gt;&lt;td&gt;-2.59%&lt;/td&gt;&lt;td&gt;-1.24%&lt;/td&gt;&lt;td&gt;-2.43%&lt;/td&gt;&lt;td&gt;-10.37%&lt;/td&gt;&lt;td&gt;1.46%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+如图22-23所示为基于2019-2024财年业绩预告选出的30天和60天时间截面组合所包括的样本点在“增速—超预期”二维空间上的分布。可见在 30 天时间截面上，市场仍会选择一些业绩预告高增的个股，即“预增-4”的簇，要求的净利增速需要达到 $400 \%$ 以上。而在 60 天的时间截面上，统计数据显示高业绩预告的净利增速无法提供超额收益，选择的簇集中于略增的分类，体现了符合预期的可持续温和增速在更长时间维度上获得超额收益的确定性。同时也需要注意
+“略减-3”这个预忧分类的簇在 30天和60天时间截面上都展现出了良好的胜率和赔率，也反应了市场对于业绩下滑确实存在“利空出尽是利好”的反应机制。
+图表22：2019-2024 财年组合内样本 30 天赔率（%）  
+![](images/5a4cfec6190cd51193b5b9a40614ac692d9acb3b43ad91e85b9ad3e591d78a6e.jpg)  
+资料来源：Wind，中邮证券研究所
+图表23：2019-2024 财年组合内样本 60 天赔率（%）  
+![](images/342b2a66357f22c5f0bfed9020f5e2bee84968273141a89d175a662b9b2a7189.jpg)  
+资料来源：Wind，中邮证券研究所
+基于前文所述的组合构建方法，对 2019-2024财年的历史数据进行组合构建和回测以检验上述方法在不同年份和市场环境下是否有着普适性。从回测结果来看，以此种方法构建的投资组合能够在 2020-2025 年多变的环境中稳定获得超额收益，具备普适性，并且在大波动年份也能够跑赢万得全 A 指数。
+图表24： 业绩预告 30 天组合历史回测  
+![](images/39c16bf827776b1c06f897d3711bb2d3a27b91175958378b5fba3ea86d2ffba4.jpg)  
+资料来源：Wind，中邮证券研究所
+图表25：业绩预告 60 天组合历史回测  
+![](images/71b196a62976f0bdb12748ef92b634efbe1a05dbffb96c5868f6d5d3918dfc00.jpg)  
+资料来源：Wind，中邮证券研究所
+# 3 根据 2025 年报业绩预告构建超额收益策略组合
+图表26：基于 2025 年业绩预告的 60 天组合  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券名称&lt;/td&gt;&lt;td&gt;申万一级行业&lt;/td&gt;&lt;td&gt;业绩预告分类&lt;/td&gt;&lt;td&gt;业绩预告净利增速中枢&lt;/td&gt;&lt;td&gt;预告是否符合预期&lt;/td&gt;&lt;td&gt;预告中枢较预期偏离比例&lt;/td&gt;&lt;td&gt;总市值(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;002534.SZ&lt;/td&gt;&lt;td&gt;西子洁能&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;142.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;300073.SZ&lt;/td&gt;&lt;td&gt;当升科技&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td&gt;311.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;002130.SZ&lt;/td&gt;&lt;td&gt;沃尔核材&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;td&gt;340.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;002475.SZ&lt;/td&gt;&lt;td&gt;立讯精密&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;26%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;3766.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;300054.SZ&lt;/td&gt;&lt;td&gt;鼎龙股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;37%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;421.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;300223.SZ&lt;/td&gt;&lt;td&gt;北京君正&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-10%&lt;/td&gt;&lt;td&gt;693.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;603296.SH&lt;/td&gt;&lt;td&gt;华勤技术&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;38%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;878.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;603986.SH&lt;/td&gt;&lt;td&gt;兆易创新&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;46%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;2193.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;688012.SH&lt;/td&gt;&lt;td&gt;中微公司&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;2178.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;688019.SH&lt;/td&gt;&lt;td&gt;安集科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;49%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;454.73&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;688798.SH&lt;/td&gt;&lt;td&gt;艾为电子&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;24%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-12%&lt;/td&gt;&lt;td&gt;192.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;000932.SZ&lt;/td&gt;&lt;td&gt;华菱钢铁&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;38%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-15%&lt;/td&gt;&lt;td&gt;433.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;000791.SZ&lt;/td&gt;&lt;td&gt;甘肃能源&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;23%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;223.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;600021.SH&lt;/td&gt;&lt;td&gt;上海电力&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;34%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;td&gt;600.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;000885.SZ&lt;/td&gt;&lt;td&gt;城发环境&lt;/td&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;90.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;000528.SZ&lt;/td&gt;&lt;td&gt;柳工&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;231.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;300445.SZ&lt;/td&gt;&lt;td&gt;康斯特&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;td&gt;50.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;002206.SZ&lt;/td&gt;&lt;td&gt;海利得&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;27%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;86.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;600378.SH&lt;/td&gt;&lt;td&gt;昊华科技&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;36%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;479.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;603977.SH&lt;/td&gt;&lt;td&gt;国泰集团&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-12%&lt;/td&gt;&lt;td&gt;90.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;002970.SZ&lt;/td&gt;&lt;td&gt;锐明技术&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;111.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;688208.SH&lt;/td&gt;&lt;td&gt;道通科技&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;43%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;234.43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;002050.SZ&lt;/td&gt;&lt;td&gt;三花智控&lt;/td&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;38%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;2143.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;601872.SH&lt;/td&gt;&lt;td&gt;招商轮船&lt;/td&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;23%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td&gt;917.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;601088.SH&lt;/td&gt;&lt;td&gt;中国神华&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;8330.87&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;300428.SZ&lt;/td&gt;&lt;td&gt;立中集团&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;163.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;300446.SZ&lt;/td&gt;&lt;td&gt;航天智造&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;198.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;301529.SZ&lt;/td&gt;&lt;td&gt;福赛科技&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;41%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;td&gt;113.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;600699.SH&lt;/td&gt;&lt;td&gt;均胜电子&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;41%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;td&gt;433.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;301110.SZ&lt;/td&gt;&lt;td&gt;青木科技&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;74.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;300973.SZ&lt;/td&gt;&lt;td&gt;立高食品&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;76.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;32&lt;/td&gt;&lt;td&gt;605499.SH&lt;/td&gt;&lt;td&gt;东鹏饮料&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;34%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;1300.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;300628.SZ&lt;/td&gt;&lt;td&gt;亿联网络&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;486.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;34&lt;/td&gt;&lt;td&gt;300711.SZ&lt;/td&gt;&lt;td&gt;广哈通信&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;27%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;67.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;002432.SZ&lt;/td&gt;&lt;td&gt;九安医疗&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;31%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;193.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;300049.SZ&lt;/td&gt;&lt;td&gt;福瑞医科&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-16%&lt;/td&gt;&lt;td&gt;178.83&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;300142.SZ&lt;/td&gt;&lt;td&gt;沃森生物&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;24%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;202.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;38&lt;/td&gt;&lt;td&gt;300759.SZ&lt;/td&gt;&lt;td&gt;康龙化成&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;545.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;688621.SH&lt;/td&gt;&lt;td&gt;阳光诺和&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;td&gt;72.71&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+图表27：基于 2025 年业绩预告的 30 天组合  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券名称&lt;/td&gt;&lt;td&gt;申万一级行业&lt;/td&gt;&lt;td&gt;业绩预告分类&lt;/td&gt;&lt;td&gt;业绩预告净利增速中枢&lt;/td&gt;&lt;td&gt;预告是否符合预期&lt;/td&gt;&lt;td&gt;预告中枢较预期偏离比例&lt;/td&gt;&lt;td&gt;总市值(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;300251.SZ&lt;/td&gt;&lt;td&gt;光线传媒&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;482%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-19%&lt;/td&gt;&lt;td&gt;573.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;002534.SZ&lt;/td&gt;&lt;td&gt;西子洁能&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;142.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;300073.SZ&lt;/td&gt;&lt;td&gt;当升科技&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td&gt;311.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;002560.SZ&lt;/td&gt;&lt;td&gt;通达股份&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;526%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;td&gt;51.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;300450.SZ&lt;/td&gt;&lt;td&gt;先导智能&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;477%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;903.83&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;002130.SZ&lt;/td&gt;&lt;td&gt;沃尔核材&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;td&gt;340.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;603986.SH&lt;/td&gt;&lt;td&gt;兆易创新&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;46%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;2193.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;688012.SH&lt;/td&gt;&lt;td&gt;中微公司&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;2178.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;688019.SH&lt;/td&gt;&lt;td&gt;安集科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;49%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;454.73&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;688270.SH&lt;/td&gt;&lt;td&gt;臻镭科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;586%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;447.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;688525.SH&lt;/td&gt;&lt;td&gt;佰维存储&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;474%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;37%&lt;/td&gt;&lt;td&gt;874.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;000778.SZ&lt;/td&gt;&lt;td&gt;新兴铸管&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;484%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;200.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;600021.SH&lt;/td&gt;&lt;td&gt;上海电力&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;34%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;td&gt;600.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;300065.SZ&lt;/td&gt;&lt;td&gt;海兰信&lt;/td&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;509%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-26%&lt;/td&gt;&lt;td&gt;181.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;300445.SZ&lt;/td&gt;&lt;td&gt;康斯特&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;td&gt;50.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;002975.SZ&lt;/td&gt;&lt;td&gt;博杰股份&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;552%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;132.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;300048.SZ&lt;/td&gt;&lt;td&gt;合康新能&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;507%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-33%&lt;/td&gt;&lt;td&gt;78.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;300756.SZ&lt;/td&gt;&lt;td&gt;金马游乐&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;940%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-20%&lt;/td&gt;&lt;td&gt;77.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;603901.SH&lt;/td&gt;&lt;td&gt;永创智能&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;808%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td&gt;73.43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;600378.SH&lt;/td&gt;&lt;td&gt;昊华科技&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;36%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;479.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;002734.SZ&lt;/td&gt;&lt;td&gt;利民股份&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;493%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;101.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;002970.SZ&lt;/td&gt;&lt;td&gt;锐明技术&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;111.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;688208.SH&lt;/td&gt;&lt;td&gt;道通科技&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;43%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;234.43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;603256.SH&lt;/td&gt;&lt;td&gt;宏和科技&lt;/td&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;817%&lt;/td&gt;&lt;td&gt;超预期&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;476.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;300492.SZ&lt;/td&gt;&lt;td&gt;华图山鼎&lt;/td&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;560%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;152.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;601088.SH&lt;/td&gt;&lt;td&gt;中国神华&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;8330.87&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;002664.SZ&lt;/td&gt;&lt;td&gt;信质集团&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;560%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-21%&lt;/td&gt;&lt;td&gt;105.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;600104.SH&lt;/td&gt;&lt;td&gt;上汽集团&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;498%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-10%&lt;/td&gt;&lt;td&gt;1625.43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;605499.SH&lt;/td&gt;&lt;td&gt;东鹏饮料&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;34%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;1300.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;300628.SZ&lt;/td&gt;&lt;td&gt;亿联网络&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td&gt;486.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;300759.SZ&lt;/td&gt;&lt;td&gt;康龙化成&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略减&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;545.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;32&lt;/td&gt;&lt;td&gt;002432.SZ&lt;/td&gt;&lt;td&gt;九安医疗&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;31%&lt;/td&gt;&lt;td&gt;符合预期&lt;/td&gt;&lt;td&gt;-7%&lt;/td&gt;&lt;td&gt;193.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;300049.SZ&lt;/td&gt;&lt;td&gt;福瑞医科&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;略增&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-16%&lt;/td&gt;&lt;td&gt;178.83&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;34&lt;/td&gt;&lt;td&gt;688085.SH&lt;/td&gt;&lt;td&gt;三友医疗&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;462%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-18%&lt;/td&gt;&lt;td&gt;72.96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;688091.SH&lt;/td&gt;&lt;td&gt;上海谊众&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;832%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-25%&lt;/td&gt;&lt;td&gt;110.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;000970.SZ&lt;/td&gt;&lt;td&gt;中科三环&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;预增&lt;/td&gt;&lt;td&gt;733%&lt;/td&gt;&lt;td&gt;不及预期&lt;/td&gt;&lt;td&gt;-28%&lt;/td&gt;&lt;td&gt;174.34&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，中邮证券研究所
+# 4 风险提示
+统计存在误差、市场学习效应等。
+中邮证券投资评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;投资评级标准&lt;/td&gt;&lt;td&gt;类型&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="11"&gt;报告中投资建议的评级标准:报告发布日后的6个月内的相对市场表现,即报告发布日后的6个月内的公司股价(或行业指数、可转债价格)的涨跌幅相对同期相关证券市场基准指数的涨跌幅。市场基准指数的选取:A股市场以沪深300指数为基准;新三板市场以三板成指为基准;可转债市场以中信标普可转债指数为基准;香港市场以恒生指数为基准;美国市场以标普500或纳斯达克综合指数为基准。&lt;/td&gt;&lt;td rowspan="4"&gt;股票评级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;预期个股相对同期基准指数涨幅在20%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;预期个股相对同期基准指数涨幅在10%与20%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;预期个股相对同期基准指数涨幅在-10%与10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;回避&lt;/td&gt;&lt;td&gt;预期个股相对同期基准指数涨幅在-10%以下&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业评级&lt;/td&gt;&lt;td&gt;强于大市&lt;/td&gt;&lt;td&gt;预期行业相对同期基准指数涨幅在10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;预期行业相对同期基准指数涨幅在-10%与10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;预期行业相对同期基准指数涨幅在-10%以下&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;可转债评级&lt;/td&gt;&lt;td&gt;推荐&lt;/td&gt;&lt;td&gt;预期可转债相对同期基准指数涨幅在10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎推荐&lt;/td&gt;&lt;td&gt;预期可转债相对同期基准指数涨幅在5%与10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;预期可转债相对同期基准指数涨幅在-5%与5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;回避&lt;/td&gt;&lt;td&gt;预期可转债相对同期基准指数涨幅在-5%以下&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 分析师声明
+撰写此报告的分析师（一人或多人）承诺本机构、本人以及财产利害关系人与所评价或推荐的证券无利害关系。
+本报告所采用的数据均来自我们认为可靠的目前已公开的信息，并通过独立判断并得出结论，力求独立、客观、公平，报告结论不受本公司其他部门和人员以及证券发行人、上市公司、基金公司、证券资产管理公司、特定客户等利益相关方的干涉和影响，特此声明。
+# 免责声明
+中邮证券有限责任公司（以下简称“中邮证券”）具备经中国证监会批准的开展证券投资咨询业务的资格。
+本报告信息均来源于公开资料或者我们认为可靠的资料，我们力求但不保证这些信息的准确性和完整性。报告内容仅供参考，报告中的信息或所表达观点不构成所涉证券买卖的出价或询价，中邮证券不对因使用本报告的内容而导致的损失承担任何责任。客户不应以本报告取代其独立判断或仅根据本报告做出决策。
+本报告所载的意见、评估及预测仅为本报告出具日的观点和判断。该等意见、评估及预测无需通知即可随时更改。过往的表现亦不应作为日后表现的预示和担保。在不同时期，中邮证券可能会发出与本报告所载意见、评估及预测不一致的研究报告。
+中邮证券及其所属关联机构可能会持有报告中提到的公司所发行的证券头寸并进行交易，也可能为这些公司提供或者计划提供投资银行、财务顾问或者其他金融产品等相关服务。
+《证券期货投资者适当性管理办法》于 2017 年 7 月 1 日起正式实施，本报告仅供中邮证券签约客户使用，若您非中邮证券签约客户，为控制投资风险，请取消接收、订阅或使用本报告中的任何信息。本公司不会因接收人收到、阅读或关注本报告中的内容而视其为签约客户。
+本报告版权归中邮证券所有，未经书面许可，任何机构或个人不得存在对本报告以任何形式进行翻版、修改、节选、复制、发布，或对本报告进行改编、汇编等侵犯知识产权的行为，亦不得存在其他有损中邮证券商业性权益的任何情形。如经中邮证券授权后引用发布，需注明出处为中邮证券研究所，且不得对本报告进行有悖原意的引用、删节或修改。
+中邮证券对于本申明具有最终解释权。
+# 公司简介
+中邮证券有限责任公司，2002 年 9 月经中国证券监督管理委员会批准设立，是中国邮政集团有限公司绝对控股的证券类金融子公司。
+公司经营范围包括:证券经纪，证券自营，证券投资咨询，证券资产管理，融资融券，证券投资基金销售，证券承销与保荐，代理销售金融产品，与证券交易、证券投资活动有关的财务顾问等。
+公司目前已经在北京、陕西、深圳、山东、江苏、四川、江西、湖北、湖南、福建、辽宁、吉林、黑龙江、广东、浙江、贵州、新疆、河南、山西、上海、云南、内蒙古、重庆、天津、河北等地设有分支机构，全国多家分支机构正在建设中。
+中邮证券紧紧依托中国邮政集团有限公司雄厚的实力，坚持诚信经营，践行普惠服务，为社会大众提供全方位专业化的证券投、融资服务，帮助客户实现价值增长，努力成为客户认同、社会尊重、股东满意、员工自豪的优秀企业。
+# 中邮证券研究所
+北京
+邮箱：yanjiusuo@cnpsec.com
+地址：北京市东城区前门街道珠市口东大街 17 号
+邮编：100050
+深圳
+邮箱：yanjiusuo@cnpsec.com
+地址：深圳市福田区滨河大道 9023 号国通大厦二楼
+邮编：518048
+上海
+邮箱：yanjiusuo@cnpsec.com
+地址：上海市虹口区东大名路 1080 号邮储银行大厦 3
+楼
+邮编：200000</t>
+  </si>
+  <si>
+    <t># 大类资产月度策略（2026.2）
+# 乍暖还寒试韧性，估值修复入深水
+# 核心观点
+# 1. 货币-信用“风火轮”：双宽格局持续
+信用方面，12 月我国新增社融22075 亿元，高于万得一致调查值（18153亿元）。其中新增人民币贷款 9100 亿元,高于万得一致调查值（6794亿元）。广义货币条件指数边际改善，新增社融数据超预期，抵消高基数引发的信用脉冲回落，金融对实体支撑坚实。当前格局延续“宽货币 $^ +$ 宽信用”的双宽组合，资金面趋紧风险较低，金融条件对宏观与资产表现形成托底。
+# 2. 下一阶段大类资产价格展望
+指数开门红，估值修复渐入深水区。1月A股延续强势，中证500以 $1 2 . 1 2 \%$ 领跑，新开户数近500万反映资产迁移热度。然而2月初受沃什“降息 $^ +$ 缩表”鹰派主张冲击，分母端压力陡增，贵金属剧烈回调，市场流动性边际收缩。尽管短期拖累指数，但释放流动性有利于缓解对其它板块的吸血效应，降低长线泡沫破裂风险。当前市场对科创及互联网板块的高资本开支容忍度降至冰点，业绩验证阈值抬高。1月PMI处于荣枯线下，经济基本面尚不支持全面牛，市场步入去杠杆与去伪存真的深水区。展望2月，随着股票型ETF流出减缓，大蓝筹的护盘效应将稳固市场底，慢牛框架在震荡中依旧成立。长债利率探底，货币政策呵护。1月债市震荡修复，长端表现优于短端。受基本面偏弱及流动性宽松预期驱动，10年国债利率下行至极低水平，而1年期国债受春节前资金偏紧影响小幅反弹，收益率曲线扁平化。央行1月净投放1000亿国债，叠加2月加量续作8000亿买断式逆回购，释放流动性维稳信号，显示在经济内生动力不足、外部美联储鹰派预期抬头的复杂环境下，国内货币政策“以我为主”的韧性。展望后市，在经济复苏信号确立前，债市尚无大幅转向风险，但资本利得空间压缩。建议维持稳健配置，关注春节后资金回笼节奏及LPR报价，久期策略宜适度缩短以应对潜在市场波动。
+人民币步入“6.9”时代，2月波动或增大。1月人民币升幅逊于美元指数跌幅和多数G10货币升幅，市场对人民币单边升值预期动摇，期权交易员大幅撤离升值押注。11月至次年1月的结汇高峰期已过，2月起人民币或开启季节性疲软。当前内松外紧的利差环境叠加结汇动能的断档，使得人民币2月面临阶段性回调压力。但中长期看，美国债务结构性矛盾未解，沃什的政策或仅是放缓美元下行速率而非反转趋势。预计2月汇率将在美元回升与国内政策宽松的交织下震荡，短期回踩不改中枢缓步上行。
+商品极致狂热后剧震，政策与地缘变局改写短期逻辑。1月南华综指受原油、黄金带动上扬。原油端，地缘风险推升布油反弹 $14 \%$ ，但随特朗普释放对伊缓和信号，战争溢价坍塌；在OPEC产能充裕背景下，反弹多为短脉冲，缺乏长期支撑。贵金属端，2月初沃什鹰派预期刺破前期泡沫，投机持仓拥挤的白银回撤压力尤甚。长期看，黄金的核心定价因子依然强劲，且受制于特朗普的降息偏好，美元流动性不具备极端收紧基础。展望2月，市场将通过高波动洗筹去伪存真，黄金长牛格局未变，需警惕白银及原油均值回归后的震荡风险。定量配置模型对下一阶段国内资产的配置建议为：
+积极配置假设下：股票、债券、原油、黄金分别为 $30 \%$ 、58.3%、 $0 . 0 \%$ 、11.7%；
+稳健配置假设下：股票、债券、原油、黄金分别为 $1 5 \%$ 、 $8 5 \%$ 、 $0 \%$ 、 $0 \%$ ；
+# 3. 全球资产配置：增配全球权益资产
+美国 $( 1 5 . 7 9 \% )$ )、德国 $( 0 . 8 8 \% )$ )、法国 $( 1 5 . 7 9 \% )$ )、英国 $( 1 . 7 5 \% )$ )、日本 $( 0 . 8 8 \% )$ 、越南 $( 1 4 . 0 4 \% )$ )、印度 $( 0 . 8 8 \% )$ 、中国香港 $( 0 . 0 0 \% )$ )余下 $50 \%$ 比例按模型假设配置无风险收益产品。
+风险提示：1）情绪因素对市场的扰动；2）美联储货币政策不确定性
+# 策略研究·策略月报
+证券分析师：王开
+021-60933132
+wangkai8@guosen.com.cn
+S0980521030001
+证券分析师：陈凯畅
+021-60375429
+chenkaichang@guosen.com.cn
+S0980523090002
+# 基础数据
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;中小板/月涨跌幅(%)&lt;/td&gt;&lt;td&gt;8526.31/3.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板/月涨跌幅(%)&lt;/td&gt;&lt;td&gt;3311.51/3.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;AH股价差指数&lt;/td&gt;&lt;td&gt;119.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;A股总/流通市值（万亿元）&lt;/td&gt;&lt;td&gt;101.97/93.33&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+市场走势  
+![](images/11271242c45a33ca939c5140c591fd80d8958ca4d6a7d8519b6aafc90758a9f8.jpg)  
+资料来源：Wind、国信证券经济研究所整理
+# 相关研究报告
+《大类资产月度策略（2026.1）- 股汇共鸣迎暖春，债市避锋待转机》 ——2026-01-08
+《大类资产月度策略（2025.12）-股债岁末盘整，原油寒意未消》2025-12-03
+《大类资产月度策略（2025.10）- 股债齐升，汇稳金震》2025-11-01
+《大类资产月度策略（2025.09）-贵金属一枝独秀》2025-09-28
+《大类资产月度策略（2025.08）-优先配置股票类资产》2025-08-23
+# 内容目录
+# 1.未来大类资产市场展望 4
+1.1 货币-信用“风火轮”：双宽格局持续 . 4   
+1.2 风格与板块配置：关注小盘成长 5   
+1.3 全球与国内大类资产的定量配置建议 . 6
+# 2.国内外大类资产月度复盘 .. 8
+2.1国内大类资产回报排序及归因 . 8   
+2.2海外大类资产走势复盘 . 9   
+2.3国内外大类资产间比价 . 10
+# 2.国信多资产配置系列总量指数 . 11
+2.1国内政策脉冲指数 . 12  
+2.2央行分歧指数 . 12  
+2.3 A 股情绪指数Ⅰ 13   
+2.4 A 股情绪指数Ⅱ 14   
+2.5行业轮动指数 . 15  
+2.6中国债市情绪指数 . 15
+# 风险提示 .. 17
+# 图表目录
+图1： 前瞻指标提示流动性持续宽松 . 4  
+图2： 前瞻指标提示信用环境延续宽松态势 4  
+图3： 四类“货币 $^ +$ 信用”组合状态下大类资产价格表现一览 . 4  
+图4： 自上而下视角对各类资产配置建议 . 6  
+图5： 全球大类资产配置信号 .  
+图6： 国内资产配置信号  
+图7： 国内资产配置模型表现 . 8  
+图8： 国内资产配置模型表现（稳健） 8  
+图9： 国内大类资产回报月度复盘 8  
+图10： 人民币汇率和美元指数表现 . 9  
+图11： 南华各分项指数回报率对比 . 9  
+图12： 国债收益率和期限利差走势 . 9  
+图13： 信用债收益率和信用利差走势 9  
+图14： 国内大类资产回报月度复盘 . 9  
+图15： 海外大类资产回报月度复盘 . 10  
+图16： 中国股债性价比走势 . 11  
+图17： 美国股债性价比走势分析 . 11  
+图18： 沪深 300 股债性价比 . 11  
+图19： 中证 500 股债性价比 . 11  
+图20： 国信多元资产指数系列跟踪 . 12  
+图21： 国内政策脉冲指数走势 . 12  
+图22： 央行整体走势指数和分歧指数 . 13  
+图23： A股情绪指数 I和上证指数间走势对比 14  
+图24： 投资者情绪指数构建原理 14  
+图25： A股情绪指数 II对于沪深 300指数的提示信号 . 15  
+图26： 行业轮动指数显示，市场在上涨初期往往伴随高速轮动 . 15  
+图27： 中国债市情绪指数与 10年期国债到期收益率走势 16  
+表1： A 股风格打分卡 5  
+表2： A 股情绪指数 I 的底层指标和解释 13
+# 1.未来大类资产市场展望
+# 1.1 货币-信用“风火轮”：双宽格局持续
+国信总量团队编制了基于金融市场的狭义流动性口径国信货币条件指数，以及基于实体派生广义流动性的国信货币条件指数,对 Shibor3M 利率、信用脉冲平均有3 个月和 6 个月左右的领先性。近期，Shibor3M平稳波动，狭义货币条件指数低位运行，系统性资金趋紧风险极低，显示货币环境仍以“稳中偏宽”为主。信用方面，12月我国新增社融 22075亿元，高于万得一致调查值（18153 亿元）。其中新增人民币贷款 9100亿元,高于万得一致调查值（6794亿元）。广义货币条件指数边际改善，新增社融数据超预期，抵消高基数引发的信用脉冲回落，金融对实体支撑坚实。当前格局延续“宽货币 $^ +$ 宽信用”的双宽组合，资金面趋紧风险较低，金融条件对宏观与资产表现形成托底。
+图1：前瞻指标提示流动性持续宽松  
+![](images/6594e5d5e15e7496b0bbf984804db9091e3d9f54c31682278f21669232a1f0c8.jpg)  
+资料来源：万得、国信证券经济研究所整理
+图2：前瞻指标提示信用环境延续宽松态势  
+![](images/70adcb5401a059c205b091b91c738c9730223bc342988a068d75e9d1c7665305.jpg)  
+资料来源：万得、国信证券经济研究所整理
+图3：四类“货币+信用”组合状态下大类资产价格表现一览  
+![](images/d14e381e61b8aa30f1cbe6a4865f20cb7de99ec734cfafed2b7ed9b047d75a14.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 1.2 风格与板块配置：关注小盘成长
+中美经济差异：1月我国制造业 PMI为 49.3，较 12月有所下降。美国 ISM 制造业PMI 为 52.6，较 12 月有所回升。从制造业景气度角度看，中国低于美国，在现阶段外需强于内需背景下利好小市值企业。
+国内基本面：1-12月，我国规模以上工业增加值同比增长 $5 . 9 0 \%$ 。其中，12 月份，规模以上工业增加值同比实际增长 $5 . 2 0 \%$ 。从环比看，规模以上工业增加值比上月增长 $0 . 4 9 \%$ 。整体来看，基本面仍处修复区间，经济复苏利好成长板块。
+通胀因素：12月 CPI同比为 $0 . 8 \%$ ，较 11 月调升 0.1 个百分点。CPI 环比为 $0 . 2 \%$ ，较 11月调升 0.3 个百分点。通胀水平的回升利好周期。
+估值因素：1 月 Shibor3M利率为 1.60，较上月调升 0.6bp。利率微幅上调，利好程度：小盘&gt;中盘&gt;大盘。
+盈利角度：1-12月份，全国规模以上工业企业实现利润总额 73982 亿元，同比上升 $0 . 6 \%$ ，涨幅比 1-11 月扩大 0.5 个百分点。盈利环比和同比均增加，利好小盘企业。
+事件驱动：1 月份，IPO 上市公司家数为 12 家。从市值风格经验来看，IPO 数量边际减少利好大盘企业。
+表1：A股风格打分卡  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;一级指标&lt;/td&gt;&lt;td&gt;二级指标&lt;/td&gt;&lt;td colspan="3"&gt;不同风格&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;基本面因素&lt;/td&gt;&lt;td rowspan="2"&gt;中美差异&lt;/td&gt;&lt;td&gt;大盘&lt;/td&gt;&lt;td&gt;中盘&lt;/td&gt;&lt;td&gt;小盘&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;☆&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;国内经济&lt;/td&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;均衡&lt;/td&gt;&lt;td&gt;价值&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;☆&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;通胀因素&lt;/td&gt;&lt;td&gt;防御&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;周期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;☆&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;DCF模型角度&lt;/td&gt;&lt;td rowspan="2"&gt;分子端&lt;/td&gt;&lt;td&gt;大盘&lt;/td&gt;&lt;td&gt;中盘&lt;/td&gt;&lt;td&gt;小盘&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;★&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;分母端&lt;/td&gt;&lt;td&gt;大盘&lt;/td&gt;&lt;td&gt;中盘&lt;/td&gt;&lt;td&gt;小盘&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;★&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;事件型驱动&lt;/td&gt;&lt;td rowspan="2"&gt;IPO和并购重组数量&lt;/td&gt;&lt;td&gt;大盘&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;小盘&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;★&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理
+在基本面、DCF 分子端和分母端、事件驱动三重因素的考虑下，市值风格偏向小盘成长。综上，我们对各类资产的推荐配置观点如下表所示，综合胜率和赔率，目前对资产配置的推荐顺序为：股市&gt;商品&gt;债市。
+图4：自上而下视角对各类资产配置建议  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;配置建议&lt;/td&gt;&lt;td&gt;理由&lt;/td&gt;&lt;td&gt;资产名称&lt;/td&gt;&lt;td&gt;12月末收盘&lt;/td&gt;&lt;td&gt;1月末收盘&lt;/td&gt;&lt;td&gt;期间涨跌&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;股票&lt;/td&gt;&lt;td rowspan="6"&gt;+&lt;/td&gt;&lt;td rowspan="6"&gt;指数开门红,估值修复渐入深水区。1月A股延续强势,中证500以12.12%领跑,新开户数近500万反映资产迁移热度。然而2月初受沃什“降息+缩表”鹰派主张冲击,分母端压力陡增,贵金属剧烈回调,市场流动性边际收缩。尽管短期拖累指数,但释放流动性有利于缓解对其它板块的吸血效应,降低长线泡沫破裂风险。当前市场对科创及互联网板块的高资本开支容忍度降至冰点,业绩验证阈值抬高。1月PMI处于荣枯线下,经济基本面尚不支持全面牛,市场步入去杠杆与去伪存真的深水区。展望2月,随着股票型ETF流出减缓,大蓝筹的护盘效应将稳固市场底,慢牛框架在震荡中依旧成立。&lt;/td&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;3968.8&lt;/td&gt;&lt;td&gt;4117.9&lt;/td&gt;&lt;td&gt;3.76%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;13525.0&lt;/td&gt;&lt;td&gt;14205.9&lt;/td&gt;&lt;td&gt;5.03%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;3203.2&lt;/td&gt;&lt;td&gt;3346.4&lt;/td&gt;&lt;td&gt;4.47%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;3031.1&lt;/td&gt;&lt;td&gt;3066.5&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;4629.9&lt;/td&gt;&lt;td&gt;4706.3&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;7465.6&lt;/td&gt;&lt;td&gt;8370.5&lt;/td&gt;&lt;td&gt;12.12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;债券&lt;/td&gt;&lt;td rowspan="6"&gt;-&lt;/td&gt;&lt;td rowspan="6"&gt;长债利率探底,货币政策呵护。1月债市震荡修复,长端表现优于短端。受基本面偏弱及流动性宽松预期驱动,10年国债利率下行至极低水平,而1年期国债受春节前资金偏紧影响小幅反弹,收益率曲线扁平化。央行1月净投放1000亿国债,叠加2月加量续作8000亿买断式逆回购,释放流动性维稳信号,显示在经济内生动力不足、外部美联储鹰派预期抬头的复杂环境下,国内货币政策“以我为主”的韧性。展望后市,在经济复苏信号确立前,债市尚无大幅转向风险,但资本利得空间压缩。建议维持稳健配置,关注春节后资金回笼节奏及LPR报价,久期策略宜适度缩短以应对潜在市场波动。&lt;/td&gt;&lt;td&gt;中债财富总指数&lt;/td&gt;&lt;td&gt;249.0&lt;/td&gt;&lt;td&gt;250.0&lt;/td&gt;&lt;td&gt;0.39%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中债1-30年利率债指数&lt;/td&gt;&lt;td&gt;203.0&lt;/td&gt;&lt;td&gt;203.7&lt;/td&gt;&lt;td&gt;0.35%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中债信用债总财富指数&lt;/td&gt;&lt;td&gt;225.2&lt;/td&gt;&lt;td&gt;225.8&lt;/td&gt;&lt;td&gt;0.30%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年国开利率&lt;/td&gt;&lt;td&gt;2.0&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;-29.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年国债利率&lt;/td&gt;&lt;td&gt;1.85&lt;/td&gt;&lt;td&gt;1.73&lt;/td&gt;&lt;td&gt;-12.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1年国债利率&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;12.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;汇率&lt;/td&gt;&lt;td rowspan="4"&gt;=&lt;/td&gt;&lt;td rowspan="4"&gt;人民币步入“6.9”时代,2月波动或增大。1月人民币升幅逊于美元指数跌幅和多数G10货币升幅,市场对人民币单边升值预期动摇,期权交易员大幅撤离开升值押注。11月至次年1月的结汇高峰期已过,2月起人民币或开启季节性疲软。当前内松外紧的利差环境叠加结汇动能的断档,使得人民币2月面临阶段性回调压力。但中长期看,美国债务结构性矛盾未解,沃什的政策或仅是放缓美元下行速率而非反转趋势。预计2月汇率将在美元回升与国内政策宽松的交织下震荡,短期回踩不改中枢缓步上行。&lt;/td&gt;&lt;td&gt;美元指数&lt;/td&gt;&lt;td&gt;98.3&lt;/td&gt;&lt;td&gt;97.1&lt;/td&gt;&lt;td&gt;-1.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美元兑人民币(在岸)&lt;/td&gt;&lt;td&gt;6.99&lt;/td&gt;&lt;td&gt;6.95&lt;/td&gt;&lt;td&gt;-0.58%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美元兑人民币(离岸)&lt;/td&gt;&lt;td&gt;6.98&lt;/td&gt;&lt;td&gt;6.96&lt;/td&gt;&lt;td&gt;-0.24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;人民币汇率指数&lt;/td&gt;&lt;td&gt;98.0&lt;/td&gt;&lt;td&gt;97.0&lt;/td&gt;&lt;td&gt;-1.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;商品&lt;/td&gt;&lt;td rowspan="6"&gt;=&lt;/td&gt;&lt;td rowspan="6"&gt;商品极致狂热后剧震,政策与地缘变局改写短期逻辑。1月南华综指受原油、黄金带动上扬。原油端,地缘风险推升布油反弹14%,但随特朗普释放对伊缓和信号,战争溢价坍塌;在OPEC产能充裕背景下,反弹多为短脉冲,缺乏长期支撑。贵金属端,2月初沃什鹰派预期刺破前期泡沫,投机持仓拥挤的白银回撤压力尤甚。长期看,黄金的核心定价因子依然强劲,且受制于特朗普的降息偏好,美元流动性不具备极端收紧基础。展望2月,市场将通过高波动洗筹去伪存真,黄金长牛格局未变,需警惕白银及原油均值回归后的震荡风险。&lt;/td&gt;&lt;td&gt;南华综合指数&lt;/td&gt;&lt;td&gt;2631.3&lt;/td&gt;&lt;td&gt;2858.0&lt;/td&gt;&lt;td&gt;8.61%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;南华工业品指数&lt;/td&gt;&lt;td&gt;3549.7&lt;/td&gt;&lt;td&gt;3710.3&lt;/td&gt;&lt;td&gt;4.52%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;布伦特原油(美元)&lt;/td&gt;&lt;td&gt;60.9&lt;/td&gt;&lt;td&gt;69.8&lt;/td&gt;&lt;td&gt;14.64%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上期所原油&lt;/td&gt;&lt;td&gt;432.2&lt;/td&gt;&lt;td&gt;470.8&lt;/td&gt;&lt;td&gt;8.93%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;伦敦现货黄金(美元)&lt;/td&gt;&lt;td&gt;4308.0&lt;/td&gt;&lt;td&gt;4981.9&lt;/td&gt;&lt;td&gt;15.64%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上期所黄金&lt;/td&gt;&lt;td&gt;977.6&lt;/td&gt;&lt;td&gt;1161.4&lt;/td&gt;&lt;td&gt;18.81%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：彭博，万得，国信证券经济研究所整理
+# 1.3 全球与国内大类资产的定量配置建议
+根据我们的全球资产配置模型（详见 2024年 4 月 24日外发报告《全球资产配置启航》），模型显示 2026年最新一期 A 股之外全球主要股市的配置比例为：美国$( 1 5 . 7 9 \% )$ )、德国(0. $8 8 \%$ )、法国(15. $7 9 \%$ )、英国 $( 1 . 7 5 \% )$ )、日本 $( 0 . 8 8 \% )$ )、越南$( 1 4 . 0 4 \% )$ )、印度 $( 0 , 8 8 \% )$ )、中国香港 $( 0 . 0 0 \% )$ )余下 $50 \%$ 比例按模型假设配置无风险收益产品。
+根据我们的国内定量配置模型（详见 2024年 5 月 15日外发报告《从宏观择时到定量配置》），模型提示 2026 年最新一期国内资产的配置建议为：
+ 积极配置假设下，股票、债券、原油、黄金分别为 30%、58.3%、0.0%、11.7%；  
+ 稳健配置假设下，股票、债券、原油、黄金分别为 15%、85%、0%、0%；
+图5：全球大类资产配置信号  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;国家&lt;/td&gt;&lt;td&gt;指标分类&lt;/td&gt;&lt;td&gt;具体指标&lt;/td&gt;&lt;td&gt;指标信号&lt;/td&gt;&lt;td&gt;对应股市&lt;/td&gt;&lt;td&gt;国家&lt;/td&gt;&lt;td&gt;指标分类&lt;/td&gt;&lt;td&gt;具体指标&lt;/td&gt;&lt;td&gt;指标信号&lt;/td&gt;&lt;td&gt;对应股市&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;美国&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;通胀&lt;/td&gt;&lt;td&gt;未超预期&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td rowspan="7"&gt;德国&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;通胀趋势&lt;/td&gt;&lt;td&gt;上行&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;情绪面指标&lt;/td&gt;&lt;td rowspan="2"&gt;Sentix投资信心指数&lt;/td&gt;&lt;td rowspan="2"&gt;乐观&lt;/td&gt;&lt;td rowspan="2"&gt;↑&lt;/td&gt;&lt;td rowspan="2"&gt;情绪面指标&lt;/td&gt;&lt;td&gt;Sentix投资信心指数&lt;/td&gt;&lt;td&gt;悲观&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;未来30天隐含波动率&lt;/td&gt;&lt;td&gt;下行&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;法国&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;通胀趋势&lt;/td&gt;&lt;td&gt;走弱&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td rowspan="6"&gt;英国&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;经济前景&lt;/td&gt;&lt;td&gt;走弱&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;情绪面指标&lt;/td&gt;&lt;td&gt;Sentix投资信心指数&lt;/td&gt;&lt;td&gt;乐观&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;情绪面指标&lt;/td&gt;&lt;td&gt;未来30天隐含波动率&lt;/td&gt;&lt;td&gt;下行&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;卖出信号&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;日本&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;消费者信心&lt;/td&gt;&lt;td&gt;走弱&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td rowspan="7"&gt;越南&lt;/td&gt;&lt;td rowspan="3"&gt;核心指标&lt;/td&gt;&lt;td rowspan="3"&gt;出口增速&lt;/td&gt;&lt;td rowspan="3"&gt;走强&lt;/td&gt;&lt;td rowspan="3"&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;情绪面指标&lt;/td&gt;&lt;td&gt;Sentix投资信心指数&lt;/td&gt;&lt;td&gt;乐观&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;未来30天隐含波动率&lt;/td&gt;&lt;td&gt;上行&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;卖出信号&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;卖出信号&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;印度&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;外商投资情况&lt;/td&gt;&lt;td&gt;走弱&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td rowspan="7"&gt;中国香港&lt;/td&gt;&lt;td&gt;核心指标&lt;/td&gt;&lt;td&gt;股市流动性&lt;/td&gt;&lt;td&gt;走弱&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;情绪面指标&lt;/td&gt;&lt;td&gt;机构外资净流入展望&lt;/td&gt;&lt;td&gt;净流出&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td rowspan="2"&gt;情绪面指标&lt;/td&gt;&lt;td rowspan="2"&gt;未来30天隐含波动率&lt;/td&gt;&lt;td rowspan="2"&gt;上行&lt;/td&gt;&lt;td rowspan="2"&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;未来30天隐含波动率&lt;/td&gt;&lt;td&gt;下行&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td rowspan="4"&gt;技术面指标&lt;/td&gt;&lt;td&gt;RSI&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;KDJ&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;BOLL&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;无明显信号&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;WR&lt;/td&gt;&lt;td&gt;提示超买&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理
+图6：国内资产配置信号  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;资产类型&lt;/td&gt;&lt;td&gt;配置建议&lt;/td&gt;&lt;td&gt;相比于上期&lt;/td&gt;&lt;td&gt;稳健配置建议&lt;/td&gt;&lt;td&gt;相比于上期&lt;/td&gt;&lt;td&gt;风险平价&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票&lt;/td&gt;&lt;td&gt;30.0%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;15.0%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;债券&lt;/td&gt;&lt;td&gt;58.3%&lt;/td&gt;&lt;td&gt;↓&lt;/td&gt;&lt;td&gt;85%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;86%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;原油&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;黄金&lt;/td&gt;&lt;td&gt;11.7%&lt;/td&gt;&lt;td&gt;↑&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;→&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理
+图7：国内资产配置模型表现  
+![](images/147c3f6eb62810ad63c24d9151e9562643cb7663646eba766f7884cc0d732f63.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图8：国内资产配置模型表现（稳健）  
+![](images/c844672e9bd169dfcded23c1d058f9ad21217c774de9f6069c4c739e00b81476.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.国内外大类资产月度复盘
+# 2.1 国内大类资产回报排序及归因
+图9：国内大类资产回报月度复盘  
+![](images/d2d853f3a22569a986f6df3ec3b37bad242822917bd1896c3c9a71467f8d44fd.jpg)  
+资料来源：万得，国信证券经济研究所整理 注：数据截至 2025年11月 30日收盘
+2026年 1月国内大类资产的表现可以概况为：股市上行、债市平稳、商品强势、人民币升值。（1）股市方面：中证 500上涨 $1 2 . 1 \%$ ，深证成指上涨 $5 . 0 \%$ ，创业板指上涨 $4 . 5 \%$ ，上证综指上涨 $3 . 8 \%$ ，沪深 300上涨 $1 . 7 \%$ ，上证 50上涨 $1 . 2 \%$ 。中信风格指数下各个板块全月回报排序为：周期股、成长股、消费股、稳定股、金融股，回报率依次为： $1 0 . 0 \%$ 、 $8 . 0 \%$ 、 $1 . 8 \%$ 、 $1 . 8 \%$ 、 $- 2 . 7 \%$ 。（2）债券方面：1 月中债口径十年期国债到期收益率下行 12.1bp 至 $1 . 7 3 \%$ 。（3）商品方面：上期所黄金上涨 $1 8 . 8 \%$ ，上期所原油上涨 $8 . 9 \%$ ，南华综合指数上涨 $8 . 6 \%$ ，南华工业品指数上涨 $4 . 5 \%$ 。（4）汇率方面：截至 1月 31日，美元对人民币在岸价收于 6.9486，相比于 2025 年 12月底的 6.989，人民币有所升值。
+图10：人民币汇率和美元指数表现  
+![](images/16b1f5b167657872fd5d0dee57baa39c3a4e087048fdc7ffc7814238a593def9.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图11：南华各分项指数回报率对比  
+![](images/1f3281b8901d6743b82564253014de61ca03a047afaeaa2cf0f0969d1cdfc7be.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图12：国债收益率和期限利差走势  
+![](images/b15259ead5fc848f45d59c20916d24cbf580cdfdd544e57d29aa32567cd40e15.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图13：信用债收益率和信用利差走势  
+![](images/d6b275089198851cabbd35c3209bcfda9822cb3d313da7003d1464e30fcc1291.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图14：国内大类资产回报月度复盘  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="11"&gt;国内主要资产表现情况&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-08&lt;/td&gt;&lt;td&gt;成长股(18.47)&lt;/td&gt;&lt;td&gt;万得全A(10.93)&lt;/td&gt;&lt;td&gt;周期股(9.18)&lt;/td&gt;&lt;td&gt;消费股(5.38)&lt;/td&gt;&lt;td&gt;可转债(4.25)&lt;/td&gt;&lt;td&gt;金融股(3.58)&lt;/td&gt;&lt;td&gt;稳定股(1.37)&lt;/td&gt;&lt;td&gt;货币基金(0.09)&lt;/td&gt;&lt;td&gt;信用债(-0.02)&lt;/td&gt;&lt;td&gt;国债(-0.55)&lt;/td&gt;&lt;td&gt;商品(-0.62)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-09&lt;/td&gt;&lt;td&gt;成长股(4.06)&lt;/td&gt;&lt;td&gt;周期股(2.24)&lt;/td&gt;&lt;td&gt;商品(1.42)&lt;/td&gt;&lt;td&gt;万得全A(0.80)&lt;/td&gt;&lt;td&gt;可转债(0.37)&lt;/td&gt;&lt;td&gt;货币基金(0.09)&lt;/td&gt;&lt;td&gt;信用债(-0.14)&lt;/td&gt;&lt;td&gt;国债(-0.55)&lt;/td&gt;&lt;td&gt;稳定股(-1.67)&lt;/td&gt;&lt;td&gt;消费股(-2.60)&lt;/td&gt;&lt;td&gt;金融股(-6.13)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-10&lt;/td&gt;&lt;td&gt;稳定股(3.40)&lt;/td&gt;&lt;td&gt;金融股(2.44)&lt;/td&gt;&lt;td&gt;周期股(1.29)&lt;/td&gt;&lt;td&gt;国债(0.66)&lt;/td&gt;&lt;td&gt;信用债(0.48)&lt;/td&gt;&lt;td&gt;货币基金(0.10)&lt;/td&gt;&lt;td&gt;商品(-0.01)&lt;/td&gt;&lt;td&gt;万得全A(-0.04)&lt;/td&gt;&lt;td&gt;可转债(-0.07)&lt;/td&gt;&lt;td&gt;消费股(-0.83)&lt;/td&gt;&lt;td&gt;成长股(-1.56)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-11&lt;/td&gt;&lt;td&gt;商品(0.53)&lt;/td&gt;&lt;td&gt;货币基金(0.09)&lt;/td&gt;&lt;td&gt;信用债(0.04)&lt;/td&gt;&lt;td&gt;国债(-0.34)&lt;/td&gt;&lt;td&gt;消费股(-0.49)&lt;/td&gt;&lt;td&gt;金融股(-0.54)&lt;/td&gt;&lt;td&gt;可转债(-0.67)&lt;/td&gt;&lt;td&gt;周期股(-1.62)&lt;/td&gt;&lt;td&gt;稳定股(-1.69)&lt;/td&gt;&lt;td&gt;万得全A(-2.22)&lt;/td&gt;&lt;td&gt;成长股(-3.46)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-12&lt;/td&gt;&lt;td&gt;周期股(6.26)&lt;/td&gt;&lt;td&gt;成长股(4.91)&lt;/td&gt;&lt;td&gt;万得全A(3.30)&lt;/td&gt;&lt;td&gt;商品(3.09)&lt;/td&gt;&lt;td&gt;可转债(2.02)&lt;/td&gt;&lt;td&gt;金融股(1.77)&lt;/td&gt;&lt;td&gt;信用债(0.13)&lt;/td&gt;&lt;td&gt;货币基金(0.11)&lt;/td&gt;&lt;td&gt;国债(-0.37)&lt;/td&gt;&lt;td&gt;稳定股(-2.04)&lt;/td&gt;&lt;td&gt;消费股(-2.17)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01&lt;/td&gt;&lt;td&gt;周期股(10.00)&lt;/td&gt;&lt;td&gt;商品(8.61)&lt;/td&gt;&lt;td&gt;成长股(7.95)&lt;/td&gt;&lt;td&gt;万得全A(5.83)&lt;/td&gt;&lt;td&gt;可转债(5.73)&lt;/td&gt;&lt;td&gt;消费股(1.81)&lt;/td&gt;&lt;td&gt;稳定股(1.77)&lt;/td&gt;&lt;td&gt;国债(0.39)&lt;/td&gt;&lt;td&gt;信用债(0.30)&lt;/td&gt;&lt;td&gt;货币基金(0.10)&lt;/td&gt;&lt;td&gt;金融股(-2.72)&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理；注：每一行代表一个月，从左~右按照各资产类别，当月回报水平由高到低排序。数据截至2026 年 1 月 31 日
+# 2.2 海外大类资产走势复盘
+2026 年 1 月海外大类资产大体排序：商品&gt;股票&gt;债券。(1)权益市场方面，新兴市场录得 $8 . 7 3 \%$ ，东京日经 225指数录得 $5 . 9 3 \%$ ，全球股市录得 $2 . 4 3 \%$ ，发达市场
+股市录得 $1 , 6 6 \%$ ，美国股票录得 $1 . 3 7 \%$ 。（2）债券方面，高收益债（ $( 0 . 5 1 \%$ ）&gt;MBS（0.41%）&gt;国债 $( - 0 . 0 9 \% )$ ）。（3）大宗商品方面，1 月 CRB 商品指数收益率为 $7 . 1 3 \%$ ，伦交所现货黄金收益 $1 5 . 6 4 \%$ 。
+图15：海外大类资产回报月度复盘  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="11"&gt;海外主要资产表现情况&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-08&lt;/td&gt;&lt;td&gt;东京日经 225指数 (4.01)&lt;/td&gt;&lt;td&gt;伦敦商品 价格黄金 (3.95)&lt;/td&gt;&lt;td&gt;发达市场 股市 (1.95)&lt;/td&gt;&lt;td&gt;美国股票 (1.91)&lt;/td&gt;&lt;td&gt;全球股市 (1.88)&lt;/td&gt;&lt;td&gt;美国MBS (1.81)&lt;/td&gt;&lt;td&gt;美国国债 (1.35)&lt;/td&gt;&lt;td&gt;新兴市场 (1.31)&lt;/td&gt;&lt;td&gt;美国高收益债 (1.17)&lt;/td&gt;&lt;td&gt;CRB商品价 格指数 (0.86)&lt;/td&gt;&lt;td&gt;美元指数 (-2.20)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-09&lt;/td&gt;&lt;td&gt;伦敦商品价 格黄金 (8.80)&lt;/td&gt;&lt;td&gt;新兴市场 (6.69)&lt;/td&gt;&lt;td&gt;东京日经 225指数 (6.17)&lt;/td&gt;&lt;td&gt;全球股市 (2.50)&lt;/td&gt;&lt;td&gt;美国股票 (2.24)&lt;/td&gt;&lt;td&gt;发达市场 股市 (2.01)&lt;/td&gt;&lt;td&gt;美国MBS (1.15)&lt;/td&gt;&lt;td&gt;美国高收 益债 (0.67)&lt;/td&gt;&lt;td&gt;美国国债 (0.64)&lt;/td&gt;&lt;td&gt;美元指数 (0.63)&lt;/td&gt;&lt;td&gt;CRB商品价 格指数 (0.33)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-10&lt;/td&gt;&lt;td&gt;东京日经 225指数 (14.23)&lt;/td&gt;&lt;td&gt;新兴市场 (5.26)&lt;/td&gt;&lt;td&gt;伦敦商品 价格黄金 (4.41)&lt;/td&gt;&lt;td&gt;全球股市 (2.59)&lt;/td&gt;&lt;td&gt;发达市场 股市 (2.27)&lt;/td&gt;&lt;td&gt;美国股票 (2.00)&lt;/td&gt;&lt;td&gt;美元指数 (1.76)&lt;/td&gt;&lt;td&gt;美国MBS (1.66)&lt;/td&gt;&lt;td&gt;美国国债 (1.25)&lt;/td&gt;&lt;td&gt;美国高收 益债 (0.51)&lt;/td&gt;&lt;td&gt;CRB商品价 格指数 (0.06)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-11&lt;/td&gt;&lt;td&gt;伦敦商品价 格黄金 (4.48)&lt;/td&gt;&lt;td&gt;美国MBS (0.62)&lt;/td&gt;&lt;td&gt;美国国债 (0.62)&lt;/td&gt;&lt;td&gt;美国高收 益债 (0.58)&lt;/td&gt;&lt;td&gt;发达市场 股市 (0.15)&lt;/td&gt;&lt;td&gt;美国股票 (0.13)&lt;/td&gt;&lt;td&gt;全球股市 (-0.05)&lt;/td&gt;&lt;td&gt;美元指数 (-0.29)&lt;/td&gt;&lt;td&gt;CRB商品价格 指数 (-0.35)&lt;/td&gt;&lt;td&gt;新兴市场 (-1.68)&lt;/td&gt;&lt;td&gt;东京日经 225指数 (-4.12)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025-12&lt;/td&gt;&lt;td&gt;伦敦商品价 格黄金 (2.79)&lt;/td&gt;&lt;td&gt;新兴市场 (2.36)&lt;/td&gt;&lt;td&gt;全球股市 (0.66)&lt;/td&gt;&lt;td&gt;美国高收 益债 (0.57)&lt;/td&gt;&lt;td&gt;发达市场 股市 (0.45)&lt;/td&gt;&lt;td&gt;美国MBS (0.21)&lt;/td&gt;&lt;td&gt;东京日经 225指数 (0.17)&lt;/td&gt;&lt;td&gt;美国股票 (-0.05)&lt;/td&gt;&lt;td&gt;美国国债 (-0.33)&lt;/td&gt;&lt;td&gt;CRB商品价 格指数 (-0.90)&lt;/td&gt;&lt;td&gt;美元指数 (-1.18)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01&lt;/td&gt;&lt;td&gt;伦敦商品价 格黄金 (15.64)&lt;/td&gt;&lt;td&gt;新兴市场 (8.73)&lt;/td&gt;&lt;td&gt;CRB商品价 格指数 (7.13)&lt;/td&gt;&lt;td&gt;东京日经 225指数 (5.93)&lt;/td&gt;&lt;td&gt;全球股市 (2.43)&lt;/td&gt;&lt;td&gt;发达市场 股市 (1.66)&lt;/td&gt;&lt;td&gt;美国股票 (1.37)&lt;/td&gt;&lt;td&gt;美国高收 益债 (0.51)&lt;/td&gt;&lt;td&gt;美国MBS (0.41)&lt;/td&gt;&lt;td&gt;美国国债 (-0.09)&lt;/td&gt;&lt;td&gt;美元指数 (-1.17)&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理；注：单位为%；每一行代表一个月，从左到右按照各资产类别，当月回报水平由高到低排序。数据截至2026年 1月31日。
+# 2.3 国内外大类资产间比价
+鉴于近年来股市的波动幅度较前几年相对减缓，我们采用动态跟踪的思路，以五年为一个窗口期，观测股债性价比处在过去五年间的分位点。我们以股票风险溢价（ERP）来度量股债相对比价，计算方法为股票市盈率倒数与利率债收益率之差（口径 I），或者（股票市盈率 $^ +$ 股息率）/利率债收益率（口径 II）。ERP 可以作为衡量股票相对于债券配置价值的参考指标。动态来看，2026年 1月，口径Ⅰ下股债性价比分位数由 28.33 小幅下降至 $2 5 \%$ ，口径Ⅱ则由 $7 8 . 3 3 \%$ 显著下降至$60 \%$ ，反映股票相对债券的吸引力有所减弱。与此同时，美国 1 月份股债性价比的历史分位数在 I、II 口径下维持在历史较低水平，分别为 $8 . 3 3 \%$ 、 $3 . 3 3 \%$ ，边际进一步下降，反映美股估值水平较高，以及美债潜在的降息空间。
+图16：中国股债性价比走势  
+![](images/8ff6a9dd30cff45660407796ef04b4129882d7b4f68a29e4de38282a74840446.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图17：美国股债性价比走势分析  
+![](images/3ef9cd10a5a00c9f2778e842c5ddb582536979f16a9e9b2b6750236167176550.jpg)  
+资料来源：万得，国信证券经济研究所整理。注：股债性价比 I为SPX指数市盈率倒数与十年期美债收益率之差，性价比II为（SPX指数市盈率+股息率）/十年期美债收益率
+图18：沪深 300 股债性价比  
+![](images/08d5ee65d6c6218aa652e0dfa20e32180a8f867a31f365f695457f41c7f41121.jpg)  
+资料来源：万得，国信证券经济研究所整理
+图19：中证 500 股债性价比  
+![](images/8ba41d98cc9340d006dd7e4a499d0c28c6c6151b661db0225a64ea14b9c5b7b1.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.国信多资产配置系列总量指数
+本报告对过往研究阶段中编制的多资产配置相关的指数进行了汇总发布，其中包括宏观景气和政策量化指数、股市交易情绪指数以及债市情绪和风险指数。这些指数是宏观经济环境和市场表现评估的重要工具，在定性分析的基础上添加完全依赖于数据刻画的宏观环境、市场情绪等维度，能够帮助投资者更好地把握市场趋势并做出合理的投资决策。基于自上而下的思维出发，对于国内外的货币、财政等政策进行量化观测，以此为基础落实到多资产配置最为重要的两个领域：A股市场和债券市场，通过成交、价格等因素对市场的风险、水位、情绪等进行刻画。三大类别、共计八个分支指数如下表所示：
+图20：国信多元资产指数系列跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;名称&lt;/td&gt;&lt;td&gt;起始时间&lt;/td&gt;&lt;td&gt;更新频率&lt;/td&gt;&lt;td&gt;目的&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;宏观景气和政 策量化&lt;/td&gt;&lt;td&gt;1.政策脉冲指数&lt;/td&gt;&lt;td&gt;2002年1月&lt;/td&gt;&lt;td&gt;月&lt;/td&gt;&lt;td&gt;定量观测货币、税收和财政三大政策程度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.货币/信用前瞻指数&lt;/td&gt;&lt;td&gt;2008年11月 /2010年9月&lt;/td&gt;&lt;td&gt;月&lt;/td&gt;&lt;td&gt;衡量国内货币环境宽松、紧缩的程度/衡量实体 信用派生的程度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3.全球央行分歧指数&lt;/td&gt;&lt;td&gt;2002年9月&lt;/td&gt;&lt;td&gt;月&lt;/td&gt;&lt;td&gt;衡量世界主要经济体央行货币政策分歧程度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.A股情绪指数Ⅰ&lt;/td&gt;&lt;td&gt;2006年5月&lt;/td&gt;&lt;td&gt;月&lt;/td&gt;&lt;td&gt;通过价格指标提示A股市场的情绪状态&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;股市交易情绪&lt;/td&gt;&lt;td&gt;2.A股情绪指数Ⅱ&lt;/td&gt;&lt;td&gt;2014年4月&lt;/td&gt;&lt;td&gt;周&lt;/td&gt;&lt;td&gt;提示股票市场交易的高位风险和底部位置&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3.行业轮动指数&lt;/td&gt;&lt;td&gt;2010年1月&lt;/td&gt;&lt;td&gt;周&lt;/td&gt;&lt;td&gt;对市场行业轮动的速度进行定量判定&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;债市情绪和风 险&lt;/td&gt;&lt;td&gt;1.中国债市情绪指数&lt;/td&gt;&lt;td&gt;2017年1月&lt;/td&gt;&lt;td&gt;日&lt;/td&gt;&lt;td&gt;判断和预测市场对未来债券市场、宏观经济的 乐观程度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.债市预警指数&lt;/td&gt;&lt;td&gt;2010年5月&lt;/td&gt;&lt;td&gt;周&lt;/td&gt;&lt;td&gt;基于实体产业和金融数据衡量债市的波动情况&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：万得，国信证券经济研究所整理
+# 2.1 国内政策脉冲指数
+市场往往对货币政策的关注度极高，这是因为降准、降息等货币政策容易观测，每次降准、降息后即可获知对市场投放的流动性是多少。尽管如此，观测货币政策对实体经济所派生出的信用仍有不足之处，容易产生误判。我们参考信用脉冲的构造方法，以老口径社融、财政支出和税收收入（逆向）加总构造广义政策脉冲，发现其对股市行情的前瞻性要强于信用脉冲。12月政策脉冲指数小幅下滑，财政和信用指数下降，税收指数上升。总的来看，政策环境保持平稳。
+图21：国内政策脉冲指数走势  
+![](images/d947bd405bf5b2eb1f589193fc0053248e1278021146b4d0358ff14bb3bdb7ac.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.2 央行分歧指数
+央行分歧指数是用来衡量世界各大经济体央行货币政策分歧程度的一个指标。它对各国央行政策利率的变化方向进行统计分析，能够反映出不同国家央行在国内外部门经济形势和通货膨胀压力等方面的差异性，也可以帮助投资者预判未来各国央行货币政策分歧程度及其变化方向。12月全球央行整体走势指数小幅回升，但近两年中枢持续下移，负向趋势有所加深。政策分歧指数上升，表示全球央行的政策取向一致性减弱。
+图22：央行整体走势指数和分歧指数  
+![](images/0533f8a40dddf910cc073ffa631e8dc67df1f1546a6e741d29de0495c1413c8d.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.3 A 股情绪指数Ⅰ
+我们采用六类底层指标构造 A 股情绪指数 I，这些指标包括基金溢价率、股市交易量和开户数、IPO数量及首日收益率、经济基本面信心等多个维度：
+表2：A 股情绪指数I 的底层指标和解释  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指标简称&lt;/td&gt;&lt;td&gt;指标频率&lt;/td&gt;&lt;td&gt;指标释义&lt;/td&gt;&lt;td&gt;指标方向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DCEF&lt;/td&gt;&lt;td&gt;周度&lt;/td&gt;&lt;td&gt;基金 IOPV 溢折率，将中国上市 ETF 按基金份额加权计算平均溢折率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;TURN&lt;/td&gt;&lt;td&gt;月度&lt;/td&gt;&lt;td&gt;月交易量，当月 A 股市场总交易金额与总流通市值的均值比&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;IPON&lt;/td&gt;&lt;td&gt;月度&lt;/td&gt;&lt;td&gt;当月 IPO 个数，若没有则计为零&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;NIA&lt;/td&gt;&lt;td&gt;月度&lt;/td&gt;&lt;td&gt;A 股账户新增开户数的对数&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;IPOR&lt;/td&gt;&lt;td&gt;日度&lt;/td&gt;&lt;td&gt;IPO 首日收益，按 IPO 日流通股本数加权计算当月平均首日收益率&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CCI&lt;/td&gt;&lt;td&gt;月度&lt;/td&gt;&lt;td&gt;消费者信心指数&lt;/td&gt;&lt;td&gt;正向&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：易志高,茅宁.中国股市投资者情绪测量研究:CICSI的构建[J].金融研究,2009(11):174-184.，国信证券经济研究所整理
+将上述指标按一定权重加总得出投资者情绪指数，具体计算公式为：
+A 股情绪指数 I = 0.231·DCEF + 0.224·TURN $^ +$ 0.257·IPON + 0.322·IPOR+0.268*·CCI + 0.405·NIA。2026 年 1 月 A 股情绪指数Ⅰ下降，指示股票交易情绪有所降温。
+图23：A 股情绪指数 I 和上证指数间走势对比  
+![](images/335e32f6471e5b4adf37e0d971f67e169783d33d4250310c3723ccbfdc8ebabe.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.4 A 股情绪指数Ⅱ
+根据中国 A股市场特点，我们使用一级行业的相对于股票宽基指数（此处以沪深 300为例，同步跟踪万得全 A 和上证指数）的周 Beta 系数和周收益率等基础数据，可以构建适合国内语境的投资者情绪指数，该指数在历史上基本可以提示了沪深 300指数的运行趋势、底部空间和风险位置。1 月中旬情绪指数Ⅱ出现一次积极信号，1 月未出现消极信号。
+图24：投资者情绪指数构建原理  
+![](images/e9603fec8be26113e640144e65273bfe45243495f8663b9bcbf3da256d76b855.jpg)  
+资料来源：国信证券经济研究所绘制
+图25：A 股情绪指数 II 对于沪深 300指数的提示信号  
+![](images/d0452e9d306f6b9a24280ce6fe43223da87f698c473b1049cc2692b58c84af63.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.5 行业轮动指数
+我们对各行业过去一年左右时间内的涨跌幅进行排序，根据各个行业涨跌幅排名变化构造行业轮动指数。如果每个行业涨跌幅排名当期没有发生变化，那行业轮动指数将降至 0，该指数越高代表行业轮动的速度越快，越难以通过市场主线的思维捕捉。2026年 1月行业轮动指数呈 U型走势，先高位回落再回升，月度均值较 2025 年 12月没有明显变化，近两月的行业轮动节奏由极端活跃向偏快水平回归。
+图26：行业轮动指数显示，市场在上涨初期往往伴随高速轮动  
+![](images/90ea895139106ae77f3bf1db9f974fc37b678aeb6bbeb3f3209f48a9effce4e7.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 2.6 中国债市情绪指数
+为准确判断和预测市场对未来债券市场、宏观经济的乐观程度，我们构建中国债市情绪指数，以解释说明价格因素、流动性净投放因素对国债收益率波动无法解释的部分。2026年 1 月债市情绪指数微幅下降，投资者对债券市场的关注度无明显变化。
+图27：中国债市情绪指数与 10年期国债到期收益率走势  
+![](images/f9d892ad445647d8172cba12a2b33776200b1e42b326a12ffc9db16728cbe959.jpg)  
+资料来源：万得，国信证券经济研究所整理
+# 风险提示
+1）情绪因素对市场的扰动；  
+2）美联储货币政策不确定性。
+# 免责声明
+# 分析师声明
+作者保证报告所采用的数据均来自合规渠道；分析逻辑基于作者的职业理解，通过合理判断并得出结论，力求独立、客观、公正，结论不受任何第三方的授意或影响；作者在过去、现在或未来未就其研究报告所提供的具体建议或所表述的意见直接或间接收取任何报酬，特此声明。
+国信证券投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;投资评级标准&lt;/td&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;级别&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;报告中投资建议所涉及的评级（如有）分为股票评级和行业评级（另有说明的除外）。评级标准为报告发布日后6到12个月内的相对市场表现，也即报告发布日后的6到12个月内公司股价（或行业指数）相对同期相关证券市场代表性指数的涨跌幅作为基准。A股市场以沪深300指数（000300.SH）作为基准；新三板市场以三板成指（899001.CSI）为基准；香港市场以恒生指数（HSI.HI）作为基准；美国市场以标普500指数（SPX.GI）或纳斯达克指数（IXIC.GI）为基准。&lt;/td&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;股价表现优于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;股价表现介于市场代表性指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;股价表现弱于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;无评级&lt;/td&gt;&lt;td&gt;股价与市场代表性指数相比无明确观点&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;行业指数表现优于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;行业指数表现介于市场代表性指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;行业指数表现弱于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 重要声明
+本报告由国信证券股份有限公司（已具备中国证监会许可的证券投资咨询业务资格）制作；报告版权归国信证券股份有限公司
+关本报告的摘要或节选都不代表本报告正式完整的观点，一切须以我公司向客户发布的本报告完整版本为准。
+本报告基于已公开的资料或信息撰写，但我公司不保证该资料及信息的完整性、准确性。本报告所载的信息、资料、建议及推测仅反映我公司于本报告公开发布当日的判断，在不同时期，我公司可能撰写并发布与本报告所载资料、建议及推测不一致的报告。我公司不保证本报告所含信息及资料处于最新状态；我公司可能随时补充、更新和修订有关信息及资料，投资者应当自行关注相关更新和修订内容。我公司或关联机构可能会持有本报告中所提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行、财务顾问或金融产品等相关服务。本公司的资产管理部门、自营部门以及其他投资业务部门可能独立做出与本报告中意见或建议不一致的投资决策。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。在任何情况下，本报告中的信息和意见均不构成对任何个人的投资建议。任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。投资者应结合自己的投资目标和财务状况自行判断是否采用本报告所载内容和信息并自行承担风险，我公司及雇员对投资者使用本报告及其内容而造成的一切后果不承担任何法律责任。
+# 证券投资咨询业务的说明
+本公司具备中国证监会核准的证券投资咨询业务资格。证券投资咨询，是指从事证券投资咨询业务的机构及其投资咨询人员以下列形式为证券投资人或者客户提供证券投资分析、预测或者建议等直接或者间接有偿咨询服务的活动：接受投资人或者客户委托，提供证券投资咨询服务；举办有关证券投资咨询的讲座、报告会、分析会等；在报刊上发表证券投资咨询的文章、评论、报告，以及通过电台、电视台等公众传播媒体提供证券投资咨询服务；通过电话、传真、电脑网络等电信设备系统，提供证券投资咨询服务；中国证监会认定的其他形式。
+发布证券研究报告是证券投资咨询业务的一种基本形式，指证券公司、证券投资咨询机构对证券及证券相关产品的价值、市场走势或者相关影响因素进行分析，形成证券估值、投资评级等投资分析意见，制作证券研究报告，并向客户发布的行为。
+# 国信证券经济研究所
+深圳
+深圳市福田区福华一路 125 号国信金融大厦 36 层
+邮编：518046 总机：0755-82130833
+上海
+上海浦东民生路 1199 弄证大五道口广场 1 号楼 12 层
+邮编：200135
+北京
+北京西城区金融大街兴盛街 6 号国信证券 9 层
+邮编：100032</t>
+  </si>
+  <si>
+    <t># 科技资源景气延续，内需或迎景气拐点
+中观景气跟踪2月第1期
+# 本报告导读：
+中观景气分化，AI产业趋势延续，科技硬件需求保持旺盛；供需偏紧的化工品价格偏强，有色价格剧烈波动；高端白酒价格回升，消费复苏成色仍有待检验。
+# 投资要点：
+[T le_Summary] 科技资源景气延续，内需或迎景气拐点。上周（01.26-02.01）中观景气表现分化，景气线索有：1）AI基建投资驱动下，全球科技硬件需求仍然旺盛，存储芯片价格短期涨价趋势放缓，但仍然延续高位；2）资源品价格局部上涨，供给出清较深或存在供给约束的化工品价格较强，有色供给仍偏紧，但受美联储主席换届影响，价格出现大幅波动；3）消费复苏出现一些亮点，高端白酒价格企稳回升，地产收储政策取得进展，地产内需已经经历了长期的供给出清，若地产需求企稳，内需消费或迎来景气拐点。当前传统消费景气复苏趋势仍待观察，春节假期或成为重要的验证窗口。  
+。 下游消费：高端白酒价格回升，上海启动二手房收储。1）食品饮料：飞天茅台原装/散装批价环比 $+ 3 . 9 \% / + 3 . 0 \%$ ，或受春节前礼赠需求回暖的带动；生猪价格环比 $- 3 . 3 \%$ ，主因养殖端出栏加速，25年12月能繁母猪存栏量同环比 $- 2 . 9 \% / - 1 . 8 \%$ ，或对未来生猪供给形成制约。必选消费板块景气复苏出现一定亮点，但持续性有待观察。2）地产：30 大中城市商品房成交面积较 25 年农历同比 $- 2 3 . 1 \%$ ，其中一线/二线/三线城市商品房成交面积分别较 25 年农历同期- $4 1 . 6 \% / - 3 . 4 \% / .$ -$3 1 . 8 \%$ ，10 大重点城市二手房成交面积较 25 年农历同期- $. 6 . 5 \%$ 。地产销售同比仍偏弱，上海启动二手房收储，后续关注地产政策落地效果。3）耐用品：2026年 01.11-01.18，乘用车日均零售同比 $- 2 2 . 0 \%$ ，26年1月经销商库存预警指数环比 $+ 1 . 7 \%$ ，耐用品景气仍承压。  
+科技&amp;制造：存储涨价有所放缓，化工品价格仍偏强。1）电子：截止 01.30 当周，DRAM 存储器 DDR4/DDR5 现货均价环比-$1 . 3 \% / + 1 . 4 \%$ ，存储涨价有所放缓但价格仍延续高位；2025 年韩国半导体出口额同比 $+ 2 2 . 2 \%$ ，其中存储芯片 $+ 3 4 . 8 \%$ 。2）基建地产：建工需求仍偏弱，钢铁建材价格延续低位震荡。3）制造业：春节前企业招聘意愿环比回落，化工开工率环比下滑，化工品价格仍偏强，PX/PTA 价格环比 $+ 5 . 2 \% / - 0 . 4 \%$ ，制冷剂R134a价格延续高位。  
+。 上游资源：煤价小幅上涨，工业金属价格剧烈波动。1）煤炭：煤价环比 $+ 1 . 0 \%$ ，主因出现短暂寒潮，电厂日耗有所回升；2）有色：工业金属价格出现剧烈波动，主要受沃什出任美联储主席影响。  
+。 人流物流：节前客运需求保持平稳，港口吞吐环比提升。1）客运：10大主要城市客运量环比- $. 0 . 2 \%$ ，百度迁徙指数环比 $+ 6 . 4 \%$ ，春节前客运需求保持平稳。2）货运：货运物流需求环比提升，全国高速公路货车通行量/全国铁路货运量同比 $+ 4 . 8 \% / + 2 . 3 \%$ ，全国邮政快递揽收/投递量同比 $+ 5 . 3 \% / + 5 . 8 \%$ ，或受到节前备货需求的带动。3）海运：上海集运价格节前淡季回落，国际干散运价格环比显著提升，主因运力偏紧，国内港口吞吐量环比回升，或显示出口景气有所回暖。  
+。 风险提示：国内政策的不确定性，贸易摩擦的不确定性，全球地缘政治的不确定性。
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;方奕(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38031658&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;fangyi2@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880520120005&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;陶前陈(研究助理)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;0755-23976164&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;taoqianchen@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880125070014&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;张逸飞(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38038662&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;zhangyifei@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880524080008&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# [Table_Rep相关报告
+融资资金开始回流 2026.02.03
+成交活跃度上升，上证 50估值领涨 2026.02.01
+资产概览：沃什交易逆转美元与黄金走势
+2026.02.01
+2025A 业绩预告情况跟踪（2026.01.28）
+2026.01.29
+ETF资金大幅流出，主动外资流入边际抬升
+2026.01.27
+# 目录
+1. 下游消费：高端白酒价格回升，上海启动二手房收储..  
+2. 科技&amp;制造：存储涨价有所放缓，化工品价格仍偏强.
+2.1. 电子：存储芯片涨价有所放缓  
+2.2. 基建地产链：钢铁、水泥价格边际下滑，玻璃价格小幅上涨.............5  
+2.3. 制造业：企业招聘环比回落，化工品价格表现较强 .6
+3. 上游资源：煤价小幅上涨，工业金属价格剧烈波动.  
+4. 物流人流：节前客运需求保持平稳，港口吞吐环比提升. 8   
+5. 风险提示. .10
+# 1. 下游消费：高端白酒价格回升，上海启动二手房收储
+食品饮料：高端白酒价格环比回升。截止2026.01.31，飞天茅台原装/散装批发参考价分别环比 $+ 3 . 9 \% / + 3 . 0 \%$ 至 1615/1597 元，茅台价格回暖或与春节前礼赠需求改善有关。2025 年 12 月食品饮料类商品零售景气延续小幅增长，但增速有所下滑，总体来看，消费景气修复仍待观察。
+图1：飞天茅台原装/散装批价环比 $+ 3 . 9 \% / + 3 . 0 \%$   
+![](images/748347a470e637792343e33d36bed7092222f6ba8601526cb5b461a9c441b391.jpg)  
+数据来源：Wind，国泰海通证券研究
+图2：2025 年 12 月食品饮料零售额延续小幅增长  
+![](images/57f42f1ea279050f11a4e614ac927993db3d8f72b795bb69d70d0b205a458886.jpg)  
+数据来源：Wind，国泰海通证券研究
+生猪：生猪价格环比下降，能繁母猪存栏量同环比下滑。截至02.01，全国生猪（内三元）价格为 12.83/千克，周环比 $- 3 . 3 \%$ ，主因养殖端出栏加速，下游需求承接乏力。2025 年12 月中国能繁母猪存栏量同环比- $- 2 . 9 \% / - 1 . 8 \%$ ，生猪产能下降，或对未来生猪供给形成制约，继续关注农牧行业供给出清及终端供需变化。
+图3：全国生猪平均价周环比 $\mathbf { - 3 . 3 \% }$   
+![](images/2920dfb2197763ab799c66949a868df75a6521c2852bed6eb27b571588d2ee27.jpg)  
+数据来源：Wind，国泰海通证券研究
+图4：2025 年 12 月能繁母猪存栏量同环比 $- 2 . 9 \% / - 1 . 8 \%$   
+![](images/31f6093d29662678574869c210021026ba1c4c01239bb7c66686e23ab111ac87.jpg)  
+数据来源：Wind，国泰海通证券研究
+服务消费：春节错位影响，服务消费景气同比偏弱。截止 02.01当周，国内电影票房为2.83亿元，环比小幅下滑，同比 $- 9 5 . 2 \%$ ，主因25年同期春节和爆款新片的高基数效应。01.18-01.25海南旅游价格指数环比 $+ 3 . 7 \%$ ，同比增速回落至 $8 . 4 \%$ ，旅游景气相对较强。
+图5：截止 02.01 当周国内电影票房收入同比 $- 9 5 . 2 \%$   
+![](images/2f3a0b0f3a3543d4b235352ff30ef0cb50f0e4a3d8ca8413c96be904811ffc67.jpg)  
+数据来源：Wind，国泰海通证券研究
+图6：01.18-01.25 海南旅游价格指数环比 $+ 3 . 7 \%$   
+![](images/7ee1ca990d9580705db4942286a4be57c99f964a62a062f02ddbc7290d79d974.jpg)  
+数据来源：iFind，国泰海通证券研究
+地产：终端销售同比仍偏弱，上海开启二手房收储。截至02.01当周，30大中城市商品房成交面积 148.2 万平方米，较 2025 年农历同期- $- 2 3 . 1 \%$ ，新房销售降幅边际收窄。其中一线/二线/三线城市商品房成交面积分别较 25 年农历同比 $- 4 1 . 6 \% / - 3 . 4 \% / - 3 1 . 8 \%$ 。10大重点城市二手房成交面积 157.5万平方米，较2025年农历同期- $. 6 . 5 \%$ 。根据凤凰网报道，2月2 日，中国建设银行支持上海市第一批收购二手住房用于保障性租赁住房项目签约活动举行，标志着上海收储进入实操阶段。后续关注上海收储进展及全国新增地产政策。
+图7：30 大中城市商品房成交较 25 农历同期- $. 2 3 . 1 \%$   
+![](images/6a950d10e3233724e8e4373f82fdb9a0d07302cb225b0337415fce633ce2f10a.jpg)  
+数据来源：Wind，国泰海通证券研究
+图8：10 大重点城市二手房销售较 25 农历同期- $\mathbf { \delta } \mathbf { \cdot } \mathbf { 5 } \%$   
+![](images/31465ece3346dd8a6dd70cf3c4d3e3ea81e3fcf6229f3ced2801e251e7d05442.jpg)  
+数据来源：Wind，国泰海通证券研究
+乘用车：销量延续下滑，1月经销商库存压力边际上行。根据乘联会，2026年 01.11-01.18，国内乘用车日均零售 5.02 万辆，同比- $- 2 2 . 0 \%$ ， 2026 年 1 月乘用车零售同比大幅下滑主要受 25 年初国补高基数以及新能源车购置税免征政策退坡影响。2026 年1 月中国汽车经销商库存预警指数为 $5 9 . 4 \%$ ，同比下降2.9个百分点，环比上升 1.7个百分点，库存预警指数位于荣枯线之上。
+图9：01.11-01.18 乘用车日均零售同比- $- 2 2 . 0 \%$   
+![](images/61373e3d2f16e2845281818371ca7819fc51f9bffdb1ee622311e3ccbaa104dd.jpg)  
+数据来源：乘联会，国泰海通证券研究
+图10：2026年 1月乘用车零售价同比 $+ 1 1 . 0 \%$   
+![](images/69f148dccc9f19f1f68632a5e6280643be4c6271d3fd51ee45a784b99e1f0287.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 2. 科技&amp;制造：存储涨价有所放缓，化工品价格仍偏强2.1. 电子：存储芯片涨价有所放缓
+电子：全球算力需求依然强劲，存储芯片涨价放缓。AI 基建需求驱动下，科技硬件景气持续增长。2025 年韩国半导体出口额达 1734 亿美元，同比$+ 2 2 . 2 \%$ ，其中存储芯片出口额达 1190 亿美元，同比 $+ 3 4 . 8 \%$ 。截止 01.30，DRAM DDR4/DDR5 均价环比- $\cdot 1 . 3 \% / + 1 . 4 \%$ 至77.7/37.2 美元，存储涨价放缓。
+图11：25 年 12 月韩国内存芯片出口额同比 $+ 3 4 . 8 \%$   
+![](images/dcac51dee103f5f602beaa3ea71963e0b4a8b850620fb2e5e55af65fc605d001.jpg)  
+数据来源：Wind，国泰海通证券研究
+图12：DRAM DDR4/DDR5 均价环比 $\mathbf { \nabla } \cdot 1 . 3 \% / + 1 . 4 \%$   
+![](images/1f26ba2f095fc47ca2501ecd7fd7c98adbf7eadd9521de16ab12a9c81452823d.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 2.2. 基建地产链：钢铁、水泥价格边际下滑，玻璃价格小幅上涨
+钢价小幅下滑。截至01.30，螺纹钢/热轧板卷价格分别报收3240/3290元/吨，周环比变化- $. 0 . 6 \% / - 1 . 2 \%$ ，螺纹钢表观消费量为 176.4 万吨，周环比 $- 4 . 9 \%$ ，高炉开工率环比 $+ 0 . 4 \%$ 至 $7 9 . 0 \%$ 。下游需求改善，高炉开工小幅增长，钢价边际下滑。后续关注行业反内卷和稳增长政策的执行效果。
+图13：螺纹钢/热轧板卷价格周环比变化- ${ \bf 0 . 6 \% } / { \bf - 1 . 2 \% }$   
+![](images/69bdc5385ea576405413bcfbb5267efce969bfab0f6a07fd1f3f7f6d3580dcda.jpg)  
+数据来源：Wind，国泰海通证券研究
+图14：高炉开工率周环比 $+ 0 . 4 \%$   
+![](images/8afb4805d28b539a16e3543e14d6ae9a1bbcf83c773c13d295e59d981d1170f1.jpg)  
+数据来源：Wind，国泰海通证券研究
+图15：螺纹钢表观消费量周环比 $\mathbf { \partial } \mathbf { \ J } ^ { \mathbf { a } } \mathbf { \% }$   
+![](images/8bb812984ffad88c9f455a32ff48a1bf87bf501f2bf8c45fd10b42948af7adf0.jpg)  
+数据来源：Mysteel，国泰海通证券研究
+图16：钢材社会库存周环比 $. + 2 2 . 3$ 万吨  
+![](images/8f715e1e839aa5b65f94c529faa7e8d8a24eb90900f66b346753456973515c66.jpg)  
+数据来源：Wind，国泰海通证券研究
+建材价格窄幅震荡。截至 01.29，国内浮法玻璃平均价 1144.8元/吨，周环比$+ 0 . 6 \%$ ，浮法玻璃价格小幅上涨。浮法库存总量4927万重量箱，环比-50万重量箱。截止01.30，全国水泥价格指数环比- $\cdot 1 . 0 \%$ ，全国水泥发运率 $2 6 . 4 \%$ ，环比持平，基建地产施工需求仍偏弱。后续关注建材行业反内卷政策执行情况.
+图17：全国浮法玻璃均价周环比 $+ 0 . 6 \%$   
+![](images/805af58e92d5fe793b1a97d604b1a9d40e42090f776eb7d6521f42680a997073.jpg)  
+数据来源：卓创资讯，国泰海通证券研究
+图18：全国浮法玻璃库存量周环比-50万重箱  
+![](images/0509d1275dc792aad660351e3cf343f002e27cffd82c131cdf093e4b664a24cc.jpg)  
+数据来源：卓创资讯，国泰海通证券研究
+图19：全国水泥价格指数周环比 $\mathbf { - 1 . 0 \% }$   
+![](images/3176127619412b79396cc22cd0e6b2ab7679d2025c7f38352e1ada1863431c6b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图20：全国水泥发运率周环比持平  
+![](images/57df390af8ef0a53b6b488f694bf4aae1f7dbc11cf5f9900794b87f7f344f747.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 2.3. 制造业：企业招聘环比回落，化工品价格表现较强
+汽车开工保持平稳，化工开工率环比下滑。截至01.29 当周，1）半钢胎/全钢胎开工率分别为 $7 4 . 8 \% / 6 2 . 4 \%$ ，环比 $+ 0 . 3 \% / { - 0 . 2 \% }$ ，同比 $+ 4 . 5 \% / + 2 0 . 4 \%$ ；2）PTA/聚酯/涤纶长丝开工率分别为 $7 5 . 8 3 \% / 8 1 . 7 1 \% / 8 4 . 2 1$ ，环比 $0 . 0 \% / - 3 . 5 \% / .$ -$2 . 5 \%$ ，同比- $5 . 5 \% / + 8 . 2 \% / + 3 . 9 \%$ ；3）截至01.28的周度石油沥青装置开工率为 $2 5 . 5 \%$ ，环比- $\cdot 1 . 3 \%$ ；4）截至 02.01 企业新增招聘帖数 9.7 万条，同比
+$+ 9 6 5 . 9 \%$ ，环比- $. 1 0 . 6 \%$ 。
+图21：半钢胎/全钢胎开工率环比 $+ 0 . 3 \% / - 0 . 2 \%$   
+![](images/6eae214ffd56300df3b9ecfa07b31e3dfe420622c0bb550d31c083e0e7adaef0.jpg)  
+数据来源：Wind，国泰海通证券研究
+图22：PTA/聚酯开工率环比 $0 . 0 \% / - 3 . 5 \%$   
+![](images/745e8a98f835baeafb595bbed9fde74bd47deb4fd403bc58db0a6eee6f0288ec.jpg)  
+数据来源：Wind，国泰海通证券研究
+图23：石油沥青装置开工率环比- $\mathbf { \delta } \mathbf { \cdot } \mathbf { 1 . 3 \% }$   
+![](images/e5ab3c51eef4e0875c632e41a1a50efb10e4fcbfe242241052b822cf4b16af36.jpg)  
+数据来源：Wind，国泰海通证券研究
+图24：新增招聘帖数环比- $1 0 . 6 \%$   
+![](images/835bd72acf85d42af2f7cbb68d1006c4f93e504249ada12799aacec4f2dc0b72.jpg)  
+数据来源：Wind，国泰海通证券研究
+图25：PX/PTA 价格环比 $+ 5 . 2 \% / { - 0 . 4 \% }$   
+![](images/89941ee435857d101ae87b4a4969f5c3c1e0cb9357e76df5e0eb0edf140b35d9.jpg)  
+数据来源：Wind，国泰海通证券研究
+图26：制冷剂价格延续高位  
+![](images/dffac3c82f95b77b55ab2c8a20be09cb4e8bac44efe2e8143191c4d3a0c3365c.jpg)  
+数据来源：iFind，国泰海通证券研究
+# 3. 上游资源：煤价小幅上涨，工业金属价格剧烈波动
+煤炭：煤价小幅上涨。截至 01.30，秦皇岛港 Q5500 动力煤平仓价报收 692元/吨，周环比 $+ 1 . 0 \%$ ，煤炭价格窄幅震荡，主因出现短暂寒潮，电厂日耗明显提升。后续关注煤炭行业反内卷进展以及供暖需求情况。
+图27：秦皇岛港 Q5500 动力煤平仓价周环比 $+ 1 . 0 \%$   
+![](images/2f29ae096f0b33dd90c2cb32cc59e000142f22f99e000565eca4aae7b457fbdb.jpg)  
+数据来源：Wind，国泰海通证券研究
+图28：电厂日耗边际提升  
+![](images/109824716150113e9a57ac6183760d0a87349cff256e45d12276a1547f2f9341.jpg)  
+数据来源：Wind，国泰海通证券研究
+有色：工业金属价格剧烈波动。截至01.30，SHFE 铜/铝价格分别 $1 0 . 4 / 2 . 5$ 万元/吨，环比 $+ 2 . 3 \% / - 4 . 9 \%$ 。工业金属价格周内出现剧烈波动，上半周在供需偏紧预期下，工业金属价格大幅上涨，下半周受特朗普提名偏鹰的沃什出任下任美联储主席，市场交易缩表预期，工业金属价格明显回调。
+图29：SHFE铜/铝价周环比 $+ 2 . 3 \% / - 4 . 9 \%$   
+![](images/09caf2207989ae1da5d7335274bc25e75dc31d4c5d1ac7013c09f1bad27d18c7.jpg)  
+数据来源：Wind，国泰海通证券研究
+图30：LME 铜/铝价周环比 $+ 0 . 3 \% / - 0 . 8 \%$   
+![](images/fbe137952293abfd9a00f84f0464edc011947ddd7a2c9fb32284b1e389d7b6db.jpg)  
+数据来源：Wind，国泰海通证券研究
+图31：铜总库存周环比 $+ 2 . 5$ 万吨  
+![](images/fc6254bb6e6c6ea67c646373b6d5ff166544b95f714602c35ea9ac2c081ab98b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图32：铝总库存周环比 $\mathbf { \nabla } + \mathbf { 0 . 8 }$ 万吨   
+![](images/acb2137139db3d712346dc8165910a0d51a0f8fe78e2ad9f00fa8bdaf2cb3313.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 4. 物流人流：节前客运需求保持平稳，港口吞吐环比提 升
+节前客运需求总体平稳，后续关注春运出行景气。截至 02.01 当周，1）10大主要城市地铁客运量周环比- $. 0 . 2 \%$ ，同比 $+ 1 0 9 . 9 \%$ ；2）百度迁徙规模指数环比 $+ 6 . 4 \%$ ，同比 $- 2 4 . 4 \%$ ；3）国内航班执飞架次周环比 $+ 4 . 0 \%$ ，同比 $- 2 . 2 \%$ ，较 19 年同期 $+ 9 . 1 \%$ ；国际航班执飞架次周环比 $- 4 . 6 \%$ ，恢复至 2019 年同期
+$8 2 . 0 \%$
+图33：十大重点城市地铁客运环/同比- $\mathbf { 0 . 2 \% / + 1 0 9 . 9 \% }$   
+![](images/538c0f0546f7aeb3c08bce149db48cfbf50048ccc272203afde54e1ab1831566.jpg)  
+数据来源：Wind，国泰海通证券研究
+图34：百度迁徙规模指数环/同比 $+ 6 . 4 \% / - 2 4 . 4 \%$   
+![](images/17c5568dd870cfe36901618279c21922497516e29ad3ede04fdf28358bb27686.jpg)  
+数据来源：百度迁徙，国泰海通证券研究
+图35：国内航班执飞架次环/同比 $+ 4 . 0 \% / - 2 . 2 \%$   
+![](images/bac6b3d1cf02f531faa1a704cafa7c408c8268610eaa45fc8686410bf268c662.jpg)  
+数据来源：航班管家，国泰海通证券研究
+图36：国际航班执飞架次环/同比-4.6%/-1.1%   
+![](images/6050a8c80d7cbaaec1d2760e488e1d5e7b14292c23573560fe92d515555743ad.jpg)  
+数据来源：航班管家，国泰海通证券研究
+货运物流需求环比提升。截至02.01当周，全国高速公路货车通行量/全国铁路货运量环比 $+ 4 . 8 \% / + 2 . 3 \%$ ，同比 $+ 5 0 6 . 1 \% / + 1 7 . 1 \%$ ；上周全国邮政快递揽收/投递量环比 $+ 5 . 3 \% / + 5 . 8 \%$ ，同比 $+ 6 8 7 . 0 \% / + 5 2 8 . 8 \%$
+图37：高速/铁路货运量环比 $+ 4 . 8 \% / + 2 . 3 \%$   
+![](images/f5caf17195d68c36f50218fd23fcf4b866c92bb90930854cfaf53c5927137474.jpg)  
+数据来源：iFind，国泰海通证券研究
+图38：快递揽收/投递量环比 $+ 5 . 3 \% / + 5 . 8 \%$   
+![](images/d04e5ce895bbcd824f85cd54aeb47ac0c1541d8b0fd06d2d61d8ec6ee0cc8327.jpg)  
+数据来源：iFind，国泰海通证券研究
+干散运价环比大幅提升，国内港口吞吐环比显著提升。截至01.30，SCFI指数报收1316.8点，环比 $- 9 . 7 \%$ ，主因市场进入春节淡季；干散运方面，波罗的海干散货指数（BDI）环比 $+ 2 1 . 9 \%$ 。截至02.01当周，中国港口货物吞吐量/集装箱吞吐量分别为 2.8亿吨/740.8万标准箱，环比 $+ 9 . 6 \% / + 1 2 . 4 \%$ 。
+图39：SCFI/BDI 指数周环比- $\mathbf { \cdot 9 . 7 \% } / + 2 1 . 9 \%$   
+![](images/4fdfc9e99b0b9a8c7a0e61a9d07902a5ae30f3744a3b20c9be62364577452c9b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图40：港口货物/集装箱吞吐量环比 $+ 9 . 6 \% / + 1 2 . 4 \%$   
+![](images/7dfbd1d1f30b92d249fbe0a0fab3b1a10bdf95940f33fd0746a9efcb8d6241eb.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 5. 风险提示
+国内政策的不确定性。国内财政和货币政策的出台、落地和执行情况尚存不确定性，政策强度及节奏的变化或对市场造成冲击。
+贸易摩擦的不确定性。中美贸易摩擦仍存不确定性，贸易摩擦持续时间及烈度的变化或对市场造成冲击。
+全球地缘政治的不确定性。部分地区地缘冲突演化方向与烈度难以准确判断，突发事件或对市场造成冲击。
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+# 评级说明
+# 投资建议的比较标准
+投资评级分为股票评级和行业评级。
+以报告发布后的 12个月内的市场表现为比较标准，报告发布日后的 12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深 300指数涨跌幅为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址
+上海市黄浦区中山南路 888 号
+邮编
+200011
+电话
+（021）38676666</t>
+  </si>
+  <si>
+    <t># 市场波动加剧，权益商品迎配置良机
+ 国泰海通资产配置月度方案（202602）
+# 本报告导读：
+基于国泰海通“全天候”大类资产配置框架，我们认为流动性危机加剧市场波动将加速大类资产再定价，全球权益和大宗商品或仍有表现机会，建议 2 月超配 AH股、美股、原油与工业商品。
+# 投资要点：
+[ le_Summary]我们构建了由“战略性资产配置（SAA）—战术性资产配置（TAA）—重大事件审议调整”构成的“全天候”大类资产配置框架，以作为投资决策的整体指引。该框架首先通过 SAA分散宏观风险，设定长期配置的基准比例，以保证组合的稳健性；TAA通过定量方法识别短期风险回报特征更优的资产，并对组合权重进行适度调整，以提升收益水平；最终，结合重大事件的主观审议，对量化结果进行校正与补充。我们认为流动性危机加剧市场波动将加速大类资产再定价，在基本维度定价因素未变的基础上，全球权益和大宗商品或仍有表现机会，建议 2 月超配AH股、美股、原油与工业商品。  
+建议 2026 年 2 月权益配置权重为 $4 7 . 5 0 \%$ ：超配 A股（ $1 0 . 0 0 \%$ ），超配港股（ $1 0 . 0 0 \%$ ），超配美股（ $1 7 . 5 0 \%$ ），标配欧股（ $5 . 0 0 \%$ ），标日股（ $5 . 0 0 \%$ ）。权益资产中，（1）多重因素支持中国权益表现，建议超配 A/H股。经济工作会议临近，2026年是十五五开局之年，预计广义赤字有望进一步扩张，经济政策有望更加积极。美联储 12 月如期降息，人民币稳定升值，为 2026 年初中国宽松货币提供有利条件。改革提振中国市场风险偏好。流动性危机引发的市场波动，反而是 A/H 股的配置良机。（2）“金发姑娘”背景渐显有利于美股表现，建议超配美股。美国经济边际降温但韧性仍在，内生性通胀粘性逐渐减弱，企业盈利预期或仍支撑美股中枢上行。  
+. 建议 2026 年 2月债券配置权重为 $3 5 . 0 0 \%$ ：长久期国债（ $7 . 5 0 \%$ ），短久期国债（ $1 0 . 0 0 \%$ ），长久期美债（ $7 . 5 0 \%$ ），短久期美债（ $1 0 . 0 0 \%$ ）。债券资产中，（1）结构性货币政策或强化国债配置力量。融资需求与信贷供给不平衡仍是客观现实，但风险偏好中枢趋势性上行，居民企业或进行资产配置再平衡。此前债市由于缺乏有效的配置力量而较为低迷，而随着结构性货币政策发力，配置型资金的购债意愿或得以强化。（2）美国经济边际收敛但未失速，劳动力市场温和降温，能源价格走弱与薪资增速偏缓有利于内生性通胀粘性下降。特朗普提名的美联储主席沃什主张缩表，并温和调降货币政策利率，后续美债利率有望温和下行。但特朗普政府施行霸权主义，破坏国际地缘政治秩序，美国主权信用被大幅削弱，全球央行与大型养老金机构趋势性减持美债，美债相较于其他大类资产的风险回报比极低。  
+. 建议 2026 年 2月商品配置权重为 $1 2 . 5 0 \%$ ：标配黄金（ $5 . 0 0 \%$ ），超配原油（ $3 . 7 5 \%$ ），超配工业商品（ $. 3 . 7 5 \%$ ）。大宗商品中，（1）中东地缘政治局势博弈加剧，建议超配原油。全球原油需求相对偏弱，OPEC+决定 3 月继续暂停增产，近期中东地缘政治局势博弈严重，原油价格或将得到阶段性提振。（2）需求预期上修与交易动量维持高位，建议超配工业商品。以铜为代表的工业金属或阶段性处于供需不平衡的情况。建筑、电网与电动车是当下的主要需求驱动，AI算力扩张与电网现代化亦带来新增结构性需求，而铜的开发成本与复杂性显著提高。  
+风险提示：分析维度存在局限性，模型设计存在主观性，历史与预期数据存在偏差，市场一致预期调整，量化模型局限性。
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;方奕(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38031658&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;fangyi2@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880520120005&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;李健(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;010-83939798&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;lixian8@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880525070013&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;王子翌(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38038293&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;wangziyi@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880523050004&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# [Table_Repo相关报告
+新年初迎配置窗口，建议超配风险资产
+2025.12.30
+11 月超配 AH 股与工业商品 2025.11.10
+10 月超配权益与黄金，标配债券 2025.10.15
+稳固结构蓄势能，9月建议超配权益 2025.09.06
+黄金屡创新高，国内资产风险平价策略本年收益达到 0.95% 2025.04.09
+# 目录
+1. 资产表现回顾与宏观跟踪.
+1.1. 国泰海通资产配置框架.  
+1.2. 宏观一致预期边际变化跟踪
+2. 战略配置：以宏观因子风险平价模型分散风险... 6
+3. 战术配置：BL策略融合主被动观点增强收益.. 8
+3.1. 从单资产宏观因子建模到多资产轮动 8   
+3.2. 结合 SAA配置中枢与 TAA增厚收益的方案表现亮眼.... . 10
+4. 重大宏观事件审议与配置方案 . 12
+4.1. 近期重大宏观事件审议 . 12  
+4.2. 2026 年 2 月战术性大类资产配置方案 13
+5. 风险提示.. . 15
+# 1. 资产表现回顾与宏观跟踪
+我们以月报的形式回顾 2026 年 1 月市场关注度高、对大类资产影响较大的事件和重要数据，并进行必要审议点评，同时基于国泰海通大类资产配置框架分析宏观经济边际变化对于大类资产预测与 TAA（战术性资产配置）的影响。战术性配置观点反映了我们对某项资产在未来 1~3 个月内相较于其他资产风险回报比的预期。
+表1：全球主要大类资产上月表现情况汇总  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2" colspan="2"&gt;大类资产&lt;/td&gt;&lt;td rowspan="2"&gt;资产标的&lt;/td&gt;&lt;td colspan="8"&gt;涨跌幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年初至今&lt;/td&gt;&lt;td&gt;过去1周&lt;/td&gt;&lt;td&gt;过去1月&lt;/td&gt;&lt;td&gt;过去3月&lt;/td&gt;&lt;td&gt;过去6月&lt;/td&gt;&lt;td&gt;过去1年&lt;/td&gt;&lt;td&gt;过去3年&lt;/td&gt;&lt;td&gt;过去5年&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="17"&gt;权益&lt;/td&gt;&lt;td rowspan="7"&gt;A股&lt;/td&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;3.76%&lt;/td&gt;&lt;td&gt;-0.44%&lt;/td&gt;&lt;td&gt;3.76%&lt;/td&gt;&lt;td&gt;4.13%&lt;/td&gt;&lt;td&gt;15.25%&lt;/td&gt;&lt;td&gt;26.68%&lt;/td&gt;&lt;td&gt;26.49%&lt;/td&gt;&lt;td&gt;18.23%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;1.13%&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;1.82%&lt;/td&gt;&lt;td&gt;10.46%&lt;/td&gt;&lt;td&gt;18.69%&lt;/td&gt;&lt;td&gt;9.21%&lt;/td&gt;&lt;td&gt;-17.42%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;1.42%&lt;/td&gt;&lt;td&gt;15.48%&lt;/td&gt;&lt;td&gt;23.30%&lt;/td&gt;&lt;td&gt;13.22%&lt;/td&gt;&lt;td&gt;-12.06%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证800&lt;/td&gt;&lt;td&gt;4.49%&lt;/td&gt;&lt;td&gt;-0.70%&lt;/td&gt;&lt;td&gt;4.49%&lt;/td&gt;&lt;td&gt;4.82%&lt;/td&gt;&lt;td&gt;20.42%&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;td&gt;18.35%&lt;/td&gt;&lt;td&gt;-2.77%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;8.16%&lt;/td&gt;&lt;td&gt;-3.34%&lt;/td&gt;&lt;td&gt;8.16%&lt;/td&gt;&lt;td&gt;11.63%&lt;/td&gt;&lt;td&gt;22.51%&lt;/td&gt;&lt;td&gt;49.16%&lt;/td&gt;&lt;td&gt;40.92%&lt;/td&gt;&lt;td&gt;79.65%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利&lt;/td&gt;&lt;td&gt;3.56%&lt;/td&gt;&lt;td&gt;1.58%&lt;/td&gt;&lt;td&gt;3.56%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;3.93%&lt;/td&gt;&lt;td&gt;5.60%&lt;/td&gt;&lt;td&gt;11.77%&lt;/td&gt;&lt;td&gt;28.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;12.29%&lt;/td&gt;&lt;td&gt;-2.85%&lt;/td&gt;&lt;td&gt;12.29%&lt;/td&gt;&lt;td&gt;6.63%&lt;/td&gt;&lt;td&gt;44.04%&lt;/td&gt;&lt;td&gt;58.04%&lt;/td&gt;&lt;td&gt;48.80%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;港股&lt;/td&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;6.85%&lt;/td&gt;&lt;td&gt;2.38%&lt;/td&gt;&lt;td&gt;6.85%&lt;/td&gt;&lt;td&gt;5.71%&lt;/td&gt;&lt;td&gt;10.55%&lt;/td&gt;&lt;td&gt;35.41%&lt;/td&gt;&lt;td&gt;25.39%&lt;/td&gt;&lt;td&gt;-3.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;3.67%&lt;/td&gt;&lt;td&gt;-1.38%&lt;/td&gt;&lt;td&gt;3.67%&lt;/td&gt;&lt;td&gt;-3.21%&lt;/td&gt;&lt;td&gt;4.86%&lt;/td&gt;&lt;td&gt;21.05%&lt;/td&gt;&lt;td&gt;25.88%&lt;/td&gt;&lt;td&gt;-38.90%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;发达市场&lt;/td&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;1.44%&lt;/td&gt;&lt;td&gt;9.46%&lt;/td&gt;&lt;td&gt;14.87%&lt;/td&gt;&lt;td&gt;70.22%&lt;/td&gt;&lt;td&gt;86.82%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;-0.17%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;-1.11%&lt;/td&gt;&lt;td&gt;11.08%&lt;/td&gt;&lt;td&gt;19.54%&lt;/td&gt;&lt;td&gt;102.53%&lt;/td&gt;&lt;td&gt;79.50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;道琼斯工业&lt;/td&gt;&lt;td&gt;1.73%&lt;/td&gt;&lt;td&gt;-0.42%&lt;/td&gt;&lt;td&gt;1.73%&lt;/td&gt;&lt;td&gt;2.80%&lt;/td&gt;&lt;td&gt;10.79%&lt;/td&gt;&lt;td&gt;9.76%&lt;/td&gt;&lt;td&gt;43.44%&lt;/td&gt;&lt;td&gt;63.07%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;-1.45%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;2.42%&lt;/td&gt;&lt;td&gt;1.97%&lt;/td&gt;&lt;td&gt;12.92%&lt;/td&gt;&lt;td&gt;62.20%&lt;/td&gt;&lt;td&gt;82.68%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;法国CAC40&lt;/td&gt;&lt;td&gt;-0.28%&lt;/td&gt;&lt;td&gt;-0.20%&lt;/td&gt;&lt;td&gt;-0.28%&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;4.56%&lt;/td&gt;&lt;td&gt;2.22%&lt;/td&gt;&lt;td&gt;14.74%&lt;/td&gt;&lt;td&gt;50.51%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;英国富时100&lt;/td&gt;&lt;td&gt;2.94%&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;2.94%&lt;/td&gt;&lt;td&gt;5.21%&lt;/td&gt;&lt;td&gt;11.94%&lt;/td&gt;&lt;td&gt;17.86%&lt;/td&gt;&lt;td&gt;31.55%&lt;/td&gt;&lt;td&gt;59.56%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;5.93%&lt;/td&gt;&lt;td&gt;-0.97%&lt;/td&gt;&lt;td&gt;5.93%&lt;/td&gt;&lt;td&gt;1.74%&lt;/td&gt;&lt;td&gt;29.83%&lt;/td&gt;&lt;td&gt;34.75%&lt;/td&gt;&lt;td&gt;95.13%&lt;/td&gt;&lt;td&gt;92.76%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新兴市场&lt;/td&gt;&lt;td&gt;印度SENSEX30&lt;/td&gt;&lt;td&gt;-3.46%&lt;/td&gt;&lt;td&gt;0.90%&lt;/td&gt;&lt;td&gt;-3.46%&lt;/td&gt;&lt;td&gt;-1.99%&lt;/td&gt;&lt;td&gt;1.34%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;td&gt;38.15%&lt;/td&gt;&lt;td&gt;77.74%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;债券&lt;/td&gt;&lt;td rowspan="3"&gt;利率债&lt;/td&gt;&lt;td&gt;1-3年国债&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;0.05%&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;0.43%&lt;/td&gt;&lt;td&gt;0.90%&lt;/td&gt;&lt;td&gt;1.46%&lt;/td&gt;&lt;td&gt;8.01%&lt;/td&gt;&lt;td&gt;14.79%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5-7年国债&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;1.09%&lt;/td&gt;&lt;td&gt;1.40%&lt;/td&gt;&lt;td&gt;14.57%&lt;/td&gt;&lt;td&gt;24.50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年以上国债&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;-0.18%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;-2.75%&lt;/td&gt;&lt;td&gt;-5.20%&lt;/td&gt;&lt;td&gt;-5.51%&lt;/td&gt;&lt;td&gt;28.44%&lt;/td&gt;&lt;td&gt;48.53%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;信用债&lt;/td&gt;&lt;td&gt;1-3年高等级信用债&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.05%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;1.13%&lt;/td&gt;&lt;td&gt;2.48%&lt;/td&gt;&lt;td&gt;11.95%&lt;/td&gt;&lt;td&gt;20.31%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5-7年高等级信用债&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;0.97%&lt;/td&gt;&lt;td&gt;0.93%&lt;/td&gt;&lt;td&gt;2.15%&lt;/td&gt;&lt;td&gt;18.92%&lt;/td&gt;&lt;td&gt;30.28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年以上高等级信用债&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;0.12%&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;-0.03%&lt;/td&gt;&lt;td&gt;-3.13%&lt;/td&gt;&lt;td&gt;-2.62%&lt;/td&gt;&lt;td&gt;22.21%&lt;/td&gt;&lt;td&gt;35.32%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;可转债&lt;/td&gt;&lt;td&gt;中证转债指数&lt;/td&gt;&lt;td&gt;5.82%&lt;/td&gt;&lt;td&gt;-2.61%&lt;/td&gt;&lt;td&gt;5.82%&lt;/td&gt;&lt;td&gt;7.33%&lt;/td&gt;&lt;td&gt;14.06%&lt;/td&gt;&lt;td&gt;23.91%&lt;/td&gt;&lt;td&gt;27.18%&lt;/td&gt;&lt;td&gt;43.41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;境外债&lt;/td&gt;&lt;td&gt;2Y美债期货&lt;/td&gt;&lt;td&gt;-0.14%&lt;/td&gt;&lt;td&gt;0.12%&lt;/td&gt;&lt;td&gt;-0.14%&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;td&gt;0.74%&lt;/td&gt;&lt;td&gt;1.33%&lt;/td&gt;&lt;td&gt;1.36%&lt;/td&gt;&lt;td&gt;-5.66%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10Y美债期货&lt;/td&gt;&lt;td&gt;-0.39%&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;-0.39%&lt;/td&gt;&lt;td&gt;-0.87%&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;2.59%&lt;/td&gt;&lt;td&gt;-2.41%&lt;/td&gt;&lt;td&gt;-18.48%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;商品&lt;/td&gt;&lt;td&gt;贵金属&lt;/td&gt;&lt;td&gt;伦敦金现&lt;/td&gt;&lt;td&gt;13.01%&lt;/td&gt;&lt;td&gt;-2.03%&lt;/td&gt;&lt;td&gt;13.01%&lt;/td&gt;&lt;td&gt;21.92%&lt;/td&gt;&lt;td&gt;48.34%&lt;/td&gt;&lt;td&gt;74.40%&lt;/td&gt;&lt;td&gt;153.11%&lt;/td&gt;&lt;td&gt;164.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;原油&lt;/td&gt;&lt;td&gt;布伦特原油&lt;/td&gt;&lt;td&gt;16.10%&lt;/td&gt;&lt;td&gt;6.26%&lt;/td&gt;&lt;td&gt;16.10%&lt;/td&gt;&lt;td&gt;11.14%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;td&gt;-5.51%&lt;/td&gt;&lt;td&gt;-13.36%&lt;/td&gt;&lt;td&gt;32.20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;其他&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;8.40%&lt;/td&gt;&lt;td&gt;-0.89%&lt;/td&gt;&lt;td&gt;8.40%&lt;/td&gt;&lt;td&gt;19.67%&lt;/td&gt;&lt;td&gt;24.72%&lt;/td&gt;&lt;td&gt;28.38%&lt;/td&gt;&lt;td&gt;21.58%&lt;/td&gt;&lt;td&gt;86.73%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;黑色系&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;-0.53%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;-0.52%&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;-5.57%&lt;/td&gt;&lt;td&gt;-18.12%&lt;/td&gt;&lt;td&gt;12.86%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农产品&lt;/td&gt;&lt;td&gt;1.78%&lt;/td&gt;&lt;td&gt;0.82%&lt;/td&gt;&lt;td&gt;1.78%&lt;/td&gt;&lt;td&gt;1.95%&lt;/td&gt;&lt;td&gt;-1.94%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;-4.50%&lt;/td&gt;&lt;td&gt;23.02%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;南华商品指数&lt;/td&gt;&lt;td&gt;8.61%&lt;/td&gt;&lt;td&gt;2.60%&lt;/td&gt;&lt;td&gt;8.61%&lt;/td&gt;&lt;td&gt;12.57%&lt;/td&gt;&lt;td&gt;12.65%&lt;/td&gt;&lt;td&gt;11.64%&lt;/td&gt;&lt;td&gt;18.85%&lt;/td&gt;&lt;td&gt;72.95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;外汇&lt;/td&gt;&lt;td&gt;美元&lt;/td&gt;&lt;td&gt;美元指数&lt;/td&gt;&lt;td&gt;-1.17%&lt;/td&gt;&lt;td&gt;-0.40%&lt;/td&gt;&lt;td&gt;-1.17%&lt;/td&gt;&lt;td&gt;-2.62%&lt;/td&gt;&lt;td&gt;-2.93%&lt;/td&gt;&lt;td&gt;-10.51%&lt;/td&gt;&lt;td&gt;-4.89%&lt;/td&gt;&lt;td&gt;7.26%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;人民币&lt;/td&gt;&lt;td&gt;美元兑人民币汇率&lt;/td&gt;&lt;td&gt;-0.24%&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;-0.24%&lt;/td&gt;&lt;td&gt;-2.30%&lt;/td&gt;&lt;td&gt;-3.48%&lt;/td&gt;&lt;td&gt;-4.96%&lt;/td&gt;&lt;td&gt;3.01%&lt;/td&gt;&lt;td&gt;7.91%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧元&lt;/td&gt;&lt;td&gt;欧元兑美元汇率&lt;/td&gt;&lt;td&gt;0.89%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.89%&lt;/td&gt;&lt;td&gt;2.73%&lt;/td&gt;&lt;td&gt;3.81%&lt;/td&gt;&lt;td&gt;14.36%&lt;/td&gt;&lt;td&gt;9.11%&lt;/td&gt;&lt;td&gt;-2.36%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;英镑&lt;/td&gt;&lt;td&gt;英镑兑美元汇率&lt;/td&gt;&lt;td&gt;1.57%&lt;/td&gt;&lt;td&gt;0.29%&lt;/td&gt;&lt;td&gt;1.57%&lt;/td&gt;&lt;td&gt;4.08%&lt;/td&gt;&lt;td&gt;3.62%&lt;/td&gt;&lt;td&gt;10.48%&lt;/td&gt;&lt;td&gt;11.09%&lt;/td&gt;&lt;td&gt;-0.09%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日元&lt;/td&gt;&lt;td&gt;美元兑美元汇率&lt;/td&gt;&lt;td&gt;-1.21%&lt;/td&gt;&lt;td&gt;-0.61%&lt;/td&gt;&lt;td&gt;-1.21%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;2.66%&lt;/td&gt;&lt;td&gt;-0.28%&lt;/td&gt;&lt;td&gt;18.95%&lt;/td&gt;&lt;td&gt;47.80%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究数据截至 2026/01/31
+图1：2026 年以来全球主要大类资产表现范围  
+![](images/a028396cb63ea639a317235a254e9892238ffde57ed4cf011ce03a395553e56d.jpg)  
+资料来源：国泰海通证券研究  
+数据截至 2026/01/31  
+注：当前资产价格在样本区间中的相对位置以深蓝色点表示。
+# 1.1. 国泰海通资产配置框架
+国泰海通策略团队资产配置组专注于主被动结合的大类资产配置研究，积极使用宏观分析与量化模型策略。我们将二者的优势有机结合起来，构建了基于宏观因子风险平价的战略性资产配置框架与因子预期驱动的战术性资产配置框架，同时积极利用策略研究大势研判经验，对于影响资本资本市场的关键事件进行审议，把握关键投资机会。
+图2：国泰海通资产配置团队大类资产配置框架：“SAA+TAA+重大事件审议调整”  
+![](images/36a9ad48915873f6fecaa1ae015a015a62c57e689f9d2e0a2c77fd6042d4f1f0.jpg)  
+资料来源：国泰海通证券研究
+# 1.2. 宏观一致预期边际变化跟踪
+宏观一致预期变化影响资产定价与估值，我们认为以宏观分析指导资产配置，应当重视市场一致预期的变化。重要经济状态，如增长、通胀等预期的快速上升或下降，将通过估值的变化影响资产价格，进而影响资产收益。
+图3：2026Q1 US 彭博预期较上月末变化：CPI 下行0.26pct 私人投资上行 0.74pct  
+![](images/84057a1a0c193f6e064066cc94c1689ef46514e2ccc949b3f06a97b2dbc8b238.jpg)  
+数据来源：Bloomberg，国泰海通证券研究，截至 2026/02/02
+图4：2026Q1 CN彭博预期较上月末变化：固定资产投资下行 2.60pct 出口上行 2.20pct  
+![](images/b9789a47ddac008c5974fb79bb13fea8cd5efd0fa13f4c2fb4ffec6e0fe77d7b.jpg)  
+数据来源： Bloomberg，国泰海通证券研究，截至 2026/02/02
+# 2. 战略配置：以宏观因子风险平价模型分散风险
+国泰海通策略团队资产配置组针对战略资产配置（SAA）环节开发了宏观因子风险平价模型。该模型可以在较好利用因子配置优势的同时而避免宏观因子构建和应用中的困难。
+与部分研究中所使用的宏观因子模型不同的是，国泰海通宏观因子风险平价模型更加注重控制宏观风险，即宏观真实数据超预期或不及预期的风险。资产价格主要反映对未来信息的预期，只有超出预期的“意外”冲击才会引发价格波动。在宏观多因子模型中，收益来自对于宏观经济的风险溢价。2013 年诺贝尔经济学奖获得者，Fama-French 三因子模型的提出人，尤金·法玛（Eugene F. Fama）在 1970 年发表《有效资本市场：理论与实证研究综述》，提出了有效市场假说（EMH），将理性预期直接应用于资产定价。该理论认为在有效市场资产价格瞬时反映所有公开信息，投资者只能获得与风险匹配的正常收益，无法长期战胜市场。这也暗示着与市场一致的宏观预期难以获得超越市场的收益。
+在因子选择环节，我们使用了真实的宏观指标构建宏观原始因子。这一方案避免了宏观因子受到交易因素和其他非宏观资产价格影响因素的干扰。在SAA 环节，模型的目标是追求风险的分散和配置仓位的相对稳定。这避免了宏观指标因子的频率问题。SAA 本身调整频率远远低于指标发布频率，数据时滞对于长期投资几乎忽略不计。尽管宏观指标因子无法直接投资，但SAA 环节以计算资产池内各大类资产的基准比例为目标，与直接投资因子或资产的投资手段并无冲突，与宏观分析等投资方法论也可以进行有效衔接。
+因此，我们将原始宏观数据进行加工，将经过 STL 季节性处理得到的预测值作为市场预期，以真实值与预测值的差值作为宏观风险因子，再将各类因子进行标准化。
+在宏观原始因子的选择上，国泰海通宏观因子风险平价模型选择了国内经济因子和海外资产溢价因子。其中控制风险暴露的国内宏观经济因子包含增长、通胀、利率、信用、汇率和流动性因子。海外资产因子包括美国、欧洲、日本、印度因子。在模型估计过程中我们采用了类似 Barra 模型的方法，这种显性因子模型的优点在于从资产特征出发构建因子更加符合经济学意义，因子风险平价模型的指向也更加明确，即避免宏观因子的非预期部分风险暴露过于集中。
+在对因子暴露进行回归前我们首先基于主观先验信息，指定每种大类资产可能相关的宏观因子，例如，本文认为信用因子只会影响信用债、企业债类资产的价格，因此其他资产均不带入信用因子进行多元回归计算因子暴露。在每月末计算资产的因子暴露矩阵时，采用多元线性回归确定回归系数，回归窗口期为滚动过去 5 年，回归权重的半衰期为 1 年。
+策略的回测效果验证了宏观因子风险平价模型的有效性。我们使用中证 800、恒生指数、标普 500、利率债、企业债、南华商品、国际黄金七类资产作为代表性大类资产进行了月度调仓回测，并使用了同样七类资产的风险平价模型作为基准参考。
+图1：宏观因子风险平价策略（SAA）：2019 年以来年化收益率 $9 . 6 \%$ ，夏普比率 1.66。  
+![](images/c84276aa7c3f18f2c35bd9209c558bbedcdc7c37bc9d12423b5607682f3a980f.jpg)  
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31。
+策略回测结果显示, 宏观因子风险平价模型相较因子风险平价模型收益率显著提升，但夏普比指标有所减弱。考虑到该模型在 SAA环节以宏观风险分散为目标，效果令人满意。
+表2：宏观因子风险平价策略（SAA）：相比风险平价模型收益显著提高  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="5"&gt;风险平价模型&lt;/td&gt;&lt;td colspan="6"&gt;宏观因子风险平价模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年份&lt;/td&gt;&lt;td&gt;年化收 益&lt;/td&gt;&lt;td&gt;最大回 撤&lt;/td&gt;&lt;td&gt;年化波 动&lt;/td&gt;&lt;td&gt;夏普比 率&lt;/td&gt;&lt;td&gt;卡玛比 率&lt;/td&gt;&lt;td&gt;年份&lt;/td&gt;&lt;td&gt;年化收 益&lt;/td&gt;&lt;td&gt;最大回 撤&lt;/td&gt;&lt;td&gt;年化波 动&lt;/td&gt;&lt;td&gt;夏普比 率&lt;/td&gt;&lt;td&gt;卡玛比 率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;6.40&lt;/td&gt;&lt;td&gt;15.85&lt;/td&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;18.4%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;td&gt;4.26&lt;/td&gt;&lt;td&gt;9.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.06&lt;/td&gt;&lt;td&gt;1.91&lt;/td&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;8.8%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;0.17&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2021&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;4.16&lt;/td&gt;&lt;td&gt;8.93&lt;/td&gt;&lt;td&gt;2021&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;4.4%&lt;/td&gt;&lt;td&gt;0.74&lt;/td&gt;&lt;td&gt;1.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2022&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;1.92&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;2022&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;0.58&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2023&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;7.89&lt;/td&gt;&lt;td&gt;14.45&lt;/td&gt;&lt;td&gt;2023&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;2.70&lt;/td&gt;&lt;td&gt;4.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2024&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;6.82&lt;/td&gt;&lt;td&gt;18.50&lt;/td&gt;&lt;td&gt;2024&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;6.3%&lt;/td&gt;&lt;td&gt;2.34&lt;/td&gt;&lt;td&gt;4.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;3.66&lt;/td&gt;&lt;td&gt;4.97&lt;/td&gt;&lt;td&gt;2025&lt;/td&gt;&lt;td&gt;18.6%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;2.46&lt;/td&gt;&lt;td&gt;3.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;7.05&lt;/td&gt;&lt;td&gt;36.18&lt;/td&gt;&lt;td&gt;2026&lt;/td&gt;&lt;td&gt;30.1%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;4.67&lt;/td&gt;&lt;td&gt;25.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;4.00&lt;/td&gt;&lt;td&gt;2.23&lt;/td&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;8.8%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;1.09&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31。
+从持仓情况看，在未进行仓位限制的情况下，尽管与风险平价模型相比，宏观因子风险平价策略仓位变化波动性稍强，但各大类资产配置比例仍然相对稳定、均衡。债券类资产比例位于 $40 \mathrm { - } 5 0 \%$ ，权益资产约为 $50 \%$ ，而商品资产配置比例小于 $10 \%$ ，可以基本符合主流投资需要。
+根据以上模型和国泰海通策略和资产配置团队对于宏观环境和资产配置的综合分析，我们使用宏观因子风险平价SAA模型计算的资产比例作为参考，设定权益、债券、商品的基准比例为 $45 \%$ 、 $45 \%$ 、 $1 0 \%$ ，偏离幅度上限设定为 $1 0 \%$ 。
+# 3. 战术配置：BL策略融合主被动观点增强收益
+# 3.1. 从单资产宏观因子建模到多资产轮动
+国泰海通资产配置框架中的TAA方法论基于对投资时钟和周期嵌套模型的理解，而 BL轮动策略依赖于周期方法论。我们针对单一资产定量建模：即将某个经济体的某类周期的环境压力程度进行量化，从而形成若干个具有鲜明周期特色的底层宏观因子。再将这些类似原材料的底层宏观因子进行逆序分位数处理，得到某类周期的宏观周期评分指标。最后，综合多种有关周期的宏观周期评分指标，依据相关关系和经济学逻辑合成为针对某类资产或风格宏观综合评分指标。简言之，我们为各类资产定制了专属的宏观基本面量化指标，成为我们理解资产价格表现、形成主观观点矩阵的重要依据。
+图2：国泰海通宏观量化指标数据库逻辑导图  
+![](images/5722149240d256169d76b3f0abcad8babd4211ec083430a8fbeb37eaa5867150.jpg)  
+数据来源：国泰海通证券研究  
+参考报告：《如何以宏观友好度评分辅助权益仓位管理》、《择木而栖：A 股和港股轮动规律研究》、《美债实际利率中期向下拐点将于春季确认》、《宏观友好度视角下的中美权益资产比较》、《债市牛熊背后的周期线索：宏观友好度 B》、《国际大宗商品配置价值下半年企稳回升》、《行业风格轮动背后的周期线索指向何方》、《风格轮动研究：来自经济周期的线索》、《2024 年风格轮动展望：从小成长到大周期》、《印度权益资产配置展望：预计仍有正收益》、《印度卢比即将开启一轮升值趋势-基于 INR 升值动力评分》等
+在于 2024 年 3 月 11 日发布的专题报告《从宏观友好度评分到 BL模型观点矩阵——主被动结合的大类资产配置新思路》中，我们将资产宏观综合评分指标系简单加工形成主观观点，与量化配置模型中的 Black-Litterman模型相结合。具体过程起始于将宏观经济指标一致预期转化为资产宏观综合评分指标预期，再转化为各大资产预期收益率，最后融入 BL观点矩阵。在可选资产包括权益（AH美日印德）、债券（中美）、商品、美元、黄金的情况下，全球大类资产配置 BL 策略（即引入包括汇率在内的资产宏观综合评分主观观点的 BL 模型策略）在五年回测期（2019/01/2-2024/02/29）内年化收益率可达 $2 3 . 1 \%$ ，表现显著优于其他对比策略，体现了主观与量化研究结合的有效性。
+在 2024 年 3 月以来的样本外表现中，全球大类资产配置 BL策略表现同样稳健，甚至更为亮眼。策略在 2024 年全年收益达到 $21 \%$ ，2025 年收益达到
+$53 \%$ ，当前全部回测期夏普高达 1.80。通过各期持仓可以看到，该策略成功捕捉到了 2025 年第一季度黄金的历史性牛市，以及二季度 A股的修复、创新高行情。作为一个月度调仓且以宏观经济逻辑为指导的策略，表现可谓优秀。在新框架中，我们使用全球大类资产配置 BL策略作为 TAA环节使用的收益增强方法，尽管该策略持仓集中度较高，但在 SAA环节使用宏观因子风险平价模型确立各大类资产基准比例后，该策略在 TAA环节仅对持仓基准有限偏离可以有效解决该问题。
+图3：全球大类资产配置 BL 策略（TAA）：年化收益率 $2 6 . 1 \%$ ，夏普比达到1.80  
+![](images/92c009469d85c61f8549f9cbb68f8d46caeb20ab0fe09d5a0df359136ac12875.jpg)  
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31，其中 2024 年 3 月后为样本外。
+表3：全球大类资产配置 BL 策略（TAA）：2026 年以来收益率为 $1 0 . 2 4 \%$   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;年份&lt;/td&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;年化波动&lt;/td&gt;&lt;td&gt;夏普比率&lt;/td&gt;&lt;td&gt;卡玛比率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;12.7%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;2.65&lt;/td&gt;&lt;td&gt;3.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;37.4%&lt;/td&gt;&lt;td&gt;9.5%&lt;/td&gt;&lt;td&gt;16.9%&lt;/td&gt;&lt;td&gt;2.21&lt;/td&gt;&lt;td&gt;3.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2021&lt;/td&gt;&lt;td&gt;18.4%&lt;/td&gt;&lt;td&gt;4.7%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;1.47&lt;/td&gt;&lt;td&gt;3.93&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2022&lt;/td&gt;&lt;td&gt;20.8%&lt;/td&gt;&lt;td&gt;10.3%&lt;/td&gt;&lt;td&gt;17.1%&lt;/td&gt;&lt;td&gt;1.22&lt;/td&gt;&lt;td&gt;2.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2023&lt;/td&gt;&lt;td&gt;19.5%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;13.7%&lt;/td&gt;&lt;td&gt;1.42&lt;/td&gt;&lt;td&gt;1.59&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2024&lt;/td&gt;&lt;td&gt;20.9%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;15.7%&lt;/td&gt;&lt;td&gt;1.33&lt;/td&gt;&lt;td&gt;2.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025&lt;/td&gt;&lt;td&gt;53.3%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;td&gt;17.2%&lt;/td&gt;&lt;td&gt;3.10&lt;/td&gt;&lt;td&gt;5.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026&lt;/td&gt;&lt;td&gt;226.7%&lt;/td&gt;&lt;td&gt;8.2%&lt;/td&gt;&lt;td&gt;35.7%&lt;/td&gt;&lt;td&gt;6.34&lt;/td&gt;&lt;td&gt;27.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;26.9%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;15.0%&lt;/td&gt;&lt;td&gt;1.80&lt;/td&gt;&lt;td&gt;2.19&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31
+TAA模型，即全球大类资产配置 BL策略，在 2025 年实现 $53 \%$ 收益，2026年 1 月实现 $10 \%$ 收益。
+# 3.2. 结合 SAA配置中枢与 TAA增厚收益的方案表现亮眼
+我们以 SAA宏观因子风险平价模型确定的配置中枢 $\mathbf { \tau } + \mathbf { T } \mathbf { A } \mathbf { A }$ 资产轮动增强收益作为资产配置方案的标准量化流程。我们将基于宏观因子风险平价模型计算出来的战略性资产配置作为组合基准，其中大类资产配置权重分别为权益 $4 5 . 0 0 \%$ （A股 $7 . 5 0 \%$ ，港股 $7 . 5 0 \%$ ，美股 $1 5 . 0 0 \%$ ，欧股 $5 . 0 0 \%$ ，日股$5 . 0 0 \%$ ，印股 $5 . 0 0 \%$ ）、债券的权重为 $4 5 . 0 0 \%$ （其中中国国债 $2 2 . 5 0 \%$ ，美国国债 $2 2 . 5 0 \%$ ）、商品的权重为 $1 0 . 0 0 \%$ （其中黄金 $5 . 0 0 \%$ ，原油 $2 . 5 0 \%$ ，南华商品指数 $2 . 5 0 \%$ ）。
+图4：结合量化模型与主动观点制定资产配置权重基准  
+![](images/a56374734eae0ed727fa532086ca817427342ae95e7324eaf9fe456fa63e8da4.jpg)  
+数据来源：国泰海通证券研究
+我们将大类资产偏离的上下限幅度设置为 $\pm 1 0 \%$ ，内部细分资产的权重主要参考 Black-Litterman 战术性资产配置模型的运行结果，并结合主观分析设定。该策略结合 SAA 配置中枢与 TAA 增厚收益，能够有效控制波动率和最大回撤，并增强原有战略性资产配置策略的收益。2025 年，该模型实现年化收益率 $2 1 . 7 \%$ ，夏普比率达到 2.29，卡玛比率为 3.84，年内最大回撤为$5 . 6 \%$ 。
+图5：基于 Black-Litterman 模型的战术性资产配置能够有效增厚战略性资产配置策略的收益  
+![](images/96fc188dabee85eaaee47a544a2e553918db4278a19c03c307d566b23e977d2b.jpg)  
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31，其中 2023 年 12 月后为样本外运行。
+表4：SAA 中枢 $\mathbf { + T A A }$ 增厚：2025 年以来收益率达到 $2 1 . 7 \%$   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;年份&lt;/td&gt;&lt;td&gt;年化收益&lt;/td&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;年化波动&lt;/td&gt;&lt;td&gt;夏普比率&lt;/td&gt;&lt;td&gt;卡玛比率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;2.00&lt;/td&gt;&lt;td&gt;4.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;14.5%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;11.3%&lt;/td&gt;&lt;td&gt;1.29&lt;/td&gt;&lt;td&gt;1.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2021&lt;/td&gt;&lt;td&gt;12.8%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;1.69&lt;/td&gt;&lt;td&gt;4.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2022&lt;/td&gt;&lt;td&gt;-0.8%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;-0.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2023&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;1.96&lt;/td&gt;&lt;td&gt;2.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2024&lt;/td&gt;&lt;td&gt;17.5%&lt;/td&gt;&lt;td&gt;4.4%&lt;/td&gt;&lt;td&gt;10.5%&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;3.94&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025&lt;/td&gt;&lt;td&gt;20.0%&lt;/td&gt;&lt;td&gt;5.6%&lt;/td&gt;&lt;td&gt;9.5%&lt;/td&gt;&lt;td&gt;2.11&lt;/td&gt;&lt;td&gt;3.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026&lt;/td&gt;&lt;td&gt;82.3%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;6.16&lt;/td&gt;&lt;td&gt;29.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;13.1%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;1.48&lt;/td&gt;&lt;td&gt;1.53&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究  
+回测时间：2019/01/01-2026/01/31
+# 4. 重大宏观事件审议与配置方案
+# 4.1. 近期重大宏观事件审议
+国泰海通策略和资产配置研究团队力求量化模型与主观分析的有效结合，在实际投资流程中，重大事件审议和调整同样是关键环节，尽管它们在高度量化的资产配置框架中看似“主观”，但在实际运用中与量化策略结合，能够有效提升投资决策的准确性和适应性。主观评估与调整同样是量化投资的“安全网”，尤其在极端事件、政策变化和模型失效时不可或缺。在本节进行事件审议时，我们主要针对可能影响月线行情的重大事件进行分析。
+表5：事件审议: 美国联邦政府结束史上最长“停摆”  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;事件简述&lt;/td&gt;&lt;td&gt;事件评估&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国内&lt;/td&gt;&lt;td&gt;证监会1月30日晚间就《关于修改〈证券期货法律适用意见第18号〉的决定(征求意见稿)》公开征求意见,对上市公司再融资战略投资者制度进行系统性优化。&lt;/td&gt;&lt;td&gt;新规明确将社保基金、基本养老保险基金、年金、保险资金、公募基金、银行理财等均纳入战略投资者范畴,大幅拓宽了中长期资金作为战略投资者参与上市公司再融资的范围。同时,设定了5%的最低持股比例,旨在筛选真正有意愿参与公司长期治理的“耐心资本”,而非进行短期套利的资金。更多长期资金的注入将提升市场的机构化程度,有助于平抑非理性波动,推动估值体系更侧重于企业的长期内在价值。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;海外&lt;/td&gt;&lt;td&gt;当地时间1月30日,美国总统特朗普提名凯文·沃什为下一任美联储主席。&lt;/td&gt;&lt;td&gt;凯文·沃什被提名为美联储主席,预计将为美国货币政策带来以“控通胀”为优先、并可能推行“降息与缩表并行”的框架转向,这短期会通过支撑美元、加剧美债收益率波动来影响全球资产。其政策在短期可能压制依赖流动性的资产(如黄金、科技股),但中长期影响仍受制于美国债务结构、地缘政治风险等固有因素,美元下行与贵金属的配置逻辑未必发生根本逆转。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+# 4.2. 2026 年 2月战术性大类资产配置方案
+权益方面：（1）多重因素支持中国权益表现，建议超配 A/H股。多重因素支持中国权益表现，建议超配 A/H股。经济工作会议临近，2026 年是十五五开局之年，预计广义赤字有望进一步扩张，经济政策有望更加积极。美联储 12 月如期降息，人民币稳定升值，为 2026 年初中国宽松货币提供有利条件。改革提振中国市场风险偏好。流动性危机引发的市场波动，反而是A/H股的配置良机。（2）“金发姑娘”背景渐显有利于美股表现，建议超配美股。美国经济边际降温但韧性仍在，内生性通胀粘性逐渐减弱，企业盈利预期或仍支撑美股中枢上行。
+债券方面：（1）结构性货币政策或强化国债配置力量。融资需求与信贷供给不平衡仍是客观现实，但风险偏好中枢趋势性上行，居民企业或进行资产配置再平衡。此前债市由于缺乏有效的配置力量而较为低迷，而随着结构性货币政策发力，配置型资金的购债意愿或得以强化。（2）美国经济边际收敛但未失速，劳动力市场温和降温，能源价格走弱与薪资增速偏缓有利于内生性通胀粘性下降。特朗普提名的美联储主席沃什主张缩表，并温和调降货币政策利率，后续美债利率有望温和下行。但特朗普政府施行霸权主义，破坏国际地缘政治秩序，美国主权信用被大幅削弱，全球央行与大型养老金机构趋势性减持美债，美债相较于其他大类资产的风险回报比极低。
+商品方面：（1）中东地缘政治局势博弈加剧，建议超配原油。全球原油需求相对偏弱，OPEC+决定 3 月继续暂停增产，近期中东地缘政治局势博弈严重，原油价格或将得到阶段性提振。（2）需求预期上修与交易动量维持高位，建议超配工业商品。以铜为代表的工业金属或阶段性处于供需不平衡的情况。建筑、电网与电动车是当下的主要需求驱动，AI 算力扩张与电网现代化亦带来新增结构性需求，而铜的开发成本与复杂性显著提高，投资意愿减弱，或阶段性推高铜价。工业商品相较于其他主要大类资产的风险回报比较高。
+基于发布于 2025 年 2 月的《主动大类资产配置研究体系简析》中所述的研究框架，根据第 3 章 TAA模型的测算与第 4 章第 1 节的事件审议结论，我们 2026 年 2 月的战术性大类资产配置方案更新如下：
+权益配置权重为 $4 7 . 5 0 \%$ ：超配 A股（ $1 0 . 0 0 \%$ ），超配港股（ $1 0 . 0 0 \%$ ），超配美股（ $1 7 . 5 0 \%$ ），标配欧股（ $5 . 0 0 \%$ ），标配日股（ $5 . 0 0 \%$ ）。
+债券配置权重为 $3 5 . 0 0 \%$ ：长久期国债（ $7 . 5 0 \%$ ），短久期国债（ $1 0 . 0 0 \%$ ），长久期美债（ $7 . 5 0 \%$ ），短久期美债（ $1 0 . 0 0 \%$ ）。
+商品配置权重为 $2 0 . 0 0 \%$ ：标配黄金（ $5 . 0 0 \%$ ），超配原油（ $3 . 7 5 \%$ ），超配工业商品（ $3 . 7 5 \%$ ）。
+表6：2026 年 2 月的战术性大类资产配置观点  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;大类资产&lt;/td&gt;&lt;td&gt;配置观点&lt;/td&gt;&lt;td&gt;核心逻辑&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;权益&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td&gt;2026年是十五五开局之年，预计广义赤字有望进一步扩张，经济政策有望更加积极。美联储12月如期降息，人民币稳定升值，为2026年初中国宽松货币提供有利条件。改革提振中国市场风险偏好。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股&lt;/td&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td&gt;中国总量政策预期稳定以及资本市场制度改革提振市场风险偏好，中国内地无风险利率中枢下行以及海外美联储货币政策趋松调整有利于支持港流动性充裕稳定。市场对于AI产业趋势仍处于高度博弈期，或阶段性加剧市场波动。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美股&lt;/td&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td&gt;美国经济韧性较强，内生性通胀粘性逐渐减弱，投资者仍重视AI产业趋势的发展，市场风险偏好温和上行，“金发姑娘”背景渐显，企业盈利预期或仍支撑美股中枢上行。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;欧股&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;欧元区经济景气度温和上行，通胀亦达到欧洲央行目标，欧洲央行货币政策导向中性稳健。虽然整体环境有利于欧股表现，但欧股相较于其他大类资产的风险回报比偏低。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;印股&lt;/td&gt;&lt;td&gt;低配&lt;/td&gt;&lt;td&gt;印度面临地缘不确定性与挑战，市场持续下修印度经济增长预期。此外，印度在全球AI产业链中参与程度有限，产业发展对印度资本市场的惠利或偏低。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;日股&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;日本经济与全球AI产业链深度相关，半导体制造业的扩张有利于日股表现。日本央行如期调整货币政策，日股在流动性或边际收敛。日股相较于其他大类资产的风险回报比一般。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;债券&lt;/td&gt;&lt;td rowspan="2"&gt;国债&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;融资需求与信贷供给不平衡仍是客观现实，但风险偏好中枢趋势性上行，居民企业或进行资产配置再平衡。此前债市由于缺乏有效的配置力量而较为低迷，而随着结构性货币政策发力，配置型资金的购债意愿或得以强化。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;美债&lt;/td&gt;&lt;td&gt;低配&lt;/td&gt;&lt;td rowspan="2"&gt;美国经济边际收敛但未失速，劳动力市场温和降温，能源价格走弱与薪资增速偏缓有利于内生性通胀粘性下降。特朗普提名的美联储主席沃什主张缩表，并温和调降货币政策利率，后续美债利率有望温和下行。但特朗普政府施行霸权主义，破坏国际地缘政治秩序，美国主权信用被大幅削弱，全球央行与大型养老金机构趋势性减持美债，美债相较于其他大类资产的风险回报比极低。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;-2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;商品&lt;/td&gt;&lt;td rowspan="2"&gt;黄金&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;在特朗普政府施行霸权主义，并进一步削弱美国国际信誉的背景下，全球地缘政治局势的不确定性上升以及各国央行持续购金有利于支撑长期金价中枢。近期，投机性交易资金的去杠杆行为引发流动新危机，黄金波动中枢大幅抬升，价格企稳后配置价值或上升。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;原油&lt;/td&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td rowspan="2"&gt;全球原油需求相对偏弱，OPEC+决定3月继续暂停增产，近期中东地缘政治局势博弈严重，原油价格或将得到阶段性提振。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;+1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;工业商品&lt;/td&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td rowspan="2"&gt;以铜为代表的工业金属或阶段性处于供需不平衡的情况。建筑、电网与电动车是当下的主要需求驱动，AI算力扩张与电网现代化亦带来新增结构性需求，而铜的开发成本与复杂性显著提高，投资意愿减弱，或阶段性推高铜价。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;+1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;外汇&lt;/td&gt;&lt;td rowspan="2"&gt;美元&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;美联储修正货币政策指引方向与美国经济边际收敛使得美元相较于其他货币的配置价值有所下降。但去美元化交易阶段性放缓，弱美元亦并非持续下行。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;人民币&lt;/td&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td rowspan="2"&gt;中国经济运行稳中向好，相较于其他主要经济体增长动能韧性较强，资本市场回报较好与景气预期改善有望支撑人民币汇率中枢稳定升值。预计在全球宏观环境愈加复杂的背景下，人民币汇率整体将呈现双向波动的态势，中枢震荡升值。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：国泰海通证券研究  
+注：战术性配置观点反映了我们对某项资产在未来 1~3 个月内相较于其他资产风险回报比的预期。
+# 5. 风险提示
+分析维度存在局限性：研究框架基于分析师观点，分析维度或无法完全反映市场定价因素。
+模型设计存在主观性：宏观因子模型的因子与权重选取基于主客观相结合，客观部分源自量化回测，而主观部分则源自经验与判断，或存在一定偏差。
+历史与预期数据存在偏差：报告所采用的历史数据与预期数据或无法精准代表市场实际预期。
+市场一致预期调整：报告结论均基于市场一致预期中性假设，如若超预期事件发生导致市场预期与对应宏观因子发生调整，或导致模型结论发生改变。
+量化模型局限性：本结论仅从量化模型推导得出，与研究所其他研究团队的观点不重合。有关研究所其他研究团队对上述行业的观点，请参考相关已发布的研究报告。
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+# 评级说明
+# 投资建议的比较标准
+投资评级分为股票评级和行业评级。
+以报告发布后的 12个月内的市场表现为比较标准，报告发布日后的 12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深 300指数涨跌幅为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址
+上海市黄浦区中山南路 888 号
+邮编
+200011
+电话
+（021）38676666</t>
+  </si>
+  <si>
+    <t># 目录
+# 每日报告精选（2026-02-03 09:00——2026-02-04 15:00）
+ 策略观察：《融资资金开始回流》2026-02-03 .   
+ 海外策略研究：《鹰派沃什交易落地，股市波动率攀升》2026-02-03  
+ 行业月报：机械行业《出口链月度跟踪：汇率与运价边际回落，海外需求结构分化》2026-02-04.... 3  
+ 行业专题研究：信息技术《2025年计算机年报业绩预告总结：增长与下滑两极分化》2026-02-04... 4  
+ 行业跟踪报告：计算机《政策注入消费动能，看好三方收单“铲子”公司》2026-02-03. 5  
+ 行业跟踪报告：建筑工程业《财政地产等建筑产业链全景数据库20260203》2026-02-03. 6  
+ 行业月报：商业银行《1月理财月报：总量微降，现金管理和混合类产品规模上升》2026-02-03. 7  
+ 行业跟踪报告：物流仓储《件量增速持续放缓，反内卷下单价稳定》2026-02-03 8   
+ 公司季报点评：极米科技（688696）《内销格局改善，出海及新业务贡献增量》2026-02-04.. 9  
+ 公司公告点评：索宝蛋白（603231）《四季度利润表现良好，26年业绩可期》2026-02-04. 9  
+ 公司深度报告：潍柴动力（000338）《燃启寰宇智，气贯全球芯》2026-02-03 . 10  
+ 公司首次覆盖：耀皮玻璃（600819）《老牌玻璃的新引擎，汽车玻璃与TCO突围》2026-02-03.. . 11  
+ 公司首次覆盖：天润工业（002283）《曲轴连杆龙头地位稳固，AIDC 大机增量可期》2026-02-03... .. 11  
+ 海外报告：新城发展（1030）《不止于开发，从平衡到引领》2026-02-03. 12  
+ 金融工程月报：《2月建议超配小盘风格，中长期继续看好小盘、成长风格》2026-02-04. . 13  
+ 金融工程周报：《绝对收益产品及策略周报（260126-260130）》2026-02-04 .. . 14  
+ 金融工程周报：《风格 Smart beta 组合跟踪周报（2026.01.26-2026.01.30）》2026-02-03. . 14  
+ 金融工程周报：《行业主题 ETF 流动性月报（2026.01）》2026-02-03 . . 15  
+ 市场策略周报：《2月抓住资金层面的确定性》2026-02-03. . 15  
+ 债券月报：《趋势不改，估值不破》2026-02-03. . 16
+# 每日报告精选（2026-02-03 09:00——2026-02-04 15:00）
+方奕（分析师）
+021-38676666
+S0880520120005
+郭胤含（分析师）
+021-38676666
+S0880524100001
+田开轩（分析师）
+021-38676666
+S0880524080006
+# 策略观察：《融资资金开始回流》2026-02-03
+市场定价状态：市场成交热度抬升，赚钱效应边际下降。1）市场情绪（上升）：本期市场交易换手率抬升，全A日均成交额上升至3.1 万亿，日均涨停家数降至 69家，最大连板数为6.5板，封板率降至 $7 1 . 0 \%$ ，龙虎榜上榜家数为 66 家；2）赚钱效应（下降）：本期个股上涨比例下降至 $2 3 . 6 \%$ ，全A个股周度收益中位数下降至 $- 3 . 4 \%$ ；3）交易集中度（下降）：二级行业交易集中度下降，本期行业换手率历史分位数处于 $9 0 \%$ 以上的行业有 18个，其中石油石化、国防军工等 4个行业换手率处于 $9 9 \%$ 以上。
+A 股资金流动：本期融资资金小幅流入，ETF资金大幅流出。1）公募：本期偏股基金新发规模下降至 350.9 亿，公募基金股票仓位整体下降；2）私募：1月私募信心指数较 12月增长 $0 . 5 \%$ ，仓位较前期边际下降（截至 1/9）；3）外资：流入 4.1亿美元（截至1/28），北向资金成交占比历史分位数（MA5）降至 $0 . 1 \%$ ；4）产业资本：本期 IPO首发募集为 55.5亿元，定增规模为 45.5亿元，未来一期限售股解禁规模为 1035.7亿元；5）ETF：被动资金继续大规模流出，本期流出3193.7亿元，被动成交占比环比下降至 $9 . 1 \%$ ，行业成交集中度 CR5略微回升；6）融资：本期净买入额上升至 160.9 亿元，成交额占比下降至 $9 . 6 \%$ ；7）散户：另类指标显示本期散户活跃度边际抬升。
+A 股行业配置：融资和ETF共同流出电子行业。1）外资：（截至 1/28）有色金属（ $+ 1 1 9 . 5$ 百万美元）/汽车（ $+ 3 8 . 1$ 百万美元）净流入居前，交通运输（-1.3百万美元）/公共事业（-1.1 百万美元）净流出居前；2）融资：（截至 1/29）有色金属（ $+ 1 3 4 . 5$ 亿元）/基础化工（ $+ 2 0 . 5$ 亿元）净流入居前，国防军工（-28.2亿元）/电子（-59.5亿元）净流出居前；3）ETF：一级行业被动资金普遍流出，电子（-457.4亿元）/非银（-350.3亿元）/银行（-341.7 亿元）净流出居前；二级行业中贵金属/油服工程净流入居前，半导体/证券净流出居前。本期增持居前的ETF包括有色金属 ETF/化工 ETF 等，中证 500ETF/黄金 ETF 融资净买入居前；沪深 300ETF/上证 50ETF净赎回居前，沪深 300ETF/人工智能ETF融资净卖出；4）龙虎榜资金：有色金属、基础化工和环保为龙虎榜行业前三。
+港股与全球资金流动：南下资金流入放缓，全球外资边际流入美国和亚洲市场。本期恒生指数收涨 $. + 2 . 4 \%$ ，全球主要市场涨跌互现，韩国市场（ $+ 4 . 7 \%$ ）涨幅居前。资金维度：1）南下资金净买入额下降至27.1亿元，处 2022年以来 $1 5 \%$ 分位（MA5）；2）本期（截至1/28）发达市场主动/被动资金净流动-26.1亿/286.5亿美元，新兴市场主动/被动资金净流动 31.1亿/-454.5亿美元。仅外资口径看，全球外资边际流入美国和亚洲市场，美国（ $+ 6 2 . 7$ 亿美元）、韩国（ $+ 2 8 . 3$ 亿美元）、中国（ $+ 2 6 . 4$ 亿美元）流入规模居前。含各国内资的全球整体流动看，美国/韩国获流入居前。北美基金获净申购，美股科技/能源基金净申购居前。
+风险提示：数据统计口径存在偏差；数据测算误差；从第三方机构获知数据的偏差风险。
+陈菲（分析师）
+021-38676666
+S0880525040127
+# 海外策略研究：《鹰派沃什交易落地，股市波动率攀升》
+# 2026-02-03
+市场表现：上周新兴市场涨幅收窄。股市方面，MSCI全球 $. + 0 . 2 \%$ ，其中 MSCI发达市场 $+ 0 . 0 \%$ 、MSCI新兴市场 $+ 1 . 4 \%$ 。债市方面，美国10Y 国债利率上升幅度最大。大宗方面，原油大涨，金银明显回调。汇率方面，美元贬，英镑升，日元升，人民币贬。上周全球能源板块一致上涨，中国股市顺周期偏强，欧美公用&amp;通讯表现更优。
+交投情绪：上周全球市场普遍放量，主要指数波动率均出现上升。从成交看，上周A/港/美/欧/日股成交上升，韩股成交下降。从情绪看，港股投资者情绪环比上升、处历史高位，美股投资者情绪处于历史高位。从波动率看，上周港/美/欧/日股波动率上升，美债波动率下降。从估值看，上周发达市场/新兴市场估值均较前周提升。
+盈利预期：上周日股欧股盈利预期上修。横向对比来看，截至 2026/1/30，上周日股 2025年盈利预期边际变化表现最优，美股、欧股次之，港股表现最末。其中：1）港股盈利预期上修，恒生指数2025年EPS盈利预期从- $- 2 . 1 \%$ 上修至 $- 2 . 0 \%$ 。2）美股盈利预期上修，标普 500指数 2025年EPS盈利预期从 $. + 1 0 . 5 \%$ 上修至$+ 1 1 . 8 \%$ 。3）欧股盈利预期上修，欧元区 STOXX50指数 2025年EPS盈利预期从$- 4 . 5 \%$ 上修至 $- 4 . 4 \%$ 。
+经济预期：上周美国经济高频景气回升。过去一周，花旗美国经济意外指数上升，或因部分企业财报强于预期、格陵兰岛争端缓解等；欧洲经济意外指数回升，或受欧元区四季度GDP 环比高于预期、格陵兰岛争端缓解等提振；花旗中国经济意外指数边际改善，或受地产、服务消费等政策预期，以及中英关系缓和等因素提振。
+资金流动：鹰派沃什当选下一任美联储主席。从央行政策利率看，1 月美联储决议维持利率不变，叠加特朗普提名沃什为新任联储主席候选人，引发市场鹰派预期。截至 1/30，市场预期联储 26年降息2.1次，较前周小幅下降。美元流动性变化不大，SOFR-OIS 利差较上周收窄。全球微观流动性上，11月资金主要流入中国大陆、美国、韩国、印度与欧洲；上周港股最大增量资金来自港股通。
+风险提示：部分指标为测算值，美联储降息快于预期，特朗普政策不确定性。
+肖群稀（分析师）
+021-38676666
+S0880522120001
+赵玥炜（分析师）
+021-38676666
+# 行业月报：机械行业《出口链月度跟踪：汇率与运价边际回
+# 落，海外需求结构分化》2026-02-04
+投资建议：建议重点关注具备全球制造布局、品牌输出能力与渠道整合优势的出口型消费企业。在当前外部环境变化与政策博弈背景下，具备产能多元化配
+S0880525040040
+丁嘉一（分析师）
+021-38676666
+S0880525080009
+置、稳定客户黏性及定价权的企业，有望在全球贸易格局调整中实现持续成长。我们看好市场占有率高、供应链韧性强、并已建立成熟海外产能的标的，推荐标的：巨星科技、银都股份、涛涛车业、宏华数科、杰克股份，相关标的：浩洋股份。
+成本跟踪：美元兑人民币汇率小幅贬值；欧洲航线、美东航线、美西航线、东南亚航线海运费同比下降。1）汇率：2026年1月30日美元兑人民币即期汇率为 6.95，环比1月23日上升 $1 . 3 0 \%$ ；欧元兑人民币汇率为 8.28，环比1月23日$+ 0 . 9 7 \%$ 。2）海运费：2026年 1月第四周中国出口集装箱运价指数（CCFI）中，综合指数为 1175.59，同比下降 $1 6 . 9 2 \%$ ，环比下降 $2 . 7 4 \%$ ；欧洲航线为 1574.69，同比下降 $2 5 . 1 6 \%$ ，环比上升 $0 . 3 5 \%$ ；美东航线为975.78，同比下降 $2 4 . 7 5 \%$ ，环比下降 $0 . 3 7 \%$ ；美西航线为867.79，同比下降 $2 7 . 6 0 \%$ ，环比上升 $1 . 6 4 \%$ ；东南亚航线为 933.11，同比下降 $1 6 . 7 1 \%$ ，环比下降 $4 . 4 8 \%$ 。
+行业高频数据跟踪：1）美国餐饮业：美国 25年 11月RPI环比下降。根据美国餐饮协会数据，11月美国RPI为 99.2，相较10月的99.6下降 $0 . 4 \%$ 。2）美国房地产：美国 26年 1月住房市场指数同比 $- 2 1 . 2 8 \%$ 。1月美国住房市场指数为37，环比- $. 5 . 1 3 \%$ ，同比 $- 2 1 . 2 8 \%$ 。12月美国成屋库存量118万套，同比增加 $3 . 5 1 \%$ ，美国成屋销量 435万套，同比增加 $1 . 4 0 \%$ ，10月美国新建住房销量 737万套，同比增加 $1 8 . 6 8 \%$ 。3）高尔夫球车行业：高尔夫球车行业：2025 年12 月，高尔夫球车出口量环比 $+ 1 . 3 3 \%$ ，同比上升 $7 . 6 6 \%$ ；出口金额环比 $+ 1 1 . 2 1 \%$ ，同比上升$8 . 7 6 \%$ 。据中国海关总署数据，12月我国高尔夫球车出口额为 0.43亿美元，1-12月累计出口额为 3.63亿美元，同比下降 $6 3 . 7 4 \%$ ；12 月出口量为 1.21 万辆，1-12月累计出口量为 10.54万辆，同比下降 $6 2 . 2 4 \%$ 。5）摩托车行业：2025年 12 月，中国摩托车出口额环比下降 $2 . 7 3 \%$ ，同比上升 $1 5 . 8 3 \%$ ；出口量环比下降 $6 . 7 9 \%$ ，同比上升 $1 6 . 2 9 \%$ 。
+风险提示：关税政策波动风险、宏观经济波动风险、竞争加剧风险等。
+杨林（分析师）
+021-38676666
+S0880525040027
+朱瑶（分析师）
+021-38676666
+S0880526010002
+魏宗（分析师）
+021-38676666
+S0880525040058
+# 行业专题研究：信息技术《2025年计算机年报业绩预告总结：
+# 增长与下滑两极分化》2026-02-04
+中位数数据显示，2025年计算机公司利润表现优于营收。根据统计，238 家发布业绩预告的公司中，仅 70家发布营收数据，营收增速的中位数为 $0 . 9 7 \%$ 。归母净利润增速的中位数为 $1 7 . 8 3 \%$ ；扣非净利润增速的中位数为 $2 8 . 6 8 \%$ 。总体而言，利润增速高于营收增速。此外，大市值公司在业绩区间统计中更偏向增长端，在四季度业绩确定性相对更强。
+2025 年计算机行业业绩正向占比过半，增长与下滑两极分化。根据申万行业分类，358家计算机公司中发布业绩预告238家，占比达到了 $6 6 . 5 \%$ 。根据预计归母净利润同比增长中位数划分： $3 0 \% +$ 共有 103家，占 $4 2 . 9 \%$ ； $1 0 \% { \sim } 3 0 \% ~ 2 7$ 家，占 $1 1 . 3 \%$ ； $0 { \sim } 1 0 \%$ 12 家，占 $5 . 0 \%$ ； $0 \mathrm { { \sim } - 1 0 \% }$ 6家，占 $2 . 5 \%$ ； $- 1 0 \% \sim - 3 0 \% \ 3$ 家，占 $1 . 3 \%$ ； $- 3 0 \% + 8 7$ 家，占 $3 6 . 3 \%$ 。整体呈现“两头大、中间小”的特征，高增长与大幅下滑合计 190家，占 $7 9 . 2 \%$ 。若按同比增长中位数正负来划分，增长142家，占 $6 0 \%$ ，下滑96 家，占 $4 0 \%$ 。进一步细分，增长侧的主峰集中在 $5 0 \% { \sim } 2 0 0 \%$ 区间。 $- 3 0 \%$ 以下（大幅下滑）约 87家，负向端也很集中。增速靠前公司所处细
+分行业主要以算力/信创/金融 IT 为主。
+在净利润体量约1 亿元及以上的公司中，业绩分化特征较为显著。业绩预告显示同比增速落在 $3 0 \% +$ 区间、景气改善较为明确的公司包括同花顺、道通科技、科大讯飞、新国都、广联达、锐明技术、深信服、千方科技、淳中科技、力鼎光电、三六零、宇瞳光学、佳都科技、朗新科技、海峡创新、先进数通、四维图新与大恒科技；相对而言，同比落入- ${ \cdot } 3 0 \% +$ 区间、盈利承压的公司主要为博思软件与科远智慧（减值所致，剔除减值归母利润同比增长近 $4 0 \%$ ）。
+风险提示：AI 技术发展不及预期，AI 商业落地不及预期。
+杨林（分析师）
+021-38676666
+S0880525040027
+魏宗（分析师）
+021-38676666
+S0880525040058
+张盛海（研究助理）
+021-38676666
+S0880125042247
+# 行业跟踪报告：计算机《政策注入消费动能，看好三方收单
+# “铲子”公司》2026-02-03
+国办重磅政策提振服务消费。2026年1月29日，国务院办公厅印发《加快培育服务消费新增长点工作方案》，旨在优化和扩大服务供给，促进服务消费提质惠民。《工作方案》提出三方面支持政策。一是聚焦交通服务、家政服务、网络视听服务、旅居服务、汽车后市场服务、入境消费等重点领域，从优化服务供给、推进先行先试、创新消费场景、加强人才培养等方面发力，激发发展活力。二是聚焦演出服务、体育赛事服务、情绪式体验式服务等潜力领域，从健全激励机制、优化安全管理、培育优质品牌、建设平台载体等方面着手，培育发展动能。三是通过健全标准体系、加强信用建设、强化财政金融支持等，加强对培育服务消费新增长点的支持保障。
+2026年“国补”继续，“两新”政策优化。2025年 12 月 30 日，国家发展改革委、财政部印发《关于2026年实施大规模设备更新和消费品以旧换新政策的通知》。相比 2025年，2026年“国补”对补贴的支持范围、补贴标准和实施机制三方面进行了优化。同时，为优化实施“两新”政策，满足元旦、春节等旺季消费需求，国家发展改革委会同财政部，已向地方提前下达 2026年第一批625亿元超长期特别国债支持消费品以旧换新资金计划。
+2025年12月 16日，《求是》杂志发表总书记文章《扩大内需是战略之举》。文章强调，扩大内需既关系经济稳定，也关系经济安全，不是权宜之计，而是战略之举。文章指出，实施扩大内需战略，是保持我国经济长期持续健康发展的需要，也是满足人民日益增长的美好生活的需要。要加快补上内需特别是消费短板，使内需成为拉动经济增长的主动力和稳定锚。文章还指出，总需求不足是当前经济运行面临的突出矛盾。要坚决贯彻落实扩大内需战略规划纲要，尽快形成完整内需体系，着力扩大有收入支撑的消费需求、有合理回报的投资需求、有本金和债务约束的金融需求。
+投资建议：我们认为，26年开年之际促消费政策频发，扩内需战略持续推进，将加速消费信心提振，推动消费需求扩张。第三方收单公司有望受益于线下消费复苏，推荐标的：新大陆、新国都；相关标的：拉卡拉。
+风险提示。政策波动风险；政策落地不及预期；消费复苏不及预期。
+韩其成（分析师）
+021-38676666
+S0880516030004
+郭浩然（分析师）
+021-38676666
+S0880524020002
+曹有成（分析师）
+021-38676666
+S0880525040079
+# 行业跟踪报告：建筑工程业《财政地产等建筑产业链全景数据库 20260203》2026-02-03
+资金：第5周（1.26-2.1）新增专项债累计发行额同比下降，城投债净融资额同比上升。(1)据百年建筑网，截至 2026年1月27日样本建筑工地资金到位率为$5 9 . 7 \%$ ，周环比0.47pct。(2)全国地方政府新增专项债第 5周（1.26-2.1）新发行34 只，发行额1930.7亿元，环比 $1 9 9 . 7 \%$ ，同比 $2 7 1 5 . 6 \%$ ；1 月累计发行额 3821.9亿元，环比 $2 1 7 . 4 \%$ ，同比 $8 6 . 6 \%$ 。截至 2026年2 月1 日，今年以来累计发行额3821.8 亿元，同比 $8 6 . 6 \%$ 。(3)特殊再融资专项债第5周（1.26-2.1）新发行9只，发行额 839.1亿元，环比- $1 7 . 9 \%$ ，同比上升（去年同期为0亿元）；1月累计发行额 2572.7 亿元，环比 $1 3 1 0 . 3 \%$ ，同比 $4 9 . 7 \%$ 。截至2026年2月1日，今年以来累计发行额 2572.7亿元，同比 $4 9 . 7 \%$ 。(4)全国城投债第 5 周（1.26-2.1）新发行 103只，发行额 571.6亿元，环比 $2 . 7 \%$ ，同比上升（去年同期为 0亿元）；净融资额167.4亿元，环比上升（上周为-218.0亿元），同比上升（去年同期为-401.7亿元）。截至 2026年2月1日，1月累计发行额 2812.7亿元，环比 $5 2 . 2 \%$ ，同比- $- 9 . 1 \%$ ；1月累计净融资额-219.0亿元，环比上升（12月为-394.7亿元），同比上升（去年同期为-888.8亿元）。截至2026年2月1日，今年以来累计发行额 2812.7亿元，同比- $- 9 . 1 \%$ ；累计净融资额-219.0 亿元（2025年同期-888.8亿元）。
+地产：第 5周（1.24-1.30）新房成交面积环比上升，二手房成交面积环比下降。(1)30 大中城市 2026 年第 5 周（1.24-1.30）新房成交面积 143.7 万平方米，环比$2 3 . 7 \%$ ，同比 $1 9 9 . 1 \%$ 。截至1月 30日，30大中城市1 月前 5周新房累计成交面积环比 12月前5周- $- 5 0 . 8 \%$ ，同比- $- 2 3 . 7 \%$ ；截至1月30日，新房今年以来累计成交面积同比- $- 2 0 . 4 \%$ 。(2)14 城 2025 年第 5 周（1.24-1.30)二手房成交面积 196.3 万平方米，环比 $- 5 . 8 \%$ ，同比 $7 6 5 . 2 \%$ 。截至1月 30日，14城1 月前 5周二手房累计成交面积环比 12月前5周- $- 2 . 0 \%$ ，同比 $1 1 . 7 \%$ ；截至 1月 30日，二手房今年以来累计成交面积同比 $3 . 7 \%$ 。(3)2026 年前 5周，百城土地供应面积同比- $. 1 . 2 \%$ ，成交面积同比 $- 2 3 . 0 \%$ ，成交总价同比 $- 5 0 . 1 \%$ 。
+产业链：沥青价格、沥青库存、水泥出货率、水泥库存、LME3个月铜价格环比上升，螺纹钢价格、LME3个月铝价格环比下降。(1)截至 1月 30 日，螺纹钢价格周环比- $. 0 . 2 \%$ 。(2)截至1月30日，沥青价格周环比 $3 . 1 \%$ ，同比- ${ \cdot } 8 . 1 \%$ ；库存周环比 $1 0 . 1 \%$ ，同比 $- 4 8 . 1 \%$ 。(3)截至 1月30 日，水泥出货率周环比 $1 2 . 4 \%$ ；库存周环比 $1 . 4 \%$ 。(4)截至1月30日，LME3个月铜(期货官方价)周环比 $3 . 5 \%$ ，同比 $4 8 . 5 \%$ ；LME3 个月铝(期货官方价)周环比- $\cdot 1 . 4 \%$ ，同比 $2 0 . 6 \%$ 。
+公司：(1)中国铁建 2025 年 1-12 月新签订单 30765.0 亿元，同比 $1 . 3 \%$ （24年同期$- 7 . 8 \%$ ）；单四季度新签订单15577.3亿元，同比- $\cdot 0 . 4 \%$ ，降幅环比三季度扩大了 24.5个百分点。(2) 中钢国际2025 年1-12月新签订单204.0亿元，同比 $3 . 7 \%$ （24 年同期 $2 . 1 \%$ ）；单四季度新签订单 97.5亿元，同比 $1 1 1 . 1 \%$ ，增幅环比三季度扩大了130.0 个百分点。(3)北方国际 2025 年 1-12 月新签订单 10.1 亿美元，同比- $. 1 2 . 8 \%$ （24年同期- $. 5 5 . 8 \%$ ）；单四季度新签订单 5.4亿美元，同比 $4 6 . 6 \%$ ，增幅环比三季
+度扩大了 39.6 个百分点。(4) 2026 年 1 月 TOP100 房企销售总额为 1905.2 亿元，同比- $. 1 8 . 9 \%$ （25 年同期- $. 1 6 . 5 \%$ ）。
+风险提示：宏观经济政策风险，基建投资低于预期等。
+马婷婷（分析师）
+021-38676666
+S0880525100001
+刘源（分析师）
+021-38676666
+S0880521060001
+# 行业月报：商业银行《1月理财月报：总量微降，现金管理和混合类产品规模上升》2026-02-03
+1月末银行理财产品存续规模为31.55万亿（普益口径）[footnoteRef:1]，同比增长 $5 . 7 \%$ 、环比微降 $0 . 2 \%$ 。受银行开门红和其他投资品比价影响，理财规模连续两个月减少，但相较12月资金净流出 704亿元，1 月降幅收窄至 547亿元，且主要是固定收益类产品规模下降了 891亿元，现金管理类和混合类产品规模分别较年初增长 141、204亿元。 [1: 说明：报告中多数理财规模及收益率源于普益标准金融数据平台，单月各机构新发行理财产品数据源于 Wind。鉴于信息可得性，部分产品或不在第三方数据平台统计范围内，故与银行官方报告有差异，统计样本变化或影响结果。]
+1月新发理财产品2,513只，环比12月少324只，新发产品初始募集规模4,238亿元，环比下降 $2 2 . 0 \%$ 。分产品看，现金管理类、固收类、混合类、权益类产品分别新发行 54、2,411、32、16 只，环比 12 月-4、-261、-41、-8 只。具体看：
+混合类产品由光大理财6 只、兴银理财 5只、农银理财和中银理财各 4只、宁银理财 2只等构成。光大理财采用区间收益上下限设定业绩基准，单只产品最大初始募资额达 35亿元，该产品业绩基准为 $2 . 3 \% 3 . 3 \%$ ，封闭管理，存续期 448天，但设有止盈目标收益率 $2 . 6 \%$ ，固定管理费 $0 . 2 \%$ 。兴银理财新发混合类产品分两种，一类是 180天定开，以区间收益率上下限为业绩基准，合计首发规模约40 亿元，固定管理费 $0 . 1 \%$ ，不同份额销售服务费有差异。一类是以权益、财富、商品指数的加权和为业绩基准，首发规模合计 1.7亿元，其中有两只产品固定管理费率 $0 . 8 – 1 \%$ ，并设有 $2 0 \%$ 超额业绩报酬。宁银理财两只产品规模上限均为5亿元，最低持有期300天，同时设有A\B份额，A份额以“ $2 5 \% =$ *中证红利指数收益率 $+ 7 0 \%$ *中债-新综合全价(1-3 年)指数收益率 $+ 5 \%$ *央行活期存款基准利率”为业绩基准，B份额业绩基准比A份额高 $0 . 1 \%$ 。固定管理费A份额 $0 . 4 \%$ 、B份额 $0 . 3 5 \%$ ；浮动管理费A 份额对 $( 5 \% , 6 \% ]$ 的部分按 $2 0 \%$ 收取， $6 \%$ 以上部分按 $3 0 \%$ 收取，B份额收取门槛对应为 $( 5 . 1 \% , 6 . 1 \% ]$ 、 $6 . 1 \%$ 以上。
+权益类产品多数由外资行发行，内资仅招银理财1只产品，以 ${ } ^ { 6 6 } 9 5 \% ^ { * }$ 中诚信中国科技全球竞争力股票指数收益率 $+ 5 \%$ *活期存款利率”为业绩基准，固定管理费 $0 . 2 \%$ ，首发规模0.1亿元，上限 10亿元。
+1月银行理财加权平均收益率为 $2 . 8 6 \%$ ，环比12月 $+ 8  { \mathsf { b p } }$ 。其中，现金管理类、纯固收类产品加权平均收益率为 $1 . 7 8 \%$ 、 $2 . 6 5 \%$ ，分别较12 月下降8bp、2bp；固收 $^ { + }$ 类、混合类产品收益率分别较12月上升5bp、78bp至 $2 . 8 9 \%$ 、 $4 . 1 9 \%$ ，权益类产品收益率从 $4 . 5 7 \%$ 跃升至 $1 2 . 3 3 \%$ ，股债跷跷板行情越发突显。
+理财破净数在年底受债市震荡拖累跃升后，1月重回较低水平。单位破净理
+虞楠（分析师）
+021-38676666
+S0880525040110
+岳鑫（分析师）
+021-38676666
+S0880514030006
+财产品 1,074 只，占理财总数的 $1 . 5 \%$ ，为近两年最低水平。
+风险提示：1）理财产品数据源自第三方平台，为不完全统计，主要用于观察趋势，绝对规模仅供参考大致水平。随着理财产品发行与到期，样本动态变化，各期并不完全可比。2）数据统计样本和统计方式不同，结论或有差异。
+# 行业跟踪报告：物流仓储《件量增速持续放缓，反内卷下单 价稳定》2026-02-03
+投资建议：维持快递增持评级。2026年行业“反内卷”的力度与持续性都有望超预期，有效缓和了行业竞争压力，促使行业价格水平逐渐回升，后续盈利能力也有望持续恢复。在电商经营高成本、暖冬等因素造成的行业增速下行的态势下，继续看好持续优化业务结构，构建差异化竞争壁垒以及海外业务增长迅速的快递龙头。维持中通快递-W、极兔速递-W、顺丰控股增持。
+12月快递件量同比增速继续下降，2025年整年快递件量同比 $+ 1 3 . 6 \%$ 。1）全行业：2025年12月全国快递企业件量 182.1亿件，同比 $+ 2 . 3 \%$ ；2025 年 1-12 月件量 1989.5亿件，同比增长 $1 3 . 6 \%$ 。我们认为，价格回升下轻小件及低价件的需求收缩、去年同期价格战较为激烈导致基数较高、电商经营成本增加下部分商家暂停发货和暖冬影响冬季服装销售等因素共同导致了12月件量同比增速放缓。2）电商快递：各公司件量同比增速环比 11月有所回落，其中圆通由11月的 $1 3 . 5 8 \%$ 降至 $9 . 0 4 \%$ ，韵达由 $- 4 . 1 9 \%$ 降至 $- 7 . 3 7 \%$ ，申通由 $1 4 . 6 7 \%$ 降至 $1 1 . 0 6 \%$ 。3）直营快递：顺丰的业务量同比增速由 $2 0 . 1 3 \%$ 回落至 $9 . 3 3 \%$ 。
+行业单价降幅收窄，快递“反内卷”力度和持续性超预期。1）全行业：2025年 12月快递行业收入同比 $+ 0 . 7 \%$ ，单票收入同比- $. 1 . 5 6 \%$ 。我们认为，价格降幅收窄的驱动因素有二：一是行业“反内卷”的提振效应具备较强持续性；二是去年同期激烈的价格竞争已将价格压至环比低位，这为今年 12 月份降幅收窄奠定了基础。2）电商快递：圆通/韵达/申通2025年 12 月单票收入分别同比
+- $\cdot 1 . 7 5 \% / 5 . 9 1 \% / 1 5 . 3 5 \%$ ，1-12月单票收入分别同比 $^ { \prime } 4 . 2 \% / - 2 . 8 \% / 2 . 3 \% \approx$ 3）直营快递：顺丰 12月单票收入同比 $- 5 . 0 9 \%$ ，1-12月单票收入同比- $1 1 . 0 6 \%$ 。顺丰件量结构持续优化，单价同比降幅缩小明显，“增益计划”效果逐步显现。
+行业集中度略微趋缓，头部公司Q4市场份额相对稳定。2022年初到 2024年末，由于政策监管下价格竞争相对温和，份额向头部集中较缓慢。1）全行业：2025 年 1-12 月快递行业 CR8 为 86.8，同比提升 1.6，反映出 2025 年头部企业份额关注度明显提升。2）电商快递：圆通/韵达/申通/极兔 2025年Q4市占率分别为 $1 5 . 8 9 \% / 1 1 . 9 9 \% / 1 3 . 5 1 \% / 1 0 . 3 5 \%$ ，分别较Q3环比变化
+$+ 0 . 2 7 \mathrm { p c t } / - 0 . 9 9 \mathrm { p c t } / + 0 . 3 3 \mathrm { p c t } / - 0 . 9 3 \mathrm { p c t }$ ，头部快递公司Q4市占率环比相对稳定。申通11-12月合并丹鸟物流，丹鸟物流作为国内品质快递及逆向物流服务的头部提供商，此次并入直接扩充了申通的业务版图。 3）直营快递：顺丰2025年Q4市占率达 $8 . 4 2 \%$ ，较 Q3 环比变化-0.26pct。
+风险提示：经济波动、行业政策变化、非理性竞争、油价波动等。
+本次评级：增持
+目标价：153.19 元
+现价：91.33 元
+总市值：6395百万
+陈筱（分析师）
+021-38676666
+S0880515040003
+蔡雯娟（分析师）
+021-38676666
+S0880521050002
+李瑶（分析师）
+021-38676666
+S0880525120001
+# 公司季报点评：极米科技（688696）《内销格局改善，出海及新业务贡献增量》2026-02-04
+投资建议：公司内销格局改善，外销快速增长。我们预计 2025-2027 年EPS为 1.66/5.11/7.16 元/股，增速为 $- 3 . 1 \% / 2 0 7 . 1 \% / 4 0 . 1 \%$ 。参考可比公司估值，给予公司 2026年30xPE（相较于同行业可比公司给予一定的估值溢价，因为公司新业务发展潜力较高，目标价为153.19元，维持“增持”评级。
+事件：2025 年 10 月 30 日，极米科技发布 2025 年三季度财报：2025Q1-3，公司实现营业收入 23.27亿元，同比增长 $1 . 9 9 \%$ ，实现归母净利润 0.8亿元，同比扭亏。2025Q3 公司实现营业收入 7 亿元，同比增长 $2 . 9 \%$ ，实现归母净利润-0.09亿元，同比减亏。
+内销格局改善，出海及新业务快速增长：25H1公司持续创新、优化产品矩阵，推出便携投影Play6、家用旗舰RS20 系列、轻薄投影Z6XPro 三色激光版等新品，进一步夯实入门级DLP 投影份额优势，同时完善中高端激光投影产品矩阵，提升高端投影性能。海外市场，公司基于坚定实施品牌出海与全球化业务布局，公司产品已进入欧洲、北美、日本、澳洲等区域主要线下渠道。新业务方面，公司布局车载投影新业务，已获得多个车载业务定点，涵盖智能座舱、智能大灯领域，目前已经交付上车问界 M8、问界 M9、尊界S800、享界S9 等多款车型。
+风险提示：对美出口的不确定性，行业竞争激烈。
+本次评级：增持
+目标价：24.80 元
+现价：19.17 元
+总市值：3670 百万
+訾猛（分析师）
+021-38676666
+S0880513120002
+颜慧菁（分析师）
+021-38676666
+S0880525040022
+张宇轩（分析师）
+021-38676666
+S0880525040039
+# 公司公告点评：索宝蛋白（603231）《四季度利润表现良好，
+# 26 年业绩可期》2026-02-04
+维持增持评级。我们下修2025-2027年 EPS预测分别为 $0 . 9 8 / 1 . 2 4 / 1 . 5 1$ 元（原预测为 1.06/1.24/1.53元）。结合可比公司估值情况，给予公司 20倍的PE（2026E），目标价为 24.8元/股，“增持”评级。
+25Q4利润继续保持较快成长。公司披露2025年业绩预告，预计 2025年实现归母净利润 1.78-1.91亿元（同比增长 $4 6 . 8 9 \% - 5 7 . 6 2 \%$ ），实现扣非归母净利润1.71-1.82 亿元（同比增长 $5 6 . 0 3 \% { - } 6 6 . 0 7 \%$ ）。参照业绩预告情况计算，则对应 25Q4实现归母净利润 0.31-0.44亿元（同比增长 $6 . 1 0 \% - 5 0 . 1 7 \%$ ），实现扣非归母净利润0.29-0.40 亿元（同比增长 $3 . 2 6 \% - 4 2 . 1 8 \%$ ）。
+当前大豆价格有利，看好盈利能力继续改善。公司25 年整体归母净利润表现亮眼，主要系 2025 年公司聚焦高端制造提升、能源优化利用及精益管理等重点工作，在生产经营降本增效领域取得显著成效。管理团队紧盯原料市场走势，抢抓采购时机，有效降低非转基因大豆采购成本。参照 wind，当前CBOT大豆价格依然处于阶段性底部震荡，我们认为考虑到大豆价格的相对有利位置，预计 26
+年公司整体盈利能力继续有望保持良好趋势。
+新产能将逐步释放拉动营收稳健成长。据公司《关于部分募投项目延期的公告》，公司3 万吨大豆组织拉丝蛋白生产线建设项目预计于 2026年 12月达到预定可使用状态，另据《东吴证券股份有限公司关于宁波索宝蛋白科技股份有限公司部分募投项目变更的核查意见》，公司拟将“5000吨大豆颗粒蛋白生产线建设项目”变更为“万得福工业园高端大豆分离蛋白生产线改造项目”，建设工期为19 个月，并预计项目建成后正常年运营期收入为2.6亿元。我们认为随着后续公司新产能持续释放，将驱动公司营收继续保持稳健成长。
+风险提示。（1）食品安全风险，（2）需求不及预期，（3）竞争加剧。
+本次评级：增持
+目标价：38.52 元
+现价：24.31 元
+总市值：211827 百万
+刘一鸣（分析师）
+021-38676666
+S0880525040050
+张予名（研究助理）
+021-38676666
+S0880125042241
+# 公司深度报告：潍柴动力（000338）《燃启寰宇智，气贯全球芯》2026-02-03
+我们认为，潍柴动力有望从一家以重卡动力链生产制造为主企业，逐渐转型成为AIDC发电设备的全面供应商。在全球AIDC投资高速增长、“美国缺电”现象不断深入的背景下，潍柴动力旗下多种 AIDC 发电设备业务——往复式燃气发电机组、SOFC 以及作为备电的柴发均有望实现高增长。预计潍柴动力2025/26/27年取得归母净利润 124/153/280 亿元，对应 EPS 为 1.43/1.75/3.21 元，2026 年 2 月2日收盘价对应PE为 $1 5 . 8 / 1 2 . 9 / 7 . 0 \mathrm { x } \circ$ 。考虑到AIDC 发电产业的增长有望持续增大潍柴动力该业务的利润占比，我们认为潍柴动力的成长空间较大。给予公司2026年 22x PE，目标价38.52元，维持“增持”评级。
+全球AIDC投资高增长，发电设备需求激增。根据IEA的统计，2024年全球数据中心总装机功率为 97GW，预计到2030年增长到 226GW，2024-2030年增加129GW，存量复合增长率 $1 5 \%$ 。我们认为在AI行业高增长预期的驱动下，AIDC投资较为乐观，全球数据中心的实际功率需求可能更大。
+美国电网和燃气轮机供应能力不足，往复式燃气发电机组和SOFC作为AIDC主供电源空间广阔。通过测算供需，我们认为美国AIDC分布式发电设备在2025年存在 1.5GW左右的缺口，到2030年逐渐扩大到接近 7GW。考虑到电网和燃气轮机厂商历史上扩张谨慎，我们认为该缺口不排除进一步扩大。因此，对于同样可作为 AIDC 主供电源的往复式燃气发电机组和SOFC 厂商，未来空间广阔。
+潍柴动力深入布局往复式燃气发电机组和SOFC，来自AIDC主供电源的业绩占比有望持续提升。往复式燃气发电机：在美国是成熟发电设备选项，潍柴动力携控股子公司PSI在美国布局深厚，2025年PSI营收有望达 7 亿美元左右，协同潍柴集团资源有望高速增长。SOFC：技术层面与数据中心的用电负载特点较为匹配，企业层面潍柴动力参股头部 SOFC 设计公司Ceres约 $2 0 \%$ 股权，已经获得 Ceres全球制造授权，协同优势较大。由于往复式燃气发电机组和 SOFC 均对应 AIDC 发电装备来自电网和燃气轮机的溢出需求，我们认为边际弹性较大，潍柴动力相关业务有望获得快速增长。
+风险提示：AIDC 投资不及预期，AIDC 电力路径选择多样化，原材料价格大幅上涨。
+本次评级：增持
+目标价：10.01 元
+现价：8.62 元
+总市值：8420百万
+鲍雁辛（分析师）
+021-38676666
+S0880513070005
+花健祎（分析师）
+021-38676666
+S0880521010001
+杨冬庭（分析师）
+021-38676666
+S0880522080004
+# 公司首次覆盖：耀皮玻璃（600819）《老牌玻璃的新引擎，汽车玻璃与 TCO 突围》2026-02-03
+首次覆盖，“增持”评级。我们认为，公司作为老牌玻璃龙头转型提速，其中汽车玻璃全国经营权统一、新定点加速突破有望量利齐升。另外，公司 TCO 在线镀膜工艺布局领先，等待钙钛矿量产窗口。我们预测公司 2025-27 年EPS为0.15/0.21/0.29 元，采用 PE/PB 估值法，审慎起见取两者中较低值，对应目标 10.01元。
+老牌玻璃龙头，治理机制理顺，加速转型。公司成立之初中方发起人股东是中国玻璃工业的起点上海耀华玻璃厂，外方股东是浮法工艺的发明者英国皮尔金顿，目前大股东兼实控人为上海建材集团，NSG（收购皮尔金顿）和中国复材为第二三大股东，三方治理结构中上海建材集团股权占比稳中提升。业务结构上，公司近年高附加值产品占比提升，其中汽车玻璃和TCO玻璃拓展提速。
+汽车玻璃市场快速扩容，公司定点加速，盈利提升潜力大。 我们测算过去传统燃油车单车玻璃价值量约 500-800元，整车智能化、电动化趋势增强后，单车玻璃价值提升至 1500-2000元。同时汽车玻璃由于其重资产、重运营属性，小企业不具备竞争优势，全球玩家相对有限。23-25年我们复盘耀皮在汽车玻璃上两个核心变化 1）经营区域扩展至全国：2022-23年从皮尔金顿手中收回汽车玻璃工厂股权实现全国经营权统一；2）加快落实新车定点：过去公司汽车玻璃毛利率受制于老车型年降压力，近年公司加速开拓新能源车定点客户，2023-24年汽车玻璃毛利率从 $1 0 . 2 5 \%$ 提升至 $1 3 . 3 4 \%$ ，25H1 康桥汽车公司盈利 3358万元，半年盈利高于 24年全年。
+TCO玻璃趋近量产窗口，公司在线镀膜能力具备先发优势。下游客户钙钛矿GW级扩产规划集中在2025-2027 年，有望带动TCO玻璃用量抬升，TCO 门槛集中在超白浮法资源、镀膜工艺和客户验证上。大连耀皮收购后在线镀膜利用率提升，TCO需求尚未放量时，该镀膜线有灵活生产汽车、家电、建筑玻璃的能力。2024-2025H1，大连耀皮实现净利 5880万元、3226万元，占当期公司归母净利润比例分别为 $5 1 \%$ 、 $3 8 \%$ ，是公司近两年利润的重要贡献来源。2025年 10 月大连耀皮完成技改，有望更好匹配 26 年TCO扩产契机。
+风险提示：原燃料成本大幅提升，汽车产量大幅下滑。
+本次评级：增持
+目标价：9.68 元
+现价：7.61 元
+总市值：8671百万
+# 公司首次覆盖：天润工业（002283）《曲轴连杆龙头地位稳固，AIDC 大机增量可期》2026-02-03
+投资建议：首次覆盖给予“增持”评级，目标价9.68元。我们认为公司商用车发动机曲轴连杆龙头地位稳固，同时切入数据中心发电机组零部件业务，大机曲轴、连杆成为公司未来核心增长点。我们预计公司 2025/26/27年 EPS分别为$0 . 3 6 / 0 . 4 4 / 0 . 5 1$ 元，同比分别 $+ 2 3 \% + 2 4 \% / + 1 5 \%$ 。我们用PE 为公司估值，参考可比
+刘一鸣（分析师）
+021-38676666
+S0880525040050
+卢雨涵（研究助理）
+021-38676666
+S0880125100008
+公司，我们给予公司 2026 年 22 倍 PE，对应目标价 9.68 元。
+深耕商用车发动机曲轴连杆，龙头地位稳固。公司生产的曲轴、连杆是内燃机核心零部件，国内主流商用车发动机客户配套率达 $9 5 \%$ 以上，公司重型发动机曲轴市场占有率 $6 0 \%$ ，柴油轻型发动机曲轴市场占有率 $4 2 \%$ ；部分产品直接出口美国、德国、法国、英国、日本、意大利等国家。公司曲轴、连杆产品的配套客户包括潍柴动力、一汽锡柴、东风龙擎、广西玉柴、上菲红、上海新动力、康明斯、戴姆勒卡客车、沃尔沃、卡特彼勒、道依茨等国内外主机厂。
+依托曲轴连杆配套优势，公司加快发展数据中心发电机组零部件业务。大缸径发动机核心部件与天润工业现有曲轴、连杆主业高度契合，而公司深耕该领域数十年，已构建起该领域全球领先的制造能力。根据天润工业及中国证券报，目前康明斯、卡特彼勒等外资品牌订单排期已至 2028年，交付周期长达 12-18 个月，产能饱和为国内厂商提供了全球化配套的广阔空间，价格上行态势也为产业链上中游企业带来显著盈利弹性。发电机组配套业务不仅能充分激活公司传统主业产能潜力，还将成为未来 3-5 年传统板块的核心增长引擎。
+技术与产能的双重储备，为公司承接增量订单提供支撑。产能布局方面，天润工业目前已建成五条大型曲轴生产线，另有两条全球顶尖水平生产线正在加速建设，预计2026年底全部投产，届时，7条生产专线将具备年产大机曲轴 3万支的产能，可全面覆盖国内外市场增量需求；在大机连杆方面，目前已有 9条大机连杆生产专线，并另有 2条专线正在建设之中，预计 2026 年10月可建设完成，届时大机连杆年产能可达到 70万支；在大机产品锻造方面，天润目前已拥有两条大机锻造线。
+风险提示：AIDC 发电设备产销量不及预期，原材料价格大幅上涨。
+本次评级：增持
+目标价：0.00 元
+现价：0.00 元
+总市值：0百万
+涂力磊（分析师）
+021-38676666
+S0880525040101
+谢皓宇（分析师）
+021-38676666
+S0880518010002
+曾佳敏（分析师）
+021-38676666
+S0880525040125
+# 海外报告：新城发展（1030）《不止于开发，从平衡到引领》
+# 2026-02-03
+给予“增持”评级。由于行业销售和价格持续下行，造成公司短期结算金额和利润下行，我们认为企业当前净利润不能反应后续潜在盈利变化。考虑政策端发力，资产价格逐步寻底，企业存在修复空间，采用PB 方式估值更符合后续市场变化。我们预测公司 2025/26/27 年 EPS 为人民币 0.07/0.09/0.11 元，2026 年每股净资产为6.72元，给予0.5倍PB，对应价值为每股3.65港元（1 HKD=0.92 CNY）。
+融资保持畅通，现金流创造能力稳定提升。2025年，公司在境内外融资市场持续突破，先后发行美元债、中票和持有型不动产ABS 等，再融资多点开花。同时，得益于公司前瞻性的战略布局，商业板块在近年宏观经济波动及地产下行周期为公司提供重要支撑。公司租金收入持续贡献稳定现金流，经常性租金收入覆盖利息倍数由 2020年的0.87倍提升至 1H25的 4.42倍，支撑常态付息能力。
+商业赛道能力突出，运营 $\alpha$ 属性明显。公司于2008年涉足商业地产，属于业内较早布局商业地产的企业，为公司奠定“地产 $^ +$ 商业”双轮驱动战略雏形。我们认为公司在商业赛道的竞争优势和 $\alpha$ 属性主要体现在：1）先发优势明显，竞争格局逐步优化；2）商业运营能力突出，经营效益行业前列；3）城市消费潜力逐步释放，下沉市场换发新机。未来看，我们判断公司商业赛道长期增长逻辑
+主要在于通过头部集中、存量改造、数字化运营以及证券化通道，持续扩大市场份额并用更低 Cap Rate 进行资本化。
+开发业务拖累逐步减轻，利润率底部确认。近年来，公司主动调整战略目标，由规模扩张转向加速去化和保障竣工交付，合同销售金额在 2019年达到峰值后进入下行通道。公司自 2024年 8月起回收销售折扣，2025年上半年较2024年提升 240元/平至10072元/平，阶段性完成价格底部确认。我们判断随着高折扣项目结转比例下降，后续毛利率具备小幅回升基础。
+风险提示。1）行业规模具有缩量风险；2）市场修复不及预期。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+张雪杰（分析师）
+021-38676666
+S0880522040001
+朱惠东（分析师）
+021-38676666
+S0880525070025
+# 金融工程月报：《2月建议超配小盘风格，中长期继续看好小盘、成长风格》2026-02-04
+大小盘风格轮动月度策略。月度观点：1月底量化模型最新信号为 0.5，指向小盘。日历效应上，历史2月小盘相对占优；建议2 月超配小盘风格。中长期观点，当前市值因子估值价差为 0.88，近期有所下降，距离历史顶部区域1.7~2.6仍有距离，中长期并不拥挤，未来一年继续看好小盘。截止 1 月底，模型本年收益 $8 . 1 6 \%$ ，相对等权基准（ $4 . 9 1 \%$ ）的超额收益为 $3 . 2 6 \%$ 。结合主观观点的策略收益 $8 . 1 6 \%$ ，超额收益 $3 . 2 6 \%$ 。策略构建详见报告《量化视角多维度构建大小盘风格轮动策略_20241102》。
+价值成长风格轮动月度策略。月度观点：1 月底量化模型信号为 0，建议2月等权配置成长和价值风格。中长期观点，未来一年更看好成长风格。截止1 月底，模型收益 $4 . 0 1 \%$ ，相对等权基准（ $4 . 0 1 \%$ ）的超额收益为 $0 \%$ 。策略构建详见报告《量化视角多维度构建月度和周度价值成长风格轮动策略_20250305》。
+风格因子表现跟踪。8 个大类因子中，1 月价值、波动率因子正向收益较高；大市值、质量因子负向收益较高。本年价值、波动率因子正向收益较高；大市值、质量因子负向收益较高。24个风格因子中，1 月贝塔、长期反转、中市值因子正向收益较高；大市值、残差波动、行业动量因子负向收益较高。本年贝塔、长期反转、中市值因子正向收益较高；大市值、残差波动、行业动量因子负向收益较高。
+。因子构建详见报告《A 股风险模型实践：风险因子篇_20240519》。
+因子协方差矩阵更新。股票协方差矩阵估计是股票组合风险预测的核心。利用多因子模型，可以将股票协方差矩阵拆解为因子协方差矩阵和股票特质风险矩阵的结合，从而完成较为准确的估计。本文更新了最新一期（2025/12/31）的因子协方差矩阵。股票协方差矩阵构建详见报告《A股风险模型实践：股票协方差矩阵估计篇_20240530》。
+风险提示：量化模型基于历史数据构建，而历史规律存在失效风险。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+曹君豪（分析师）
+021-38676666
+S0880525040094
+付欣郁（分析师）
+021-38676666
+S0880525070018
+# 金融工程周报：《绝对收益产品及策略周报（260126-260130）》
+# 2026-02-04
+固收 $^ { + }$ 产品业绩跟踪。截至2026年01月30日，全市场固收 $^ { + }$ 基金规模 23558.32亿元，产品数量 1164只，其中 108只上周净值创历史新高。上周
+（20260126-20260130，下同）共新发6 只产品，各类型基金业绩中位数表现分化：混合债券型一级（ $- 0 . 0 8 \%$ ）、二级（ $- 0 . 0 8 \%$ ）、偏债混合型（ $- 0 . 0 8 \%$ ）、灵活配置型（ $- 0 . 0 3 \%$ ）、债券型FOF（ $0 . 2 6 \%$ ）及混合型FOF（ $0 . 3 5 \%$ ）。按风险等级划分，保守型、稳健型、激进型基金中位数收益分别为 $0 . 0 1 \%$ 、 $- 0 . 1 2 \%$ 、 $- 0 . 1 2 \%$ 。
+大类资产配置和行业ETF轮动策略跟踪。1）大类资产择时观点。2026Q1逆周期配置模型给出的宏观环境预测结果为 Slowdown，截至 2026年1月31日，沪深 300指数、中债国债总财富指数、上金所AU9999 合约收益率分别为 $1 . 6 5 \%$ 、$0 . 3 9 \%$ 和 $1 9 . 5 9 \%$ 。2）行业ETF轮动观点。2026年1月，行业ETF轮动策略建议关注的行业 ETF为：国泰中证煤炭ETF，国泰中证钢铁ETF，国泰中证全指证券公司ETF，华宝中证银行ETF。组合上周收益 $0 . 8 8 \%$ （相对Wind全A超额 $2 . 4 7 \%$ ），1月累计收益 $2 . 3 0 \%$ （相对Wind 全A超额 $- 3 . 5 3 \%$ ）。
+绝对收益策略表现跟踪。1）股债混合策略表现。宏观择时驱动的股债20/80再平衡策略上周收益 $0 . 0 5 \%$ （ $\mathrm { Y T D 0 . 5 6 \% }$ ），股债风险平价策略上周收益 $0 . 0 4 \%$ （YTD $0 . 4 7 \%$ ）；两者叠加行业ETF轮动的增强策略上周收益分别为 $0 . 2 9 \%$ （ $\mathrm { Y T D 0 . 8 9 \% }$ ）和 $0 . 1 3 \%$ （ $\mathrm { Y T D 0 . 5 5 \% }$ ）；股债黄金风险平价类组合上周收益 $0 . 2 6 \%$ （YTD $1 . 2 8 \%$ ）。2）量化固收 $^ { + }$ 策略表现。股债20/80组合中，小盘价值风格表现最为突出，年内收益率 $2 . 6 0 \%$ ，PB 盈利、高股息、小盘成长分别为 $1 . 3 0 \%$ 、 $0 . 8 7 \%$ 、$1 . 8 8 \%$ ；当调整为股债10/90配置时，各策略收益均出现回落。叠加择时策略后，基于宏观动量模型的小盘价值组合累计收益 $3 . 8 2 \%$ ，基于逆周期配置的PB盈利搭配小盘价值组合年内收益为 $1 . 3 8 \%$ 。
+风险提示。因子失效风险，模型误设风险，历史统计规律失效风险。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+罗蕾（分析师）
+021-38676666
+S0880525040014
+卓洢萱（分析师）
+021-38676666
+S0880525040128
+# 金融工程周报：《风格 Smart beta组合跟踪周报
+# （2026.01.26-2026.01.30）》2026-02-03
+上周，风格50组合均跑赢对应风格均衡 50 组合。风格层面，价值、成长及小盘风格的周收益率分别 $1 . 0 1 \%$ 、 $- 0 . 5 9 \%$ 及- $- 2 . 7 6 \%$ ，价值占优。具体来看：
+价值 Smart beta 组合表现。上周（2026 年 01 月 26 日至 2026 年 01 月 30 日，下同)，价值50组合、价值均衡 50组合的周收益率分别为 $0 . 6 2 \%$ 、 $0 . 1 6 \%$ 。今年以来（2026年01月01日至2026 年01月30日，下同)，价值 50组合、价值均衡 50组合的年收益率分别为 $0 . 5 1 \%$ 、 $8 . 4 4 \%$ 。
+成长Smart beta组合表现。上周，成长 50组合、成长均衡 50组合的周收益率分别为- $. 1 . 1 5 \%$ 、 $- 1 . 2 2 \%$ 。今年以来，成长 50 组合、成长均衡 50组合的年收益率分别为 $3 . 9 2 \%$ 、 $8 . 6 7 \%$ 。
+小盘Smart beta组合表现。上周，小盘 50组合、小盘均衡 50组合的周收益率分别为- $. 1 . 5 5 \%$ 、 $- 2 . 5 0 \%$ 。今年以来，小盘 50 组合、小盘均衡 50组合的年收益率分别为 $9 . 8 4 \%$ 、 $1 0 . 0 6 \%$ 。
+风险提示：市场环境变动风险，有效因子变动风险。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+付欣郁（分析师）
+021-38676666
+S0880525070018
+# 金融工程周报：《行业主题 ETF流动性月报（2026.01）》
+# 2026-02-03
+"1. 从规模结构看：芯片（ $1 0 . 9 \%$ ）、证券（ $1 0 . 0 \%$ ）与有色金属（ $7 . 5 \%$ ） 为前三大板块，合计占比 $2 7 . 1 \%$ ，构成市场核心部分。其中有色首次进入前三板块。除核心权重外，人工智能（ $6 . 2 \%$ ）、国防军工（ $5 . 2 \%$ ）及机器人（ $4 . 7 \%$ ）等科技及制造链条仍维持较高规模占比，其他行业与主题板块规模结构保持相对稳定。
+"2. 从流动性分布及变动看：市场成交活跃度集中于国防军工（ $1 2 \%$ ）、芯片（ $1 1 \%$ ）、证券（ $7 \%$ ）、人工智能（ $7 \%$ ）、有色金属（ $7 \%$ ）五大板块。成交占比变动方面，国防军工（ $+ 3 . 6 \%$ ）、计算机（ $+ 2 . 7 \%$ ）、有色金属（ $+ 2 \%$ ）、半导体材料设备（ $+ 2 \%$ ）和传媒（ $+ 1 . 8 \%$ ）为本月提升较为明显的领域；相对而言，芯片、人工智能、通信以及证券、银行成交占比有所回落。整体来看，国防军工和有色成交比重上升，而金融板块成交占比出现收缩，同时 TMT 板块内成交热度出现结构性转移，
+3. 2026 年 1 月新上市行业主题类 ETF 共 21 只。
+# 市场策略周报：《2月抓住资金层面的确定性》2026-02-03
+在关于新流动性工具的讨论降温之后，我们认为更重要的是抓住资金层面的确定性。不管是对ONRRP 还是对隔夜双向回购工具的猜想，背后隐含着的都是市场对隔夜利率下探/长期处于OMO利率下方的积极预设。2月初央行惯例回笼OMO 短期资金，但DR001 加权回落至 $1 . 3 \%$ 附近，大型银行融出也显著回升至5.3 万亿，与我们的判断基本相符。
+在经历了 1月信贷密集投放、税期大月、政府支出小月等扰动后，我们认为2 月
+唐元懋（分析师）
+021-38676666
+S0880524040002
+杜润琛（分析师）
+021-38676666
+S0880525110004
+资金所面临的显性扰动要明显低于 1 月，资金整体宽松的状态大概率将在 2 月延续，不需要额外担忧。且在 1月 MLF降价后，2月存单利率中枢还会有下移空间。
+我们此前在报告里明确提出，在基准利率从七天转向隔夜之后，DR001的合意中枢是在 7天OMO 利率下方。在新流动性工具落地之前，临时正逆回购将继续构成利率走廊的上下限。此处需要提到，临时正逆回购的区间是在 7天OMO利率的基础上[-20bp， $+ 5 0 \mathrm { b p } ]$ 。对于其不对称的操作区间，市场上有两种截然不同的解读，一种是认为[-20BP]的下限约束更紧，或反映约束利率下限的迫切性更高，资金利率“易下”；另一种解读则是资金利率短期向上波动的空间要大于向下（包括税期、缴准、跨月等常规性波动），客观上确实需要为临时性工具的触发留有一定余量。
+我们偏向第二种解读，不管是从一季度资金供需，还是从国内银行间流动性运行的整体背景来看，资金利率调控的难点和痛点依然在防范短期过度向上波动，以促进金融市场平稳运行以及配合财政发债。对于 2025年一季度这类央行主动收紧资金的典型情况，调控的矛头和重心也不在资金利率本身，而是为了避免长债利率过低。即防范资金空转的最终目标并不是抬升资金利率，资金利率只是中介变量，核心目标是治理金融风险。在债市中枢整体回升之后，提升金融系统稳定性的核心在稳银行息差，降银行负债成本，这是维持资金宽松、流动性充裕的政策出发点，也是我们判断2026年一季度资金波动会明显低于季节性的底层原因。
+除了央行的呵护之外，年初银行负债端的表现也好于市场预期，这也将继续成为银行间流动性宽松的有力支撑。2026年初存款实际的留存率可能偏高，存款增长可能也好于贷款。从数据上来看，1月全市场存单发行量偏低，存单净融资额持续为负，其中国股行存单累计净到期近万亿，中长期限存单（ ${ \bf \Gamma } &gt; 6 \bf { M }$ ）净到期近5,000亿，中小行存单累计净发行仅不到500亿，中长期限存单（ ${ \bf \Gamma } &gt; 6 \bf { M }$ ）净发行在 800亿左右。从存单发行这一端来看，大行负债端的稳定性要好于中小行，这也是存款搬家本身的特征之一：存款搬家中一般性存款向非银存款（包括资管产品资金和证券交易结算保证金）转换，由于非银存款存放的集中度较高，大行在非银存款再分配的过程中相对中小行收益。
+风险提示：基本面变化、政策不及预期、数据统计存在遗漏或偏差。
+刘玉（分析师）
+021-38676666
+S0880523050002
+# 债券月报：《趋势不改，估值不破》2026-02-03
+2026年1月，转债在固收 $^ { + }$ 资金催化下表现强势，转债市场估值和点位持续突破。转债市场在高位继续呈现平价与估值双击的特点，转债价格中位数上至139.38 元，处于 2018 年以来的 $9 9 \%$ 分位数的高位。尤其显著的是高平价区间的转债溢价率有明显拉升，转债市场风险偏好继续上行，次新券的定价继续向上突
+破。热点主题仍然涨幅突出，强赎风险在高价高溢价率标的上尤为突出。
+展望2026年2月，虽月初市场出现快速波动，但稳中向好的方向没有变化，新兴科技和价值成长都具备上行动力。一方面科技成长带来的产业变迁有持续催化，海内外 AI迭代提速，大模型应用推广加速；国内关键产业自主可控重要性与日俱增，相关领域的标的是中长期主线。AI算力、应用、存储等相关板块转债有望受益；另一方面，中央经济工作会议明确将“科技创新”与“扩大内需”列为政策重点，随着海外不确定性增加，内需依然具备重要战略地位，房地产、基建相关板块可能迎来政策加持，相关产业链有望迎来修复。展望海外，虽然沃什提名对市场带来快速计价的担忧，引发了全球权益和商品的调整，但是沃什也曾表示“中性利率可能在 $3 \%$ 左右”，有望推动美联储年内降息 2 次或以上，对于全球和国内市场中长期的影响都有待观察，短期的快速调整不改中长期稳中向好的方向。
+在配置策略上，建议规避可能强赎且估值较高的转债标的。当前市场高平价转债的溢价率进一步上行，导致部分平价甚至出现估值倒挂。虽然新券和次新券由于存续时间较长，尤其是弹性较好标的可以接受更高的估值，但是需要警惕的是高溢价率标的超预期强赎带来的正股和转债双重价格下压。
+2026年2月的十大转债组合，延续科技成长和顺周期主线，择券上注重规避强赎风险，在行业与价格分布上继续进攻和弹性，并辅以部分规模较大的类底仓转债。细分行业上，组合重点聚焦于半导体、AI算力/应用、化工和有色四大主线：（1）科技成长板块继续推荐半导体和AI算力/应用方向，半导体国产替代是中长期主线，国产材料、设备都将实现突破，建议增持鼎龙、联瑞和天准转债；此外，AI应用端不断迭代更新，估值有较强催化，建议增持华辰、神宇和鼎捷转债；（2）顺周期板块关注受益于稳经济政策预期、需求端呈现复苏态势和降息的行业，包括有色金属、化工等行业，建议增持金 25、耐普、天业和宙邦转债等。
+风险提示：理财赎回风险；转债转股溢价率压缩风险；转债正股表现不及预期。
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;投资建议的比较标准
+投资评级分为股票评级和行业评级。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;以报告发布后的12个月内的市场表现为比较标准，报告发布日后的12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深300指数涨跌幅为基准。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址 上海市黄浦区中山南路 888 号
+邮编 200011
+电话 （021）38676666</t>
+  </si>
+  <si>
+    <t># 估值修复行情近尾声，把握确定性强的基建季节性机会
+报告日期： 2026-02-02
+策略分析师：郑小霞
+执业证书号：S0010520080007
+电话：13391921291
+邮箱：zhengxx@hazq.com
+策略分析师：刘超
+执业证书号：S0010520090001
+电话：13269985073
+邮箱：liuchao@hazq.com
+策略分析师：陈博
+执业证书号：S0010525070002
+电话：18811134382
+邮箱：chenbo@hazq.com
+# 主要观点
+# 市场异动
+2月2日市场大跌，其中上证指数下跌 $2.48\%$ ，创业板指下跌 $2.46\%$ 。全A成交额2.61万亿，较上一个交易日减少 $8.7\%$ 。大部分行业下跌，仅有食品饮料 $(+1.11\%)$ 、银行 $(+0.17\%)$ 上涨，有色金属 $(-7.62\%)$ 、钢铁 $(-5.93\%)$ 、基础化工 $(-5.69\%)$ 领跌。风格上呈普跌态势，成长如科创100 $(-4.69\%)$ 、中盘如中证500 $(-3.98\%)$ 领跌。
+# - 美联储新主席提名引致风偏下行，叠加地缘政治扰动缓释，全球股市调整、大宗商品大跌以及部分权重板块政策扰动下共致A股大跌
+美联储新主席提名引发流动性紧缩预期，全球市场风偏下行。特朗普于1月30日宣布美联储前理事沃什为下一任美联储主席人选，其主张并行推动缩表+降息，并且曾经也表示点阵图让市场过度依赖预测，后续还存在取消点阵图可能，新美联储主席“提名”引致交易流动性紧缩预期，全球市场风偏下行，除A股和港股外，隔夜美股下跌近 $1\%$ 左右，韩国综合指数、日经225指数分别下跌 $5.26\%$ 、 $1.25\%$ 。
+地缘政治扰动边际缓释叠加流动性收缩担忧，能源、有色等大宗品价格大跌带动上证权重板块大跌。据新华网报道，特朗普于当地时间1月29日表示计划与伊朗对话，并称“希望”不动武，前期偏紧张的美伊局势再度边际缓释，叠加美联储新主席提名引致的流动性紧缩预期，大宗品价格大跌。截至2月2日下午3点收盘，沪金、沪银、沪锡、碳酸锂已分别大跌 $15.7\%$ 、 $17.0\%$ 、 $11.0\%$ 、 $14.0\%$ ，ICE布油一度跌超 $5\%$ 。
+上证权重板块的三大运营商集体调高基础电信服务增值税率，业绩担忧升温。据新浪财经报道，2月1日三大电信运营商相继发布公告，电信服务增值税税目适用范围调整，税率由 $6\%$ 调整为 $9\%$ ，并称预计将对盈利形成较大影响。业绩担忧预期升温，作为A股权重股的中国移动（600941.SH）、中国联通(600050.SH)、中国电信(601728.SH)2月2日分别下跌 $3.86\%$ 、 $5.48\%$ 、 $4.33\%$ 。
+# 成长第一阶段行情近尾声，警惕进入第一次良性调整期
+根据我们提出的成长第一阶段行情末期三大观测特征跟踪来看，尾声特征基本满足：①成长风格及六大成长行业已于1月23日满足同创本轮新高条件；②按第一阶段末期加速期不同启动时点来看，若以2025年11月24日为起点，也已满足强势行业强者恒强特征。若以2025年12月17日为起点，截至2026年1月23日（成长风格创本轮新高时间点），加速期涨幅最高行业为传媒和军工，并非前期的强势行业通信和电子，则强者恒强特征还不具备；③1月14日成长风格指数和申万通信指数换手率已触及本轮高点或次高。在1月中旬左右成长风格的第一阶段尾声三大特征基本满足，市场随后进入第一次良性调整期的概率不断加大。
+根据过去三轮产业周期演绎复盘，第一次良性调整阶段期间，市场及各风格普跌，调整时间通常在1个月左右，成长风格指数跌幅在 $15\% -20\%$ ，上证跌幅在 $10\%$ 左右。
+2月市场环境面临的扰动也将有所增加，除了凯文·沃什被提名美联储主席可能引发新一轮紧缩预期外。一是短期内国内出台增量货币政策概率低，提高保证金率、临近春节与人民币汇率升值趋缓后，市场微观流动性存在小幅收窄可能。二是经济基本面整体延续放缓势头，信贷和经济开门红成色有待观察。三是2月处于传统的两会政策博弈期，市场预期波动较大。
+# 短期向稳定性和确定性方向资产倾斜，降低弹性资产头寸
+2026年全年市场上涨趋势未变，但2月预计整体处于良性调整期节奏，因此在这个过程中宜减少弹性配置，向稳定和确定性的资产方向倾斜。其中规律性基建开工行情布局正当其时，尤其需要重视高胜率赔率10大细分领域和18只优势个股组合（详见专题报告《开工正当时—强季节性基建行情组合（附标的)》20260201）。此外有中长期涨价趋势预期，同时前期未超涨的细分领域亦可重视。而AI产业链和成长科技中长期核心主线不变，但短期市场处于良性调整期期间需要适度规避。
+第一条主线是规律性基建开工机会，重视赔率和胜率皆优的十大细分领域，重视我们构建的18只基建优势个股组合。过去10年间，每年春节假期到全国两会闭幕的1-1.5个月时间内，都会出现基建开工的季节性机会，其中工程咨询服务、环保设备、环境治理、通用设备、专业工程、非金属材料、金属新材料、专用设备、装修装饰、塑料十大细分领域性价比最高，此外我们还构建了18只优势基金个股组合（详见专题报告）。
+第二条主线是具备中长期涨价趋势和预期，同时近期并未超涨的部分细分领域，主要包括存储、化工、机械设备等。其中存储近期受供需扰动价格大涨，美股映射标的业绩大增、股价大涨，本轮涨价周期远未结束。化工品原材料短期受供给扰动，景气持续改善，未来仍可期待终端需求进一步提振，当前化工品行业景气周期才刚启动。机械设备一方面受益工程机械景气持续改善，另一方面受益机器人、商业航天对设备类机会的辐射。
+AI产业链仍是中长期或2026年核心主线，但短期行业演绎节奏可能步入第一次良性调整期。有色金属、储能、军工前期交易热度过高，短期有降温诉求。其中根据我们对成长产业景气周期“三个上涨阶段、两次良性调整”节奏框架，行情已经演绎至第一阶段尾声，即将迈入第一次良性调整。此外有色金属等商品价格近期剧烈波动叠加前期持续大涨超涨，短期有降温调整可能性。
+# $\bullet$ 风险提示
+经济或政策“开门红”效应不及预期；海外AI估值泡沫持续担忧；美股存在阶段调整风险；1月市场未出现的季节性波动可能延后等。
+# 重要声明
+# 分析师声明
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格，以勤勉的执业态度、专业审慎的研究方法，使用合法合规的信息，独立、客观地出具本报告，本报告所采用的数据和信息均来自市场公开信息，本人对这些信息的准确性或完整性不做任何保证，也不保证所包含的信息和建议不会发生任何变更。报告中的信息和意见仅供参考。本人过去不曾与、现在不与、未来也将不会因本报告中的具体推荐意见或观点而直接或间接受任何形式的补偿，分析结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+华安证券股份有限公司经中国证券监督管理委员会批准，已具备证券投资咨询业务资格。本报告由华安证券股份有限公司在中华人民共和国（不包括香港、澳门、台湾）提供。本报告中的信息均来源于合规渠道，华安证券研究所力求准确、可靠，但对这些信息的准确性及完整性均不做任何保证。在任何情况下，本报告中的信息或表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。华安证券及其所属关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供投资银行服务或其他服务。
+本报告仅向特定客户传送，未经华安证券研究所书面授权，本研究报告的任何部分均不得以任何方式制作任何形式的拷贝、复印件或复制品，或再次分发给任何其他人，或以任何侵犯本公司版权的其他方式使用。如欲引用或转载本文内容，务必联络华安证券研究所并获得许可，并需注明出处为华安证券研究所，且不得对本文进行有悖原意的引用和删改。如未经本公司授权，私自转载或者转发本报告，所引起的一切后果及法律责任由私自转载或转发者承担。本公司并保留追究其法律责任的权利。
+# 投资评级说明
+以本报告发布之日起6个月内，证券（或行业指数）相对于同期相关证券市场代表性指数的涨跌幅作为基准，A股以沪深300指数为基准；新三板市场以三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的）为基准；香港市场以恒生指数为基准；美国市场以纳斯达克指数或标普500指数为基准。定义如下：
+# 行业评级体系
+增持—未来6个月的投资收益率领先市场基准指数5%以上；
+中性—未来6个月的投资收益率与市场基准指数的变动幅度相差-5%至5%；
+减持—未来6个月的投资收益率落后市场基准指数5%以上；
+# 公司评级体系
+买入—未来6-12个月的投资收益率领先市场基准指数15%以上；
+增持—未来6-12个月的投资收益率领先市场基准指数5%至15%；
+中性—未来6-12个月的投资收益率与市场基准指数的变动幅度相差-5%至5%；
+减持—未来6-12个月的投资收益率落后市场基准指数5%至：
+卖出—未来6-12个月的投资收益率落后市场基准指数 $15\%$ 以上；
+无评级—因无法获取必要的资料，或者公司面临无法预见结果的重大不确定性事件，或者其他原因，致使无法给出明确的投资评级。</t>
+  </si>
+  <si>
+    <t># 市场调整的原因及性质
+#  策略研究·策略快评
+证券分析师： 吴信坤 021-61761046
+wuxinkun@guosen.com.cn
+执证编码：S0980525120001
+证券分析师： 余培仪 021-61761040
+yupeiyi@guosen.com.cn
+执证编码：S0980526010001
+# 事项：
+2 月 2 日上证指数报收 4016点，跌幅 $2 . 4 8 \%$ ，深证成指报收 13824点，跌幅 $2 . 6 9 \%$ ，中小板指报收 8344点，跌幅 $2 . 3 7 \%$ 。创业板指报收 3264点，跌幅 $2 , 4 6 \%$ 。有色、钢铁、化工等跌幅居前。
+# 评论：
+从上周五 1 月 30 日至本周一 2 月 2 日，AH两地市场均出现了较明显的调整，上证指数两日累计最大跌幅$3 . 8 \%$ ，恒生指数累计最大跌 $5 . 0 \%$ 。对于本轮市场下跌，部分投资者将之归咎于美联储的宽松预期变化，以及商品市场大幅波动带来的连锁反应，背后主要是因为 1 月 30 日美联储前理事凯文·沃什被提名为下任美联储主席，而其在货币政策上的取向以鹰派著称。
+# $\spadesuit$ 我们认为，不必过度解读沃什的货币政策立场对权益市场的影响
+一、沃什并非一个典型的鹰派人士。沃什此前确实长期批评美联储自金融危机以来推行的宽松货币政策，但去年 7月，他接受美国消费者新闻与商业频道采访时表示，美联储拒绝降息是“一大失误”，并称特朗普“公开向美联储施压是正确的”。特朗普去年 12 月谈及沃什时也说：“他认为必须降低利率。”据路透社报道，沃什如今公开表示倾向于较低的利率，同时呼吁对美联储进行全面改革，缩小其资产负债表规模并放宽银行监管。
+二、相较联邦基金利率调整，缩表对股市的传导路径更长、偏间接。理论上美联储货币政策收紧时，首先加息将通过抬升无风险利率来限制权益市场的估值水平，进而使得股票资产承压。而不同于加息直接影响资金价格，缩表对流动性的影响更多体现在“量”上。当美联储缩减持有的证券规模时，对应的负债端也相应减少，即商业银行的存款准备金减少，因此资产端和负债端的共同影响使得美国整体流动性从“量”上得到缩减，此后流动性的紧缩才进一步传导至“价”上，进而影响股市整体的估值水平。可以发现相较加息，缩表对权益市场的传导链条更长，影响也更为间接。
+# $\spadesuit$ 调整的本质：春季行情走势和股市微观流动性密切相关
+那么，该如何看待近日国内权益市场的调整？我们认为，本次调整背后的直接原因还是在于股市资金环境的边际收紧，而美联储货币政策预期变化，以及大宗商品市场调整则是加速风险偏好下行的导火索。我们在近期的《行情结束的信号出现了吗？-20260124》、《沪指 16 连阳后应如何操作？-20260110》等多篇报告里面分析过，历史上、尤其是近年来的春季行情节奏和股市的微观流动性环境密切相关，而从我们近两周观测的数据来看，市场的流动性已经在边际收紧，压力其实已经有所体现。而近期的突发因素进一步触发了资金流出的压力，海外来看，贵金属价格大幅上行后获利了结压力加大，叠加特朗普提名鹰派背景的沃什接任美联储主席，进一步加剧金银波动，触发全球资本市场流动性短期收缩。国内方面，监管层打击违规销售及下线基金实盘榜单，释放去投机化信号。上述因素影响下，短期内 A 股需消化部分板块的获利盘压力。
+# $\spadesuit$ 流动性变化对市场存在扰动，但不改牛市氛围
+展望后市，我们维持《26年牛市的变与不变-20251229》以来的观点不变，本轮始于 24年 924 的 A 股牛市未完，从上涨时空以及市场情绪角度看与历史牛市水平相比仍有较大空间。未来随着政策发力推动基本面温和修复，配合居民资金入市，牛市氛围仍将延续。而本次春季行情的本质是始于 24 年 924 的 A 股牛市仍在纵深推进，尽管短期内受流动性影响市场会存在阶段性波动，但整体来看或是布局良机。
+图1：近两周 A股资金环境已经存在一定压力  
+![](images/29796b338b1d90a5ae56c906247c8fd6585266a8f26d4a5613f1d70263e935f8.jpg)  
+资料来源: Wind，国信证券经济研究所整理
+图2：2026年全 A盈利有望进一步回升  
+![](images/b1ba67526979414493385cce1734a63a7560986811bdbfaeb71bfadf8905d4af.jpg)  
+资料来源: Wind，国信证券经济研究所整理
+# 相关研究报告：
+《策略快评-2026 年 2 月各行业金股推荐汇总》 ——2026-01-31
+《减科技消费，加周期制造-25Q4 公募基金持仓分析》 ——2026-01-22
+《策略快评-2026 年 1 月各行业金股推荐汇总》 ——2025-12-30
+《国信资配体系概览-低利率时代资产配置攻略》 2025-12-24
+《策略快评-洞见封关新变局，布局海南新机遇》 2025-12-16
+# 免责声明
+# 分析师声明
+作者保证报告所采用的数据均来自合规渠道；分析逻辑基于作者的职业理解，通过合理判断并得出结论，力求独立、客观、公正，结论不受任何第三方的授意或影响；作者在过去、现在或未来未就其研究报告所提供的具体建议或所表述的意见直接或间接收取任何报酬，特此声明。
+国信证券投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;投资评级标准&lt;/td&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;级别&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;报告中投资建议所涉及的评级（如有）分为股票评级和行业评级（另有说明的除外）。评级标准为报告发布日后6到12个月内的相对市场表现，也即报告发布日后的6到12个月内公司股价（或行业指数）相对同期相关证券市场代表性指数的涨跌幅作为基准。A股市场以沪深300指数（000300.SH）作为基准；新三板市场以三板成指（899001.CSI）为基准；香港市场以恒生指数（HSI.HI）作为基准；美国市场以标普500指数（SPX.GI）或纳斯达克指数（IXIC.GI）为基准。&lt;/td&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;股价表现优于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;股价表现介于市场代表性指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;股价表现弱于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;无评级&lt;/td&gt;&lt;td&gt;股价与市场代表性指数相比无明确观点&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;行业指数表现优于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;行业指数表现介于市场代表性指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;行业指数表现弱于市场代表性指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 重要声明
+本报告由国信证券股份有限公司（已具备中国证监会许可的证券投资咨询业务资格）制作；报告版权归国信证券股份有限公司
+关本报告的摘要或节选都不代表本报告正式完整的观点，一切须以我公司向客户发布的本报告完整版本为准。
+本报告基于已公开的资料或信息撰写，但我公司不保证该资料及信息的完整性、准确性。本报告所载的信息、资料、建议及推测仅反映我公司于本报告公开发布当日的判断，在不同时期，我公司可能撰写并发布与本报告所载资料、建议及推测不一致的报告。我公司不保证本报告所含信息及资料处于最新状态；我公司可能随时补充、更新和修订有关信息及资料，投资者应当自行关注相关更新和修订内容。我公司或关联机构可能会持有本报告中所提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行、财务顾问或金融产品等相关服务。本公司的资产管理部门、自营部门以及其他投资业务部门可能独立做出与本报告中意见或建议不一致的投资决策。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。在任何情况下，本报告中的信息和意见均不构成对任何个人的投资建议。任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。投资者应结合自己的投资目标和财务状况自行判断是否采用本报告所载内容和信息并自行承担风险，我公司及雇员对投资者使用本报告及其内容而造成的一切后果不承担任何法律责任。
+# 证券投资咨询业务的说明
+本公司具备中国证监会核准的证券投资咨询业务资格。证券投资咨询，是指从事证券投资咨询业务的机构及其投资咨询人员以下列形式为证券投资人或者客户提供证券投资分析、预测或者建议等直接或者间接有偿咨询服务的活动：接受投资人或者客户委托，提供证券投资咨询服务；举办有关证券投资咨询的讲座、报告会、分析会等；在报刊上发表证券投资咨询的文章、评论、报告，以及通过电台、电视台等公众传播媒体提供证券投资咨询服务；通过电话、传真、电脑网络等电信设备系统，提供证券投资咨询服务；中国证监会认定的其他形式。
+发布证券研究报告是证券投资咨询业务的一种基本形式，指证券公司、证券投资咨询机构对证券及证券相关产品的价值、市场走势或者相关影响因素进行分析，形成证券估值、投资评级等投资分析意见，制作证券研究报告，并向客户发布的行为。
+# 国信证券经济研究所
+深圳
+深圳市福田区福华一路 125 号国信金融大厦 36 层
+邮编：518046 总机：0755-82130833
+上海
+上海浦东民生路 1199 弄证大五道口广场 1 号楼 12 层
+邮编：200135
+北京
+北京西城区金融大街兴盛街 6 号国信证券 9 层
+邮编：100032</t>
+  </si>
+  <si>
+    <t># 美元指数下行，1 月募集资金显著提升
+# 流动性 1 月第 3 期
+![](images/c5389088e67b104004c74c7b010c146deb5994da54fb694df64acede422c22b5.jpg)
+甬兴证券
+YONGXING SECURITIES
+# 核心观点
+上周（1.19-1.23）2 年期、10 年期国债收益率下行；美国 2 年期美债收益率上行、10年期持平，美元指数下行，中美 10年国债利差走扩；上周融资买入额下降，南向资金流大幅净流入。
+# 宏观流动性
+国内：上周（1.19-1.23）2年期、10年期国债收益率下行，10年期与2 年期国债利差收窄。上周央行公开市场净投放 9795亿元，1月MLF净投放7000亿元。
+国外：上周（1.19-1.23）2 年期美债收益率上行、10 年期持平，美元指数下行，中美10年期国债利差走扩。上周2年期美债收益率上行至$3 . 6 0 \%$ ，美元指数降至97.51。截至 1月 23日，中美10年期国债利差走扩。
+# 市场流动性
+公募基金：2026年 1月新成立 76只基金，其中 31只为股票型基金。截至 1 月 23 日，2026 年 1 月新成立基金 76 只，25 年 1 月为 107 只；其中，1月新成立股票型基金31 只，发行总额约165亿份。
+ETF 基金：2026 年 1 月新成立 18 只股票型 ETF 基金。2026 年 1 月新成立 ETF 基金 18 只，2025 年 1 月新成立 ETF 基金 31 只；其中，1 月新成立ETF基金18只为股票型基金，发行份额约 100亿份。
+南向资金：上周（1.19-1.23）南向资金大幅净流入，年内净流入 593亿元。截至 1 月 23 日，上周南向资金大幅净流入，2026 年初至今净流入 593亿元。上周行业南向资金净流入较多的是电子（ $+ 5 3 . 9$ 亿元）、商贸零售（ $. + 3 2 . 9$ 亿元）、传媒（ $+ 2 0 . 9$ 亿元），合计约 $+ 1 0 8$ 亿元。
+两融资金：上周（1.19-1.23）融资买入额下降，占A股成交额比重下行。上周融资资金买入额均值为 2739亿元，环比下行 $2 9 . 2 \%$ 。上周行业融资净流出较多的行业是电子（约-58.0亿元）、计算机（约-28.9亿元）、传媒（约-24.7亿元），合计约-111.6亿元。
+募集资金：1 月IPO公司数为 5家，首发募集资金约 35亿元。1月股权融资规模约1214亿元，其中 IPO公司数为5家，发行规模约 35亿元；1月有11家上市公司参与定增，总计融资规模约1149 亿元。
+风险提示：经济恢复弱于预期、海外降息节奏不及预期。
+日期： yxzqdatemark2026年02月02日
+分析师： 唐文卿
+E-mail： tangwenqing@yongxi ngsec.com
+SAC编号： S1760524050001
+# 相关报告：
+《10年期国债收益率下行，传媒南向资金净流入居前》
+2026 年 01 月 21 日
+《两融余额创新高，传媒行业 PE 估值分位领涨》
+2026 年 01 月 19 日
+《融资买入额显著上升，主要净流入电子行业》
+2026 年 01 月 13 日
+# 正文目录
+# 1. 宏观流动性 .
+1.1. 国内流动性：2年期、10年期国债收益率下行，（10Y-2Y）国债利差收窄... ..3  
+1.2. 海外流动性：2 年期美债收益率上行、10 年期持平，中美 10年期国债利差走扩.. .3
+# 2. 市场流动性 .
+2.1. 公募资金：1 月新成立股票型基金 31 只 /  
+2.2. ETF 资金：2026 年 1 月新成立 18 只股票型 ETF 基金 .  
+2.3. 南向资金：上周南向资金净流入，年内净流入 593 亿元...............6  
+2.4. 两融资金：上周融资买入额下降，占 A 股成交额比重下行..........7   
+2.5. 募集资金：1 月 IPO公司数为5家，首发募资金额约 35亿元.....8
+# 3. 风险提示
+# 图目录
+图 1: 公开市场货币投放量和回笼量.  
+图 2: MLF投放量和回笼量.  
+图 3:2年期、10年期国债收益率下行...  
+图 4: 上周 3 个月、1 年 SHIBOR 下行 ..  
+图 5: 上周美联储下次议息会议变动可能性.  
+图 6: 美国国债利率变化及利差.  
+图 7: 上周美元指数降至 97.51..  
+图 8: 中美 10年期国债收益率利差变化...  
+图 9: 1 月新发基金 76 只，合计 719 亿份....  
+图 10: 1 月新发股票型基金 31 只，发行约 165 亿份...  
+图 11: 1 月新成立 ETF 股票型基金共 18 只，发行份额为 100 亿份 ............5  
+图 12: 上周 ETF 股票基金规模为 35742 亿元，成交额占总规模的 $3 8 . 0 \%$ 5  
+图 13: 1 月陆股通 ETF 买卖总额约 712 亿元...  
+图 14: 其中，沪股通 ETF 买卖总额约 454 亿元，占比 $6 3 . 7 \%$ ....................6  
+图 15: 上周南向资金大幅净流入..  
+图 16: 截至上周南向资金开通以来累计净流入约 4.61 万亿元................. ..6  
+图 17: 上周南向资金周度净流入板块.  
+图 18: 上周南向资金周度净流入风格....  
+图 19: 上周融资买入额下降，占 A股成交额比重下行......  
+图 20: 两融余额去年9月底以来持续走高.  
+图 21: 上周融资净买入额排名..  
+图 22: 上周两融余额排名..  
+图 23: 1 月 IPO 数量和规模. 8  
+图 24: 1月定增规模及比例.
+# 1. 宏观流动性
+# 1.1. 国内流动性：2 年期、10 年期国债收益率下行，（10Y-2Y）国债利差收窄
+上周（1.19-1.23），2年期、10年期国债收益率下行，3个月、1年SHIBOR下行。截至1月23日，上周央行公开市场货币净投放 9795亿元，1月 MLF净投放 7000 亿元。2 年期国债收益率下行至 $1 . 3 9 5 9 \%$ 、10年期国债收益率下行至 $1 . 8 2 9 8 \%$ ，期限利差降至 $0 . 4 3 3 9 \%$ 。与此同时，3 个月SHIBOR下行至 $1 . 5 9 8 0 \%$ 、1 年 SHIBOR 下行至 $1 . 6 4 4 1 \%$ 。
+图1:公开市场货币投放量和回笼量  
+![](images/50c1918f050b50debf8a3db1fcc3c34fcde623be6770abc151be30510cba2638.jpg)  
+资料来源：Wind，甬兴证券研究所
+图2:MLF 投放量和回笼量  
+![](images/ff44c49a2ffaceb44638c6fd6b49ae1c3547c157c48f8f19be61861910271cb0.jpg)  
+资料来源：Wind，甬兴证券研究所
+图3:2年期、10年期国债收益率下行  
+![](images/5af7f3186d8166041ecd82b86d16043ba9181ce62e7005f32a902347e1b73544.jpg)  
+资料来源：Wind，甬兴证券研究所
+图4:上周 3 个月、1 年 SHIBOR 下行  
+![](images/f346215cc0497a34ddb4bc661fb54394441ededb0c986dc3740934f921ac631a.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 1.2. 海外流动性：2年期美债收益率上行、10年期持平，中美 10年期国债利差走扩
+上周（1.19-1.23），2年期美债收益率上行、10年期持平，美元指数下行。上周 2年期美债收益率上行至 $3 . 6 0 \%$ 、10 年期持平于 $4 . 2 4 \%$ ，美元指数
+降至 97.51。截至 1 月 23 日，中美 10 年期国债利差走扩。
+图5: 上周美联储下次议息会议变动可能性  
+![](images/b89bbdd83e812dab2bf8970f29ea53151ca7ed75431b96691dbd0f8d8741f0cf.jpg)  
+资料来源：Wind，甬兴证券研究所
+图6: 美国国债利率变化及利差  
+![](images/885699fde73a47b0e0103a6d84d4bb1df47ec3ef3a6e27e73f8f24f374906a22.jpg)  
+资料来源：Wind，甬兴证券研究所
+图7:上周美元指数降至97.51  
+![](images/a959e9319aa6931e8aae7aab1b79bf92e19d999c38f68be88b6c9a4a0d5534a3.jpg)  
+资料来源：Wind，甬兴证券研究所
+图8:中美 10年期国债收益率利差变化  
+![](images/d4d60b3eb415bd3fa75ef2653ffe1cbd74cc27a4a00dfdb890557e3093b18d38.jpg)  
+资料来源：美国财政部、中债估值中心、Wind，甬兴证券研究所
+# 2. 市场流动性
+# 2.1. 公募资金：1月新成立股票型基金 31只
+2026年 1月新成立基金 76只，25年 1月为 107只；合计发行份额 719亿份，25 年 1 月为 833 亿份。截至 1 月 23 日，1 月新成立基金 76 只，合计发行份额719亿份，平均发行份额约 9亿份。其中，1 月新成立股票型基金31只，发行总额约165亿份，占比 $2 2 . 9 \%$ ；新成立混合型基金 24只，发行总额约278亿份，占比 $3 8 . 7 \%$ ；新成立债券型基金 9 只，发行总额约114亿份，占比 $1 5 . 8 \%$ 。
+图9:1月新发基金76只，合计719亿份  
+![](images/0f729f95544eadf3ad8ae1fd55b31e78e138d5170edbde27694ca0bf79b4359c.jpg)  
+资料来源：Wind，甬兴证券研究所
+图10:1 月新发股票型基金 31只，发行约 165亿份  
+![](images/92fef19ef70dc5ddfd475d3a60d4a394cb80b989d8f49337709cb3fca7e8db53.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2.2. ETF 资金：2026 年 1 月新成立 18 只股票型 ETF 基金
+截至 1 月 23 日，2026 年 1 月新成立 ETF 基金 18 只，2025 年 1 月为31 只；合计发行份额约 100 亿份，2025 年 1 月约 340 亿份。具体来看，1月新成立ETF 基金18只，其中 18只为股票型基金，发行份额约 100亿份，上月股票型ETF基金发行份额约128亿份。
+上周（1.19-1.23）ETF 股票基金规模为 35742 亿元，成交金额 13584 亿元，占总规模 $3 8 . 0 \%$ ，环比上行 5.0个百分点。另外，根据Wind数据统计，自2025年以来ETF 股票基金规模与沪深 300指数的走势正相关。1月陆股通ETF买卖总额约712亿元，其中，沪股通ETF买卖总额约 454亿元，占比 $6 3 . 7 \%$ 。
+图11:1月新成立ETF股票型基金共 18只，发行份额为 100 亿份  
+![](images/e8f4b9406fef6a109260a7ec305f1886c71dee50680bf59b703f8662abfa9a61.jpg)  
+资料来源：Wind，甬兴证券研究所
+图12:上周 ETF股票基金规模为 35742亿元，成交额占总规模的 $3 8 . 0 \%$   
+![](images/ab6aa3a1780fb74450b8ed90942a89e8c04ab880c309241fc234af8c74b42081.jpg)  
+资料来源：Wind，甬兴证券研究所
+图13:1月陆股通ETF买卖总额约 712亿元  
+![](images/e8d53e6f3f3f8728906aa3c5ff8e6c649948360c3ac49bc61e111aac48939392.jpg)  
+资料来源：Wind，甬兴证券研究所
+图14:其中，沪股通 ETF买卖总额约 454亿元，占比63.7%  
+![](images/8ba0c57ab16ac1d0b4b7929360d5ffb2aa94290e68ba16a839f3e745f0a55ed9.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2.3. 南向资金：上周南向资金净流入，年内净流入 593 亿元
+万得数据显示，上周南向资金大幅净流入。南向资金 2026 年初至今（截至1月23日）净流入 593亿元，累计净流入约4.61万亿元。其中，沪市港股通年初至今净流入 318 亿元，开通以来累计净流入约 2.55 万亿元；深市港股通26年至今净流入275亿元，开通以来累计净流入约 2.06 万亿元。
+图15:上周南向资金大幅净流入  
+![](images/f4589c2934c5f4a581c37f9d56a72477e223d81ad8aa9ed90108a426f590b1f8.jpg)  
+资料来源：Wind，甬兴证券研究所
+图16: 截至上周南向资金开通以来累计净流入约4.61 万亿元  
+![](images/f9ffd29dc65027f3c6822753b5fd065ac4c4ffaf3e9519cdec61ffce3e56f9dc.jpg)  
+资料来源：Wind，甬兴证券研究所
+行业层面，电子净流入最大约 54亿元，其次是商贸零售、传媒，上述3个行业合计净流入约108 亿元；净流出较多的行业是通信、医药、有色金属，上述3个行业合计净流出约83亿元。
+风格层面，消费板块净流入最大为 42 亿元，其次是金融、科技、周期。
+图17:上周南向资金周度净流入板块  
+![](images/f6e0bfc166b024c516b2bd44bd77c879a360e9a7176641b3d431788c5638ae0a.jpg)  
+资料来源：Wind，甬兴证券研究所
+图18:上周南向资金周度净流入风格  
+![](images/dc1dd43e98fd0ff51ea18df757deed94b25dbea99ea4d110c31a6746448d0048.jpg)  
+资料来源：Wind，甬兴证券研究所  
+注*：以上数据非交易所公布数据，均基于持股变动及个股成交均价进行估算
+# 2.4. 两融资金：上周融资买入额下降，占 A 股成交额比重下行
+上周（1.19-1.23）融资资金买入额均值为 2739亿元，环比下降 $2 9 . 2 \%$ 。截至1月23 日，两融余额约 2.72万亿元，环比下行 $0 . 2 9 \%$ 。交易活跃度层面，两融交易额占A 股成交比重环比下行 $1 . 4 3 \%$ 。
+图19:上周融资买入额下降，占 A 股成交额比重下行   
+![](images/c3f1193d411bb8eb940acab9d7be8c1c61752f93ea38185e9e775f2d5d87b6d5.jpg)  
+资料来源：Wind，甬兴证券研究所
+图20:两融余额去年 9月底以来持续走高  
+![](images/162f6a54bce045cbbd4c3b343c154806ebc20eb879a53565f1b72bc7baaf4319.jpg)  
+资料来源：Wind，甬兴证券研究所
+融资资金配置情况：上周（1.19-1.23）整体融资净流出较多。融资净流出较多的行业是电子（约-58.0 亿元）、计算机（约-28.9 亿元）、传媒（约-24.7 亿元），合计约-111.6 亿元。上周行业融资净流入较多的行业是有色金属（约 $+ 5 4 . 9$ 亿元）、非银行金融（约 $+ 2 3 . 4$ 亿元）、银行（约 $+ 1 4 . 2$ 亿元），合计约 $+ 9 2 . 4$ 亿元。两融余额排名前三的行业依次是电子（约 3998 亿元）、计算机（约2081亿元）、非银行金融（约1962亿元），分别占各自行业流通市值的比重为 $3 . 1 9 \%$ 、 $3 . 4 5 \%$ 、 $3 . 2 0 \%$ 。
+图21:上周融资净买入额排名  
+![](images/d69982014e56af39058277435abf080838208fef6107531b16944b5011f5133a.jpg)  
+资料来源：Wind，甬兴证券研究所
+图22:上周两融余额排名  
+![](images/bf9d77c83b6460e668b1b3f75344d4d15bd2510f3c7c23d640d68bb8e49ba457.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2.5. 募集资金：1 月 IPO 公司数为 5 家，首发募资金额约 35 亿元
+1 月股权融资规模约 1214 亿元。IPO 方面，1 月 A 股 IPO 公司数为 5家，总计融资规模35 亿元；上个月A 股IPO 公司 18 家，总计融资规模约314 亿元。定增方面，1 月有 11家上市公司参与定增，总计融资规模约 1149亿元；上个月A股有 22家公司参与增发，总计融资规模约 349亿元。
+图23:1 月 IPO 数量和规模  
+![](images/1aded0939f86f0040ae015d1f954b003109dd516bd926e44a667c35bdb86725b.jpg)  
+资料来源：Wind，甬兴证券研究所
+图24:1 月定增规模及比例  
+![](images/d3befd6b916a4a150964144f69a2ad202803f6ab7c63d4f763c0bc8d109a0ec9.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 3. 风险提示
+经济恢复弱于预期。全球经济放缓和贸易紧张局势或对出口市场造成一定扰动，从而影响经济的全面恢复。
+海外降息节奏不及预期。海外降息不及预期，或将影响全球资本流动节奏和投资者风险偏好。
+# 分析师声明
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格并注册为证券分析师，以勤勉尽责的职业态度，专业审慎的研究方法，独立、客观地出具本报告，保证报告采用的信息均来自合规渠道，并对本报告的内容和观点负责。负责准备以及撰写本报告的所有研究人员在此保证，本报告所发表的任何观点均清晰、准确、如实地反映了研究人员的观点和结论，并不受任何第三方的授意或影响。此外，所有研究人员薪酬的任何部分不曾、不与、也将不会与本报告中的具体推荐意见或观点直接或间接相关。
+# 公司业务资格说明
+甬兴证券有限公司经中国证券监督管理委员会核准，取得证券投资咨询业务许可，具备证券投资咨询业务资格。
+投资评级体系与评级定义  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;股票投资评级:&lt;/td&gt;&lt;td colspan="2"&gt;分析师给出下列评级中的其中一项代表其根据公司基本面及(或)估值预期以报告日起6个月内公司股价相对于同期市场基准指数表现的看法。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;股价表现将强于基准指数20%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;股价表现将强于基准指数5-20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;股价表现将介于基准指数±5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;股价表现将弱于基准指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;行业投资评级:&lt;/td&gt;&lt;td colspan="2"&gt;分析师给出下列评级中的其中一项代表其根据行业基本面及(或)估值对所研究行业以报告日起12个月内的基本面和行业指数相对于同期市场基准指数表现的看法。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;行业基本面看好,相对表现优于同期基准指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;行业基本面稳定,相对表现与同期基准指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;行业基本面看淡,相对表现弱于同期基准指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="3"&gt;相关证券市场基准指数说明:A股市场以沪深300指数为基准;港股市场以恒生指数为基准;新三板市场以三板成指(针对协议转让标的)或三板做市指数(针对做市转让标的)为基准指数。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+投资评级说明：
+不同证券研究机构采用不同的评级术语及评级标准，投资者应区分不同机构在相同评级名称下的定义差异。本评级体系采用的是相对评级体系。投资者买卖证券的决定取决于个人的实际情况。投资者应阅读整篇报告，以获取比较完整的观点与信息，投资者不应以分析师的投资评级取代个人的分析与判断。
+# 特别声明
+在法律许可的情况下，甬兴证券有限公司(以下简称“本公司”）或其关联机构可能会持有报告中涉及的公司所发行的证券或期权并进行交易，也可能为这些公司提供或争取提供投资银行、财务顾问以及金融产品等各种服务。因此，投资者应当考虑到本公司或其相关人员可能存在影响本报告观点客观性的潜在利益冲突，投资者请勿将本报告视为投资或其他决定的唯一参考依据。也不应当认为本报告可以取代自己的判断。
+# 版权声明
+本报告版权归属于本公司所有，属于非公开资料。本公司对本报告保留一切权利。未经本公司事先书面许可，任何机构或个人不得以任何形式翻版、复制、转载、刊登和引用本报告中的任何内容。否则由此造成的一切不良后果及法律责任由私自翻版、复制、转载、刊登和引用者承担。
+# 重要声明
+径收到或阅读本报告而视其为本公司的客户。客户应当认识到有关本报告的短信提示、电话推荐及其他交流方式等只是研究观点的简要沟通，需以本公司发布的完整报告为准，本公司接受客户的后续问询。本报告首页列示的联系人，除非另有说明，仅作为本公司就本报告与客户的联络人，承担联络工作，不从事任何证券投资咨询服务业务。
+本报告中的信息均来源于我们认为可靠的已公开资料，本公司对这些信息的真实性、准确性及完整性不作任何保证。本报告中的信息、意见等均仅供客户参考，该等信息、意见并未考虑到获取本报告人员的具体投资目的、财务状况以及特定需求，在任何时候均不构成对任何人的个人推荐。客户应当对本报告中的信息和意见进行独立评估，并应同时思量各自的投资目的、财务状况以及特定需求，必要时就法律、商业、财务、税收等方面咨询专家的意见。客户应自主作出投资决策并自行承担投资风险。本公司特别提示，本公司不会与任何客户以任何形式分享证券投资收益或分担证券投资损失，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。市场有风险，投资须谨慎。对依据或者使用本报告所造成的一切后果，本公司和关联人员均不承担任何法律责任。
+本报告所载的意见、评估及预测仅反映本公司于发布本报告当日的判断。该等意见、评估及预测无需通知即可随时更改。过往的表现亦不应作为日后表现的预示和担保。在不同时期，本公司可发出与本报告所载意见、评估及预测不一致的研究报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司的销售人员、交易人员以及其他专业人士可能会依据不同假设和标准、采用不同的分析方法而口头或书面发表与本报告意见及建议不一致的市场评论或交易观点。本公司没有将此意见及建议向报告所有接收者进行更新的义务。投资者应当自行关注相应的更新或修改。</t>
+  </si>
+  <si>
+    <t># 提名沃什不改美元信用弱化格局
+# 20260202 多资产配置周报
+# 研究结论
+上周我们提示注意黄金/商品短期波动抬升。近一周（2026 年 1 月 26 日-2 月 1 日，下同），黄金/商品在周初快速冲高后回落，风险资产波动较大。  
+预期层面：地缘动荡抬升全球经济风险评价的大背景不变， 特朗普提名沃什不改当前美元信用弱化格局，在国内风险评价稳步下降的背景下，国内权益相对占优；长期看，黄金/商品仍具配置价值，但需消化短期情绪过热带来的交易影响。
+✓ 国内节前景气回落，结构分化加剧，风险评价稳步下行。1 月制造业 PMI为 $4 9 . 3 \%$ （ $5 0 . 1 \%$ ），重返枯荣线以下。受春节时间明显偏晚影响，1 月才步入传统生产淡季，春节因素对当月生产数据形成显著扰动。政策对“供强需弱”的关注有望为 2026 年带来更多内需亮点，拉动消费和投资重拾升势，国内风险评价仍稳步下行。  
+✓ 美联储主席提名引发市场震荡，关注 Q2降息预期重启。特朗普提名凯文·沃什为下一任美联储主席，沃什主张货币与财政纪律分离，反对通过宽松政策为财政赤字融资，市场担忧其上任后将推迟甚至取消原定降息路径。但我们认为在美国财政赤字高企未解的背景下，缩表缺乏根据，特朗普提名沃什不改当前美元信用弱化格局，如果后续美国失业率上升超过$4 . 5 \%$ ，新增就业持续低位，预计降息空间将重新打开，资产价格回到延续传统降息交易路径。  
+✓ 全球主要商品期货交易所再次上调保证金。芝商所集团（CME Group）宣布上调旗下贵金属品种的交易保证金要求；上海黄金交易所宣布：若 2月 2日白银延期合约出现单边市，保证金比例从 $20 \%$ 上调至 $2 6 \%$ ，涨跌停板从 $1 9 \%$ 调整至 $2 5 \%$ 。和前一次期货交易所上调保证金相比，贵金属和工业金属的筹码结构更为拥挤，需要消化短期交易结构恶化的影响。
+. 交易层面：黄金/商品短期不确定性上行。从收益因子看，近一周风险资产趋势延续，A股/黄金/商品趋势仍强；美股整体震荡；中债反转信号转弱；美债趋势转弱。从资产波动看，商品短期和中期不确定性上行；黄金短期不确定性大幅上行，中期不确定性略有抬升； A股短期情绪回落，中期不确定性平稳；美股短期情绪回落，中期不确定性上行；中债、美债短期情绪回落，中期不确定性下降。
+报告发布日期
+2026 年 02 月 03 日
+#
+郑月灵 执业证书编号：S0860525120003
+zhengyueling@orientsec.com.cn
+021-63326320
+#
+周仕盈 执业证书编号：S0860125060012
+zhoushiying@orientsec.com.cn
+021-63326320
+董翱翔 执业证书编号：S0860125030016
+dongaoxiang@orientsec.com.cn
+021-63326320
+#
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;预期的变化利好中盘蓝筹：20260126A股&lt;/td&gt;&lt;td&gt;2026-01-28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;风格及行业配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美/日风险评价上升，贵金属及低风险特征&lt;/td&gt;&lt;td&gt;2026-01-26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;权益占优：20260126多资产配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CTA策略仍强，指增和中性策略回暖：&lt;/td&gt;&lt;td&gt;2026-01-22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20260119多策略及理财配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;风偏继续向中间集中：20260119多资产配&lt;/td&gt;&lt;td&gt;2026-01-20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;以对冲配置思路应对美股/黄金“畏高”&lt;/td&gt;&lt;td&gt;2026-01-19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国内风险评价稳步下行，A股/商品占优：&lt;/td&gt;&lt;td&gt;2026-01-13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20260112多资产配置周报&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;配置关注权益商品，行业聚焦中盘蓝筹：&lt;/td&gt;&lt;td&gt;2026-01-04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;——资产配置月报202601&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 风险提示
+1、 极端风险事件，例如中美关系、全球地缘超预期事件等，可能打破统计上的历史规律；  
+2、 量化指标失效的风险，历史数据对未来的指引效果有限。
+# 目 录
+# 一、多资产周表现：黄金/商品冲高回落. 4
+# 二、预期层面： 提名沃什为短期扰动，不改美元信用弱化格局. 5
+（一）国内节前景气回落，结构分化加剧  
+（二）美联储主席提名引发市场震荡，关注 Q2 降息预期重启.  
+（三）全球主要商品期货交易所再次上调保证金. 6
+# 三、交易层面：黄金/商品短期不确定性上行.. 6
+（一）A股/黄金/商品趋势仍强. 6   
+（二）黄金/商品短期不确定性上行.
+# 四、小结.. 9
+# 风险提示.. 9
+# 图表目录
+图 1： 2026 年 1 月 PMI 大幅回落（%） .5  
+图 2：受内外需共同影响，新订单 PMI 重返收缩区间（ $\%$ ） 5  
+图 3：如果需求继续恶化，失业率或在 $. 4 . 5 \%$ 以上加速上升（%） .6  
+图 4：A 股趋势维持. ..6  
+图 5：商品趋势维持. .6  
+图 6：黄金趋势维持.  
+图 7：美股整体震荡.  
+图 8：中债反转信号转弱.  
+图 9：美债趋势转弱.  
+图 10：商品短期和中期不确定性上行.. ..8  
+图 11：黄金短期和中期不确定性上行. ..8  
+图 12：A股短期情绪回落，中期不确定性平稳. .8  
+图 13：美股短期情绪回落，中期不确定性上行 ..8  
+图 14：中债短期情绪回落，中期不确定性下降 .8  
+图 15：美债短期情绪回落，中期不确定性下降 .8
+表 1：全球大类资产表现周跟踪. /
+# 一、多资产周表现：黄金/商品冲高回落
+近一周（2026 年 1 月 26 日-2 月 1 日，下同），风险资产整体波动较大，贵金属和工业金属在周初快速冲高后回落， 上周我们也提示了注意黄金和商品短期波动抬升的风险。
+表 1：全球大类资产表现周跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2" colspan="2"&gt;大类资产&lt;/td&gt;&lt;td rowspan="2"&gt;资产标的&lt;/td&gt;&lt;td colspan="2"&gt;涨跌幅&lt;/td&gt;&lt;td colspan="3"&gt;周涨跌幅所处历史分位点&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过去1周&lt;/td&gt;&lt;td&gt;年初至今&lt;/td&gt;&lt;td&gt;过去1年&lt;/td&gt;&lt;td&gt;过去3年&lt;/td&gt;&lt;td&gt;过去5年&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="21"&gt;权益&lt;/td&gt;&lt;td rowspan="10"&gt;A股&lt;/td&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;-0.44%&lt;/td&gt;&lt;td&gt;3.76%&lt;/td&gt;&lt;td&gt;24.53%&lt;/td&gt;&lt;td&gt;34.19%&lt;/td&gt;&lt;td&gt;37.89%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;47.17%&lt;/td&gt;&lt;td&gt;54.84%&lt;/td&gt;&lt;td&gt;55.08%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;-0.62%&lt;/td&gt;&lt;td&gt;4.52%&lt;/td&gt;&lt;td&gt;24.53%&lt;/td&gt;&lt;td&gt;38.06%&lt;/td&gt;&lt;td&gt;39.45%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;-2.56%&lt;/td&gt;&lt;td&gt;12.12%&lt;/td&gt;&lt;td&gt;9.43%&lt;/td&gt;&lt;td&gt;13.55%&lt;/td&gt;&lt;td&gt;13.28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;-2.55%&lt;/td&gt;&lt;td&gt;8.68%&lt;/td&gt;&lt;td&gt;11.32%&lt;/td&gt;&lt;td&gt;16.13%&lt;/td&gt;&lt;td&gt;17.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国证2000&lt;/td&gt;&lt;td&gt;-2.76%&lt;/td&gt;&lt;td&gt;9.13%&lt;/td&gt;&lt;td&gt;11.32%&lt;/td&gt;&lt;td&gt;15.48%&lt;/td&gt;&lt;td&gt;14.84%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;-3.34%&lt;/td&gt;&lt;td&gt;8.16%&lt;/td&gt;&lt;td&gt;9.43%&lt;/td&gt;&lt;td&gt;12.26%&lt;/td&gt;&lt;td&gt;12.11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;北证50&lt;/td&gt;&lt;td&gt;-3.59%&lt;/td&gt;&lt;td&gt;6.33%&lt;/td&gt;&lt;td&gt;11.32%&lt;/td&gt;&lt;td&gt;15.48%&lt;/td&gt;&lt;td&gt;15.03%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板&lt;/td&gt;&lt;td&gt;-0.09%&lt;/td&gt;&lt;td&gt;4.47%&lt;/td&gt;&lt;td&gt;35.85%&lt;/td&gt;&lt;td&gt;53.55%&lt;/td&gt;&lt;td&gt;50.39%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;-2.85%&lt;/td&gt;&lt;td&gt;12.29%&lt;/td&gt;&lt;td&gt;15.09%&lt;/td&gt;&lt;td&gt;19.35%&lt;/td&gt;&lt;td&gt;22.27%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;港股&lt;/td&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;2.38%&lt;/td&gt;&lt;td&gt;6.85%&lt;/td&gt;&lt;td&gt;77.36%&lt;/td&gt;&lt;td&gt;80.65%&lt;/td&gt;&lt;td&gt;81.25%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;-1.38%&lt;/td&gt;&lt;td&gt;3.67%&lt;/td&gt;&lt;td&gt;32.08%&lt;/td&gt;&lt;td&gt;38.06%&lt;/td&gt;&lt;td&gt;42.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;发达市场&lt;/td&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;56.60%&lt;/td&gt;&lt;td&gt;48.39%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克100&lt;/td&gt;&lt;td&gt;-0.21%&lt;/td&gt;&lt;td&gt;1.20%&lt;/td&gt;&lt;td&gt;41.51%&lt;/td&gt;&lt;td&gt;36.77%&lt;/td&gt;&lt;td&gt;41.41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;英国富时100&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;2.94%&lt;/td&gt;&lt;td&gt;67.92%&lt;/td&gt;&lt;td&gt;66.45%&lt;/td&gt;&lt;td&gt;64.06%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧元区斯托克50&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;2.79%&lt;/td&gt;&lt;td&gt;41.51%&lt;/td&gt;&lt;td&gt;46.45%&lt;/td&gt;&lt;td&gt;48.05%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX30&lt;/td&gt;&lt;td&gt;-1.45%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;18.87%&lt;/td&gt;&lt;td&gt;16.77%&lt;/td&gt;&lt;td&gt;17.19%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;法国CAC40&lt;/td&gt;&lt;td&gt;-0.20%&lt;/td&gt;&lt;td&gt;-0.28%&lt;/td&gt;&lt;td&gt;41.51%&lt;/td&gt;&lt;td&gt;44.52%&lt;/td&gt;&lt;td&gt;41.80%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;意大利富时MIB&lt;/td&gt;&lt;td&gt;1.55%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;69.81%&lt;/td&gt;&lt;td&gt;68.39%&lt;/td&gt;&lt;td&gt;71.48%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;西班牙IBEX35&lt;/td&gt;&lt;td&gt;1.92%&lt;/td&gt;&lt;td&gt;3.31%&lt;/td&gt;&lt;td&gt;73.58%&lt;/td&gt;&lt;td&gt;76.77%&lt;/td&gt;&lt;td&gt;78.12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;-0.97%&lt;/td&gt;&lt;td&gt;5.93%&lt;/td&gt;&lt;td&gt;22.64%&lt;/td&gt;&lt;td&gt;24.52%&lt;/td&gt;&lt;td&gt;28.12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;债券&lt;/td&gt;&lt;td rowspan="3"&gt;利率债&lt;/td&gt;&lt;td&gt;1-3年国债&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;td&gt;58.49%&lt;/td&gt;&lt;td&gt;47.74%&lt;/td&gt;&lt;td&gt;46.09%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5-7年国债&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;0.39%&lt;/td&gt;&lt;td&gt;67.92%&lt;/td&gt;&lt;td&gt;59.35%&lt;/td&gt;&lt;td&gt;72.66%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年以上国债&lt;/td&gt;&lt;td&gt;-0.25%&lt;/td&gt;&lt;td&gt;0.24%&lt;/td&gt;&lt;td&gt;45.28%&lt;/td&gt;&lt;td&gt;26.45%&lt;/td&gt;&lt;td&gt;25.78%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;信用债&lt;/td&gt;&lt;td&gt;1-3年高等级信用债&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;52.83%&lt;/td&gt;&lt;td&gt;43.87%&lt;/td&gt;&lt;td&gt;42.58%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5-7年高等级信用债&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;0.60%&lt;/td&gt;&lt;td&gt;66.04%&lt;/td&gt;&lt;td&gt;55.48%&lt;/td&gt;&lt;td&gt;56.64%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;可转债&lt;/td&gt;&lt;td&gt;中证转债指数&lt;/td&gt;&lt;td&gt;-2.61%&lt;/td&gt;&lt;td&gt;5.82%&lt;/td&gt;&lt;td&gt;1.89%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;1.95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;境外债&lt;/td&gt;&lt;td&gt;2Y美债期货&lt;/td&gt;&lt;td&gt;0.14%&lt;/td&gt;&lt;td&gt;-0.14%&lt;/td&gt;&lt;td&gt;84.91%&lt;/td&gt;&lt;td&gt;78.06%&lt;/td&gt;&lt;td&gt;81.25%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10Y美债期货&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;-0.39%&lt;/td&gt;&lt;td&gt;60.38%&lt;/td&gt;&lt;td&gt;61.94%&lt;/td&gt;&lt;td&gt;62.89%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;商品&lt;/td&gt;&lt;td rowspan="2"&gt;贵金属&lt;/td&gt;&lt;td&gt;Comex黄金&lt;/td&gt;&lt;td&gt;-2.12%&lt;/td&gt;&lt;td&gt;13.28%&lt;/td&gt;&lt;td&gt;15.09%&lt;/td&gt;&lt;td&gt;10.32%&lt;/td&gt;&lt;td&gt;12.11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;境内Au9999&lt;/td&gt;&lt;td&gt;4.83%&lt;/td&gt;&lt;td&gt;19.39%&lt;/td&gt;&lt;td&gt;96.23%&lt;/td&gt;&lt;td&gt;97.42%&lt;/td&gt;&lt;td&gt;98.44%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;有色&lt;/td&gt;&lt;td&gt;上期所有色金属指数&lt;/td&gt;&lt;td&gt;0.66%&lt;/td&gt;&lt;td&gt;7.40%&lt;/td&gt;&lt;td&gt;58.49%&lt;/td&gt;&lt;td&gt;62.58%&lt;/td&gt;&lt;td&gt;57.03%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;伦敦铜&lt;/td&gt;&lt;td&gt;-0.34%&lt;/td&gt;&lt;td&gt;4.59%&lt;/td&gt;&lt;td&gt;30.19%&lt;/td&gt;&lt;td&gt;40.65%&lt;/td&gt;&lt;td&gt;40.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上期所铝&lt;/td&gt;&lt;td&gt;1.76%&lt;/td&gt;&lt;td&gt;7.13%&lt;/td&gt;&lt;td&gt;88.68%&lt;/td&gt;&lt;td&gt;85.16%&lt;/td&gt;&lt;td&gt;76.95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;原油&lt;/td&gt;&lt;td&gt;布伦特原油&lt;/td&gt;&lt;td&gt;7.32%&lt;/td&gt;&lt;td&gt;14.64%&lt;/td&gt;&lt;td&gt;98.11%&lt;/td&gt;&lt;td&gt;97.42%&lt;/td&gt;&lt;td&gt;95.31%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;外汇&lt;/td&gt;&lt;td&gt;人民币&lt;/td&gt;&lt;td&gt;美元兑人民币汇率&lt;/td&gt;&lt;td&gt;-0.22%&lt;/td&gt;&lt;td&gt;-0.58%&lt;/td&gt;&lt;td&gt;26.42%&lt;/td&gt;&lt;td&gt;23.23%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美元&lt;/td&gt;&lt;td&gt;美元指数&lt;/td&gt;&lt;td&gt;-0.40%&lt;/td&gt;&lt;td&gt;-1.17%&lt;/td&gt;&lt;td&gt;33.96%&lt;/td&gt;&lt;td&gt;28.39%&lt;/td&gt;&lt;td&gt;28.12%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+有关分析师的申明，见本报告最后部分。其他重要信息披露见分析师申明之后部分，或请与您的投资代表联系。并请阅读本证券研究报告最后一页的免责申明。
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td&gt;欧元&lt;/td&gt;&lt;td&gt;欧元兑美元汇率&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.89%&lt;/td&gt;&lt;td&gt;54.72%&lt;/td&gt;&lt;td&gt;61.29%&lt;/td&gt;&lt;td&gt;61.72%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日元&lt;/td&gt;&lt;td&gt;美元兑日元汇率&lt;/td&gt;&lt;td&gt;-0.61%&lt;/td&gt;&lt;td&gt;-1.21%&lt;/td&gt;&lt;td&gt;24.53%&lt;/td&gt;&lt;td&gt;22.58%&lt;/td&gt;&lt;td&gt;21.48%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;宏观&lt;/td&gt;&lt;td colspan="2"&gt;新兴市场指数&lt;/td&gt;&lt;td&gt;1.80%&lt;/td&gt;&lt;td&gt;8.81%&lt;/td&gt;&lt;td&gt;69.81%&lt;/td&gt;&lt;td&gt;77.42%&lt;/td&gt;&lt;td&gt;79.69%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;美国花旗经济意外指数&lt;/td&gt;&lt;td colspan="2"&gt;数值:40.30&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;81.39%&lt;/td&gt;&lt;td&gt;81.57%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;全球经济意外指数&lt;/td&gt;&lt;td colspan="2"&gt;数值:29.10&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;94.88%&lt;/td&gt;&lt;td&gt;82.27%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，东方证券研究所
+# 二、预期层面： 提名沃什为短期扰动，不改美元信用弱化格局
+近一周可能在预期层面影响资产价格走势的宏观事件如下：
+# （一）国内节前景气回落，结构分化加剧
+26 年 1 月制造业 PMI 为 $4 9 . 3 \%$ （ $5 0 . 1 \%$ ），重返枯荣线以下。其中，生产和新订单 PMI 分别为$5 0 . 6 \%$ 、 $4 9 . 2 \%$ （ $5 1 . 7 \%$ 、 $5 0 . 8 \%$ ），均显著下滑。受 2026 年春节时间明显偏晚影响，1 月才步入传统生产淡季，春节因素对当月生产数据形成显著扰动，除总量层面出现回落外，分项数据的结构性分化亦印证这一特征：高技术制造业仍为当前支撑经济增长的核心动能，但其节前景气韧性，或主要集中于冬季生产条件更优的细分领域；剔除春节扰动后，本期数据依然显现出当前内需提振仍显不足的问题。
+图1： 2026 年1 月PMI 大幅回落（%）  
+![](images/d6c95919e6f8f015b6842832d445d508439ffa90b4bb825829399888fc502594.jpg)  
+数据来源：同花顺，东方证券研究所
+图2：受内外需共同影响，新订单PMI 重返收缩区间（%）  
+![](images/13a821ab22ad6e2af9a6e19f38223727362edbfa5b085ac044aa239709ccc69e.jpg)  
+数据来源：同花顺，东方证券研究所
+从年末财政蓄力、省份“新年第一会”与两会、地方已公布的年初促增长措施来看，2026 年“开门红”预计将温和演绎，同时政策对“供强需弱”的关注有望为 2026 年带来更多内需亮点，拉动消费和投资重拾升势，国内风险评价仍稳步下行。
+# （二）美联储主席提名引发市场震荡，关注 $^ { \circ 2 }$ 降息预期重启
+特朗普提名凯文·沃什为下一任美联储主席，引发全球资产价格剧烈调整。沃什主张货币与财政纪律分离，反对通过宽松政策为财政赤字融资，市场担忧其上任后将推迟甚至取消原定降息路径，导致贵金属及工业金属短期回调，美元指数止跌反弹。
+1 月美联储议息会议暂停降息，符合市场预期。会议宣布将联邦基金利率的目标区间维持在 $3 . 5 \%$ 至 $3 . 7 5 \%$ 。政策声明中对于当前美国经济形势的判断更为乐观，表示经济活动一直在稳步扩张，删除了就业下行风险的相关表述，强调失业率显示出企稳信号，预计美联储降息周期大概率锚定就业目标。
+图3：如果需求继续恶化，失业率或在 ${ \sim } 4 . 5 \%$ 以上加速上升（%）
+图 4：A股趋势维持  
+图 5：商品趋势维持  
+![](images/3a51f9f112f2f403af3e1f5f52dc6b0772e9e94eadfc9ddf5c107cc8b855e44f.jpg)  
+数据来源：Bloomberg，东方证券研究所
+我们认为在美国财政赤字高企未解的背景下，缩表缺乏根据，特朗普提名沃什不改当前美元信用弱化格局，如果后续美国失业率上升超过 $4 . 5 \%$ ，新增就业持续低位，预计降息空间将重新打开，资产价格回到延续传统降息交易路径。
+# （三）全球主要商品期货交易所再次上调保证金
+当地时间1月30日，芝商所集团（CME Group）宣布上调旗下贵金属品种的交易保证金要求，公告将于2月2日收盘后全面上调黄金、白银、铂、钯等贵金属期货的履约保证金（名义价值百分比），这是CME年内第2次上调白银、铂、钯期货的保证金。同日，上海黄金交易所宣布：若2月2日白银延期合约出现单边市，保证金比例从 $20 \%$ 上调至 $2 6 \%$ ，涨跌停板从 $1 9 \%$ 调整至 $2 5 \%$ 。和前一次期货交易所上调保证金相比，贵金属和工业金属的筹码结构更为拥挤，需要时间消化短期交易结构恶化的影响。
+# （四）小结
+从预期层面看，地缘动荡抬升全球经济风险评价的大背景不变， 特朗普提名沃什不改当前美元信用弱化格局，在国内风险评价稳步下降的背景下，国内权益相对占优；长期看，黄金仍具配置价值，商品还需消化短期情绪过热带来的交易影响。
+# 三、交易层面：黄金/商品短期不确定性上行
+# （一）A 股/黄金/商品趋势仍强
+从大类资产的收益因子看，近一周 A 股/商品/黄金趋势仍强，但黄金短端动量减弱，短期一致性略有下降；美股整体震荡；中债反转信号转弱；美债趋势转弱。
+![](images/59ab60fa524d86c41720c4b08bcdc68ec667bff1911e4ce9ad7c461669fe723d.jpg)  
+数据来源：Wind,东方证券研究所
+![](images/dfc6c0d78f7a5c1ec662cdf39f858c80c7ece034cfedf81ded2c4640d516f079.jpg)  
+数据来源：Wind,东方证券研究所
+图6：黄金趋势维持  
+![](images/5a77fe37f6649c9dd96b7dba316bc4949707b483951053b46e2693e8d6c52b66.jpg)  
+数据来源：Wind，东方证券研究所
+图 7：美股整体震荡  
+![](images/1d69d21345a7894a7ff7be3182a75c53c5439a78dd5db22e5f9db3f3fe062284.jpg)  
+数据来源：Wind，东方证券研究所
+图 8：中债反转信号转弱  
+![](images/39288d16b2ba617d8589671b294d1a445ba4dc8c3c9d0c86a6a959973035f88c.jpg)  
+数据来源：Wind，东方证券研究所
+图 9：美债趋势转弱  
+![](images/6d2561583a500d4c43cc41603f8f2532ad8934bac5fca23b2eca89da2459aa41.jpg)  
+数据来源：Wind，东方证券研究所
+# （二）黄金/商品短期不确定性上行
+我们认为从资产波动可观察到交易情绪的变化。波动率的特点在于其多数时候是渐变的，与回撤不同，这一点类似情绪的渐变过程。但波动通常衡量的是情绪大小，而非情绪的方向。上周各类资产日波动（短期情绪）和滚动持有不同期限的波动（中期不确定性）变化如下：
+商品/黄金短期和中期不确定性上行； A股短期情绪回落，中期不确定性平稳；美股短期情绪回落，中期不确定性上行；中债/美债短期情绪回落，中期不确定性下降。
+图 10：商品短期和中期不确定性上行  
+![](images/b5dd73f3df7161a8b2a3fbf836d0972895cf1c2c6f748f9a7ca80b47194e3370.jpg)  
+数据来源：Wind，东方证券研究所；样本选取上期所有色金属指数
+图 11：黄金短期和中期不确定性上行  
+![](images/a100c1cf6afb00c385ace70773fe85b8abcb325c24dc1e0706c4ec31fb4acc25.jpg)  
+数据来源：Wind，东方证券研究所
+图 12：A股短期情绪回落，中期不确定性平稳  
+![](images/da48595d950d817f143600801d28f5728258c20aa085a0f18c62655da316729e.jpg)  
+数据来源：Wind，东方证券研究所
+图 13：美股短期情绪回落，中期不确定性上行  
+![](images/f2d75d139c0356e470527a03555e0186308d03f527aaac89d264df9fe6e0a3ed.jpg)  
+数据来源：Wind，东方证券研究所
+图 14：中债短期情绪回落，中期不确定性下降  
+![](images/565f1ffa77040aad2e1e81f8416ea5c5fc8d9aff954822237eeb705a1652cdd8.jpg)  
+数据来源：Wind，东方证券研究所
+图 15：美债短期情绪回落，中期不确定性下降  
+![](images/975f2a41b46c40b1b966e315cee5137af6570841467aa9355e1cdb1d05257385.jpg)  
+数据来源：Wind，东方证券研究所
+# 四、小结
+预期层面：特朗普提名沃什不改当前美元信用弱化格局。地缘动荡抬升全球经济风险评价的大背景不变，在国内风险评价稳步下降的背景下，国内权益相对占优；长期看，商品/黄金仍具配置价值，但需消化短期情绪过热带来的交易影响。
+交易层面：黄金/商品短期不确定性上行。从收益因子看，近一周风险资产趋势延续，A股/黄金/商品趋势仍强；美股整体震荡；中债反转信号转弱；美债趋势转弱。从资产波动看，商品短期和中期不确定性上行；黄金短期不确定性大幅上行，中期不确定性略有抬升； A股短期情绪回落，中期不确定性平稳；美股短期情绪回落，中期不确定性上行；中债/美债短期情绪回落，中期不确定性下降。
+# 风险提示
+1、 极端风险事件，例如中美关系、全球地缘超预期事件等，可能打破统计上的历史规律；  
+2、 量化指标失效的风险，历史数据对未来的指引效果有限。
+# 分析师申明
+# 每位负责撰写本研究报告全部或部分内容的研究分析师在此作以下声明：
+分析师在本报告中对所提及的证券或发行人发表的任何建议和观点均准确地反映了其个人对该证券或发行人的看法和判断；分析师薪酬的任何组成部分无论是在过去、现在及将来，均与其在本研究报告中所表述的具体建议或观点无任何直接或间接的关系。
+# 投资评级和相关定义
+报告发布日后的12个月内行业或公司的涨跌幅相对同期相关证券市场代表性指数的涨跌幅为基准（A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普 500 指数）；
+# 公司投资评级的量化标准
+买入：相对强于市场基准指数收益率 $1 5 \%$ 以上；
+增持：相对强于市场基准指数收益率 $5 \% \sim 1 5 \%$ ；
+中性：相对于市场基准指数收益率在 $. 5 \% \sim + 5 \%$ 之间波动；
+减持：相对弱于市场基准指数收益率在- $5 \%$ 以下。
+未评级 —— 由于在报告发出之时该股票不在本公司研究覆盖范围内，分析师基于当时对该股票的研究状况，未给予投资评级相关信息。
+暂停评级 —— 根据监管制度及本公司相关规定，研究报告发布之时该投资对象可能与本公司存在潜在的利益冲突情形；亦或是研究报告发布当时该股票的价值和价格分析存在重大不确定性，缺乏足够的研究依据支持分析师给出明确投资评级；分析师在上述情况下暂停对该股票给予投资评级等信息，投资者需要注意在此报告发布之前曾给予该股票的投资评级、盈利预测及目标价格等信息不再有效。
+# 行业投资评级的量化标准：
+看好：相对强于市场基准指数收益率 $5 \%$ 以上；
+中性：相对于市场基准指数收益率在- $. 5 \% \sim + 5 \%$ 之间波动；
+看淡：相对于市场基准指数收益率在- $. 5 \%$ 以下。
+未评级：由于在报告发出之时该行业不在本公司研究覆盖范围内，分析师基于当时对该行业的研究状况，未给予投资评级等相关信息。
+暂停评级：由于研究报告发布当时该行业的投资价值分析存在重大不确定性，缺乏足够的研究依据支持分析师给出明确行业投资评级；分析师在上述情况下暂停对该行业给予投资评级信息，投资者需要注意在此报告发布之前曾给予该行业的投资评级信息不再有效。
+# HeadertTabl e_Discl ai mer 免责声明
+本证券研究报告（以下简称“本报告”）由东方证券股份有限公司（以下简称“本公司”）制作及发布。
+本报告仅供本公司的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告的全体接收人应当采取必要措施防止本报告被转发给他人。
+本报告是基于本公司认为可靠的且目前已公开的信息撰写，本公司力求但不保证该信息的准确性和完整性，客户也不应该认为该信息是准确和完整的。同时，本公司不保证文中观点或陈述不会发生任何变更，在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的证券研究报告。本公司会适时更新我们的研究，但可能会因某些规定而无法做到。除了一些定期出版的证券研究报告之外，绝大多数证券研究报告是在分析师认为适当的时候不定期地发布。
+在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需求。客户应考虑本报告中的任何意见或建议是否符合其特定状况，若有必要应寻求专家意见。本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并非作为或被视为出售或购买证券或其他投资标的的邀请或向人作出邀请。
+本报告中提及的投资价格和价值以及这些投资带来的收入可能会波动。过去的表现并不代表未来的表现，未来的回报也无法保证，投资者可能会损失本金。外汇汇率波动有可能对某些投资的价值或价格或来自这一投资的收入产生不良影响。那些涉及期货、期权及其它衍生工具的交易，因其包括重大的市场风险，因此并不适合所有投资者。
+在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任，投资者自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告主要以电子版形式分发，间或也会辅以印刷品形式分发，所有报告版权均归本公司所有。未经本公司事先书面协议授权，任何机构或个人不得以任何形式复制、转发或公开传播本报告的全部或部分内容。不得将报告内容作为诉讼、仲裁、传媒所引用之证明或依据，不得用于营利或用于未经允许的其它用途。
+经本公司事先书面协议授权刊载或转发的，被授权机构承担相关刊载或者转发责任。不得对本报告进行任何有悖原意的引用、删节和修改。
+提示客户及公众投资者慎重使用未经授权刊载或者转发的本公司证券研究报告，慎重使用公众媒体刊载的证券研究报告。
+# 东方证券研究所
+地址： 上海市中山南路 318号东方国际金融广场 26楼
+电话： 021-63325888
+传真： 021-63326786
+网址： www.dfzq.com.cn</t>
+  </si>
+  <si>
+    <t># AI 兴， 再通胀， 驭慢牛
+2026年A股年度策略报告
+庞庞庞 庞庞庞
+SAC 庞庞庞庞庞S0640515120001
+庞庞庞庞庞010-59562478
+庞庞庞dongzy@avicsec .com
+庞庞庞 庞庞庞
+SAC 庞庞庞庞庞S0640520030001
+庞庞庞庞庞010-59219572
+庞庞庞liuqd@avicsec .com
+庞庞庞 庞庞庞
+SAC 庞庞庞庞庞S0640525100001
+庞庞庞wangjybj@avicsec .com
+庞庞 庞庞庞庞
+SAC 庞庞庞庞庞S0640124040009
+庞庞庞pangc 019@avic .com
+庞庞庞 庞庞庞庞
+SAC 庞庞庞庞庞S0640124060008
+庞庞庞yangzm@avicsec .com
+➢ 全球政经格局来看 ，2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 从大类资产中长期角度看 ，2025年进一步确认了全球两大趋势 ，即逆全球化与 AI科技革命，未来或将至少持续 5-10年。美元或已进入长期贬值周期 ，全球商品有望进入新一轮 “超级周期”，黄金、铜以及部分小金属等资源品价格或将持续上涨。  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A庞庞庞庞庞庞庞庞庞A股有望步入长期慢牛趋势 。本轮经济转型牛一大前提为中美关系总体可控；两大中期驱动为 AI科技革命 $^ +$ 再通胀。庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞1庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞3庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 4庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+➢ 2026年，庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞QE庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞PPI庞庞庞庞庞庞庞庞 2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞我们认为2026年本轮牛市两大驱动有望持续 ，A股整体延续慢牛趋势 。节奏上或表现为 ，一季度上行，二至三季度震荡 ，四季度恢复震荡上行 。  
+➢ 结构上建议关注几个方面 ，1庞AI庞庞庞庞庞庞庞庞庞庞庞泛AI或仍是2026年的核心主线庞2庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞AI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞建议关注铜、稀土、黄金等资源品及相关股票投资机会 庞3庞军贸出口、内需升级与大军工三重共振庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞4庞2026庞PPI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞我们预计二三季度 ，市场有望提前演绎 “走出低通胀”的叙事，推升市场信心，市场风格或也将阶段性转向消费 。
+# 全球中长期趋势变化及影响
+# 1.1 百年未有之大变局加速演进
+# 冷战后全球化快速发展， 2008年之后全球化进入“平台期”
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 80庞庞庞庞庞庞庞庞 庞庞80庞庞庞庞庞庞庞庞庞庞庞庞40庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞30庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞WTO 庞1995庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞90庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 2008 庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞
+![](images/aa0dbab8e5baddef072e3c45217299ccea338697ba19759d56354c63682d4cf3.jpg)  
+图表 全球关税水平变化
+![](images/5363b8281466fc2d222a2be8382fd8e3bf7e794de755ec059bc347b3769a01dd.jpg)  
+图表 2008年后贸易保护主义抬头
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2008 庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞 GDP 庞庞庞庞2008庞庞2024庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞/GDP 庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 2008 庞
+庞庞庞庞庞庞庞庞 GDP 庞庞
+60.6%
+庞庞庞庞庞庞庞庞 庞庞庞庞GDP 庞庞
+3.7%
+庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞
+2.4
+![](images/c4dd9995be18c311c9ddc3b80c8e8b8bd0a32d90ec103f0563a630291db0c628.jpg)
+# 2024 庞
+庞庞庞庞庞庞庞庞 GDP 庞庞
+庞庞庞庞庞
+![](images/c47ae241aff902098b9241ca96127fd41eb37e6560eccfc3b75d180337d493aa.jpg)
+庞庞庞庞庞庞庞庞 庞庞庞庞GDP 庞庞
+庞庞庞庞
+![](images/49f043b373e07dd3d59b18f47c0677c60730f9aa4660ae8261b6a66ce5235e98.jpg)
+庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞
+庞庞庞 庞庞
+# 美国发动关税战，扣动了逆全球化加速的“扳机”
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞·庞庞庞庞庞美国的这种几乎全球最低的实际关税，是当年美国为协助各国在二战后的重建工作以及在冷战期间与盟友建立联盟关系而形成的。时移世易，如今美国必须将自身“独立”承担的维持全球化的压力向自身的盟友和贸易伙伴进行分摊。  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞关税作为一个好用的“大棒”，能够很好地起到逼迫美国的盟友和贸易伙伴配合美国相关政策的目的 。
+![](images/b476e48ccc592dc3a8335b11ebd2a94a30d1e4e4cf2c31b9db188a27fbbb9f0c.jpg)  
+图表 贸易战之前美国全球较低的关税税率
+![](images/7ab96ab7c69138e615d49a8781c06ca6c4dafcedbecb40ebe0996ded1bfefd5b.jpg)
+![](images/7adca0a5fb25384ce96a83a1cd912a4dc7f4b6ba3acecc610857787330906fae.jpg)  
+图表 美国二战后长期维持低关税税率
+# “汤浅现象” 与中美科技竞争
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞“汤浅现象”庞庞庞庞庞庞庞庞庞庞庞庞庞 $2 5 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞5 庞庞庞庞庞庞庞庞庞庞庞1540 -1610 庞庞庞庞庞庞1660 -1730 庞庞庞庞庞庞1770 -1830 庞庞庞庞庞庞1810 -1920 庞庞庞庞庞 庞1920庞庞庞庞庞庞庞庞80庞庞庞庞庞庞庞2000庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞将中美贸易摩擦升级至科技战的重要原因 。
+![](images/c2507396e3eeb89d43433093781902d27e07548dc7892e20312d9eeeec4028d8.jpg)  
+庞庞 庞庞庞庞R&amp;D 庞庞庞庞庞庞庞
+# “东升西降”态势显现，美国超级大国地位仍在
+东升：新兴经济体的集体崛起
+# 核心驱动力
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞
+# 庞庞庞庞
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+![](images/d2ab1aa6783217c60328d604203ffc4d020c84da95280caff47fbef5ac3e891f.jpg)
+西降：传统西方经济体的相对收缩
+# 特指范围
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 本质特征
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+庞庞 ”
+庞庞庞庞庞庞
+客观来说，尽管面临中国在科技、制造业等领域的对等竞争，但美国在军事、高端科技、货币霸权等核心领域仍保持领先。
+# 美国国家安全战略历史演变：从冷战到当代的战略传承与变革
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;87&lt;/td&gt;&lt;td&gt;冷战后期
+里根-老布什&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;94&lt;/td&gt;&lt;td&gt;后冷战时代
+克林顿&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;01&lt;/td&gt;&lt;td&gt;反恐时代
+小布什&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;09&lt;/td&gt;&lt;td&gt;重返亚太
+奥巴马&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;美国优先
+特朗普1.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;联盟重塑
+拜登&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;门罗回归
+特朗普2.0&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+1987-1993：冷战末期老布什"世界新秩序"：庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+W 1994-2000：接触与扩展 克林顿"参与和扩展"：庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 "庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞"
+D 2001-2008：反恐优先 小布什"先发制人"： 庞庞庞庞庞庞庞庞庞庞庞庞
+2009-2016：亚太再平衡
+奥巴马"重返亚太"：结束反恐战争，战略重心东移，"亚太再平庞庞"庞庞"庞庞庞庞庞庞庞庞庞
+2017-2020：大国竞争
+特朗普1.0"美国优先"：庞庞庞庞 庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+2021-2024：联盟重塑与2025：门罗主义回归
+拜登"多边主义"：重建盟友体系，强调"一体化威慑"，AUKUS、QUAD机制深化
+特朗普2.0"美国核心"：务责任，终结单边支撑世界秩序。
+历史规律：庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞从反恐战争到大国竞争， 美国国家安全战略始终围绕维护全球主导地位这一核心目标动态演进 庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+➢ 庞庞庞庞庞2025庞12庞4庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 “庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞”庞庞庞美国外交政策出现意识形态与实质性转变 ，与中国的竞争从 “生死之争”转为“高下之争”。
+![](images/e4d9a0efe5ffb05b2a51a5f6253cd7a1ac0530730a0b759256e37341cd8cab07.jpg)
+# 传统战略：全球领导
+$\diamond$ 庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞   
+◆ $\diamond$ 庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞   
+$\diamond$ 庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞   
+$\diamond$ 庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞
+![](images/550ddf7533cc4197fbbe4fb2cc16564514286cbae4006f6115d741814d0b6e52.jpg)
+# 新战略：America First
+庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞   
+庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞   
+庞庞庞庞庞 庞重利益、轻价值观的实用主义  
+庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 现实情况：变局与挑战
+# 战略判断：机遇并存
+# 战略抓手：三大引擎
+# 战略目标：高质量发展
+# 百年变局新阶段
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞
+# 国内需求收缩期
+庞庞庞庞庞庞庞庞庞庞庞 $\dot { + }$ 庞庞庞庞庞 庞庞庞庞庞庞
+# 科技革命呼之欲出
+AI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞
+# 时代主题转变
+庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞
+# 扩大内需
+庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞
+# 科技自立
+庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞
+# 制度开放
+庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞
+# 质效双升
+庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞
+# 1.2 全球中长期趋势变化对大类资产影响
+# 全球两大中长期趋势 ——逆全球化与AI科技革命
+➢ 2025年，全球进一步明确了两大政治与经济新趋势 ——逆全球化与 AI科技革命，或将至少持续 5-10年。
+庞1庞庞庞庞庞庞庞庞庞 庞贸易保护主义抬头 ，庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞全球地缘冲突扰动加剧庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞加速推进逆全球化进程 。  
+庞2庞全球掀起 AI科技革命 ，产业变革加速演进 庞DeepSeek 庞Gemini 3庞庞庞庞庞庞庞庞2025 庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞AI庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞美元信用面临政治风险的侵蚀，美元或已经入长期贬值周期  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞AI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞全球商品有望进入新一轮 “超级周期”，黄金、铜以及部分小金属等资源品价格或将持续上涨 。
+# A股本轮经济转型牛有望步入长期慢牛趋势
+➢ 在此背景下，中国经济处于地产大周期的转向 、新旧动能转换阶段。庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞, 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞参考海外经验，预计中国经济周期有望更加平稳 ，并带动A股波动率逐渐下降 ，A股有望步入长期慢牛趋势 。  
+➢ 本轮牛市一大前提：中美关系总体可控 。  
+➢ 本轮牛市两大中期驱动： AI科技革命+再通胀。
+# 1.3 A股资金端中长期四大变化
+# 外资有望持续流入，但本轮外资偏好与上一轮有所不同
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞人民币汇率有望进入长期升值周期 。历史经验显示 ，人民币升值阶段往往伴随外资快速流入中国资产，后续A股有望持续受益于外资涌入 。  
+➢ 庞庞2025庞Q 4庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞显示出本轮北向资金偏好资源品 、科技和军工，其中有色金属环比超配增加 1.22pcts，变化幅度远领先于其他行业
+![](images/24ad485062bc84ed705ce4304d1c9d7e537c5a17732aac6535fd0c1392dd130e.jpg)  
+图表 人民币升值阶段外资加速流入中国资产
+图表 北向资金Q4、Q3超低配情况、环比变化  
+![](images/0d861ba1b2cb30cd0618670a9becec0b5f8587695f51c526ca597a84482602ba.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025庞12庞庞庞庞庞庞庞2026庞1庞29庞庞庞/庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 类平准基金调控下，本轮牛市有望更为平稳
+➢ 庞庞庞庞庞庞庞庞庞“稳股市”政策地位处于最高政策目标之一 ，庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞往后看，“稳股市”政策有望推动本轮牛市以慢牛趋势持续演绎 。  
+➢ 924庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025庞4庞庞庞庞庞庞庞庞庞 庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ETF 庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞1庞庞A庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ETF 庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞A 庞庞庞庞庞庞庞庞庞A 庞庞庞庞庞庞庞庞庞庞庞1庞29庞庞庞庞庞庞庞庞庞庞庞庞 $9 9 . 8 3 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 $2 6 . 1 8 \%$ 庞庞庞显示国家队逆周期调控效果较好 ，本轮牛市相对于此前牛市更为平稳 。
+![](images/a5464f395709116c008941d374a5c0d74f90b2e1537d01be2fefb6a1c5f5079a.jpg)  
+图表 国家队逆周期调控企稳市场
+图表 万得全A波动率情况  
+![](images/ac3f971a167ec89e63becdcad887728bbe7b51dc5d5a0105ae9552f30e96bec9.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞1庞29庞
+# 居民存款搬家或处于起步阶段
+➢ 2024庞924庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 往后看，一方面，政策积极推动 A股市场环境改善，庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A股市场权益资产长期持有体验和回报率有望持续改善。 庞庞庞庞庞低利率与资产荒背景下， 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 长期看，中国居民配置权益类资产的比例有望持续提升，并明显超过历史平均水平。
+![](images/f9e13d97f56a6219890232e0975f9dd0dd8f4a03536008e606f0cde891d2d671.jpg)  
+图表 A股市场表现与住户存款同比情况
+![](images/816bec829f682406d325c2a44a24768af2f95f72a65df1094807cdb8d890f513.jpg)  
+图表 居民对A股配置比例与新增开户情况
+# 被动投资规模扩张仍将是大趋势，大盘风格有望相对占优
+➢ A股被动管理基金受到市场青睐 ，ETF规模增长构成增量资金的重要来源之一 ，或将逐渐掌握 A股市场定价权 。2024 庞庞庞庞A 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ETF 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞参考美股市场经验 ，被动投资在 A股仍有较大上行空间 。  
+➢ 参考美股市场被动投资发展经验 ，被动投资规模快速扩张或助力大盘风格走强 。从美股被动投资发展经验来看 ，近年来被动投资规模延续提升 ，庞庞庞庞庞庞庞庞庞庞庞庞庞 2023 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞2000庞庞庞庞庞庞庞庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+![](images/5a79b7493d9e9a008393683f6f37c2545beeba688c32701ebbcdd817b5a74a5d.jpg)  
+图表 A股市场主动、被动管理基金情况
+![](images/3a5c30b568e865828c399889fe97ac9024effd8056ff7b8ee623db87d0c54f93.jpg)  
+图表 美国被动基金规模占比超过主动基金，且仍延续提升
+![](images/8f1e4329e57f10b87848980a65d2d549904bcc976947e36b72685fd8ef933c7b.jpg)  
+图表 美国近年来大盘相对小盘持续占优
+# 二、2026年A股宏观环境及大势研判
+# 2.1 2026年海外宏观环境
+# 2026年全球多国财政、 货币双宽松
+全球多国或将于 2026年进一步推升财政支出 庞2025 庞10庞IMF 庞庞庞庞庞庞庞2026 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025 庞11庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞AI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+作为美国中期选举之年 ，特朗普也在谋求绕过美联储变向 “结构性降息”。庞庞庞庞1庞8庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2000 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞这些行为让市场担心美国将要推行新一轮 QE。
+图表 2026年全球主要经济体财政开支占 GDP比例扩张(单位:%)  
+![](images/647e5bb21d540bb0a50cdb72b00d39dc28118086bc925fb261f4ba4bf68572ef.jpg)  
+资料庞庞庞IMF 庞CME 庞庞庞庞庞庞庞庞庞庞
+# 美联储新主席大概率将延续降息周期
+➢ 庞庞庞庞庞庞庞庞2026 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞2026 庞全球整体或延续宽松周期 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 庞庞庞庞特朗普上任以来的一大政治诉求为降息 。庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞1庞30庞庞美国总统特朗普提名美联储前理事凯文 ·沃什为下任美联储主席 ，这一提名还需获得参议院批准庞  
+➢ 沃什庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞但近年转向支持特朗普的关税政策及加快降息立场 。庞庞庞庞庞庞庞庞庞庞庞庞庞庞QT 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+图表 1月30日沃什被提名前，市场预期的美联储货币政策路径  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="9"&gt;CME FEDWATCH TOOL - CONDITIONAL MEETING PROBABILITIES&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MEETING DATE&lt;/td&gt;&lt;td&gt;200-225&lt;/td&gt;&lt;td&gt;225-250&lt;/td&gt;&lt;td&gt;250-275&lt;/td&gt;&lt;td&gt;275-300&lt;/td&gt;&lt;td&gt;300-325&lt;/td&gt;&lt;td&gt;325-350&lt;/td&gt;&lt;td&gt;350-375&lt;/td&gt;&lt;td&gt;375-400&lt;/td&gt;&lt;td&gt;400-425&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/3/18&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;86.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/4/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;27.0%&lt;/td&gt;&lt;td&gt;70.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/6/17&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;13.3%&lt;/td&gt;&lt;td&gt;46.1%&lt;/td&gt;&lt;td&gt;39.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/7/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;23.8%&lt;/td&gt;&lt;td&gt;44.0%&lt;/td&gt;&lt;td&gt;26.8%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/9/16&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;12.7%&lt;/td&gt;&lt;td&gt;32.1%&lt;/td&gt;&lt;td&gt;37.0%&lt;/td&gt;&lt;td&gt;15.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/10/28&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;16.8%&lt;/td&gt;&lt;td&gt;33.1%&lt;/td&gt;&lt;td&gt;32.5%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/12/9&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;20.2%&lt;/td&gt;&lt;td&gt;33.0%&lt;/td&gt;&lt;td&gt;28.4%&lt;/td&gt;&lt;td&gt;9.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/1/27&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;7.2%&lt;/td&gt;&lt;td&gt;20.3%&lt;/td&gt;&lt;td&gt;32.9%&lt;/td&gt;&lt;td&gt;28.1%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/3/17&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;7.2%&lt;/td&gt;&lt;td&gt;20.4%&lt;/td&gt;&lt;td&gt;32.9%&lt;/td&gt;&lt;td&gt;28.1%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/4/28&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;6.9%&lt;/td&gt;&lt;td&gt;19.7%&lt;/td&gt;&lt;td&gt;32.2%&lt;/td&gt;&lt;td&gt;28.3%&lt;/td&gt;&lt;td&gt;10.7%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/6/9&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;18.8%&lt;/td&gt;&lt;td&gt;31.4%&lt;/td&gt;&lt;td&gt;28.6%&lt;/td&gt;&lt;td&gt;11.9%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/7/28&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;18.5%&lt;/td&gt;&lt;td&gt;31.1%&lt;/td&gt;&lt;td&gt;28.7%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/9/15&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;6.0%&lt;/td&gt;&lt;td&gt;17.6%&lt;/td&gt;&lt;td&gt;30.1%&lt;/td&gt;&lt;td&gt;28.9%&lt;/td&gt;&lt;td&gt;13.6%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/10/27&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;5.6%&lt;/td&gt;&lt;td&gt;16.5%&lt;/td&gt;&lt;td&gt;29.0%&lt;/td&gt;&lt;td&gt;29.0%&lt;/td&gt;&lt;td&gt;15.0%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/12/8&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;5.5%&lt;/td&gt;&lt;td&gt;16.4%&lt;/td&gt;&lt;td&gt;28.8%&lt;/td&gt;&lt;td&gt;29.0%&lt;/td&gt;&lt;td&gt;15.2%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图表 1月30日沃什被提名后，市场预期的美联储货币政策路径  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="10"&gt;CME FEDWATCH TOOL - CONDITIONAL MEETING PROBABILITIES&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MEETING DATE&lt;/td&gt;&lt;td&gt;200-225&lt;/td&gt;&lt;td&gt;225-250&lt;/td&gt;&lt;td&gt;250-275&lt;/td&gt;&lt;td&gt;275-300&lt;/td&gt;&lt;td&gt;300-325&lt;/td&gt;&lt;td&gt;325-350&lt;/td&gt;&lt;td&gt;350-375&lt;/td&gt;&lt;td&gt;375-400&lt;/td&gt;&lt;td&gt;400-425&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/3/18&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;15.3%&lt;/td&gt;&lt;td&gt;84.7%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/4/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;29.7%&lt;/td&gt;&lt;td&gt;67.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/6/17&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;16.4%&lt;/td&gt;&lt;td&gt;48.3%&lt;/td&gt;&lt;td&gt;33.7%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/7/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;27.3%&lt;/td&gt;&lt;td&gt;43.3%&lt;/td&gt;&lt;td&gt;22.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/9/16&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;15.7%&lt;/td&gt;&lt;td&gt;34.3%&lt;/td&gt;&lt;td&gt;34.1%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/10/28&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;td&gt;20.0%&lt;/td&gt;&lt;td&gt;34.3%&lt;/td&gt;&lt;td&gt;29.1%&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/12/9&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;9.0%&lt;/td&gt;&lt;td&gt;23.0%&lt;/td&gt;&lt;td&gt;33.2%&lt;/td&gt;&lt;td&gt;25.0%&lt;/td&gt;&lt;td&gt;7.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/1/27&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;9.2%&lt;/td&gt;&lt;td&gt;23.1%&lt;/td&gt;&lt;td&gt;33.1%&lt;/td&gt;&lt;td&gt;24.8%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/3/17&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;9.1%&lt;/td&gt;&lt;td&gt;22.9%&lt;/td&gt;&lt;td&gt;32.9%&lt;/td&gt;&lt;td&gt;24.9%&lt;/td&gt;&lt;td&gt;7.8%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/4/28&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;8.6%&lt;/td&gt;&lt;td&gt;22.0%&lt;/td&gt;&lt;td&gt;32.3%&lt;/td&gt;&lt;td&gt;25.4%&lt;/td&gt;&lt;td&gt;8.9%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/6/9&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;8.3%&lt;/td&gt;&lt;td&gt;21.4%&lt;/td&gt;&lt;td&gt;31.8%&lt;/td&gt;&lt;td&gt;25.8%&lt;/td&gt;&lt;td&gt;9.7%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/7/28&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;7.4%&lt;/td&gt;&lt;td&gt;19.6%&lt;/td&gt;&lt;td&gt;30.4%&lt;/td&gt;&lt;td&gt;26.6%&lt;/td&gt;&lt;td&gt;11.8%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/9/15&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;18.3%&lt;/td&gt;&lt;td&gt;29.2%&lt;/td&gt;&lt;td&gt;27.0%&lt;/td&gt;&lt;td&gt;13.4%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/10/27&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;6.3%&lt;/td&gt;&lt;td&gt;17.2%&lt;/td&gt;&lt;td&gt;28.2%&lt;/td&gt;&lt;td&gt;27.2%&lt;/td&gt;&lt;td&gt;14.6%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/12/8&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;8.1%&lt;/td&gt;&lt;td&gt;19.0%&lt;/td&gt;&lt;td&gt;28.1%&lt;/td&gt;&lt;td&gt;25.2%&lt;/td&gt;&lt;td&gt;12.9%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料庞庞庞CME 庞庞庞庞庞庞庞庞庞庞
+# 中美关系将面临美国中期选举和关税暂停期满等扰动
+➢ 2026年11月将迎来美国中期选举， 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 庞庞庞庞庞庞庞庞庞3月拉开序幕庞5月至8月逐渐白热化庞11庞3庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞目前，共和党控制着美国参众两院 庞2026庞庞庞庞庞庞庞庞庞庞庞庞435庞庞庞庞庞庞庞100庞庞庞庞35庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞218庞庞庞庞庞庞庞庞庞庞35庞庞庞庞22庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞4庞庞庞庞  
+➢ 另一方面， 2026年11 月中美关税暂停期面临期满，预计在此之前中美双方或将再次进行多轮博弈，四季度有望逐步回到谈判桌，中美元首有望再度会面或通话。
+庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+![](images/02b9e4542af670787d738494e5c6a35ac1e6106e5ab54b37c356e1f90696e193.jpg)  
+资料庞庞庞FEC 庞庞庞庞庞庞庞庞庞庞
+# 2.2 2026年国内宏观环境
+# 中央经济工作会议对于 2026年安排
+# ⚫ 由“逆周期”向“逆周期”与“跨周期”并重微调，财政和货币政策“双宽”延续。
+➢ 总体政策基调：庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 财政政策方面庞庞2024庞庞庞庞庞庞庞庞庞庞 $+$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞 $4 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 货币政策方面庞庞2024庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞10BP 庞20BP 庞庞庞50BP 庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ “扩大内需” 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026年“反内卷”或仍将是全年重点工作  
+➢ 2024庞庞庞庞庞庞庞防风险庞庞庞庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞2024庞"庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞"庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 2026年主线线索， “十五五” 规划
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞10庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞全会《公报》庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 11庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞3庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞   
+➢ 庞庞庞庞庞全会《公报》庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞《公报》庞 庞庞庞庞庞庞庞庞庞
+图表 十三五、十四五规划主要流畅梳理  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;阶段&lt;/td&gt;&lt;td&gt;步骤&lt;/td&gt;&lt;td&gt;时间(十三五)&lt;/td&gt;&lt;td&gt;主要事件(十三五)&lt;/td&gt;&lt;td&gt;时间(十四五)&lt;/td&gt;&lt;td&gt;主要事件(十四五)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;中期评估&lt;/td&gt;&lt;td&gt;对上一个五年规划中期评估&lt;/td&gt;&lt;td&gt;2013年&lt;/td&gt;&lt;td&gt;在“十二五”规划中期评估基础上,展开后续“十三五”规划前期准备工作。&lt;/td&gt;&lt;td&gt;2018年&lt;/td&gt;&lt;td&gt;在“十三五”规划中期评估基础上,展开后续“十四五”规划前期准备工作。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;前期调研&lt;/td&gt;&lt;td&gt;2013至2014年&lt;/td&gt;&lt;td&gt;在中期评估的基础上,国家发改委委托有关机构开展“十三五”规划前期重大问题及基本思路研究。&lt;/td&gt;&lt;td&gt;2019至2020年&lt;/td&gt;&lt;td&gt;在中期评估的基础上,国家发改委委托有关机构开展课题研究,发改委赴各地开展“十四五”规划前期相关调研。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基本思路研究&lt;/td&gt;&lt;td&gt;形成基本思路&lt;/td&gt;&lt;td&gt;2014年&lt;/td&gt;&lt;td&gt;根据前期研究成果,发改委起草基本思路意见稿,征求各方意见之后提交党中央和国务院。&lt;/td&gt;&lt;td&gt;2019至2020年3月&lt;/td&gt;&lt;td&gt;根据前期研究成果和实地调研基础,发改委形成“十四五”规划基本思路,按程序报到中央《建议》的起草组作参考。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;党中央《建议》编制&lt;/td&gt;&lt;td&gt;党中央《建议》编制&lt;/td&gt;&lt;td&gt;2015年初至10月&lt;/td&gt;&lt;td&gt;中央财经领导小组牵头成立起草小组编制,并直接在政治局常委领导下开展工作,起草工作进行中开展大量调研,广泛征求党内外各方意见等。&lt;/td&gt;&lt;td&gt;2020年3月至10月&lt;/td&gt;&lt;td&gt;3月中共中央政治局决定成立文件起草组。研究审议规划《建议》,听取党内、社会各界的意见和建议,并首次在网上征求意见,修改审定文件稿。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;党中央《建议》审议通过&lt;/td&gt;&lt;td&gt;2015年10至11月&lt;/td&gt;&lt;td&gt;2015年10月29日,十八届五中全会审议通过《中共中央关于制定国民经济和社会发展第十三个五年规划的建议》,11月初《建议》全文发布。&lt;/td&gt;&lt;td&gt;2020年10月至11月&lt;/td&gt;&lt;td&gt;2020年10月29日,十九届五中全会审议通过《中共中央关于制定国民经济和社会发展第十四个五年规划和二三五年远景目标的建议》,11月初《建议》全文发布。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;正式编制《纲要》&lt;/td&gt;&lt;td&gt;《纲要》草案编制&lt;/td&gt;&lt;td&gt;2015年11月至2016年3月&lt;/td&gt;&lt;td&gt;党中央《建议》正式公布之后,形成“十三五”规划纲要草案编制的初稿。《纲要》草案编制持续到2016年“两会”前。经公众建言献策、各部门地方规划衔接及专家论证、征求各方意见后,提请人大会议审查。&lt;/td&gt;&lt;td&gt;2020年11月至2021年3月&lt;/td&gt;&lt;td&gt;中央全会后,国务院“十四五”规划《纲要》草案编制工作领导小组在前期大量工作的基础上,全面对标中央建议精神,召开系列座谈会听取部门和地方及专家意见,听取社会公众意见建议,起草形成纲要草案。征求各方意见后,提请人大会议审查。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;《纲要》审批与发布&lt;/td&gt;&lt;td&gt;2016年3月&lt;/td&gt;&lt;td&gt;《中华人民共和国国民经济和社会发展第十三个五年规划纲要》由全国人大十二届四次会议审议通过,后续全文发布。&lt;/td&gt;&lt;td&gt;2021年3月&lt;/td&gt;&lt;td&gt;《中华人民共和国国民经济和社会发展第 十四个五年规划和2035年远景目标纲要》由全国人大十三届四次会议审议通过,后续全文发布。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：人民网，国家发改委网站，中国政府网，新华社，中航证券研究所整理
+# 2026年主线线索， “十五五” 规划
+➢ 庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞4庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞《纲要》发布前博弈情绪相对略弱，发布后市场根据具体内容的落地积极寻找机会 ，且后续政策往往也开始逐步落地 ，从而形成一轮较为持续的行情  
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 A 庞庞庞庞庞庞庞庞庞庞 $1 0 0 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+![](images/144401f955352ee34f210f5db8a8783e7832300949ba890b606baa31eb2720a7.jpg)  
+图表 五年规划《纲要》发布前后市场表现
+图表 五年规划《纲要》发布前后市场风格表现  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;收益率平均数&lt;/td&gt;&lt;td&gt;T-2M~T-1M&lt;/td&gt;&lt;td&gt;T-1M~T-1W&lt;/td&gt;&lt;td&gt;T-1W~T&lt;/td&gt;&lt;td&gt;T~T+1W&lt;/td&gt;&lt;td&gt;T+1W~T+1M&lt;/td&gt;&lt;td&gt;T+1M~T+2M&lt;/td&gt;&lt;td&gt;T+2M~T+3M&lt;/td&gt;&lt;td&gt;T+3M~T+1Y&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;万得全A&lt;/td&gt;&lt;td&gt;3.58%&lt;/td&gt;&lt;td&gt;-2.78%&lt;/td&gt;&lt;td&gt;0.27%&lt;/td&gt;&lt;td&gt;1.60%&lt;/td&gt;&lt;td&gt;4.09%&lt;/td&gt;&lt;td&gt;1.76%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;22.24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融风格&lt;/td&gt;&lt;td&gt;1.79%&lt;/td&gt;&lt;td&gt;0.41%&lt;/td&gt;&lt;td&gt;-0.47%&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;3.90%&lt;/td&gt;&lt;td&gt;-1.35%&lt;/td&gt;&lt;td&gt;-2.21%&lt;/td&gt;&lt;td&gt;32.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期风格&lt;/td&gt;&lt;td&gt;4.78%&lt;/td&gt;&lt;td&gt;-2.18%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;3.65%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;0.94%&lt;/td&gt;&lt;td&gt;20.99%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费风格&lt;/td&gt;&lt;td&gt;4.64%&lt;/td&gt;&lt;td&gt;-4.90%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;1.19%&lt;/td&gt;&lt;td&gt;3.38%&lt;/td&gt;&lt;td&gt;4.81%&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;17.24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长风格&lt;/td&gt;&lt;td&gt;2.94%&lt;/td&gt;&lt;td&gt;-5.27%&lt;/td&gt;&lt;td&gt;0.39%&lt;/td&gt;&lt;td&gt;1.38%&lt;/td&gt;&lt;td&gt;2.81%&lt;/td&gt;&lt;td&gt;1.63%&lt;/td&gt;&lt;td&gt;1.81%&lt;/td&gt;&lt;td&gt;14.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;稳定风格&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;-0.47%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;2.95%&lt;/td&gt;&lt;td&gt;-0.95%&lt;/td&gt;&lt;td&gt;-1.93%&lt;/td&gt;&lt;td&gt;23.34%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科技(TMT)&lt;/td&gt;&lt;td&gt;1.05%&lt;/td&gt;&lt;td&gt;-3.39%&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;1.16%&lt;/td&gt;&lt;td&gt;2.68%&lt;/td&gt;&lt;td&gt;-0.36%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;17.07%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利&lt;/td&gt;&lt;td&gt;2.37%&lt;/td&gt;&lt;td&gt;1.82%&lt;/td&gt;&lt;td&gt;0.64%&lt;/td&gt;&lt;td&gt;0.57%&lt;/td&gt;&lt;td&gt;3.50%&lt;/td&gt;&lt;td&gt;0.77%&lt;/td&gt;&lt;td&gt;-0.96%&lt;/td&gt;&lt;td&gt;25.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;收益率胜率&lt;/td&gt;&lt;td&gt;T-2M~T-1M&lt;/td&gt;&lt;td&gt;T-1M~T-1W&lt;/td&gt;&lt;td&gt;T-1W~T&lt;/td&gt;&lt;td&gt;T~T+1W&lt;/td&gt;&lt;td&gt;T+1W~T+1M&lt;/td&gt;&lt;td&gt;T+1M~T+2M&lt;/td&gt;&lt;td&gt;T+2M~T+3M&lt;/td&gt;&lt;td&gt;T+3M~T+1Y&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;万得全A&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融风格&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期风格&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费风格&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长风格&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;稳定风格&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科技(TMT)&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;25.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞庞庞庞T庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞W 庞庞庞庞庞M 庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 复盘：“十三五”、 “十四五”规划 《纲要》
+➢ 五年规划 《纲要》关注点一： 《纲要》中与产业趋势节奏更加共振的政策方向 ，更容易受到市场的青睐 ，成为年度主线。  
+➢ 2021庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 科技自立自强、能源革命庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 五年规划《纲要》关注点二：重点关注 《纲要》较此前公报和《建议》的增量方向。  
+➢ 2016庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 供给侧改革、棚户区改造以及消费升级庞庞2015庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞+庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2016庞3庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞TMT 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# “十五五”规划 《建议》为《纲要》奠定基调 6
+➢ 2025庞10庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞 庞庞庞2035庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞2026 庞庞2030 庞庞庞庞庞庞庞庞 $4 . 7 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞 $4 . 7 \%$ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞12庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞   
+➢ 1庞现代化产业体系与科技创新 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞   
+➢ 2庞国内市场建设 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 3庞庞对外开放庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 4庞民生发展庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 2.3 A股盈利呈现边际改善，新动能稳步提升
+# A股盈利呈现边际改善，本轮牛市有望进入盈利驱动阶段
+➢ ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞A庞ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ROE2024 庞庞庞庞庞庞庞庞庞庞2025庞Q3 庞庞庞A庞庞庞庞A庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A 庞庞(庞庞庞)ROE 庞庞庞庞庞庞庞16庞庞庞庞庞庞庞庞庞庞庞庞6-10庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 庞庞2025Q3 庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞 2025Q3 ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞周转率和杠杆率已呈现一定底部持续回升态势，后续关注企业利润率环比何时可出现持续改善。
+图表 ROE TTM  
+![](images/cc6e6cdfad9565315de159f13805aef4c20b21305a43490f20e31f7b9c42241c.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞
+图表 万得全A指数(除金融)财务分析  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;杜邦分析指标&lt;/td&gt;&lt;td&gt;2025Q3&lt;/td&gt;&lt;td&gt;环比变化幅度&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;毛利率&lt;/td&gt;&lt;td&gt;17.76%&lt;/td&gt;&lt;td&gt;-0.07%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;资产负债率&lt;/td&gt;&lt;td&gt;57.93%&lt;/td&gt;&lt;td&gt;-0.07%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;销售净利率&lt;/td&gt;&lt;td&gt;5.75%&lt;/td&gt;&lt;td&gt;-0.05%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;资产周转率&lt;/td&gt;&lt;td&gt;42.96%&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;权益乘数&lt;/td&gt;&lt;td&gt;2.3771&lt;/td&gt;&lt;td&gt;-0.004&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ROE&lt;/td&gt;&lt;td&gt;6.71%&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞
+# A股盈利周期受到地产压制，但新动能持续成长
+➢ 2020庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025庞Q3 庞庞庞庞庞庞 庞庞庞庞2020庞庞庞 A庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ROE 庞PPI庞庞庞庞庞庞庞 2025庞8庞庞庞庞PPI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞ROE 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2020庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞A庞庞庞庞庞庞庞庞
+➢ 综上，此后A股何时走出盈利底，重点关注：（ 1）房地产行业何时企稳；（ 2）低通胀格局何时被打破。
+![](images/c6d47d38feaff153f4956f00e3a4d729598ce15ca82ff996def88e939f91b8ca.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞庞庞WIND 庞庞庞庞
+![](images/8759116edaf35a475e6264654bd7bdafc72113dd065a564df4d43b4048e25e9a.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞WIND 庞庞庞庞
+# 近期财报数据显示，多个行业基本面改善已现一定持续性
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="6"&gt;单季度归母净利润同比(%)&lt;/td&gt;&lt;td colspan="5"&gt;单季度营收同比(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;板块&lt;/td&gt;&lt;td&gt;2024Q4&lt;/td&gt;&lt;td&gt;2025Q1&lt;/td&gt;&lt;td&gt;2025Q2&lt;/td&gt;&lt;td&gt;2025Q3&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;2024Q4&lt;/td&gt;&lt;td&gt;2025Q1&lt;/td&gt;&lt;td&gt;2025Q2&lt;/td&gt;&lt;td&gt;2025Q3&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;-28.98&lt;/td&gt;&lt;td&gt;-8.53&lt;/td&gt;&lt;td&gt;-4.53&lt;/td&gt;&lt;td&gt;-18.63&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.82&lt;/td&gt;&lt;td&gt;-6.28&lt;/td&gt;&lt;td&gt;-5.62&lt;/td&gt;&lt;td&gt;-4.63&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;-135.02&lt;/td&gt;&lt;td&gt;-13.30&lt;/td&gt;&lt;td&gt;24.83&lt;/td&gt;&lt;td&gt;48.62&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-2.95&lt;/td&gt;&lt;td&gt;2.96&lt;/td&gt;&lt;td&gt;6.08&lt;/td&gt;&lt;td&gt;7.90&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;-37.80&lt;/td&gt;&lt;td&gt;24.17&lt;/td&gt;&lt;td&gt;13.96&lt;/td&gt;&lt;td&gt;5.38&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.88&lt;/td&gt;&lt;td&gt;9.94&lt;/td&gt;&lt;td&gt;5.09&lt;/td&gt;&lt;td&gt;3.67&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;-28.32&lt;/td&gt;&lt;td&gt;384.02&lt;/td&gt;&lt;td&gt;23.81&lt;/td&gt;&lt;td&gt;9.61&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-14.37&lt;/td&gt;&lt;td&gt;-1.60&lt;/td&gt;&lt;td&gt;-7.23&lt;/td&gt;&lt;td&gt;-6.44&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;5.62&lt;/td&gt;&lt;td&gt;-1.20&lt;/td&gt;&lt;td&gt;2.92&lt;/td&gt;&lt;td&gt;2.80&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;3.78&lt;/td&gt;&lt;td&gt;-1.72&lt;/td&gt;&lt;td&gt;3.88&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;75.26&lt;/td&gt;&lt;td&gt;21.30&lt;/td&gt;&lt;td&gt;15.68&lt;/td&gt;&lt;td&gt;64.63&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;14.78&lt;/td&gt;&lt;td&gt;4.05&lt;/td&gt;&lt;td&gt;11.87&lt;/td&gt;&lt;td&gt;30.73&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;65.20&lt;/td&gt;&lt;td&gt;299.31&lt;/td&gt;&lt;td&gt;199.17&lt;/td&gt;&lt;td&gt;1473.72&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-8.20&lt;/td&gt;&lt;td&gt;-2.34&lt;/td&gt;&lt;td&gt;-5.52&lt;/td&gt;&lt;td&gt;8.92&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;-170.14&lt;/td&gt;&lt;td&gt;-25.88&lt;/td&gt;&lt;td&gt;3.07&lt;/td&gt;&lt;td&gt;47.27&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7.86&lt;/td&gt;&lt;td&gt;-13.81&lt;/td&gt;&lt;td&gt;9.85&lt;/td&gt;&lt;td&gt;26.05&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;-4.34&lt;/td&gt;&lt;td&gt;-6.34&lt;/td&gt;&lt;td&gt;-23.08&lt;/td&gt;&lt;td&gt;-3.14&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-5.45&lt;/td&gt;&lt;td&gt;-6.77&lt;/td&gt;&lt;td&gt;-10.02&lt;/td&gt;&lt;td&gt;-4.61&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;-286.51&lt;/td&gt;&lt;td&gt;3.07&lt;/td&gt;&lt;td&gt;-12.27&lt;/td&gt;&lt;td&gt;-8.61&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;td&gt;3.23&lt;/td&gt;&lt;td&gt;-0.78&lt;/td&gt;&lt;td&gt;6.66&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美容护理&lt;/td&gt;&lt;td&gt;-11.13&lt;/td&gt;&lt;td&gt;-14.38&lt;/td&gt;&lt;td&gt;-12.13&lt;/td&gt;&lt;td&gt;4.36&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2.32&lt;/td&gt;&lt;td&gt;6.87&lt;/td&gt;&lt;td&gt;5.17&lt;/td&gt;&lt;td&gt;5.62&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;-10.26&lt;/td&gt;&lt;td&gt;-28.18&lt;/td&gt;&lt;td&gt;-36.63&lt;/td&gt;&lt;td&gt;-24.55&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2.20&lt;/td&gt;&lt;td&gt;-18.13&lt;/td&gt;&lt;td&gt;-20.79&lt;/td&gt;&lt;td&gt;-15.41&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-115.46&lt;/td&gt;&lt;td&gt;671.53&lt;/td&gt;&lt;td&gt;18.28&lt;/td&gt;&lt;td&gt;23.19&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1.98&lt;/td&gt;&lt;td&gt;15.89&lt;/td&gt;&lt;td&gt;7.82&lt;/td&gt;&lt;td&gt;4.82&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;-348.36&lt;/td&gt;&lt;td&gt;39.05&lt;/td&gt;&lt;td&gt;19.53&lt;/td&gt;&lt;td&gt;59.33&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.81&lt;/td&gt;&lt;td&gt;5.61&lt;/td&gt;&lt;td&gt;2.59&lt;/td&gt;&lt;td&gt;8.11&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;-6.10&lt;/td&gt;&lt;td&gt;6.79&lt;/td&gt;&lt;td&gt;8.33&lt;/td&gt;&lt;td&gt;11.71&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.88&lt;/td&gt;&lt;td&gt;2.41&lt;/td&gt;&lt;td&gt;3.48&lt;/td&gt;&lt;td&gt;3.71&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td&gt;-130.45&lt;/td&gt;&lt;td&gt;5.11&lt;/td&gt;&lt;td&gt;-1.21&lt;/td&gt;&lt;td&gt;-8.60&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1.57&lt;/td&gt;&lt;td&gt;4.02&lt;/td&gt;&lt;td&gt;6.69&lt;/td&gt;&lt;td&gt;4.59&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;53.75&lt;/td&gt;&lt;td&gt;29.60&lt;/td&gt;&lt;td&gt;27.70&lt;/td&gt;&lt;td&gt;48.52&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;15.73&lt;/td&gt;&lt;td&gt;17.77&lt;/td&gt;&lt;td&gt;20.25&lt;/td&gt;&lt;td&gt;19.84&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;16.84&lt;/td&gt;&lt;td&gt;11.31&lt;/td&gt;&lt;td&gt;-7.11&lt;/td&gt;&lt;td&gt;10.52&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;12.56&lt;/td&gt;&lt;td&gt;5.87&lt;/td&gt;&lt;td&gt;8.72&lt;/td&gt;&lt;td&gt;10.57&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;13.29&lt;/td&gt;&lt;td&gt;25.31&lt;/td&gt;&lt;td&gt;4.00&lt;/td&gt;&lt;td&gt;4.77&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.09&lt;/td&gt;&lt;td&gt;12.77&lt;/td&gt;&lt;td&gt;4.50&lt;/td&gt;&lt;td&gt;2.63&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;8.65&lt;/td&gt;&lt;td&gt;68.20&lt;/td&gt;&lt;td&gt;16.82&lt;/td&gt;&lt;td&gt;50.26&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;15.01&lt;/td&gt;&lt;td&gt;7.91&lt;/td&gt;&lt;td&gt;5.48&lt;/td&gt;&lt;td&gt;15.23&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;245.71&lt;/td&gt;&lt;td&gt;977.37&lt;/td&gt;&lt;td&gt;17.80&lt;/td&gt;&lt;td&gt;-58.03&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.54&lt;/td&gt;&lt;td&gt;8.08&lt;/td&gt;&lt;td&gt;9.91&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;-10.92&lt;/td&gt;&lt;td&gt;13.24&lt;/td&gt;&lt;td&gt;-3.44&lt;/td&gt;&lt;td&gt;21.06&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;td&gt;5.58&lt;/td&gt;&lt;td&gt;-0.42&lt;/td&gt;&lt;td&gt;1.58&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;-189.79&lt;/td&gt;&lt;td&gt;539.33&lt;/td&gt;&lt;td&gt;82.33&lt;/td&gt;&lt;td&gt;202.87&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-10.54&lt;/td&gt;&lt;td&gt;-9.99&lt;/td&gt;&lt;td&gt;-8.30&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;-12.88&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;-2.11&lt;/td&gt;&lt;td&gt;-14.61&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;3.92&lt;/td&gt;&lt;td&gt;2.52&lt;/td&gt;&lt;td&gt;2.34&lt;/td&gt;&lt;td&gt;-4.75&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;65.85&lt;/td&gt;&lt;td&gt;2.02&lt;/td&gt;&lt;td&gt;5.90&lt;/td&gt;&lt;td&gt;-14.63&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.92&lt;/td&gt;&lt;td&gt;0.43&lt;/td&gt;&lt;td&gt;-1.75&lt;/td&gt;&lt;td&gt;1.91&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;-252.98&lt;/td&gt;&lt;td&gt;-770.21&lt;/td&gt;&lt;td&gt;-132.22&lt;/td&gt;&lt;td&gt;-145.58&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-17.85&lt;/td&gt;&lt;td&gt;-7.86&lt;/td&gt;&lt;td&gt;-14.96&lt;/td&gt;&lt;td&gt;-7.92&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;4.44&lt;/td&gt;&lt;td&gt;-9.72&lt;/td&gt;&lt;td&gt;-25.77&lt;/td&gt;&lt;td&gt;-63.39&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-8.17&lt;/td&gt;&lt;td&gt;-10.10&lt;/td&gt;&lt;td&gt;-7.78&lt;/td&gt;&lt;td&gt;-0.62&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;-30.00&lt;/td&gt;&lt;td&gt;5.33&lt;/td&gt;&lt;td&gt;-2.90&lt;/td&gt;&lt;td&gt;5.56&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-3.35&lt;/td&gt;&lt;td&gt;-4.50&lt;/td&gt;&lt;td&gt;-2.29&lt;/td&gt;&lt;td&gt;-4.48&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;-149.93&lt;/td&gt;&lt;td&gt;-5.56&lt;/td&gt;&lt;td&gt;-12.10&lt;/td&gt;&lt;td&gt;-13.67&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-7.17&lt;/td&gt;&lt;td&gt;-13.33&lt;/td&gt;&lt;td&gt;3.91&lt;/td&gt;&lt;td&gt;4.74&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-172.89&lt;/td&gt;&lt;td&gt;-18.85&lt;/td&gt;&lt;td&gt;-27.63&lt;/td&gt;&lt;td&gt;-18.10&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.22&lt;/td&gt;&lt;td&gt;-0.78&lt;/td&gt;&lt;td&gt;0.66&lt;/td&gt;&lt;td&gt;0.74&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;-123.41&lt;/td&gt;&lt;td&gt;-8.97&lt;/td&gt;&lt;td&gt;1.64&lt;/td&gt;&lt;td&gt;3.98&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-3.42&lt;/td&gt;&lt;td&gt;-4.28&lt;/td&gt;&lt;td&gt;-1.18&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞   
+➢ 庞庞庞庞庞31庞庞庞庞庞庞庞庞11庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025Q3 庞Q2 庞庞庞庞庞庞庞庞5庞庞庞非银金融、国防军工、钢铁、商贸零售、医药生物  
+➢ 归母净利润方面 ，国防军工、电力设备、美容护理、通信、医药生物 5庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 庞庞庞庞庞庞庞庞庞 庞庞庞国防军工 、电力设备 、通信、医药生物庞4庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+➢ 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 A 庞庞庞庞庞庞庞庞庞庞庞庞2026 庞庞庞PPI 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026年本轮牛市两大驱动 AI科技革命和再通胀有望持续 ，A股整体延续慢牛趋势 。  
+➢ 一季度，A股或呈现上行趋势 。庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025 庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2026庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 1庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞12庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞   
+➢ 二季度至三季度 ，A股或整体为震荡 。庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞2026庞PPI庞庞庞庞庞庞庞庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞  
+➢ 四季度，A股有望重回震荡上行。庞庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞
+# 三、 2026年A股潜在主线
+3.1 AI泡沫温和，市场较理性，泛 AI或仍是2026年的核心主线
+# 复盘：科技景气度投资 ——移动互联网和新能源车
+➢ 第一阶段：资本开支底部回升确认产业趋势 ，估值上升。  
+第二阶段：业绩得到验证 ，为行情接力。  
+第三阶段：业绩增速见顶后 ，行情进入尾声。
+![](images/58f867770e393e37e324d57dee9cd14d481085a5c277b2a2bbf62a00a4d4656c.jpg)  
+图表 移动互联网行情三阶段市场表现
+![](images/0b7526aa777d56c7bf1774f885e9b3c5d31d26de905cd468441dfccbe2a0ed65.jpg)  
+图表 移动互联网行情第一阶段，资本开支底部回升
+![](images/122c1a8dbd6a3389435b24fd170fdbdf0ee0238c3a0c396fa94ae7e4e6514aee.jpg)  
+图表 业绩为第二行情接力和三阶段进入尾声的信号
+![](images/df1850f485e89f10f832b908aaee64a6e824746d469bd0caad3ab4fd2e21afc9.jpg)  
+图表 新能源车行情三阶段市场表现
+![](images/e210c894f59d1ecf14d785efcda46135b09b655088fdc39782a16004e0deade4.jpg)  
+图表 新能源车行情第一阶段，资本开支底部回升
+![](images/51ef4855a1fc45b8900f18a968f55bcf238a8b00d6d766d74d37c38ef8278723.jpg)  
+图表 业绩验证为行情启动信号，业绩见顶为行情结束信号
+# 本轮AI行情或处于第一阶段后期
+➢ 庞2022庞11庞ChatGPT 庞庞庞庞庞庞庞庞AI庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞2025庞庞庞庞庞庞庞庞庞庞庞庞庞庞AI庞庞庞庞庞庞庞庞庞庞庞庞目前看，仅光模块或已进入第二阶段 ，即业绩验证阶段 ，而其他的人工智能 AI产业链当前或正处于第一阶段 ，即资本开支演绎业绩预期拉动估值上行 庞庞庞庞往后看，2026年或才是本轮人工智能科技革命下，股票市场全面发力的一年 。  
+➢ 业绩等待验证 、估值先行，庞庞庞庞CPO 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞PE TTM 庞庞庞庞庞庞庞  
+关注：应用端进展 、十五五政策方向 。
+![](images/5a959acb88c30b48bd33868e179b5a090e347259fd14a3e5528a258baed03d56.jpg)  
+图表 AI产业链资本开支同比增速显示产业呈现扩张趋势（ %）
+![](images/a6f45ced210353dd11a6c3fc919f809a515bcb27bb0a383c77157dc921290d8b.jpg)  
+图表 多数AI产业链环节仍在等待业绩验证信号（ %）
+图表 AI产业链上中下游均呈现股指先行（倍）  
+![](images/46241412872d1b91d05126ba0d51bac52bda4c6c0dee2ae8cecfbeb79b3af32d.jpg)  
+庞庞庞庞庞Wind 庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞庞</t>
+  </si>
+  <si>
+    <t># 【策略快评】
+# 调整或已到位，把握配置区间
+# 因外部突发事件产生的风险偏好冲击，或已到位。
+本轮回撤主因美联储主席任命，缩表倾向带动美元反弹，金银暴跌，对新兴市场产生明显的风险偏好抑制，亚太市场普遍跌幅较大。躁动期间有色为代表的顺周期出现较大获利了结。经过快速回撤，交投情绪已回落至躁动行情启动位置，2/2 跌停公司 130 家，超去年 11/21 的 107 家，创近半年新低；两融连续两天净流出 295 亿，创半年流出新高。
+# ❖ 中期趋势仍在：基本面业绩回暖 $^ +$ 资金面居民长存到期搬家。
+从国内基本面看，25-26 年业绩修复的证据愈发清晰，25 年业绩预告预喜率37%，超 24 年的 $3 3 . 5 \%$ 。针对 26 年业绩预测，近两个月分析师上修占比持续提升，伴随着反内卷带来的行业毛销差扩大，我们维持 26 年非金融中性（乐观）利润增长 $1 1 \%$ （17%）的判断。从资金面看，近两周宽基 ETF 已流出超 $^ { 1 }$ 万亿，但居民长存到期后的存款搬家趋势明显，公募私募发行均创半年新高，其中公募权益产品新成立份额从 25/5 的 221 亿持续升至 26/1 的 696 亿；私募备案规模从 25/6 的 501 亿放大至 25/12 的 989 亿。
+# ❖ 把握配置区间，问增长要收益，重视科创 $+ ,$ 顺周期年度配置价值。
+A 股投融资定位逆转后，高夏普特征愈发明显，体现在时间分布上涨多跌少，慢牛趋势下更容易以快速回撤完成风险定价。站在年度视角，我们建议把握当下配置区间，春节后即 3 月初全国两会，经济增长目标及“十五五”规划纲的发布，有望成为风险偏好再度改善的催化剂。从风格看，PPI 转正预期带动 EPS接棒流动性，问增长要收益，年度视角看科创+顺周期配置价值仍在，科创从算力到应用扩散，算力硬件、储能、AI 应用、智能驾驶。顺周期五朵金花紧供给优势明显，关注有色、化工、机械、钢铁、建材。
+# 风险提示：
+宏观经济复苏不及预期；关税政策超预期；历史经验不代表未来。
+# 华创证券研究所
+证券分析师：姚佩
+邮箱：yaopei@hcyjs.com
+执业编号：S0360522120004
+证券分析师：蔡雨阳
+邮箱：caiyuyang@hcyjs.com
+执业编号：S0360525080006
+# 相关研究报告
+《【华创策略】加周期金融地产，减消费 TMT——25Q4 基金季报点评》
+2026-01-23
+《【华创策略】宽基 ETF 赎回情况统计》2026-01-23
+《【华创策略】基于公开调研的超额收益挖掘》2026-01-16
+《【华创策略】两融降杠杆的两类行业影响》2026-01-14
+《【华创策略】若站上 5000 点，谁是牛市旗手——26 年十大脑洞系列1》
+2026-01-14
+因外部突发事件产生的风险偏好冲击，或已到位。本轮回撤主因美联储主席任命，缩表倾向带动美元反弹，金银暴跌，对新兴市场产生明显的风险偏好抑制，亚太市场普遍跌幅较大。躁动期间有色为代表的顺周期出现较大获利了结。经过快速回撤，交投情绪已回落至躁动行情启动位置，2/2跌停公司130家，超去年11/21 的107家，创近半年新低；两融连续两天净流出 295亿，创半年流出新高。
+中期趋势仍在：基本面业绩回暖 $^ +$ 资金面居民长存到期搬家。从国内基本面看，25-26 年业绩修复的证据愈发清晰，25 年业绩预告预喜率 $3 7 \%$ ，超24 年的 $3 3 . 5 \%$ 。针对26年业绩预测，近两个月分析师上修占比持续提升，伴随着反内卷带来的行业毛销差扩大，我们维持 26年非金融中性（乐观）利润增长 $1 1 \%$ （ $1 7 \%$ ）的判断。从资金面看，近两周宽基ETF已流出超1万亿，但居民长存到期后的存款搬家趋势明显，公募私募发行均创半年新高，其中公募权益产品新成立份额从 25/5的221亿持续升至 $2 6 / 1$ 的696亿；私募备案规模从 25/6 的 501 亿放大至 25/12 的 989 亿。
+把握配置区间，问增长要收益，重视科创 $+ .$ 顺周期年度配置价值。A股投融资定位逆转后，高夏普特征愈发明显，体现在时间分布上涨多跌少，慢牛趋势下更容易以快速回撤完成风险定价。站在年度视角，我们建议把握当下配置区间，春节后即 3 月初全国两会，经济增长目标及十五五规划纲的发布，有望成为风险偏好再度改善的催化剂。从风格看，PPI转正预期带动 EPS接棒流动性，问增长要收益，年度视角看科创 $+ ,$ 顺周期配置价值仍在，科创从算力到应用扩散，算力硬件、储能、AI应用、智能驾驶。顺周期五朵金花紧供给优势明显，关注有色、化工、机械、钢铁、建材。
+# 风险提示：
+1、宏观经济复苏不及预期；  
+2、关税政策超预期，可能对相关产业链及国内出口造成影响；  
+3、历史经验不代表未来：因市场环境等因素变化，历史数据得出的经验可能在未来失效。
+# 策略组团队介绍
+# 组长、首席分析师：姚佩
+中国人民大学金融硕士，曾任东吴证券策略首席分析师、海通证券策略高级分析师，连续四年新财富策略第一团队核心成员之一。在传统策略大势研判、行业比较、主题研究以外，对大类资产、政策取向、市场风格、产业周期、个股特征均有增量研究与发现。
+# 研究员：丁炎晨
+上海交通大学硕士，华中科技大学学士，2023年4月加入华创策略团队，曾任东吴证券策略研究员。目前专注于政策跟踪、个股特征等方面的增量研究。
+# 助理研究员：蔡雨阳
+圣路易斯华盛顿大学金融硕士。2023 年加入华创研究所。
+# 助理研究员：朱冬墨
+上海财经大学经济学学士、硕士。2024年加入华创证券研究所。
+# 助理研究员：周名未
+香港理工大学金融硕士，中央财经大学金融工程学士。2025年加入华创证券研究所。
+华创证券机构销售通讯录  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;地区&lt;/td&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;办公电话&lt;/td&gt;&lt;td&gt;企业邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="10"&gt;北京机构销售部&lt;/td&gt;&lt;td&gt;张昱洁&lt;/td&gt;&lt;td&gt;副总经理、北京机构销售总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;zhangyujie@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张菲菲&lt;/td&gt;&lt;td&gt;北京机构副总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;zhangfeifei@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张婷&lt;/td&gt;&lt;td&gt;北京机构销售副总监&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangting3@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘懿&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;liuyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;侯春钰&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;houchunyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;顾翎蓝&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-63214682&lt;/td&gt;&lt;td&gt;gulinglan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘颖&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;010-66500821&lt;/td&gt;&lt;td&gt;liuying5@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;阎星宇&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;yanxingyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;车一哲&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;cheyizhe@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴昱颖&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wuyuying@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;深圳机构销售部&lt;/td&gt;&lt;td&gt;张娟&lt;/td&gt;&lt;td&gt;副总经理、深圳机构销售总监&lt;/td&gt;&lt;td&gt;0755-82828570&lt;/td&gt;&lt;td&gt;zhangjuan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张嘉慧&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;0755-82756804&lt;/td&gt;&lt;td&gt;zhangjiahui1@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王春丽&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;0755-82871425&lt;/td&gt;&lt;td&gt;wangchunli@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王越&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wangyue5@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪丽燕&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;0755-83715428&lt;/td&gt;&lt;td&gt;wangliyan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;温雅迪&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wenyadi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胡丁琳&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;hudinglin@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;付雅琦&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;fuyaqi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;许馨匀&lt;/td&gt;&lt;td&gt;销售助理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;xuxinyun@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="14"&gt;上海机构销售部&lt;/td&gt;&lt;td&gt;许彩霞&lt;/td&gt;&lt;td&gt;总经理助理、上海机构销售总监&lt;/td&gt;&lt;td&gt;021-20572536&lt;/td&gt;&lt;td&gt;xucaixia@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;祁继春&lt;/td&gt;&lt;td&gt;上海机构销售副总监&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;qijichun@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;黄畅&lt;/td&gt;&lt;td&gt;上海机构销售副总监&lt;/td&gt;&lt;td&gt;021-20572257-2552&lt;/td&gt;&lt;td&gt;huangchang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴俊&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;021-20572506&lt;/td&gt;&lt;td&gt;wujun1@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张佳妮&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;021-20572585&lt;/td&gt;&lt;td&gt;zhangjiani@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;郭静怡&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;guojingyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;蒋瑜&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-20572509&lt;/td&gt;&lt;td&gt;jiangyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;吴菲阳&lt;/td&gt;&lt;td&gt;资深销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wufeiyang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;朱涨雨&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-20572573&lt;/td&gt;&lt;td&gt;zhuzhangyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李凯月&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;likaiyue@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张豫蜀&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;15301633144&lt;/td&gt;&lt;td&gt;zhangyushu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张玉恒&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangyuheng@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘雯&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;liuwen@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;章依若&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhangyiruo@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;广州机构销售部&lt;/td&gt;&lt;td&gt;段佳音&lt;/td&gt;&lt;td&gt;广州机构销售总监&lt;/td&gt;&lt;td&gt;0755-82756805&lt;/td&gt;&lt;td&gt;duanjiayin@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王世韬&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;wangshitaol@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;私募销售组&lt;/td&gt;&lt;td&gt;潘亚琪&lt;/td&gt;&lt;td&gt;机构服务部总经理助理&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;panyaqi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪子阳&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;wangziyang@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;江赛专&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;0755-82756805&lt;/td&gt;&lt;td&gt;jiangsaizhuan@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪戈&lt;/td&gt;&lt;td&gt;副总监&lt;/td&gt;&lt;td&gt;021-20572559&lt;/td&gt;&lt;td&gt;wangge@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;宋丹玛&lt;/td&gt;&lt;td&gt;高级销售经理&lt;/td&gt;&lt;td&gt;021-25072549&lt;/td&gt;&lt;td&gt;songdanyu@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;赵毅&lt;/td&gt;&lt;td&gt;销售经理&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;zhaoyi@hcyjs.com&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 华创行业公司投资评级体系
+# 基准指数说明：
+A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普 500/纳斯达克指数。
+# 公司投资评级说明：
+强推：预期未来 6 个月内超越基准指数 $2 0 \%$ 以上；
+推荐：预期未来 6 个月内超越基准指数 $1 0 \% - 2 0 \%$ ；
+中性：预期未来 6 个月内相对基准指数变动幅度在- $. 1 0 \% - 1 0 \%$ 之间；
+回避：预期未来 6 个月内相对基准指数跌幅在 $1 0 \% - 2 0 \%$ 之间。
+# 行业投资评级说明：
+推荐：预期未来 3-6 个月内该行业指数涨幅超过基准指数 $5 \%$ 以上；
+中性：预期未来 3-6 个月内该行业指数变动幅度相对基准指数 $- 5 \% - 5 \%$ ；
+回避：预期未来 3-6 个月内该行业指数跌幅超过基准指数 $5 \%$ 以上。
+# 分析师声明
+每位负责撰写本研究报告全部或部分内容的分析师在此作以下声明：
+分析师在本报告中对所提及的证券或发行人发表的任何建议和观点均准确地反映了其个人对该证券或发行人的看法和判断；分析师对任何其他券商发布的所有可能存在雷同的研究报告不负有任何直接或者间接的可能责任。
+# 免责声明
+本报告仅供华创证券有限责任公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为客户。
+本报告所载资料的来源被认为是可靠的，但本公司不保证其准确性或完整性。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司在知晓范围内履行披露义务。
+报告中的内容和意见仅供参考，并不构成本公司对具体证券买卖的出价或询价。本报告所载信息不构成对所涉及证券的个人投资建议，也未考虑到个别客户特殊的投资目标、财务状况或需求。客户应考虑本报告中的任何意见或建议是否符合其特定状况，自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。本报告中提及的投资价格和价值以及这些投资带来的预期收入可能会波动。
+本报告版权仅为本公司所有，本公司对本报告保留一切权利。未经本公司事先书面许可，任何机构和个人不得以任何形式翻版、复制、发表、转发或引用本报告的任何部分。如征得本公司许可进行引用、刊发的，需在允许的范围内使用，并注明出处为“华创证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+证券市场是一个风险无时不在的市场，请您务必对盈亏风险有清醒的认识，认真考虑是否进行证券交易。市场有风险，投资需谨慎。
+# 华创证券研究所
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;北京总部&lt;/td&gt;&lt;td&gt;广深分部&lt;/td&gt;&lt;td&gt;上海分部&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地址：北京市西城区锦什坊街26号恒奥中心C座3A&lt;/td&gt;&lt;td&gt;地址：深圳市福田区香梅路1061号中投国际商务中心A座19楼&lt;/td&gt;&lt;td&gt;地址：上海市浦东新区花园石桥路33号花旗大厦12层&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;邮编：100033&lt;/td&gt;&lt;td&gt;邮编：518034&lt;/td&gt;&lt;td&gt;邮编：200120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传真：010-66500801&lt;/td&gt;&lt;td&gt;传真：0755-82027731&lt;/td&gt;&lt;td&gt;传真：021-20572500&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;会议室：010-66500900&lt;/td&gt;&lt;td&gt;会议室：0755-82828562&lt;/td&gt;&lt;td&gt;会议室：021-20572522&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>2026年02月03日
+证券研究报告|财富生态周报
+# ETF及指数产品网格策略周报
+2026/2/3
+分析师：卫以诺
+分析师登记编码：S0890518120001
+电话：021-20321014
+邮箱：weiyinuo@cnhbstock.com
+分析师：程秉哲
+分析师登记编码：S0890522110001
+电话：021-20321297
+邮箱：chengbingzhe@cnhbstock.com
+分析师：薛婧怡
+分析师登记编码：S0890525070001
+电话：021-20321092
+邮箱：xuejingyi@cnhbstock.com
+销售服务电话：
+021-20515355
+# 相关研究报告
+1、《ETF及指数产品网格策略周报—2026/1/27》2026-01-27  
+2、《ETF及指数产品网格策略周报—2026/1/20》2026-01-20   
+3、《ETF及指数产品网格策略周报—2026/1/14》2026-01-14   
+4、《ETF及指数产品网格策略周报—2026/1/6》2026-01-06   
+5、《ETF及指数产品网格策略周报—2025/12/30》2025-12-30
+# 投资要点
+$\spadesuit$ 网格交易策略概述：简单来说，“网格交易”本质上是一种高抛低吸的交易策略。但与依赖判断长期走势的趋势交易不同，网格交易是一种基于价格波动的策略，它不预测市场的具体走势，而是利用价格在一定范围内的自然波动来获取利润，适用于价格频繁波动的市场。在震荡行情中，投资者可以考虑灵活运用网格交易，通过反复多次地赚取相对较小的差价来增强投资收益，待新的方向或市场主线明确之后再进行仓位及策略上的切换。
+$\spadesuit$ 适用网格交易标的特征：1、选择场内标的；2、长期行情稳定；3、交易费用低廉；4、流动性好；5、波动性较大。基于上述特征我们认为，权益型ETF是相对合适做网格交易的标的类型。
+# $\spadesuit$ 本期（2.2-2.6）华宝证券ETF网格策略重点关注标的：
+（1）软件ETF（515230.SH）：捕捉软件自主可控的国产化替代 $+\mathsf{A}$ 应用商业化的发展机遇。“十五五”规划提出，“加快高水平科技自立自强，引领发展新质生产力”“加强原始创新和关键核心技术攻关”。在政策推动下，国产软件替代进程加速，尤其在政务及关键行业领域，为基础软件和工业软件带来广阔的发展空间。与此同时，AI技术高速发展，其应用商业化正从硬件基础建设迈向软件应用落地新阶段。国内外厂商对算力的大量投入，也为AI应用的商业化落地提供了坚实基础。该ETF跟踪中证全指软件指数，全面覆盖从基础信创、垂直行业应用到AI专用及网络安全等软件产业链核心环节的龙头公司，为投资者提供了便捷高效的工具，以把握软件行业在自主可控与AI应用商业化浪潮中的中长期成长机遇。
+（2）机器人50ETF（159559.SZ）：受益于智能制造升级与机器人产业渗透提速的双重动力。据工信部数据统计，2025年全年我国工业机器人与服务机器人累计产量分别达77.3万台与1858.1万台，同比分别增长 $38.95\%$ 、 $76.64\%$ 。短期来看，工业机器人产量数据的高增速构成行业积极催化因素，而全球人口老龄化趋势延续仍是机器人产业不变的中长期发展逻辑。“十五五规划”提出，推动具身智能等未来产业成为新的经济增长点。新一代人工智能技术快速迭代智能制造，以AI大模型、多模态感知、灵巧操控为代表的技术突破，正大幅拓展机器人在商用服务、医疗康复、家庭陪伴等领域的商业化边界，推动机器人从传统工业场景向全社会多维度渗透。“十五五”时期或将成为智能机器人快速发展的重要战略机遇期。
+（3）证券保险ETF易方达（512070.SH）：1月“开门红”短期催化，“金融强国”战略与资本市场改革持续推进对行业构成中长期政策利好。2026年1月A股共20个交易日，其中沪深两市成交额突破3万亿的天数为8日，体现出“春季躁动”行情的火热，也对券商经纪、两融等业务收入直接构成利好。据财联社采访显示，多家保险公司“开门红”销售同样火热，其中尤以分红险为最。券商及保险“开门红”均对行业构成短期催化。2月1日，《求是》杂
+志发表习近平总书记重要文章《走好中国特色金融发展之路，建设金融强国》，强调“金融强国”战略的建设路径。其与资本市场改革持续推进，为证券与保险行业营造了有利的政策环境。全面注册制改革、公募基金三阶段改革方案、中长期资金入市、交易机制优化、“保险+养老”、第三支柱养老保险发展等措施，有望持续引导券商与保险行业中长期高质量发展，并在保障金融稳健运行、推动实体经济高质量发展方面发挥其重要作用。
+$\spadesuit$ 风险提示：国内经济复苏及政策落地不及预期的风险。国际形势超预期演变、地缘风险事件。历史规律可能存在偏差，过去的日历效应不一定能够准确预测未来市场表现。基金的过往业绩及基金经理管理其他产品的历史业绩不代表未来表现。本报告策略模拟回测结果基于对应模型及假设计算，需警惕模型失效的风险，且相关假设可能到这模拟回测结果与真实交易情况不同，仅供研究参考，不构成投资建议。本报告策略模拟回测结果均基于历史数据测试得到，在未来存在失效的可能，不代表基金未来表现，仅供研究参考，不对基金的未来表现构成预测。本报告研究依赖数据可靠性、研究假设和估算方法，结果可能存在偏差。市场有风险，投资需谨慎。
+# 内容目录
+1. 网格交易策略概述 ..... 4  
+2.华宝证券ETF网格策略标的分析 4  
+3. 风险提示 6
+# 图表目录
+图1：软件ETF（515230.SH）网格策略回测收益曲线  
+图2：机器人50ETF（159559.SZ）网格策略回测收益曲线  
+图3：证券保险ETF易方达（512070.SH）网格策略回测收益曲线
+表 1: 本期华宝 ETF 网格策略关注标的
+# 1. 网格交易策略概述
+简单来说，“网格交易”本质上是一种高抛低吸的交易策略。但与依赖判断长期走势的趋势交易不同，网格交易是一种基于价格波动的策略，它不预测市场的具体走势，而是利用价格在一定范围内的自然波动来获取利润，适用于价格频繁波动的市场。在震荡行情中，投资者可以考虑灵活运用网格交易，通过反复多次地赚取相对较小的差价来增强投资收益，待新的方向或市场主线明确之后再进行仓位及策略上的切换。
+适用网格交易标的特征：1、选择场内标的；2、长期行情稳定；3、交易费用低廉；4、流动性好；5、波动性较大。基于上述特征我们认为，权益型ETF是相对合适做网格交易的标的类型。对于更详细的对网格交易策略的阐述，请参考我们2024年12月12日发布的证券研究报告《网格交易策略：震荡市场中的稳健之选——ETF及指数产品网格策略周报》。
+# 2. 华宝证券 ETF 网格策略标的分析
+我们通过对ETF进行筛选，基于流动性、振幅、趋势性、当前价格所处区间、成立时长这五个维度对权益型ETF进行打分，本期适合进行网格交易的标的如下：
+# (1) 软件 ETF (515230.SH)
+捕捉软件自主可控的国产化替代+AI应用商业化的发展机遇。“十五五”规划提出，“加快高水平科技自立自强，引领发展新质生产力”“加强原始创新和关键核心技术攻关”。在政策推动下，国产软件替代进程加速，尤其在政务及关键行业领域，为基础软件和工业软件带来广阔的发展空间。与此同时，AI技术高速发展，其应用商业化正从硬件基础建设迈向软件应用落地新阶段。国内外厂商对算力的大量投入，也为AI应用的商业化落地提供了坚实基础。该ETF跟踪中证全指软件指数，全面覆盖从基础信创、垂直行业应用到AI专用及网络安全等软件产业链核心环节的龙头公司，为投资者提供了便捷高效的工具，以把握软件行业在自主可控与AI应用商业化浪潮中的中长期成长机遇。
+图1：软件ETF（515230.SH）网格策略回测收益曲线  
+![](images/ce2220f3106dd932b4d49f698ca9827da7f9541e552d34736a121ca535411c7c.jpg)  
+资料来源：Wind，华宝证券研究创新部  
+注：回测区间为近120交易日，数据截至2026/1/30；由于数据获取限制，该回测基于每日前复权收盘价进行；该回测假设交易费用为0；回测结果可能与真实交易情况不同；回测结果基于历史数据，不代表未来表现
+# (2） 机器人50ETF（159559.SZ)
+受益于智能制造升级与机器人产业渗透提速的双重动力。据工信部数据统计，2025年全年我国工业机器人与服务机器人累计产量分别达77.3万台与1858.1万台，同比分别增长 $38.95\%$ 、 $76.64\%$ 。短期来看，工业机器人产量数据的高增速构成行业积极催化因素，而全球人口老龄化趋势延续仍是机器人产业不变的中长期发展逻辑。“十五五规划”提出，推动具身智能等未来产业成为新的经济增长点。新一代人工智能技术快速迭代智能制造，以AI大模型、多模态感知、灵巧操控为代表的技术突破，正大幅拓展机器人在商用服务、医疗康复、家庭陪伴等领域的商业化边界，推动机器人从传统工业场景向全社会多维度渗透。“十五五”时期或将成为智能机器人快速发展的重要战略机遇期。
+图2：机器人50ETF（159559.SZ）网格策略回测收益曲线  
+![](images/36e0566af519aca6b5c2ffb923c66d7668c614ea2f3ff038bb306c53fe5e2787.jpg)  
+资料来源：Wind，华宝证券研究创新部  
+注：回测区间为近120交易日，数据截至2026/1/30；由于数据获取限制，该回测基于每日前复权收盘价进行；该回测假设交易费用为0；回测结果可能与真实交易情况不同；回测结果基于历史数据，不代表未来表现
+# (3）证券保险ETF易方达（512070.SH)
+1月“开门红”短期催化，“金融强国”战略与资本市场改革持续推进对行业构成中长期政策利好。2026年1月A股共20个交易日，其中沪深两市成交额突破3万亿的天数为8日，体现出“春季躁动”行情的火热，也对券商经纪、两融等业务收入直接构成利好。据财联社采访显示，多家保险公司“开门红”销售同样火热，其中尤以分红险为最。券商及保险“开门红”均对行业构成短期催化。2月1日，《求是》杂志发表习近平总书记重要文章《走好中国特色金融发展之路，建设金融强国》，强调“金融强国”战略的建设路径。其与资本市场改革持续推进，为证券与保险行业营造了有利的政策环境。全面注册制改革、公募基金三阶段改革方案、中长期资金入市、交易机制优化、“保险+养老”、第三支柱养老保险发展等措施，有望持续引导券商与保险行业中长期高质量发展，并在保障金融稳健运行、推动实体经济高质量发展方面发挥其重要作用。
+图3：证券保险ETF易方达（512070.SH）网格策略回测收益曲线  
+![](images/ce6d75f4636c699bbf59732f0c1b8e9cd9ca18d1638610587f9ac8585c49236a.jpg)  
+资料来源：Wind，华宝证券研究创新部
+注：回测区间为近120交易日，数据截至2026/1/30；由于数据获取限制，该回测基于每日前复权收盘价进行；该回测假设交易费用为0；回测结果可能与真实交易情况不同；回测结果基于历史数据，不代表未来表现
+我们建议投资者使用网格交易策略时，可以选择数只合适的、相关性较低的ETF构成组合，例如可以搭配不同类型的ETF组合，比如“宽基+行业”；或可以搭配不同投资范围的ETF组合，比如“A股+港股”。这样做组合分散的好处除了可以分散风险之外，还可以起到轮动效果，从而提高资金利用率。
+除了上述的ETF标的外，我们本期关注的其余网格策略标的信息如下表所示。想要了解更多具体的网格跟踪策略以及网格交易服务，可以通过联系华宝证券对口销售及服务人员，获取更多内容。
+表 1: 本期华宝 ETF 网格策略关注标的  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;二级分类&lt;/td&gt;&lt;td&gt;细分类别&lt;/td&gt;&lt;td&gt;投资范围&lt;/td&gt;&lt;td&gt;管理公司&lt;/td&gt;&lt;td&gt;成立日期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512070.SH&lt;/td&gt;&lt;td&gt;证券保险 ETF 易方达&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;易方达基金&lt;/td&gt;&lt;td&gt;2014/06/26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512660.SH&lt;/td&gt;&lt;td&gt;军工 ETF&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;国泰基金&lt;/td&gt;&lt;td&gt;2016/07/26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;515230.SH&lt;/td&gt;&lt;td&gt;软件 ETF&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;国泰基金&lt;/td&gt;&lt;td&gt;2021/02/03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159518.SZ&lt;/td&gt;&lt;td&gt;标普油气 ETF&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;td&gt;油气&lt;/td&gt;&lt;td&gt;美股&lt;/td&gt;&lt;td&gt;嘉实基金&lt;/td&gt;&lt;td&gt;2023/11/01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513300.SH&lt;/td&gt;&lt;td&gt;纳斯达克 ETF&lt;/td&gt;&lt;td&gt;宽基&lt;/td&gt;&lt;td&gt;纳斯达克 100&lt;/td&gt;&lt;td&gt;美股&lt;/td&gt;&lt;td&gt;华夏基金&lt;/td&gt;&lt;td&gt;2020/10/22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512200.SH&lt;/td&gt;&lt;td&gt;房地产 ETF&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;南方基金&lt;/td&gt;&lt;td&gt;2017/08/25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159559.SZ&lt;/td&gt;&lt;td&gt;机器人 50ETF&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;td&gt;机器人&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;景顺长城基金&lt;/td&gt;&lt;td&gt;2023/11/30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159256.SZ&lt;/td&gt;&lt;td&gt;创业板软件 ETF 华夏&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;td&gt;软件&lt;/td&gt;&lt;td&gt;A股&lt;/td&gt;&lt;td&gt;华夏基金&lt;/td&gt;&lt;td&gt;2025/07/24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513850.SH&lt;/td&gt;&lt;td&gt;美国 50ETF 易方达&lt;/td&gt;&lt;td&gt;宽基&lt;/td&gt;&lt;td&gt;MSCI 美国 50 指数&lt;/td&gt;&lt;td&gt;美股&lt;/td&gt;&lt;td&gt;易方达基金&lt;/td&gt;&lt;td&gt;2023/11/06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513730.SH&lt;/td&gt;&lt;td&gt;东南亚科技 ETF&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;td&gt;科技&lt;/td&gt;&lt;td&gt;东南亚&lt;/td&gt;&lt;td&gt;华泰柏瑞基金&lt;/td&gt;&lt;td&gt;2023/11/15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159712.SZ&lt;/td&gt;&lt;td&gt;港股通 50ETF&lt;/td&gt;&lt;td&gt;宽基&lt;/td&gt;&lt;td&gt;港股通 50(HKD)&lt;/td&gt;&lt;td&gt;港股&lt;/td&gt;&lt;td&gt;国泰基金&lt;/td&gt;&lt;td&gt;2021/10/27&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，华宝证券研究创新部  
+注：本期策略指标使用的数据截至2026/1/30
+# 3. 风险提示
+国内经济复苏及政策落地不及预期的风险。国际形势超预期演变、地缘风险事件。历史规律可能存在偏差，过去的日历效应不一定能够准确预测未来市场表现。基金的过往业绩及基金
+经理管理其他产品的历史业绩不代表未来表现。本报告策略模拟回测结果基于对应模型及假设计算，需警惕模型失效的风险，且相关假设可能到这模拟回测结果与真实交易情况不同，仅供研究参考，不构成投资建议。本报告策略模拟回测结果均基于历史数据测试得到，在未来存在失效的可能，不代表基金未来表现，仅供研究参考，不对基金的未来表现构成预测。本报告研究依赖数据可靠性、研究假设和估算方法，结果可能存在偏差。市场有风险，投资需谨慎。
+# 分析师承诺
+本人承诺，以勤勉的职业态度，独立、客观地出具本报告，本报告清晰准确地反映本人的研究观点，结论不受任何第三方的授意或影响。本人不曾因，不因，也将不会因本报告中的具体建议或观点而直接或间接收到任何形式的补偿。
+# 风险提示及免责声明
+★华宝证券股份有限公司具有证券投资咨询业务资格。  
+★市场有风险，投资须谨慎。  
+★ 本报告所载的信息均来源于已公开信息，但本公司对这些信息的准确性及完整性不作任何保证。  
+★ 本报告所载的任何建议、意见及推测仅反映本公司于本报告发布当日的独立判断。本公司不保证本报告所载的信息于本报告发布后不会发生任何更新，也不保证本公司做出的任何建议、意见及推测不会发生变化。  
+★在任何情况下，本报告所载的信息或所做出的任何建议、意见及推测并不构成所述证券买卖的出价或询价，也不构成对所述金融产品、产品发行或管理人作出任何形式的保证。在任何情况下，本公司不就本报告中的任何内容对任何投资做出任何形式的承诺或担保。投资者应自行决策，自担投资风险。  
+★本公司秉承公平原则对待投资者，但不排除本报告被他人非法转载、不当宣传、片面解读的可能，请投资者审慎识别、谨防上当受骗。  
+★ 未经本公司事先书面授权任何组织或个人不得对本报告进行任何形式的发布转载、复制。如合法引用、刊发，须注明本公司出处，且不得对本报告进行有悖原意的删节和修改。  
+★ 本报告对基金产品的研究分析不应被视为对所述基金产品的评价结果，本报告对所述基金产品的客观数据展示不应被视为对其排名打分的依据。任何个人或机构不得将我方基金产品研究成果作为基金产品评价结果予以公开宣传或不当引用。
+# 适当性申明
+★根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
+  </si>
+  <si>
+    <t># 资金透视：资金面韧性仍存
+# 华泰研究
+2026 年 2 月 02 日│中国内地
+国内周报
+# 核心观点
+上周 A 股高位震荡，节前风险偏好的制约因素偏多，风险资金相对承压，前期流入意愿较强的交易型资金情绪有所回落，参与交易的投资者人数回落至年初位置，融资资金活跃度为 2025 年 7月中旬以来新低，上周五单日净流出创 2025 年 12 月以来单日净流出最大值。但资金面韧性仍存，汇金持仓占比较高的 ETF上周净流出 3200 亿元，但上周五净流出规模环比周初大幅收窄，此外，配置型资金在上周后半周仓位逆势增强，大股东净减持规模收窄或均表明资金面存在一定韧性。
+# 关注点 1：交易型资金热度回落
+上周市场波动率放大，后半周美联储主席提名引发海外降息预期反复，弱美元逻辑走弱下，前期涨幅较高的黄金、白银资产下跌引发资金撤出拥挤，风险资产承压，交易型资金情绪有所回落：1）融资资金活跃度回落至 2025年 7 月中旬的位置，周五单日净流出近 250 亿元，为 2025 年 12 月以来单日净流出最大值；2）以腾落指数衡量市场赚钱效应高位回落至年初左右的位置，参与交易的投资者人数也同步回落至年初位置。
+# 关注点 2：资金面仍存韧性
+但我们认为资金面或仍存在一定韧性，配置型资金在上周后半周逆势增强的意愿有所增强：1）测算的基金仓位在周五出现仓位逆势回升迹象，其主要加仓中市值股票方向；2）汇金持股占比较高的 ETF 上周累计净流出 3200亿元，环比上上周（-3597 亿元）基本持平，但趋势上来看，后半周净流出有所收窄，上周五累计净流出仅为 138 亿元，环比周初净流出均值（765亿元）大幅收窄；3）大股东净减持同步收窄，上周减持规模为 82 亿元，相比 1月以来 168 亿的减持均值大幅收窄。
+# 各类资金边际变化一览
+散户资金：上周散户资金净流出 1030.66 亿元，资金净流入有色金属行业，净流出医药生物、计算机、机械设备等方向；
+杠杆资金：上周融资资金流出 74.62 亿元，融资交易活跃度回落至 9.64%，市场平均担保比例环比小幅回落至 289.38%，结构上，融资资金净流入有色金属、建筑及通信等板块，净流出电子、计算机及国防军工等板块；
+公募基金&amp;ETF：上周各类基金报会数目环比上升，以混合型、ETF基金为主；普通型、偏股型基金权益仓位小幅回落，新发强度小幅回升；上周 ETF资金净流出 3356.46 亿元，其中宽基 ETF 净流出 3879.85 亿元，分板块来看，周期、科技板块净流入规模居前，行业中有色金属、基础化工、电子等行业净流入居前；
+外资：以 EPFR 统计的配置型外资中，1 月 21 日-1 月 28 日，配置型外资净流入 26.4 亿元，其中主动配置型外资流入 16.1 亿元，被动配置型外资净流入 10.4 亿元。
+风险提示：1）估算持仓模型失效；2）数据统计口径有误。
+何康，PhD 研究员
+SAC No. S0570520080004 hekang@htsc.com
+SFC No. BRB318 +(86) 21 2897 2202
+王伟光* 研究员
+SAC No. S0570523040001 wangweiguang@htsc.com
++(86) 21 2897 2228
+闫萌* 研究员
+SAC No. S0570525120001 yanmeng@htsc.com
++(86) 21 2897 2228
+# 正文目录
+# 每周资金面概述...
+各类主力资金行为周观察 ..  
+散户资金上周净流出 1031 亿元. .4  
+上周融资资金净流出 75 亿元.. 5  
+公募新发强度回升，存量公募基金仓位环比回落. .6  
+上周 ETF净赎回 200 亿份，宽基 ETF净流出约 3880 亿元.  
+11 月私募证券备案数目接近年内新高. .8  
+长线资金入市比例回升. .8  
+北向资金交易额环比回升，主动配置型外资持续净流入. 9
+# 资金流向周观察.. ..10
+上周产业资本净减持.. .10  
+上周一级市场募资金额环比回升. .12
+QDII ETF 上周净流入 12 亿元，溢价率环比回升. .13
+# 风险提示.... ..13
+# 图表目录
+图表 1： 上周，以小单交易额刻画的散户资金净流出 1031 亿元..  
+图表 2： 上周散户资金净流入有色金属..  
+图表 3： 1月中旬以来散户再度转为净流出 .4  
+图表 4： 上周中国参与交易的投资者人数于后半周有所回落 .  
+图表 5： 上周融资资金净流出 75亿元.   
+图表 6： 融资余额环比回落. 5  
+图表 7： 上周融资资金周活跃度为 $9 . 6 \%$ . 5  
+图表 8： 两融市场平均担保比例为 $289 \%$ ，环比回落. 5  
+图表 9： 融资担保物中证券市值与现金比有所下降. .5  
+图表 10： 上周资金净流入有色金属、建筑、通信板块.  
+图表 11： 上周新发偏股型公募基金 415 亿份. 6  
+图表 12： 上周新增 26 支混合型产品报会.. 6  
+图表 13： 基金仓位小幅回落. .6  
+图表 14： 11 月共有 65 只基金清算. .6  
+图表 15： 上周混合型基金报会数目环比回升.. .6  
+图表 16： 上周股票型 ETF净赎回 200 亿份...  
+图表 17： 上周 ETF 净流出约 3356 亿元..  
+图表 18： 上周股票型 ETF净流入科技、周期板块.  
+图表 19： 上周 ETF资金主要净流出沪深 300 等.  
+图表 20： 上周行业 ETF净流入有色金属、基础化工、电子等板块.  
+图表 21： 12 月华润信托统计私募股票多头平均仓位为 $6 4 . 4 \%$ .. 8  
+图表 22： 11 月私募证券备案数目接近年内新高. .8
+图表 23： 上周私募调研方向：机械设备、电子、计算机居前. .8  
+图表 24： 上周私募基金备案数量回升.. .8  
+图表 25： 2025Q3 长线险资入市比例继续回升（单位，%） .8  
+图表 26： 上周北向资金成交额回升至 3891 亿元 . .9  
+图表 27： 2016 年 6 月至今，海外主动性基金累计流入 A、港股金额. C  
+图表 28： 上期配置型外资净流入 26.4 亿元. 9  
+图表 29： 主动配置型外资对 A股仓位回落.. 9  
+图表 30： 上周二级市场重要股东净减持 82 亿元. ..10  
+图表 31： 本周周度解禁市值 913 亿元. ...10  
+图表 32： 上周回购金额为 31 亿元.. ...10  
+图表 33： 上周回购预案数量为 55例. ...10  
+图表 34： 上周主动回购金额为 22亿元. ...10  
+图表 35： 上周回购预案金额为 3亿元. ..10  
+图表 36： 上周电子、交通运输、传媒等行业回购额居前. 11  
+图表 37： 上周银行、钢铁增持额居前.. 11  
+图表 38： 上周交通运输、医药生物等回购/流通市值居前. .11  
+图表 39： 上周银行、钢铁增持额/流通市值居前. 11  
+图表 40： 上周新增 IPO 4 家.. .12  
+图表 41： 上周新增定增 6支. .12  
+图表 42： 上周新增可转债 2 支. .12  
+图表 43： 上周 QDII ETF 溢价率回升. ..13  
+图表 44： 上周 QDII ETF 净流入 42 亿元.. .13  
+图表 45： 上周 QDII ETF主要净流入美国. .13
+# 每周资金面概述
+# 各类主力资金行为周观察
+散户资金上周净流出 1031 亿元
+散户资金上周净流出 1031 亿元。 $\textcircled{1}$ 数量角度，12 月新增开户数 259 万户，环比 2025 年11 月有所回升； $\textcircled{2}$ 流量角度，2026 年 1 月中旬以来，散户资金再度转为净流出； $\textcircled{3}$ 方向角度，上周散户资金净流入有色金属行业，净流出医药生物、计算机、机械设备等方向。
+图表1： 上周，以小单交易额刻画的散户资金净流出 1031亿元  
+![](images/5068f022f3fc57a3586dcf65c35335c7bfa3caab503e9b35f1189abd44ce21a9.jpg)  
+注：深蓝色代表净流入，浅蓝色代表净流出  
+资料来源：Choice，Wind，华泰研究
+图表2： 上周散户资金净流入有色金属  
+![](images/dff2c054a3c782a3f4ff5e7a5958c4777d73ddc419efe4bfc9af78922825b3bb.jpg)  
+资料来源：同花顺 iFind，华泰研究
+图表3： 1月中旬以来散户再度转为净流出  
+![](images/b35219da9f55c55a253569eec924f11ac3a67efe1802ed7ebfa66207cdcada78.jpg)  
+资料来源：Choice，Wind，华泰研究
+图表4： 上周中国参与交易的投资者人数于后半周有所回落  
+![](images/8655d999133719388ccdfdd3ea9d0e28a450ce6d7e92ecf0a90f0b1f5178867f.jpg)  
+资料来源：Wind，华泰研究
+# 上周融资资金净流出 75亿元
+融资资金上周净流出 75 亿元，融资交易活跃度环比小幅回落。 $\textcircled{1}$ 上周融资资金净流出 75亿元， $\textcircled{2}$ 融资交易活跃度为 $9 . 6 \%$ ， $\textcircled{3}$ 上周市场平均担保比例为 $289 \%$ ，环比小幅下降， $\textcircled{4}$ 结构上，融资资金净流入有色金属、建筑、通信等板块，净流出电子、计算机、国防军工等板块。
+图表5： 上周融资资金净流出 75 亿元  
+![](images/dea37601b64121d84d7704c5ab91a06a51cb267ee60797eb47fd47e98ac8f55e.jpg)  
+资料来源：Wind，华泰研究
+图表6： 融资余额环比回落  
+![](images/cb24a6681ebeb663092e888c14bbf9bf6ceabd814642144030567552b6a3e1a3.jpg)  
+资料来源：Wind，华泰研究
+图表7： 上周融资资金周活跃度为 $9 . 6 \%$   
+![](images/2d00f787c66b6b89b03c1516446b9ec274f64696096e15e2a61f9bb058f8dc42.jpg)  
+资料来源：Wind，华泰研究
+图表8： 两融市场平均担保比例为 $289 \%$ ，环比回落  
+![](images/e5f45c358bc27ccc4d448896b4099778803c9ab8980e9976bfafa127c3564448.jpg)  
+资料来源：Wind，华泰研究
+图表9： 融资担保物中证券市值与现金比有所下降  
+![](images/7b4716737dea406f30f48d1be4c223bdbbd5bc425c064999ce5edb66a643e767.jpg)  
+资料来源：Wind，华泰研究
+图表10： 上周资金净流入有色金属、建筑、通信板块  
+![](images/731eb1f7b97118f8d0d70d36c60582edafda09d12ba66ae24719f8f9adb82648.jpg)  
+资料来源：Wind，华泰研究
+公募新发强度回升，存量公募基金仓位环比回落
+上周新成立偏股型基金 415 亿份，新发强度环比小幅回升，存量基金中，股票/混合基金权益仓位环比小幅回落。
+图表11： 上周新发偏股型公募基金 415 亿份  
+![](images/7e28018e572e066061df713c7183b3744719e58f12a67fb07be12599d3717898.jpg)  
+资料来源：Wind，华泰研究
+图表12： 上周新增 26支混合型产品报会  
+![](images/8c64f46f19032d06e80731f693610a70908112e306a83079c874c46beb86e018.jpg)  
+资料来源：iFind，华泰研究
+图表13： 基金仓位小幅回落  
+![](images/ad158d3b7794869b903b363d32cc6bf334d587b4bdddbae83a44d1373371b904.jpg)  
+资料来源：Wind，华泰研究
+图表14： 11月共有 65只基金清算  
+![](images/2eff0d351c66a1bf364a11905d9a25947f0bdf78013864664b2f65b8eb160242.jpg)  
+资料来源：Wind，华泰研究
+图表15： 上周混合型基金报会数目环比回升  
+![](images/6e7474b5c9986c9617c01372c4f6a140bf94a73fcc4827dfbe6ccf3412c961d6.jpg)  
+资料来源：Wind，华泰研究
+# 上周 ETF净赎回 200亿份，宽基 ETF净流出约 3880 亿元
+上周股票型 ETF 净赎回 200 亿份，净流出 3356 亿元，其中宽基 ETF 净流出 3880 亿元，净流出扩大。分板块来看，周期、科技板块净流入规模居前，行业中有色金属、基础化工、电子等行业净流入居前。
+图表16： 上周股票型 ETF净赎回 200亿份  
+![](images/80023ec1a1bd6dbaffc5a1056ada28814c36e1c9846b049c74e487fccdb5f77c.jpg)  
+资料来源：Wind，华泰研究
+图表17： 上周 ETF净流出约 3356亿元  
+![](images/fc224cdedfead94a61df08468230d2d4da6c3db16c8aeeeeff4f9e2225318e67.jpg)  
+资料来源：Wind，华泰研究
+图表18： 上周股票型 ETF净流入科技、周期板块  
+![](images/884760b0b02429c61a9a4bde6feea77cc4d24e289c00c5799cb8ea3755d29dd0.jpg)  
+资料来源：Wind，华泰研究
+图表19： 上周 ETF资金主要净流出沪深 300等  
+![](images/ac90268aed0262f58cc679ad2bc2225d3395f92bb72f38f4a870950ed20c6bf3.jpg)  
+资料来源：Wind，华泰研究
+图表20： 上周行业 ETF净流入有色金属、基础化工、电子等板块  
+![](images/f6ac41ec3e12ebf4cea7ec764a16c11d3a46a7bcc6f989d0f5cb425b2849aeb6.jpg)  
+资料来源：Wind，华泰研究
+# 11 月私募证券备案数目接近年内新高
+华润信托统计数据显示，截至 12 月 31 日，私募股票仓位指数达 $6 4 . 4 \%$ ，较上月环比有所回升。从基金证券协会官网数据统计来看，上周私募证券备案 115 支，环比有所回落。
+图表21： 12 月华润信托统计私募股票多头平均仓位为 $6 4 . 4 \%$   
+![](images/da80e852d28a822b5c0a766158713051b1919d18d3279dfe4e822688a40f0ac2.jpg)  
+资料来源：华润信托官网，华泰研究
+图表22： 11月私募证券备案数目接近年内新高  
+![](images/cf9dc0b3bb9c610c2af1a3abdc91b519813e563a0e98a20324ffe9c5235d1165.jpg)  
+资料来源：证券协会官网，华泰研究
+图表23： 上周私募调研方向：机械设备、电子、计算机居前  
+![](images/fa9469b4e4eb8509b97ebd67a0780ce7212dc423f3351fcef0980ba4c8883f31.jpg)  
+资料来源：华润信托官网，华泰研究
+图表24： 上周私募基金备案数量回升  
+![](images/a76af38394fc7b52499b2dc64a1a00fed6967534002c241d3f6624ca64aeaa80.jpg)  
+资料来源：证券协会官网，华泰研究
+# 长线资金入市比例回升
+图表25： 2025Q3长线险资入市比例继续回升（单位，%）  
+![](images/17296f9994e152b06569a67c2c46eb3d17fa84b4e172ef8dcd0f0700e71796f2.jpg)  
+资料来源：Wind，华泰研究
+# 北向资金交易额环比回升，主动配置型外资持续净流入
+上周北向资金日均交易额回升至 3891 亿元。以 EPFR 统计的配置型外资中，1 月 21 日-1月 28 日，配置型外资净流入 26.4 亿元，其中主动配置型外资净流入 16.1 亿元，被动配置型外资净流入 10.4 亿元。
+图表26： 上周北向资金成交额回升至 3891亿元  
+![](images/533313a6a80baede962eec5c700b6de17c919725815924c4866ed68ed4e2d164.jpg)  
+资料来源：Wind，华泰研究
+图表27： 2016年 6月至今，海外主动性基金累计流入 A、港股金额  
+![](images/616c01785ddc94b8980662946f1f53a44e096c182dae54da224771bfa240fc77.jpg)  
+资料来源：Wind，华泰研究
+图表28： 上期配置型外资净流入 26.4亿元  
+![](images/dd6c791ad848c08ce60f3d8bd4bfc1f41a90c46a506f5f4e3a66a7bcdd349705.jpg)  
+资料来源：Wind，华泰研究
+图表29： 主动配置型外资对 A股仓位回落  
+![](images/2ed5a0f705472441bbb7a9e8adecf5a1649d886ca308860ae5deafa89394e252.jpg)  
+资料来源：EPFR，华泰研究
+# 资金流向周观察
+# 上周产业资本净减持
+上周二级市场重要股东净减持 82 亿元。解禁市值方面，本周解禁市值为 913 亿元，供给端压力环比回升。回购方面，上周二级市场股票回购金额 31 亿元，回购预案金额为 3 亿元，回购金额环比上上周小幅回落。
+图表30： 上周二级市场重要股东净减持 82 亿元  
+![](images/5393339f3b5315837debe4a8aa58dba871cf9f4498346a19783d62599ae078a4.jpg)  
+资料来源：Wind，华泰研究
+图表31： 本周周度解禁市值 913 亿元  
+![](images/c69269d6f4d19d1691f42b1feb91b01952b31ac2bf834c3a27383443556eed72.jpg)  
+资料来源：Wind，华泰研究
+图表32： 上周回购金额为 31 亿元  
+![](images/fbd751bf93f207c4eea7a52c21b312c6ff294f9bee2c402c12fa8d36110d4d96.jpg)  
+资料来源：Wind，华泰研究
+图表33： 上周回购预案数量为 55例  
+![](images/141c89f74b88953f31c359fcebaad197baadc59332a0de3e33c77d3602da8c32.jpg)  
+资料来源：Wind，华泰研究
+图表34： 上周主动回购金额为 22亿元  
+![](images/f9fb15cb5e33cc6febbbbb1d73694818ae5890628f6f9b4923d7f3d726a3c743.jpg)  
+资料来源：Wind，华泰研究
+图表35： 上周回购预案金额为 3亿元  
+![](images/118701e4be5118305e1815d4eaf9d9d5e1fe966aa30862f72343d6331051aa69.jpg)  
+资料来源：Wind，华泰研究
+图表36： 上周电子、交通运输、传媒等行业回购额居前  
+![](images/991259c3be688e75fe6b841bc859e3d6bac0c5f09463e9bae27c3f68ab8b0f24.jpg)  
+资料来源：Wind，华泰研究
+图表37： 上周银行、钢铁增持额居前  
+![](images/ddb243e2cb3af8b9df12646e180169271da846b0c9dbfa3ff2be7748c7ee8648.jpg)  
+资料来源：Wind，华泰研究
+图表38： 上周交通运输、医药生物等回购/流通市值居前  
+![](images/f1329b690730b1e43327d9b52e5a858f26076dd1c1fce2f594625c793f7784bb.jpg)  
+资料来源：Wind，华泰研究
+图表39： 上周银行、钢铁增持额/流通市值居前  
+![](images/86b3963dde60dc4d2d85ad242b9da1f395c4c598037cb0f80f473886a0af2ab1.jpg)  
+资料来源：Wind，华泰研究
+# 上周一级市场募资金额环比回升
+上周一级市场募资金额环比回升。上周新增 IPO 4 家，首发募集资金 55.5 亿元；上周新增定增 6支，募资 45.5 亿元，新增可转债 2支，募资 11.5 亿元。
+图表40： 上周新增 IPO 4家  
+![](images/e09d348a69875a3928c6d66302e42193c9f7bee1126a87e9477e8aedbb077805.jpg)  
+资料来源：Wind，华泰研究
+图表41： 上周新增定增 6支  
+![](images/c14603a99a93771a717833888b979d7dbcf758f3241650a4a7ba4be1306af43e.jpg)  
+资料来源：Wind，华泰研究
+图表42： 上周新增可转债 2支  
+![](images/e371571e1c42c32b668158744f57217ba285f0803e4d4917f76227e574c3fe36.jpg)  
+资料来源：Wind，华泰研究
+# QDII ETF上周净流入 12亿元，溢价率环比回升
+QDII ETF 上周净流入 12 亿元，主要净流入美国。从溢价率来看，QDII ETF 溢价率环比回升。
+图表43： 上周 QDII ETF 溢价率回升  
+![](images/ac83d0cc3488767a25f26e279c3eb8997829d4ee238b9a10a0aaf91991f59f79.jpg)  
+资料来源：Wind，华泰研究
+图表44： 上周 QDII ETF 净流入 42 亿元  
+![](images/811834a273d514302b19ec68a570c1b51f05742cdacdcd421daf3c4ab16bcfbc.jpg)  
+资料来源：Wind，华泰研究
+图表45： 上周 QDII ETF 主要净流入美国  
+![](images/530fa24f022257b5476d6e71953e77efd86d5dec780ad5682ee7dddbc4d04131.jpg)  
+资料来源：Wind，华泰研究
+# 风险提示
+估算持仓模型失效：以基金日收益率为因变量，行业指数日收益率为自变量，拟合线性回归模型，估算基金持仓。若估算模型失效，则相关指标对于微观流动性的解释变差。
+数据统计口径有误：若所采用数据的统计口径出现偏差，将引发相应数据的代表性及准确性不足风险。
+# 免责声明
+# 分析师声明
+本人，何康、王伟光、闫萌，兹证明本报告所表达的观点准确地反映了分析师对标的证券或发行人的个人意见；彼以往、现在或未来并无就其研究报告所提供的具体建议或所表迖的意见直接或间接收取任何报酬。请注意，标*的人员并非香港证券及期货事务监察委员会的注册持牌人，不可在香港从事受监管活动。
+# 一般声明及披露
+本报告由华泰证券股份有限公司或其关联机构制作，华泰证券股份有限公司和其关联机构统称为“华泰证券”(华泰证券股份有限公司已具备中国证监会批准的证券投资咨询业务资格) 。本报告所载资料是仅供接收人的严格保密资料。本报告仅供华泰证券及其客户和其关联机构使用。华泰证券不因接收人收到本报告而视其为客户。
+本报告基于华泰证券认为可靠的、已公开的信息编制，但华泰证券对该等信息的准确性及完整性不作任何保证。
+本报告所载的意见、评估及预测仅反映报告发布当日的观点和判断。在不同时期，华泰证券可能会发出与本报告所载意见、评估及预测不一致的研究报告。同时，本报告所指的证券或投资标的的价格、价值及投资收入可能会波动。以往表现并不能指引未来，未来回报并不能得到保证，并存在损失本金的可能。华泰证券不保证本报告所含信息保持在最新状态。华泰证券对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+华泰证券（华泰证券（美国）有限公司除外）不是 FINRA 的注册会员，其研究分析师亦没有注册为 FINRA 的研究分析师/不具有 FINRA 分析师的注册资格。
+华泰证券力求报告内容客观、公正，但本报告所载的观点、结论和建议仅供参考，不构成购买或出售所述证券的要约或招揽。该等观点、建议并未考虑到个别投资者的具体投资目的、财务状况以及特定需求，在任何时候均不构成对客户私人投资建议。投资者应当充分考虑自身特定状况，并完整理解和使用本报告内容，不应视本报告为做出投资决策的唯一因素。对依据或者使用本报告所造成的一切后果，华泰证券及作者均不承担任何法律责任。任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+除非另行说明，本报告中所引用的关于业绩的数据代表过往表现，过往的业绩表现不应作为日后回报的预示。华泰证券不承诺也不保证任何预示的回报会得以实现，分析中所做的预测可能是基于相应的假设，任何假设的变化可能会显著影响所预测的回报。
+华泰证券及作者在自身所知情的范围内，与本报告所指的证券或投资标的不存在法律禁止的利害关系。在法律许可的情况下，华泰证券可能会持有报告中提到的公司所发行的证券头寸并进行交易，为该公司提供投资银行、财务顾问或者金融产品等相关服务或向该公司招揽业务。
+华泰证券的销售人员、交易人员或其他专业人士可能会依据不同假设和标准、采用不同的分析方法而口头或书面发表与本报告意见及建议不一致的市场评论和/或交易观点。华泰证券没有将此意见及建议向报告所有接收者进行更新的义务。华泰证券的资产管理部门、自营部门以及其他投资业务部门可能独立做出与本报告中的意见或建议不一致的投资决策。投资者应当考虑到华泰证券及/或其相关人员可能存在影响本报告观点客观性的潜在利益冲突。投资者请勿将本报告视为投资或其他决定的唯一信赖依据。有关该方面的具体披露请参照本报告尾部。
+本报告并非意图发送、发布给在当地法律或监管规则下不允许向其发送、发布的机构或人员，也并非意图发送、发布给因可得到、使用本报告的行为而使华泰证券违反或受制于当地法律或监管规则的机构或人员。
+本报告版权仅为华泰证券所有。未经华泰证券书面许可，任何机构或个人不得以翻版、复制、发表、引用或再次分发他人(无论整份或部分)等任何形式侵犯华泰证券版权。如征得华泰证券同意进行引用、刊发的，需在允许的范围内使用，并需在使用前获取独立的法律意见，以确定该引用、刊发符合当地适用法规的要求，同时注明出处为“华泰证券研究所”，且不得对本报告进行任何有悖原意的引用、删节和修改。华泰证券保留追究相关责任的权利。所有本报告中使用的商标、服务标记及标记均为华泰证券的商标、服务标记及标记。
+# 中国香港
+本报告由华泰证券股份有限公司或其关联机构制作,在香港由华泰金融控股（香港）有限公司向符合《证券及期货条例》及其附属法律规定的机构投资者和专业投资者的客户进行分发。华泰金融控股（香港）有限公司受香港证券及期货事务监察委员会监管，是华泰国际金融控股有限公司的全资子公司，后者为华泰证券股份有限公司的全资子公司。在香港获得本报告的人员若有任何有关本报告的问题,请与华泰金融控股（香港）有限公司联系。
+# 香港-重要监管披露
+• 华泰金融控股（香港）有限公司的雇员或其关联人士没有担任本报告中提及的公司或发行人的高级人员。  
+• 有关重要的披露信息，请参华泰金融控股（香港）有限公司的网页 https://www.htsc.com.hk/stock_disclosure其他信息请参见下方 “美国-重要监管披露”。
+# 美国
+在美国本报告由华泰证券（美国）有限公司向符合美国监管规定的机构投资者进行发表与分发。华泰证券（美国）有限公司是美国注册经纪商和美国金融业监管局（FINRA）的注册会员。对于其在美国分发的研究报告，华泰证券（美国）有限公司根据《1934 年证券交易法》（修订版）第 15a-6 条规定以及美国证券交易委员会人员解释，对本研究报告内容负责。华泰证券（美国）有限公司联营公司的分析师不具有美国金融监管（FINRA）分析师的注册资格，可能不属于华泰证券（美国）有限公司的关联人员，因此可能不受 FINRA 关于分析师与标的公司沟通、公开露面和所持交易证券的限制。华泰证券（美国）有限公司是华泰国际金融控股有限公司的全资子公司，后者为华泰证券股份有限公司的全资子公司。任何直接从华泰证券（美国）有限公司收到此报告并希望就本报告所述任何证券进行交易的人士，应通过华泰证券（美国）有限公司进行交易。
+# 美国-重要监管披露
+• 分析师何康、王伟光、闫萌本人及相关人士并不担任本报告所提及的标的证券或发行人的高级人员、董事或顾问。分析师及相关人士与本报告所提及的标的证券或发行人并无任何相关财务利益。本披露中所提及的“相关人士”包括 FINRA 定义下分析师的家庭成员。分析师根据华泰证券的整体收入和盈利能力获得薪酬，包括源自公司投资银行业务的收入。  
+• 华泰证券股份有限公司、其子公司和/或其联营公司, 及/或不时会以自身或代理形式向客户出售及购买华泰证券研究所覆盖公司的证券/衍生工具，包括股票及债券（包括衍生品）华泰证券研究所覆盖公司的证券/衍生工具，包括股票及债券（包括衍生品）。  
+• 华泰证券股份有限公司、其子公司和/或其联营公司, 及/或其高级管理层、董事和雇员可能会持有本报告中所提到的任何证券（或任何相关投资）头寸，并可能不时进行增持或减持该证券（或投资）。因此，投资者应该意识到可能存在利益冲突。
+# 新加坡
+华泰证券（新加坡）有限公司持有新加坡金融管理局颁发的资本市场服务许可证，可从事资本市场产品交易，包括证券、集体投资计划中的单位、交易所交易的衍生品合约和场外衍生品合约，并且是《财务顾问法》规定的豁免财务顾问，就投资产品向他人提供建议，包括发布或公布研究分析或研究报告。华泰证券（新加坡）有限公司可能会根据《财务顾问条例》第 32C 条的规定分发其在华泰证券内的外国附属公司各自制作的信息/研究。本报告仅供认可投资者、专家投资者或机构投资者使用，华泰证券（新加坡）有限公司不对本报告内容承担法律责任。如果您是非预期接收者，请您立即通知并直接将本报告返回给华泰证券（新加坡）有限公司。本报告的新加坡接收者应联系您的华泰证券（新加坡）有限公司关系经理或客户主管，了解来自或与所分发的信息相关的事宜。
+# 评级说明
+投资评级基于分析师对报告发布日后 6 至 12个月内行业或公司回报潜力（含此期间的股息回报）相对基准表现的预期（A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普 500 指数，台湾市场基准为台湾加权指数，日本市场基准为日经 225 指数，新加坡市场基准为海峡时报指数，韩国市场基准为韩国有价证券指数，英国市场基准为富时 100 指数，德国市场基准为 DAX 指数），具体如下：
+# 行业评级
+增持：预计行业股票指数超越基准
+中性：预计行业股票指数基本与基准持平
+减持：预计行业股票指数明显弱于基准
+# 公司评级
+买入：预计股价超越基准 15%以上
+增持：预计股价超越基准 5%~15%
+持有：预计股价相对基准波动在-15%~5%之间
+卖出：预计股价弱于基准 15%以上
+暂停评级：已暂停评级、目标价及预测，以遵守适用法规及/或公司政策
+无评级：股票不在常规研究覆盖范围内。投资者不应期待华泰提供该等证券及/或公司相关的持续或补充信息
+# 法律实体披露
+中国：华泰证券股份有限公司具有中国证监会核准的“证券投资咨询”业务资格，经营许可证编号为：91320000704041011J
+香港：华泰金融控股（香港）有限公司具有香港证监会核准的“就证券提供意见”业务资格，经营许可证编号为：AOK809
+美国：华泰证券（美国）有限公司为美国金融业监管局（FINRA）成员，具有在美国开展经纪交易商业务的资格，经营业务许可编号为：CRD#:298809/SEC#:8-70231
+新加坡：华泰证券（新加坡）有限公司具有新加坡金融管理局颁发的资本市场服务许可证，并且是豁免财务顾问，经营许可证编号为：202233398E
+# 华泰证券股份有限公司
+# 南京
+南京市建邺区江东中路228号华泰证券广场1号楼/邮政编码：210019
+电话：86 25 83389999/传真：86 25 83387521
+电子邮件：ht-rd@htsc.com
+# 深圳
+深圳市福田区益田路5999 号基金大厦10 楼/邮政编码：518017
+电话：86 755 82493932/传真：86 755 82492062
+电子邮件：ht-rd@htsc.com
+# 华泰金融控股（香港）有限公司
+香港中环皇后大道中 99号中环中心 53楼
+电话：+852-3658-6000/传真：+852-2567-6123
+电子邮件：research@htsc.com
+http://www.htsc.com.hk
+# 华泰证券（美国）有限公司
+美国纽约公园大道 280号 21楼东（纽约 10017）
+电话：+212-763-8160/传真：+917-725-9702
+电子邮件: Huatai@htsc-us.com
+http://www.htsc-us.com
+# 华泰证券（新加坡）有限公司
+滨海湾金融中心 1 号大厦, #08-02, 新加坡 018981
+电话： $+ 6 5$ 68603600
+传真： $+ 6 5$ 65091183
+https://www.htsc.com.sg
+©版权所有2026年华泰证券股份有限公司
+# 北京
+北京市西城区太平桥大街丰盛胡同28号太平洋保险大厦A座18层/
+邮政编码：100032
+电话：86 10 63211166/传真：86 10 63211275
+电子邮件：ht-rd@htsc.com
+# 上海
+上海市浦东新区东方路18 号保利广场E 栋23 楼/邮政编码：200120
+电话：86 21 28972098/传真：86 21 28972068
+电子邮件：ht-rd@htsc.com</t>
+  </si>
+  <si>
+    <t># 双融日报
+--鑫融讯
+分析师：万蓉 S1050511020001
+wanrong@cfsc.com.cn
+![](images/e1325d3ab03b3a12247f46e5db2e5943b038dfd1492f188ef5ca8a6ede1b771c.jpg)  
+市场情绪：28 分（较冷）
+最近一年大盘走势  
+![](images/98fda0dffc9e2206bc6e1cb14cd8f0b2c2c17dda23b9a612377a67ade9517a36.jpg)  
+资料来源：Wind，华鑫证券研究
+# 相关研究
+1、《双融日报》2026-02-02  
+2、《双融日报》2026-01-30  
+3、《双融日报》2026-01-29
+# ▌ 华鑫市场情绪温度指标：（较冷）
+华鑫市场情绪温度指标显示，昨日市场情绪综合评分为28 分，市场情绪处于“较冷”。历史市场情绪趋势变化可参考图表 1
+# ▌ 热点主题追踪
+# 今日热点主题：电网设备、银行、消费
+1、电网设备主题：全球 AI 数据中心（AIDC）耗电量巨大，催生了对高功率、高稳定性变压器等核心电力设备的刚性需求。目前全球供需严重失衡，美国市场交货周期已长达 127周。与此同时，国内“十五五”期间，国家电网 4 万亿元的巨额投资将重点投向特高压、智能化配电网等新型电力系统，为行业带来了明确的长期订单支撑。相关标的：中国西电（601179）、特变电工（600089）
+2、银行主题：银行股具有高股息特性，如中证银行指数的股息率高达 $6 . 0 2 \%$ ，显著高于 10 年期国债收益率。在经济增速放缓和市场波动加大时，银行股凭借稳定的分红能力，成为险资、社保等长期资金的重要配置标的。相关标的：农业银行（601288）、宁波银行（002142）
+3、消费主题：作为“十五五”规划的开局之年，2026 年宏观政策明确将扩大内需、促进消费置于核心，市场对此抱有积极的预期。与此同时，消费市场本身正经历深刻变迁，呈现出以“情绪价值”（黄金珠宝悦己消费）、“极致质价比”（量贩零食与折扣店）及“效率革新”（AI 电商与品牌出 海 ） 为 代 表 的 三 大 新 趋 势 。 相 关 标 的 ： 永 辉 超 市（601933）、王府井（600859）
+# 风险提示
+宏观经济意外下滑、地缘政治风险、流动性收紧超预期、行业政策低于预期。
+根据我们华鑫市场情绪温度指标监控显示：当前市场情绪综合评分为 28 分，市场情绪处于“较冷”（指标含义可参考备注 5）。随着外围市场波动加剧，市场进入整理阶段，参考近一个月的行情，我们发现当情绪值低于或接近 50 分时，市场将获得一定的支撑，而当情绪值高于 80 分时，将出现一定的阻力。
+图表 1: 华鑫市场情绪温度指标  
+![](images/c0a9a42b1a47f0da038db45aa2cf9ab97d95471c420c25a467c5e218e379c94b.jpg)  
+资料来源：Wind，华鑫证券研究
+图表 2: 主力资金前一交易日净流入前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;主力净流入额(万元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002471.SZ&lt;/td&gt;&lt;td&gt;中超控股&lt;/td&gt;&lt;td&gt;143,776.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;71,583.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300476.SZ&lt;/td&gt;&lt;td&gt;胜宏科技&lt;/td&gt;&lt;td&gt;67,368.52&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002149.SZ&lt;/td&gt;&lt;td&gt;西部材料&lt;/td&gt;&lt;td&gt;63,982.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300444.SZ&lt;/td&gt;&lt;td&gt;双杰电气&lt;/td&gt;&lt;td&gt;60,076.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002291.SZ&lt;/td&gt;&lt;td&gt;遥望科技&lt;/td&gt;&lt;td&gt;52,061.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002475.SZ&lt;/td&gt;&lt;td&gt;立讯精密&lt;/td&gt;&lt;td&gt;51,938.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000333.SZ&lt;/td&gt;&lt;td&gt;美的集团&lt;/td&gt;&lt;td&gt;49,565.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300442.SZ&lt;/td&gt;&lt;td&gt;润泽科技&lt;/td&gt;&lt;td&gt;41,298.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002131.SZ&lt;/td&gt;&lt;td&gt;利欧股份&lt;/td&gt;&lt;td&gt;38,900.59&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图表 4:融资前一交易日净买入前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;融资净买入额（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002155.SZ&lt;/td&gt;&lt;td&gt;湖南黄金&lt;/td&gt;&lt;td&gt;81,423.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601179.SH&lt;/td&gt;&lt;td&gt;中国西电&lt;/td&gt;&lt;td&gt;28,187.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300476.SZ&lt;/td&gt;&lt;td&gt;胜宏科技&lt;/td&gt;&lt;td&gt;26,708.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688981.SH&lt;/td&gt;&lt;td&gt;中芯国际&lt;/td&gt;&lt;td&gt;25,556.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300442.SZ&lt;/td&gt;&lt;td&gt;润泽科技&lt;/td&gt;&lt;td&gt;19,062.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002471.SZ&lt;/td&gt;&lt;td&gt;中超控股&lt;/td&gt;&lt;td&gt;17,884.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601211.SH&lt;/td&gt;&lt;td&gt;国泰海通&lt;/td&gt;&lt;td&gt;14,726.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600352.SH&lt;/td&gt;&lt;td&gt;浙江龙盛&lt;/td&gt;&lt;td&gt;14,455.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002149.SZ&lt;/td&gt;&lt;td&gt;西部材料&lt;/td&gt;&lt;td&gt;14,129.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601233.SH&lt;/td&gt;&lt;td&gt;桐昆股份&lt;/td&gt;&lt;td&gt;13,400.94&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，华鑫证券研究
+图表 3:主力资金前一交易日净流出前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;主力净流出额（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;-400,674.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300058.SZ&lt;/td&gt;&lt;td&gt;蓝色光标&lt;/td&gt;&lt;td&gt;-216,205.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300475.SZ&lt;/td&gt;&lt;td&gt;香农芯创&lt;/td&gt;&lt;td&gt;-152,891.43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002594.SZ&lt;/td&gt;&lt;td&gt;比亚迪&lt;/td&gt;&lt;td&gt;-148,390.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301308.SZ&lt;/td&gt;&lt;td&gt;江波龙&lt;/td&gt;&lt;td&gt;-115,024.96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300394.SZ&lt;/td&gt;&lt;td&gt;天孚通信&lt;/td&gt;&lt;td&gt;-92,736.66&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002230.SZ&lt;/td&gt;&lt;td&gt;科大讯飞&lt;/td&gt;&lt;td&gt;-79,805.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000063.SZ&lt;/td&gt;&lt;td&gt;中兴通讯&lt;/td&gt;&lt;td&gt;-68,040.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002155.SZ&lt;/td&gt;&lt;td&gt;湖南黄金&lt;/td&gt;&lt;td&gt;-67,797.48&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000021.SZ&lt;/td&gt;&lt;td&gt;深科技&lt;/td&gt;&lt;td&gt;-66,974.48&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图表 5:融券前一交易日净卖出前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;融券净卖出（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002558.SZ&lt;/td&gt;&lt;td&gt;巨人网络&lt;/td&gt;&lt;td&gt;1,094.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601689.SH&lt;/td&gt;&lt;td&gt;拓普集团&lt;/td&gt;&lt;td&gt;917.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688777.SH&lt;/td&gt;&lt;td&gt;中控技术&lt;/td&gt;&lt;td&gt;766.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603993.SH&lt;/td&gt;&lt;td&gt;洛阳钼业&lt;/td&gt;&lt;td&gt;730.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300136.SZ&lt;/td&gt;&lt;td&gt;信维通信&lt;/td&gt;&lt;td&gt;676.96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300724.SZ&lt;/td&gt;&lt;td&gt;捷佳伟创&lt;/td&gt;&lt;td&gt;612.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600487.SH&lt;/td&gt;&lt;td&gt;亨通光电&lt;/td&gt;&lt;td&gt;550.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300857.SZ&lt;/td&gt;&lt;td&gt;协创数据&lt;/td&gt;&lt;td&gt;512.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;498.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000400.SZ&lt;/td&gt;&lt;td&gt;许继电气&lt;/td&gt;&lt;td&gt;455.98&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+![](images/580701d1edc1d62f49219f753584b316b9e8eaa1134958c4e40018f95a172695.jpg)  
+图表 6: 主力资金前一日净流入前十行业（万元）  
+图表 8:融资前一日净买入前十行业（万元）
+![](images/94c623ab659dcc9d51cb5f5c728eaa6acfb2541cc3999f8bffa7b4deea3e24e4.jpg)  
+资料来源：Wind，华鑫证券研究
+![](images/36a4d81d00cd227c539f0b6dc2facb91807bd70ca5530ddf6d380dc3dabef64d.jpg)  
+图表 7: 主力资金前一日净流出前十行业（万元）  
+图表 9:融券前一日净卖出前十行业（万元）
+![](images/61d57e5cd6b3cb932d1fae7caca2678cdfdbb14345d652ca70f53ccd9ccdeda3.jpg)
+# 备注：
+1. 融资净买入：通常表明投资者对市场或特定股票持乐观态度，愿意借款买入股票，预期未来股价上涨后能够获利。虽然融资净买入表明投资者对市场的积极态度，但如果融资余额过高，也可能意味着市场存在过度投机的风险。一旦市场出现调整，高杠杆的投资者可能会面临较大的亏损压力，甚至触发强制平仓，加剧市场波动。  
+2. 融券净卖出：通常表明投资者对市场或特定股票持悲观态度，预计未来股价将会下跌。融券卖出是一种高风险的交易策略，因为如果市场走势与投资者的预期相反，即股票价格上涨，那么投资者可能面临无限亏损的风险。此外，融券卖出还可能涉及较高的交易成本和潜在的法律风险。  
+3. 期间净买入额=融资净买入-融券净卖出  
+4. 华鑫市场情绪温度指标：通过对过去 5 年的历史数据进行统计及回测，分别从指数涨跌幅、成交量、涨跌家数、KDJ、北向资金及融资融券数据 6 大维度搭建华鑫市场情绪指标。从大的归类上来讲，该指标属于摆荡指标，可以参照常用的 RSI 指标，更多提供在震荡市时的高抛低吸，对于趋势缺乏预测效果。比较适用的行情是区间震荡，当市场出现趋势时，可能出现钝化现象，换言之，钝化某种程度上意味着趋势的出现，换一个观察角度，如果指标较长时间维持在 80 附近及以上或 20 附近及以下，需要重新判断该指标的适用。  
+5. 市场情绪：综合评分：过冷（0-19）、较冷（20-39）、中性（40-59）、较热（60-79）及过热（80-100）。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;情绪&lt;/td&gt;&lt;td&gt;市场特征&lt;/td&gt;&lt;td&gt;策略建议&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过冷&lt;/td&gt;&lt;td&gt;股价普遍下跌，市场前景不明朗&lt;/td&gt;&lt;td&gt;找价值投资机会的时期，但需注意风险控制&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;较冷&lt;/td&gt;&lt;td&gt;市场波动较小，投资者观望情绪浓厚&lt;/td&gt;&lt;td&gt;谨慎操作，关注基本面良好的股票，避免追高&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;市场波动适中，投资者情绪稳定&lt;/td&gt;&lt;td&gt;根据个股表现和市场信息进行投资，保持灵活性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;较热&lt;/td&gt;&lt;td&gt;市场活跃，投资者信心较强&lt;/td&gt;&lt;td&gt;可以适度增加投资，但需警惕市场过热带来的风险&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过热&lt;/td&gt;&lt;td&gt;市场极度活跃，投资者情绪极度乐观&lt;/td&gt;&lt;td&gt;考虑适时减仓，避免在市场高点买入，关注市场泡沫风险&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 行业组介绍
+万蓉：华鑫证券分析师，商业管理硕士，2007 年 7 月加入华鑫证券研发部。
+# 证券分析师承诺
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格并注册为证券分析师，以勤勉的职业态度，独立、客观地出具本报告。本报告清晰准确地反映了本人的研究观点。本人不曾因，不因，也将不会因本报告中的具体推荐意见或观点而直接或间接收到任何形式的补偿。
+# 证券投资评级说明
+股票投资评级说明：  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;投资建议&lt;/td&gt;&lt;td&gt;预测个股相对同期证券市场代表性指数涨幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;＞20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;10%—20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;-10%—10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;卖出&lt;/td&gt;&lt;td&gt;&amp;lt;-10%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+行业投资评级说明：  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;投资建议&lt;/td&gt;&lt;td&gt;行业指数相对同期证券市场代表性指数涨幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;推荐&lt;/td&gt;&lt;td&gt;＞10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;-10%—10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;回避&lt;/td&gt;&lt;td&gt;&amp;lt;-10%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+以报告日后的 12 个月内，预测个股或行业指数相对于相关证券市场主要指数的涨跌幅为标准。
+相关证券市场代表性指数说明：A 股市场以沪深 300 指数为基准；新三板市场以三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的）为基准；香港市场以恒生指数为基准；美国市场以道琼斯指数为基准。
+# 免责条款
+华鑫证券有限责任公司（以下简称“华鑫证券”）具有中国证监会核准的证券投资咨询业务资格。本报告由华鑫证券制作，仅供华鑫证券的客户使用。本公司不会因接收人收到本报告而视其为客户。
+本报告中的信息均来源于公开资料，华鑫证券研究部门及相关研究人员力求准确可靠，但对这些信息的准确性及完整性不作任何保证。我们已力求报告内容客观、公正，但报告中的信息与所表达的观点不构成所述证券买卖的出价或询
+价的依据，该等信息、意见并未考虑到获取本报告人员的具体投资目的、财务状况以及特定需求，在任何时候均不构成对任何人的个人推荐。投资者应当对本报告中的信息和意见进行独立评估，并应同时结合各自的投资目的、财务状况和特定需求，必要时就财务、法律、商业、税收等方面咨询专业顾问的意见。对依据或者使用本报告所造成的一切后果，华鑫证券及/或其关联人员均不承担任何法律责任。本公司或关联机构可能会持有报告中所提到的公司所发行的证券头寸并进行交易，还可能为这些公司提供或争取提供投资银行、财务顾问或者金融产品等服务。本公司在知晓范围内依法合规地履行披露。
+本报告中的资料、意见、预测均只反映报告初次发布时的判断，可能会随时调整。该等意见、评估及预测无需通知即可随时更改。在不同时期，华鑫证券可能会发出与本报告所载意见、评估及预测不一致的研究报告。华鑫证券没有将此意见及建议向报告所有接收者进行更新的义务。
+本报告版权仅为华鑫证券所有，未经华鑫证券书面授权，任何机构和个人不得以任何形式刊载、翻版、复制、发布、转发或引用本报告的任何部分。若华鑫证券以外的机构向其客户发放本报告，则由该机构独自为此发送行为负责，华鑫证券对此等行为不承担任何责任。本报告同时不构成华鑫证券向发送本报告的机构之客户提供的投资建议。如未经华鑫证券授权，私自转载或者转发本报告，所引起的一切后果及法律责任由私自转载或转发者承担。华鑫证券将保留随时追究其法律责任的权利。请投资者慎重使用未经授权刊载或者转发的华鑫证券研究报告。</t>
+  </si>
+  <si>
+    <t># 慢牛深化，长路徐行
+# 元瞻经纬总量月报（2026 年 1月）
+#  报告要点：
+“924”以来，在政治局会议指引下各部委联合推出超预期政策组合拳，叠加产业与监管政策协同，重塑市场生态，推动A 股进入慢牛周期。2026年开年以来，A股开年表现亮眼，演绎出“开门红”的强势上涨行情，上证指数连阳，多次创出阶段性新高，成交量端也表现活跃，反映出投资者风险偏好显著提升和市场参与度的快速提高。我们认为，本轮“开门红”行情虽呈现出显著的季节性和结构性行情特征，但其驱动力不仅有“春季躁动”的情绪催化、政策打造高质量资本市场的制度引导，同时也有基本面的边际改善提供支撑。从宏观层面来看，2026 年财政有望呈现前置发力的特征，在财政支出扩大并确保必要支出力度的同时，持续释放出稳投资、促消费的政策信号。此外，从企业层面来看，“开门红”行情亦有企业盈利端边际改善的预期支撑。展望后市，在政策呵护与基本面支撑的共同作用下，我们对市场仍保持相对积极的判断，但也需要看到，1 月上旬在成交额与杠杆情绪阶段性快速放大后，监管“防风险”的取向仍是一以贯之的。一方面，从市场所处位置看，部分宽基指数与行业板块的估值已处于相对偏高区间，短期内对情绪的扰动更为敏感。另一方面，从潜在增量资金来源看，居民存款活化、内外部环境趋稳背景下的外资回流，以及机构中长期资金持续入市，仍是我们值得保持积极的理由。
+# 本期总量跟踪
+工业与生产篇：2025年全年PPI累计同比增速- $- 2 . 6 \%$ ，连续6 个月降幅收窄。从分项数据来看，有色金属采选和冶炼在同比和环比增速上均居前列，是促进2025 年 12 月 PPI 降幅收窄的重要项目，而随着 2026 年国际有色金属价格上涨的持续，2026年开年PPI有望延续降幅收窄的走势。
+消费篇：按全年维度来看，2025 年以旧换新政策仍取得了与 2024 年相近的成果，但其前高后低的结构特征暗含着政策刺激作用的减弱。2026年的以旧换新政策更加注重“缩量提质”，引导我国消费市场向更优质方向转型。此外，在国补力度逐渐退坡、政策刺激作用逐渐减弱的当下，服务业正成为我国促消费、稳就业、扩内需的越来越重要的抓手，并已表现出良好的发展态势。
+进出口篇：经贸摩擦背景下，出口韧性显著，全年顺差首破万亿。从全年累计看，对东盟/非洲/欧盟出口累计同比增速分别为 $+ 1 3 . 4 0 \% / + 2 5 . 8 0 \% / + 8 . 4 0 \%$ ，而对美累计同比降幅为 $20 \%$ 。整体上，出口增量更多由东盟、非洲等新兴市场支撑，目的地结构的分散度继续上升。全年出口商品结构呈现高端制造偏强、传统消费品偏弱的特征。
+金融篇：2025年 12月金融数据整体呈现“社融与信贷边际回暖，M1 增速持续回落、M2小幅反弹”的特点，实体经济融资需求仍待修复。全年视角，2025年社会融资规模增量累计约为 35.6 万亿元，比上年多约3.35 万亿元，对实体经济发放的人民币贷款增加 15.91 万亿元，同比减少约1.13 万亿元，体现直接融资对社融的支撑作用增强。实体经济资金需求表现为政府债拉动，人民币贷款托底、居民信贷拖累、非标收缩的分化格局反映企业融资渠道多元化。
+# . 风险提示
+内外需超预期下滑；贸易摩擦加剧；政策落地效果不及预期；政策理解出现偏差；测算假设与约束条件偏理想化。
+# [Table_Repor相关研究报告
+1.《2026年总量与政策年度展望：风至势起，进而有为》  
+2.《经济大省视角下，区域经济高质量发展之路——元瞻经纬总量月报（2025年 11月）》  
+3.《“十五五”承前启后，接续奋进谱新篇——元瞻经纬总量月报（2025年 10月）》  
+4《. 繁荣起点周年再续，合力厚植沃土方兴——元瞻经纬总量月报（2025年 9月）》
+# [Table_A报告作者
+分析师 吴光杰
+执业证书编号 S0020525100002
+邮箱 wuguangjie@gyzq.com.cn
+电话 021-51097188
+分析师 黄轩辕
+执业证书编号 S0020524120001
+邮箱 huangxuanyuan@gyzq.com.cn
+电话 021-51097188
+联系人 陈兆祥
+邮箱 chenzhaoxiang@gyzq.com.cn
+电话 021-51097188
+联系人 李卿
+邮箱 liqing3@gyzq.com.cn
+电话 021-51097188
+联系人 喻炜易
+邮箱 yuweiyi@gyzq.com.cn
+电话 021-51097188
+# 内容目录
+1.当下权益市场的“慢牛”格局展望 5
+1.1 政策驱动下，市场有望继续震荡上行.. 5  
+1.2 宏观托底下，基本面总体稳健，财政前置发力，“开门红”可期............... . 6
+1.2.1基本面：2025 年经济运行稳健，服务消费、出口表现出较强韧性..6  
+1.2.2政策信号：政策前置发力确定性较强，托底开年经济增长.. 8  
+1.2.3政策路径：“稳投资”政策信号强，基建投资有望成为主要抓手 ........8  
+1.2.4企业利润：上市公司业绩指引分化，引导结构性行情.. .11
+1.3 情绪催化下，后市仍有一定的空间. . 12
+1.3.1市场所处的位置偏热，但并不极端. . 12  
+1.3.2政策和基本面的呵护下，潜在的增量资金或许在路上 16
+2.本期总量跟踪 . 20
+2.1 工业与生产篇：PPI同比降幅收窄 . 20  
+2.2 消费篇：以旧换新政策“缩量提质”，服务业在零售额增速与就业方面成为 K型曲线的上行端... .. 22
+2.2.1以旧换新政策的评价与展望. 2 2  
+2.2.2服务业成为促消费、稳就业的重要抓手 25
+2.3 进出口篇：经贸摩擦背景下，全年顺差首破万亿.... . 28  
+2.4 金融篇：社融与信贷边际回暖. . 31
+3.风险提示.. . 32
+# 图表目录
+图 1：国内规上企业工业增加值同比增速 6  
+图 2：2025 年工业增加值同比增速季节性表现较强（%） 6  
+图 3：2025 年最终消费支出对 GDP 的贡献率逐季提升.  
+图 4：2025 年服务消费表现对整体消费形成有力提振..  
+图 5：2025 年出口在稳增长中发挥了重要支撑作用。.  
+图 6：2025 年出口金额当月值的平均中枢不断抬升.  
+图 7：即便下半年补贴退坡，“以旧换新”惠及商品全年表现不错..  
+图 8：“十三五”、“十四五”期间基建增速“前快后慢”. 9
+图 9：2025 年用于实际项目的专项债较上年减少约四千亿... 9  
+图 10：政府预期专项债规模有望持续扩大.. . 10  
+图 11：2026 年各省固定资产投资预期增速（截至 2026.1.27）................ ...11  
+图 12：中国工业企业利润累计同比增速（截至 2025.12） ..11  
+图 13：中国工业企业利润当月同比增速（截至2025.12） ..11  
+图 14：全市场成交额升至较高的活跃水平.. . 13  
+图 15：全A换手率已突破近十年 $90 \%$ 分位水平... . 13  
+图 16：在监管引导作用下，杠杆买入情绪有所降温. . 13  
+图 17：两融余额与流通市值的比值已处高位，但并不极端.. . 14  
+图 18：万得全A的风险溢价仍有进一步下探的空间.. . 14  
+图 19：热门行业成交额占全市场成交额的比重有所抬升. . 16  
+图 20：新增开户数尚未达到极端水平. . 16  
+图 21：相较于上一个十年，从 2021 年开始有较为明显的居民超储行为.......16  
+图 22：个人存款占上市银行客户存款的比例有所提升. . 17  
+图 23：定期存款占个人存款的比重亦显著提高. . 17  
+图 24：个人定期存款中3—12个月内到期部分占比.. . 17  
+图 25：3-12 个月内到期的个人定期存款增量.. 17  
+图 26：居民的储蓄意愿仍然处于较高的位置 . 18  
+图 27：储户的投资意愿中选择股票的比例有所提升. 18  
+图 28：境外配置A 股的比例仍有提高的空间... . 18  
+图 29：美国总统访华事件上证指数表现汇总.. . 19  
+图 30：我国PPI累计同比增速. . 20  
+图 31：中国PPI当月同比增速. . 20  
+图 32：2025年12 月当月 PPI同比涨跌幅及其变化.. . 21  
+图 33：2025年12 月当月 PPI环比涨跌幅及其变化. . 21  
+图 34：2025年黄金、白银现货价格变化（美元/盎司）. . 22  
+图 35：2025年铜现货价格变化（美元/吨） . 22  
+图 36：各以旧换新品类增速 . 23  
+图 37：服务零售额增速与商品零售额增速出现K型分化.... . 26  
+图 38：全国城镇调查失业率（%） . 26  
+图 39：制造业PMI:从业人员（%） . 27  
+图 40：非制造业PMI：从业人员（%） . 27
+图 41：非制造业PMI:建筑业:从业人员（%） 27  
+图 42：非制造业 PMI:服务业:从业人员（%） 2 7  
+图 43：服务业与制造业PMI从业人员指数的“倒K型分化”.... . 27  
+图 44：服务业与建筑业PMI从业人员指数的“K 型分化”.... . 27  
+图 45：进出口总额（美元计价）当月同比与环比增速. . 28  
+图 46：对主要地区贸易顺差情况.. . 28  
+图 47：进口总额（美元计价）当月同比与环比增速.. . 28  
+图 48：出口总额（美元计价）当月同比与环比增速. . 28  
+图 49：2025 年全年主要出口商品金额累计同比增速（按增速降序排列）.... 31  
+图 50：12 月新增社融分项（亿元） 32
+表 1：2026 年“激发民间投资”、“促进居民消费”六项财政政策.. 8  
+表 2：新质生产力方向企业表现亮眼，部分板块表现分化.. 1 2  
+表 3：A股主要宽基指数估值与涨跌幅 . 14  
+表 4：A股主要行业指数估值与涨跌幅 . 15  
+表 5：2025 年与2024年以旧换新政策实施效果对比. 22  
+表 6：2026 年“以旧换新”政策详情与主要区别. . 24  
+表 7：主要出口目的地出口金额（亿美元）与变化... . 29  
+表 8：主要出口商品金额（美元计价）同比增速（单位：%）. . 30  
+表 9：12月社融分项及同比增减（亿元） . 32
+# 1.当下权益市场的“慢牛”格局展望
+2026年A 股迎来“开门红”行情。2026年开年以来A 股开年表现亮眼，延续 2025年末的上涨势头，演绎出“开门红”的强势上涨行情，上证指数连阳，并多次创出阶段性新高；深证成指、创业板等主要指数也均创多年高位，反映出投资者风险偏好显著提升和市场参与度的快速提高；成交量端也表现活跃，周成交规模连续多日保持在高位水平，融资余额持续攀升。从中长期视角看，市场对于“长牛”的预期升温。我们认为，本轮“开门红”行情虽呈现出显著的季节性和结构性行情特征，但其驱动力不仅有“春季躁动”的情绪催化、政策打造高质量资本市场的制度引导，同时也有基本面的边际改善提供支撑。从宏观层面来看，2026年财政有望呈现前置发力的特征，在财政支出盘子扩大并确保必要支出力度的同时，持续释放出稳投资、促消费的政策信号；此外，出口方面有望延续 2025年四季度以来的稳健运行态势，为一季度经济增长提供有力支撑。从企业层面来看，2026 年的“开门红”行情亦有企业盈利端边际改善的预期支撑。
+# 1.1 政策驱动下，市场有望继续震荡上行
+“924”以来，在政治局会议指引下央行、证监会、金融监管总局联合推出超预期政策组合拳，叠加产业与监管政策协同，重塑市场生态，推动 A 股进入政策驱动的慢牛周期。2026 年作为“十五五”开局之年，宏观政策将以“稳增长、促转型、防风险”为主线，财政、货币、资本市场政策协同发力，支撑市场稳步推进慢牛行情。宏观政策将延续“货币适度宽松 $^ +$ 财政积极发力”组合，市场整体有望震荡上行，结构性机会集中于科技成长（AI应用及产业链）与低波红利风格。
+从货币方面看，下调结构利率，总量政策可期。2025 年中央经济工作会议明确实施适度宽松的货币政策，加大逆周期和跨周期调节力度，支持“十五五”开好局、起好步。2026年1月15日，央行宣布下调各类结构性货币政策工具利率0.25个百分点。各类再贷款一年期利率从目前的 $1 . 5 \%$ 下调到 $1 . 2 5 \%$ ，其他期限档次利率同步调整，标志着“十五五”开局之年货币政策以“精准滴灌”方式加力支持经济高质量发展。谈及降准降息，央行表示，从今年看还有一定的空间。目前金融机构的法定存款准备金率平均为 $6 . 3 \%$ ，2025年以来银行净息差已经出现企稳的迹象，连续两个季度保持在 $1 . 4 2 \%$ ，为政策调整留出了空间。预计 2026 年将有 1-2 次降准（50-100BP）和1-2 次降息（10-20BP），货币政策将持续发力支持实体经济高质量发展。
+从科技领域看，增加科技创新和技术改造再贷款额度并扩大支持范围。将科技创新和技术改造再贷款额度从 8000 亿元，增加 4000 亿元至 1.2 万亿元，并将研发投入水平较高的民营中小企业等纳入支持领域。此举意在引导银行以更低利率向民营小微企业、科技创新、绿色转型等领域放贷。货币政策以结构性工具为主，同时为降准降息预留空间，保持货币政策灵活性。
+从财政方面看，总量充足，结构更优。2026 年 1 月 20 日，财政部表示今年财政赤字、债务总规模和支出总量将保持必要水平，确保总体支出力度“只增不减”、重点领域保障“只强不弱”。结合2025年的情况来看，预计今年赤字率保持 $4 \%$ 左右，新增政府债务规模 14 万亿元左右，发行特别国债 5000 亿元以上，安排 8000 亿元左右新增专项债券，补充地方政府综合财力和扩大有效投资。“精准滴灌”聚焦新基建、城市更新、消费升级等领域。2026年财政资金将重点投向5G、人工智能、数据中心
+等新型基础设施建设，以及城市更新、保障性住房、地下管廊等民生工程。财政将继续安排资金支持消费品以旧换新，调整优化补贴范围和标准，重点支持绿色智能家电、新能源汽车等消费升级领域。此外，“投资于人”与民生保障也是未来重要的投入方向，多渠道增加居民收入。这一系列政策取向将为“十五五”开局，提供强劲动力，同时为 A股市场提供“盈利改善 $^ { \cdot + }$ 估值支撑”的双重利好。
+从市场影响看，流动性合理充足，为成长股估值提供支撑，科创板块受益明显。盈利逐步改善，民营企业、科创企业融资成本下降，盈利能力提升，推动相关板块业绩增长。AI、高端制造、新能源、消费升级等领域获政策倾斜，传统周期板块支持力度减弱，市场风格进一步分化。政策明确支持实体经济，增强市场对经济复苏的信心，风险资产吸引力上升。
+# 1.2 宏观托底下，基本面总体稳健，财政前置发力，“开门红”可期
+# 1.2.1 基本面：2025 年经济运行稳健，服务消费、出口表现出较强韧性
+回顾2025 年整体经济走势，我国经济呈现“顶压前行、向新向优发展”的总体特征，但也存在供强需弱的突出矛盾，上半年在关税等外部扰动下，经济基本盘尤其是出口依旧表现出较强韧性；下半年虽然受消费补贴退坡、地产持续探底和高基数等因素影响有边际走弱倾向，但全年整体运行稳中有进。
+从供给端来看，规上工业增加值的同比增速自 2022 年4 月以来持续保持正增长，进一步从近四年的季节性走势观察，当前工业增加值增速整体仍处于相对不低的区间，反映出供给端运行总体平稳，这种稳健运行的态势有望在 2026年开年继续延续。
+图 1：国内规上企业工业增加值同比增速  
+![](images/44225225e5589f22f264076932c692d51b33cdf3930b6c593de15e43b500ef27.jpg)  
+资料来源：Wind, 国元证券研究所
+图 2：2025 年工业增加值同比增速季节性表现较强（%）  
+![](images/5f3914e1f4264855ba68f55d6ebfda66d91fea2e5244d1af503fef58dda68e58.jpg)  
+资料来源：Wind, 国元证券研究所
+从需求端来看，尽管 2025年整体内需修复偏弱，但其对经济贡献程度边际提升，并且在结构上，服务消费表现稳健，对整体消费形成有力提振；商品消费则在“两新”政策支持下，在2025年上半年显著高增，虽然下半年受补贴退坡影响增速下滑，但全年表现仍然不错。出口在外部环境扰动和内需修复偏弱的背景下仍具备较强韧性。从出口金额走势看，以美元计价的出口金额的运行中枢（12 个月移动平均值）持续抬升，已升至 3100 亿美元以上，处于近年来相对高位。
+图 3：2025 年最终消费支出对 GDP 的贡献率逐季提升  
+![](images/341f669a26b35ae3eb70a2be1a328c112a510dba5e8ffeada4c4c83d9c61bda2.jpg)  
+资料来源：Wind, 国元证券研究所
+图 4：2025 年服务消费表现对整体消费形成有力提振  
+![](images/10e5abd10d9948dff378f308bc4ef3ae39c6dd0bac780c1b4e7a606f7605f8f7.jpg)  
+资料来源：Wind, 国元证券研究所
+图 5：2025 年出口在稳增长中发挥了重要作用  
+![](images/0ccf4230d0fd4041d9e1ce63983bfd6f54ea505841460e9e327f18a5f1684aa0.jpg)  
+资料来源：Wind, 国元证券研究所
+图 6：2025 年出口金额当月值的平均中枢不断抬升  
+![](images/cc37a534c68901ee3b18a725ab9bc9888ef24113e9ee7496907d1d93ed6ee2ea.jpg)  
+资料来源：Wind, 国元证券研究所
+图 7：即便下半年补贴退坡，“以旧换新”惠及商品全年表现不错  
+![](images/f95330d8fa6bfddabc1d03bb91ced2aa71ddec31ed8dd6680ab5dd9f9efb9298.jpg)  
+资料来源：Wind, 国元证券研究所
+# 1.2.2 政策信号：政策前置发力确定性较强，托底开年经济增长
+节奏上，2026 年政策靠前发力的确定性较强，决策执行部门 2026 年经济工作部署中多体现“靠前发力”的指向。2025年12 月中央经济工作会议中提出“有些‘十五五’规划项目准备好了，可以提前开工建设”。2025 年 12 月 19 日国常会在政策执行层面进一步对贯彻落实中央经济工作会议决策部署作出安排，明确“要靠前发力抓落实，以扎实有效的工作不断巩固拓展经济稳中向好势头，确保‘十五五’开好局、起好步”，此外多部委在学习中央经济工作会议精神中，均提出 2026 年相关工作的靠前发力。
+从2026年年初以来，政策落地节奏快。2026 年1 月20 日，财政部在新闻发布会上公布“六项政策”，其中四项是支持民间投资的政策，另外两项是支持促进消费的政策，旨在“激发民间投资”、“促进居民消费”。
+表 1：2026 年“激发民间投资”、“促进居民消费”六项财政政策  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;内容&lt;/td&gt;&lt;td&gt;详情&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;中小企业贷款贴息政策&lt;/td&gt;&lt;td&gt;主要是对相关领域企业贷款予以贴息，重点包括新能源汽车、工业机器人、医疗装备、移动通讯设备等14个重点产业链及上下游产业，以及科技、物流、信息和软件等生产性服务领域，还有农林牧副渔等领域。贴息为贷款总额的1.5个百分点，最长贴息期2年，可享受贴息政策的单户贷款额度上限是5000万元。主要是为中小微民营企业贷款提供担保，符合条件的中小微民营企业，因为生产场景的拓展、改造、升级，以及改扩建厂房、店面装修等生产经营活动需要的中长期贷款，均可获得支持。单家企业可享受担保的贷款额度为2000万元。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;民间投资专项担保计划&lt;/td&gt;&lt;td&gt;中央财政专门安排风险分担资金，与央行现有政策协同，为民营企业和私募股权投资机构发行债券提供增信支持，代偿投资人部分损失。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;支持民营企业债券风险分担机制&lt;/td&gt;&lt;td&gt;重点是扩大了贴息范围，在原有设备购置项目的基础上，将与设备更新相关的固定资产贷款，以及科技创新类贷款纳入贴息范围。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;设备更新贷款贴息政策&lt;/td&gt;&lt;td&gt;这是对去年出台政策的一次优化。此次将单户贷款额度由现有的100万元提高到1000万元，贴息1个百分点，贴息1年，一家企业最多可享受贴息10万元。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;服务业经营主体贷款贴息政策&lt;/td&gt;&lt;td rowspan="2"&gt;居民使用个人消费贷款，只要是用于消费的，都可以享受1个百分点的贴息。这次政策还将信用卡账单分期业务纳入了贴息支持范围。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;个人消费贷款贴息政策&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：新华网, 国元证券研究所
+第一批“两重”、“两新”资金均已下发。2025 年 12 月末，国家发展改革委会同财政部已向地方提前下达 2026 年第一批 625 亿元超长期特别国债支持消费品以旧换新资金计划。2025年12 月31 日，在国家发展改革委新闻发布会上，国家发展改革委政策研究室副主任、新闻发言人李超表示，近日已下达 2026 年提前批“两重”建设项目清单和中央预算内投资计划，共计约 2950 亿元。
+# 1.2.3政策路径：“稳投资”政策信号强，基建投资有望成为主要抓手
+2025年 12 月中央经济工作会议中，提出“推动投资止跌回稳”，要“适当增加中央预算内投资规模，优化实施‘两重’项目，优化地方政府专项债券用途管理，继续发挥新型政策性金融工具作用，有效激发民间投资活力”。
+2025 年 1-12 月，我国固定资产投资累计同比增速 $- 3 . 8 0 \%$ ，较前值-1.20pct；12 月当月固定资产投资同比增速- $1 5 . 2 1 \%$ ，较前值 $+ 1 4 . 3 4 \mathsf { p c t }$ 。从分项数据来看，基建方面，1-12 月广义基建投资同比增速- $1 . 4 8 \%$ ，较前值-1.61pct，12 月当月广义基建投
+资同比增速- $1 6 \%$ ，较前值-4.14pct；1-12 月狭义基建投资同比增速 $^ { - 2 . 2 0 \% }$ ，较前值-1.10pct，12月当月狭义基建投资同比增速- $. 1 2 . 2 \%$ ，较前值-2.49pct。制造业投资方面，1-12 月制造业投资同比增速 $+ 0 . 6 0 \%$ ，较前值-1.30pct，12月当月制造业投资同比增速- $\cdot 1 0 . 5 5 \%$ ，较前值-6.10pct。房地产投资方面，1-12 月房地产投资同比增速-$1 7 . 2 0 \%$ ，较前值-1.30pct，12 月当月房地产投资同比增速 $- 3 6 . 8 5 \%$ ，较前值-5.49pct。
+我们认为，2026年在稳投资政策的引导下，固定资产投资增速或将迎来反弹，其中，基建投资有望成为政府稳投资政策的重要抓手。
+对基建投资的“开门红”而言，我们主要关注两个问题：第一，什么制约了 2025 年，尤其是 2025年下半年基建投资的表现？第二，什么支撑2026年基建投资的表现？
+1）什么制约了 2025 年基建投资的表现？制约 2025 年基建投资增速的核心因素有两方面：首先，从周期维度看，2025年处于“十四五”规划收官之年，多数项目处于收尾阶段，受项目周期节奏影响，实物工作量偏弱。据中国能源报报道，截止 2025年 5 月 20 日，“十四五”规划 102 项重大工程所涉及的 5000 多个具体项目，已完成规划目标任务的 $9 9 \%$ 。从“十三五”、“十四五”期间历年基建增速对比可以看到，近两个五年规划中基建投资增速均呈现出前快后慢的特征（除2021 年受公共卫生事件冲击影响，基建投资增速几乎为 0）。
+其次，从资金使用结构上来看，2025 年基建增速偏弱，部分原因在于专项债资金投入化债和土地收入，“挤出”了地方政府用于基建投资的资金。根据企业预警通的数据，2025全年用于项目建设专项债资金减少近4000 亿元。2025年，新增专项债发行规模共计 4.59 万亿，其中 1.34 万亿特殊新增专项债用于化债、4804 亿元用于土地储备、260亿元用于中小银行发展，剩余用于项目建设的专项债规模约 2.75 万亿，较 2024 年 3.12 万亿，减少了3715 亿元。可见化债、土储等用途的“挤出效应”，也是造成 2025 年基建增速下降的原因之一。
+综合来看，2026 年，作为“十五五”开局之年，五年的项目储备有望为 2026 年基建投资提供充足的项目供给势能，此外，地方政府化债对基建投资项目的“挤出”虽无法彻底消除，但在化债和土储规模不显著增加的假设下，专项债规模有望持续扩大，用于项目建设的资金或将增加，对基建投资形成制约的主要因素在 2026年均有望得到边际改善。
+图 8：“十三五”、“十四五”期间基建增速“前快后慢”  
+![](images/328cb71599059f1f677c213882d733e63b226ab17746ecf977e06d857758a42d.jpg)  
+资料来源：Wind, 国元证券研究所
+图 9：2025 年用于实际项目的专项债较上年减少约四千亿  
+![](images/4c897df5375490ad3a1cd3e7086187a767a424e363b00a61848744626cd6b808.jpg)  
+资料来源：企业预警通, 国元证券研究所
+2）除了制约基建投资因素的边际改善之外，我们看什么支撑 2026 年基建投资的表现？基建投资在资金保障方面量是充足的，节奏是靠前的。2025 年 9 月 29 日国家发展改革委新闻发布会公布，会同有关方面积极推进新型政策性金融工具有关工作，新型政策性金融工具规模共 5000 亿元，全部用于补充项目资本金，截至 10 月 30日，5000 亿元新型政策性金融工具已全部投放完毕，共支持 2300 多个项目，项目总投资约7 万亿元。此外，2025年 12月 31 日，首批“两重”建设项目清单和中央预算内投资计划也已于 2025 年12月末下达，规模近3000亿元。
+图 10：政府预期专项债规模有望持续扩大  
+![](images/053cd20daf9a91e637aabd3c5fd6572a113bd195f61eaa8bb6e9cf928e7763e7.jpg)  
+资料来源：Wind, 国元证券研究所
+# 3）央企或将在基建“开门红”中扮演更重要角色
+2025 年 12 月 23 日，决策层对中央企业工作作出重要指示，“中央企业要充分认识肩负的职责使命，更好服务党和国家工作大局，服务经济社会高质量发展”、“十五五”时期是基本实现社会主义现代化夯实基础、全面发力的关键时期，中央企业要把思想和行动统一到党中央对形势的科学判断和决策部署上来，进一步明确方位、找准定位，切实担负起职责和使命。要在推进重大基础设施建设中提供强力保障，加快传统基础设施更新和数智化改造，适度超前开展新型基础设施建设。”2026 年1 月15日，国家电网宣布，“十五五”期间固定资产投资预计达4万亿元，较“十四五”时期增长$40 \%$ ，每年固定资产投资额度约 8000亿元，占我国全年固定资产投资比重近 $2 \%$ 。
+我们认为，2026 年乃至“十五五”期间，央企有望在国家基建投资领域发挥更大作用，这不仅基于央企在新时代下职责使命的认识，更是结合地方政府当前财政现状及统筹诸如化债等工作的综合考量。截至 2025 年 1 月 27 日，陆续已有十几个省市的人代会已经开幕，从已披露 2026 年年度投资计划的省份信息来看，2026 年，多个省份下调 2026 年固定资产投资增速。
+图 11：2026 年各省固定资产投资预期增速（截至 2026.1.27）  
+![](images/8933ccadb086acb24f0716a17b281e32b9ebbaac1324de2097cea4a7b399f7a7.jpg)  
+资料来源：证券时报, 河南省金融办, 凤凰网, 人民网, 海口国际投资促进局, 吉林省人大, 辽宁省人民政府,新疆维吾尔自治区人社厅, 新疆维吾尔自治区人民政府, 国元证券研究所
+# 1.2.4 企业利润：上市公司业绩指引分化，引导结构性行情
+从企业层面来看，2026 年的“开门红”行情亦有企业盈利端边际改善的预期支撑：1）首先，在总量数据维度，2025 年 12 月，当月全国工业企业利润同比增速回正，$+ 5 . 3 \%$ ，从全年增速来看，2025 年 1-12 月工业企业利润同比增速 $+ 0 . 6 \%$ ，结束了2022年以来连续3 年的负增长，尽管盈利水平整体仍处底部，但已呈现出明确的边际改善。
+图 12：中国工业企业利润累计同比增速（截至 2025.12）  
+![](images/fb7af989eafbacaf945d29ad152e2c6631141362f3156991050d97f38112f7fc.jpg)  
+资料来源：Wind, 国元证券研究所
+图 13：中国工业企业利润当月同比增速（截至 2025.12）  
+![](images/a7246589a20773fad94b137f3829a0db049cdc58073fdb91b21e44baa44459cc.jpg)  
+资料来源：Wind, 国元证券研究所
+2）其次，从上市公司维度，近期 A 股上市公司披露的业绩预告呈现结构性分化特征，这进一步催化了春季结构性行情的演绎，资金有望进一步流向基本面得到清晰业绩验证的板块。根据金融投资报援引内容，截至1 月 25 日，A 股超过950家上市公司先后发布了 2025年年度业绩预告或快报数据，进入业绩披露高峰期。在这些已披露业绩预告的公司中，业绩向好的公司占比达到约四成左右，表现出较为积极的盈利预期改善态势；其次，从具体业绩表现看，不同行业之间业绩结构性分化，新质生
+产力相关板块表现相对占优。例如，代表新质生产力的高端制造行业表现亮眼，如2025年半导体产业链上市公司业绩增势强劲，受人工智能、数据中心建设及国产替代需求拉动，半导体产业链上市公司特别是存储芯片、设备及材料领域，多家公司净利润翻倍。医药行业公司约有五成业绩预喜，截至 1 月 26 日，已有超过 60 家医药上市公司披露业绩预告，其中约半数公司业绩向好，创新药、器械等赛道龙头企业表现出彩，而部分盈利能力单一的药企则相对承压。
+表 2：新质生产力方向企业表现亮眼，部分板块表现分化  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;所属板块&lt;/td&gt;&lt;td&gt;公司&lt;/td&gt;&lt;td&gt;业绩表现&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;半导体产业&lt;/td&gt;&lt;td&gt;中微半导&lt;/td&gt;&lt;td&gt;公司1月25日公告，预计公司2025年实现营业收入11.22亿元左右，同比增长约23%；归母净利润2.84亿元，同比增长约107%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;炬芯科技&lt;/td&gt;&lt;td&gt;公司1月25日公告，预计2025年实现营业收入9.22亿元，同比增长41.44%；归母净利润2.04亿元，同比增长91.40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;佰维存储&lt;/td&gt;&lt;td&gt;公司预计2025年实现营业收入100亿元至120亿元，同比增长49.36%至79.23%；归母净利润8.5亿元至10亿元，同比增长427.19%至520.22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德明利&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润为6.50亿元至8.00亿元，同比增长85.42%至128.21%，其中第四季度单季归母净利润达到6.77亿元至8.27亿元，同比大增1051.59%至1262.41%。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;香农芯创&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润为4.80亿元至6.20亿元，比上年同期增长81.77%至134.78%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;神工股份&lt;/td&gt;&lt;td&gt;公司预计2025年实现营业收入4.3亿元至4.5亿元，同比增长42.04%至48.65%；净利润为1.1亿元至1.3亿元，同比增长135.30%至178.09%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;医药产业&lt;/td&gt;&lt;td&gt;昭衍新药&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润约2.33亿元至3.49亿元，同比增长约214%至371%；扣非后的归母净利润约2.46亿元至3.7亿元，同比大增约945%至1468%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上海谊众&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润为6000万元至7000万元，同比增长760.18%至903.54%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;力生制药&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润为4亿元至4.4亿元，同比增长116.77%至138.44%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;以岭药业&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润为12亿元至13亿元，上年同期为亏损7.24亿元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;智飞生物&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润巨亏107亿元至137亿元，上年同期为盈利20亿元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;康华生物&lt;/td&gt;&lt;td&gt;公司预计2025年归母净利润约1.91亿元至2.33亿元，同比下降41%至52%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind, 金融投资报, 国元证券研究所
+# 1.3 情绪催化下，后市仍有一定的空间
+展望后市，在政策持续呵护与基本面支撑的共同作用下，我们仍保持相对积极的判断，但也需要看到，1 月上旬在成交额与杠杆情绪阶段性快速放大后，监管“防风险”的取向仍是一以贯之的。我们看到，一方面，从市场所处位置看，部分宽基指数与行业板块的估值已处于相对偏高区间，短期内对情绪与资金面的扰动更为敏感。另一方面，从潜在增量资金来源看，居民存款活化、内外部环境趋稳背景下的外资回流，以及机构中长期资金持续入市，仍是我们值得保持积极的理由。
+# 1.3.1市场所处的位置偏热，但并不极端
+从成交额水平的角度来看，今年以来全市场成交额五日均值已基本突破了上一轮的高点，来到三万亿左右的水平。全A 换手率也基本接近2024 年9 月24日后政策驱动的反转行情高点，基本超过近十年 $90 \%$ 的分位数（按五日移动均值计算）。
+图 14：全市场成交额升至较高的活跃水平  
+![](images/bde0006d868bea776543513ebe12d31ff86de7d0edec84f3230e6254a98acc88.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 28 日
+图 15：全 A换手率已突破近十年 90%分位水平  
+![](images/23ef7389c08335054ad6f3e278bf0e41173450d1b7c591a4804cf936afe14f97.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 28 日，分位数按五日均值  
+计算
+从杠杆情绪看，1月 A股市场情绪经历了从偏热向中性回归的过程。截至2026 年1月 27 日，沪深北三市当日融资买入额为 2784.97 亿元，占全 A 成交额的 $9 . 5 3 \%$ ，低于近一年滚动均值 $9 . 9 2 \%$ 。近20 个交易日内，融资买入占比主要在 $9 . 4 \% - 1 1 . 5 \%$ $9 . 4 \%$ 区间波动，对应 Z-score 大致在-0.43 至 1.58 之间，杠杆情绪由 1 月上旬的相对偏热阶段（Z-score 一度升至 1.58）逐步回落至当前的中性水平。1 月 14 日融资保证金上调后，在监管引导下，杠杆资金加杠杆的节奏明显放缓，买入热情趋于平稳。从两融余额占沪深两市流通市值的比例看，该指标已回升至相对偏高区间，但与历史极端高位相比仍有一定差距。
+图 16：在监管引导作用下，杠杆买入情绪有所降温  
+![](images/706b5cc66abbd63acc7fe3ad077bfe60c0d32918e5134e9ce477a687cd9585f4.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 27 日
+从 A股权益的风险溢价（ERP）角度看，经历一轮上涨后，当前 ERP约 $2 . 4 3 \%$ ，已低于近五年均值，但从历史的绝对水平看仍具备一定安全边际。若以近五年 $10 \%$ 分位（约 $2 . 1 \%$ ）作为阶段性底部参照，当前仍有约0.3 个百分点的下行空间，对应指
+数层面仍有一定上涨余地。
+图 17：两融余额与流通市值的比值已处高位，但并不极端  
+![](images/54b8c97a533929474250d7da806bad6fd9fa3ad3d1d9f5d918a59fe162fdc294.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 27 日
+图 18：万得全 A的风险溢价仍有进一步下探的空间  
+![](images/536407315ce6d5729e4c83fe743e6c7c4c8fabe638eccd3c2cc67d80b521bbcf.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 27 日
+从主要宽基指数的估值水平看，当前 A 股市场整体处于近十年的历史高位区间。截至 2026 年 1 月 28 日，上证指数 PE（TTM）为 17.15 倍，分位数达到 $9 9 . 9 \%$ ，接近历史顶部。经过2025年全年的上涨及 2026年开年的继续上攻后，市场整体估值已处于较为昂贵的位置。与此同时，部分大盘蓝筹指数估值压力相对可控，沪深 300指数 PE 为 14.14 倍，10 年分位数为 $8 3 . 2 \%$ ，虽已处于历史偏高区间，但相较于小盘股仍显温和。中小盘中估值分化显著。中证500的PE为38.70倍，分位数 $8 7 . 9 \%$ ；中证 1000 的 PE 为 50.97 倍，分位数 $8 3 . 4 \%$ ；而中证 2000 的 PE 高达 169.04 倍，分位数达 $9 9 . 8 \%$ ；科创 50 的 PE 达 179.53 倍，分位数 $9 8 . 4 \%$ 。值得注意的是，创业板指 PE为42.80 倍，10 年分位数仅为 $5 0 . 5 \%$ ，处于历史中位水平。尽管 2025年创业板指大涨 $4 9 . 6 \%$ ，但由于历史估值中枢较高，当前反而是少数估值处于合理区间的宽基指数之一。综合来看，当前市场整体估值已处于历史高位，尤其是小盘股估值过热。相比之下，创业板指估值处于历史中位，具备一定安全边际，沪深 300 虽处偏高区间，但估值压力一定程度上小于中小盘。
+表 3：A股主要宽基指数估值与涨跌幅  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;主要指数&lt;/td&gt;&lt;td&gt;2026以来涨跌幅(%)&lt;/td&gt;&lt;td&gt;2025年涨跌幅(%)&lt;/td&gt;&lt;td&gt;PE(TTM)&lt;/td&gt;&lt;td&gt;10年PE分位数(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000001.SH&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;4.60&lt;/td&gt;&lt;td&gt;18.41&lt;/td&gt;&lt;td&gt;17.15&lt;/td&gt;&lt;td&gt;99.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000300.SH&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;1.90&lt;/td&gt;&lt;td&gt;17.66&lt;/td&gt;&lt;td&gt;14.14&lt;/td&gt;&lt;td&gt;83.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000510.SH&lt;/td&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;5.46&lt;/td&gt;&lt;td&gt;22.43&lt;/td&gt;&lt;td&gt;17.38&lt;/td&gt;&lt;td&gt;88.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000688.SH&lt;/td&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;15.67&lt;/td&gt;&lt;td&gt;35.92&lt;/td&gt;&lt;td&gt;179.53&lt;/td&gt;&lt;td&gt;98.37&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000852.SH&lt;/td&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;10.59&lt;/td&gt;&lt;td&gt;27.49&lt;/td&gt;&lt;td&gt;50.97&lt;/td&gt;&lt;td&gt;83.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000905.SH&lt;/td&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;15.21&lt;/td&gt;&lt;td&gt;30.39&lt;/td&gt;&lt;td&gt;38.70&lt;/td&gt;&lt;td&gt;87.93&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399001.SZ&lt;/td&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;6.05&lt;/td&gt;&lt;td&gt;29.87&lt;/td&gt;&lt;td&gt;33.03&lt;/td&gt;&lt;td&gt;93.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399006.SZ&lt;/td&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;td&gt;49.57&lt;/td&gt;&lt;td&gt;42.80&lt;/td&gt;&lt;td&gt;50.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;881001.WI&lt;/td&gt;&lt;td&gt;万得全A&lt;/td&gt;&lt;td&gt;7.07&lt;/td&gt;&lt;td&gt;27.65&lt;/td&gt;&lt;td&gt;23.47&lt;/td&gt;&lt;td&gt;98.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;932000.CSI&lt;/td&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;10.43&lt;/td&gt;&lt;td&gt;36.42&lt;/td&gt;&lt;td&gt;169.04&lt;/td&gt;&lt;td&gt;99.83&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 28 日
+从主要行业的估值水平看，当前 A股行业估值呈现明显两头分化的格局。截至 2026
+年1月 28日，按申万一级行业分类，科技成长板块估值处于历史高位，电子行业PE达 75.37 倍，10 年分位数高达 $9 9 . 7 \%$ ；计算机 PE 为 94.13 倍，分位数 $9 8 . 8 \%$ ；通信和传媒分位数也分别达到 $8 8 . 6 \%$ 和 $8 9 . 3 \%$ 。这些板块在 2025 年经历了大幅上涨后，估值已处于极度扩张状态。周期板块估值同样偏高，基础化工、钢铁、煤炭的估值分位数均超过 $80 \%$ 。与之相对，金融与部分消费板块处于历史估值洼地，食品饮料PE仅 20.29 倍，分位数低至 $4 . 5 \%$ ；银行PE为5.95 倍，分位数 $2 9 . 8 \%$ ；非银金融分位数仅 $8 . 0 \%$ ；家用电器分位数为 $3 7 . 7 \%$ 。此外，有色金属在2025年涨幅达 $9 4 . 7 \%$ 的背景下，估值分位数仍为 $6 0 . 6 \%$ ，处于相对合理区间。
+表 4：A股主要行业指数估值与涨跌幅  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;主要指数&lt;/td&gt;&lt;td&gt;2026 以来涨幅 (%)&lt;/td&gt;&lt;td&gt;2025 年涨跌幅 (%)&lt;/td&gt;&lt;td&gt;PE (TTM)&lt;/td&gt;&lt;td&gt;10 年 PE 分位数 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801010. SI&lt;/td&gt;&lt;td&gt;农林牧渔(申万)&lt;/td&gt;&lt;td&gt;-3.03&lt;/td&gt;&lt;td&gt;17.79&lt;/td&gt;&lt;td&gt;23.15&lt;/td&gt;&lt;td&gt;21.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801030. SI&lt;/td&gt;&lt;td&gt;基础化工(申万)&lt;/td&gt;&lt;td&gt;12.48&lt;/td&gt;&lt;td&gt;33.29&lt;/td&gt;&lt;td&gt;34.05&lt;/td&gt;&lt;td&gt;86.41&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801040. SI&lt;/td&gt;&lt;td&gt;钢铁(申万)&lt;/td&gt;&lt;td&gt;7.61&lt;/td&gt;&lt;td&gt;26.55&lt;/td&gt;&lt;td&gt;34.36&lt;/td&gt;&lt;td&gt;83.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801050. SI&lt;/td&gt;&lt;td&gt;有色金属(申万)&lt;/td&gt;&lt;td&gt;23.48&lt;/td&gt;&lt;td&gt;94.73&lt;/td&gt;&lt;td&gt;35.23&lt;/td&gt;&lt;td&gt;60.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801080. SI&lt;/td&gt;&lt;td&gt;电子(申万)&lt;/td&gt;&lt;td&gt;13.33&lt;/td&gt;&lt;td&gt;47.88&lt;/td&gt;&lt;td&gt;75.37&lt;/td&gt;&lt;td&gt;99.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801110. SI&lt;/td&gt;&lt;td&gt;家用电器(申万)&lt;/td&gt;&lt;td&gt;0.07&lt;/td&gt;&lt;td&gt;9.14&lt;/td&gt;&lt;td&gt;14.82&lt;/td&gt;&lt;td&gt;37.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801120. SI&lt;/td&gt;&lt;td&gt;食品饮料(申万)&lt;/td&gt;&lt;td&gt;-2.73&lt;/td&gt;&lt;td&gt;-9.69&lt;/td&gt;&lt;td&gt;20.29&lt;/td&gt;&lt;td&gt;4.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801130. SI&lt;/td&gt;&lt;td&gt;纺织服饰(申万)&lt;/td&gt;&lt;td&gt;5.17&lt;/td&gt;&lt;td&gt;13.18&lt;/td&gt;&lt;td&gt;29.23&lt;/td&gt;&lt;td&gt;67.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801140. SI&lt;/td&gt;&lt;td&gt;轻工制造(申万)&lt;/td&gt;&lt;td&gt;4.67&lt;/td&gt;&lt;td&gt;20.07&lt;/td&gt;&lt;td&gt;34.41&lt;/td&gt;&lt;td&gt;82.66&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801150. SI&lt;/td&gt;&lt;td&gt;医药生物(申万)&lt;/td&gt;&lt;td&gt;5.78&lt;/td&gt;&lt;td&gt;11.94&lt;/td&gt;&lt;td&gt;38.19&lt;/td&gt;&lt;td&gt;64.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801160. SI&lt;/td&gt;&lt;td&gt;公用事业(申万)&lt;/td&gt;&lt;td&gt;3.90&lt;/td&gt;&lt;td&gt;1.03&lt;/td&gt;&lt;td&gt;20.12&lt;/td&gt;&lt;td&gt;42.57&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801170. SI&lt;/td&gt;&lt;td&gt;交通运输(申万)&lt;/td&gt;&lt;td&gt;-0.04&lt;/td&gt;&lt;td&gt;1.13&lt;/td&gt;&lt;td&gt;18.42&lt;/td&gt;&lt;td&gt;60.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801180. SI&lt;/td&gt;&lt;td&gt;房地产(申万)&lt;/td&gt;&lt;td&gt;3.32&lt;/td&gt;&lt;td&gt;1.84&lt;/td&gt;&lt;td&gt;61.18&lt;/td&gt;&lt;td&gt;97.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801200. SI&lt;/td&gt;&lt;td&gt;商贸零售(申万)&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;8.21&lt;/td&gt;&lt;td&gt;52.21&lt;/td&gt;&lt;td&gt;99.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801210. SI&lt;/td&gt;&lt;td&gt;社会服务(申万)&lt;/td&gt;&lt;td&gt;6.82&lt;/td&gt;&lt;td&gt;9.71&lt;/td&gt;&lt;td&gt;49.30&lt;/td&gt;&lt;td&gt;53.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801230. SI&lt;/td&gt;&lt;td&gt;综合(申万)&lt;/td&gt;&lt;td&gt;15.18&lt;/td&gt;&lt;td&gt;43.55&lt;/td&gt;&lt;td&gt;63.79&lt;/td&gt;&lt;td&gt;84.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801710. SI&lt;/td&gt;&lt;td&gt;建筑材料(申万)&lt;/td&gt;&lt;td&gt;11.24&lt;/td&gt;&lt;td&gt;22.13&lt;/td&gt;&lt;td&gt;32.12&lt;/td&gt;&lt;td&gt;85.21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801720. SI&lt;/td&gt;&lt;td&gt;建筑装饰(申万)&lt;/td&gt;&lt;td&gt;7.29&lt;/td&gt;&lt;td&gt;6.70&lt;/td&gt;&lt;td&gt;13.80&lt;/td&gt;&lt;td&gt;77.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801730. SI&lt;/td&gt;&lt;td&gt;电力设备(申万)&lt;/td&gt;&lt;td&gt;7.50&lt;/td&gt;&lt;td&gt;41.83&lt;/td&gt;&lt;td&gt;42.41&lt;/td&gt;&lt;td&gt;71.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801740. SI&lt;/td&gt;&lt;td&gt;国防军工(申万)&lt;/td&gt;&lt;td&gt;9.50&lt;/td&gt;&lt;td&gt;34.30&lt;/td&gt;&lt;td&gt;100.19&lt;/td&gt;&lt;td&gt;85.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801750. SI&lt;/td&gt;&lt;td&gt;计算机(申万)&lt;/td&gt;&lt;td&gt;10.20&lt;/td&gt;&lt;td&gt;18.24&lt;/td&gt;&lt;td&gt;94.13&lt;/td&gt;&lt;td&gt;98.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801760. SI&lt;/td&gt;&lt;td&gt;传媒(申万)&lt;/td&gt;&lt;td&gt;16.18&lt;/td&gt;&lt;td&gt;27.17&lt;/td&gt;&lt;td&gt;50.30&lt;/td&gt;&lt;td&gt;89.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801770. SI&lt;/td&gt;&lt;td&gt;通信(申万)&lt;/td&gt;&lt;td&gt;3.39&lt;/td&gt;&lt;td&gt;84.75&lt;/td&gt;&lt;td&gt;51.22&lt;/td&gt;&lt;td&gt;88.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801780. SI&lt;/td&gt;&lt;td&gt;银行(申万)&lt;/td&gt;&lt;td&gt;-7.11&lt;/td&gt;&lt;td&gt;7.00&lt;/td&gt;&lt;td&gt;5.95&lt;/td&gt;&lt;td&gt;29.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801790. SI&lt;/td&gt;&lt;td&gt;非银金融(申万)&lt;/td&gt;&lt;td&gt;-0.95&lt;/td&gt;&lt;td&gt;10.06&lt;/td&gt;&lt;td&gt;13.17&lt;/td&gt;&lt;td&gt;7.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801880. SI&lt;/td&gt;&lt;td&gt;汽车(申万)&lt;/td&gt;&lt;td&gt;3.22&lt;/td&gt;&lt;td&gt;24.25&lt;/td&gt;&lt;td&gt;30.40&lt;/td&gt;&lt;td&gt;81.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801890. SI&lt;/td&gt;&lt;td&gt;机械设备(申万)&lt;/td&gt;&lt;td&gt;9.14&lt;/td&gt;&lt;td&gt;41.69&lt;/td&gt;&lt;td&gt;42.88&lt;/td&gt;&lt;td&gt;78.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801950. SI&lt;/td&gt;&lt;td&gt;煤炭(申万)&lt;/td&gt;&lt;td&gt;3.77&lt;/td&gt;&lt;td&gt;-5.27&lt;/td&gt;&lt;td&gt;18.47&lt;/td&gt;&lt;td&gt;82.74&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801960. SI&lt;/td&gt;&lt;td&gt;石油石化(申万)&lt;/td&gt;&lt;td&gt;10.48&lt;/td&gt;&lt;td&gt;11.71&lt;/td&gt;&lt;td&gt;22.54&lt;/td&gt;&lt;td&gt;77.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801970. SI&lt;/td&gt;&lt;td&gt;环保(申万)&lt;/td&gt;&lt;td&gt;7.58&lt;/td&gt;&lt;td&gt;16.89&lt;/td&gt;&lt;td&gt;31.08&lt;/td&gt;&lt;td&gt;78.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;801980. SI&lt;/td&gt;&lt;td&gt;美容护理(申万)&lt;/td&gt;&lt;td&gt;2.19&lt;/td&gt;&lt;td&gt;0.39&lt;/td&gt;&lt;td&gt;39.11&lt;/td&gt;&lt;td&gt;52.04&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 28 日
+综合来看，今年年初以来市场成交与换手已显著升温并处于阶段性高位，杠杆情绪在监管引导下由偏热回落至中性，新增开户等增量指标尚未走向极致。但从估值端角度看，市场已进入整体偏贵、结构分化的状态，行业层面则表现为科技成长与部分周期估值高位、金融与部分消费处于历史洼地，市场后续上涨的空间或更加依赖盈利改善的驱动而非普遍的估值扩张。
+图 19：热门行业成交额占全市场成交额的比重有所抬升  
+![](images/6f803bd96d491752c579e9d32cce7d2295c7466c43e58c739237f573419de767.jpg)  
+资料来源：Wind, 国元证券研究所；截止 2026 年 1 月 27 日
+图 20：新增开户数尚未达到极端水平  
+![](images/09fb11b33fb46be4890a35adef24ffd3e054335538e5fe0dd725e800923b2c44.jpg)  
+资料来源：Wind, 国元证券研究所
+# 1.3.2 政策和基本面的呵护下，潜在的增量资金或许在路上
+当下，从潜在增量资金来源来看，居民存款活化、内外部环境趋于平稳下的外资流入以及机构中长期资金入市仍是我们值得保持乐观的理由。
+图 21：相较于上一个十年，从 2021年开始有较为明显的居民超储行为  
+![](images/579b759b59ee997f2820b6bfd09e3e123207629410656eb1dd1f9e6734653206.jpg)  
+资料来源：Wind, 国元证券研究所
+总体而言，“居民存款搬家”这一叙事在近年来居民存款的结构中呈现出两个值得关注的特征：一是居民部门在 2021—2023 年出现了相对 2010—2020 年长期趋势更为显著的超额储蓄。二是银行体系内个人存款占比与定期化程度同步抬升，反映出
+资金在居民端的沉淀更深，期限更长。一方面，从居民存款与趋势线的对比可以看到，2021至 2023 年期间相较于2010—2020 年的基准增长线，居民存款存在明显的“超储”现象。另一方面，从沪深两市 42 家上市银行的存款结构变化也可印证这一点，自2019 年至2025 年中报，个人存款占银行客户存款的比例由 $4 3 . 9 \%$ 提升 8.8 个百分点至 $5 2 . 7 \%$ ；同时，个人存款中定期存款占比由 $5 7 . 0 8 \%$ 显著上升至 $6 8 . 6 1 \%$ 。
+图 22：个人存款占上市银行客户存款的比例有所提升  
+![](images/9314b497d740826f8e06d098766fc4360aee1b68d89fe617695af9f02a9372dd.jpg)  
+资料来源：42 家上市银行年报，Wind, 国元证券研究所估算
+图 23：定期存款占个人存款的比重亦显著提高  
+![](images/16e771f52afe8c028fce96e794b890adf432f55533d0a7c1d904ffec4ed8af62.jpg)  
+资料来源：42 家上市银行年报，Wind, 国元证券研究所估算
+基于此，我们进一步拆解了 42家上市银行在负债端流动性风险管理披露中的“吸收存款”的剩余期限结构，并将其近似视作定期存款的到期分布。在不考虑续存与提前支取的假设下，我们以个人存款占比对各期限的到期规模进行拆分测算（该口径在现实中可能偏保守）。结果显示，自 2021年起，1—5年期限区间的到期余额增量明显加速。同时，以2025 年6月 30日为基准，3—12 个月内到期的存款占比较 2024 年提升接近6 个百分点，这在一定程度上印证了市场对2026年到期存款规模或高于往年的判断。在2025 年6月底这一基准下，若假设3—12 个月与1—5 年期限内的个人定期存款在各自期限内均匀分布到期，则基准情形下，2026 年 42 家上市银行或有约 22 万亿元个人定期存款到期，若再按 42 家上市银行吸收存款占全行业的比重外推，则 2026 年全行业全年或有约 32万亿元定期存款到期。
+图 24：个人定期存款中 3—12 个月内到期部分占比  
+![](images/070cb8b92c492486849557311f191fecef804807e9acdba2bd00a859bec447e4.jpg)  
+资料来源：42 家上市银行年报，Wind, 国元证券研究所估算
+图 25：3-12个月内到期的个人定期存款增量  
+![](images/25c390947560184303c87658fc92266ed8d82869738e0221b47d20cb804acb29.jpg)  
+资料来源：42 家上市银行年报，Wind, 国元证券研究所估算
+不过，存款到期本身并不必然意味着居民资产配置偏好会发生显著变化。央行于1月28 日披露的 2025 年四季度城镇储户调查显示，储户储蓄意愿仍维持在高位，投资
+意愿甚至较 2025 年三季度有所回落。尽管如此，考虑到测算的到期资金规模庞大，我们仍审慎认为，即便仅有极小比例的资金发生再配置并流入股市，也可能形成较为可观的边际增量资金来源。
+图 26：居民的储蓄意愿仍然处于较高的位置  
+![](images/f96c58712e94a1f594ade53eb5f71cf11302009aaa0ad827f58269cefbd58b4c.jpg)  
+资料来源：Wind, 国元证券研究所
+图 27：储户的投资意愿中选择股票的比例有所提升  
+![](images/1a07287628a62c42aa46cd46441404d127208654ee4d09d99ac896e345a1a5f8.jpg)  
+资料来源：Wind, 国元证券研究所
+除此之外，我们认为上半年在特朗普表达明确的访华意愿之下，中美的经贸摩擦烈度可能会小于 2025 年上半年同期，同样也为 A 股创造较为平稳的外部环境。一方面，从数据上看，外资对于 A 股的配置占比仍有上升的空间，尚未达到 2021 年的高位。
+图 28：境外配置 A股的比例仍有提高的空间  
+![](images/dbc66143d615edf2ef25461e0250cec9049357204971c576a4107f6243f7310a.jpg)  
+资料来源：Wind, 国元证券研究所
+另一方面，根据美国国务院历史办公室（Office of the Historian）维护的总统出访（Travels Abroad of the President）清单统计，我们发现自上证指数发布以来，美国共有四位总统九次访华。其中，民主党两位（克林顿、奥巴马），共和党两位（小布什、特朗普）。从访问频次看，小布什访华次数最多，共计4 次；奥巴马 3次；克林顿与特朗普各1 次。从历次访华事件后 20 个交易日的累计收益率表现看（以访华当日为T0），上证指数在访华后的市场反应并不一致。按政党派别划分，民主党总统访华后的累计平均收益率约为 $4 . 8 \%$ ，共和党总统访华后的累计平均收益率为- $1 . 3 8 \%$ ；不分党派的整体累计平均收益率为 $1 . 3 6 \%$ 。总体而言，中美元首的会晤对 A 股短期影响更偏中性，尚不足以构成明确的单边利好或利空信号，仍需结合后续的宏观环境
+与和政策预期进一步观察。
+图 29：美国总统访华事件上证指数表现汇总  
+![](images/b4d86f37a8de06755218da33bd16c67a8f08f9c38de3c53b7bd63939b83036cb.jpg)  
+资料来源：美国国务院, Wind, 国元证券研究所
+最后，我们在《长期资金入市蓄活水，考核制度完善优生态》报告中曾测算，“长钱长投”的制度改革下，各类中长期机构资金有望为资本市场每年带来上万亿元级别的增量资金。综上，在政策制度持续呵护、基本面边际向好、市场情绪尚未走向极端、增量资金仍具一定空间的背景下，我们判断“慢牛”式的市场格局有望进一步深化。
+# 2.本期总量跟踪
+# 2.1 工业与生产篇：PPI 同比降幅收窄
+2025 年 1-12 月 PPI 累计同比增速降幅持续收窄。2025 年 1-12 月 PPI 累计同比增速- $. 2 . 6 \%$ ，自2025年7月以来连续6个月降幅收窄；12月PPI当月同比增速- $1 . 9 \%$ ，前值 $- 2 . 2 \%$ ，较前值 $+ 0 . 3 \mathsf { p c t }$ 。
+图 30：我国 PPI累计同比增速  
+![](images/fad4751e67d350e38426c2e7392a46ba128981b58615ef7c873367126c52ad27.jpg)  
+资料来源：Wind, 国元证券研究所
+图 31：中国 PPI当月同比增速  
+![](images/8c0d7a9859bfcac924857e52b1532f869f1924c47c81b19cf27939406e09a30b.jpg)  
+资料来源：Wind, 国元证券研究所
+从分项数据来看，有色金属采选和冶炼在同比和环比增速上均居前列，是促进 2025年12月PPI降幅收窄的重要项目。2025 年12月，有色金属矿采选业、有色金属冶炼和压延加工业同比涨幅分别为 $+ 2 4 \%$ 、 $+ 1 0 . 8 \%$ ，较前值+3.8pct、+3pct；其环比涨幅分别为 $+ 3 . 7 \%$ 、 $+ 2 . 8 \%$ ，较前值 $+ 1 . 1$ pct、0.7pct。有色金属采选业价格水平的变化主要受国际有色金属价格上行的推动，2025年 12月，伦敦金/银/铜现价涨幅分别为$+ 2 . 7 9 \% / + 3 3 . 5 4 \% / + 1 0 . 8 6 \%$ 。截至2026年1月28日，伦敦金/银/铜现价较月初涨幅分别为 $+ 2 3 . 1 9 \% / + 5 6 . 6 8 \% / + 4 . 3 \%$ ，国际有色金属价格上行的推力年初仍将持续，2026年开年PPI有望延续降幅收窄的走势。
+图 32：2025 年 12月当月 PPI 同比涨跌幅及其变化  
+![](images/214bb1b452f15788b745dde4b1b34fe0a9116f5619d2b773e1a79b0a4c71f0b8.jpg)  
+资料来源：Wind, 国元证券研究所
+图 33：2025 年 12月当月 PPI 环比涨跌幅及其变化  
+![](images/92b5f75aaa23799123a84356a3c1ba7bb4a31ea8f6ad17b6dbec3aac373fe49e.jpg)  
+资料来源：Wind, 国元证券研究所
+图 34：2025 年黄金、白银现货价格变化（美元/盎司）  
+![](images/865dda3643bd8f4ed58322ea7903bc3cf3a562511902e276a9ce403440b8319f.jpg)  
+资料来源：Wind, 国元证券研究所
+图 35：2025 年铜现货价格变化（美元/吨）  
+![](images/5a9e5c239b038bbe6951553b4241ad4ade507f5524afa3f796771cdb98d8af02.jpg)  
+资料来源：Wind, 国元证券研究所
+# 2.2 消费篇：以旧换新政策“缩量提质”，服务业在零售额增速与就业方面成为 $\mathsf { K }$ 型曲线的上行端
+# 2.2.1以旧换新政策的评价与展望
+在比较 2025 年与 2024 年以旧换新政策的实施效果时可以发现，2025 年国补资金对以旧换新相关商品销售额的刺激效率与 2024年相同（单位资金的刺激作用相同），不同品类刺激效果有分化。2024 年，中央财政以 1500 亿消费品以旧换新资金带动相关产品销售额超 1.3 万亿元，而 2025 年中央财政以双倍资金（3000 亿元）带动相关产品销售额翻倍（全年销售额超 2.6 万亿元）。汽车、家电、家装厨卫、电动自行车以旧换新量均有所增长，但各品类增长率差异较大，其中电动自行车实现同比$8 0 5 . 8 \%$ 的增长，而汽车仅增长 $6 9 . 1 \%$ 。2026 年，第一批 625 亿元超长期特别国债支持消费品以旧换新资金计划已提前下达，若各季度下达资金比例与 2025 年相同，则全年预计下达约 2315 亿元国补资金；若各季度下达资金相同，则全年预计下达2500亿元国补资金。
+表 5：2025 年与 2024年以旧换新政策实施效果对比  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;品类&lt;/td&gt;&lt;td&gt;2024年&lt;/td&gt;&lt;td&gt;2025年&lt;/td&gt;&lt;td&gt;同比增长&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;2024年，全国汽车以旧换新超过680万辆&lt;/td&gt;&lt;td&gt;汽车以旧换新超1150万辆&lt;/td&gt;&lt;td&gt;69.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;超3600万名消费者购买8大类家电以旧换新产品超过5600万台&lt;/td&gt;&lt;td&gt;家电以旧换新超1.29亿件&lt;/td&gt;&lt;td&gt;130.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家装厨卫&lt;/td&gt;&lt;td&gt;家装厨卫“焕新”补贴产品约6000万件&lt;/td&gt;&lt;td&gt;家装厨卫“焕新”超1.2亿件&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电动自行车&lt;/td&gt;&lt;td&gt;电动自行车以旧换新超过138万辆&lt;/td&gt;&lt;td&gt;电动自行车以旧换新超1250万辆&lt;/td&gt;&lt;td&gt;805.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;以旧换新带动相关产品销售额&lt;/td&gt;&lt;td&gt;2024年消费品以旧换新带动相关产品销售额超过1.3万亿元&lt;/td&gt;&lt;td&gt;2025年，以旧换新相关商品销售额超2.6万亿元&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中央财政消费品以旧换新资金&lt;/td&gt;&lt;td&gt;1500亿元&lt;/td&gt;&lt;td&gt;3000亿元&lt;/td&gt;&lt;td&gt;100.0%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：中国政府网，证券时报网，商务部，新华网，国元证券研究所
+在观察 2025年年内国补资金对以旧换新相关商品销售的刺激作用时可以发现，各以旧换新品类的同比增速基本呈现前高后低的特征。各品类增速基本在 5 月左右达到峰值，且除通讯器材类外各品类增速在补贴力度退坡的下半年（一二季度均补贴 810亿元，三四季度均补贴 690 亿元）呈下行趋势。
+图 36：各以旧换新品类增速  
+![](images/096ab108dfef182f0648cd6fe85d544a679dc112b928889bdaaaa921fe8a6306.jpg)  
+资料来源：iFind, 国元证券研究所
+在比较 2026 年与 2025 年以旧换新政策的区别时可以发现，2026 年的以旧换新政策相比 2025年更突出“精准化、微型化、绿色化、智能化、适老化”五大导向，更加符合我国国情实际与新质生产力发展导向。精准化方面，2026 年政策对汽车报废的补贴从定额补贴转向比例补贴，解决车价不同导致补贴比例不同的问题，同时对汽车置换补贴的规则进行细化；微型化方面，比例补贴导致 2026年对单辆车的补贴力度小于等于 2025年，且家电的补贴品类缩小、补贴力度降低，取消对电动自行车的补贴，符合2026 年国补资金整体降低的趋势；绿色化方面，不再补贴 2级能效或水效标准的家电产品；智能化方面，将智能眼镜纳入补贴范围，保留对智能家居产品的购新补贴；适老化方面，取消对旧房装修、厨卫等局部改造的补贴，但仍保留对适老化家居产品的补贴。
+表 6：2026 年“以旧换新”政策详情与主要区别  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2025年&lt;/td&gt;&lt;td&gt;2026年&lt;/td&gt;&lt;td&gt;主要区别&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车报废&lt;/td&gt;&lt;td rowspan="2"&gt;扩大汽车报废更新支持范围。在《关于进一步做好汽车以旧换新有关工作的通知》(商消费函〔2024〕392号)基础上,将符合条件的国四排放标准燃油乘用车纳入可申请报废更新补贴的旧车范围。个人消费者报废2012年6月30日前(含当日,下同)注册登记的汽油乘用车、2014年6月30日前注册登记的柴油及其他燃料乘用车,或2018年12月31日前注册登记的新能源乘用车,并购买纳入《减免车辆购置税的新能源汽车车型目录》的新能源乘用车或2.0升及以下排量燃油乘用车,购买新能源乘用车单台补贴2万元、购买2.0升及以下排量燃油乘用车单台补贴1.5万元。个人消费者按本通知标准申请补贴,相应报废的机动车须为本通知公布之日前登记在本人名下的机动车。完善汽车置换更新补贴标准。个人消费者转让登记在本人名下乘用车并购买乘用车新车的,给予汽车置换更新补贴支持,购买新能源乘用车单台补贴最高不超过1.5万元,购买燃油乘用车单台补贴最高不超过1.3万元。个人消费者按本通知标准申请补贴,转让的既有乘用车登记在本人名下的时间最迟不得晚于本通知公布之日。汽车置换更新补贴实施细则由各地区按照本通知要求并结合实际合理制定。&lt;/td&gt;&lt;td&gt;支持汽车报废更新。个人消费者报废登记在本人名下的乘用车,并购买纳入《减免车辆购置税的新能源汽车车型目录》的新能源乘用车或2.0升及以下排量燃油乘用车的,给予汽车报废更新补贴支持,购买新能源乘用车补贴车价的12%(最高不超过2万元)、购买2.0升及以下排量燃油乘用车补贴车价的10%(最高不超过1.5万元)。&lt;/td&gt;&lt;td&gt;1.体现精准化导向:定额补贴转向比例补贴,解决了25年低价车享受补贴比例更高的问题2.体现微型化导向:2026年对单辆车的补贴力度小于等于2025年&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车置换&lt;/td&gt;&lt;td&gt;支持汽车置换更新。个人消费者转让登记在本人名下的乘用车,并购买纳入《减免车辆购置税的新能源汽车车型目录》的新能源乘用车或2.0升及以下排量燃油乘用车的,给予汽车置换更新补贴支持,购买新能源乘用车补贴车价的8%(最高不超过1.5万元)、购买2.0升及以下排量燃油乘用车补贴车价的6%(最高不超过1.3万元)。&lt;/td&gt;&lt;td&gt;对补贴规则进行进一步细化&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;加力支持家电产品以旧换新。继续支持冰箱、洗衣机、电视、空调、电脑、热水器、家用灶具、吸油烟机等8类家电产品以旧换新,将微波炉、净水器、洗碗机、电饭煲等4类家电产品纳入补贴范围。个人消费者购买上述12类家电中2级能效或水效标准的产品,补贴标准为产品销售价格的15%;1级能效或水效标准的产品,补贴标准为产品销售价格的20%。每位消费者每类产品可补贴1件(空调产品最多可补贴3件),每件补贴不超过2000元。2024年已享受某类家电产品以旧换新补贴的个人消费者,2025年购买同类家电产品可继续享受补贴。&lt;/td&gt;&lt;td&gt;支持家电以旧换新。个人消费者购买冰箱、洗衣机、电视、空调、电脑、热水器等6类家电中1级能效或水效标准的产品,按产品销售价格的15%给予补贴,每位消费者每类产品可补贴1件,每件补贴不超过1500元。&lt;/td&gt;&lt;td&gt;1.补贴品类缩小:家用灶具、吸油烟机不再纳入补贴范围2.体现绿色化导向:不再补贴2级能效或水效标准的产品3.体现微型化导向:补贴力度减小,对于26年符合国补条件的家电,在25年补贴标准为产品销售价格的20%、上限2000元,而26年为补贴产品销售价格的15%、上限1500元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;数码/智能产品&lt;/td&gt;&lt;td&gt;实施手机等数码产品购新补贴。对个人消费者购买手机、平板、智能手表手环等3类数码产品（单件销售价格不超过6000元），按产品销售价格的15%给予补贴，每位消费者每类产品可补贴1件，每件补贴不超过500元。&lt;/td&gt;&lt;td&gt;支持数码和智能产品购新。个人消费者购买手机、平板、智能手表手环、智能眼镜等4类产品（单件销售价格不超过6000元），按产品销售价格的15%给予补贴，每位消费者每类产品可补贴1件，每件补贴不超过500元。&lt;/td&gt;&lt;td&gt;新增智能眼镜&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家装/家居&lt;/td&gt;&lt;td&gt;积极支持家装消费品换新。加大对个人消费者在开展旧房装修、厨卫等局部改造、居家适老化改造过程中购置所用物品和材料的补贴力度，积极促进智能家居消费等。补贴品类、标准、限额和实施方式由有关部门指导各地区结合实际合理确定。&lt;/td&gt;&lt;td&gt;支持智能家居产品（含适老化家居产品）购新补贴，具体补贴品类、补贴标准由地方结合实际自主合理制定。&lt;/td&gt;&lt;td&gt;更突出智能化、适老化导向&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电动自行车&lt;/td&gt;&lt;td&gt;加快推进电动自行车以旧换新。各地区要进一步完善补贴实施细则，优化补贴方式，简化操作流程，加强市场监管，加快推进电动自行车以旧换新。对个人消费者交售用于报废的老旧电动自行车并换购新车的，给予以旧换新补贴；对交售用于报废的老旧锂离子蓄电池电动自行车并换购铅酸蓄电池电动自行车新车的，可适当加大补贴力度。电动自行车以旧换新补贴标准由有关部门指导各地区结合实际合理制定。&lt;/td&gt;&lt;td&gt;未提及&lt;/td&gt;&lt;td&gt;不再补贴电动自行车&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：国家发改委，国元证券研究所
+# 2.2.2服务业成为促消费、稳就业的重要抓手
+2025年8 月以来，服务零售额累计同比增速实现连续上升，而商品零售额累计同比增速则连续下降，呈现出 K 型分化态势，商品消费为主向服务消费为主的升级转变过程进一步加速。商品消费为主向服务消费为主转变是消费升级的必然趋势，也是随着经济发展人民追求更加美好生活的必然要求。2025 年 9 月商务部等 9 部门印发《关于扩大服务消费的若干政策措施》，或有力加速了服务零售额的提升，服务消费正成为我国提振消费、开拓增长空间的越来越重要的抓手。同时，2025 年三季度起国补资金由一、二季度的 810 亿元下降至 690 亿元，国补力度退坡叠加前期的高基数效应，商品零售额累计同比增速持续下降。
+图 37：服务零售额增速与商品零售额增速出现 K型分化  
+![](images/be891e3c968f8153a64985e88117d8767cdd260345e53231ffb07e5a851bda08.jpg)  
+资料来源：iFind, 国元证券研究所
+年末就业形势总体平稳，服务业就业领涨，与制造业、建筑业就业出现倒 K 型或 K型分化态势。2025年12月，全国城镇调查失业率环比来看已连续3个月保持 $5 . 1 \%$ ，同比来看与 2021年、2023 年、2024 年同期均保持一致。制造业企业用工景气度维持在近 5年高位，2025年12 月制造业PMI从业人员指数为 $4 8 . 2 \%$ ，仍位于 $50 \%$ 的荣枯线下、处于收缩区间，同比上升 0.1 个百分点，环比下降 0.2 个百分点，年末（11 月、12月）维持在近5年高位。非制造业企业用工景气度显著上涨，主要由服务业带动，非制造业 PMI 从业人员指数为 $4 6 . 1 \%$ ，同比上升 0.3 个百分点，环比上升 0.8 个百分点，具体来看，建筑业 PMI 从业人员指数为 $41 \%$ ，同比下降 1.7 个百分点，环比下降 0.8 个百分点；服务业 PMI 从业人员指数为 $4 7 \%$ ，同比上升 0.7 个百分点、环比上升 1.1 个百分点，已上升至近 5年最高水平。
+图 38：全国城镇调查失业率（%）  
+![](images/0aa87553b1811ade50b201b70e0f182bab0334417f4203ccbad869ddc546e571.jpg)  
+资料来源：iFind, 国元证券研究所
+图 39：制造业 PMI:从业人员（%）  
+![](images/b16244ee39940382e5bb5ce68e3cf4eaf5da20f2ce223335ae22e7b5846df697.jpg)  
+资料来源：iFind, 国元证券研究所
+图 40：非制造业 PMI：从业人员（%）  
+![](images/62f0b48dac868940de48a1a9a3585407637e45bd42aa4f58044313864c511d2b.jpg)  
+资料来源：iFind, 国元证券研究所
+图 41：非制造业 PMI:建筑业:从业人员（%）  
+![](images/2af4c48d7ced146f627f51906fe4ea156abde7a27a4f7fdda970661e3ced89ee.jpg)  
+资料来源：iFind, 国元证券研究所
+图 42：非制造业 PMI:服务业:从业人员（%）  
+![](images/1fbec7877b4624fe546e0f147742c8e171417732b0bdb80567424bdabedd6619.jpg)  
+资料来源：iFind, 国元证券研究所
+图 43：服务业与制造业 PMI 从业人员指数的“倒 $\mathsf { K }$ 型分化”  
+![](images/4500b1bfb90eb4386e2dd2f21ab15fc6394ffb734cd6a721ea18a0249029986e.jpg)  
+资料来源：iFind, 国元证券研究所
+图 44：服务业与建筑业 PMI 从业人员指数的 $^ { 6 6 } \mathsf { K }$ 型分化”  
+![](images/c562cd8ae78bdd2e1988ec44f165a4131242cdbf43f1d8113e8ebecd36320e97.jpg)  
+资料来源：iFind, 国元证券研究所
+支持服务消费或可以有力促进消费与就业之间的正循环。服务业是我国重要的就业“蓄水池”，是新增劳动就业和吸收农业、工业领域转移劳动力存量的主要力量与稳就业、保民生的重要抓手。正常情况下，服务业每增长一个百分点，创造的就业机会比制造业高 $2 5 \%$ 左右。在制造业加速向无人化发展的当下，通过加大对服务消费的支持力度，扩大优质服务供给，或可以成功构建起“消费增-就业强-消费增”的正向螺旋。
+# 2.3 进出口篇：经贸摩擦背景下，全年顺差</t>
+  </si>
+  <si>
+    <t># 鹰派沃什交易落地，股市波动率攀升
+全球股市立体投资策略周报 2 月第 1 期
+# 本报告导读：
+上周新兴市场涨幅收窄、发达市场收平，特朗普提名联储主席候选人沃什导致“鹰派”交易，避险资产与有色领跌。资金面上，由于联储主席提名人选偏鹰派，美联储降息预期走弱。基本面上，上周日股欧股盈利预期上修，欧美经济高频景气上修。
+# 投资要点：
+[T le_Summary] 市场表现：上周新兴市场涨幅收窄。股市方面，MSCI全球 $+ 0 . 2 \%$ ，其中MSCI发达市场 $+ 0 . 0 \%$ 、MSCI新兴市场 $+ 1 . 4 \%$ 。债市方面，美国10Y国债利率上升幅度最大。大宗方面，原油大涨，金银明显回调。汇率方面，美元贬，英镑升，日元升，人民币贬。上周全球能源板块一致上涨，中国股市顺周期偏强，欧美公用&amp;通讯表现更优。  
+。 交投情绪：上周全球市场普遍放量，主要指数波动率均出现上升。从成交看，上周 A/港/美/欧/日股成交上升，韩股成交下降。从情绪看，港股投资者情绪环比上升、处历史高位，美股投资者情绪处于历史高位。从波动率看，上周港/美/欧/日股波动率上升，美债波动率下降。从估值看，上周发达市场/新兴市场估值均较前周提升。  
+。 盈利预期：上周日股欧股盈利预期上修。横向对比来看，截至2026/1/30，上周日股2025 年盈利预期边际变化表现最优，美股、欧股次之，港股表现最末。其中：1）港股盈利预期上修，恒生指数2025 年 EPS 盈利预期从- $- 2 . 1 \%$ 上修至 $- 2 . 0 \%$ 。2）美股盈利预期上修，标普500指数2025年EPS盈利预期从 $+ 1 0 . 5 \%$ 上修至 $+ 1 1 . 8 \%$ 。3）欧股盈利预期上修，欧元区 STOXX50 指数 2025 年 EPS 盈利预期从- $. 4 . 5 \%$ 上修至 $- 4 . 4 \%$ 。  
+。 经济预期：上周美国经济高频景气回升。过去一周，花旗美国经济意外指数上升，或因部分企业财报强于预期、格陵兰岛争端缓解等；欧洲经济意外指数回升，或受欧元区四季度 GDP 环比高于预期、格陵兰岛争端缓解等提振；花旗中国经济意外指数边际改善，或受地产、服务消费等政策预期，以及中英关系缓和等因素提振。  
+。 资金流动：鹰派沃什当选下一任美联储主席。从央行政策利率看，1 月美联储决议维持利率不变，叠加特朗普提名沃什为新任联储主席候选人，引发市场鹰派预期。截至 1/30，市场预期联储 26 年降息 2.1 次，较前周小幅下降。美元流动性变化不大，SOFR-OIS 利差较上周收窄。全球微观流动性上，11 月资金主要流入中国大陆、美国、韩国、印度与欧洲；上周港股最大增量资金来自港股通。  
+。 风险提示：部分指标为测算值，美联储降息快于预期，特朗普政策不确定性。
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;陈菲(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-23187260&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;chenfei4@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880525040127&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# [Table_Rep相关报告
+地缘风险频发，避险资产领涨 2026.01.27
+地缘事件与财报季交织，科技结构冲高
+2026.01.20
+跨年行情在途，亚洲继续领涨 2026.01.14
+岁末年初躁动下亚洲市场领涨 2026.01.06
+长线外资积极增配港股软件服务 2026.01.04
+# 目录
+1. 市场表现：上周新兴市场涨幅收窄  
+2. 交投情绪：上周主要市场波动率回升 4  
+3. 资金流动：沃什被提名引发鹰派交易  
+4. 基本面：上周日股欧股盈利预期整体上修..  
+5. 风险提示. .12
+当今全球不同金融市场之间的联动日益复杂，单一市场波动往往会引发跨市场连锁反应。基于此，国泰海通海外策略团队特别推出“全球股市立体投资策略”系列周报，高频跟踪中、美、欧、日等全球重要资本市场的行情走势、交投情绪、基本面、资金流动等数据，为投资者提供参考。
+# 1. 市场表现：上周新兴市场涨幅收窄
+上周新兴市场涨幅收窄，美债长端利率上行，原油大涨、金银普跌，日元升值。股市方面，上周（2026/1/26-2026/1/30，下同）MSCI 全球 $+ 0 . 2 \%$ ，其中MSCI发达市场 $+ 0 . 0 \%$ 、MSCI新兴市场 $+ 1 . 4 \%$ 。具体来看，发达市场中，韩国综合指数表现最强（ $+ 4 . 7 \%$ ），德国DAX表现最弱 $( - 1 . 5 \%$ ）；新兴市场中，恒生指数表现最优（ $+ 2 . 4 \%$ ），墨西哥MXX表现最差 $( \phantom { } - 0 . 9 \%$ ）。债市方面，美国 10Y 国债利率上升幅度最大（ $+ 2 . 0 { \mathsf { B P } }$ ），法国下降幅度最大（-6.4BP）。大宗方面，ICE布伦特原油（ $+ 7 . 3 \%$ ）涨跌幅靠前，COMEX银（-$2 2 . 5 \%$ ）涨跌幅靠后。汇率方面，美元贬，英镑升，日元升，人民币贬。
+图1：上周新兴市场涨幅收窄  
+![](images/11171e3a255a99489e8792fb3b26ec7392c2cb6f8490336867f1507a1da54d3c.jpg)  
+数据来源：Wind，国泰海通证券研究
+图2：上周美债长端利率上行  
+![](images/d635e381cfdd3af38fbf7a754a72f8e30e262abf3259fbfa32c3febdc3fe68d4.jpg)  
+数据来源：Wind，国泰海通证券研究
+图3：上周原油大涨、金银普跌  
+![](images/db0a32422222a3258985444d5b32c4a034c478772eaa89cc79d76955136a996b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图4：上周日元升值  
+![](images/ea278f0af04d905f6262bef3ec34bb0e56e4e94310ee1671164496086cb10a16.jpg)  
+数据来源：Wind，国泰海通证券研究
+上周全球能源板块一致上涨，中国股市顺周期偏强，欧美公用&amp;通讯表现更优。A股方面，能源、日常消费表现领先，涨跌幅分别为 $6 . 4 \%$ 、 $1 . 3 \%$ ；可选消费、工业表现落后，涨跌幅分别为- $^ { - 4 . 2 \% }$ 、 $- 4 \%$ 。港股方面，能源业、地产建筑业表现领先，涨跌幅分别为 $7 . 4 \%$ 、 $5 . 7 \%$ ；医疗保健业、非必需性消费表现落后，涨跌幅分别为- $- 2 . 7 \%$ 、 $- 0 . 5 \%$ 。美股方面，能源、通讯服务表现领先，涨跌幅分别为 $3 . 9 \%$ 、 $3 . 8 \%$ ；医疗保健、可选消费表现落后，涨跌幅分别为- $1 . 7 \%$ 、 $- 1 . 4 \%$ 。欧股方面，能源、公用事业表现领先，涨跌幅分别为 $4 . 3 \% . 3 . 3 \%$ ；可选消费、信息技术表现落后，涨跌幅分别为-2.8%、-2.1%。英股方面，能源、公用事业表现领先，涨跌幅分别为 $4 . 1 \%$ 、 $3 . 9 \%$ ；工业、信息技术表现落后，涨跌幅分别为- $. 5 . 1 \%$ 、 $- 4 . 4 \%$ 。日股方面，能源、房地产表现领先，涨跌幅分别为 $4 . 8 \%$ 、 $- 0 . 4 \%$ ；原材料、可选消费表现落后，涨跌
+幅分别为 $- 4 . 4 \%$ 、 $- 3 . 5 \%$ 。
+图5：上周港股能源业表现最优、医疗保健业表现较差  
+![](images/83fc3d541d4ff4a448b2f4a1526254e4034d4414db1338dd0188b033bf6e9d08.jpg)  
+数据来源：Wind，国泰海通证券研究
+图6：上周美股能源表现最优、医疗保健表现落后  
+![](images/61d83ffa97d991fb5189f20c4d424bc69680b5777ac97f35fc8e035f8ecdef91.jpg)  
+数据来源：Wind，国泰海通证券研究
+图7：上周欧股能源表现最优、可选消费表现较差  
+![](images/a96b673f72e8a4f7a58be99ed46db7028391ebbd99f4ec28edc1cae010aeb70e.jpg)  
+数据来源：Wind，国泰海通证券研究
+图8：上周日股能源表现最优、原材料表现落后  
+![](images/0a0dc86cbfd176d4b6960c77d3715f146e66822d0becf17e29b2a2e5a11b5ce8.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 2. 交投情绪：上周主要市场波动率回升
+上周全球市场普遍放量，主要指数波动率均出现上升。从成交量/成交额看，上周上证指数成交较前周环比上升、为4131亿股/9746亿美元，恒生指数成交环比上升、为 199 亿股/810 亿美元，标普 500 成交环比上升、为 51亿股/7282 亿美元，欧洲 Stoxx50 成交环比上升、为 10 亿股/591 亿美元，日经 225成交环比上升、为 74亿股/1550 亿美元，韩国KOSPI200 成交环比下降、为10亿股/946亿美元。
+从投资者情绪看，港股方面，上周港股卖空占比较前周环比下降，目前为$12 . 9 \%$ ，滚动三年分位数 $13 \%$ ，港股投资情绪处于历史高位；美股方面，上周NAAIM经理人持仓指数较前周环比上升，目前为 $9 2 . 6 \%$ ，滚动三年分位数 $81 \%$ ，北美投资情绪处于历史高位。从波动率看，上周港股波动率上升，美股波动率上升，欧股波动率上升，日股波动率上升，此外美债波动率出现下降。
+图9：上周欧美股市成交上升  
+![](images/2e598fbaf5418e6061d368ba3d1972770abbd47f76a06a17b71a0fa239a89029.jpg)  
+数据来源：Bloomberg，Wind，国泰海通证券研究
+图10：上周港股 A 股成交上升  
+![](images/2b1eb91084bb77d83201890c94eb965c0f67d1ded63682a41f4f8dd5c26c76db.jpg)  
+数据来源：Bloomberg，Wind，国泰海通证券研究
+图11：上周港股卖空占比环比下降  
+![](images/bf3400c23f393a436b541a92140a376ab94553ba9413ebdb65e17e140b3553f9.jpg)  
+数据来源：Wind，国泰海通证券研究
+图12：上周北美经理人持仓环比上升  
+![](images/3632034cda95753bd06a9d22f34ea1a51b31e226fcde19d98f8e23ba76b22ae6.jpg)  
+数据来源：CEIC，国泰海通证券研究
+图13：上周港股波动率上升  
+![](images/e09bcde5aa6d5f09e1e20d4c9e0e6eea4d07d673d01de583115d60a68d322912.jpg)  
+数据来源：Wind，国泰海通证券研究
+图14：上周美股波动率上升  
+![](images/f90ac31ef37c1c40f5fe5831621e083c858e7963e8579abfde88dc2ed0ceb698.jpg)  
+数据来源：Wind，国泰海通证券研究
+上周发达市场整体估值较前周提升。截至 2026/1/30，发达市场最新PE、PB分别为24.4倍、4倍，处于 2010年以来从低到高 $94 \%$ 、 $100 \%$ 分位数水平。从绝对估值看，纳斯达克、标普 500PE 估值最高，最新PE 分别为41.4倍、29.3 倍，较前周-0.6 倍、-0.2 倍；德国 DAX、法国 CAC40PE 估值最低，最新 PE 分别为 17.8 倍、18.6 倍，较前周-1.6 倍、 $+ 0 . 2$ 倍。从估值分位数看，台湾加权指数、韩国综合指数PE估值分位数最高，最新分位数分别为 $100 \%$ 、$93 \%$ ，较前周 $+ 1 3 . 6$ pct、 $+ 2 0 . 5$ pct；法国 CAC40、德国 DAXPE 估值分位数最低，最新分位数分别为 $5 5 \%$ 、 $59 \%$ ，较前周+1.9pct、-17.4pct。
+上周新兴市场整体估值较前周提升。截至 2026/1/30，新兴市场最新PE、PB分别为18.6倍、2.3倍，处于 2010年以来从低到高 $90 \%$ 、 $100 \%$ 分位数水平。从绝对估值看，创业板指、恒生科技PE估值最高，最新PE 分别为42.6倍、23.8 倍，较前周-0.3 倍、 $+ 0 . 0$ 倍；恒生指数、沪深 300PE 估值最低，最新PE 分别为 12.5 倍、14.2 倍，较前周 $+ 0 . 3$ 倍、 $+ 0 . 1$ 倍。从估值分位数看，上证指数、恒生指数PE估值分位数最高，最新分位数分别为 $93 \%$ 、 $82 \%$ ，较前周+0.0pct、 $+ 2 . 7$ pct；墨西哥 MXX、恒生科技 PE 估值分位数最低，最新
+分位数分别为 $34 \%$ 、 $3 7 \%$ ，较前周 $+ 8 . 7$ pct、-42.2pct。
+图15：发达市场中美股估值分位数仍较高（1）  
+![](images/102e6ffbfe1b4df79012e5547a4372641437ad0f98409cde9e20994e18e6a885.jpg)  
+数据来源：Wind，Bloomberg，国泰海通证券研究
+图16：发达市场中美股估值分位数仍较高（2）  
+![](images/2f13b78e84a6a4538764498b78b983ffff5a6b08e9055af4f494cc8619e372a0.jpg)  
+数据来源：Wind，Bloomberg，国泰海通证券研究
+图17：新兴市场中恒科估值分位数处于中低位（1）  
+![](images/9d6dc807a0555afff19be6290b441dbdb812074087536b7fc75d78aacb86d756.jpg)  
+数据来源：Wind，Bloomberg，国泰海通证券研究
+图18：新兴市场中恒科估值分位数处于中低位（2）  
+![](images/0fa6010648a108214ed4286b0cf9bfa2753d12cf11fc581ed58cacde36cf41fb.jpg)  
+数据来源：Wind，Bloomberg，国泰海通证券研究
+港股方面，医疗保健业 PE估值最高，地产建筑业PE估值分位数最高。截至2026/1/30，从绝对估值看，医疗保健业、地产建筑业PE估值最高，最新PE 分别为 38.7 倍、29.6 倍；能源业、金融业 PE 估值最低，最新 PE 分别为10.2倍、9.2倍。从估值分位数看，地产建筑业、原材料业PE估值分位数最高，处于2010年以来从低到高 $9 5 \%$ 、 $80 \%$ 分位数；必需性消费、资讯科技业PE 估值分位数最低，处于 2010年以来从低到高 $1 9 \%$ 、 $20 \%$ 分位数。
+美股方面，房地产 PE 估值最高，日常消费 PE 估值分位数最高。截至2026/1/30，从绝对估值看，房地产、信息技术PE 估值最高，最新PE分别为41.6倍、39.1倍；公用事业、金融PE 估值最低，最新PE 分别为19.4倍、18.5倍。从估值分位数看，日常消费、通讯服务PE估值分位数最高，处于2010 年以来从低到高 $100 \%$ 、 $94 \%$ 分位数；房地产、医疗保健 PE 估值分位数最低，处于2010年以来从低到高 $23 \%$ 、 $6 1 \%$ 分位数。
+欧股方面，信息技术PE估值最高，材料PE估值分位数最高。截至2026/1/30，从绝对估值看，信息技术、非必须消费品PE估值最高，最新PE分别为33.4倍、26.1倍；金融业、能源PE 估值最低，最新PE 分别为 12.1倍、11.5倍。从估值分位数看，材料、工业 PE 估值分位数最高，处于 2010 年以来从低到高 $93 \%$ 、91%分位数；房地产、必需消费品PE 估值分位数最低，处于 2010年以来从低到高 $1 \%$ 、 $12 \%$ 分位数。
+日股方面，电器 PE估值最高，银行 PE估值分位数最高。截至 2026/1/30，从绝对估值看，电器、其他产品PE估值最高，最新PE 分别为29.0倍、28.8倍；电力与天然气、航运PE 估值最低，最新PE 分别为 8.8倍、7.0倍。从估值分位数看，银行、仓储与港口运输服务PE 估值分位数最高，处于 2010年以来从低到高 $9 8 \%$ 、 $9 7 \%$ 分位数；保险、陆路运输 PE 估值分位数最低，处于 2010年以来从低到高 $8 \%$ 、 $12 \%$ 分位数。
+图19：港股地产建筑、原材料 PE 估值分位数最高  
+![](images/0a475f5de765293309f34761994dd422c9d6caf6608f8f68ea0893714d4699d1.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图20：美股日常消费、通讯服务 PE 分位数最高  
+![](images/6516d04970795a32a56bfdd5a63c2089ba0ea1b57772cbcb6f697f8b8b5ed167.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图21：欧股材料、工业 PE 分位数较高  
+![](images/1aadbdf85401708839aa9f067eb6b065f471b842d0b39499757435825c47b128.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图22：日股仓储与港口运输服务、银行 PE 分位数最高  
+![](images/5888dcff2a14cf5167de438515d09b5a3c84c65dc568fbcf0b8f147f49545c00.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+# 3. 资金流动：沃什被提名引发鹰派交易
+上周海外流动性预期边际收紧。1）宏观流动性：从货币市场基准利率看，中国利率上升，美国利率不变。从央行政策利率看，1月美联储决议维持利率在 $3 . 5 0 \% - 3 . 7 5 \%$ 不变，叠加特朗普提名凯文·沃什为新任联储主席候选人，其一贯以来的鹰派主张引发市场对“降息+缩表”的预期。从全年维度看，截至1/30，期货市场隐含利率显示市场预期美联储26年降息2.1次，较前周上升；欧央行 26 年降息 0.25 次，较前周小幅上升；日央行 26 年加息 1.8次，较前周下降。
+2）中观流动性：从长端利率看，上周长端利率多数下跌，其中美国10Y国债收益率上升 2.0BP、法国 10Y 国债收益率下降 6.4BP。从货币互换基差看，上周欧元/美元下降 0.125BP、日元/美元基差上升 0.125BP，美元流动性变化不大。SOFR-OIS 利差较上周收窄，显示金融市场流动性风险边际回落。
+图23：市场预期美联储26年降息 2.1次左右  
+![](images/b2c03d9a04c49886fe08e8d2b282c498b649879cff0256146b3acb441a21ed7a.jpg)  
+请务必阅读正文之后的免责条款部分 7 of13
+![](images/1f3b4b86a2c110adf14d460553de6d0efa00edb958e837f2b50e1fea0eaf8ba9.jpg)  
+图24：市场预期日央行26年加息 1.8次左右
+数据来源：Bloomberg，国泰海通证券研究
+数据来源：Bloomberg，国泰海通证券研究
+图25：全球主要央行普遍处在降息周期（%）  
+![](images/60e451b18b37efe3dee8fccf0cd94057ad54e4206de623259f95154e942ce536.jpg)  
+数据来源：Wind，国泰海通证券研究
+图26：上周主要经济体短端利率涨跌参半  
+![](images/8ccf5eb2a68a1cce2472c6384e29e28d7e50fd989aef35735e01ac35194c803a.jpg)  
+数据来源：Wind，国泰海通证券研究
+图27：上周主要经济体长端利率多数下跌  
+![](images/efd48012f3bc1f2e81df6876615f66ba510a4f3076e5115f1a6698d96bed5880.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图28：上周美元流动性变化不大  
+![](images/eee1c679887550e902faee6a32671110f17024614aa43658bd0c44c5782b6a46.jpg)  
+数据来源：Wind，国泰海通证券研究
+图29：上周 SOFR-OIS 利差收窄  
+![](images/0a19f8f757baf7cd91d0483b5ff6998ce81b34a88aee0f11bbec442903bcade8.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+全球微观流动性上，11月资金主要流入中国大陆、美国、韩国、印度与欧洲。从亚太市场看，11 月全球共同基金净流入中国大陆、韩国、印度与中国香港的规模为 123 亿美元、60 亿美元、47 亿美元与 3 亿美元，净流入日本的规模为 7 亿美元。从美欧市场看，11 月全球共同基金净流入美国的规模为92亿美元，净流入欧洲（英、德、法口径）的规模为 31 亿美元。
+港股资金面上，最近一周资金合计流入港股59 亿港元。根据港交所中央结算系统持股明细数据，最近一周（2026/1/26-2026/1/30）各类资金合计流入港股市场 59 亿港元，其中稳定型外资流出 35 亿港元，灵活型外资流入82 亿港元，港股通流入 126 亿港元，中国香港或大陆本地资金流出 91 亿港元。
+图30：11 月资金主要流入中国大陆、美国、韩国、印度与欧洲  
+![](images/46022eb399247caa51787fa9cc33c6fca193f4e3b01d692fa1bc87f04c6e31c0.jpg)  
+数据来源：Bloomberg，HKEX，Wind，CEIC，国泰海通证券研究
+图31：上周港股最大增量资金来自港股通（1）  
+![](images/25e12316349ff6bd3fabf49bbba5aa57aeb8f1109e7dc0c3cc3cc3afe94ac5fc.jpg)  
+数据来源：Wind，HKEX，国泰海通证券研究
+图32：上周港股最大增量资金来自港股通（2）  
+![](images/2c695c05f7da120e82055256b898b168bf1d7257fb554ddca9993321a0582687.jpg)  
+数据来源：Wind，HKEX，国泰海通证券研究
+# 4. 基本面：上周日股欧股盈利预期整体上修
+上周日股欧股盈利预期上修，美股工业板块 25年盈利预期明显上修。横向对比来看，截至2026/1/30，上周日股2025年盈利预期边际变化表现最优，美股、欧股次之，港股表现最末。其中：
+1）港股盈利预期上修，恒生指数 2025 年 EPS 盈利预期从 $- 2 . 1 \%$ 上修至-$2 . 0 \%$ 。分行业看，原材料业（+1.4pct）盈利预期上修最多，地产建筑业（-0.3pct）下修最多，按修正幅度降序排列，原材料业&gt;金融业&gt;必需性消费&gt;工业&gt;综合企业&gt;非必需性消费&gt;医疗保健业&gt;资讯科技业&gt;能源业&gt;公用事业&gt;电讯业&gt;地产建筑业。  
+2）美股盈利预期上修，标普500指数 2025 年EPS盈利预期从 $+ 1 0 . 5 \%$ 上修至 $+ 1 1 . 8 \%$ 。分行业看，工业（ $+ 7 . 9 \mathsf { p c t }$ ）盈利预期上修最多，材料（-0.3pct）下修最多，按修正幅度降序排列，工业&gt;信息技术&gt;能源&gt;金融&gt;可选消费&gt;医疗保健 $&gt;$ 房地产&gt;日常消费&gt;公用事业 $&gt;$ 通讯服务 $&gt;$ 材料。  
+3）欧股盈利预期上修，欧元区 STOXX50 指数 2025 年 EPS 盈利预期从-$4 . 5 \%$ 上修至 $- 4 . 4 \%$ 。分行业看，信息技术（ $+ 0 . 4 \mathsf { p c t }$ ）盈利预期上修最多，电信服务（-1.8pct）下修最多，按修正幅度降序排列，信息技术&gt;材料&gt;房地产&gt;公用事业&gt;金融业&gt;能源 $&gt;$ 非必须消费品&gt;必需消费品&gt;工业&gt;医疗保健&gt;电信服务。  
+4）日股盈利预期上修，日经225指数 2025 年EPS盈利预期从 $+ 3 2 . 5 \%$ 上修至 $+ 3 3 . 8 \%$ 。分行业看，精密仪器（+6.8pct）盈利预期上修最多，钢铁（-5.9pct）下修最多，按修正幅度降序排列，精密仪器 $&gt;$ 仓储与港口运输服务&gt;医药 $&gt;$ 玻璃与陶瓷产品 $&gt;$ 纸浆与纸&gt;...&gt;电力与天然气 $. &gt;$ 纺织品与服装&gt;证券与商品 $\cdot &gt; .$ 金属产品 $&gt;$ 钢铁。
+图33：上周港股盈利预期上修  
+![](images/4492f169253f1d71cf1d5b97a944577e0cefa26e9a2df2dd18d219206f042874.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图34：港股原材料、金融业盈利预期上修最多  
+![](images/bc856e2c1053f3b4df3f0e17a2b112802806f54c047f51e7d046b15498f3a09b.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图35：上周美股盈利预期上修  
+![](images/e40e0c61d88a2a4855c1d6ac1859282d5fc9c8d37c52c1d95cf205bf26fabf89.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图36：美股工业、信息技术盈利预期上修最多  
+![](images/881bd394fd767225704b9628beef6633659e38ffa9b898700cef3a57ed2c67d6.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图37：上周欧股盈利预期上修  
+![](images/ca78b6183bb6d07ae0d4f16ccab6da46cbb856f11a941ab7627065911120a43a.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+图38：欧股信息技术、材料盈利预期上修最多  
+![](images/256f15c9b6ea2bc2232c42f297a68ffb07f5b5b7abb810c3badd23a4d148f48c.jpg)  
+数据来源：Bloomberg，国泰海通证券研究
+美国就业压力略缓解，零售景气维持高位。1）从高频数据看：上周美国周度经济指数较前周上升，金融压力指数上升；未来 5 年通胀预期上升；持续领取失业金人数为 182.7 万人，降至 190 万人关键水平之下；美国红皮书商业零售销售周同比为 $7 . 1 \%$ ，较前周上升；美国 30 年期抵押贷款利率较前周上升，15 年期抵押贷款利率较前周上升。
+2）其他数据上：12 月美国 ISM 制造业 PMI 为 $4 7 . 9 \%$ ，连续第 10 个月处于收缩区间；12 月 ISM 服务业PMI为 $5 4 . 4 \%$ ，较 11 月 $52 . 6 \%$ 回升。就业方面，12 月非农就业新增 5.0 万人、低于市场预期，失业率维持 $4 . 4 \%$ 不变，就业压力仍大。通胀方面，12 月美国 CPI 同比为 $2 . 7 \%$ ，核心 CPI 同比维持 $2 . 6 \%$ 不变，整体低于预期；12 月PPI同比为 $3 . 0 \%$ ，高于预期。
+图39：上周美国周度经济指数上升  
+![](images/b2811bcf78be5023b7b59896d4310a8df9572644351a9b0e1f137291d394de9d.jpg)  
+数据来源：Wind，国泰海通证券研究
+图40：12 月美国 CPI 通胀维稳  
+![](images/ebe0d28d463b298672e0b7674f2bba56756f43bf022cd2297b8a87a124959577.jpg)  
+数据来源：Wind，国泰海通证券研究
+图41：近期美国就业市场压力边际缓解  
+![](images/fb1710fa909f65e67f6902611acf8bc369ff7d10b9450e8b09b2a59ebcdcc0c4.jpg)  
+数据来源：Wind，国泰海通证券研究
+图42：上周美国零售销售同比有所上升  
+![](images/21ff6776b7d8969fa6303bf51f65ce02d2cf09dab186d968a47eb9afc7e1b0a8.jpg)  
+数据来源：Wind，国泰海通证券研究
+欧洲服务业景气持续，通胀温和回落。从PMI看，12 月欧元区标普制造业PMI 为 $4 8 . 8 \%$ ，较 11 月的 $4 9 . 6 \%$ 下降；12 月标普服务业 PMI 为 $5 2 . 4 \%$ ，连续 7 个月处于荣枯线上。从生产看，11 月欧元区 20 国工业生产指数同比增速为 $2 . 5 \%$ ，较 10 月上升。从通胀看，12 月欧元区 CPI 当月同比为$1 . 9 \%$ ，较11月回落；12月核心CPI当月同比为 $2 . 3 \%$ ，较11月回落。从就业看，12 月欧盟 27 国季调失业率为 $5 . 9 \%$ ，较 11 月持平。从零售看，11 月欧元区20国零售销售指数当月同比为 $2 . 3 \%$ ，相较 10 月上升。
+图43：12月欧洲服务业PMI仍处于荣枯线以上  
+![](images/e8e3baf65b75fc23bd467cbd383171218c57b9ca30bbdc1a1435bf579da4f1e7.jpg)  
+数据来源：Wind，国泰海通证券研究
+图44：12 月欧洲核心通胀温和回落  
+![](images/91e20574549fb8a3bc7fecf7a367c80033258159075a72ea8894000dc28c0a2c.jpg)  
+数据来源：Wind，国泰海通证券研究
+图45：12 月欧洲就业市场维持稳定  
+![](images/09ca1f4e0dcc45f2c1799f79378bb0d42015fc39e183b2ddf515ee7c674e9a40.jpg)  
+数据来源：Wind，国泰海通证券研究
+图46：11 月欧洲零售销售同比上升  
+![](images/fd8cb859d81e2939280ec5609dbf7ae77f4061e4ef71d792e444eb9f0ebf0a11.jpg)  
+数据来源：Wind，国泰海通证券研究
+从经济领先指数看，上周欧美经济高频景气明显回升。过去一周，花旗美国经济意外指数从25.2升至 40.3，或因财报季部分企业盈利强于预期，格陵兰岛争端缓解等；欧洲经济意外指数从15.8 升至 23.2，或受欧元区四季度GDP环比高于预期、格陵兰岛争端缓解等提振；花旗中国经济意外指数从-19.0 升至-16.0，或受地产、服务消费等一系列政策预期，以及中英关系边际缓和等因素提振。
+图47：上周欧美经济高频景气回升  
+![](images/66ba10e4f71df2c9530bfcbb394df1b4431e5494a9b33c3d167231d7c294c961.jpg)  
+数据来源：CEIC，国泰海通证券研究
+# 5. 风险提示
+部分指标为测算值，美联储降息快于预期，特朗普政策不确定性。
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+# 评级说明
+# 投资建议的比较标准
+投资评级分为股票评级和行业评级。
+以报告发布后的 12个月内的市场表现为比较标准，报告发布日后的 12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深 300指数涨跌幅为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址
+上海市黄浦区中山南路 888 号
+邮编
+200011
+电话
+（021）38676666</t>
+  </si>
+  <si>
+    <t># 目录
+# 每日报告精选（2026-02-02 09:00——2026-02-03 15:00）
+ 宏观快报点评：《黄金大跌：后续如何看》2026-02-02.  
+ 策略观察：《融资资金开始回流》2026-02-03.   
+ 策略专题报告：《2月金股策略：成长与价值共进》2026-02-02. 2  
+ 策略快评：《大跌之后：良机就在眼前》2026-02-02 . 4   
+ 行业跟踪报告：建筑工程业《财政地产等建筑产业链全景数据库 20260203》2026-02-03. 5  
+ 行业双周报：通信设备及服务《光纤行业涨价趋势明确，关注 cpo 和光互联投资机会》2026-02-03............... 6  
+ 行业专题研究：医药《阿斯利康宣布2030年前在中国投资 150亿美元》2026-02-02.  
+ 行业双周报：建材《涨价预期与地产预期的共振》2026-02-02 ..  
+ 行业跟踪报告：煤炭《国泰海通煤炭行业基本面数据库大全20260202》2026-02-02 8  
+ 行业周报：海运《全球经济温和复苏，原油运价维持高位》2026-02-02 9  
+ 行业周报：公用事业《公用事业数据周报_20260202》2026-02-02 . . 10  
+ 行业周报：物流仓储《中蒙业务拐点至，业绩改善初显现》2026-02-02 11   
+ 公司公告点评：中际旭创（300308）《业绩符合预期，龙头继续起航》2026-02-02 . 12  
+ 公司公告点评：洽洽食品（002557）《四季度利润降幅收窄，看好26年复苏》2026-02-02.. . 12  
+ 公司信息点评：杰瑞股份（002353）《再获1.8亿美元发电机组订单，海外发电业务加速》2026-02-02........13  
+ 公司首次覆盖：振华科技（000733）《高可靠电子元器件筑基，军民电子需求支撑长期成长》2026-02-02...14  
+ 金融工程周报：《大额买入与资金流向跟踪（20260126-20260130）》2026-02-03 . . 14  
+ 金融工程周报：《红利风格择时周报（0126-0130）》2026-02-02 . 15  
+ 基本面量化月报：《大类资产及择时观点月报（2026.02）》2026-02-02. . 15  
+ 基本面量化月报：《风格及行业观点月报（2026.02）》2026-02-02. . 16  
+ 市场策略周报：《纯债ETF持续净赎回，债基策略趋防御》2026-02-02. . 16
+# 每日报告精选（2026-02-02 09:00——2026-02-03 15:00）
+王宇晴（分析师）
+021-38676666
+S0880525040119
+梁中华（分析师）
+021-38676666
+S0880525040019
+# 宏观快报点评：《黄金大跌：后续如何看》2026-02-02
+短期：为何大跌？主因不是美联储。首先，我们认为贵金属大跌的最主要的原因来自于前期的非理性超涨。在此情况下，获利止盈需求的累积使得较小的边际扰动也会带来剧烈的回调压力。其次，非理性上涨时期积累的散户杠杆资金成为了波动放大器。“沃什交易”只是引爆贵金属情绪转向的导火索之一，而非主要原因。
+中期：关注超跌带来的机会。前期黄金的上涨主要集中在亚洲与美洲交易时段。在此轮下跌中，美盘与亚盘内黄金价格已有明显调整，欧洲交易时段内黄金价格有所企稳。后续随着各个交易所去杠杆进程的结束，黄金价格有望逐渐企稳。总体来看，黄金中长期行情仍没有结束，建议关注超跌所带来的黄金布局机会。
+白银短期稀缺，长期不稀缺。白银短期压力偏大，白银短期供给具有稀缺性，是“投机”黄金的工具：黄金涨的时候，白银涨的更多；黄金跌的时候，白银跌的更多。而长期来看，白银供给并不那么稀缺，所以银铜比将长期保持稳定，金银比将长期上涨。
+长期：黄金行情仍有支撑。本轮贵金属价格的大幅下跌是对年初以来非理性上涨的技术性调整，而非黄金长期牛市的终结。短期来看，前期过热投机情绪的降温，以及资金杠杆水平的下降有助于黄金重回更健康与稳健的上涨趋势。长期来看，在各国信任程度下降的情况下，全球仍在经历持续的货币体系重构，央行购金仍有较大空间，黄金长期的行情仍然会延续。
+风险提示：美国通胀风险上升带动美联储货币政策转鹰
+方奕（分析师）
+021-38676666
+S0880520120005
+郭胤含（分析师）
+021-38676666
+S0880524100001
+田开轩（分析师）
+021-38676666
+S0880524080006
+# 策略观察：《融资资金开始回流》2026-02-03
+市场定价状态：市场成交热度抬升，赚钱效应边际下降。1）市场情绪（上升）：本期市场交易换手率抬升，全A日均成交额上升至3.1 万亿，日均涨停家数降至 69家，最大连板数为6.5板，封板率降至 $7 1 . 0 \%$ ，龙虎榜上榜家数为 66 家；2）赚钱效应（下降）：本期个股上涨比例下降至 $2 3 . 6 \%$ ，全A个股周度收益中位数下降至 $- 3 . 4 \%$ ；3）交易集中度（下降）：二级行业交易集中度下降，本期行业换手率历史分位数处于 $9 0 \%$ 以上的行业有 18个，其中石油石化、国防军工等 4个行业换手率处于 $9 9 \%$ 以上。
+A 股资金流动：本期融资资金小幅流入，ETF资金大幅流出。1）公募：本期偏股基金新发规模下降至350.9 亿，公募基金股票仓位整体下降；2）私募：1月私募信心指数较 12月增长 $0 . 5 \%$ ，仓位较前期边际下降（截至 1/9）；3）外资：流入 4.1亿美元（截至1/28），北向资金成交占比历史分位数（MA5）降至 $0 . 1 \%$ ；4）产业资本：本期 IPO首发募集为 55.5亿元，定增规模为 45.5亿元，未来一期限售股解禁规模为 1035.7亿元；5）ETF：被动资金继续大规模流出，本期流出
+3193.7亿元，被动成交占比环比下降至 $9 . 1 \%$ ，行业成交集中度 CR5略微回升；6）融资：本期净买入额上升至 160.9 亿元，成交额占比下降至 $9 . 6 \%$ ；7）散户：另类指标显示本期散户活跃度边际抬升。
+A 股行业配置：融资和ETF共同流出电子行业。1）外资：（截至 1/28）有色金属（ $+ 1 1 9 . 5$ 百万美元）/汽车（ $+ 3 8 . 1$ 百万美元）净流入居前，交通运输（-1.3百万美元）/公共事业（-1.1 百万美元）净流出居前；2）融资：（截至 1/29）有色金属（ $+ 1 3 4 . 5$ 亿元）/基础化工（ $+ 2 0 . 5$ 亿元）净流入居前，国防军工（-28.2亿元）/电子（-59.5亿元）净流出居前；3）ETF：一级行业被动资金普遍流出，电子（-457.4亿元）/非银（-350.3亿元）/银行（-341.7 亿元）净流出居前；二级行业中贵金属/油服工程净流入居前，半导体/证券净流出居前。本期增持居前的ETF包括有色金属 ETF/化工 ETF 等，中证 500ETF/黄金 ETF 融资净买入居前；沪深 300ETF/上证 50ETF净赎回居前，沪深 300ETF/人工智能ETF融资净卖出；4）龙虎榜资金：有色金属、基础化工和环保为龙虎榜行业前三。
+港股与全球资金流动：南下资金流入放缓，全球外资边际流入美国和亚洲市场。本期恒生指数收涨 $. + 2 . 4 \%$ ，全球主要市场涨跌互现，韩国市场（ $+ 4 . 7 \%$ ）涨幅居前。资金维度：1）南下资金净买入额下降至27.1亿元，处 2022年以来 $1 5 \%$ 分位（MA5）；2）本期（截至1/28）发达市场主动/被动资金净流动-26.1亿/286.5亿美元，新兴市场主动/被动资金净流动 31.1亿/-454.5亿美元。仅外资口径看，全球外资边际流入美国和亚洲市场，美国（ $+ 6 2 . 7$ 亿美元）、韩国（ $+ 2 8 . 3$ 亿美元）、中国（ $+ 2 6 . 4$ 亿美元）流入规模居前。含各国内资的全球整体流动看，美国/韩国获流入居前。北美基金获净申购，美股科技/能源基金净申购居前。
+风险提示：数据统计口径存在偏差；数据测算误差；从第三方机构获知数据的偏差风险。
+方奕（分析师）
+021-38676666
+S0880520120005
+苏徽（分析师）
+021-38676666
+S0880516080006
+# 策略专题报告：《2月金股策略：成长与价值共进》2026-02-02
+2月组合：1、海外科技：腾讯控股/阿里巴巴-W；2、电子：海光信息/佰维存储；3、通信：中际旭创；4、机械：安培龙/长盈精密；5、计算机：合合信息；6、军工：高德红外；7、地产：招商蛇口；8、建材：东方雨虹；9、石化：荣盛石化；10、银行：宁波银行；11、非银：中国平安/同花顺；12、有色：紫金矿业；13、交运：中远海能；14、社服零售：锅圈；15、食品饮料：倍加洁；16、纺服：百隆东方。
+新经济景气中枢上移，盈利改善范围扩散。2025年四季度经济转型加快，新经济景气中枢明显上移，并由AI向出海、资源品、服务消费等更多领域扩散。新兴科技产业链呈现出供需两旺的特征，内部细分涨价赛道明显增多。把握四季度盈利增长的四个结构特征：1）新兴经济仍是四季度业绩主要高增领域。科技服务业等第三产业用电量在 25Q4高增，并带动全社会用电增速在 9 月后明显上行，这与工业增加值下行趋势背离明显，新经济主导并拉动经济复苏；2）中下游制造盈利占比提升。通胀整体改善且新经济成本传导顺畅，CPI-PPI剪刀差扩张，PPI内部中下游价格更强，工业企业利润向TMT、装备制造与有色化工等行业集中；3）大中盘业绩增长弹性更大。PMI结构上大型企业景气占优趋势延续，企业生产经营预期与订单分项改善明显；4）高技术出口景气保持高位。半导体/汽车/电力设备/工程机械出口增速保持高位且高于整体出口，新兴市场对中国出
+口的驱动力高于发达市场，且这一差距在四季度进一步放大。
+科技&amp;制造：景气驱动来自 AI渗透率提升和企业出海加速。1）新兴科技：AI相关新业务在各行业渗透率提升持续带动新兴产业需求爆发。2）中游制造：在新一轮宽松周期下，新兴市场国家工业建设有望加快。中国工业体系生产效率强大，将充分受益其增长红利。科技制造盈利有望持续受益。顺周期&amp;金融：景气驱动来自长期供给受限和下游需求结构转型。1）周期资源：全球关税和地缘博弈持续演绎，资源品供给扰动加剧，而 AI和电力基建带来新需求持续扩张，有色/化工等周期品供需持续偏紧，25Q4有色/硫磺/磷化工/氟化工等价格显著上涨，预计带动行业盈利持续增长。2）服务消费和金融：国内促消费政策正加速消费结构向服务占比提升转型。2025年股市成交中枢明显上移，在低利率环境下，保险/证券等有望持续受益于居民资产管理需求增长。
+投资建议：重视非银/电池/电子/机械/两轮车/商用车等盈利预期上修的低拥挤滞涨板块。我们从两个维度衡量股价尚未充分计入当前盈利预期上修预期的赛道：1）盈利-股价匹配度：盈利预期上修但 25 年11 月以来股价表现相对滞涨的行业，主要包括电池/元件/造船/摩托车/工程机械等出海方向，以及保险/证券/饰品等细分行业。2）盈利-拥挤度匹配度：预期上修且股价涨幅不明显的行业主要包括非银/机械/电子，预期上修但基金 25Q4减配的行业主要是电子。
+风险提示：海外经济与地缘政治风险，个股业绩不达预期的风险。
+# 策略快评：《大跌之后：良机就在眼前》2026-02-02
+大跌之后：市场有望逐步企稳，投资良机就在眼前。近期中国市场波动较大，全A 平均股价调整达到 $6 \%$ ，上证指数跌至临近 4000点，并在午后出现恐慌性抛售。市场下跌由多因素耦合：1）预期层面，市场正快速评估新提名美联储主席凯文·沃什的政策主张，其“降息 $^ +$ 缩表”的倾向引起金融条件紧缩的担心；2）微观交易，黄金/白银等商品价格剧烈波动，以及前期A 股权重ETF持续被抛售，叠加临近春节长假观望情绪升温，内外交织之下中国市场出现大跌。国泰海通策略认为，大跌之后，市场有望逐步企稳，在春节前重拾上升势头，坚定看好中国股市：第一，全球市场正快速计入美联储潜在的鹰派货币立场，但从路径角度沃什的降息立场更鸽派和确定；第二，中国政府政策重心正转向内需主导，并作为首要任务，有望提振中国经济前景与资产回报；第三，中国证监会近期再次强调“全力巩固资本市场稳中向好势头”，并推出中长期资金入市新政。市场的无差别恐慌抛售令交易加快出清，投资中国的良机就在眼前。
+市场快速计价美国“缩表”风险，但沃什的降息立场更鸽派和确定。近期凯文·沃什被提名新任美联储主席后，其过往“降息 $^ +$ 缩表”的政策主张引发了市场对于全球金融条件紧缩的疑虑，并带动全球权益与商品调整。我们不能忽视沃什作为“改革派”的深远影响，但当下市场快速形成的一致共识和单一路径也存在纠偏的可能：1）联储官员的货币政策立场取决于政策目标、经济与政治环境。美国巨大的财政赤字和债务规模与“缩表”货币政策主张/金融条件紧缩相冲突；2）相比于“缩表”在短周期中落地的优先级和不确定性，特朗普与沃什有关降息的政策立场与共识的确定性更高，沃什也曾表示“中性利率可能在 $3 \%$ 左右”，有望推动美联储年内降息2次或以上，相比于鲍威尔，沃什在降息政策主张上的空间其实更为鸽派。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;方奕（分析师）&lt;/td&gt;&lt;td&gt;021-38676666&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;S0880520120005&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;黄维驰（分析师）&lt;/td&gt;&lt;td&gt;021-38676666&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;S0880520110005&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张逸飞（分析师）&lt;/td&gt;&lt;td&gt;021-38676666&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;S0880524080008&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;田开轩（分析师）&lt;/td&gt;&lt;td&gt;021-38676666&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;S0880524080006&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+重要的边际：中国政策的重心正转向内需主导，并作为首要任务。过去五年，中国内需增长经历了明显下行，比如房地产投资相对高点下滑 $4 5 \%$ ，销售面积下滑 $5 0 \%$ ，房价下滑 $3 0 \%$ ，对民生和消费也形成了较大拖累。在国际形势愈发复杂和国内稳增长的压力下，内需政策的发力站在了重要的历史窗口和时机上。何立峰副总理近期在达沃斯论坛表态“中国把内需主导列为今年经济工作的首要任务”；近期《求是》刊发多篇文章，提出“房地产仍是支撑国民经济的基础产业”，“政策要一次性给足”、“高质量推动城市更新”等；近日，《经济日报》金观平指出围绕增强国内大循环内生动力和可靠性，党中央已做出科学部署，接下来还会有一系列政策措施、改革举措陆续出台。以上均表明重要的边际，内需政策的发令枪正渐行渐进。
+良机就在眼前：新兴科技是主线，别忘了价值也会有春天。1）内需价值：扩内需将成为重要增长抓手，市场预期与持仓也处于底部。推荐：食品饮料/消费者服务/航空，与化工/房地产/建材；2）大金融：市场重要的稳定器与受益于财富管理需求增长，推荐：保险/券商/银行；3）新兴科技：海外AI Agent迭代提速，国内大模型和应用推广加速，推荐：港股互联网/传媒/计算机/机器人/电子。
+风险提示：海外经济衰退超预期，全球地缘政治的不确定性。
+# 行业跟踪报告：建筑工程业《财政地产等建筑产业链全景数据库 20260203》2026-02-03
+资金：第5周（1.26-2.1）新增专项债累计发行额同比下降，城投债净融资额同比上升。(1)据百年建筑网，截至 2026年1月27日样本建筑工地资金到位率为$5 9 . 7 \%$ ，周环比0.47pct。(2)全国地方政府新增专项债第 5周（1.26-2.1）新发行34 只，发行额1930.7亿元，环比 $1 9 9 . 7 \%$ ，同比 $2 7 1 5 . 6 \%$ ；1 月累计发行额 3821.9亿元，环比 $2 1 7 . 4 \%$ ，同比 $8 6 . 6 \%$ 。截至 2026年2 月1 日，今年以来累计发行额3821.8 亿元，同比 $8 6 . 6 \%$ 。(3)特殊再融资专项债第5周（1.26-2.1）新发行9只，发行额 839.1亿元，环比- $1 7 . 9 \%$ ，同比上升（去年同期为0亿元）；1月累计发行额 2572.7 亿元，环比 $1 3 1 0 . 3 \%$ ，同比 $4 9 . 7 \%$ 。截至2026年2月1日，今年以来累计发行额 2572.7亿元，同比 $4 9 . 7 \%$ 。(4)全国城投债第 5 周（1.26-2.1）新发行 103只，发行额 571.6亿元，环比 $2 . 7 \%$ ，同比上升（去年同期为 0亿元）；净融资额167.4亿元，环比上升（上周为-218.0亿元），同比上升（去年同期为-401.7亿元）。截至 2026年2月1日，1月累计发行额 2812.7亿元，环比 $5 2 . 2 \%$ ，同比- $- 9 . 1 \%$ ；1月累计净融资额-219.0亿元，环比上升（12月为-394.7亿元），同比上升（去年同期为-888.8亿元）。截至2026年2月1日，今年以来累计发行额 2812.7亿元，同比- $- 9 . 1 \%$ ；累计净融资额-219.0 亿元（2025年同期-888.8亿元）。
+地产：第 5周（1.24-1.30）新房成交面积环比上升，二手房成交面积环比下降。(1)30 大中城市 2026 年第 5 周（1.24-1.30）新房成交面积 143.7 万平方米，环比$2 3 . 7 \%$ ，同比 $1 9 9 . 1 \%$ 。截至1月 30日，30大中城市1 月前 5周新房累计成交面积环比 12月前5周- $- 5 0 . 8 \%$ ，同比- $- 2 3 . 7 \%$ ；截至1月30日，新房今年以来累计成交面积同比- $- 2 0 . 4 \%$ 。(2)14 城 2025 年第 5 周（1.24-1.30)二手房成交面积 196.3 万平方米，环比- $. 5 . 8 \%$ ，同比 $7 6 5 . 2 \%$ 。截至1月 30日，14城1 月前 5周二手房累计成交面积环比 12月前5周 $- 2 . 0 \%$ ，同比 $1 1 . 7 \%$ ；截至 1月 30日，二手房今年以
+来累计成交面积同比 $3 . 7 \%$ 。(3)2026 年前 5周，百城土地供应面积同比- $- 1 . 2 \%$ ，成交面积同比 $- 2 3 . 0 \%$ ，成交总价同比 $- 5 0 . 1 \%$ 。
+产业链：沥青价格、沥青库存、水泥出货率、水泥库存、LME3个月铜价格环比上升，螺纹钢价格、LME3个月铝价格环比下降。(1)截至 1月 30 日，螺纹钢价格周环比- $. 0 . 2 \%$ 。(2)截至1月30日，沥青价格周环比 $3 . 1 \%$ ，同比- ${ \cdot } 8 . 1 \%$ ；库存周环比 $1 0 . 1 \%$ ，同比 $- 4 8 . 1 \%$ 。(3)截至 1月30 日，水泥出货率周环比 $1 2 . 4 \%$ ；库存周环比 $1 . 4 \%$ 。(4)截至1月30日，LME3个月铜(期货官方价)周环比 $3 . 5 \%$ ，同比 $4 8 . 5 \%$ ；LME3 个月铝(期货官方价)周环比- $- 1 . 4 \%$ ，同比 $2 0 . 6 \%$ 。
+公司：(1)中国铁建 2025 年 1-12 月新签订单 30765.0 亿元，同比 $1 . 3 \%$ （24年同期$- 7 . 8 \%$ ）；单四季度新签订单15577.3亿元，同比- $- 0 . 4 \%$ ，降幅环比三季度扩大了 24.5个百分点。(2) 中钢国际2025 年1-12月新签订单204.0亿元，同比 $3 . 7 \%$ （24 年同期 $2 . 1 \%$ ）；单四季度新签订单 97.5亿元，同比 $1 1 1 . 1 \%$ ，增幅环比三季度扩大了130.0 个百分点。(3)北方国际 2025 年 1-12 月新签订单 10.1 亿美元，同比- $. 1 2 . 8 \%$ （24年同期- $. 5 5 . 8 \%$ ）；单四季度新签订单 5.4亿美元，同比 $4 6 . 6 \%$ ，增幅环比三季度扩大了 39.6 个百分点。(4) 2026 年 1 月 TOP100 房企销售总额为 1905.2 亿元，同比- $1 8 . 9 \%$ （25年同期- $1 6 . 5 \%$ ）。
+风险提示：宏观经济政策风险，基建投资低于预期等。
+# 行业双周报：通信设备及服务《光纤行业涨价趋势明确，关注 cpo 和光互联投资机会》2026-02-03
+光互联业绩预期整体强势，分化差异给予2026年启示。人民币升值，以海外出口为主要市场的光互联板块，计提和汇兑整体有影响，展望 2026-2027年，可插拔市场景气度仍在不断拔高，但新的封装和材料技术变化开始从 0-1 落地，值得关注边际变化机会。
+关注 CPO/OIO 从 0-1 的变化机会。LightCounting 预计 CPO 技术的出货将从800G 和 1.6T 端口开始，在 2026 至 2027 年开始规模上量，主要应用于超大型云服务商的数通短距场景；到 2029 年，800G（100G每通道）CPO 渗透率预计为 $2 . 9 \%$ ，1.6T（200G 每通道）CPO 渗透率预计为 $9 . 5 \%$ ，3.2T（400G 每通道）CPO 渗透率预计将高达 $5 0 . 6 \%$ 。
+光纤行业涨价趋势明确，空芯带来新的增量。近期散纤价格持续上涨，我们认为临近电信、移动运营商集采，以及春节前行业备货需求更盛，预料价格还将持续长高。在此背景下，我们认为国内市场大客户也有望接受涨价，板块波动中得以确认。
+行业重点新闻：康宁与Meta 达成 60亿美元长期供应协议；英伟达向
+余伟民（分析师）
+021-38676666
+S0880525040028
+王彦龙（分析师）
+021-38676666
+S0880519100003
+桂海晟（研究助理）
+021-38676666
+S0880124070058
+CoreWeave 追加 20 亿美元投资；微软发布第二代自研 AI 芯片 Maia 200；个人 AI助手 ClawdBot 席卷全球；微软和 Meta发布最新财报。
+投资要点：行业持仓比例提升，估值来到历史中枢偏上位置，反映出AI产业链带动板块预期向上。AI驱动网络升级，海外需求强劲，国内核心企业充分受益全球基建浪潮。国内新一代算力基建开启，全国产化产业链迎来新的周期。新连接也有望于 26年迎来行业发展奇点，涌现更多投资机会。驱动网络升级——AI的大模型训练及应用提升通信能力需求，网络创新和新技术应用快速推进。
+风险提示：新技术商业化或慢于预期，CSP 资本开支或不及预期等。
+余文心（分析师）
+021-38676666
+S0880525040111
+周航（分析师）
+021-38676666
+S0880525040077
+张子彤（研究助理）
+021-38676666
+S0880125042250
+# 行业专题研究：医药《阿斯利康宣布 2030年前在中国投资
+# 150 亿美元》2026-02-02
+在英国首相访华期间，阿斯利康宣布计划在中国投资 150亿美元。近日，英国首相斯塔默开启为期 4天的访华行程，随同斯塔默访问的有超 50 家企业高管和机构代表。其中，阿斯利康全球首席执行官苏博科、葛兰素史克董事会主席司明麒作为英国医药产业的代表随团访华。这项投资用于扩大药品制造和研发。这项投资将充分利用中国卓越的科学实力、先进的制造能力以及中英医疗健康生态系统合作优势，为中国及全球患者提供尖端治疗方案。
+150亿美元投资主要用于细胞疗法+RDC 药物。鉴于中国在新型治疗模式（new modalities）领域的先进科学水平，此项投资将大幅提升公司在细胞疗法和放射性偶联药物方面的能力，以推动其广泛而多样化的研发管线，帮助癌症、血液疾病和自身免疫性疾病等患者。这些投资涵盖整个价值链，从药物发现、临床开发到生产制造，并通过与领先生物技术公司（包括 AbelZeta、石药集团、和铂医药、加科思和盛诺基）的合作，将中国创新带向世界。在 2024年收购亘喜生物（Gracell Biotechnologies）的基础上，阿斯利康还将成为全球首家在中国拥有端到端细胞疗法能力的生物制药领军企业。
+投资具体用途：1）位于北京和上海的全球战略研发中心；2）扩建位于无锡、泰州、青岛和北京的现有生产基地，并同时还将设立新的生产基地；3）扩展在中国的高技能员工队伍至超过 20,000人。
+我们认为，本次投资再次证明在中国工程师红利及生物医药能力的持续验证下，MNC 对于中国本土研发能力及中国市场的兴趣和认可。
+风险提示。地缘政治变化风险；投资金额不及预期风险；投资进度不及预期风险。
+鲍雁辛（分析师）
+021-38676666
+# 行业双周报：建材《涨价预期与地产预期的共振》2026-02-02
+S0880513070005
+花健祎（分析师）
+021-38676666
+S0880521010001
+巫恺洋（分析师）
+021-38676666
+S0880525080008
+水泥：本周全国水泥市场价格环比回落 $0 . 8 \%$ 。价格回落地区主要是内蒙古、山东、广东和青海地区，幅度 10-40 元/吨。元月底，南方地区气温回升，部分工程项目仍在赶工，水泥需求略有恢复，国内重点地区水泥企业出货率环比提升 3个百分点。由于水泥市场需求临近尾声，价格延续季节性回落走势，预计后期需求将快速萎缩，价格将维持弱稳运行。
+玻璃与玻纤：1）玻璃：本周国内浮法玻璃均价1144.80元/吨，环比上涨5.98元/吨。本周国内浮法玻璃市场需求缩量，价格整体表现僵持，部分小幅抬涨价格。周内多数中小型加工厂临近放假，进货意向减弱，刚需成交放缓。供应端较为平稳，虽浮法厂库存持续小降，但近期库存转移居多，行业库存仍处高位。后市看，2月初多数中小型加工厂基本停工放假，中间商放假提前，局部多数贸易商将在2月初放假，市场需求将转为冷清。部分区域浮法厂库存有压下，预期仍将有冬储移库政策推出，关注下游接货情况，当前加工厂存货意向普遍较低。另外建议关注出口订单赶单支撑强度。2）玻纤：粗纱市场价格稳定延续，电子纱市场供需仍紧俏。本周国内无碱粗纱市场企业价格无变动，市场存刚需提货为主，周内部分下游少量备货。无碱池窑粗纱近期北方个别厂小号数产品出货尚可，整体支撑当月产销维持相对高位，但提货量后续预期不高。至本月底，多数下游深加工厂将逐步停工放假，以回款为主。电子纱市场电子纱供应量相对平稳，前期点火产线尚烤窑，而产品结构调整缩减了传统电子纱及电子布供应量、叠加中高端产品供不应求的利好支撑，整体电子纱价格仍高位维持。
+消费建材关注基本面的确定性，期待宏观预期上修的可能性。消费建材2025-2026年开始呈现基本面独立于地产，而预期有可能受益于宏观预期上修的可行性。我们推荐有独立增长逻辑和股息估值充分支撑的消费建材龙头公司。东方雨虹、北新建材、伟星新材、兔宝宝、三棵树、科顺股份、东鹏控股、蒙娜丽莎等细分板块龙头公司。
+玻纤，水泥，玻璃等周期品迎来价格优势区间。玻璃纤维板块电子布还在涨价通道中途，推荐玻璃纤维龙头中国巨石、建滔积层板，中材科技等；水泥板块季度盈利又到底部，限制超产进入执行力度重要观测期，推荐龙头海螺水泥、华新建材、华润建材科技、塔牌集团、上峰水泥等；玻璃板块快速冷修后行业供需平衡点越来越近，汽车玻璃和TCO玻璃附加值有望进一步提升，推荐信义玻璃与旗滨集团等。
+风险提示：宏观政策风险；原材料成本风险。
+黄涛（分析师）
+021-38676666
+S0880515090001
+王楠瑀（分析师）
+021-38676666
+S0880525070029
+邓铖琦（分析师）
+021-38676666
+S0880523050003
+# 行业跟踪报告：煤炭《国泰海通煤炭行业基本面数据库大全
+# 20260202》2026-02-02
+【动力煤：煤价上涨，库存总体减少】
+北方黄骅港 Q5500平仓价701 元/吨，较前一周上涨5元/吨（ $0 . 7 \%$ ）；黄骅港 Q5000平仓价 620元/吨，较前一周上涨7元/吨（ $1 . 1 \%$ ）。秦皇岛库存 575万吨，较前一周减少 5.0万吨（ $- 0 . 9 \%$ ）。南方港库存 3284.3万吨，较前一周减少 125.8万吨（ $- 3 . 7 \%$ ）。
+【炼焦煤：国内煤价总体较前一周持平或上涨，海外煤价总体上涨】
+唐港主焦煤库提价（山西产）1780元/吨，较前一周持平；京唐港主焦煤库提价（河北产）1520元/吨，较前一周上涨 50元/吨（ $3 . 4 \%$ ）。炼焦煤库存三港合计 279.9万吨，较前一周减少 3.0万吨（ $- 1 . 1 \%$ ）；炼焦煤库存六港合计 286.4万吨，较前一周减少 3.0万吨（ $- 1 . 0 \%$ ）。
+# 【海外煤价】
+澳洲纽卡斯尔港 Q5500离岸价 75美元/吨，较前一周上涨 1 美元/吨（ $1 . 3 \%$ ）；澳洲焦煤到岸价 264美元/吨，与上周持平；俄罗斯炼焦煤到岸价 133美元/吨，与上周持平；美国主焦煤到岸价 1560美元/吨，较前一周上涨 50 美元/吨（ $3 . 3 \%$ ）；蒙古甘其毛都口岸焦精煤进口场地价 1235元/吨，与上周持平；蒙古甘其毛都口岸焦原煤进口场地价 1020元/吨，较前一周上涨5 元/吨（ $0 . 5 \%$ ）。
+风险提示：进口煤量超预期
+# 行业周报：海运《全球经济温和复苏，原油运价维持高位》2026-02-02
+1、运价跟踪：原油运价大幅调涨，干散运价淡季回落
+1）原油油运：运价中枢显著上升，料 2026Q1业绩同比大增数倍  
+2）成品油运：批量成品油轮转运原油，近期运价中枢上升   
+3）干散货运：巴西雨季影响弱于往年，驱动运价中枢上升  
+4）集装箱运价：市场逐步进入春节淡季，干线运价普跌一成
+2、油运：两阶段成就“超级牛市”
+第一阶段：地缘冲突驱动全球原油贸易重构，俄欧“舍近求远”拉长航距，驱动油运景气跨年度上行已超三年，且产能利用率升至阈值。
+第二阶段开启：全球原油开启增产，驱动油运需求继续增长。油轮有效供给刚性持续，未来供需继续向好景气上行，且具油价下跌期权。
+岳鑫（分析师）021-38676666S0880514030006
+陈亦凡（研究助理）021-38676666S0880124070025
+3、干散：远程铁矿增产开启，景气有望逐步上行
+2023-24年疫后恢复性增长驱动景气温和上升。2025上半年需求恢复性增长结束，叠加部分钢厂减产，运价中枢同比回落
+全球铁矿增产周期开启，特别是西芒杜超大项目投产在即，期待需求超预期增长。未来数年供给低增，预计景气有望逐步复苏
+4、集运：关税缓和回归新常态，关注中美贸易新格局
+过去五年两轮高景气，盈利底盘上升。2025上半年中美关税摩擦致贸易与运价短期大幅波动，Q3贸易回归常态化并干线旺季不旺。
+未来数年干线将再迎船舶大型化与供给压力，301制裁暂停符合预期，关注中美贸易新格局。建议继续关注集运市场结构性增长与机会。
+5、投资策略：维持油运增持评级，高景气持续将超预期
+油运运价自 9 月飙升并维持高位，油轮 2025年Q4与全年盈利将创十年新高。预计 2026年油运景气持续将超预期，且具油价下跌期权
+推荐中远海能A/H、招商轮船、招商南油、中国船舶租赁。
+6、风险提示。经济风险、地缘形势变化风险、环保政策执行风险等。
+吴杰（分析师）
+021-38676666
+S0880525040109
+于鸿光（分析师）
+021-38676666
+S0880522020001
+傅逸帆（分析师）
+021-38676666
+S0880525040042
+阎石（分析师）
+021-38676666
+S0880525070005
+# 行业周报：公用事业《公用事业数据周报_20260202》
+# 2026-02-02
+风险提示：宏观经济增速波动、原材料价格波动及竞争加剧，将影响行业需求及上市公司盈利水平。
+# ◇行业要闻
+1. 国家能源局: 2025年电力市场交易电量 6.6万亿千瓦时 现货交易占比 $4 \%$
+胡鸿程（分析师）
+021-38676666
+S0880525070011
+2. 国家能源局: 国家能源局发布 2025 年全国电力统计数据  
+3. 国家能源局: “十五五”定调：风光年均新增200GW，加大海上风电开发！  
+4. 国家发改委: 2025年 12月份全国天然气运行快报  
+5. 上海石油天然气交易中心: 中国石油海外油气权益产量当量创历史新高  
+6. 国家能源局: 翻番增长！2025 年底我国可再生能源制氢年产能超 25 万吨
+# ◇个股大宗交易
+1. 百川能源 (600681.SH)：过去一周，以均价 3.96 元减持 482.20 万股，成交额占总市值 $0 . 3 3 \%$   
+2. 嘉泽新能 (601619.SH)：过去一周，以均价 5.13 元减持 4532.31 万股，成交额占总市值 $1 . 4 5 \%$
+虞楠（分析师）
+021-38676666
+S0880525040110
+岳鑫（分析师）
+021-38676666
+S0880514030006
+# 行业周报：物流仓储《中蒙业务拐点至，业绩改善初显现》
+# 2026-02-02
+甘其毛都口岸通车数稳步回升。1 月19日-1 月20 日，甘其毛都口岸日均通车量为 1174车/日（不含闭关日），较前一周- $1 9 . 5 \%$ ，同比- $\cdot 1 . 3 \%$ 。2026至今累计，甘其毛都口岸累计通车数19890辆，同比 $+ 2 5 . 4 \%$ 。
+甘其毛都口岸进出口货运量同比增速显著。2026年 1月，货运量同比增 $5 8 \%$ 至 245.32万吨。25 年三季度末，甘其毛都口岸累计完成进出口货物量 3002.66万吨，同比降幅逐渐收窄，全年完成 4305.85万吨，同比 $+ 6 \%$ ，实现同比由负转正。
+短盘运费企稳上升。2025H1 受国内蒙煤进口需求波动影响短盘运费均值同比$- 3 4 . 5 \%$ ，伴随需求回暖，短盘运费稳定于60-70元/吨区间。1月 19日-1月 23日，周度均价为 65元/吨，环比持平，同比 $+ 8 . 3 \%$ 。
+中蒙业务复苏，带动盈利水平改善。嘉友国际2025Q3实现营收24.86亿元，同比 $+ 3 0 . 6 1 \%$ ，实现归母净利润 3.13亿元，同比- $- 4 . 9 0 \%$ 。25 年 Q1-3 实现营收 65.70亿元，同比 $+ 0 . 4 0 \%$ ，实现归母净利润 8.74亿元，同比- $. 1 9 . 7 2 \%$ 。我们认为，25Q3收入增加、归母净利润降幅收窄主要系由于中蒙跨境业务量复苏和主焦煤价格上涨。25年三季度末主焦煤市场均价环比增长 $2 4 . 0 7 \%$ 至1330 元/吨。随着"反内卷"政策持续推进，煤价企稳上行，蒙煤进口需求逐步回暖，带动甘其毛都口岸日均通量及短盘运价同步回升，公司业绩持续改善。长期来看，公司依托对口岸核心物流基础设施的战略卡位，深入推进"物贸一体化"业务模式，已具备较强的核心竞争优势，有效巩固其在中蒙业务的领先地位与份额优势。维持嘉友国际增持。
+风险提示。需求下滑、政策变化、地缘政治风险、汇率波动等。
+本次评级：增持
+目标价：784.56 元
+现价：591.00 元
+总市值：656671 百万
+余伟民（分析师）
+021-38676666
+S0880525040028
+王彦龙（分析师）
+021-38676666
+S0880519100003
+黎明聪（分析师）
+021-38676666
+S0880523080008
+桂海晟（研究助理）
+021-38676666
+S0880124070058
+# 公司公告点评：中际旭创（300308）《业绩符合预期，龙头继续起航》2026-02-02
+下调2025年盈利预测，上调2026-2027 年盈利预测及目标价，维持增持评级。公司发布 2025年度业绩预告，整体符合预期。根据业绩预告，我们下调公司2025年归母净利润至 108.29亿元（前值为 111.99亿元），对应EPS为9.75元，上调2026-2027 年归母净利润为 207.53/275.23 亿元，EPS 18.68/24.77 元。考虑行业平均估值和公司地位，给予 2026年 $4 2 \mathrm { x P E }$ ，上调目标价至 784.56 元（前值为 504.00元），维持增持评级。
+业绩符合预期，公司正逐级上台阶。1 月30日，公司发布业绩预告，2025年实现实现归母净利润 98-118亿元，同比增长 $8 9 . 5 0 \% - 1 2 8 . 1 7 \%$ 。其中，上市公司合并净利润为 105-127亿元，扣除股权激励费用前，光模块业务实现合并净利润为 108-131 亿元，比上年同期增加 $9 0 . 8 1 \% - 1 3 1 . 4 4 \%$ 。单Q4归母净利润中位数为 37亿元，合并净利润中位数40 亿元。受益于终端客户对算力基础设施的强劲投入，公司产品出货较快增长，其中高速光模块占比持续提高，且随着产品方案不断优化、运营效率继续提升，公司营业收入与净利润均实现较大增长。费用端来看，汇兑损失导致的归母净利润减少约 27,000万元，计提存货和信用减值损失减少约 11,300万元。限制性股票激励计划、员工持股计划等事项确认股份支付费用，导致归母净利润减少约 22,300万元。投资收益及公允价值变动损益，带来归母净利润增加约29,600万元，其中约4,800万元投资收益计入非经常性损益事项。
+展望1.6T上量，静待新光学方案 OCS/XPO/3.2T 等布局。从行业情况看，1.6T有望在 2026年快速上量，2027年需求有望进一步大幅提升。公司为云数据中心客户提供 400G、800G和 1.6T等高速光模块，赢得了海内外客户的广泛认可，并保持了市场份额的持续成长，有望大幅受益。
+催化剂：AI建设进度超预期；高端产品研发进程超预期。
+风险提示：行业需求低于预期，行业竞争更加恶劣。
+本次评级：增持
+目标价：29.03 元
+现价：23.96 元
+总市值：12120百万
+訾猛（分析师）
+021-38676666
+# 公司公告点评：洽洽食品（002557）《四季度利润降幅收窄，
+# 看好 26 年复苏》2026-02-02
+维持增持评级。我们下修 2025-2027 年 EPS 预测分别为 0.61/1.29/1.55 元（原预测为 0.64/1.31/1.62 元）,结合可比公司估值情况，给予公司 22.5 倍的 PE（2026E），目标价为 29.03元/股，维持“增持”评级。
+短期利润较大承压。公司披露 2025年业绩预告，预计2025年实现归母净利
+S0880513120002
+颜慧菁（分析师）
+021-38676666
+S0880525040022
+张宇轩（分析师）
+021-38676666
+S0880525040039
+陈力宇（分析师）
+021-38676666
+S0880522090005
+润 3.00-3.20 亿元（同比下滑 $6 2 . 3 3 \% { - } 6 4 . 6 8 \%$ ），实现扣非归母净利润 2.30-2.50亿元（同比下滑 $6 7 . 6 4 \% - 7 0 . 2 3 \%$ ）。参照业绩预告情况计算，则对应 25Q4实现归母净利润 1.32-1.52亿元（同比下滑 $3 1 . 9 2 \% - 4 0 . 8 8 \%$ ），实现扣非归母净利润 1.15-1.35亿元（同比下滑 $3 7 . 0 1 \% - 4 6 . 3 1 \%$ ）。
+25Q4利润降幅明显收窄。公司 25年整体归母净利润表现承压，主要系原料采购价格上升较多，导致毛利率有较大幅度下降。此外我们预计收入端表现承压也会带来规模效应的负面影响（例如 25Q1-Q3公司营收下滑 $5 . 3 8 \%$ ，预计 25Q4仍将受春节错期负面影响）。不过从 25Q4归母净利润降幅较 25Q1-Q3降幅明显收窄，我们认为背后主要系公司原材料成本压力的逐步缓解。
+看好26年收入利润进入复苏通道。展望26年，我们认为一方面考虑了到26年春节时间点较晚，因此对 26Q1春节备货产生积极有利影响，此外（1）公司新品持续拓展，例如公司魔芋产品以国内渠道为核心，东南亚等海外市场同步推进，魔芋产品风味不断增加。（2）零食量贩渠道 25年9月份单月销售已突破 9000万元，增长较快。我们预计未来零食量贩渠道将继续成为有力增长驱动力。因此我们判断 26年公司营收端将迎来良好复苏增长。此外据公司 2025年10月24日披露的接待投资者调研纪要，公司目前葵花籽原料采购价格比上一采购季价格有一些下降，葵花籽原料采购仍在持续进行中，因此预计随着 26年成本压力趋缓，公司盈利将同步释放。
+风险提示。（1）食品安全风险，（2）需求不及预期，（3）竞争加剧。
+本次评级：增持
+目标价：107.01 元
+现价：88.63 元
+总市值：90744百万
+肖群稀（分析师）
+021-38676666
+S0880522120001
+赵玥炜（分析师）
+021-38676666
+S0880525040040
+# 公司信息点评：杰瑞股份（002353）《再获 1.8亿美元发电机组订单，海外发电业务加速》2026-02-02
+投资建议。维持2025 EPS 3.06元，考虑公司在发电机组业务进展加速且获取多个实质性订单，上调 2026/2027 年 EPS 至 3.90/4.75 元（原 3.88/4.70 元）。参考可比公司 2025年平均估值PE 为 20.93倍，公司在全球与国际燃气轮机公司合作深入，海外发电业务加速发展，我们给予公司 2025年 35倍PE，上调目标价至107.01元，维持增持评级。
+公司获取1.8亿美元北美发电机组订单，发电业务快速发展。根据公司官方微信公众号与《关于签署日常经营重要合同的自愿性信息披露公告》，公司全资子公司杰瑞敏电能源集团再传捷报：杰瑞敏电与北美客户成功签署发电机组销售合同，单笔合同金额达 1.815亿美元，约合人民币 12.7亿元，交付期限为 30个月。根据合同金额与交付期限来看，我们认为本合同有望对 27-28年公司业绩有增厚效应。
+该项目是杰瑞敏电新开拓的重要客户，是25年 11月以来的第四个亿美元项目订单，累计获取发电机组订单约 5亿美金。根据公司官方微信公众号，该项目是自 2025年11月以来，杰瑞敏电接连落地的第四笔亿元美金项目订单，且本次合作方为杰瑞敏电新开拓的重要客户，标志着公司在北美市场的客户基础进一步扩大，未来合作空间广阔。此次签约不仅在金额上再创新高，更标志着公司在数据中心领域市场影响力与品牌认可度的持续提升。此前，公司获取的三笔发电机组订单累计超 3亿美元，叠加本次合同，对应累计约5 亿美金。
+不断扩大与国际燃气轮机公司合作，拓展海外发电业务。根据公司官方微信公众号，公司与西门子、贝克休斯、川崎重工等公司在燃气轮机上进行合作，共同为全球AI数据中心、工业制造及油气能源等领域提供高效、低碳、智能的电力解决方案。
+风险提示。油价下行；油公司资本支出不及预期；汇率不利变动；公司海外战略执行低于预期；订单交付不及预期；出售子公司股权导致财务数据变化。
+本次评级：增持
+目标价：71.40 元
+现价：53.83 元
+总市值：29831百万
+宋博（分析师）
+021-38676666
+S0880522120007
+杨天昊（分析师）
+021-38676666
+S0880523080010
+# 公司首次覆盖：振华科技（000733）《高可靠电子元器件筑基，
+# 军民电子需求支撑长期成长》2026-02-02
+首次覆盖给予“增持”评级，目标价71.40元。我们预计公司 2025~2027 年归母净利润分别为 9.41/11.14/11.78 亿元，对应 EPS 分别为 1.70/2.01/2.13 元。基于可比公司PE/PB估值方法，结合公司在高新电子元器件领域的行业地位与技术优势，按照 2025年42倍PE，给予公司目标价 71.40元，给予“增持”评级。
+深耕高可靠电子元器件，军工配套能力突出。公司长期深耕国防科技工业领域，主营业务涵盖基础元器件、电子功能材料、混合集成电路及应用开发等方向，产品广泛应用于航空、航天、电子、兵器、船舶及核工业等国家重点领域以及智能手机、新能源汽车等民用领域。依托完善的产品谱系、稳定的客户基础及较强的系统级配套能力，公司在高可靠电子元器件领域具备领先的市场地位。
+国防信息化与多下游需求共振，行业景气具备韧性。在国防预算持续增长、装备体系向信息化与智能化升级的背景下，高可靠电子元器件作为电子产业链的重要基础环节，需求具备长期支撑。同时，消费电子、汽车电子、工业自动化、通信及医疗电子等多下游领域共同发力，尤其是新能源汽车、电动化与ADAS 渗透率提升、5G/6G基础设施建设推进，为电子元器件行业带来结构性增长机遇，有效分散单一行业周期波动风险。
+募投项目夯实产研基础，创新驱动长期发展。公司围绕半导体功率器件、混合集成电路、阻容元件及继电器等核心方向推进募投项目建设，有助于提升高端产品产能与智能制造水平。公司持续加大研发投入，在高可靠无源器件、功率器件、电源模块及关键材料等领域构筑技术壁垒，并通过完善的人才激励与产学研协同机制，推动技术成果转化，为公司长期稳健成长奠定基础。
+催化剂：国防预算超预期；募投项目顺利投产。
+风险提示：军品客户集中度较高风险；募投项目建设及产能释放进度不及预期风险。
+# 金融工程周报：《大额买入与资金流向跟踪
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+张耿宇（分析师）
+021-38676666
+S0880525040078
+# （20260126-20260130）》2026-02-03
+个股大额买入跟踪与净主动买入跟踪。近5 个交易日大额买入排名前 5的个股为：湖南黄金、兴源环境、珠海中富、光明地产、江南高纤；近 5个交易日净主动买入排名前 5 的个股为：青岛银行、燕东微、张家港行、东方环宇、招商港口。（本周报中，近5个交易日特指 20260126至 20260130。）
+行业大额买入与净主动买入跟踪。近5 个交易日大额买入排名前 5的中信一级行业为：煤炭、交通运输、银行、非银行金融、电力及公用事业；近 5个交易日净主动买入排名前 5 的中信一级行业为：通信、农林牧渔、电子、轻工制造、纺织服装。
+ETF大额买入跟踪与ETF净主动买入跟踪。近5个交易日大额买入排名前 5的 ETF为：华泰柏瑞中证A500ETF、汇添富 MSCI中国A50 互联互通ETF、华夏中证 A500ETF、国泰上证10年期国债ETF、国泰中证A500ETF；近 5 个交易日净主动买入排名前 5的ETF为：南方标普中国A股大盘红利低波 50ETF、华夏创业板人工智能ETF、南方创业板人工智能 ETF、广发创业板ETF、国泰上证国有企业红利ETF。
+风险提示。因子失效风险，模型误设风险，市场系统性风险。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+梁誉耀（分析师）
+021-38676666
+S0880524080003
+# 金融工程周报：《红利风格择时周报（0126-0130）》2026-02-02
+上周（20260126至20260130）红利风格择时模型综合因子值为-0.08，相对前一周（20260112至 20260123）的-0.57大幅回升，接近临界点，需注意风格切换的可能性。
+分项来看，融资净买入大幅减小，对红利转为正贡献；美债利率的下行趋势持续减弱，对红利的压制减小；上周红利表现较好，动量因子明显改善。存量方面，美债利率的下行趋势和行业景气度的改善仍为负贡献的主要来源，但市场情绪及股债性价比因子提供了较强的正贡献，两相对冲，综合因子值迅速接近0轴。
+风险提示：本报告结论完全基于公开的历史数据进行计算，不代表点位预测，亦不构成投资收益的保证或投资建议。股市系统性风险发生使得各类规律失效。宏观和产业政策超预期改变市场交易环境。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+曹君豪（分析师）
+021-38676666
+# 基本面量化月报：《大类资产及择时观点月报（2026.02）》
+# 2026-02-02
+大类资产1季度配置信号：根据2025年12月底的最新数据，信用利差收窄，
+S0880525040094
+期限利差扩张，2026Q1 宏观环境预测结果为 Slowdown。
+宏观动量模型配置信号：根据2026年 1月底的最新数据，股票、债券和黄金市场在 2026 年 2 月信号分别为负向，正向和正向。
+行业复合趋势因子组合表现及信号：2015年1月至2026年 1月，行业复合趋势因子组合的累积收益为 $1 3 7 . 9 1 \%$ ，超额收益为 $5 1 . 7 4 \%$ 。上月（2026年1月）因子信号为正向，Wind全A 当月收益率为 $5 . 8 3 \%$ 。根据2026年 1月底的最新数据，行业复合趋势因子为0.56，维持正向信号。
+风险提示：模型失效风险、因子失效风险、海外市场波动风险。
+郑雅斌（分析师）
+021-38676666
+S0880525040105
+卓洢萱（分析师）
+021-38676666
+S0880525040128
+# 基本面量化月报：《风格及行业观点月报（2026.02）》
+# 2026-02-02
+风格轮动模型方面，2026Q1 风格轮动模型发出小盘、成长信号。2026年1月，小盘、成长超额分别为 $7 . 0 3 \%$ 及 $3 . 2 7 \%$ ，轮动信号得到初步印证。行业轮动模型方面，1月，单因子策略、复合因子策略推荐配置的多头行业均涵盖非银行金融、煤炭及钢铁。2025年，行业复合因子策略绝对收益达 $3 8 . 1 0 \%$ ，相对基准的超额为 $1 1 . 7 0 \%$ ；行业单因子多策略绝对收益达 $3 6 . 0 0 \%$ ，相对基准的超额为$1 0 . 3 7 \%$ 。
+大小盘风格轮动Q1配置信号。根据 2025年12月 31日的最新数据，2026Q1，双驱轮动策略得出的综合分数为-3，预测信号为小盘。
+价值成长风格轮动Q1配置信号。根据2025年12月31日的最新数据，2026Q1，双驱轮动策略得出的综合分数为-1，预测信号为成长。
+行业轮动1月表现。使用行业历史基本面、预期基本面、情绪面、量价技术面、宏观经济等维度的因子对各行业打分，分别构建复合因子策略及单因子多策略。1月复合因子策略的超额收益 $2 . 2 6 \%$ ，单因子多策略的超额收益为 $- 2 . 9 9 \%$ 。
+行业轮动2月观点。单因子多策略推荐配置的多头行业为钢铁、有色金属、非银行金融。复合因子策略推荐的多头行业为煤炭、钢铁、有色金属、非银行金属、建材。
+风险提示：模型失效风险、因子失效风险、海外市场波动风险。
+唐元懋（分析师）
+021-38676666
+S0880524040002
+# 市场策略周报：《纯债 ETF持续净赎回，债基策略趋防御》
+# 2026-02-02
+吴宇擎（分析师）
+021-38676666
+S0880516050001
+ETF交易热度聚焦可转债，多数板块资金净流出。过去一周市场交易活跃度结构分化显著，可转债 ETF周成交额环比增长 $3 5 . 9 \%$ 至1063.2亿元，地方债成交亦较活跃，信用债成交额环比下降。资金流向可转债和短期信用债，其中可转债ETF获得 43.9亿元净申购，而利率债及科创债板块则呈现资金净流出，显示整体偏防御的配置心态。
+ETF组合久期全线收缩，贴水率变化暗示情绪差异。各类型ETF的PCF久期均值环比全线下降，其中短期信用债ETF久期环比缩短 $2 . 8 7 \%$ ，幅度最为显著。多数品种贴水率负值收窄，悲观情绪有所缓和；可转债 ETF贴水率由负转正至$0 . 1 5 4 \%$ ，凸显市场对其短期走势的乐观预期。
+纯债基金稳健收涨，“固收 $+ ^ { , , }$ 产品受权益市场波动拖累。 纯债基金表现稳健，短债与中长债基金单周年化涨幅中位数分别为 $1 . 7 0 \%$ 与 $1 . 6 7 \%$ ，回撤控制良好。“固收+”产品受权益市场波动拖累普遍下跌，一级、二级债基（非定开）净值涨幅中位数分别为- $. 8 . 1 9 \%$ 与- $. 6 . 6 5 \%$ ，其中转债仓位对一级、二级债基净值影响的效应量（η²）分别高达 $5 4 . 1 2 \%$ 与 $4 0 . 0 2 \%$ 。
+风险提示：统计模型在实际应用中存在局限性、过去的业绩不代表未来的表现
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+投资评级分为股票评级和行业评级。
+以报告发布后的 12个月内的市场表现为比较标准，报告发布日后的 12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深 300 指数涨跌幅为基准。
+评级说明  
+投资建议的比较标准  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址 上海市黄浦区中山南路 888 号
+邮编 200011
+电话 （021）38676666</t>
+  </si>
+  <si>
+    <t># 融资资金开始回流
+ 投资者微观行为洞察手册·1月第4期
+# 本报告导读：
+本期市场成交热度抬升，赚钱效应边际下降。从资金层面看，融资资金小幅流入，偏股公募基金新发行边际回落，ETF 资金大幅流出，外资流入 A 股和港股。
+# 投资要点：
+[T le_Summary] 市场定价状态：市场成交热度抬升，赚钱效应边际下降。1）市场情绪（上升）：本期市场交易换手率抬升，全A日均成交额上升至3.1万亿，日均涨停家数降至69家，最大连板数为6.5板，封板率降至$7 1 . 0 \%$ ，龙虎榜上榜家数为 66家；2）赚钱效应（下降）：本期个股上涨比例下降至 $2 3 . 6 \%$ ，全A 个股周度收益中位数下降至 $- 3 . 4 \%$ ；3）交易集中度（下降）：二级行业交易集中度下降，本期行业换手率历史分位数处于 $90 \%$ 以上的行业有 18个，其中石油石化、国防军工等4个行业换手率处于 $9 9 \% r \lambda$ 上。  
+。 A股资金流动：本期融资资金小幅流入，ETF资金大幅流出。1）公募：本期偏股基金新发规模下降至 350.9 亿，公募基金股票仓位整体下降；2）私募：1 月私募信心指数较12 月增长 $0 . 5 \%$ ，仓位较前期边际下降（截至 1/9）；3）外资：流入 4.1 亿美元（截至 1/28），北向资金成交占比历史分位数（MA5）降至 $0 . 1 \%$ ；4）产业资本：本期 IPO 首发募集为 55.5 亿元，定增规模为 45.5 亿元，未来一期限售股解禁规模为 1035.7 亿元；5）ETF：被动资金继续大规模流出，本期流出3193.7亿元，被动成交占比环比下降至 $9 . 1 \%$ ，行业成交集中度 CR5 略微回升；6）融资：本期净买入额上升至 160.9 亿元，成交额占比下降至 $9 . 6 \%$ ；7）散户：另类指标显示本期散户活跃度边际抬升。  
+。 A 股行业配置：融资和 ETF 共同流出电子行业。1）外资：（截至1/28）有色金属（ $+ 1 1 9 . 5$ 百万美元）/汽车（ $+ 3 8 . 1$ 百万美元）净流入居前，交通运输（-1.3 百万美元）/公共事业（-1.1 百万美元）净流出居前；2）融资：（截至1/29）有色金属（ $+ 1 3 4 . 5$ 亿元）/基础化工（ $+ 2 0 . 5$ 亿元）净流入居前，国防军工（-28.2亿元）/电子（-59.5亿元）净流出居前；3）ETF：一级行业被动资金普遍流出，电子（-457.4亿元）/非银（-350.3亿元）/银行（-341.7 亿元）净流出居前；二级行业中贵金属/油服工程净流入居前，半导体/证券净流出居前。本期增持居前的 ETF 包括有色金属 ETF/化工 ETF 等，中证 500ETF/黄金ETF融资净买入居前；沪深 300ETF/上证 50ETF净赎回居前，沪深300ETF/人工智能ETF融资净卖出；4）龙虎榜资金：有色金属、基础化工和环保为龙虎榜行业前三。  
+。 港股与全球资金流动：南下资金流入放缓，全球外资边际流入美国和亚洲市场。本期恒生指数收涨 $. + 2 . 4 \%$ ，全球主要市场涨跌互现，韩国市场（ $+ 4 . 7 \%$ ）涨幅居前。资金维度：1）南下资金净买入额下降至 27.1 亿元，处 2022 年以来 $1 5 \%$ 分位（MA5）；2）本期（截至 1/28）发达市场主动/被动资金净流动-26.1亿/286.5亿美元，新兴市场主动/被动资金净流动 31.1 亿/-454.5 亿美元。仅外资口径看，全球外资边际流入美国和亚洲市场，美国（ $+ 6 2 . 7$ 亿美元）、韩国（ $+ 2 8 . 3$ 亿美元）、中国（ $+ 2 6 . 4$ 亿美元）流入规模居前。含各国内资的全球整体流动看，美国/韩国获流入居前。北美基金获净申购，美股科技/能源基金净申购居前。  
+。 风险提示：数据统计口径存在偏差；数据测算误差；从第三方机构获知数据的偏差风险。
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;方奕(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38031658&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;fangyi2@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880520120005&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;郭胤含(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38031691&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;guoyinhan@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880524100001&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;田开轩(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-38038673&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;tiankaixuan@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880524080006&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# [Table_Rep相关报告
+成交活跃度上升，上证 50估值领涨 2026.02.01资产概览：沃什交易逆转美元与黄金走势2026.02.012025A 业绩预告情况跟踪（2026.01.28）2026.01.29ETF资金大幅流出，主动外资流入边际抬升2026.01.27资产概览：国际金银价格刷新历史记录2026.01.26
+# 目录
+1. 市场定价状态：成交热度小幅抬升，赚钱效应下降..  
+2. A 股流动性跟踪：本期融资资金小幅流入，ETF资金大幅流出.. ... 6
+2.1. 公募行为观察：新成立公募基金份额下降.  
+2.2. 私募行为观察：本期私募基金信心指数上升. 8  
+2.3. 外资行为观察：外资资金流入 A 股市场 4 亿美元. .8  
+2.4. 产业资金行为观察：定增规模小幅下降. ..10  
+2.5. ETF资金行为观察：被动资金大规模流出，成交占比环比下降，集中度略微回升.. ... 12  
+2.6. 两融行为观察：融资资金净买入额上升至161亿元. ..14  
+2.7. 龙虎榜行为观察：本期龙虎榜净买入额边际下降. .15   
+2.8. 散户行为观察：散户交易热情边际抬升. 17
+3. A 股资金行业配置跟踪：融资与ETF共同流出电子行业. .17
+3.1. 外资：有色金属、汽车净流入居前，交通运输、公共事业净流出居前17  
+3.2. ETF 资金：一级市场普遍流出，电子、非银和银行净流出居前......19  
+3.3. 融资资金：有色金属、基础化工净流入居前，国防军工、电子净流出居前 21  
+3.4. 龙虎榜资金：有色金属、基础化工和环保为龙虎榜行业前三..........22
+4. 港股与全球流动性跟踪：本期南下资金流入放缓，全球外资边际流入美国和亚洲市场. ... 24
+4.1. 市场表现：本期全球市场涨跌互现，韩国市场领涨. ..24  
+4.2. 港股流动性跟踪：南下资金流入放缓，外资流入港股大幅上升......24  
+4.3. 全球外资流动：本期全球外资边际流入美国、韩国、中国市场......26
+5. 风险提示. .29
+数据说明：由于各数据披露时间和披露频率的差异，本周报中各类资金数据的统计时间区间略有不同，其中来自 EPFR的外资流动数据截至 1/28（截至上周三），来自两融的数据截至 1/29（截至上周四），此外数据如无特别说明数据区间为 1/26-1/30（截至上周最后一个交易日）。
+# 1. 市场定价状态：成交热度小幅抬升，赚钱效应下降
+表1：本期市场换手率上升，成交额边际上升  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;重要观察指标&lt;/td&gt;&lt;td&gt;本期&lt;/td&gt;&lt;td&gt;上期&lt;/td&gt;&lt;td&gt;12月以来&lt;/td&gt;&lt;td&gt;YTD&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;交易维度&lt;/td&gt;&lt;td colspan="2"&gt;全A日均成交额（亿元）&lt;/td&gt;&lt;td&gt;30,632&lt;/td&gt;&lt;td&gt;27,989&lt;/td&gt;&lt;td&gt;19,006&lt;/td&gt;&lt;td&gt;30,448&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;换手率分位数（2022年以来）&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;98%&lt;/td&gt;&lt;td&gt;94%&lt;/td&gt;&lt;td&gt;67%&lt;/td&gt;&lt;td&gt;95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;98%&lt;/td&gt;&lt;td&gt;95%&lt;/td&gt;&lt;td&gt;58%&lt;/td&gt;&lt;td&gt;95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板&lt;/td&gt;&lt;td&gt;96%&lt;/td&gt;&lt;td&gt;90%&lt;/td&gt;&lt;td&gt;70%&lt;/td&gt;&lt;td&gt;95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创板&lt;/td&gt;&lt;td&gt;98%&lt;/td&gt;&lt;td&gt;94%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;93%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;北证50&lt;/td&gt;&lt;td&gt;73%&lt;/td&gt;&lt;td&gt;66%&lt;/td&gt;&lt;td&gt;57%&lt;/td&gt;&lt;td&gt;73%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;红利指数&lt;/td&gt;&lt;td&gt;98%&lt;/td&gt;&lt;td&gt;88%&lt;/td&gt;&lt;td&gt;45%&lt;/td&gt;&lt;td&gt;91%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;收益维度&lt;/td&gt;&lt;td rowspan="7"&gt;区间收益（%）&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;0.84&lt;/td&gt;&lt;td&gt;5.90&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;-0.62&lt;/td&gt;&lt;td&gt;3.97&lt;/td&gt;&lt;td&gt;1.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;-0.34&lt;/td&gt;&lt;td&gt;9.62&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创板&lt;/td&gt;&lt;td&gt;-2.85&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;td&gt;13.73&lt;/td&gt;&lt;td&gt;12.29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;北证50&lt;/td&gt;&lt;td&gt;-3.59&lt;/td&gt;&lt;td&gt;2.60&lt;/td&gt;&lt;td&gt;10.37&lt;/td&gt;&lt;td&gt;6.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;红利指数&lt;/td&gt;&lt;td&gt;2.54&lt;/td&gt;&lt;td&gt;1.39&lt;/td&gt;&lt;td&gt;1.77&lt;/td&gt;&lt;td&gt;3.32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基金重仓股指数&lt;/td&gt;&lt;td&gt;-1.90&lt;/td&gt;&lt;td&gt;1.73&lt;/td&gt;&lt;td&gt;11.16&lt;/td&gt;&lt;td&gt;6.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;资金维度&lt;/td&gt;&lt;td rowspan="4"&gt;净流入（内资为 亿元，外资为百万 美元）&lt;/td&gt;&lt;td&gt;融资资金&lt;/td&gt;&lt;td&gt;161&lt;/td&gt;&lt;td&gt;-83&lt;/td&gt;&lt;td&gt;677&lt;/td&gt;&lt;td&gt;1981&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;ETF&lt;/td&gt;&lt;td&gt;-3194&lt;/td&gt;&lt;td&gt;-3333&lt;/td&gt;&lt;td&gt;866&lt;/td&gt;&lt;td&gt;-7959&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;外资&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;177&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;偏股基金新发行&lt;/td&gt;&lt;td&gt;351&lt;/td&gt;&lt;td&gt;393&lt;/td&gt;&lt;td&gt;590&lt;/td&gt;&lt;td&gt;948&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，EPFR，国泰海通证券研究  
+注：周度换手率数据为日度加总得到；数据跟踪仅代表短期内动向，不代表长期的资金流动趋势，下同。
+图1：本期全A市场 $2 3 . 5 5 \%$ 个股上涨，收益中位数为$- 3 . 3 7 \%$   
+![](images/44f2847c5db43f83c6013dc26e76d4552243da0a0f89c35e84254426f9e7f232.jpg)  
+数据来源：Wind，国泰海通证券研究
+图2：本期各交易所成交金额均边际上升  
+![](images/8a1d277dd68904876a25d07f5103606cdea3005e6e6d8ad64cb12bc513287603.jpg)  
+数据来源：Wind，国泰海通证券研究
+图3：本期散户为买入主力（单位：亿元）  
+![](images/c35c6b314064772d972d51790fa676c95d3894237260fc6272e4caf7e7509a19.jpg)  
+数据来源：Wind，国泰海通证券研究
+图4：本期一级行业、二级行业交易集中度均下降  
+![](images/a346046767ac3d3937594ce7f4341f326f55e7db51695b7d634a0058c7fdf047.jpg)  
+数据来源：Wind，国泰海通证券研究
+表2：本期市场赚钱效应边际下降  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;主题交易情绪&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;本期均值&lt;/td&gt;&lt;td&gt;上期均值&lt;/td&gt;&lt;td&gt;T日 2026/1/30&lt;/td&gt;&lt;td&gt;T-1&lt;/td&gt;&lt;td&gt;T-2&lt;/td&gt;&lt;td&gt;T-3&lt;/td&gt;&lt;td&gt;T-4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上涨比例&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;45%&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;32%&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td&gt;29%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;涨停家数&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;69.4&lt;/td&gt;&lt;td&gt;70.6&lt;/td&gt;&lt;td&gt;59&lt;/td&gt;&lt;td&gt;89&lt;/td&gt;&lt;td&gt;85&lt;/td&gt;&lt;td&gt;59&lt;/td&gt;&lt;td&gt;55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;封板率&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;71.0%&lt;/td&gt;&lt;td&gt;78.6%&lt;/td&gt;&lt;td&gt;70%&lt;/td&gt;&lt;td&gt;71%&lt;/td&gt;&lt;td&gt;75%&lt;/td&gt;&lt;td&gt;75%&lt;/td&gt;&lt;td&gt;64%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;一字板涨停个数&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;最大连板数(除ST,ST*)&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;16.0&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;涨停板次日收益&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;-1.3%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;跌停家数&lt;/td&gt;&lt;td&gt;![](&amp;#x27;img_url&amp;#x27;)&lt;/td&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;42&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+表3：本期电子和有色金属日均成交额维持前列  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;申万行业周度成交额一览表 2026年1月30日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;一级行业成交额前5名&lt;/td&gt;&lt;td&gt;日均成交额（亿元）&lt;/td&gt;&lt;td&gt;成交额占比&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5040.90&lt;/td&gt;&lt;td&gt;16.46%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;3294.33&lt;/td&gt;&lt;td&gt;10.75%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;3079.04&lt;/td&gt;&lt;td&gt;10.05%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;2027.68&lt;/td&gt;&lt;td&gt;6.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;1999.24&lt;/td&gt;&lt;td&gt;6.53%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;15441.19&lt;/td&gt;&lt;td&gt;50.41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;二级行业成交额前10名&lt;/td&gt;&lt;td&gt;日均成交额（亿元）&lt;/td&gt;&lt;td&gt;成交额占比&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;2699.52&lt;/td&gt;&lt;td&gt;8.81%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工业金属&lt;/td&gt;&lt;td&gt;1611.49&lt;/td&gt;&lt;td&gt;5.26%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信设备&lt;/td&gt;&lt;td&gt;1348.92&lt;/td&gt;&lt;td&gt;4.40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;光伏设备&lt;/td&gt;&lt;td&gt;975.40&lt;/td&gt;&lt;td&gt;3.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;882.12&lt;/td&gt;&lt;td&gt;2.88%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;IT服务Ⅱ&lt;/td&gt;&lt;td&gt;872.18&lt;/td&gt;&lt;td&gt;2.85%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车零部件&lt;/td&gt;&lt;td&gt;850.23&lt;/td&gt;&lt;td&gt;2.78%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;825.84&lt;/td&gt;&lt;td&gt;2.70%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电池&lt;/td&gt;&lt;td&gt;802.97&lt;/td&gt;&lt;td&gt;2.62%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;软件开发&lt;/td&gt;&lt;td&gt;785.86&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;11654.52&lt;/td&gt;&lt;td&gt;38.05%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+表4：本期石油石化和有色金属成交热度抬升明显  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;申万行业周度成交额边际变化 2026年1月30日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;一级行业成交额边际变化前5名&lt;/td&gt;&lt;td&gt;日均成交额（亿元）&lt;/td&gt;&lt;td&gt;成交额边际变化率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;408.24&lt;/td&gt;&lt;td&gt;84.26%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;3294.33&lt;/td&gt;&lt;td&gt;71.29%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;208.23&lt;/td&gt;&lt;td&gt;69.64%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;525.58&lt;/td&gt;&lt;td&gt;59.92%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;384.03&lt;/td&gt;&lt;td&gt;57.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计（前5名）&lt;/td&gt;&lt;td&gt;4820.41&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;一级行业成交额边际变化6-15名&lt;/td&gt;&lt;td&gt;日均成交额（亿元）&lt;/td&gt;&lt;td&gt;成交额边际变化率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;783.76&lt;/td&gt;&lt;td&gt;41.30%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;221.39&lt;/td&gt;&lt;td&gt;39.66%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;435.22&lt;/td&gt;&lt;td&gt;29.71%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;1185.82&lt;/td&gt;&lt;td&gt;28.27%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;241.81&lt;/td&gt;&lt;td&gt;27.35%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;1371.94&lt;/td&gt;&lt;td&gt;23.77%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;1687.99&lt;/td&gt;&lt;td&gt;18.14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;317.79&lt;/td&gt;&lt;td&gt;16.56%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;569.13&lt;/td&gt;&lt;td&gt;15.07%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;58.87&lt;/td&gt;&lt;td&gt;14.99%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计（前15名）&lt;/td&gt;&lt;td&gt;16514.55&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+表5：本期石油石化和国防军工换手率领先，18 个行业换手率处历史 $9 0 \%$ 以上  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;行业换手率分位数(2010年至今)&lt;/td&gt;&lt;td&gt;本期&lt;/td&gt;&lt;td&gt;上期&lt;/td&gt;&lt;td&gt;上月至今均值&lt;/td&gt;&lt;td&gt;2026年至今均值&lt;/td&gt;&lt;td&gt;周度变化&lt;/td&gt;&lt;td&gt;较上月至今均值变化&lt;/td&gt;&lt;td&gt;较年内均值变化&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;99.9%&lt;/td&gt;&lt;td&gt;96.7%&lt;/td&gt;&lt;td&gt;87.0%&lt;/td&gt;&lt;td&gt;91.8%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;13%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;99.8%&lt;/td&gt;&lt;td&gt;99.3%&lt;/td&gt;&lt;td&gt;99.3%&lt;/td&gt;&lt;td&gt;83.8%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;16%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;99.8%&lt;/td&gt;&lt;td&gt;96.7%&lt;/td&gt;&lt;td&gt;92.4%&lt;/td&gt;&lt;td&gt;91.4%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;7%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;99.0%&lt;/td&gt;&lt;td&gt;99.6%&lt;/td&gt;&lt;td&gt;92.5%&lt;/td&gt;&lt;td&gt;96.7%&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;98.8%&lt;/td&gt;&lt;td&gt;95.0%&lt;/td&gt;&lt;td&gt;84.3%&lt;/td&gt;&lt;td&gt;83.3%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;15%&lt;/td&gt;&lt;td&gt;15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;97.3%&lt;/td&gt;&lt;td&gt;95.4%&lt;/td&gt;&lt;td&gt;85.5%&lt;/td&gt;&lt;td&gt;91.9%&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td&gt;12%&lt;/td&gt;&lt;td&gt;5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;96.8%&lt;/td&gt;&lt;td&gt;82.7%&lt;/td&gt;&lt;td&gt;78.9%&lt;/td&gt;&lt;td&gt;95.0%&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;96.6%&lt;/td&gt;&lt;td&gt;76.7%&lt;/td&gt;&lt;td&gt;87.7%&lt;/td&gt;&lt;td&gt;82.0%&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;9%&lt;/td&gt;&lt;td&gt;15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;95.9%&lt;/td&gt;&lt;td&gt;92.6%&lt;/td&gt;&lt;td&gt;78.6%&lt;/td&gt;&lt;td&gt;87.3%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;95.4%&lt;/td&gt;&lt;td&gt;91.5%&lt;/td&gt;&lt;td&gt;76.5%&lt;/td&gt;&lt;td&gt;84.8%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;19%&lt;/td&gt;&lt;td&gt;11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;94.4%&lt;/td&gt;&lt;td&gt;91.5%&lt;/td&gt;&lt;td&gt;89.2%&lt;/td&gt;&lt;td&gt;87.6%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;5%&lt;/td&gt;&lt;td&gt;7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;94.0%&lt;/td&gt;&lt;td&gt;92.9%&lt;/td&gt;&lt;td&gt;84.4%&lt;/td&gt;&lt;td&gt;80.4%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;93.3%&lt;/td&gt;&lt;td&gt;93.2%&lt;/td&gt;&lt;td&gt;85.6%&lt;/td&gt;&lt;td&gt;79.0%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;93.0%&lt;/td&gt;&lt;td&gt;93.0%&lt;/td&gt;&lt;td&gt;79.0%&lt;/td&gt;&lt;td&gt;78.4%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;td&gt;15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;92.6%&lt;/td&gt;&lt;td&gt;93.0%&lt;/td&gt;&lt;td&gt;88.0%&lt;/td&gt;&lt;td&gt;91.5%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;5%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;91.2%&lt;/td&gt;&lt;td&gt;85.1%&lt;/td&gt;&lt;td&gt;88.0%&lt;/td&gt;&lt;td&gt;93.4%&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;91.0%&lt;/td&gt;&lt;td&gt;95.0%&lt;/td&gt;&lt;td&gt;89.9%&lt;/td&gt;&lt;td&gt;87.7%&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;90.3%&lt;/td&gt;&lt;td&gt;82.7%&lt;/td&gt;&lt;td&gt;78.5%&lt;/td&gt;&lt;td&gt;82.2%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;12%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;89.4%&lt;/td&gt;&lt;td&gt;89.5%&lt;/td&gt;&lt;td&gt;94.2%&lt;/td&gt;&lt;td&gt;85.1%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;88.6%&lt;/td&gt;&lt;td&gt;89.6%&lt;/td&gt;&lt;td&gt;88.5%&lt;/td&gt;&lt;td&gt;82.8%&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;88.4%&lt;/td&gt;&lt;td&gt;88.5%&lt;/td&gt;&lt;td&gt;81.2%&lt;/td&gt;&lt;td&gt;90.1%&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td&gt;7%&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;87.6%&lt;/td&gt;&lt;td&gt;86.7%&lt;/td&gt;&lt;td&gt;74.4%&lt;/td&gt;&lt;td&gt;86.5%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;13%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;87.5%&lt;/td&gt;&lt;td&gt;88.8%&lt;/td&gt;&lt;td&gt;93.3%&lt;/td&gt;&lt;td&gt;90.3%&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;86.8%&lt;/td&gt;&lt;td&gt;91.3%&lt;/td&gt;&lt;td&gt;80.8%&lt;/td&gt;&lt;td&gt;82.5%&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;86.4%&lt;/td&gt;&lt;td&gt;74.1%&lt;/td&gt;&lt;td&gt;78.7%&lt;/td&gt;&lt;td&gt;85.5%&lt;/td&gt;&lt;td&gt;12%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;83.9%&lt;/td&gt;&lt;td&gt;66.1%&lt;/td&gt;&lt;td&gt;75.7%&lt;/td&gt;&lt;td&gt;63.9%&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;83.8%&lt;/td&gt;&lt;td&gt;88.8%&lt;/td&gt;&lt;td&gt;87.5%&lt;/td&gt;&lt;td&gt;89.0%&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;81.9%&lt;/td&gt;&lt;td&gt;77.6%&lt;/td&gt;&lt;td&gt;86.3%&lt;/td&gt;&lt;td&gt;92.6%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;80.6%&lt;/td&gt;&lt;td&gt;76.1%&lt;/td&gt;&lt;td&gt;74.3%&lt;/td&gt;&lt;td&gt;39.4%&lt;/td&gt;&lt;td&gt;5%&lt;/td&gt;&lt;td&gt;6%&lt;/td&gt;&lt;td&gt;41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;78.7%&lt;/td&gt;&lt;td&gt;60.2%&lt;/td&gt;&lt;td&gt;62.4%&lt;/td&gt;&lt;td&gt;60.5%&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;td&gt;16%&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+# 2. A股流动性跟踪：本期融资资金小幅流入，ETF资金大幅流出
+图5：本期融资资金小幅流入   
+![](images/0fd6e027a5834b024213d30589a95cbe4d42db5f2e8ec6a851126960de9b4265.jpg)  
+数据来源：Wind，EPFR，国泰海通证券研究
+图6：本期 ETF 资金大幅流出（数值表示分位数）  
+![](images/4cfe4f20d1aa57024b569695cc3eb984bce6f5139817ee7825fe55bd5721439e.jpg)  
+数据来源：Wind，国泰海通证券研究
+图7：本期ETF交易占比边际略降  
+![](images/99ace1fb4f1b75d3dfe2a118f5bb6ff784e09d783fc7ae554be6e890486efaa2.jpg)  
+数据来源：Wind，国泰海通证券研究
+图8：本期高风险偏好资金强度略升  
+![](images/c50ea8d57480488cdb8c168e3848060cb73ffc8f3ea9fc13bec407f87cb7ce8b.jpg)  
+数据来源：Wind，国泰海通证券研究
+表6：本期融资与外资资金小幅流入，ETF资金大幅流出  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;日期&lt;/td&gt;&lt;td&gt;ETF （亿元）&lt;/td&gt;&lt;td&gt;外资 （亿元，估）&lt;/td&gt;&lt;td&gt;融资 （亿元）&lt;/td&gt;&lt;td&gt;偏股基金新发行 （亿元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;当前分位 (2023年以来)&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;86%&lt;/td&gt;&lt;td&gt;65%&lt;/td&gt;&lt;td&gt;97%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;-3193.74&lt;/td&gt;&lt;td&gt;28.75&lt;/td&gt;&lt;td&gt;160.91&lt;/td&gt;&lt;td&gt;350.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/23&lt;/td&gt;&lt;td&gt;-3332.97&lt;/td&gt;&lt;td&gt;27.16&lt;/td&gt;&lt;td&gt;-82.92&lt;/td&gt;&lt;td&gt;393.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/16&lt;/td&gt;&lt;td&gt;-1419.53&lt;/td&gt;&lt;td&gt;75.20&lt;/td&gt;&lt;td&gt;1044.98&lt;/td&gt;&lt;td&gt;133.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/9&lt;/td&gt;&lt;td&gt;-12.51&lt;/td&gt;&lt;td&gt;46.03&lt;/td&gt;&lt;td&gt;857.79&lt;/td&gt;&lt;td&gt;69.92&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，EPFR，国泰海通证券研究
+# 2.1. 公募行为观察：新成立公募基金份额下降
+图9：本期新成立偏股型基金份额下降至 350.81 亿，前值为 393.18 亿份  
+![](images/c5751096158777823147476e5a6acc0d963c5aef4e945cb15578c58edadd6bb5.jpg)  
+数据来源：Wind，国泰海通证券研究
+图10：本期公募基金股票仓位整体较上期减仓  
+![](images/5ec7e9d81a35902afb38f79f8645419d7e808a1e49ebdd08475af1d63ec18725.jpg)  
+数据来源：Wind，国泰海通证券研究
+图11：年初至今基金收益率中位数为 $6 . 8 0 \%$   
+![](images/56ea83f0451f48f74dccd4d5ba9b0c017998386a3fef1efb3367e21c3b6433e8.jpg)  
+数据来源：Wind，国泰海通证券研究
+图12：本期基金收益率中位数下降至 $0 . 3 2 \%$ ，前值为 1.57%   
+![](images/6013f8ef3a927742f238ec85c23d2e995e882044e599b7cb503f2fba9a86847c.jpg)  
+数据来源：Wind，国泰海通证券研究
+表7：正在发行的公募基金的内地股票一览  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金简称&lt;/td&gt;&lt;td&gt;投资类型&lt;/td&gt;&lt;td&gt;募集起始日&lt;/td&gt;&lt;td&gt;计划募集截止日&lt;/td&gt;&lt;td&gt;业绩基准中的股票指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;026538.0F&lt;/td&gt;&lt;td&gt;融通科技臻选A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;2026/2/13&lt;/td&gt;&lt;td&gt;中国战略新兴产业成份指数、中证港股通科技指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;026752.0F&lt;/td&gt;&lt;td&gt;国泰共赢未来A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/29&lt;/td&gt;&lt;td&gt;2026/2/25&lt;/td&gt;&lt;td&gt;中证800指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;026066.0F&lt;/td&gt;&lt;td&gt;易方达成长驱动A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;2026/2/10&lt;/td&gt;&lt;td&gt;中国战略新兴产业成份指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;026223.0F&lt;/td&gt;&lt;td&gt;广发消费领航A&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;2026/2/3&lt;/td&gt;&lt;td&gt;中证内地消费主题指数、中证港股通大消费主题指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;026462.0F&lt;/td&gt;&lt;td&gt;景顺长城均衡增长&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;2026/2/10&lt;/td&gt;&lt;td&gt;中证800指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;026602.0F&lt;/td&gt;&lt;td&gt;国泰产业机遇A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;2026/2/10&lt;/td&gt;&lt;td&gt;中证800指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;025546.0F&lt;/td&gt;&lt;td&gt;财通周期优选A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;2026/2/9&lt;/td&gt;&lt;td&gt;中证周期100指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;026384.0F&lt;/td&gt;&lt;td&gt;中航甄选领航A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;2026/2/13&lt;/td&gt;&lt;td&gt;沪深300指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;026488.0F&lt;/td&gt;&lt;td&gt;安信资源睿选A&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证内地资源主题指数、恒生综合行业指数-原材料业&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;026520.0F&lt;/td&gt;&lt;td&gt;财通资管量化选股A&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;中证500指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;026532.0F&lt;/td&gt;&lt;td&gt;宏利优势企业A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;沪深300指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;026642.0F&lt;/td&gt;&lt;td&gt;富国数字经济A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证数字经济主题指数、中证港股通科技指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;026662.0F&lt;/td&gt;&lt;td&gt;建信资源严选A&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证内地资源主题指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;026666.0F&lt;/td&gt;&lt;td&gt;华泰紫金策略精选A&lt;/td&gt;&lt;td&gt;灵活配置型基金&lt;/td&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;中证800指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;026648.0F&lt;/td&gt;&lt;td&gt;易方达港股通消费A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/21&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证港股通消费50指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;026261.0F&lt;/td&gt;&lt;td&gt;银华智享A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/19&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;沪深300成长指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;026425.0F&lt;/td&gt;&lt;td&gt;景顺长城景气驱动&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/19&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证800指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;026540.0F&lt;/td&gt;&lt;td&gt;鹏华成长进取A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/19&lt;/td&gt;&lt;td&gt;2026/2/3&lt;/td&gt;&lt;td&gt;中证A500指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;026678.0F&lt;/td&gt;&lt;td&gt;恒越嘉润量化选股A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/19&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;中证全指指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;026686.0F&lt;/td&gt;&lt;td&gt;兴华景睿A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/16&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;中证全指指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;025970.0F&lt;/td&gt;&lt;td&gt;安信成长共赢A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/12&lt;/td&gt;&lt;td&gt;2026/2/6&lt;/td&gt;&lt;td&gt;沪深300成长指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;026490.0F&lt;/td&gt;&lt;td&gt;天弘价值成长A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2026/1/12&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;中证800指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;026309.0F&lt;/td&gt;&lt;td&gt;长信均衡配置&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2025/12/25&lt;/td&gt;&lt;td&gt;2026/3/24&lt;/td&gt;&lt;td&gt;中证800指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;026257.0F&lt;/td&gt;&lt;td&gt;平安新锐量化选股A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2025/12/22&lt;/td&gt;&lt;td&gt;2026/3/20&lt;/td&gt;&lt;td&gt;中证全指指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;025090.0F&lt;/td&gt;&lt;td&gt;百嘉百裕成长A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2025/12/18&lt;/td&gt;&lt;td&gt;2026/3/17&lt;/td&gt;&lt;td&gt;中证A500指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;024911.0F&lt;/td&gt;&lt;td&gt;华夏经典回报&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2025/12/3&lt;/td&gt;&lt;td&gt;2026/3/2&lt;/td&gt;&lt;td&gt;中证800指数、中证港股通综合指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;026005.0F&lt;/td&gt;&lt;td&gt;中海智选成长A&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;2025/11/17&lt;/td&gt;&lt;td&gt;2026/2/13&lt;/td&gt;&lt;td&gt;中证1000指数、恒生指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+# 2.2. 私募行为观察：本期私募基金信心指数上升
+图13：1 月私募基金对冲信心指数较上月上升 $0 . 4 7 \%$   
+![](images/ea689200f0b03c5d35cabc94303eeb619837159b924a61e6336d6f87c74b6e07.jpg)  
+数据来源：私募排排网，国泰海通证券研究
+图14：本期私募基金仓位边际下降  
+![](images/5393314912d9d4781dbda6a8a4b60274b10b71d17fa13e04ecdda65119db14a5.jpg)  
+数据来源：私募排排网，国泰海通证券研究；最新数据截至 1/9
+# 2.3. 外资行为观察：外资资金流入 A股市场 4亿美元
+表8：外资资金流入A股市场 4.13亿美元  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;外资&lt;/td&gt;&lt;td&gt;本期&lt;/td&gt;&lt;td&gt;上期&lt;/td&gt;&lt;td&gt;再上一周&lt;/td&gt;&lt;td&gt;较近三个月均值&lt;/td&gt;&lt;td&gt;较近一年均值&lt;/td&gt;&lt;td&gt;较近三年均值&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;外资流动维度&lt;/td&gt;&lt;td&gt;外资流入(估算,百万美元)&lt;/td&gt;&lt;td&gt;412.6&lt;/td&gt;&lt;td&gt;388.5&lt;/td&gt;&lt;td&gt;1073.1&lt;/td&gt;&lt;td&gt;123.2&lt;/td&gt;&lt;td&gt;286.2&lt;/td&gt;&lt;td&gt;406.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿)&lt;/td&gt;&lt;td&gt;2188.5&lt;/td&gt;&lt;td&gt;2534.0&lt;/td&gt;&lt;td&gt;1727.6&lt;/td&gt;&lt;td&gt;-93.5&lt;/td&gt;&lt;td&gt;333.5&lt;/td&gt;&lt;td&gt;774.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;外资交易维度&lt;/td&gt;&lt;td&gt;外资成交占比&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;td&gt;9.1%&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;-3.4%&lt;/td&gt;&lt;td&gt;-3.2%&lt;/td&gt;&lt;td&gt;-5.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;前十大个股交易占比&lt;/td&gt;&lt;td&gt;15.9%&lt;/td&gt;&lt;td&gt;16.0%&lt;/td&gt;&lt;td&gt;15.9%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;-8.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;外资杠杆ETF维度&lt;/td&gt;&lt;td&gt;三倍做多富时中国ETF成交额(亿元)&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;5.6&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;-0.91&lt;/td&gt;&lt;td&gt;-3.89&lt;/td&gt;&lt;td&gt;-3.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;三倍做空富时中国ETF成交额(亿元)&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;-1.00&lt;/td&gt;&lt;td&gt;-2.86&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，EPFR，国泰海通证券研究 注：数据跟踪仅代表短期内动向，不代表长期的资金流动趋势，下同
+图15：本期外资流入 A 股规模分位上升至 $8 5 . 7 0 \%$   
+![](images/7550e3f1761ea05ba094aaed248b93be14eddfba3feae8eac567ca264f166ab6.jpg)  
+数据来源：EPFR，国泰海通证券研究
+图16：本期北向资金成交额占比历史分位数下降至$\mathbf { 0 . 1 0 \% }$ ，前值为 $1 4 . 8 0 \%$   
+![](images/80f49f34513f8da8d29f23c741da29786397eb89d29defc86eb6936c9da83e19.jpg)  
+数据来源：Wind，国泰海通证券研究
+表9：本期外资流入 A 股市场 4.13 亿美元  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;外资及分类型&lt;/td&gt;&lt;td&gt;近八周累计流入 (百万美元,下同)&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026 本期&lt;/td&gt;&lt;td&gt;2026/1/21&lt;/td&gt;&lt;td&gt;2026/1/14&lt;/td&gt;&lt;td&gt;2026/1/7&lt;/td&gt;&lt;td&gt;2025/12/31&lt;/td&gt;&lt;td&gt;2025/12/24&lt;/td&gt;&lt;td&gt;2025/12/17&lt;/td&gt;&lt;td&gt;2025/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;外资&lt;/td&gt;&lt;td&gt;2,885&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;413&lt;/td&gt;&lt;td&gt;388&lt;/td&gt;&lt;td&gt;1,073&lt;/td&gt;&lt;td&gt;656&lt;/td&gt;&lt;td&gt;-123&lt;/td&gt;&lt;td&gt;225&lt;/td&gt;&lt;td&gt;246&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;主动型外资&lt;/td&gt;&lt;td&gt;218&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;230&lt;/td&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;-13&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-20&lt;/td&gt;&lt;td&gt;-33&lt;/td&gt;&lt;td&gt;-45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;被动型外资&lt;/td&gt;&lt;td&gt;2,659&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;142&lt;/td&gt;&lt;td&gt;311&lt;/td&gt;&lt;td&gt;1,067&lt;/td&gt;&lt;td&gt;679&lt;/td&gt;&lt;td&gt;-125&lt;/td&gt;&lt;td&gt;236&lt;/td&gt;&lt;td&gt;287&lt;/td&gt;&lt;td&gt;62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国家与地区&lt;/td&gt;&lt;td&gt;近八周累计流入&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026 本期&lt;/td&gt;&lt;td&gt;26/1/21&lt;/td&gt;&lt;td&gt;26/1/14&lt;/td&gt;&lt;td&gt;26/1/7&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/24&lt;/td&gt;&lt;td&gt;25/12/17&lt;/td&gt;&lt;td&gt;25/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="11"&gt;海外基金中A股资金流动&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球基金&lt;/td&gt;&lt;td&gt;476&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;94&lt;/td&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;107&lt;/td&gt;&lt;td&gt;108&lt;/td&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国基金&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-5&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;亚洲(非日本)基金&lt;/td&gt;&lt;td&gt;117&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;55&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;-12&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国基金&lt;/td&gt;&lt;td&gt;525&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-229&lt;/td&gt;&lt;td&gt;-34&lt;/td&gt;&lt;td&gt;648&lt;/td&gt;&lt;td&gt;411&lt;/td&gt;&lt;td&gt;-216&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;65&lt;/td&gt;&lt;td&gt;-122&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球新兴市场基金&lt;/td&gt;&lt;td&gt;1,669&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;470&lt;/td&gt;&lt;td&gt;347&lt;/td&gt;&lt;td&gt;284&lt;/td&gt;&lt;td&gt;119&lt;/td&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;157&lt;/td&gt;&lt;td&gt;136&lt;/td&gt;&lt;td&gt;118&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：EPFR，国泰海通证券研究
+表10：本期主动外资流入 A 股市场 2.30 亿美元  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;外资及分类型&lt;/td&gt;&lt;td&gt;近八周累计流入 (百万美元,下同)&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026 本期&lt;/td&gt;&lt;td&gt;26/1/21&lt;/td&gt;&lt;td&gt;26/1/14&lt;/td&gt;&lt;td&gt;26/1/7&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/24&lt;/td&gt;&lt;td&gt;25/12/17&lt;/td&gt;&lt;td&gt;25/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;主动外资&lt;/td&gt;&lt;td&gt;218&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;230&lt;/td&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;-13&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-20&lt;/td&gt;&lt;td&gt;-33&lt;/td&gt;&lt;td&gt;-45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国家与地区&lt;/td&gt;&lt;td&gt;近八周累计流入&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026 本期&lt;/td&gt;&lt;td&gt;26/1/21&lt;/td&gt;&lt;td&gt;26/1/14&lt;/td&gt;&lt;td&gt;26/1/7&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/24&lt;/td&gt;&lt;td&gt;25/12/17&lt;/td&gt;&lt;td&gt;25/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="11"&gt;海外主动基金中流入A股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;亚洲(非日本)基金&lt;/td&gt;&lt;td&gt;-24&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-8&lt;/td&gt;&lt;td&gt;-7&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-25&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金砖四国基金&lt;/td&gt;&lt;td&gt;-7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国基金&lt;/td&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;78&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;-24&lt;/td&gt;&lt;td&gt;-7&lt;/td&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;-26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球基金&lt;/td&gt;&lt;td&gt;-15&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-26&lt;/td&gt;&lt;td&gt;-20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球新兴市场基金&lt;/td&gt;&lt;td&gt;233&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;151&lt;/td&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;42&lt;/td&gt;&lt;td&gt;-31&lt;/td&gt;&lt;td&gt;-11&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;-38&lt;/td&gt;&lt;td&gt;27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球非美&lt;/td&gt;&lt;td&gt;-11&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;-5&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;大中华区基金&lt;/td&gt;&lt;td&gt;-11&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;太平洋区域基金&lt;/td&gt;&lt;td&gt;-16&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国基金&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：EPFR，国泰海通证券研究
+表11：本期被动外资流入 A 股市场 1.42 亿美元  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;外资及分类型&lt;/td&gt;&lt;td&gt;近八周累计流入&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026
+本期&lt;/td&gt;&lt;td&gt;26/1/21&lt;/td&gt;&lt;td&gt;26/1/14&lt;/td&gt;&lt;td&gt;26/1/7&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/24&lt;/td&gt;&lt;td&gt;25/12/17&lt;/td&gt;&lt;td&gt;25/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;被动外资&lt;/td&gt;&lt;td&gt;2,659&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;142&lt;/td&gt;&lt;td&gt;311&lt;/td&gt;&lt;td&gt;1,067&lt;/td&gt;&lt;td&gt;679&lt;/td&gt;&lt;td&gt;-125&lt;/td&gt;&lt;td&gt;236&lt;/td&gt;&lt;td&gt;287&lt;/td&gt;&lt;td&gt;62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国家与地区&lt;/td&gt;&lt;td&gt;近八周累计流入&lt;/td&gt;&lt;td&gt;趋势&lt;/td&gt;&lt;td&gt;1/28/2026
+本期&lt;/td&gt;&lt;td&gt;26/1/21&lt;/td&gt;&lt;td&gt;26/1/14&lt;/td&gt;&lt;td&gt;26/1/7&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/24&lt;/td&gt;&lt;td&gt;25/12/17&lt;/td&gt;&lt;td&gt;25/12/10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="11"&gt;海外被动基金中流入A股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;亚洲（非日本）基金&lt;/td&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金砖四国基金&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国基金&lt;/td&gt;&lt;td&gt;467&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-322&lt;/td&gt;&lt;td&gt;-32&lt;/td&gt;&lt;td&gt;694&lt;/td&gt;&lt;td&gt;432&lt;/td&gt;&lt;td&gt;-237&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;-96&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球基金&lt;/td&gt;&lt;td&gt;627&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;111&lt;/td&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;123&lt;/td&gt;&lt;td&gt;100&lt;/td&gt;&lt;td&gt;48&lt;/td&gt;&lt;td&gt;57&lt;/td&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球新兴市场基金&lt;/td&gt;&lt;td&gt;1,320&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;300&lt;/td&gt;&lt;td&gt;246&lt;/td&gt;&lt;td&gt;223&lt;/td&gt;&lt;td&gt;135&lt;/td&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;133&lt;/td&gt;&lt;td&gt;154&lt;/td&gt;&lt;td&gt;84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;全球非美&lt;/td&gt;&lt;td&gt;144&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国香港基金&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;太平洋区域基金&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;-0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国基金&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;-7&lt;/td&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：EPFR，国泰海通证券研究
+图17：中国大盘股 ETF 交易额上升至 73.24 亿美元  
+![](images/b4d7cb606eeb8b748017326517f356f19b5eeb6c676b2cb58c733eafb6d7f00b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图18：中国资产 ETF的海外资金参与热度下降  
+![](images/81f8f698ec2aa2fcdfdfbb11b86a52e6a7ab6b7d0a4db8937fe3165c4f99c649.jpg)  
+数据来源：Wind，国泰海通证券研究
+# 2.4. 产业资金行为观察：定增规模小幅下降
+图19：本期 IPO 首发募集为 55.49 亿元  
+![](images/27db8277567743a1fbbfc751fb6d5d0c8a3fbae63fb512250ea3934828a8c485.jpg)  
+数据来源：Wind，国泰海通证券研究
+图20：本期定增规模为 45.50 亿元  
+![](images/48f54fc455426a6d11013b35930028688e40d54bd007bd64d1e22def96891b1b.jpg)  
+数据来源：Wind，国泰海通证券研究
+图21：未来一期限售股解禁规模为 1035.70亿元  
+![](images/ab6a75738465d2f3a0173a5db221cacd5b71d2e24b44fc9f3167a44aa8f78f5f.jpg)  
+数据来源：Wind，国泰海通证券研究
+表12：未来一期限售股解禁个股明细   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;名称&lt;/td&gt;&lt;td&gt;解禁日期&lt;/td&gt;&lt;td&gt;申万二级行业&lt;/td&gt;&lt;td&gt;解禁数量(万股)&lt;/td&gt;&lt;td&gt;解禁数量占总股本比例(%)&lt;/td&gt;&lt;td&gt;解禁市值(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;江瀚新材&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制品&lt;/td&gt;&lt;td&gt;12163.9&lt;/td&gt;&lt;td&gt;32.6&lt;/td&gt;&lt;td&gt;39.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国邦医药&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制药&lt;/td&gt;&lt;td&gt;25710.1&lt;/td&gt;&lt;td&gt;46.0&lt;/td&gt;&lt;td&gt;70.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成都银行&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;城商行II&lt;/td&gt;&lt;td&gt;737.7&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;1.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;信达证券&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;证券II&lt;/td&gt;&lt;td&gt;255140.0&lt;/td&gt;&lt;td&gt;78.7&lt;/td&gt;&lt;td&gt;448.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;迪哲医药-U&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制药&lt;/td&gt;&lt;td&gt;61.4&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;盟科药业-U&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制药&lt;/td&gt;&lt;td&gt;62.3&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;敷尔佳&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化妆品&lt;/td&gt;&lt;td&gt;32.5&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;诺思格&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;医疗服务&lt;/td&gt;&lt;td&gt;3926.9&lt;/td&gt;&lt;td&gt;40.7&lt;/td&gt;&lt;td&gt;29.37&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;*ST花王&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;基础建设&lt;/td&gt;&lt;td&gt;878.1&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;万事利&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;纺织制造&lt;/td&gt;&lt;td&gt;4454.7&lt;/td&gt;&lt;td&gt;19.0&lt;/td&gt;&lt;td&gt;8.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;立昂技术&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;通信服务&lt;/td&gt;&lt;td&gt;19.3&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中颖电子&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;49.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鼎佳精密&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;250.0&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;1.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;田野股份&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;农产品加工&lt;/td&gt;&lt;td&gt;4801.4&lt;/td&gt;&lt;td&gt;14.7&lt;/td&gt;&lt;td&gt;2.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;步步高&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;一般零售&lt;/td&gt;&lt;td&gt;7000.0&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;3.58&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧康医药&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制药&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;芯原股份&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;晶华新材&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;化学制品&lt;/td&gt;&lt;td&gt;131.9&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;三未信安&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;计算机设备&lt;/td&gt;&lt;td&gt;58.6&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;华密新材&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;汽车零部件&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;招金黄金&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;贵金属&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鑫汇科&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;69.1&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;易普力&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;化学制品&lt;/td&gt;&lt;td&gt;53949.4&lt;/td&gt;&lt;td&gt;43.5&lt;/td&gt;&lt;td&gt;76.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;泰和新材&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;化学纤维&lt;/td&gt;&lt;td&gt;3213.9&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;4.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;长江电力&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;电力&lt;/td&gt;&lt;td&gt;46096.1&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;121.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧陆通&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;其他电源设备II&lt;/td&gt;&lt;td&gt;82.8&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;2.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;利通电子&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;44.0&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国源科技&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;IT服务II&lt;/td&gt;&lt;td&gt;163.3&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;节能风电&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;电力&lt;/td&gt;&lt;td&gt;31.6&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;三元基因&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;生物制品&lt;/td&gt;&lt;td&gt;34.8&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中微半导&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;23130.0&lt;/td&gt;&lt;td&gt;57.8&lt;/td&gt;&lt;td&gt;133.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;奥特维&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;光伏设备&lt;/td&gt;&lt;td&gt;10.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;思瑞浦&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;304.8&lt;/td&gt;&lt;td&gt;2.2&lt;/td&gt;&lt;td&gt;6.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;重庆银行&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;城商行II&lt;/td&gt;&lt;td&gt;346.3&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;龙迅股份&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汉桑科技&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;151.7&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;0.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;劲仔食品&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;休闲食品&lt;/td&gt;&lt;td&gt;4789.9&lt;/td&gt;&lt;td&gt;10.6&lt;/td&gt;&lt;td&gt;5.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;星环科技-U&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;软件开发&lt;/td&gt;&lt;td&gt;2716.3&lt;/td&gt;&lt;td&gt;22.4&lt;/td&gt;&lt;td&gt;57.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;宏海科技&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;家电零部件II&lt;/td&gt;&lt;td&gt;13679.7&lt;/td&gt;&lt;td&gt;79.4&lt;/td&gt;&lt;td&gt;18.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;登康口腔&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;个护用品&lt;/td&gt;&lt;td&gt;298.8&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;1.19&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+表13：本期产业资金净减持规模下降至 7.76 亿元  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;跟踪指标&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;2026/1/23&lt;/td&gt;&lt;td&gt;3月以来&lt;/td&gt;&lt;td&gt;年初以来&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;产业资本&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;1.49&lt;/td&gt;&lt;td&gt;82.03&lt;/td&gt;&lt;td&gt;88.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;公告增减持（亿元）&lt;/td&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;7.96&lt;/td&gt;&lt;td&gt;12.51&lt;/td&gt;&lt;td&gt;765.29&lt;/td&gt;&lt;td&gt;813.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净减持&lt;/td&gt;&lt;td&gt;7.76&lt;/td&gt;&lt;td&gt;11.02&lt;/td&gt;&lt;td&gt;683.27&lt;/td&gt;&lt;td&gt;724.40&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+# 2.5. ETF 资金行为观察：被动资金大规模流出，成交占比环比下降，集中度略微回升
+图22：股票 ETF 本期环比减少 403.66 亿份  
+![](images/cf841128bbdd9c0253fec970930c34e9e3b7a3ecb99d0ea50ec71132b456f9dc.jpg)  
+数据来源：Wind，国泰海通证券研究
+图23：股票 ETF 资产净值环比减少 3055.51 亿元  
+![](images/972dfb8155856373f2b8c9c595b584eb2b1016af8a3f76fe445fd663ae6bd778.jpg)  
+数据来源：Wind，国泰海通证券研究
+图24：本期成交占比为 $9 . 1 \%$ ，集中度略微回升  
+![](images/f4753974c77ec74d559cdfa4cfbf72bdba260f73fedc829d35081c33280d5357.jpg)  
+数据来源：Wind，国泰海通证券研究
+图25：股票 ETF本期资金净流出 3193.7亿元  
+![](images/871ce92e643f2a93bf814d574ba88ee6dca49da6c4e2d199b58355ebe3fcddd0.jpg)  
+数据来源：Wind，国泰海通证券研究
+图26：股票 ETF溢折率：中位数为 $\mathbf { - 0 . 0 1 \% }$ ，环比下降  
+![](images/9403461ed9432e814c78d01adfc759d8b81679c3857ee52dce0f12707fc255be.jpg)  
+数据来源：Wind，国泰海通证券研究
+表14：股票 ETF 周度资金净流入跟踪：本期有色金属 ETF、化工 ETF 等净流入居前  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;排序&lt;/td&gt;&lt;td&gt;26/01/30&lt;/td&gt;&lt;td&gt;26/01/23&lt;/td&gt;&lt;td&gt;26/01/16&lt;/td&gt;&lt;td&gt;26/01/09&lt;/td&gt;&lt;td&gt;25/12/31&lt;/td&gt;&lt;td&gt;25/12/26&lt;/td&gt;&lt;td&gt;25/12/19&lt;/td&gt;&lt;td&gt;25/12/12&lt;/td&gt;&lt;td&gt;25/12/05&lt;/td&gt;&lt;td&gt;25/11/28&lt;/td&gt;&lt;td&gt;25/11/21&lt;/td&gt;&lt;td&gt;25/11/14&lt;/td&gt;&lt;td&gt;25/11/07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="14"&gt;最新一期流入(或流出最少)前十股票ETF(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;64.8&lt;/td&gt;&lt;td&gt;78.2&lt;/td&gt;&lt;td&gt;75.3&lt;/td&gt;&lt;td&gt;37.3&lt;/td&gt;&lt;td&gt;32.8&lt;/td&gt;&lt;td&gt;107.2&lt;/td&gt;&lt;td&gt;100.9&lt;/td&gt;&lt;td&gt;40.4&lt;/td&gt;&lt;td&gt;22.1&lt;/td&gt;&lt;td&gt;23.4&lt;/td&gt;&lt;td&gt;58.1&lt;/td&gt;&lt;td&gt;25.1&lt;/td&gt;&lt;td&gt;29.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;56.1&lt;/td&gt;&lt;td&gt;57.0&lt;/td&gt;&lt;td&gt;63.7&lt;/td&gt;&lt;td&gt;36.5&lt;/td&gt;&lt;td&gt;24.3&lt;/td&gt;&lt;td&gt;105.5&lt;/td&gt;&lt;td&gt;86.7&lt;/td&gt;&lt;td&gt;37.7&lt;/td&gt;&lt;td&gt;17.1&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;47.3&lt;/td&gt;&lt;td&gt;20.4&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;41.2&lt;/td&gt;&lt;td&gt;25.4&lt;/td&gt;&lt;td&gt;61.7&lt;/td&gt;&lt;td&gt;35.3&lt;/td&gt;&lt;td&gt;17.1&lt;/td&gt;&lt;td&gt;101.9&lt;/td&gt;&lt;td&gt;42.7&lt;/td&gt;&lt;td&gt;20.6&lt;/td&gt;&lt;td&gt;13.0&lt;/td&gt;&lt;td&gt;6.3&lt;/td&gt;&lt;td&gt;45.1&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;10.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;34.3&lt;/td&gt;&lt;td&gt;25.2&lt;/td&gt;&lt;td&gt;56.7&lt;/td&gt;&lt;td&gt;33.1&lt;/td&gt;&lt;td&gt;11.1&lt;/td&gt;&lt;td&gt;75.3&lt;/td&gt;&lt;td&gt;31.6&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;12.4&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;35.4&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;9.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;27.8&lt;/td&gt;&lt;td&gt;24.0&lt;/td&gt;&lt;td&gt;38.8&lt;/td&gt;&lt;td&gt;27.9&lt;/td&gt;&lt;td&gt;10.9&lt;/td&gt;&lt;td&gt;61.6&lt;/td&gt;&lt;td&gt;30.8&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;11.5&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;27.2&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;22.1&lt;/td&gt;&lt;td&gt;21.7&lt;/td&gt;&lt;td&gt;34.2&lt;/td&gt;&lt;td&gt;26.0&lt;/td&gt;&lt;td&gt;10.5&lt;/td&gt;&lt;td&gt;41.9&lt;/td&gt;&lt;td&gt;26.9&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;10.3&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;24.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;19.3&lt;/td&gt;&lt;td&gt;20.8&lt;/td&gt;&lt;td&gt;31.7&lt;/td&gt;&lt;td&gt;23.1&lt;/td&gt;&lt;td&gt;9.0&lt;/td&gt;&lt;td&gt;32.9&lt;/td&gt;&lt;td&gt;26.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;19.2&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;17.4&lt;/td&gt;&lt;td&gt;20.7&lt;/td&gt;&lt;td&gt;25.2&lt;/td&gt;&lt;td&gt;22.7&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;19.7&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;14.0&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;15.7&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;22.9&lt;/td&gt;&lt;td&gt;22.0&lt;/td&gt;&lt;td&gt;8.1&lt;/td&gt;&lt;td&gt;17.1&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;13.5&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;15.4&lt;/td&gt;&lt;td&gt;14.6&lt;/td&gt;&lt;td&gt;21.1&lt;/td&gt;&lt;td&gt;20.4&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;15.5&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;10.6&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;7.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;有色</t>
+  </si>
+  <si>
+    <t>2026 年 2 月 2 日
+美股宏观策略
+# 沃什冲击
+# 沃什的杠铃策略与跨资产去杠杆风暴
+# 报告内容
+市场异动引发流动性连锁效应。1月 30日（周五）全球市场遭遇「黑色星期五」，呈现出极其罕见的大类资产全杀局面。这场暴跌并非源于基本面崩溃，而是特朗普提名凯文沃什（Kevin Warsh）为美联储主席后，市场对未来货币政策范式转变的剧烈重定价。尽管市场预期沃什上任将带来降息，但风险资产与避险资产却同步暴跌。这一反直觉现象的本质，是一场结构性的杠杆出清。其实在早在周四，加密货币和黄金市场已经有所异动，市场在等一个借口来做调整。
+资产去杠杆的影响。CME 在一周内两度大幅上调白银期货保证金，自 2026 年 2月 2 日起，白银基本保证金比例从 $1 1 \%$ 提高至 $1 5 \%$ ，高风险账户则调升至$1 6 . 5 \%$ 。CME 同时将黄金保证金从 $6 \%$ 上调至 $8 \%$ ，进一步加剧了杠杆头寸的压力。而比特币在 2026 年 1 月底同样经历剧烈修正，数据显示，加密市场 1 月 30日爆发了约 17 亿美元的强制平仓，其中 $9 3 \%$ 来自多头头寸。这是一场典型的多头挤压。值得注意的是，随着比特币跌破 MicroStrategy（MSTR）约 76,000 美元的平均持仓成本线，市场悲观情绪急剧升温，迫使高杠杆交易员为补足保证金。许多同时持有加密货币与金银期货的机构投资者面临严重的保证金追缴，他们只能抛售流动性较佳的获利资产如黄金与白银，这就促成了流动性的连锁反应。此外，美国政府于 1月 31 日进入「部分停摆」状态，虽然主要影响国土安全部等机构，未波及全政府，但也为市场情绪增添了额外的不确定性阴影。
+沃什的杠铃策略。这次恐慌的核心，在于市场意识到沃什将打破过去十年「降息=放水=资产上涨」的惯性逻辑。作为一位货币保守主义者及前美联储理事，沃什倾向于实施一种极具颠覆性的杠铃策略：一方面主张降低利率。沃什认为高利率压抑了实体经济，且 AI带来的生产力提升可自然压制通胀，因此应通过降息降低企业融资成本，推动制造业复苏；另一方面却主张激进缩表（QT）。他视庞大的资产负债表为资产泡沫的根源，主张在降息的同时，通过抛售债券从金融体系中大幅抽走流动性。这意味资金价格将变便宜，但资金总量将变少。这对依赖低成本融资的实体经济是利好，但对依赖流动性泛滥推升估值的金融资产则是打击。尽管期货市场目前仍预期 2026年仅降息两次，但在沃什的框架下，降息不再是资产价格的助推器，而是实体经济的强心针。
+美联储卖权的失效。沃什的提名可能宣告了「美联储卖权」（Fed Put）的潜在失效，过去美股的上涨主要由流动性驱动的估值扩张主导。若沃什执行激进缩表，市场将回归基本面，无盈利支撑的高估值科技股与加密资产将面临剧烈的重新定价。私人信贷市场存在大量依靠「借新还旧」维持生存的中小企业，一旦信贷市场流动性枯竭，隐藏的坏帐将浮出水面，可能引发系统性风险。
+回归基本面。短期交易而言，周五的暴跌已清洗了大量投机性筹码，技术指标严重超卖。激进型投资者可博弈短期的空头回补（Short Covering）反弹，但需严格执行止损。长期配置上，要考虑减仓依赖流动性续命的概念股、高估值成长股及非生息资产，而转向关注能受益于「低利率+实体扩张」的板块，如工业、先进制造及基础设施建设。另外，我们认为各国去美元化的逻辑依然存在，长线而言黄金仍是较佳的配置工具。在沃什政策路径与政治博弈（参议院确认及改革力度）明朗前，保留现金是应对不确定性的最佳选择。沃什冲击标志着市场正从「流动性驱动」向「盈利驱动」转换。
+风险提示：流动性下行与估值重构、跨资产杠杆出清的传导、政策博弈与财政停摆的不确定性。
+# 宏观策略分析
+证券研究报告
+美国宏观报告
+关注股份
+SPDR 黄金 ETF（GLD.US）
+股价表现   
+![](images/b20174c54e9bc001a2d47446a0b14cf2d7c7f0c5c0f7e21477d26a9743f4c7e5.jpg)  
+数据来源：彭博、国投证券国际整理
+黄焯伟 宏观分析师
+stevewong@sdicsi.com.hk
+图 1：黄金未平仓合约总数  
+![](images/9d20fb4e6a8505b7d4ee592fbe39bce3ee3f678dd2e34ab25a2dfd61b4d637b0.jpg)  
+资料来源：CME、国投证券国际整理
+图 2：白银未平仓合约总数  
+![](images/fcb92f1e44b6838de2aea7bb300cf89a72f1ca5cdbee1c84ac1ce362b42f8538.jpg)  
+资料来源：CME、国投证券国际整理
+图 3：加密貨幣爆倉歷史  
+![](images/efab105032d81b11878326e64b36e6824d170a2a8cadff0165b1bbf6bd2bd85a.jpg)  
+资料来源：Coinglass
+# 客户服务热线
+香港：2213 1888
+国内：40086 95517
+# 免责声明
+此报告只提供给阁下作参考用途，并非作为或被视为出售或购买或认购证券的邀请或向任何特定人士作出邀请。此报告内所提到的证券可能在某些地区不能出售。此报告所载的资料由国投证券(香港)有限公司（国投证券国际）编写。此报告所载资料的来源皆被国投证券国际认为可靠。此报告所载的见解，分析，预测，推断和期望都是以这些可靠数据为基础，只是代表观点的表达。国投证券国际，其母公司和/或附属公司或任何个人不能担保其准确性或完整性。此报告所载的资料、意见及推测反映国投证券国际于最初发此报告日期当日的判断，可随时更改而毋须另行通知。国投证券国际，其母公司或任何其附属公司不会对因使用此报告内之材料而引致任何人士的直接或间接或相关之损失负上任何责任。
+此报告内所提到的任何投资都可能涉及相当大的风险，若干投资可能不易变卖，而且也可能不适合所有的投资者。此报告中所提到的投资价值或从中获得的收入可能会受汇率影响而波动。过去的表现不能代表未来的业绩。此报告没有把任何投资者的投资目标，财务状况或特殊需求考虑进去。投资者不应仅依靠此报告，而应按照自己的判断作出投资决定。投资者依据此报告的建议而作出任何投资行动前，应咨询专业意见。
+国投证券国际及其高级职员、董事、员工，可能不时地，在相关的法律、规则或规定的许可下 (1)持有或买卖此报告中所提到的公司的证券，(2)进行与此报告内容相异的仓盘买卖，(3)与此报告所提到的任何公司存在顾问，投资银行，或其他金融服务业务关系，(4)又或可能已经向此报告所提到的公司提供了大量的建议或投资服务。投资银行或资产管理可能作出与此报告相反投资决定或持有与此报告不同或相反意见。 此报告的意见亦可能与销售人员、交易员或其他集团成员专业人员的意见不同或相反。国投证券国际，其母公司和/或附属公司的一位或多位董事，高级职员和/或员工可能是此报告提到的证券发行人的董事或高级人员。(5)可能涉及此报告所提到的公司的证券进行自营或庄家活动。
+此报告对于收件人来说是完全机密的文件。此报告的全部或任何部分均严禁以任何方式再分发予任何人士，尤其（但不限于）此报告及其任何副本均不可被带往或传送至日本、加拿大或美国，或直接或间接分发至美国或任何美国人士（根据 1933年美国证券法 S规则的解释），国投证券国际也没有任何意图派发此报告给那些居住在法律或政策不允许派发或发布此报告的地方的人。
+收件人应注意国投证券国际可能会与本报告所提及的股票发行人进行业务往来或不时自行及／或代表其客户持有该等股票的权益。因此，投资者应注意国投证券国际可能存在影响本报告客观性的利益冲突，而国投证券国际将不会因此而负上任何责任。
+此报告受到版权和资料全面保护。除非获得国投证券国际的授权，任何人不得以任何目的复制，派发或出版此报告。国投证券国际保留一切权利。
+# 规范性披露
+本研究报告的分析员或其有联系者（参照证监会持牌人守则中的定义）并未担任此报告提到的上市公司的董事或高级职员。  
+本研究报告的分析员或其有联系者（参照证监会持牌人守则中的定义）并未拥有此报告提到的上市公司有关的任何财务权益。  
+⚫ 国投证券国际拥有此报告提到的上市公司的财务权益少于 1%或完全不拥有该上市公司的财务权益。
+# 公司评级体系
+收益评级：
+买入 — 预期未来 6 个月的投资收益率为 $1 5 \%$ 以上；
+增持 — 预期未来6 个月的投资收益率为 $5 \%$ 至 $1 5 \%$ ；
+中性 — 预期未来6 个月的投资收益率为 $- 5 \%$ 至 $5 \%$ ；
+减持 — 预期未来6 个月的投资收益率为 $- 5 \%$ 至- $. 1 5 \%$ ；
+卖出 — 预期未来6 个月的投资收益率为 - $. 1 5 \%$ 以下。
+国投证券（香港）有限公司
+地址：香港中环交易广场第一座三十九楼
+电话：+852-2213 1000
+传真：+852-2213 1010</t>
+  </si>
+  <si>
+    <t>![](images/8ee78d40dff5966660464b86379b32099db90bad1c5c64bb1d1317b370608863.jpg)
+# 国都港股操作导航
+![](images/657af13a9dbfb555fefce0e2810500877fa7d45bd0f7dbfcef672e33f5cd2a6d.jpg)
+2026 年 2 月 3 日星期二
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;海外市场重要指数&lt;/td&gt;&lt;td&gt;收市&lt;/td&gt;&lt;td&gt;幅度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;道琼斯工业指数&lt;/td&gt;&lt;td&gt;49407.66&lt;/td&gt;&lt;td&gt;1.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标普500指数&lt;/td&gt;&lt;td&gt;6976.44&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克综合指数&lt;/td&gt;&lt;td&gt;23592.11&lt;/td&gt;&lt;td&gt;0.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;英国富时100指数&lt;/td&gt;&lt;td&gt;10341.56&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX指数&lt;/td&gt;&lt;td&gt;24797.52&lt;/td&gt;&lt;td&gt;1.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225指数&lt;/td&gt;&lt;td&gt;52655.18&lt;/td&gt;&lt;td&gt;-1.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;台湾加权指数&lt;/td&gt;&lt;td&gt;31624.03&lt;/td&gt;&lt;td&gt;-1.37&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+内地股市  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;4015.75&lt;/td&gt;&lt;td&gt;-2.48&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;13824.35&lt;/td&gt;&lt;td&gt;-2.69&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+香港股市  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;26775.57&lt;/td&gt;&lt;td&gt;-2.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国企指数&lt;/td&gt;&lt;td&gt;9080.19&lt;/td&gt;&lt;td&gt;-2.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;红筹指数&lt;/td&gt;&lt;td&gt;4245.12&lt;/td&gt;&lt;td&gt;-2.82&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技指数&lt;/td&gt;&lt;td&gt;5526.31&lt;/td&gt;&lt;td&gt;-3.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;AH股溢价指数&lt;/td&gt;&lt;td&gt;119.06&lt;/td&gt;&lt;td&gt;0.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生期货(2月)&lt;/td&gt;&lt;td&gt;26953&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生期货(3月)&lt;/td&gt;&lt;td&gt;26928&lt;/td&gt;&lt;td&gt;0.61&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+国都香港研究部
+电话：852-34180288
+网址：www.guodu.com.hk
+# 每日投资策略
+# 黑天鹅开局 港股 2 月不乐观
+美国联储局新主席的人选冲击投资市场，金银价走弱，A 股 2 月开局亦向下，亚太区股市普遍低走，港股延续上周五的跌势，2 月份开局由一路走低，跌幅曾扩大至近 900 点，收盘跌 611 点，失守两万七关口，累挫1192 点或 $4 . 2 6 \%$ 。遭遇黑天鹅开局，港股 2月不乐观，后市料2万 6见支持。
+恒指昨日低开289 点后，淡友随即发难，初段跌幅已扩大至逾 400 点，其虽一度收窄至跌 287 点，高见 27100，但未能站稳，上半场已跌逾 600 点，一口气跌穿两万七关、10天线(现处 27030)及20天线(现处 26832)。午市跌幅一度扩大至最多879 点，低见 26507 后喘定，收市最终跌611 点或$2 . 2 3 \%$ ，报 26775 点。科指重创，一度挫逾 $4 \%$ ，收跌 191 点或 $3 , 3 6 \%$ ，报5526 点。大市全日成交 3478.86亿元。
+75 只蓝筹股下跌。科网股拖累大市，阿里巴巴(09988)跌 $3 . 5 \%$ ，报 163.3 元；美团(03690)跌 $2 . 4 \%$ ，报 94.85 元；小米(01810)跌 $1 . 2 \%$ ，报 35.06 元；网易(09999)跌 $3 . 5 \%$ ，报197.9 元；腾讯(00700)失守 600 元关，跌 $1 . 2 \%$ ，报 598.5元。
+# 宏观&amp;行业动态
+# 1 月制造业 PMI 升至 50.3 创 3 个月高
+中国制造业景气度继续改善。RatingDog/标普全球联合公布，1月经季节性调整的采购经理指数(PMI)录得 50.3，高于市场预期的50，且连续两月超过 50荣枯分界线，并创下 3个月来最快增速。去年 12月为50.1。
+得益于包括海外订单在内的新订单增长，产出增速轻微加快。为应对业务增长和清理积压订单，企业增加用工，采购量也有增长。但 1月份企业信心度降至 9个月低点，部分原因在于对成本的顾虑。最新调查明显可见，企业费用创下4 个月来最强劲增幅，并因此导致产品销售价格在2024年11 月后首次出现上扬。
+企业普遍表示，客户兴趣和基数上升，带动最近新订单增加。此外，年初新出口订单恢复增长，对新订单增长也构成支撑。据反映，东南亚客户的需求增长尤其明显。
+RatingDog 创始人姚煜表示，整体来看，1月制造业扩张态势得以延续，内外需边际回暖，成本向价格的传导初现，就业与采购活动小幅 改善。然而商业信心下滑，制造业整体增长动能仍属微弱，复苏基础尚不牢固。
+姚煜称，未来数月，若成本压力持续而需求复苏力度有限，企业盈利空间仍将承压，制造业可能延续低增速扩张格局。政策层面需关注稳需求与降成本之间的平衡，财政发力支撑「两重两新」政策的延续，或在一定程度上巩固制造业的修复势头。
+# 金价续回吐 失守4600 美元
+贵金属市场上周末迎来「黑色星期五」，金价迭创新高的升势逆转，创下 40 年来单日最大跌幅后，周一持续受压，白银价格亦从历史高位大幅回调。周一现货金价一度失守每盎斯 4600 美元，最新报 4680.76 美元，下跌$4 . 4 \%$ 。银价亦跌 $2 . 2 \%$ ，至每盎斯 83.3 美元。铂金和钯金价格也走低。有分析认为，弱势还没结束，投资者对承担更多风险的抗拒将限制市场流动性。
+去年贵金属价格飙升至历史新高，但随着地缘政治动荡、货币贬值，以及对联储局独立性的担忧再起，投资者蜂拥买入黄金白银，导致今年 1月贵金属涨势骤然加速。中国投机者的买盘浪潮也为涨势增添泡沫。
+上周五金价暴跌的导火线是联储局前理事沃什获提名出任联储局主席，美元反弹走强。花旗提到，若沃什提名得到确认，将进一步巩固联储局保持独立性的判断，这正是中期利空金价的因素。不过，中信期货分析师朱善颖认为，金价下挫本质是市场过热后的拥挤形成踩踏。凯投宏观经济师 Hamad Hussain 则称，大量散户涌入贵金属ETF，大幅推高价格走势，尤其是黄金和白银。
+# 上市公司要闻
+# 特步发 5 亿元可换股债
+特步国际(01368)建议发行 5亿元2029年到期零票息可换股债券，所得款项净额约4.92 亿元，为未偿还 2025年可换股债券进行再融资。2029年债券的初步换股价为每股6.37 元，较前收市价 5.14 元溢价 $2 3 . 9 3 \%$ ；若悉数转换，债券将可转换为最多7849.29万股，相当于扩大后股本约 $2 . 7 2 \%$ 。特步去年 2 月发行的2025 年可换股债券，本金额为5 亿元，年利率1.5 厘，于 2026 年到期。
+# 西部水泥拟发 3 亿美元优先票据
+西部水泥(02233)拟发行于 2029 年到期 3 亿美元 10.5 厘优先票据，所得款项净额连同手头现金对公司现有债务，包括根据同步提交要约或透过赎回对 2026 年到期 4.95 厘优先票据进行回购、赎回或偿还及用作营运资金(包括流动负债)。
+2026 年票据于 2021 年 7 月 8 日发行，本金总额为 2 亿美元，至今仍未偿还。西部水泥向获接纳购买 2026 年票据的合资格持有人支付的购买价将相等于尚未偿还票据每 1000 美元本金额1012.38美元。
+# 瑞浦兰钧料去年赚最多 7.3 亿人民币
+瑞浦兰钧(00666)发盈喜，预期于截至 2025 年 12 月底止年度将扭亏为盈，录得净利润介乎约 6.3 亿元至约 7.3亿元(人民币．下同)，而于 2024 年度净亏损约 13.53 亿元。
+该集团称，这主要因动力及储能电池产品出货量持续增加，带动收入持续增长；及产能利用率提升与降本增效措施带动毛利显著提升。
+国都证券(香港)有限公司(“国都香港”，中央编号：ASK641)，获香港证券及期货事务监察委员会发牌，可进行《证券及期货条例（香港法例第571章）》所界定的第1 类（证券交易）、第 4类（就证券提供意见）受规管活动的持牌法团。
+# 分析师披露
+本报告准确表述了分析员的个人观点。每位分析员声明，不论个人或他/她的有联系者都没有担任该分析员在本报告内评论的上市法团的高级人员，也不拥有与该上市法团有关的任何财务权益。本报告涉及的上市法团或其他第三方都没有或同意向分析员或国都证券(香港)有限公司(“国都香港”)提供与本报告有关的任何补偿或其他利益。
+国都香港的成员个别及共同地确认：(i)他们不拥有相等于或高于上市法团市场资本值的 1%的财务权益；(ii)他们不涉及有关上市法团证券的做市活动；(iii)他们的雇员或其有联系的个人都没有担任有关上市法团的高级人员；及(iv)他们与有关上市法团之间在过去 12 个月内不存在投资银行业务关系。
+# 国都香港投资评级标准
+时间周期报告发布之日起12个月内基准市场指数香港恒生指数公司评级行业评级
+买入相对基准市场指数涨幅 $2 0 \%$ 以上
+强于大市行业指数超越基准市场指数增持相对基准市场指数涨幅介于 $1 0 \%$ 至 $2 0 \%$
+同步大市行业指数持平基准市场指数持有相对基准市场指数涨幅介于 $- 1 0 \%$ 至 $1 0 \%$ 之间
+弱于大市行业指数弱于基准市场指数卖出相对基准市场指数跌幅 $2 0 \%$ 以上
+# 免责声明
+本报告及其所载的任何信息、材料或内容只提供给阁下作参考之用，不能成为或被视为出售或购买或认购证券或其他金融票据的邀请，并未考虑到任何特别的投资目的、财务状况、特殊需要或个别人士。本报告中提及的投资产品未必适合所有投资者。国都香港不一定采取任何行动，确保本报告涉及的证券适合个别投资者。尽管本报告所载资料的来源及观点都是国都香港从相信可靠的来源取得或达到，但国都香港不能保证它们的准确性或完整性。除非法律或规则规定必须承担的责任外，国都香港不对使用本报告的材料而引致的损失负任何责任。国都证券(香港)有限公司版权所有。保留一切权利。如中英文版本有异，以中文版本为准。</t>
+  </si>
+  <si>
+    <t># 写在 2026 丙午赤马年之前— 贵金属的灰犀牛
+# (一)从家国信用到金银比
+证券分析师：张冬冬
+E-MAIL：zhangdd@tpyzq.com
+分析师登记编号：S1190522040001
+证券分析师：徐梓铭
+E-MAIL：xuzm@tpyzq.com
+分析师登记编号：S1190525050001
+从美国实际利率与黄金价格脱锚之后，黄金上涨的理由更多的来自于美元信用、地缘政治、央行购金等等交易者决定的边际定价，随着伦敦金现突破 4000 美元/盎司之后，白银在低库存的基本面、金银比的叙事、更具工业属性以及逼空交易等催化下在两个月内实现了价格翻倍的历史性上涨。
+# (二)沃什只是 Trigger
+双“凯文”的美联储候选人对决并不是新鲜事，这次美国总统特朗普提名沃什却成为了市场交易美联储独立性缺失以及鹰派形象的契机。事实是在贵金属暴跌之前，无论从上海白银的溢价、金银比的偏离度和白银逼空交易临近结束等，还是白银期权隐含波动率、RSI 的超买情况以及历史高位的白银 ETF 成交量来说，下跌调整只是时间的问题。
+# (三)不踏空和降低回撤
+有色行业的配置中，一直在强调的就是不押注单一结构，虽然弹性和绝对收益会降低，但在面对市场调整的同时，能够保证参与了行情的趋势以及减少浮盈损失或少亏钱。以股票为例，业务结构既有铜又有金的就不是单一结构，反之则是，以此类推。
+有色是有业绩的，但中游制造加工以及下游需求的缺失使得基本面是有瑕疵的。铝和铜的基本面还是比较好的，做多铝的理由有氧化铝、电解铝、产能甚至铝代铜等等、铜在过去 AI 算力的叙事下需要更多的制造业需求来衔接上逻辑闭环。
+以这两个品种为基础，结合非单一结构的有色配置，就是为了不踏空和降低回撤。2026 年伊始 5 成有色、化工，3 成科技的仓位，也会随着英伟达去年 11 月中下旬财报利多不涨的弱势调整结构结束（量价突破）从前者转移部分仓位至后者。
+# 风险提示：
+1.历史数据仅代表过去；  
+2.流动性风险；  
+3.特朗普发推。
+# 目录
+# 一、 贵金属的灰犀牛 . 4
+(一) 从家国信用到金银比   
+(二) 沃什只是 Trigger .. 4  
+(三) 不踏空和降低回撤 .
+风险提示 .. 4
+# 图表目录
+图表 1： 金银比下的 80/50法则 5  
+图表 2： 白银 ETF 成交量历史高位. 5  
+图表 3： 白银 3 个月期权隐含波动率飙升 6  
+图表 4： 白银逼空交易临近尾声 6  
+图表 5： 沪银溢价历史高点.
+# 贵金属的灰犀牛
+# (一)从家国信用到金银比
+从美国实际利率与黄金价格脱锚之后，黄金上涨的理由更多的来自于美元信用、地缘政治、央行购金等等交易者决定的边际定价，随着伦敦金现突破 4000 美元/盎司之后，白银在低库存的基本面、金银比的叙事、更具工业属性以及逼空交易等催化下在两个月内实现了价格翻倍的历史性上涨。
+# (二)沃什只是 Trigger
+双“凯文”的美联储候选人对决并不是新鲜事，这次美国总统特朗普提名沃什却成为了市场交易美联储独立性缺失以及鹰派形象的契机。事实是在贵金属暴跌之前，无论从上海白银的溢价、金银比的偏离度和白银逼空交易临近结束等，还是白银期权隐含波动率、RSI 的超买情况以及历史高位的白银 ETF成交量来说，下跌调整只是时间的问题。
+# (三)不踏空和降低回撤
+有色行业的配置中，一直在强调的就是不押注单一结构，虽然弹性和绝对收益会降低，但在面对市场调整的同时，能够保证参与了行情的趋势以及减少浮盈损失或少亏钱。以股票为例，业务结构既有铜又有金的就不是单一结构，反之则是，以此类推。
+有色是有业绩的，但中游制造加工以及下游需求的缺失使得基本面是有瑕疵的。铝和铜的基本面还是比较好的，做多铝的理由有氧化铝、电解铝、产能甚至铝代铜等等、铜在过去 AI算力的叙事下需要更多的制造业需求来衔接上逻辑闭环。
+以这两个品种为基础，结合非单一结构的有色配置，就是为了不踏空和降低回撤。2026年伊始5成有色、化工，3成科技的仓位，也会随着英伟达去年11月中下旬财报利多不涨的弱势调整结构结束（量价突破）从前者转移部分仓位至后者。
+# 风险提示
+1.历史数据仅代表过去；2.流动性风险；3.特朗普发推。
+图表1：金银比下的80/50法则  
+![](images/87e2626ba133fbf4de6c509763d67bf6de3b8ca2c523b42320d06a1219281f6b.jpg)  
+资料来源：SilverBullion，太平洋证券整理
+图表2：白银ETF成交量历史高位  
+![](images/30da7cdaa16416355e5b70723fda2e069f6b4b085fc702b75c4dfb0417711a67.jpg)  
+资料来源：iFind，太平洋证券整理
+图表3：白银3个月期权隐含波动率飙升  
+![](images/796b470a7d5c926109dd03d298a6d797b0efa5d3a9f33e7c31193fa7173f4147.jpg)  
+资料来源：Bloomberg，太平洋证券整理
+图表4：白银逼空交易临近尾声  
+![](images/23b84db469e654f1daf40d2b5d866e5f0bd329378f0397baa1238ff5abb6a310.jpg)  
+资料来源：iFind，太平洋证券整理
+图表5：沪银溢价历史高点  
+![](images/982837febca4b8a5bb308363ea094ba3d70becf4f6ce070469dfbaef0a003cf5.jpg)  
+资料来源：iFind，太平洋证券整理
+# 投资评级说明
+# 1、行业评级
+看好：预计未来 6个月内，行业整体回报高于沪深 300 指数 $5 \%$ 以上；
+中性：预计未来 6个月内，行业整体回报介于沪深 300 指数 $- 5 \%$ 与 $5 \%$ 之间；
+看淡：预计未来 6个月内，行业整体回报低于沪深 300 指数 $5 \%$ 以下。
+# 2、公司评级
+买入：预计未来 6个月内，个股相对沪深 300指数涨幅在 $1 5 \%$ 以上；
+增持：预计未来 6个月内，个股相对沪深 300指数涨幅介于 $5 \%$ 与 $1 5 \%$ 之间；
+持有：预计未来 6个月内，个股相对沪深 300指数涨幅介于 $- 5 \%$ 与 $5 \%$ 之间；
+减持：预计未来 6个月内，个股相对沪深 300指数涨幅介于 $- 5 \%$ 与 $- 1 5 \%$ 之间；
+卖出：预计未来 6个月内，个股相对沪深 300指数涨幅低于 $- 1 5 \%$ 以下。
+# 太平洋证券股份有限公司
+云南省昆明市盘龙区北京路 926 号同德广场写字楼31 楼
+![](images/5ee8b3309bd9975d2f2cae73f63315b1c1efedfebc5fbe675493df837d060242.jpg)
+![](images/5f7b7b4471d2894412d83b029cff32eeae1c3c7961a31318b96a16589c74286d.jpg)
+# 研究院
+中国北京 100044
+北京市西城区北展北街九号
+华远·企业号D座
+投诉电话： 95397
+投诉邮箱： kefu@tpyzq.com
+# 免责声明
+太平洋证券股份有限公司（以下简称“我公司”或“太平洋证券”）具备中国证券监督管理委员会核准的证券投资咨询业务资格。
+本报告仅向与太平洋证券签署服务协议的签约客户发布，为太平洋证券签约客户的专属研究产品，若您并非太平洋证券签约客户，请取消接收、订阅或使用本报告中的任何信息；太平洋证券不会因接收人收到、阅读或关注媒体推送本报告中的内容而视其为太平洋证券的客户。在任何情况下，本报告中的信息或所表述的意见并不构成对任何机构和个人的投资建议，投资者应自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告信息均来源于公开资料，我公司对这些信息的准确性和完整性不作任何保证。负责准备本报告以及撰写本报告的所有研究分析师或工作人员在此保证，本研究报告中关于任何发行商或证券所发表的观点均如实反映研究人员的个人观点。报告中的内容和意见仅供参考，并不构成对所述证券买卖的出价或询价。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。我公司或关联机构可能会持有报告中所提到的公司所发行的证券头寸并进行交易，还可能为这些公司提
+面许可任何机
+构和个人不得以任何形式翻版、复制、刊登。任何人使用本报告，视为同意以上声明。</t>
+  </si>
+  <si>
+    <t>2026 年 02 月 02 日
+# 中小盘研究团队
+# SpaceX 拟部署百万颗卫星系统，重视运力和太空算力投资机会
+中小盘策略专题
+周佳（分析师）
+zhoujia@kysec.cn
+证书编号：S0790523070004
+张越（分析师）
+zhangyue1@kysec.cn
+证书编号：S0790524090003
+#  SpaceX 布局百万卫星星座，旨在全球范围提供 AI算力
+美国联邦通信委员会（FCC）的一份新文件显示，SpaceX 正在申请发射并运营一个由至多100万颗卫星组成的星座，这些卫星具备前所未有的计算能力（轨道数据中心），以支持先进的人工智能。该公司在文件中表示：“为了提供支持全球数十亿用户的大规模AI推理及数据中心应用所需的计算能力，SpaceX拟部署最多100万颗卫星系统，这些卫星将在宽度高达50公里的狭窄轨道壳层内运行。”这些卫星拟部署在高度 500 公里至 2000 公里的轨道上，采用太阳同步轨道倾角约 30 度，利用太阳能供电，并通过光学链路（激光）与现有星链网络连接。该计划的规模远远超过了现有的“星链”卫星网络。据悉目前“星链”卫星网络在地球轨道上的卫星数量已超过9600颗。
+#  从星链到星舰，SpaceX已经完成了太空商业闭环
+自2019年以来SpaceX 已累计发射约 9500颗星链卫星，全球用户数超过900万，覆盖全球超过 $1 5 0 +$ 个国家与地区。星链已成为全球最大的卫星互联网运营网络，其付费服务为 SpaceX 提供了持续现金流。2025 年 SpaceX 通过猎鹰九号发射了3190 颗卫星，占全球有效载荷发射量约 $7 0 \%$ ，对于马斯克来说发射不再是限制因素，而是可调度资源。星舰 v3 预计 2026年进入商业化运营阶段，单次可携带超过 100吨级载荷，是猎鹰九号的 6倍。
+#  太空数据中心在能源供应方面具备显著优势
+轨道数据中心是满足 AI 计算能力加速需求的最高效方式。全球数据中心的电力需求预计将在2035年前翻倍，其中AI的增长贡献最大。在地球上建造足够的发电厂和能源基础设施来支撑这一需求，将极具挑战。将卫星部署于太空可持续获取近乎无限的太阳能，从而实现 AI 的可扩展、可靠且可持续的增长。此外，与依赖水冷却的高能耗地面数据中心不同，轨道数据中心通过辐射在真空中被动散热，无需地面冷却系统，避免了水资源消耗和基础设施延迟，通过空间辐射冷却技术探索新的散热途径。
+#  受益标的
+火箭运力。包括：广联航空、西部材料、航天动力；SpaceX产业链。连城数控、帝科股份、均达股份等。
+ 风险提示：发射结果不及预期；政策支持不及预期；宏观经济波动的风险。
+# 特别声明
+《证券期货投资者适当性管理办法》、《证券经营机构投资者适当性管理实施指引（试行）》已于2017年7月1日起正式实施。根据上述规定，开源证券评定此研报的风险等级为R3（中风险），因此通过公共平台推送的研报其适用的投资者类别仅限定为专业投资者及风险承受能力为C3、C4、C5的普通投资者。若您并非专业投资者及风险承受能力为C3、C4、C5的普通投资者，请取消阅读，请勿收藏、接收或使用本研报中的任何信息。
+因此受限于访问权限的设置，若给您造成不便，烦请见谅！感谢您给予的理解与配合。
+# 分析师承诺
+负责准备本报告以及撰写本报告的所有研究分析师或工作人员在此保证，本研究报告中关于任何发行商或证券所发表的观点均如实反映分析人员的个人观点。负责准备本报告的分析师获取报酬的评判因素包括研究的质量和准确性、客户的反馈、竞争性因素以及开源证券股份有限公司的整体收益。所有研究分析师或工作人员保证他们报酬的任何一部分不曾与，不与，也将不会与本报告中具体的推荐意见或观点有直接或间接的联系。
+股票投资评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;证券评级&lt;/td&gt;&lt;td&gt;买入(Buy)&lt;/td&gt;&lt;td&gt;预计相对强于市场表现20%以上;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持(outperform)&lt;/td&gt;&lt;td&gt;预计相对强于市场表现5%~20%;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性(Neutral)&lt;/td&gt;&lt;td&gt;预计相对市场表现在-5%~+5%之间波动;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持(underperform)&lt;/td&gt;&lt;td&gt;预计相对弱于市场表现5%以下。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业评级&lt;/td&gt;&lt;td&gt;看好(overweight)&lt;/td&gt;&lt;td&gt;预计行业超越整体市场表现;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性(Neutral)&lt;/td&gt;&lt;td&gt;预计行业与整体市场表现基本持平;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;看淡(underperform)&lt;/td&gt;&lt;td&gt;预计行业弱于整体市场表现。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="3"&gt;备注:评级标准为以报告日后的6~12个月内,证券相对于市场基准指数的涨跌幅表现,其中A股基准指数为沪
+深300指数、港股基准指数为恒生指数、新三板基准指数为三板成指(针对协议转让标的)或三板做市指数(针
+对做市转让标的)、美股基准指数为标普500或纳斯达克综合指数。我们在此提醒您,不同证券研究机构采用不同
+的评级术语及评级标准。我们采用的是相对评级体系,表示投资的相对比重建议;投资者买入或者卖出证券的决
+定取决于个人的实际情况,比如当前的持仓结构以及其他需要考虑的因素。投资者应阅读整篇报告,以获取比较
+完整的观点与信息,不应仅仅依靠投资评级来推断结论。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 分析、估值方法的局限性说明
+本报告所包含的分析基于各种假设，不同假设可能导致分析结果出现重大不同。本报告采用的各种估值方法及模型均有其局限性，估值结果不保证所涉及证券能够在该价格交易。
+# 法律声明
+开源证券股份有限公司是经中国证监会批准设立的证券经营机构，已具备证券投资咨询业务资格。
+本报告仅供开源证券股份有限公司（以下简称“本公司”）的机构或个人客户（以下简称“客户”）使用。本公司不会因接收人收到本报告而视其为客户。本报告是发送给开源证券客户的，属于商业秘密材料，只有开源证券客户才能参考或使用，如接收人并非开源证券客户，请及时退回并删除。
+本报告是基于本公司认为可靠的已公开信息，但本公司不保证该等信息的准确性或完整性。本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并非作为或被视为出售或购买证券或其他金融工具的邀请或向人做出邀请。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可能会波动。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。客户应当考虑到本公司可能存在可能影响本报告客观性的利益冲突，不应视本报告为做出投资决策的唯一因素。本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。本公司未确保本报告充分考虑到个别客户特殊的投资目标、财务状况或需要。本公司建议客户应考虑本报告的任何意见或建议是否符合其特定状况，以及（若有必要）咨询独立投资顾问。在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。若本报告的接收人非本公司的客户，应在基于本报告做出任何投资决定或就本报告要求任何解释前咨询独立投资顾问。投资者应自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告可能附带其它网站的地址或超级链接，对于可能涉及的开源证券网站以外的地址或超级链接，开源证券不对其内容负责。本报告提供这些地址或超级链接的目的纯粹是为了客户使用方便，链接网站的内容不构成本报告的任何部分，客户需自行承担浏览这些网站的费用或风险。
+开源证券在法律允许的情况下可参与、投资或持有本报告涉及的证券或进行证券交易，或向本报告涉及的公司提供或争取提供包括投资银行业务在内的服务或业务支持。开源证券可能与本报告涉及的公司之间存在业务关系，并无需事先或在获得业务关系后通知客户。
+本报告的版权归本公司所有。本公司对本报告保留一切权利。除非另有书面显示，否则本报告中的所有材料的版权均属本公司。未经本公司事先书面授权，本报告的任何部分均不得以任何方式制作任何形式的拷贝、复印件或复制品，或再次分发给任何其他人，或以任何侵犯本公司版权的其他方式使用。所有本报告中使用的商标、服务标记及标记均为本公司的商标、服务标记及标记。
+# 开源证券研究所
+上海
+地址：上海市浦东新区世纪大道1788号陆家嘴金控广场1号楼3层
+邮编：200120
+邮箱：research@kysec.cn
+北京
+地址：北京市西城区西直门外大街18号金贸大厦C2座9层
+邮编：100044
+邮箱：research@kysec.cn
+深圳
+地址：深圳市福田区金田路2030号卓越世纪中心1号楼45层
+邮编：518000
+邮箱：research@kysec.cn
+西安
+地址：西安市高新区锦业路1号都市之门B座5层
+邮编：710065
+邮箱：research@kysec.cn</t>
+  </si>
+  <si>
+    <t>2026 年 02 月 02 日
+# 策略研究团队
+# 机构关注度环比回升：计算机、环保、交通运输
+机构调研周跟踪
+韦冀星（分析师）
+weijixing@kysec.cn
+证书编号：S0790524030002
+简宇涵（分析师）
+jianyuhan@kysec.cn
+证书编号：S0790525050005
+#  “机构调研信息”是投资者决策过程当中，重要的信息补充
+机构调研是资本市场信息传递和价值挖掘的重要环节。对于专业机构而言，是深度研究、投资决策的关键步骤。相较财务信息，机构调研具备披露及时、信息多维且深入等优势。往往在调研结束后1-2天内，公司以公告方式对外披露，主要内容包含参会人员信息、会议问答等，投资者与公司管理层之间的问答往往涉及行业最新动态及公司运营细节。
+机构调研信息是对基本面信息的重要补充，但信息量大且杂乱。为了清晰梳理出调研中有效、增量信息，我们推出机构调研周跟踪系列，汇总最近一周、一个月公开的机构调研信息，涵盖行业、个股两维度，包含调研热度（环比、同比数据）、调研获得的行业及个股信息增量。
+#  行业视角看机构调研情况: 计算机、环保、交通运输的调研热度有所上升
+周度：上周，全 A的被调研总次数环比下跌，但高于 2025年同期，调研热度持续低迷。一级行业中，按机构被调研总次数从高到低排序，电子、机械设备、基础化工、医药生物和计算机的关注度较高。
+边际变化上，相较前一周，计算机、环保、交通运输、家用电器、纺织服饰、公用事业、建筑材料、社会服务、石油石化等的调研总次数均有所上升。
+月度：2026年 1月，全 A的被调研总次数环比回落，高于 2025年同期。最新一个月，一级行业中，按机构被调研总次数从高到低排序，电子、机械设备、医药生物、基础化工和电力设备的关注度较高。
+边际变化上，电子、机械设备、基础化工、计算机等的关注度同比上升。
+#  个股视角看机构调研情况：洁美科技、冰轮环境、海峡股份受市场关注较多
+周度：上周，洁美科技、冰轮环境、海峡股份、天禄科技、周大生、华润微、江苏神通、齐鲁银行、中伟股份、阳光诺和、维力医疗、威力传动等受到较多市场关注，被调研总次数相对较高。
+月度：最近一个月，洁美科技、泰和新材、冰轮环境、天禄科技、上海银行、汇川技术、沪农商行、博盈特焊等受到较多市场关注，被调研总次数相对较高。
+以下是重点公司调研细节梳理:
+君逸数码：公司智慧城市业务稳健，且积极布局 AI智能体和机器人业务。公司近期被机构频繁调研，上周调研次数达 2次，受到市场关注。公司是一家面向政企客户提供数字化解决方案提供商，公司依托智慧城市业务延伸数字经济、AI大模型应用。根据公司近期发布的投资者关系活动记录表，当前智慧城市相关业务增速较为平稳，且原有细分领域的年度订单增长较为稳健，尤其在城市更新、智慧水利等方向，受益于专项债及长期国债等资金支持，相关领域投资规模加大，因此该细分领域经营状况优于其他领域。另外，公司控股子公司海天数联在铁路、教育、政务等领域已获取了 AI智能体的订单。
+ 风险提示：公司经营风险、行业政策风险、投资者关系活动记录表错误解读风险
+《再提“坚定牛市信心，降低预期斜率”—投资策略周报》-2026.2.1
+《开源金股，2 月推荐—投资策略专题》-2026.1.28
+《掘金2026年五大潜在强主题机会—投资策略专题》-2026.1.28
+# 目 录
+1、 行业视角看机构调研情况: 计算机、环保、交通运输的调研热度有所上升.
+1.1、 周度：调研热度持续低迷.  
+1.2、 月度：被调研总次数环比回落.
+2、 个股视角看机构调研情况：洁美科技、冰轮环境、海峡股份等受到较多市场关注. 6
+2.1、 周度：洁美科技、冰轮环境、海峡股份等受到市场关注. 6  
+2.2、 月度：洁美科技、泰和新材、冰轮环境等受到市场关注.
+3、 风险提示...
+# 图表目录
+图 1： 近期，全 A周度被调研总次数持续低迷.  
+图 2： 相较其他行业，电子、机械设备和基础化工的周度被调研总次数相对较高.  
+图 3： 相较前一周，计算机、环保、交通运输、家用电器、纺织服饰、公用事业、建筑材料、社会服务、石油石化的调研总次数均有所上升..... ...... 4  
+图 4： 1 月，全 A月度被调研总次数环比回落.. 5  
+图 5： 1 月，相较其他行业，电子、机械设备、医药生物和基础化工的月度被调研总次数相对较高  
+图 6： 最近一个月，一级行业里，电子、机械设备、医药生物、基础化工和电力设备的关注度较高  
+图 7： 上周，以下上市公司受到更多关注. . 6  
+图 8： 最近一个月，以下上市公司受到更多关注. . 7
+机构调研是资本市场信息传递和价值挖掘的重要环节。对于专业机构而言，是深度研究、投资决策的关键步骤。对于普通投资者，公开的机构调研信息（尤其是参与名单、简要纪要）提供了有价值的观察窗口，可以了解市场关注点、验证投资逻辑，并辅助基本面研究。
+相较财务信息，机构调研具备披露及时、信息多维且深入等优势。机构调研信息在披露频率和信息内容上，与较多的基本面信息不同。机构调研信息披露及时，往往在调研结束后 1-2 天内，公司以公告方式对外披露，公告名“投资者关系活动记录表”，主要内容包含参会人员信息、会议问答等，投资者与公司管理层之间的问答往往涉及行业最新动态及公司运营细节。对披露时点相对滞后的、定量的财务数据，机构调研是一个重要的补充。
+机构调研信息是对基本面信息的重要补充，但信息量大且杂乱。为了清晰梳理出调研中有效、增量信息，我们推出“机构调研周跟踪”系列，汇总最近一周、一个月公开的机构调研信息，涵盖行业、个股两维度，包含调研热度（环比、同比数据）、调研获得的行业及个股信息增量。
+注：本文涉及机构调研数据，包括“被调研总次数”、“机构调研家数”，均来自公司投资者关系活动记录表，统计数据由 Wind提供。被调研总次数衡量的是个股公司指定期间被调研的总次数，调研内容包括实地调研、电话会议、路演活动、业绩说明会等；机构调研家数衡量的是个股公司指定期间被机构调研的总家数。
+# 1、 行业视角看机构调研情况: 计算机、环保、交通运输的调研
+# 热度有所上升
+行业信息汇总涵盖一级、二级行业的调研热度及其同比环比比较，并且收集调研中的行业重要增量信息，紧密跟踪行业最新动态。
+# 1.1、 周度：调研热度持续低迷
+上周（1 月 26 日-2 月 1 日，全文同），全 A 的被调研总次数环比下跌，但高于2025年同期，调研热度持续低迷。上周，全A 的周度被调研总次数达 218 次，高于2025 年同期的 62 次；近期，全 A 的周度被调研总次数整体处于全年中等偏下的位置。
+上周，一级行业中，按机构被调研总次数从高到低排序，电子、机械设备、基础化工、医药生物和计算机的关注度较高；二级行业中，半导体、通用设备、其他电子、汽车零部件、专用设备、化学制品、计算机设备、电力、光学光电子、环境治理等的关注度较高。
+边际变化上，相较前一周，计算机、环保、交通运输、家用电器、纺织服饰、公用事业、建筑材料、社会服务、石油石化的调研总次数均有所上升。
+图1：近期，全A周度被调研总次数持续低迷  
+![](images/b1ae30cf1406c1bc7e9e2adcf8c6c0179373eab540be21b027fac4e0ad97b5ba.jpg)  
+数据来源：Wind、开源证券研究所 注：单位为次
+图2：相较其他行业，电子、机械设备和基础化工的周度被调研总次数相对较高  
+![](images/54df84af9a24fd5e54a2412b49f52bc9383924b062f987c1c29d62a2ba422029.jpg)  
+数据来源：Wind、开源证券研究所 注：单位为次
+图3：相较前一周，计算机、环保、交通运输、家用电器、纺织服饰、公用事业、建筑材料、社会服务、石油石化的调研总次数均有所上升  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;一级行业&lt;/td&gt;&lt;td&gt;被调研总次数：0119-
+0125（次数）&lt;/td&gt;&lt;td&gt;被调研总次数：0126-
+0201（次数）&lt;/td&gt;&lt;td&gt;相减&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美容护理&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;-9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;-10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;-11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;-14&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind、开源证券研究所
+# 1.2、 月度：被调研总次数环比回落
+2026 年 1 月，全 A 的被调研总次数环比回落，高于 2025 年同期。1 月，全 A的月度被调研总次数达 1029 次，高于 2025 年同期的 977 次；近期，全 A 的月度被调研总次数，整体水平处于全年中间偏下的位置。
+最近一个月（1月 1 日-2 月 1日），一级行业中，按机构被调研总次数从高到低排序，电子、机械设备、医药生物、基础化工和电力设备的关注度较高；二级行业中，通用设备、半导体、汽车零部件、专用设备、光学光电子、城商行、计算机设备、医疗器械、自动化设备、化学制品、工业金属等的关注度较高。
+边际变化上，电子、机械设备、基础化工、计算机、有色金属、通信等的关注度同比上升。
+图4：1月，全A月度被调研总次数环比回落  
+![](images/38d5023ab974c22800895e3287311f81875b06785d021715e37dfeb67dfbe180.jpg)  
+数据来源：Wind、开源证券研究所 注：单位为次
+图5：1月，相较其他行业，电子、机械设备、医药生物和基础化工的月度被调研总次数相对较高  
+![](images/6a09f23b161b6071be1679f32239e5529808067205da0e12b3279550ae502160.jpg)  
+数据来源：Wind、开源证券研究所 注：单位为次
+图6：最近一个月，一级行业里，电子、机械设备、医药生物、基础化工和电力设备的关注度较高  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;一级行业&lt;/td&gt;&lt;td&gt;被调研总次数:最近一个月&lt;/td&gt;&lt;td&gt;机构调研家数:最近一个月&lt;/td&gt;&lt;td&gt;被调研总次数:去年同期&lt;/td&gt;&lt;td&gt;机构调研家数:去年同期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;157&lt;/td&gt;&lt;td&gt;1928&lt;/td&gt;&lt;td&gt;121&lt;/td&gt;&lt;td&gt;2777&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;150&lt;/td&gt;&lt;td&gt;2078&lt;/td&gt;&lt;td&gt;143&lt;/td&gt;&lt;td&gt;1495&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;1380&lt;/td&gt;&lt;td&gt;89&lt;/td&gt;&lt;td&gt;1269&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;79&lt;/td&gt;&lt;td&gt;954&lt;/td&gt;&lt;td&gt;58&lt;/td&gt;&lt;td&gt;564&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;1242&lt;/td&gt;&lt;td&gt;70&lt;/td&gt;&lt;td&gt;1078&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;1692&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;983&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;63&lt;/td&gt;&lt;td&gt;858&lt;/td&gt;&lt;td&gt;71&lt;/td&gt;&lt;td&gt;604&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;50&lt;/td&gt;&lt;td&gt;373&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;570&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;352&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;352&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;284&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;192&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;298&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;409&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;397&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;320&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;194&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;139&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;205&lt;/td&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;379&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;172&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;235&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;187&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;171&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;93&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;219&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;64&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;234&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;153&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;226&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;202&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;151&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;66&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;62&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind、开源证券研究所 注：表格统计的截至日期为 2026 年 2月 1日。
+# 2、 个股视角看机构调研情况：洁美科技、冰轮环境、海峡股份等受到较多市场关注
+个股信息汇总涵盖上周、最近一个月的调研热度，重点梳理热门公司调研细节，跟踪个股最新动态（产能、产品价格、新产品发布等），关注其近期的边际变化。
+# 2.1、 周度：洁美科技、冰轮环境、海峡股份等受到市场关注
+上周，洁美科技、冰轮环境、海峡股份、天禄科技、周大生、华润微、江苏神通、齐鲁银行、中伟股份、阳光诺和、维力医疗、威力传动等受到较多市场关注，被调研总次数相对较高。
+图7：上周，以下上市公司受到更多关注  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;一级行业&lt;/td&gt;&lt;td&gt;二级行业&lt;/td&gt;&lt;td&gt;被调研总次数: 最近一周(次数)&lt;/td&gt;&lt;td&gt;机构调研家数: 最近一周(家数)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002859.SZ&lt;/td&gt;&lt;td&gt;洁美科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;其他电子II&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000811.SZ&lt;/td&gt;&lt;td&gt;冰轮环境&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002320.SZ&lt;/td&gt;&lt;td&gt;海峡股份&lt;/td&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;航运港口&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301045.SZ&lt;/td&gt;&lt;td&gt;天禄科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;光学光电子&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002867.SZ&lt;/td&gt;&lt;td&gt;周大生&lt;/td&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;饰品&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688396.SH&lt;/td&gt;&lt;td&gt;华润微&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;43&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002438.SZ&lt;/td&gt;&lt;td&gt;江苏神通&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601665.SH&lt;/td&gt;&lt;td&gt;齐鲁银行&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;城商行II&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300919.SZ&lt;/td&gt;&lt;td&gt;中伟股份&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;电池&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688621.SH&lt;/td&gt;&lt;td&gt;阳光诺和&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;医疗服务&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603309.SH&lt;/td&gt;&lt;td&gt;维力医疗&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;医疗器械&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300904.SZ&lt;/td&gt;&lt;td&gt;威力传动&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;风电设备&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;302132.SZ&lt;/td&gt;&lt;td&gt;中航成飞&lt;/td&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;军工电子II&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600880.SH&lt;/td&gt;&lt;td&gt;博瑞传播&lt;/td&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td&gt;教育&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000603.SZ&lt;/td&gt;&lt;td&gt;盛达资源&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;工业金属&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301158.SZ&lt;/td&gt;&lt;td&gt;德石股份&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;专用设备&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301172.SZ&lt;/td&gt;&lt;td&gt;君逸数码&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;IT服务II&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603310.SH&lt;/td&gt;&lt;td&gt;巍华新材&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;化学制品&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688605.SH&lt;/td&gt;&lt;td&gt;先锋精科&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002534.SZ&lt;/td&gt;&lt;td&gt;西子洁能&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;其他电源设备II&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000061.SZ&lt;/td&gt;&lt;td&gt;农产品&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;一般零售&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002046.SZ&lt;/td&gt;&lt;td&gt;国机精工&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind、开源证券研究所 注：表中机构调研家数为 0，代表公司召开了业绩说明会。
+# 重点公司调研细节梳理:
+君逸数码：公司智慧城市业务稳健，且积极布局 AI智能体和机器人业务。公司近期被机构频繁调研，上周调研次数达 2 次，受到市场关注。公司是一家面向政企客户提供数字化解决方案提供商，公司依托智慧城市业务延伸数字经济、AI 大模型应用，形成“智能物联 $^ +$ 大数据+AI应用”协同生态。根据公司近期发布的投资者关系活动记录表，当前智慧城市相关业务增速较为平稳，且原有细分领域的年度订单增长较为稳健，尤其在城市更新、智慧水利等方向，受益于专项债及长期国债等资金支持，相关领域投资规模加大，因此该细分领域经营状况优于其他领域。另外，公司控股子公司海天数联在铁路、教育、政务等领域已获取了 AI智能体的订单。
+# 2.2、 月度：洁美科技、泰和新材、冰轮环境等受到市场关注
+最近一个月，洁美科技、泰和新材、冰轮环境、天禄科技、上海银行、汇川技术、沪农商行、博盈特焊、太力科技等受到较多市场关注，被调研总次数相对较高。
+图8：最近一个月，以下上市公司受到更多关注  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;一级行业&lt;/td&gt;&lt;td&gt;二级行业&lt;/td&gt;&lt;td&gt;被调研总次数：最近一个月（次数）&lt;/td&gt;&lt;td&gt;机构调研家数：最近一个月（家数）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002859.SZ&lt;/td&gt;&lt;td&gt;洁美科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;其他电子Ⅱ&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;57&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002254.SZ&lt;/td&gt;&lt;td&gt;泰和新材&lt;/td&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;化学纤维&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000811.SZ&lt;/td&gt;&lt;td&gt;冰轮环境&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301045.SZ&lt;/td&gt;&lt;td&gt;天禄科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;光学光电子&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601229.SH&lt;/td&gt;&lt;td&gt;上海银行&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;城商行Ⅱ&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300124.SZ&lt;/td&gt;&lt;td&gt;汇川技术&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;自动化设备&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601825.SH&lt;/td&gt;&lt;td&gt;沪农商行&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;农商行Ⅱ&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301468.SZ&lt;/td&gt;&lt;td&gt;博盈特焊&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;59&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301595.SZ&lt;/td&gt;&lt;td&gt;太力科技&lt;/td&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;家居用品&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688605.SH&lt;/td&gt;&lt;td&gt;先锋精科&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301005.SZ&lt;/td&gt;&lt;td&gt;超捷股份&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;汽车零部件&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;138&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688396.SH&lt;/td&gt;&lt;td&gt;华润微&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;半导体&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;125&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002046.SZ&lt;/td&gt;&lt;td&gt;国机精工&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;通用设备&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002966.SZ&lt;/td&gt;&lt;td&gt;苏州银行&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;城商行Ⅱ&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002867.SZ&lt;/td&gt;&lt;td&gt;周大生&lt;/td&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;饰品&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000603.SZ&lt;/td&gt;&lt;td&gt;盛达资源&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;工业金属&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000962.SZ&lt;/td&gt;&lt;td&gt;东方钮业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;小金属&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300540.SZ&lt;/td&gt;&lt;td&gt;蜀道装备&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;专用设备&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000338.SZ&lt;/td&gt;&lt;td&gt;潍柴动力&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;汽车零部件&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002541.SZ&lt;/td&gt;&lt;td&gt;鸿路钢构&lt;/td&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;专业工程&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600882.SH&lt;/td&gt;&lt;td&gt;妙可蓝多&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;饮料乳品&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688410.SH&lt;/td&gt;&lt;td&gt;山外山&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;医疗器械&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind、开源证券研究所 注：表格统计的截至日期为 2026 年 2 月 1 日。
+# 3、 风险提示
+公司经营风险
+行业政策风险
+投资者关系活动记录表错误解读风险
+# 特别声明
+《证券期货投资者适当性管理办法》、《证券经营机构投资者适当性管理实施指引（试行）》已于2017年7月1日起正式实施。根据上述规定，开源证券评定此研报的风险等级为R3（中风险），因此通过公共平台推送的研报其适用的投资者类别仅限定为专业投资者及风险承受能力为C3、C4、C5的普通投资者。若您并非专业投资者及风险承受能力为C3、C4、C5的普通投资者，请取消阅读，请勿收藏、接收或使用本研报中的任何信息。
+因此受限于访问权限的设置，若给您造成不便，烦请见谅！感谢您给予的理解与配合。
+# 分析师承诺
+负责准备本报告以及撰写本报告的所有研究分析师或工作人员在此保证，本研究报告中关于任何发行商或证券所发表的观点均如实反映分析人员的个人观点。负责准备本报告的分析师获取报酬的评判因素包括研究的质量和准确性、客户的反馈、竞争性因素以及开源证券股份有限公司的整体收益。所有研究分析师或工作人员保证他们报酬的任何一部分不曾与，不与，也将不会与本报告中具体的推荐意见或观点有直接或间接的联系。
+股票投资评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;证券评级&lt;/td&gt;&lt;td&gt;买入(Buy)&lt;/td&gt;&lt;td&gt;预计相对强于市场表现20%以上;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持(outperform)&lt;/td&gt;&lt;td&gt;预计相对强于市场表现5%~20%;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性(Neutral)&lt;/td&gt;&lt;td&gt;预计相对市场表现在-5%~+5%之间波动;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持(underperform)&lt;/td&gt;&lt;td&gt;预计相对弱于市场表现5%以下。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业评级&lt;/td&gt;&lt;td&gt;看好(overweight)&lt;/td&gt;&lt;td&gt;预计行业超越整体市场表现;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性(Neutral)&lt;/td&gt;&lt;td&gt;预计行业与整体市场表现基本持平;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;看淡(underperform)&lt;/td&gt;&lt;td&gt;预计行业弱于整体市场表现。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="3"&gt;备注:评级标准为以报告日后的6~12个月内,证券相对于市场基准指数的涨跌幅表现,其中A股基准指数为沪
+深300指数、港股基准指数为恒生指数、新三板基准指数为三板成指(针对协议转让标的)或三板做市指数(针
+对做市转让标的)、美股基准指数为标普500或纳斯达克综合指数。我们在此提醒您,不同证券研究机构采用不同
+的评级术语及评级标准。我们采用的是相对评级体系,表示投资的相对比重建议;投资者买入或者卖出证券的决
+定取决于个人的实际情况,比如当前的持仓结构以及其他需要考虑的因素。投资者应阅读整篇报告,以获取比较
+完整的观点与信息,不应仅仅依靠投资评级来推断结论。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 分析、估值方法的局限性说明
+本报告所包含的分析基于各种假设，不同假设可能导致分析结果出现重大不同。本报告采用的各种估值方法及模型均有其局限性，估值结果不保证所涉及证券能够在该价格交易。
+# 法律声明
+开源证券股份有限公司是经中国证监会批准设立的证券经营机构，已具备证券投资咨询业务资格。
+本报告仅供开源证券股份有限公司（以下简称“本公司”）的机构或个人客户（以下简称“客户”）使用。本公司不会因接收人收到本报告而视其为客户。本报告是发送给开源证券客户的，属于商业秘密材料，只有开源证券客户才能参考或使用，如接收人并非开源证券客户，请及时退回并删除。
+本报告是基于本公司认为可靠的已公开信息，但本公司不保证该等信息的准确性或完整性。本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并非作为或被视为出售或购买证券或其他金融工具的邀请或向人做出邀请。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可能会波动。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。客户应当考虑到本公司可能存在可能影响本报告客观性的利益冲突，不应视本报告为做出投资决策的唯一因素。本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。本公司未确保本报告充分考虑到个别客户特殊的投资目标、财务状况或需要。本公司建议客户应考虑本报告的任何意见或建议是否符合其特定状况，以及（若有必要）咨询独立投资顾问。在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。若本报告的接收人非本公司的客户，应在基于本报告做出任何投资决定或就本报告要求任何解释前咨询独立投资顾问。投资者应自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+本报告可能附带其它网站的地址或超级链接，对于可能涉及的开源证券网站以外的地址或超级链接，开源证券不对其内容负责。本报告提供这些地址或超级链接的目的纯粹是为了客户使用方便，链接网站的内容不构成本报告的任何部分，客户需自行承担浏览这些网站的费用或风险。
+开源证券在法律允许的情况下可参与、投资或持有本报告涉及的证券或进行证券交易，或向本报告涉及的公司提供或争取提供包括投资银行业务在内的服务或业务支持。开源证券可能与本报告涉及的公司之间存在业务关系，并无需事先或在获得业务关系后通知客户。
+本报告的版权归本公司所有。本公司对本报告保留一切权利。除非另有书面显示，否则本报告中的所有材料的版权均属本公司。未经本公司事先书面授权，本报告的任何部分均不得以任何方式制作任何形式的拷贝、复印件或复制品，或再次分发给任何其他人，或以任何侵犯本公司版权的其他方式使用。所有本报告中使用的商标、服务标记及标记均为本公司的商标、服务标记及标记。
+# 开源证券研究所
+上海
+地址：上海市浦东新区世纪大道1788号陆家嘴金控广场1号楼3层
+邮编：200120
+邮箱：research@kysec.cn
+地址：北京市西城区西直门外大街18号金贸大厦C2座9层
+邮编：100044
+邮箱：research@kysec.cn
+深圳
+地址：深圳市福田区金田路2030号卓越世纪中心1号楼45层
+邮编：518000
+邮箱：research@kysec.cn
+西安
+地址：西安市高新区锦业路1号都市之门B座5层
+邮编：710065
+邮箱：research@kysec.cn</t>
+  </si>
+  <si>
+    <t># 策略点评
+# 证券分析师
+程强
+资格编号：S0120524010005
+邮箱：chengqiang＠tebon.com.cn
+翟堃
+资格编号：s0120523050002
+邮箱：zhaikun＠tebon.com.cn
+高嘉麒
+资格编号：S0120523070003
+邮箱：gaojq＠tebon.com.cn
+研究助理
+相关研究
+# 强势反弹，光伏领涨
+# [Table_Summ投资要点：
+摘要。2026 年 2月 3 日周二，A股市场强势反弹，光伏板块领涨；国债期货市场涨跌不一；商品指数上涨，市场局部回暖。
+# 一、市场行情分析
+# 1）股票市场：强势反弹，情绪回暖
+. 强势反弹，情绪回暖。今日 A 股市场探底回升，三大指数集体反弹。上证指数早盘高开后一度探至 4002.78 点，临近 4000 点整数关口时承接力度显现，后开启震荡回升，午后维持强势格局，最终收涨 $1 . 2 9 \%$ ，日线形成带长下影的阳线；深市表现更为强劲，深证成指上涨 $2 . 1 9 \%$ 至14127.11点，创业板指上涨 $1 . 8 6 \%$ 至 3324.89点；科创 50 指数上涨 $1 . 3 9 \%$ ，科创 200 指数大涨 $4 . 4 4 \%$ ，反映资金向科技成长板块集中。全市场 4851 只个股上涨，529 只个股下跌，市场情绪逐步修复；成交额2.57 万亿，较昨日缩量约 $1 . 6 \%$ ，或表明资金对市场大幅修复追涨仍相对谨慎。
+图 1：市场反弹，略有缩量  
+![](images/c734dfe81602ad047bd23ceae4052fbd65683a0301f1f1ba1f5b10fa6180f327.jpg)  
+资料来源：Wind，德邦研究所
+科技成长领涨，防御板块回调。今日光伏设备板块爆发，帝科股份、海优新材、奥特维等多股涨停，其中太空光伏指数大涨 $7 . 4 8 \%$ ，消息面上，当地时间 2 月 2日，太空探索技术公司（SpaceX）在官网发布由马斯克署名的声明，确认与人工智能企业 xAI 公司合并。声明称，合并后公司将整合人工智能、火箭、天基互联网、移动设备直连的通信。马斯克在声明中表示，当前人工智能技术的发展高度依赖地面大型数据中心，这类设施需要消耗海量电力，唯一合理的解决方案，就是将这些高资源消耗的算力工作转移至拥有无限能源与空间的领域，或推动光伏行业需求大幅提升。算力硬件活跃，光电路交换机、光模块指数分别上涨 $6 . 8 5 \%$ 、 $5 . 8 5 \%$ ，罗博特科 $20 \%$ 涨停、天孚通信涨超 $10 \%$ ，板块大涨或同步受益于马斯克战略规划下的 AI 算力需求爆发。今日行业板块仅银行下跌，跌幅 $0 . 8 1 \%$ ，近期市场风格切换
+较快，市场反弹格局下防御板对资金吸引力或有下降。
+避险交易阶段结束，慢牛格局不改。今日不仅 A 股市场强势反弹，亚太其他市场同步强势大涨，其中韩国综合指数收盘上涨 $6 . 8 4 \%$ 报 5288.08 点，创收盘历史新高。日经 225 指数收盘上涨 $3 . 9 2 \%$ 报 54720.66 点，盘中一度涨超 $4 \%$ ，创历史新高。我们认为一方面夜盘国际大宗品价格并未延续快速下跌，也反映前期市场对于沃什被提名美联储主席后的反馈过于剧烈，避险情绪扩散后开始回归基本面，由此推动市场情绪逐步回暖。另一方面，我们认为伴随 2025 年业绩预告披露期结束，市场对于部分公司业绩不及预期风险的担忧也告一段落，对于长期产业趋势板块配置需求或有提升。中长期来看，我们认为当前市场仍处于“政策催化 $^ +$ 产业趋势”双轮驱动的结构性行情中，慢牛格局不改，建议持续关注光伏（太空光伏、HJT技术）、商业航天（卫星制造、算力服务）、有色金属（黄金、白银、铜铝等）主线。
+# 2)债券市场：国债期货市场涨跌不一
+. 国债期货市场涨跌不一。今日国债期货市场呈现中短端领涨、长端微跌的特征。从各期限主力合约数据看，5 年期主力合约（TF2603）表现最强，收盘涨 $0 . 0 6 \%$ 报105.91 元，成交额 643.43 亿元；2 年期主力合约（TS2603）涨 $0 . 0 3 \%$ 至 102.41元，成交额 671.62 亿元；10 年期主力合约（T2603）微涨 $0 . 0 2 \%$ 至 108.26 元，成交额 784.30 亿元；30 年期主力合约（TL2603）收跌 $0 . 1 0 \%$ 至 111.96 元，成交额 1061.57 亿元。  
+央行净回笼 2965 亿元，短端利率下行。今日银行间市场资金面整体宽松，尽管央行逆回购净回笼规模较大，但 Shibor 隔夜利率多数下行。央行操作方面，当日开展 1055亿元 7天期逆回购（利率 1. $40 \%$ ），对冲 4020 亿元逆回购到期后，单日净回笼 2965亿元，2 月以来连续两日净回笼。从货币市场利率看，Shibor 短端品种分化：隔夜 Shibor 报 $1 . 3 1 7 \%$ ，较前一日下行 4.8BP；7 天期 Shibor 上行 0.3BP 至1. $48 8 \%$ ，14 天期上行 0.2BP 至 $1 . 5 1 1 \%$ ，1个月期持平 $1 , 5 5 \%$ 。回购利率方面，FR001报 $1 , 4 3 \%$ （-3BP），FR007 报 $1 , 5 6 \%$ （ $+ 1 \mathsf { B P }$ ）。  
+. 宽松预期仍在，配置需求仍存。今日国债期货市场不同合约走势分化，我们认为中短端国债期货受资金宽松与配置需求支撑领涨，保险、养老金等长期资金对超长端布局需求或将维持。1月官方制造业 PMI 降至 $4 9 . 3 \%$ ，重回 50 以下，经济仍在弱复苏过程，或强化资金对于债市配置需求。短期来看，虽然央行净回笼，但 Shibor 隔夜延续下行，跨节流动性预期平稳。中长期来看，适度宽松的货币政策环境下央行明确“降准降息仍有空间”，未来有望支撑债市情绪。
+图 2： PMI 重回 50 以下  
+![](images/7286deb2c4542381e5da3f9872cc733ba06f110bbc95b79d6fbc0585ccb82132.jpg)  
+资料来源： Wind，德邦研究所
+# 3)商品市场：商品指数上涨，市场局部回暖
+. 商品指数上涨，市场局部回暖。今日南华商品指数收于 2758.41 点，上涨 $0 . 9 3 \%$ 。市场呈现多数下跌、局部回暖反弹的分化特征。领涨品种包括钯（ $+ 8 . 6 2 \%$ ）、多晶硅（ $( + 6 . 6 1 \%$ ）、集运指数（欧线）（ $+ 5 . 2 2 \%$ ）、碳酸锂（ $+ 4 . 6 3 \%$ ）、铂（ $( + 3 . 5 4 \%$ ）、沪铜（ $+ 2 . 6 0 \%$ ）；部分有色品种维持弱势，沪银下跌 $1 6 . 7 1 \%$ 、沪锡下跌 $6 . 7 0 \%$ 、原油下跌 $4 . 9 3 \%$ 。
+. 铜价反弹，战略收储或即将开启。今日沪铜主力合约收于 104500 元/吨，上涨$2 . 6 0 \%$ ，收复昨日跌幅。在 2 月 3 日中国有色金属工业协会举行的 2025 年有色金属工业经济运行情况新闻发布会上，中国有色金属工业协会副秘书长段绍甫表示，完善铜资源储备体系建设，一方面扩大国家铜战略储备规模，另一方面探索进行商业储备机制，通过财政贴息等方式选择国有骨干企业试行商业储备。此外，除了储备精炼铜之外，也可研究将贸易量大、容易变现的铜精矿纳入储备范围。短期来看我们认为“沃什交易”告一段落，压制全球大宗品价格下行预期阶段性解除。中长期来看，铜作为战略物资的必要性将持续提升，一方面，全球铜矿资本开支不足问题持续，财联社 1 月 29 日报道，美国南方铜业公司预计 2026 年铜产量将下滑至91.14 万吨；从需求端来看，绿色转型、电气化及人工智能数据中心建设带来新增铜需求，国家电网宣布“十五五”期间固定资产投资总额达 4 万亿元、南方电网同步披露 2026 年投资规模达 1800亿元。供需综合作用下，或支撑铜价格长期上行。
+. 需求预期提升，多晶硅上涨。今日多晶硅主力合约收于 50000 元/吨，大幅上涨$6 . 6 1 \%$ 。2 月 2 日，中电联发布 2025-2026 年度全国电力供需形势分析预测报告。中电联预计，2026 年全国全社会用电量 10.9-11 万亿千瓦时、同比增长 $5 \% - 6 \%$ ；全年统调最高用电负荷在 15.7-16.3 亿千瓦。电力供应方面，中电联预计 2026 年全年新增发电装机有望超过 4 亿千瓦，其中，新增新能源发电装机有望超过 3 亿千瓦；新增有效发电能力 1亿千瓦左右，与最大负荷增量基本持平。风、光装机合计占比有望达到总装机的一半左右，其中太阳能发电装机规模预计将首次超过煤电装机规模。叠加 SpaceX 与 xAI 合并背后，马斯克太空算力对于光伏的快速发展，需求提升预期或催化多晶硅期货反弹。
+# 二、交易热点追踪
+# 1）近期热门品种梳理
+表 1：近期热门品种梳理（括号内为近期趋势方向判断）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;品种&lt;/td&gt;&lt;td&gt;核心逻辑&lt;/td&gt;&lt;td&gt;后续关注点&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;AI应用(多)&lt;/td&gt;&lt;td rowspan="2"&gt;阿里千问、谷歌GEMINI等为代表产品应用加速&lt;/td&gt;&lt;td&gt;1.应用场景转化&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.产品技术升级突破&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;商业航天(多)&lt;/td&gt;&lt;td rowspan="2"&gt;商业航天司成立，大力支持发展&lt;/td&gt;&lt;td&gt;1.国内可回收火箭发射情况&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.SPACEX等海外龙头技术突破&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;核聚变(多)&lt;/td&gt;&lt;td rowspan="2"&gt;中上游环节产业化提速&lt;/td&gt;&lt;td&gt;1.项目进展推动情况&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.行业招标情况&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;量子科技(多)&lt;/td&gt;&lt;td rowspan="2"&gt;技术突破，战略新兴产业&lt;/td&gt;&lt;td&gt;1.国内政策支持力度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.国内外重点项目进展&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;脑机接口(多)&lt;/td&gt;&lt;td rowspan="2"&gt;十五五政策支持，海外技术进步&lt;/td&gt;&lt;td&gt;1.国内政策支持力度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.国内外重点项目进展&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;机器人(多)&lt;/td&gt;&lt;td rowspan="2"&gt;产品持续升级，产业化趋势加速&lt;/td&gt;&lt;td&gt;1.特斯拉订单释放节奏&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2.国内企业技术进展&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;大消费(多)&lt;/td&gt;&lt;td&gt;政策推动支持消费升级&lt;/td&gt;&lt;td&gt;1.经济复苏情况2.进一步刺激政策&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;券商(多)&lt;/td&gt;&lt;td&gt;A股成额维持2万亿以上，存款搬家&lt;/td&gt;&lt;td&gt;1.A股市场成交量情况2.交易制度可能的变化&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：证券时报、财联社、新浪财经、界面新闻、每日经济新闻、第一财经，德邦研究所
+# 2）近期核心思路总结
+权益方面，我们认为“沃什交易”阶段结束后市场情绪回归理性，且伴随 2025 年业绩预告披露期结束后业绩不及预期风险的担忧也告一段落，中长期建议继续聚焦光伏、商业航天、贵金属主线。
+债市方面，我们认为外围流动性稳定，跨节预期平稳，适度宽松的货币政策环境有望支撑债市情绪。
+商品方面，我们认为“沃什交易”短期告一段落，商品市场冲高快速下跌后或将震荡整理，贵金属消化预期后中长期或仍有上行空间。
+ 风险提示：国际地缘政治变化，反内卷进展不及预期，国际大宗品价格波动。
+# 信息披露
+# 分析师与研究助理简介
+程强，博士，CFA，CPA，德邦证券研究所所长、首席经济学家。
+翟堃，所长助理，能源开采&amp;有色金属行业首席分析师，中国人民大学金融硕士，天津大学工学学士，8年证券研究经验，2022年上海证券报能源行业第二名，2021年新财富能源开采行业入围，2020年机构投资者（II）钢铁、煤炭和铁行业第二名，2019年机构投资者（II）金属与采矿行业第三名。研究基础扎实，产业、政府资源丰富，擅长从库存周期角度把握周期节奏，深挖优质弹性标的。
+# 分析师声明
+本人具有中国证券业协会授予的证券投资咨询执业资格，以勤勉的职业态度，独立、客观地出具本报告。本报告所采用的数据和信息均来自市场公开信息，本人不保证该等信息的准确性或完整性。分析逻辑基于作者的职业理解，清晰准确地反映了作者的研究观点，结论不受任何第三方的授意或影响，特此声明。
+投资评级说明  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;1. 投资评级的比较和评级标准： 以报告发布后的6个月内的市场表 现为比较标准，报告发布日后6个 月内的公司股价（或行业指数）的 涨跌幅相对同期市场基准指数的涨 跌幅；2. 市场基准指数的比较标准： A股市场以上证综指或深证成指为基 准；香港市场以恒生指数为基准；美 国市场以标普500或纳斯达克综合指 数为基准。&lt;/td&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评 级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;相对强于市场表现20%以上；&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对强于市场表现5%~20%；&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对市场表现在-5%~+5%之间波动；&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对弱于市场表现5%以下。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评 级&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;预期行业整体回报高于基准指数整体水平10%以上；&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;预期行业整体回报介于基准指数整体水平-10%与10%之间；&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;预期行业整体回报低于基准指数整体水平10%以下。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 法律声明
+本报告仅供德邦证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为客户。在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。
+本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可能会波动。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。
+市场有风险，投资需谨慎。本报告所载的信息、材料及结论只提供特定客户作参考，不构成投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需要。客户应考虑本报告中的任何意见或建议是否符合其特定状况。在法律许可的情况下，德邦证券及其所属关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供投资银行服务或其他服务。
+本报告仅向特定客户传送，未经德邦证券研究所书面授权，本研究报告的任何部分均不得以任何方式制作任何形式的拷贝、复印件或复制品，或再次分发给任何其他人，或以任何侵犯本公司版权的其他方式使用。所有本报告中使用的商标、服务标记及标记均为本公司的商标、服务标记及标记。如欲引用或转载本文内容，务必联络德邦证券研究所并获得许可，并需注明出处为德邦证券研究所，且不得对本文进行有悖原意的引用和删改。
+根据中国证监会核发的经营证券业务许可，德邦证券股份有限公司的经营范围包括证券投资咨询业务。</t>
+  </si>
+  <si>
+    <t># 招银国际环球市场 | 市场策略 | 招财日报
+# 每日投资策略
+# 行业点评/公司首发及点评
+# 全球市场观察
+ 周一亚洲交易时段大宗商品延续剧烈抛售，金价一度失守 4400 美元关口，白银跌超 $1 5 \%$ ，中国商品期货超过 10 个品种触及跌停。主要交易所上调保证金要求，芝加哥商品交易所将黄金期货保证金从 $6 \%$ 提高至 $8 \%$ ，白银从$1 1 \%$ 升至 $1 5 \%$ 。上海期货交易所上调白银期货保证金至 $1 9 \%$ ，涨跌停板幅度扩大至 $1 7 \%$ 。地缘政治风险降温，特朗普表示希望与伊朗达成协议，俄乌冲突进入谈判阶段。  
+ 大宗商品暴跌引发恐慌情绪与杠杆资金收缩效应，亚太股市普遍大跌。港股原材料、能源与医疗保健跌幅较大，必选消费、公用事业与金融跌幅较小，南向资金净买入 19.07 亿港币，腾讯与小米净买入居前，华虹半导体、紫金矿业与石药集团净卖出最多。A 股有色金属、钢铁与基础化工领跌，食品饮料、银行与家电跑赢。韩国股指一度跌超 $5 \%$ 触发熔断。  
+ 欧美交易时段，市场情绪改善。欧洲股市收盘创历史新高，旅游与银行板块领涨。美股上涨，必选消费、工业与金融领涨，能源、公用事业与地产下跌。美国1月ISM制造业 PMI升至52.6，创2022年以来最高，美国制造业在经历近一年收缩后重回扩张，对经济敏感的金融股与小盘股上涨。特朗普称美印达成贸易协议，撤销对印度 $2 5 \%$ 惩罚性关税，“对等关税”从 $2 5 \%$ 降至$18 \%$ ，印度承诺降低对美关税与非关税壁垒、增加进口美国产品、停止购买俄油等。  
+ 美国制造业 PMI 超预期进一步降低市场对美联储降息预期，美债收益率全线上行，10年国债收益率升至 $4 . 2 8 \%$ 。美国劳工统计局表示，因联邦政府部分停摆，原定于 6日发布的 1月就业报告无法按时公布。  
+ 近日贵金属价格暴跌引发全球市场波动，起因是特朗普提名沃什为美联储下任主席，投资者基于沃什之前主张美联储大幅缩表言论对其贴上鹰派标签，市场对弱美元交易暂停，杠杆资金抛售引发踩踏。但时过境迁，美国当下经济金融形势并不支持美联储缩表。预期逆转反映市场对远期政策方向不确定性的担忧，但最终仍取决于基本面前景。我们认为上半年美国通胀仍不会反弹，因为房租通胀下降将抵消商品通胀回升，特朗普在中期选举之前不会容忍油价持续上涨；下半年美国通胀走势存在较大不确定性，因为房租通胀降幅可能收窄，白宫在中期选举前减税政策和中欧加大财政扩张力度可能进一步推升商品通胀。
+# 招银国际研究部
+邮件：research@cmbi.com.hk
+环球主要股市上日表现  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;收市价&lt;/td&gt;&lt;td colspan="2"&gt;升跌(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;单日&lt;/td&gt;&lt;td&gt;年内&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;26,776&lt;/td&gt;&lt;td&gt;-2.23&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生国企&lt;/td&gt;&lt;td&gt;9,080&lt;/td&gt;&lt;td&gt;-2.54&lt;/td&gt;&lt;td&gt;1.87&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;5,526&lt;/td&gt;&lt;td&gt;-3.36&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;4,016&lt;/td&gt;&lt;td&gt;-2.48&lt;/td&gt;&lt;td&gt;1.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证综指&lt;/td&gt;&lt;td&gt;2,615&lt;/td&gt;&lt;td&gt;-2.54&lt;/td&gt;&lt;td&gt;3.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深圳创业板&lt;/td&gt;&lt;td&gt;3,264&lt;/td&gt;&lt;td&gt;-2.46&lt;/td&gt;&lt;td&gt;1.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国道琼斯&lt;/td&gt;&lt;td&gt;49,408&lt;/td&gt;&lt;td&gt;1.05&lt;/td&gt;&lt;td&gt;2.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国标普500&lt;/td&gt;&lt;td&gt;6,976&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;1.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美国纳斯达克&lt;/td&gt;&lt;td&gt;23,592&lt;/td&gt;&lt;td&gt;0.56&lt;/td&gt;&lt;td&gt;1.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX&lt;/td&gt;&lt;td&gt;24,798&lt;/td&gt;&lt;td&gt;1.05&lt;/td&gt;&lt;td&gt;1.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;法国CAC&lt;/td&gt;&lt;td&gt;8,181&lt;/td&gt;&lt;td&gt;0.67&lt;/td&gt;&lt;td&gt;0.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;英国富时100&lt;/td&gt;&lt;td&gt;10,342&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;4.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日本日经225&lt;/td&gt;&lt;td&gt;52,655&lt;/td&gt;&lt;td&gt;-1.25&lt;/td&gt;&lt;td&gt;4.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;澳洲ASX200&lt;/td&gt;&lt;td&gt;8,779&lt;/td&gt;&lt;td&gt;-1.02&lt;/td&gt;&lt;td&gt;0.74&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;台湾加权&lt;/td&gt;&lt;td&gt;31,624&lt;/td&gt;&lt;td&gt;-1.37&lt;/td&gt;&lt;td&gt;9.19&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：彭博
+港股分类指数上日表现  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;收市价&lt;/td&gt;&lt;td colspan="2"&gt;升/跌(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;单日&lt;/td&gt;&lt;td&gt;年内&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生金融&lt;/td&gt;&lt;td&gt;52,232&lt;/td&gt;&lt;td&gt;-1.55&lt;/td&gt;&lt;td&gt;6.74&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生工商业&lt;/td&gt;&lt;td&gt;14,249&lt;/td&gt;&lt;td&gt;-2.66&lt;/td&gt;&lt;td&gt;2.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生地产&lt;/td&gt;&lt;td&gt;19,841&lt;/td&gt;&lt;td&gt;-2.86&lt;/td&gt;&lt;td&gt;12.98&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生公用事&lt;/td&gt;&lt;td&gt;39,936&lt;/td&gt;&lt;td&gt;-0.66&lt;/td&gt;&lt;td&gt;5.02&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+业资料来源：彭博
+# 行业点评
+# 中国重卡行业 - 1月份重卡销量在低基数下同比增长 $39 \%$
+根据第一商用车的初步数据，1 月份重卡批发销量（国内+出口）同比增长$3 9 \%$ 至 10万辆，主要由于：(1) 去年春节较早开始（1月29日开始）导致基数较低；(2) 不少重卡制造商在 2025 年底前已完成销售目标，部分将 2025年 12月的销量推迟至今年 1月确认。我们维持对 2026年重卡需求的乐观预期，预计需求将保持在 110 万辆以上的高位，主要得益于换代驱动的上升周期（2017-21 年销量创历史新高）以及政府补贴政策的延续。我们维持对潍柴动力（2338 HK/000338 CH，买入）的正面观点，主要由于重卡需求仍然强劲，而 AIDC 发动机将带来新的增长动力。同时，我们给予“持有”评级的中国重汽（3808 HK）将存在上升空间。（链接）
+# 公司首发/点评
+# 加科思（1167 HK，首次覆盖-买入，目标价：10.34 港元）- 引领全球KRAS研发浪潮，开拓新型载荷 ADC
+加科思致力于攻克“不可成药”靶点，在 KRAS 靶向治疗领域构建了丰富的产品管线，同时亦搭建了新型非化疗载荷 ADC 平台。随着同阿斯利康重磅BD 合作的落地，公司的核心产品 JAB-23E73（Pan-KRAS）将加速全球开发进程。公司的 iADC、tADC 平台具备显著的差异化优势，将于今年下半年申报 IND。此外，公司的商业化品种戈来雷塞于今年初进入医保，有望实现快速放量。
+Pan-KRAS：携手阿斯利康，以更优安全性解决未满足临床需求。JAB-23E73 是公司的核心资产，对多种 KRAS 突变（G12D、G12V、G12C、G13D 等）实现广谱抑制。约 $90 \%$ 的胰腺癌 PDAC、 $3 0 { \sim } 4 0 \%$ 的结直肠癌CRC 以及 $1 5 . 2 0 \%$ 的肺癌患者存在 KRAS 突变。Revolution Medicines 的分子胶机制 pan-RAS 抑制剂 daraxonrasib 在 RAS 突变的 PDAC 以及 NSCLC展现出良好潜力，已开展三期临床。相比 daraxonrasib，加科思的 JAB-23E73 展现出更好的安全性，或因为其仅抑制 KRAS 而对 NRAS 和 HRAS无明显影响。JAB-23E73在爬坡剂量下的皮疹发生率仅为 $10 \%$ （均为1级），远低于 daraxonrasib 高达 $90 \%$ 的皮疹发生率（三级及以上为 $7 \%$ ；针对 $^ { 2 1 + }$ PDAC 的单药数据）。初步的 I 期数据显示，JAB-23E73 未出现三级及以上的腹泻或肝脏毒性。2025年12月，加科思与阿斯利康就JAB-23E73达成合作（1 亿美元首付款 $+ 1 9 . 1 5$ 亿美元里程碑 $^ +$ 销售分成）。阿斯利康在全球肿瘤领域拥有强劲的商业化能力，以及丰富的产品管线（PD-L1和ADC），将助力 JAB-23E73 的全球开发和商业化，拓展其联用潜力。我们认为，daraxonrasib 在二线 PDAC 获批之后，将提高其他品种二线获批的门槛，预计阿斯利康/加科思在全球市场将重点考虑 JAB-23E73 在 PDAC 和 NSCLC的一线布局，聚焦更大的市场，同时基于小分子药物的安全性优势，JAB-23E73有望成为全球首个获批 CRC 的 pan-KRAS抑制剂。在中国预计 JAB-23E73 有望走单药单臂快速获批的路线。我们预计 JAB-23E73 (pan-KRAS)的海外经风险调整峰值销售额将达到 19 亿美元（风险调整之前为 72 亿美金），有重磅潜力。
+创新 tADC 以及 iADC 平台极具差异化优势。EGFR-KRAS G12Di tADC(JAB-BX600)以高活性的 KRAS G12D 抑制剂作为载荷，靶向 EGFR 抗体，有望发挥小分子抑制剂和抗体的协同作用。JAB-BX600 在临床前 PDAC 和CRC模型中，单次低剂量给药即可实现肿瘤的完全抑制甚至消退。在动物和人的血浆中，几乎不释放毒素，为提高治疗窗口提供了基础。预计 JAB-BX600 将于 2H26 递交 IND。HER2-STING iADC (JAB-BX467)以 STING 激动剂为载荷，旨在解决传统免疫疗法对冷肿瘤响应率低及 STING 激动剂全身毒性大的挑战。iADC 实现了免疫细胞激活、促进了免疫细胞浸润，将冷肿瘤转化成热肿瘤。JAB-BX467 在肿瘤模型中显示出优于 DS-8201 的活性，单次给药即可实现肿瘤完全消退，并能诱导长期免疫记忆。该分子在血液中高度稳定，极大的降低了 CRS的风险，预计将于 2H26提交 IND。
+首次覆盖给予“买入”评级，目标价 10.34 港元。我们预计 JAB-23E73(pan-KRAS)的海外经风险调整峰值销售额将达到 19 亿美元，有重磅潜力。基于DCF模型，我们给予公司目标价为10.34港元（WACC: $1 2 . 5 8 \%$ ，永续增长率: $2 . 0 \%$ ）。（链接）
+# 敏实集团（ $4 2 5 \mathsf { H K }$ ，买入，目标价：42 港元）- 电池盒、机器人及液冷业务推动稳健增长前景
+预计 2025 年下半年盈利稳健：因铝件及电池盒业务在原材料涨价背景下可能实现更高收入，我们将敏实 2025 年下半年收入预测上调 $1 \%$ 至 137 亿元（同比 $+ 1 3 \%$ ）。鉴于公司能将大部分原材料涨价成本转嫁至客户，我们维持下半年毛利率 $2 9 . 1 \%$ 的预测。为加速机器人及液冷等新业务发展，我们预计下半年研发费用率将环比上升0.4个百分点。因此将2025年下半年净利润预测上调 $3 \%$ 至 14亿元（同比 $+ 1 4 \%$ ）。
+关税风险可控：除铝价上涨对利润率影响有限外，我们预计当前美国关税政策对敏实利润率冲击也有限——仅有不足 $4 \%$ 的收入将受2025年5月生效的$2 5 \%$ 额外关税影响。其墨西哥工厂产品不受美国额外关税限制。
+新业务或从 2027年起贡献显著收入，电池盒业务2026年料延续高增：我们预计 2026 年欧洲新能源车销量将同比增长 $16 \%$ （详见我们的 2026 年展望报告），欧洲品牌正抢占特斯拉市场份额，该趋势将利好敏实电池盒业务。根据 2025 年 11-12 月公告，其人形机器人及 AI 服务器液冷系统新业务进展顺利，预计 2027年这两项业务收入贡献将超 10亿元，而我们认为当前股价并未充分反映。同时预计密封系统等新业务 2027 年收入贡献超 5 亿元。因此将 2026-2027 年收入预测上调 $3 . 6 \%$ ，净利润预测分别上调 $6 \%$ 至 32 亿/40 亿元。维持“买入”评级，目标价上调至 42 港元（前值：38 港元），仍基于 13x FY26E P/E。（链接）
+# 石药集团（1093 HK，买入，目标价：13.93 港元）- 重磅 BD 交易驱动长期增长
+与阿斯利康达成超 185 亿美元的重磅对外授权交易。石药集团已与阿斯利康（AZ）达成战略合作，共同推进八个体重管理和 2 型糖尿病项目。此次合作不仅补充了阿斯利康现有的管线（包括口服 GLP1RA、注射用 Amylin RA和GLP-1/GCGR 资产），还显著验证了石药集团专有的 AI 驱动发现平台和长效月制剂多肽平台。该协议授予阿斯利康一系列创新长效多肽药物的独家全球权益（不含大中华区），其中包括核心资产 SYH2082（一款临床准备阶段的长效GLP1R/GIPR激动剂），以及三个处于临床前阶段的肥胖相关资产
+和四个未来的新项目。根据条款，石药集团将负责初始资产直至完成一期临床（PhI）的开发工作。此次交易包含高达 12 亿美元的首付款，总计可达173亿美元的潜在里程碑付款，以及双位数的销售分成。
+可持续的对外授权收入流。除近期与阿斯利康的重磅合作外，石药集团在业务拓展（BD）方面已建立起强劲的业绩记录。自 2024 年底以来，公司已签署六项对外授权协议，涵盖多样化的资产组合——包括 Lp(a)抑制剂、MAT2A抑制剂、ROR1 ADC、口服 GLP-1、伊立替康脂质体以及 AI驱动的小分子发现平台。这些交易持续验证了石药集团的药物发现能力。此外，石药集团培育了深厚的管线，其中包含多个我们认为具有高对外授权潜力的晚期或差异化候选药物，如 B7-H3 ADC、PD-1/IL-15 双抗、GFRAL 单抗和ActRII 单抗等。我们认为，石药集团有望在中长期内产生可持续且经常性的BD收入流。
+2025 年第三季度销售温和复苏。石药集团报告 2025 年前 9 个月（9M25）总收入为 199 亿元人民币，其中包含 15.4 亿元人民币的对外授权（BD）收入。剔除 BD贡献后，核心收入为 184亿元人民币，同比下降 $1 9 \%$ 。然而，复苏迹象在 2025年第三季度显现，核心收入（剔除 BD）恢复增长，环比上升 $4 . 2 \%$ 。神经科、肿瘤科、抗感染及心血管产品等关键治疗领域均观察到温和的环比改善。展望未来，我们预计 2026 年药物销售将基本企稳。成本方面，销售费用率显著收缩，从 2024年前 9个月的 $2 9 . 2 \%$ 降至 2025 年前 9个月的 $2 4 . 1 \%$ 。与此同时，研发投入仍是公司的重中之重，2025年前9个月研发费用同比增长 $7 . 9 \%$ 至 42 亿元人民币（研发费用率为 $2 1 . 0 \%$ ）。得益于近期 BD 交易的首付款支持，我们还预计公司将维持可持续的股息派发。维持“买入”评级。石药集团的BD交易将成为盈利增长的关键可持续驱动力。考虑到与阿斯利康的重磅交易，我们将目标价调整至12.04港元（前值：11.05港元；WACC: $9 . 3 4 \%$ ，永续增长率： $3 . 0 \%$ ，均维持不变）。风险提示：管线推进延迟；集采（VBP）对商业化产品的负面影响。（链接）
+# 免责声明及披露
+# 分析员声明
+负责撰写本报告的全部或部分内容之分析员，就本报告所提及的证券及其发行人做出以下声明：（1）发表于本报告的观点准确地反映有关于他们个人对所提及的证券及其发行人的观点；（2）他们的薪酬在过往、现在和将来与发表在报告上的观点幷无直接或间接关系。
+此外，分析员确认，无论是他们本人还是他们的关联人士（按香港证券及期货事务监察委员会操作守则的相关定义）（1）幷没有在发表研究报告30日前处置或买卖该等证券；（2）不会在发表报告 3 个工作日内处置或买卖本报告中提及的该等证券；（3）没有在有关香港上市公司内任职高级人员；（4）幷没有持有有关证券的任何权益。
+# 招银国际环球市场投资评级
+买入 : 股价于未来 12个月的潜在涨幅超过 $1 5 \%$
+持有 : 股价于未来 12个月的潜在变幅在- $10 \%$ 至 $+ 1 5 \%$ 之间
+卖出 : 股价于未来 12个月的潜在跌幅超过 $10 \%$
+未评级 : 招银国际环球市场并未给予投资评级
+# 招银国际环球市场行业投资评级
+优于大市 : 行业股价于未来12 个月预期表现跑赢大市指标
+同步大市 : 行业股价于未来12 个月预期表现与大市指标相若
+落后大市 : 行业股价于未来 12 个月预期表现跑输大市指标
+招银国际环球市场有限公司
+地址: 香港中环花园道 3号冠君大厦 45楼
+电话: (852) 3900 0888
+传真: (852) 3900 0800
+招银国际环球市场有限公司(“招银国际环球市场”)为招银国际金融有限公司之全资附属公司 (招银国际金融有限公司为招商银行之全资附属公司)
+# 重要披露
+本报告内所提及的任何投资都可能涉及相当大的风险。报告所载数据可能不适合所有投资者。招银国际环球市场不提供任何针对个人的投资建议。本报告没有把任何人的投资目标、财务状况和特殊需求考虑进去。而过去的表现亦不代表未来的表现，实际情况可能和报告中所载的大不相同。本报告中所提及的投资价值或回报存在不确定性及难以保证，并可能会受目标资产表现以及其他市场因素影响。招银国际环球市场建议投资者应该独立评估投资和策略，并鼓励投资者咨询专业财务顾问以便作出投资决定。
+本报告包含的任何信息由招银国际环球市场编写，仅为本公司及其关联机构的特定客户和其他专业人士提供的参考数据。报告中的信息或所表达的意见皆不可作为或被视为证券出售要约或证券买卖的邀请，亦不构成任何投资、法律、会计或税务方面的最终操作建议，本公司及其雇员不就报告中的内容对最终操作建议作出任何担保。我们不对因依赖本报告所载资料采取任何行动而引致之任何直接或间接的错误、疏忽、违约、不谨慎或各类损失或损害承担任何的法律责任。任何使用本报告信息所作的投资决定完全由投资者自己承担风险。
+本报告基于我们认为可靠且已经公开的信息，我们力求但不担保这些信息的准确性、有效性和完整性。本报告中的资料、意见、预测均反映报告初次公开发布时的判断，可能会随时调整，且不承诺作出任何相关变更的通知。本公司可发布其它与本报告所载资料及/或结论不一致的报告。这些报告均反映报告编写时不同的假设、观点及分析方法。客户应该小心注意本报告中所提及的前瞻性预测和实际情况可能有显着区别，唯我们已合理、谨慎地确保预测所用的假设基础是公平、合理。招银国际环球市场可能采取与报告中建议及/或观点不一致的立场或投资决定。
+本公司或其附属关联机构可能持有报告中提到的公司所发行的证券头寸并不时自行及/或代表其客户进行交易或持有该等证券的权益，还可能与这些公司具有其他投资银行相关业务联系。因此，投资者应注意本报告可能存在的客观性及利益冲突的情况，本公司将不会承担任何责任。本报告版权仅为本公司所有，任何机构或个人于未经本公司书面授权的情况下，不得以任何形式翻版、复制、转售、转发及或向特定读者以外的人士传阅，否则有可能触犯相关证券法规。
+如需索取更多有关证券的信息，请与我们联络。
+对于接收此份报告的英国投资者
+本报告仅提供给符合(I)不时修订之英国 2000 年金融服务及市场法令 2005 年(金融推广)令(“金融服务令”)第 19(5) 条之人士及(II) 属金融服务令第 49(2) (a) 至(d) 条(高净值公司或非公司社团等)之机构人士，未经招银国际环球市场书面授权不得提供给其他任何人。
+对于接收此份报告的美国投资者
+招银国际环球市场不是在美国的注册经纪交易商。因此，招银国际环球市场不受美国就有关研究报告准备和研究分析员独立性的规则的约束。负责撰写本报告的全部或部分内容之分析员，未在美国金融业监管局（“ FINRA”）注册或获得研究分析师的资格。分析员不受旨在确保分析师不受可能影响研究报告可靠性的潜在利益冲突的相关FINRA规则的限制。本报告仅提供给美国 1934年证券交易法 (经修订) 规则 15a-6定义的 “主要机构投资者”，不得提供给其他任何个人。接收本报告之行为即表明同意接受协议不得将本报告分发或提供给任何其他人。接收本报告的美国收件人如想根据本报告中提供的信息进行任何买卖证券交易，都应仅通过美国注册的经纪交易商来进行交易。
+对于在新加坡的收件人
+本报告由 CMBI (Singapore) Pte. Limited （CMBISG）（公司注册号 201731928D）在新加坡分发。CMBISG 是在《财务顾问法案》（新加坡法例第 110 章）下所界定，并由新加坡金融管理局监管的豁免财务顾问公司。 CMBISG 可根据《财务顾问条例》第 32C 条下的安排分发其各自的外国实体，附属机构或其他外国研究机构篇制的报告。 如果报告在新加坡分发给非《证券与期货法案》（新加坡法例第 289 章）所定义的认可投资者，专家投资者或机构投资者，则 CMBISG仅会在法律要求的范围内对这些人士就报告内容承担法律责任。 新加坡的收件人应致电（+65 6350 4400）联系 CMBISG，以了解由本报告引起或与之相关的事。</t>
+  </si>
+  <si>
+    <t># 港股市场策略周报
+2026.01.26-2026.02.01
+分析师： 蒋开来
+中央编号： BWL381
+联系电话： 852-6430 1060
+邮箱： jiangkl@cnzsqh.hk
+# 港股市场策略周报 - 投资要点
+# 港股市场表现回顾：
+n 本周港股主要指数整体上涨，资金大幅流入能源、地产、金融板块。本周恒生综指/恒生指数/恒生科技分别 $+ 1 . 7 8 \%$ $+ 2 . 3 8 \% / - 1 . 3 8 \%$ 。本周市场一级行业板块中8个行业上涨、4个行业下跌，能源、地产建筑、金融业涨幅居前，分别上涨7.44%、5.71%、5.3%。本周整体情况为：大盘、价值股表现占优，成长股次优，科技股表现较弱。  
+n 截至本周末，恒生综指的5年PE（TTM）估值分位点为 $9 0 . 3 8 \%$ ，估值水平接近5年均值向上两个标准差。
+# $\bigcirc$ 港股市场宏观环境：
+n 基本面：1月三大PMI数据跌落荣枯线；12月工业企业利润实现“V型反转”，利润率大幅提升为核心驱动力。  
+n 资金面：美联储1月议息会议维持利率不变，前美联储鹰派理事沃什被提名为新美联储主席；南向资金净流入27.08亿港元，环比减少208.15亿港元。
+# 港股市场展望：
+n 基本面：国内经济仍处于筑底期，经济数据表现有所修复；政策面：科技创新和扩大内需是后续政策重点；资金面：南向资金持续净流入，但环比大幅减少；情绪面：沃什过往政策立场偏鹰，港股短期悲观情绪蔓延。  
+n 板块配置方面，我们看好行业相对景气且受益于政策利好的新能源、创新药、AI科技等；业绩和股价稳健且受益于政策利好的低估值国央企红利板块；基本面相对独立且受益于降息周期的香港本地银行、电信及公用事业红利股。
+![](images/4e387997d35a8ffa36c81effa2e4c730b3583221f72e06f9373ab8d7d47cf187.jpg)
+# 目录
+港股市场表现回顾  
+港股市场估值水平  
+港股市场回购统计   
+港股市场宏观环境跟踪与展望
+![](images/5e5d5ecc08e1ef7c3c035d78676ac449810ae347f88e170d5ab66225067724a7.jpg)
+# 港股市场表现回顾
+# 港股市场表现回顾
+# l 港股市场本周走势回顾
+n 本周港股主要指数整体上涨，资金大幅流入能源、地产、金融板块。  
+n 本周整体情况为：大盘、价值股表现占优，成长股次优，科技股表现较弱。  
+n 本周恒生综指/恒生指数/恒生科技分别 $+ 1 . 7 8 \%$ $+ 2 . 3 8 \% / - 1 . 3 8 \%$ 。
+# $\bullet$ 行业本周走势回顾
+n 本周市场一级行业板块中8个行业上涨、4个行业下跌，能源、地产建筑、金融业涨幅居前，分别上涨7.44%、5.71%、5.3%。  
+n 上周，美国对伊朗潜在打击传闻加剧市场对中东供应中断的担忧，推动原油价格连续攀升，带动上游油气开采及能源设备类股票表现。
+![](images/fc4f7a906679d0ead7009aa246617c035b971003397ee853fbcbf3d59c41abd1.jpg)
+![](images/aa3bd107e55db4d4136f9623a52875bce95e36d794d1004a00727d1fbfc6f7cb.jpg)
+![](images/fe646e82ccf037e8ea498c6a06cf6fc16df82b71e337dbf4f8f0c1151d50377f.jpg)
+# 港股市场估值水平
+# 港股市场重要指数估值-恒生综合指数（HSCI）
+![](images/843af2018ceb8046dafa479ce1a0b882848bb9b99e2424abac0e2a5d48867232.jpg)  
+恒生综合指数HSCI.HI4123.78-1.72%|历史PE/PB
+# 港股市场重要指数估值-恒生综合指数（HSCI）
+![](images/21ce66828e3cbc4591e7d1af1ae8642dc5c79771f7de65f077ad4bf421a8613e.jpg)  
+恒生综合指数HSCI.HI4127.35-1.64%历史PE/PB
+![](images/456ec84b8bff03d073b9a02e4519682e1508d44783f548bcf436e16424c0e350.jpg)
+# 港股市场回购统计
+# 港股市场回购周统计数据（2026.01.26-2026.02.01）
+# l 周回购数据总汇
+n 本周回购市场热度较上周升温。  
+n 市场回购公司数量本周56家，较上周减少8家。  
+n 总回购金额本周为11.15亿港元，较上周减少9.77亿。
+# 回购金额前十大公司统计
+n 本周小米集团-W（1810.HK）排在第一，本周回购2.90亿港元。  
+n 本周吉利汽车（0175.HK）回购2.73亿港元，排在第二。  
+n 本周舜宇光学科技（2382.HK）回购金额排在第三，达到1.96亿港元。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;期间回购金额 (万港元)&lt;/td&gt;&lt;td&gt;期间回购数量 (万股)&lt;/td&gt;&lt;td&gt;回购数量占 总股本比例&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1810.HK&lt;/td&gt;&lt;td&gt;小米集团-W&lt;/td&gt;&lt;td&gt;29,019.63&lt;/td&gt;&lt;td&gt;818.72&lt;/td&gt;&lt;td&gt;0.03%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0175.HK&lt;/td&gt;&lt;td&gt;吉利汽车&lt;/td&gt;&lt;td&gt;27,314.31&lt;/td&gt;&lt;td&gt;1,645.50&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2382.HK&lt;/td&gt;&lt;td&gt;舜宇光学科技&lt;/td&gt;&lt;td&gt;19,595.36&lt;/td&gt;&lt;td&gt;312.00&lt;/td&gt;&lt;td&gt;0.28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9987.HK&lt;/td&gt;&lt;td&gt;百胜中国&lt;/td&gt;&lt;td&gt;3,860.25&lt;/td&gt;&lt;td&gt;9.91&lt;/td&gt;&lt;td&gt;0.03%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6098.HK&lt;/td&gt;&lt;td&gt;碧桂园服务&lt;/td&gt;&lt;td&gt;3,692.43&lt;/td&gt;&lt;td&gt;590.40&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2431.HK&lt;/td&gt;&lt;td&gt;佑驾创新&lt;/td&gt;&lt;td&gt;3,496.67&lt;/td&gt;&lt;td&gt;200.64&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0345.HK&lt;/td&gt;&lt;td&gt;维他奶国际&lt;/td&gt;&lt;td&gt;2,624.60&lt;/td&gt;&lt;td&gt;376.20&lt;/td&gt;&lt;td&gt;0.36%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1618.HK&lt;/td&gt;&lt;td&gt;中国中冶&lt;/td&gt;&lt;td&gt;2,402.16&lt;/td&gt;&lt;td&gt;1,277.20&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0697.HK&lt;/td&gt;&lt;td&gt;首程控股&lt;/td&gt;&lt;td&gt;1,912.48&lt;/td&gt;&lt;td&gt;930.00&lt;/td&gt;&lt;td&gt;0.11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9666.HK&lt;/td&gt;&lt;td&gt;金科服务&lt;/td&gt;&lt;td&gt;1,592.07&lt;/td&gt;&lt;td&gt;183.22&lt;/td&gt;&lt;td&gt;0.31%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 港股市场回购周统计数据（2026.01.26-2026.02.01）
+# l 分行业周回购统计数据
+n 从回购金额的行业分布来看：
+$\spadesuit$ 期间回购金额主要集中在信息技术行业，金额达5.73亿港元。  
+$\spadesuit$ 其余行业的回购金额相对较少。
+n 从回购公司数量的行业分布来看：
+$\spadesuit$ 本周信息技术行业回购公司数量最多，有16家公司发起回购。  
+$\spadesuit$ 可选消费行业排在第二，有12家公司进行回购。  
+$\spadesuit$ 医疗保健行业排在第三，有11家公司进行了回购。
+![](images/4f3f9c922a7e4b744bfbbccbaebc2e65bdf02b9d344b9da8629836326317f2bf.jpg)
+![](images/af0f1629e94288e26f9e74c612e6197de2ac2506d22c0f8fe4db980557583355.jpg)
+![](images/943a56c8856ac6d10e2bfafe1de975e684fc35f616c2e07213b5bc1d87aa6790.jpg)
+# 南向资金统计
+# 港股通本周前十大净买入公司（2026.01.26-2026.02.01）
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;港股通持股变动数&lt;/td&gt;&lt;td&gt;净买入金额(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;9992.HK&lt;/td&gt;&lt;td&gt;泡泡玛特&lt;/td&gt;&lt;td&gt;可选消费&lt;/td&gt;&lt;td&gt;13440803&lt;/td&gt;&lt;td&gt;30.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;4621172&lt;/td&gt;&lt;td&gt;28.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;1810.HK&lt;/td&gt;&lt;td&gt;小米集团-W&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;49988528&lt;/td&gt;&lt;td&gt;17.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;2628.HK&lt;/td&gt;&lt;td&gt;中国人寿&lt;/td&gt;&lt;td&gt;金融&lt;/td&gt;&lt;td&gt;40357723&lt;/td&gt;&lt;td&gt;14.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;0386.HK&lt;/td&gt;&lt;td&gt;中国石油化工股份&lt;/td&gt;&lt;td&gt;能源&lt;/td&gt;&lt;td&gt;247073498&lt;/td&gt;&lt;td&gt;13.29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;1024.HK&lt;/td&gt;&lt;td&gt;快手-W&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;15662454&lt;/td&gt;&lt;td&gt;12.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;0883.HK&lt;/td&gt;&lt;td&gt;中国海洋石油&lt;/td&gt;&lt;td&gt;能源&lt;/td&gt;&lt;td&gt;47920244&lt;/td&gt;&lt;td&gt;11.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;6869.HK&lt;/td&gt;&lt;td&gt;长飞光纤光缆&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;10494121&lt;/td&gt;&lt;td&gt;8.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;9626.HK&lt;/td&gt;&lt;td&gt;哔哩哔哩-W&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;3080356&lt;/td&gt;&lt;td&gt;8.41&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;1109.HK&lt;/td&gt;&lt;td&gt;华润置地&lt;/td&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;24691953&lt;/td&gt;&lt;td&gt;7.58&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 港股通本周前十大净卖出公司（2026.01.26-2026.02.01）
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;港股通持股变动数&lt;/td&gt;&lt;td&gt;净买入金额(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;2800.HK&lt;/td&gt;&lt;td&gt;盈富基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-198935334&lt;/td&gt;&lt;td&gt;-54.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;0941.HK&lt;/td&gt;&lt;td&gt;中国移动&lt;/td&gt;&lt;td&gt;电信服务&lt;/td&gt;&lt;td&gt;-57443236&lt;/td&gt;&lt;td&gt;-45.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;2899.HK&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;材料&lt;/td&gt;&lt;td&gt;-54640296&lt;/td&gt;&lt;td&gt;-22.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;2828.HK&lt;/td&gt;&lt;td&gt;恒生中国企业&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-19092600&lt;/td&gt;&lt;td&gt;-18.21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;可选消费&lt;/td&gt;&lt;td&gt;-9555466&lt;/td&gt;&lt;td&gt;-16.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;1378.HK&lt;/td&gt;&lt;td&gt;中国宏桥&lt;/td&gt;&lt;td&gt;材料&lt;/td&gt;&lt;td&gt;-29366378&lt;/td&gt;&lt;td&gt;-10.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;1801.HK&lt;/td&gt;&lt;td&gt;信达生物&lt;/td&gt;&lt;td&gt;医疗保健&lt;/td&gt;&lt;td&gt;-11921277&lt;/td&gt;&lt;td&gt;-9.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;0981.HK&lt;/td&gt;&lt;td&gt;中芯国际&lt;/td&gt;&lt;td&gt;信息技术&lt;/td&gt;&lt;td&gt;-9639948&lt;/td&gt;&lt;td&gt;-7.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;1530.HK&lt;/td&gt;&lt;td&gt;三生制药&lt;/td&gt;&lt;td&gt;医疗保健&lt;/td&gt;&lt;td&gt;-28203998&lt;/td&gt;&lt;td&gt;-6.57&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;1211.HK&lt;/td&gt;&lt;td&gt;比亚迪股份&lt;/td&gt;&lt;td&gt;可选消费&lt;/td&gt;&lt;td&gt;-5827098&lt;/td&gt;&lt;td&gt;-5.70&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+![](images/cdb47d18b76dc3a692ff3c17312f484440afd1be4931e1f7a6ae1075525f40c1.jpg)
+# 港股市场宏观环境跟踪与展望
+# 港股市场宏观环境跟踪 - 基本面/政策面
+l 港股市场整体盈利超80%来自于中资股，而中资股的盈利则主要来自内地。因此港股市场基本面与中国经济景气高度同步，应密切关注中国经济景气及预期变化。  
+l 从本周的重点消息和数据上观察：
+n 国家统计局数据显示，2025年，全国规模以上工业企业实现利润总额73,982.0亿元，比上年增长0.6%。  
+n 应国务院总理李强邀请，英国首相斯塔默将于1月28日至31日对中国进行正式访问。  
+n 截至2025年底，全国基本养老、失业、工伤保险参保人数分别为10.76亿人、2.49亿人、3.05亿人，分别比上年底增加316万人、329万人、102万人。全年三项社会保险基金总收入9.1万亿元、总支出8.1万亿元，年底累计结余10.2万亿元，基金运行总体平稳。  
+n 多家房企：目前已不被监管部门要求每月上报“三条红线”指标。  
+n 国家能源局发布2025年全国电力统计数据，截至2025年底，全国累计发电装机容量38.9亿千瓦，同比增长16.1%。  
+n 2025年经济增长带动税费收入增长至33.1万亿元。  
+n 2025年我国共签发普通护照2,089.7万本。  
+n 国务院国资委：将扎实做好新央企组建和战略性重组。
+# 港股市场宏观环境跟踪 - 基本面/政策面
+l 港股市场整体盈利超80%来自于中资股，而中资股的盈利则主要来自内地。因此港股市场基本面与中国经济景气高度同步，应密切关注中国经济景气及预期变化。  
+l 从本周的重点消息和数据上观察：
+n 财政部：12月份全国共销售彩票523.49亿元，下降9.1%。  
+n 中钢协：2025年中国不锈钢粗钢产量4,086.81万吨 同比增长 $3 . 6 2 \%$ 。  
+n 央行：2025年第四季度全国新发放商业性个人住房贷款加权平均利率为 $3 . 0 6 \%$ 。  
+n 工信部：2025年我国规模以上互联网和相关服务企业完成互联网业务收入20,,473亿元，同比增长1.5%。  
+n 2025年，证券交易印花税达到2,035亿元，增长 $5 7 . 8 \%$ 。  
+n 中国信通院：2025年12月国内市场手机出货量2,447.3万部，同比下降 $2 9 . 1 \%$ 。  
+n 国家统计局：2026年1月份中国制造业采购经理指数为 $4 9 . 3 \%$ ，比上月下降0.8个百分点。  
+n 外汇局：2025年中国外汇市场累计成交304.57万亿元人民币，等值42.64万亿美元。  
+n 财政部：2025年国有企业营业总收入同比增长 $0 . 5 \%$ ，利润总额同比下降 $6 . 3 \%$   
+n 香港：12月份新批出的按揭贷款额较11月份增加7.1%至312亿港元。
+# 港股市场宏观环境跟踪 资金面
+l 港股市场资金面当下仍是机构和外资主导的市场，因此我们在观察港股资金面时，需密切关注美国经济数据和美联储加息/降息动态。  
+l 从本周的重点消息和数据上观察：
+n 美国1月消费者信心指数为84.5，预期值为91.0。  
+n 美联储宣布将联邦基金利率目标区间维持在 $3 . 5 \%$ 至3.75%之间，符合市场普遍预期。  
+n 美国财长贝森特否认干预日元汇率，重申强势美元政策。  
+n 美国总统特朗普28日在社交媒体上说，一支庞大的舰队正前往伊朗，已准备好迅速履行其使命  
+n 美国11月份工厂订单增长 $2 . 7 \%$ ，市场预估为 $1 . 6 \%$ 。  
+n 美国上周初请失业金人数为20.9万人，预估20.5万人，前值由20万人修正为21万人。  
+n 美国总统特朗普：提名前美联储理事凯文·沃什担任下任美联储主席。  
+n 美国白宫经济顾问哈塞特表示，如果消费者价格指数突然上升，那么低至 $1 \%$ 的利率空间将不复存在。美联储应尽力使资产负债表尽可能精简。  
+n 鲍威尔：通胀超预期的大部分来自关税，而非需求。
+# 港股市场宏观环境跟踪 资金面
+l 港股市场资金面当下仍是机构和外资主导的市场，因此我们在观察港股资金面时，需密切关注美国经济数据和美联储加息/降息动态。  
+l 从本周的重点消息和数据上观察：
+n 众议院休会无法审议拨款法案，美联邦政府部分“停摆”。  
+n 美国白宫管理和预算办公室指示受影响机构开始执行停摆计划，美参议院通过为联邦政府大部分部门提供资金的支出法案。  
+n 截至2月1日，据CME“美联储观察”：美联储到3月降息25个基点的概率为15.3%，维持利率不变的概率为84.7%。美联储到4月累计降息25个基点的概率为29.0%，维持利率不变的概率为68.0%，累计降息50个基点的概率为3.0%。到6月累计降息25个基点的概率为49.5%。  
+n 美联储主席鲍威尔表示，美国的债务路径毫无疑问是不可持续的。  
+n 美联储官员穆萨莱姆：此时降低利率是不明智的。  
+n 特朗普再次表态：将与古巴达成协议。  
+n 特朗普称就格陵兰岛的谈判即将达成一致。  
+n 特朗普威胁对加拿大飞机加征 $50 \%$ 关税，将暂停认证所有加制飞机。  
+n 密歇根大学调查显示1年期通胀率预期为 $4 . 0 \%$ ，初值为 $4 . 2 \%$ 。
+# 港股市场周度总结与展望
+l 基本面：1月制造业、非制造业、综合PMI数据跌落荣枯线，反映经济活动的季节性回落。12月工业企业利润实现“V型反转”，利润率大幅提升为核心驱动力。2025年全年工业企业利润同比增速三年来首次转正，反映盈利修复向好的趋势。
+n 1月制造业PMI为49.3，上月前值为50.1，表现弱于市场预期的50.2。1月非制造业PMI为49.4，上月前值为50.2，环比下降0.8。1月综合PMI为49.8，上月前值为50.7。三大指数均回落至收缩区间，反映我国经济景气水平有所回落。受益于大宗商品提价、反内卷政策持续深化等因素，价格层面数据表现较为亮眼。PMI指数在12月短暂回到扩张区间后，1月再度回落至荣枯线以下，体现经济复苏动能整体仍不足，存在“脉冲-增长-回落”的特征。  
+n 2025年12月工业企业利润同比 $+ 5 . 3 \%$ ，较前值的-13.1%明显回升。2025年全年，工业企业利润同比增长0.6%，自2022年以来首次转正，较2024年前值回升3.9%。企业营收1-12月累计同比增速为1.1%，略低于前月，12月当月同比减少 $3 . 2 \%$ ，跌幅进一步扩大。
+l 资金面：美联储1月议息会议维持利率不变，前美联储鹰派理事沃什被提名为新美联储主席；南向资金净流入27.08亿港元，环比减少208.15亿港元。
+n 美联储1月议息会议将基准利率维持不变，保持在3.5%-3.75%，符合市场预期。关于后续降息路径，FOMC声明表态偏鹰，Powell新闻发布会表述中性偏鸽。前美联储理事沃什被特朗普提名为新美联储主席，其过往政策取向偏鹰，主张缩表并强化美元，全球资产”弱美元”叙事中断，黄金、白银、美股等资产跌幅明显。  
+n 本周南向资金合计成交净流入27.08亿港元，较上周净流入额减少208.15亿港元。南向资金大幅净买入：泡泡玛特、腾讯控股、小米集团-W、中国人寿、中国石油化工。
+港股市场展望：
+n 基本面：国内经济仍处于筑底期，经济数据表现有所修复；政策面：科技创新和扩大内需是后续政策重点；资金面：南向资金持续净流入，但环比大幅减少；情绪面：沃什过往政策立场偏鹰，港股短期悲观情绪蔓延。  
+n 板块配置方面，我们看好行业相对景气且受益于政策利好的新能源、创新药、AI科技等；业绩和股价稳健且受益于政策利好的低估值国央企红利板块；基本面相对独立且受益于降息周期的香港本地银行、电信及公用事业红利股。
+# 免责声明
+所有投资均涉及风险，本演示文稿仅作培训用途，并不构成购买或认购任何投资产品的邀请或要约。此演示文稿的内容和信息乃从可靠来源搜集，浙商国际金融控股有限公司(“浙商国际”)并不保证其准确性、完整性或者正确性。浙商国际亦不会对任何人士因倚赖此演示文稿全部或任何部分内容而引致的任何损失负上任何责任。
+本演示文稿版权仅为本公司及其关联机构所有，任何机构或个人于未经本公司或其关联机构书面授权的情况下，不得以任何形式翻版、复制、转售、转发及或向特定读者以外的人士传阅，否则有可能触犯相关法规。</t>
+  </si>
+  <si>
+    <t># 美国策略 US Strategy
+# 海外宏观策略：宏观预期差为投机情绪降温
+# Overseas Macro Strategy: Discrepancies in Macro Expectations Cool Speculative Sentiment
+刘念芸 Nianyun Liu
+李加惠 Jiahui Li, CFA
+ny.liu@htisec.com
+jh.li@htisec.com
+![](images/ec963b1947b56fa052d6c46abf0fb6ea7e880d6c9a24c761e06ea4ea3114f0e0.jpg)
+# [Table_yemei1] 观点聚焦 Investment Focus
+[(Table_summary] Please see APPENDIX 1 for English summary)
+# 一、宏观经济边际变化
+最新公布的数据显示，1 月份消费信心指数大幅下滑 9.7 至 84.5，远低于市场预期的 91。11 月贸易数据回归常态，整体贸易逆差仍明显扩大，资本品进口增长 $7 . 9 \%$ ，以计算机和半导体为首，反应AI相关投资持续强劲。12月PPI环比 $0 . 5 \%$ ，高于预期 $0 . 2 \%$ ，表明企业正在将关税成本向下游传导，通胀压力仍存。
+# 二、政策利率预期
+1月FOMC会议，美联储按兵不动，维持基准利率在 $3 . 5 \% - 3 . 7 5 \%$ ，符合预期，维持每月400亿美元扩表。从鲍威尔的表述上看，经济方面，将温和改为更稳健地扩张，体现对经济前景的更加积极的预期；就业方面，虽降温但处于相对稳定的平衡状态，通胀方面，仍处于较高水平。
+# 三、沃什的政策主张、潜在影响及调整阻力
+特朗普正式提名沃什为美联储新一任主席，相对鹰派，其核心主张为降息、缩表，并认为通胀是一种选择，AI 对生产力的提升有助于抑制通胀。一方面，沃什支持降息，并不担心通胀，说明降息还有空间；另一方面，沃什主张缩表，强调美联储回归原本角色。但这一观点可能受制于短期流动性，亦受限于中期选举的压力。市场真正担心的并非缩表本身而是货币政策思路的转变。
+# 四、资产启示
+美股：在缩表预期下，科技股领跌，一月底集中发布四季报的美股科技股中，头部个股分化显著，其中微软股价下跌 $1 1 \%$ ，而 Meta 股价大涨近 $10 \%$ 。值得注意的是，本轮 AI 行情中，头部公司资本开支的融资来源更依赖于内生性现金流。科技股独立于政策波动的基本面逻辑，可以波动后逢低再买入。待宽松预期重启，周期有追赶机会，当日流动性引发大盘与小盘相对收益反转。
+美债：利率曲线陡峭化，长债或有交易性机会。在降息趋势中，中短期债券利率下行相对确定，长端和超长端虽然存在通胀、财政风险、去美元化等担忧因素，但美元资产仍是全球主导性资产，暂无其它大体量资产可替代。沃什支持降息，将使得短端利率下降，同时主张缩表，美联储卖出长债可能会通过推高期限溢价导致长端利率走高，使得利率曲线陡峭化。待宽松预期重启，仍有助于给传统需求提供修复动力，长债有交易性机会。
+黄金：回吐降息预期，市场巨震，回调或提供买入时点。黄金受益于美联储重启宽松预期、美元信誉下降、全球地缘政治风险持续上涨，由于美联储和美国经济尚未出现拐点，黄金的牛市或将持续。我们认为中长期维持超配。
+美元：受国家安全战略调整或导致下行趋势，流动性担忧带动短期反弹。地缘风险仍会在未来不断发酵，我们认为格林兰岛事件只是美国国家安全战略调整的一个缩影，美元资产持有者会进一步对冲汇率敞口，并造成美元更深度的下行。
+风险提示：政治与地缘风险，经济增长不及预期。
+# 一、宏观经济边际变化
+最新公布的数据显示，1）1 月份消费信心指数大幅下滑 9.7 至 84.5，创 2014年以来最低水平，远低于市场预期的 91。2）延迟发布的 11 月贸易数据回归常态，整体贸易逆差仍明显扩大，资本品进口增长 $7 . 9 \%$ ，以计算机和半导体为首，反应 AI 相关投资持续强劲。3）美国 12 月 PPI 环比上升 $0 . 5 \%$ ，为三个月来最大增幅，高于市场预期 $0 . 2 \%$ ，表明企业正在将关税成本向下游传导，通胀压力仍存。PPI同比 $3 . 0 \%$ ，核心 $3 . 3 \%$ ，均高于预期（ $2 . 8 \%$ ， $2 . 9 \%$ ），表明美国通胀链条仍在传导中。
+# 二、政策利率预期
+1 月 FOMC 会议，美联储按兵不动，维持基准利率在 $3 . 5 \% - 3 . 7 5 \%$ ，符合预期，维持每月 400 亿美元扩表。从鲍威尔的表述上看，1）经济方面，将温和改为更稳健地扩张，体现对经济前景的更加积极的预期；2）就业方面，虽降温但处于相对稳定的平衡状态，认为就业增长的放缓来源于移民政策的收紧带来的劳动力供给减少；3）通胀方面，仍处于较高水平，主要源于商品通胀而非服务通胀。我们预计美联储 2026 年有望降息2-3 次，50-75bp，节奏或推迟。
+图 1：会后对年内首次降息的时点预期维持不变  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="8"&gt;CME FEDWATCH TOOL - CONDITIONAL MEETING PROBABILITIES&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MEETING DATE&lt;/td&gt;&lt;td&gt;225-260&lt;/td&gt;&lt;td&gt;250-275&lt;/td&gt;&lt;td&gt;275-300&lt;/td&gt;&lt;td&gt;300-325&lt;/td&gt;&lt;td&gt;325-350&lt;/td&gt;&lt;td&gt;350-375&lt;/td&gt;&lt;td&gt;375-400&lt;/td&gt;&lt;td&gt;400-425&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/3/18&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;13.5%&lt;/td&gt;&lt;td&gt;86.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/4/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;24.1%&lt;/td&gt;&lt;td&gt;74.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/6/17&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;47.5%&lt;/td&gt;&lt;td&gt;39.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/7/29&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;4.6%&lt;/td&gt;&lt;td&gt;23.6%&lt;/td&gt;&lt;td&gt;44.8%&lt;/td&gt;&lt;td&gt;26.7%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/9/16&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;11.9%&lt;/td&gt;&lt;td&gt;31.7%&lt;/td&gt;&lt;td&gt;37.9%&lt;/td&gt;&lt;td&gt;16.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/10/28&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;td&gt;19.6%&lt;/td&gt;&lt;td&gt;34.1%&lt;/td&gt;&lt;td&gt;29.6%&lt;/td&gt;&lt;td&gt;10.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/12/9&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;20.3%&lt;/td&gt;&lt;td&gt;33.9%&lt;/td&gt;&lt;td&gt;28.6%&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/1/27&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;20.2%&lt;/td&gt;&lt;td&gt;33.7%&lt;/td&gt;&lt;td&gt;28.6%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/3/17&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;20.2%&lt;/td&gt;&lt;td&gt;33.7%&lt;/td&gt;&lt;td&gt;28.6%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/4/28&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;20.0%&lt;/td&gt;&lt;td&gt;33.6%&lt;/td&gt;&lt;td&gt;28.7%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/6/9&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;5.5%&lt;/td&gt;&lt;td&gt;17.7%&lt;/td&gt;&lt;td&gt;31.3%&lt;/td&gt;&lt;td&gt;29.5%&lt;/td&gt;&lt;td&gt;13.2%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/7/28&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;5.1%&lt;/td&gt;&lt;td&gt;16.6%&lt;/td&gt;&lt;td&gt;30.1%&lt;/td&gt;&lt;td&gt;29.7%&lt;/td&gt;&lt;td&gt;14.6%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/9/15&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;16.5%&lt;/td&gt;&lt;td&gt;29.9%&lt;/td&gt;&lt;td&gt;29.7%&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/10/27&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;4.6%&lt;/td&gt;&lt;td&gt;15.4%&lt;/td&gt;&lt;td&gt;28.7%&lt;/td&gt;&lt;td&gt;29.7%&lt;/td&gt;&lt;td&gt;16.1%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2027/12/8&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;16.2%&lt;/td&gt;&lt;td&gt;28.8%&lt;/td&gt;&lt;td&gt;29.0%&lt;/td&gt;&lt;td&gt;15.5%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：海通国际
+# 三、沃什的政策主张、潜在影响及调整阻力
+特朗普正式提名沃什为美联储新一任主席，相对鹰派，其核心主张：降息、缩表，认为通胀是一种选择，AI 对生产力的提升有助于抑制通胀。一方面，沃什支持降息，并不担心通胀，说明降息还有空间；另一方面，沃什主张缩表，相对哈塞特、沃勒等其它候选人更加鹰派，即回归传统，强调美联储的纪律。并主张不应用美联储的资产负债表来实现金融的扩张，而要实现金融的一致性。降息应当建立在以通胀预期为目标，央行资产负债表被管理、以及财政受到约束的基础上，共同创造持续的降息空间，使中长期利率下行。但这一观点可能受制于短期流动性，亦受限于中期选举的压力。市场真正担心的并非缩表本身而是货币政策思路的转变。
+# 四、资产启示
+# 美股：盈利增长引领市场上行，估值高位容易引发行情动荡
+1）缩表预期下，当天科技股领跌，一月底集中发布四季报的美股科技股中，头部个股分化显著，其中微软股价下跌 $1 1 \%$ ，而 Meta 股价大涨近 $10 \%$ ，显示投资者对科技巨头 AI 的投资回报的诉求。人工智能相关资本开支仍在增加，整体盈利增长保持强劲。内生降本已经兑现，外延需求仍待突破，对经济拉动作用较互联网泡沫时期更强。当前美国经济正处在一个狭窄的增长轨道上，AI 热潮不仅支撑了美股和家庭财富，也掩盖了美国经济其它部分的周期性疲软。11 月美国耐用品订单强劲反弹，企业投资在第四季度继续保持韧性，AI相关信息处理设备投资整体保持强劲，预计 AI 驱动的资本开支将继续成为2026 年企业投资的核心增长动力。值得注意的是，本轮 AI 行情中，头部公司资本开支的融资来源更依赖于内生性现金流，相较于互联网时期，资本占收比显著提高。
+图 2：头部公司资本开支的融资来源更依赖于内生性现金流  
+![](images/0089f969708c4faf9844c25757b0590831c7292297607447b16427f6476136d9.jpg)  
+数据来源：海通国际
+科技股独立于政策波动的基本面逻辑，可以波动后逢低再买入。中期选举之前有可能向美国民众发放关税红利，以及美股上涨所带来的财富效应亦有助于提振消费支出。2）与过去三个美联储降息周期——包括互联网泡沫破灭、全球金融危机以及新冠疫情爆发时期不同，本轮降息并非出于恐慌托底，而是逐步回归中性水平。因此，当前估值维持在高位是有合理支撑的。同时，美国金融状况指数显示当前环境仍偏宽松。相比较其他 G10 央行的态度，美联储仍将维持降息节奏。估值或继续接近历史高位。3）待宽松预期重启，有助于给传统需求提供修复动力，周期有追赶机会，当日流动性引发大盘与小盘相对收益反转。
+图 3：2025 年以来盈利增长带动美股上涨，周期追赶成长图 4：经济扩张与非恐慌式降息周期支撑高估值  
+![](images/f52ca8eb02cb3d707b5d7fad445ef242b8136f374882a15f1efcdf53721515c3.jpg)  
+数据来源：海通国际，数据截止 2026 年1 月 30 日
+![](images/68e0bd382f2e56d6021efc9bc0888946862f0b1f51bb306f7f9fc646fc4e8e6d.jpg)
+# 美债：利率曲线陡峭化，长债或有交易性机会
+美债在降息趋势中，中短期债券利率下行相对确定，长端和超长端虽然存在通胀、财政风险、去美元化等担忧因素，但美元资产仍是全球主导性资产，暂无其它大体量资产可替代且美国新老经济分化也在压制经济和通胀。新提名美联储主席沃什支持降息，将使得短端利率下降，将有效帮助居民和中小企业，同时主张缩表，美联储卖出长债可能会通过推高期限溢价导致长端利率走高，使得利率曲线陡峭化。待宽松预期重启，仍有助于给传统需求提供修复动力，此时长债有交易性机会。在地缘政治不确定性抬升及美元信用担忧下，投资者对美债的偏好明显回落，10Y 美债利率中枢或有明显抬升。上端利率与美元汇率的短暂分化，意味着长端利率的上行反映了某种程度的风险溢价，而非经济基本面。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;彭博统计中值*&lt;/td&gt;&lt;td&gt;1Q26&lt;/td&gt;&lt;td&gt;2Q26&lt;/td&gt;&lt;td&gt;3Q26&lt;/td&gt;&lt;td&gt;4Q26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2年美债收益率&lt;/td&gt;&lt;td&gt;3.44&lt;/td&gt;&lt;td&gt;3.38&lt;/td&gt;&lt;td&gt;3.34&lt;/td&gt;&lt;td&gt;3.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10年美债收益率&lt;/td&gt;&lt;td&gt;4.05&lt;/td&gt;&lt;td&gt;4.04&lt;/td&gt;&lt;td&gt;4.04&lt;/td&gt;&lt;td&gt;4.06&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图 5：境外投资者增持部分更多来自私人部门，官方部门整体对美债减持  
+![](images/6abad25e80c6c65bb756d6ec276112d5f4e2d0d8154a0908e01712cc7abff958.jpg)  
+数据来源：彭博，海通国际
+![](images/3779f15faa9c6303ebd392bcc565dd8026b4c643d9f143372b797a51c3ad6359.jpg)
+# 黄金：资产回吐降息预期，市场巨震，回调或提供买入时点
+黄金受益于美联储重启宽松预期、美元信誉下降、全球地缘政治风险持续上涨，黄金开年以来，一个月内涨超 $2 5 \%$ ，1 月 30 日一天之内暴跌逾 $10 \%$ 。由于美联储和美国经济尚未出现拐点，黄金的牛市或将持续。大幅波动主要由于前期市场投机交易处于过热当中，宏观层面的预期差为市场情绪提供了一个降温的契机，一月底以来 COMEX 黄金和白银期货的 RSI 指数均已处于70 以上的超买区间。市场认为沃什属于更加稳健的鸽派，因此导致部分资产回吐降息预期，黄金白银等估值已经偏贵，仓位较拥挤，首当其冲受到影响。我们认为中长期维持超配，并建议关注受益于外溢效应的白银、铜等商品，前期涨幅过大，近期大幅回撤或提供买入时点。
+图 6：黄金、白银价格近期同步迅速上涨,并于 1 月 30日巨震  
+![](images/8396ebb3f918625670355b1a7e56d21516681fdcc4fa247bbaeaaf5e7734599d.jpg)  
+数据来源：海通国际，数据截止 2026 年1 月 30 日
+![](images/f40b319556b4b4fe83569048efa00dc768ea9cf792faf22564351f7bacb31f5c.jpg)  
+图 7：2025 年以来 COMEX 黄金处于超买区间
+# 美元：受美国国家安全战略调整或导致下行趋势，流动性担忧带动短期反弹
+近期 PCE 数据符合预期，三季度 GDP 上修至 $4 . 4 \%$ ，达拉斯联储 1 月制造业调查显示美国制造业活动正在企稳，与纽约和费城联储地区的改善趋势一致，延续了美国经济数据整体走强，美元近期的反弹可能会有所延续。地缘风险
+仍会在未来不断发酵，我们认为格林兰岛事件只是美国国家安全战略调整的一个缩影，美元资产持有者会进一步对冲汇率敞口，并造成美元更深度的下行。长期决定美元汇率最重要的因素是美国与其它国家的增长差。宏观因子角度，美元反映全球流动性松紧，全球“便宜钱”指标。新美联储主席人选沃什提名确认，由于其缩表的主张，避险资产与风险资产双双下跌，唯独美元走强，“货币贬值交易”逻辑反弹。
+图 8：美元占国际支付比例仍偏高  
+![](images/a46fda49d29ad68f6be63719f5dbd093d3ecd973d3940c62c189c9e835f20cc9.jpg)  
+数据来源：海通国际，数据截止 2026 年1 月 30 日
+![](images/810f0c324c13ceae8f76910412f37f8a60ab6a6650a6248ab0eda0130e2cd7db.jpg)  
+图 9：美指与 VIX 指数关系短暂为负
+# APPENDIX 1
+# Summary
+# Marginal Changes in Macroeconomic Indicators
+The latest data shows that the January consumer confidence index plunged by 9.7 points to 84.5, significantly below market expectations of 91. November trade figures returned to normal patterns, though the overall trade deficit continued to widen markedly. Imports of capital goods grew by $7 . 9 \% ,$ , led by computers and semiconductors, reflecting sustained robust investment in AI-related sectors. December's Producer Price Index (PPI) rose $0 . 5 \%$ month-on-month, exceeding the $0 . 2 \%$ forecast, indicating that businesses are passing on tariff costs to downstream sectors, with inflationary pressures persisting.
+# Policy Rate Expectations
+At the January FOMC meeting, the Fed held steady, maintaining the benchmark rate at $3 . 5 \% - 3 . 7 5 \%$ as expected and continuing its $\$ 40$ billion monthly balance sheet reduction. Powell's remarks reflected a more positive outlook: the economy is expanding more robustly rather than moderately; the labor market remains relatively stable despite cooling; and inflation persists at elevated levels.
+# Warsh's Policy Stance, Potential Impact, and Adjustment Resistance
+President Trump formally nominated Warsh as the next Fed Chair, a relatively hawkish figure whose core positions include advocating for rate cuts and balance sheet reduction. He views inflation as a choice and believes AI-driven productivity gains can help curb inflation. On one hand, Warsh's support for rate cuts without inflation concerns suggests room for further easing. On the other, his push for balance sheet reduction emphasizes the Fed returning to its original role. However, this stance may be constrained by shortterm liquidity pressures and midterm election dynamics. The market's true concern lies not in balance sheet reduction itself, but a potential shift in the monetary policy framework or paradigm.
+# Asset Implications
+U.S. Stocks: Amid balance sheet reduction expectations, tech stocks led declines. Among major U.S. tech firms reporting Q4 earnings in late January, top players showed significant divergence: Microsoft fell $1 1 \%$ while Meta surged nearly $10 \%$ . Notably, during this AIdriven rally, leading companies' capital expenditures increasingly relied on internal cash flow for financing. Tech stocks' fundamental logic, independent of policy fluctuations, suggests buying opportunities on dips after volatility. Once easing expectations resume, cyclical sectors may catch up. Day-to-day liquidity dynamics triggered a relative outperformance reversal between large- and smallcap stocks.
+U.S. Treasuries: The steepening yield curve may present trading opportunities in long-term bonds. Within a rate-cutting cycle, declines in short-to-medium term bond yields appear relatively certain. While concerns about inflation, fiscal risks, and dedollarization persist for long- and ultra-long-term bonds, U.S. dollar assets remain the dominant global asset class with no immediate large-scale alternatives. Warsh's support for rate cuts will push down short-end rates. Simultaneously, his advocacy for balance sheet reduction implies the Fed may sell long bonds, potentially raising long-end rates by increasing term premiums and steepening the yield curve. Once easing expectations resume, this could still provide repair momentum for traditional demand, creating trading opportunities in long bonds.
+Gold: Retracing rate cut expectations triggered market volatility, with pullbacks potentially presenting buying opportunities. Gold benefits from renewed Fed easing expectations, declining US dollar credibility, and escalating global geopolitical risks. As neither the Fed nor the US economy has reached an inflection point, gold's bull market may persist. We maintain an overweight position for the medium to long term.
+USD: Downward trend potentially driven by national security strategy adjustments; liquidity concerns fuel short-term rebound. Geopolitical risks will continue to escalate. We view the Greenland incident as merely a microcosm of broader U.S. national security strategy shifts. Holders of dollar assets will intensify currency hedging, potentially triggering deeper USD depreciation. Risk Warning: Political and geopolitical risks; economic growth falling short of expectations.
+# [Table_APPEND[Table_disclaime附录 APPENDIX
+# 重要信息披露
+本研究报告由海通国际分销，海通国际是由海通国际研究有限公司(HTIRL)，Haitong Securities India Private Limited (HSIPL)，Haitong International Japan K.K. (HTIJKK)和海通国际证券有限公司(HTISCL)的证券研究团队所组成的全球品牌，海通国际证券集团(HTISG)各成员分别在其许可的司法管辖区内从事证券活动。
+# IMPORTANT DISCLOSURES
+This research report is distributed by Haitong International, a global brand name for the equity research teams of Haitong International Research Limited (“HTIRL”), Haitong Securities India Private Limited (“HSIPL”), Haitong International Japan K.K. (“HTIJKK”), Haitong International Securities Company Limited (“HTISCL”), and any other members within the Haitong International Securities Group of Companies (“HTISG”), each authorized to engage in securities activities in its respective jurisdiction.
+# HTIRL 分析师认证 Analyst Certification:
+我， 刘念芸，在此保证（i）本研究报告中的意见准确反映了我们对本研究中提及的任何或所有目标公司或上市公司的个人观点，并且（ii）我的报酬中没有任何部分与本研究报告中表 达的具体建议或观点直接或间接相关；及就此报告中所讨论目标公司的证券，我们（包括我们的家属）在其中均不持有任何财务利益。我和我的家属（我已经告知他们）将不会在本研 究报告发布后的 30 个自然日内交易此研究报告所讨论目标公司的证券。I, Nianyun Liu, certify that (i) the views expressed in this research report accurately reflect my personal views about any or all of the subject companies or issuers referred to in this research and (ii) no part of my compensation was, is or will be directly or indirectly related to the specific recommendations or views expressed in this research report; and that I (including members of my household) have no financial interest in the security or securities of the subject companies discussed. I and my household, whom I have already notified of this, will not deal in or trade any securities in respect of the issuer that I review within 30 calendar days after the research report is published.
+我， 李加惠，在此保证（）本研究报告中的意见准确反映了我们对本研究中提及的任何或所有目标公司或上市公司的个人观点，并且（ ）我的报酬中没有任何部分与本研究报告中表 达的具体建议或观点直接或间接相关；及就此报告中所讨论目标公司的证券，我们（包括我们的家属）在其中均不持有任何财务利益。我和我的家属（我已经告知他们）将不会在本研 究报告发布后的 30 个自然日内交易此研究报告所讨论目标公司的证券。I, Jiahui Li, certify that (i) the views expressed in this research report accurately reflect my personal views about any or all of the subject companies or issuers referred to in this research and (ii) no part of my compensation was, is or will be directly or indirectly related to the specific recommendations or views expressed in this research report; and that I (including members of my household) have no financial interest in the security or securities of the subject companies discussed. I and my household, whom I have already notified of this, will not deal in or trade any securities in respect of the issuer that I review within 30 calendar days after the research report is published.
+# 利益冲突披露 Conflict of Interest Disclosures
+海通国际及其某些关联公司可从事投资银行业务和/或对本研究中的特定股票或公司进行做市或持有自营头寸。就本研究报告而言，以下是有关该等关系的披露事项（以下披露不能保证及时无遗漏，如需了解及时全面信息，请发邮件至 ERD-Disclosure@htisec.com）
+HTI and some of its affiliates may engage in investment banking and / or serve as a market maker or hold proprietary trading positions of certain stocks or companies in this research report. As far as this research report is concerned, the following are the disclosure matters related to such relationship (As the following disclosure does not ensure timeliness and completeness, please send an email to ERD-Disclosure@htisec.com if timely and comprehensive information is needed).
+# 评级定义（从 2020 年 7月 1日开始执行）：
+海通国际（以下简称“HTI”）采用相对评级系统来为投资者推荐我们覆盖的公司：优于大市、中性或弱于大市。投资者应仔细阅读 HTI 的评级定义。并且 HTI 发布分析师观点的完整信息，投资者应仔细阅读全文而非仅看评级。在任何情况下，分析师的评级和研究都不能作为投资建议。投资者的买卖股票的决策应基于各自情况（比如投资者的现有持仓）以及其他因素。
+# 分析师股票评级
+优于大市，未来 12-18 个月内预期相对基准指数涨幅在 10%以上，基准定义如下
+中性，未来 12-18 个月内预期相对基准指数变化不大，基准定义如下。根据 FINRA/NYSE 的评级分布规则，我们会将中性评级划入持有这一类别。
+弱于大市，未来 12-18 个月内预期相对基准指数跌幅在 10%以上，基准定义如下
+各地股票基准指数：日本 – TOPIX, 韩国 – KOSPI, 台湾 – TAIEX, 印度 – Nifty100, 美国 – SP500; 其他所有中国概念股 – MSCI China.
+# Ratings Definitions (from 1 Jul 2020):
+Haitong International uses a relative rating system using Outperform, Neutral, or Underperform for recommending the stocks we cover to investors. Investors should carefully read the definitions of all ratings used in Haitong International Research. In addition, since Haitong International Research contains more complete information concerning the analyst's views, investors should carefully read Haitong International Research, in its entirety, and not infer the contents fr om the rating alone. In any case, ratings (or research) should not be used or relied upon as investment advice. An investor's decision to buy or sell a stock should depend on individual circumstances (such as the investor's existing holdings) and other considerations.
+# Analyst Stock Ratings
+Outperform: The stock’s total return over the next 12-18 months is expected to exceed the return of its relevant broad market benchmark, as indicated below.
+Neutral: The stock’s total return over the next 12-18 months is expected to be in line with the return of its relevant broad market benchmark, as indicated below. For purposes only of FINRA/NYSE ratings distribution rules, our Neutral rating falls into a hold rating category.
+Underperform: The stock’s total return over the next 12-18 months is expected to be below the return of its relevant broad market benchmark, as indicated below.
+Benchmarks for each stock’s listed region are as follows: Japan – TOPIX, Korea – KOSPI, Taiwan – TAIEX, India – Nifty100, US – SP500; for all other China-concept stocks – MSCI China.
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;截至2025年12月31日海通国际股票研究评级分布&lt;/td&gt;&lt;td colspan="3"&gt;截至2025年9月30日海通国际股票研究评级分布&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;td&gt;优于大市&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;弱于大市&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="3"&gt;(持有)&lt;/td&gt;&lt;td colspan="2"&gt;(持有)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;海通国际股票研究覆盖率&lt;/td&gt;&lt;td&gt;93.9%&lt;/td&gt;&lt;td&gt;6.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;92.3%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;投资银行客户*&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+*在每个评级类别里投资银行客户所占的百分比。  
+上述分布中的买入，中性和卖出分别对应我们当前优于大市，中性和落后大市评级。  
+只有根据 FINRA/NYSE 的评级分布规则，我们才将中性评级划入持有这一类别。请注意在上表中不包含非评级的股票。
+# 此前的评级系统定义（直至 2020 年 6 月 30 日）：
+买入，未来 12-18 个月内预期相对基准指数涨幅在 10%以上，基准定义如下
+中性，未来 12-18 个月内预期相对基准指数变化不大，基准定义如下。根据 FINRA/NYSE 的评级分布规则，我们会将中性评级划入持有这一类别。
+卖出，未来 12-18 个月内预期相对基准指数跌幅在 10%以上，基准定义如下
+各地股票基准指数：日本 – TOPIX, 韩国 – KOSPI, 台湾 – TAIEX, 印度 – Nifty100; 其他所有中国概念股 – MSCI China.
+Haitong International Equity Research Ratings Distribution, as of December 31, 2025   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Outperform&lt;/td&gt;&lt;td&gt;Neutral(hold)&lt;/td&gt;&lt;td&gt;Underperform&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HTI Equity Research Coverage&lt;/td&gt;&lt;td&gt;93.9%&lt;/td&gt;&lt;td&gt;6.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;IB clients*&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+Haitong International Equity Research Ratings Distribution, as of September 30, 2025   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;Outperform&lt;/td&gt;&lt;td&gt;Neutral(hold)&lt;/td&gt;&lt;td&gt;Underperform&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;92.3%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+*Percentage of investment banking clients in each rating category.   
+BUY, Neutral, and SELL in the above distribution correspond to our current ratings of Outperform, Neutral, and Underperform.   
+For purposes only of FINRA/NYSE ratings distribution rules, our Neutral rating falls into a hold rating category. Please note that stocks with an NR designation are not included in the table above.
+# Previous rating system definitions (until 30 Jun 2020):
+BUY: The stock’s total return over the next 12-18 months is expected to exceed the return of its relevant broad market benchmark, as indicated below.
+NEUTRAL: The stock’s total return over the next 12-18 months is expected to be in line with the return of its relevant broad market benchmark, as indicated below. For purposes only of FINRA/NYSE ratings distribution rules, our Neutral rating falls into a hold rating category.
+SELL: The stock’s total return over the next 12-18 months is expected to be below the return of its relevant broad market benchmark, as indicated below.
+Benchmarks for each stock’s listed region are as follows: Japan – TOPIX, Korea – KOSPI, Taiwan – TAIEX, India – Nifty100; for all other China-concept stocks – MSCI China.
+海通国际非评级研究：海通国际发布计量、筛选或短篇报告，并在报告中根据估值和其他指标对股票进行排名，或者基于可能的估值倍数提出建议价格。这种排名或建议价格并非为了进行股票评级、提出目标价格或进行基本面估值，而仅供参考使用。
+Haitong International Non-Rated Research: Haitong International publishes quantitative, screening or short reports which may rank stocks according to valuation and other metrics or may suggest prices based on possible valuation multiples. Such rankings or suggested prices do not purport to be stock ratings or target prices or fundamental values and are for information only.
+海通国际 A 股覆盖：海通国际可能会就沪港通及深港通的中国 A 股进行覆盖及评级。国泰海通证券（601211.CH），海通国际于上海的母公司，也会于中国发布中国 A 股的研究报告。但是，海通国际使用与国泰海通证券不同的评级系统，所以海通国际与国泰海通证券的中国 A 股评级可能有所不同。
+Haitong International Coverage of A-Shares: Haitong International may cover and rate A-Shares that are subject to the Hong Kong Stock Connect scheme with Shanghai and Shenzhen. GUOTAI HAITONG SECURITIES (601211 CH), the ultimate parent company of HTISG based in Shanghai, covers and publishes research on these same A-Shares for distribution in mainland China. However, the rating system employed by GTHS differs from that used by HTI and as a result there may be a difference in the HTI and GTHS ratings for the same A-share stocks.
+海通国际优质 100 A 股（Q100）指数：海通国际 Q100 指数是一个包括 100 支由国泰海通证券覆盖的优质中国 A 股的计量产品。这些股票是通过基于质量的筛选过程，并结合对国泰海通证券A 股团队自下而上的研究。海通国际每季对 Q100 指数成分作出复审。
+Haitong International Quality 100 A-share (Q100) Index: HTI’s Q100 Index is a quant product that consists of 100 of the highest-quality A-shares under coverage at GTHS in Shanghai. These stocks are carefully selected through a quality-based screening process in combination with a review of the GTHS A-share team’s bottom-up research. The Q100 constituent companies are reviewed quarterly.
+盟浪义利（FIN-ESG）数据通免责声明条款：在使用盟浪义利（FIN-ESG）数据之前，请务必仔细阅读本条款并同意本声明：
+第一条 义利（ ）数据系由盟浪可持续数字科技有限责任公司（以下简称 本公司 ）基于合法取得的公开信息评估而成，本公司对信息的准确性及完整性不作任何保证。对公司的评估结果仅供参考，并不构成对任何个人或机构投资建议，也不能作为任何个人或机构购买、出售或持有相关金融产品的依据。本公司不对任何个人或机构投资者因使用本数据表述的评估结果造成的任何直接或间接损失负责。
+第二条 盟浪并不因收到此评估数据而将收件人视为客户，收件人使用此数据时应根据自身实际情况作出自我独立判断。本数据所载内容反映的是盟浪在最初发布本数据日期当日的判断，盟浪有权在不发出通知的情况下更新、修订与发出其他与本数据所载内容不一致或有不同结论的数据。除非另行说明，本数据（如财务业绩数据等）仅代表过往表现，过往的业绩表现不作为日后回报的预测。
+# 第三条
+改、复制、编译、汇编、再次编辑、改编、删减、缩写、节选、发行、出租、展览、表演、放映、广播、信息网络传播、摄制、增加图标及说明等，否则因此给盟浪或其他第三方造成损失的，由用户承担相应的赔偿责任，盟浪不承担责任。
+第四条 如本免责声明未约定，而盟浪网站平台载明的其他协议内容（如《盟浪网站用户注册协议》《盟浪网用户服务（含认证）协议》《盟浪网隐私政策》等）有约定的，则按其他
+协议的约定执行；若本免责声明与其他协议约定存在冲突或不一致的，则以本免责声明约定为准。
+SusallWave FIN-ESG Data Service Disclaimer: Please read these terms and conditions below carefully and confirm your agreement and acceptance with these terms before using SusallWave FIN-ESG Data Service.
+1. FIN-ESG Data is produced by SusallWave Digital Technology Co., Ltd. (In short, SusallWave)’s assessment based on legal publicly accessible information. SusallWave shall not be responsible for any accuracy and completeness of the information. The assessment result is for reference only. It is not for any investment advice for any individual or institution and not for basis of purchasing, selling or holding any relative financial products. We will not be liable for any direct or indirect loss of any individual or institution as a result of using SusallWave FIN-ESG Data.   
+2. SusallWave do not consider recipients as customers for receiving these data. When using the data, recipients shall make your own independent judgment according to your practical individual status. The contents of the data reflect the judgment of us only on the release day. We have right to update and amend the data and release other data that contains inconsistent contents or different conclusions without notification. Unless expressly stated, the data (e.g., financial performance data) represents past performance only and the past performance cannot be viewed as the prediction of future return.   
+3. The copyright of this data belongs to SusallWave, and we reserve all rights in accordance with the law. Without the prior written permission of our company, none of individual or institution can use these data for any profitable purpose. Besides, none of individual or institution can take actions such as amendment, replication, translation, compilation, re-editing, adaption, deletion, abbreviation, excerpts, issuance, rent, exhibition, performance, projection, broadcast, information network transmission, shooting, adding icons and instructions. If any loss of SusallWave or any third-party is caused by those actions, users shall bear the corresponding compensation liability. SusallWave shall not be responsible for any loss.   
+4. If any term is not contained in this disclaimer but written in other agreements on our website (e.g. User Registration Protocol of SusallWave Website, User Service (including authentication) Agreement of SusallWave Website, Privacy Policy of Susallwave Website), it should be executed according to other agreements. If there is any difference between this disclaim and other agreements, this disclaimer shall be applied.
+# 重要免责声明：
+非印度证券的研究报告：本报告由海通国际证券集团有限公司（ ）的全资附属公司海通国际研究有限公司（ ）发行，该公司是根据香港证券及期货条例（第 章）持有第 4 类受规管活动（就证券提供意见）的持牌法团。该研究报告在 HTISGL 的全资附属公司 Haitong International (Japan) K.K.（“HTIJKK”）的协助下发行，HTIJKK 是由日本关东财务局监管为投资顾问。
+印度证券的研究报告：本报告由从事证券交易、投资银行及证券分析及受 Securities and Exchange Board of India $( \prime \prime \mathsf { S E B } | \prime \prime$ ）监管的 Haitong Securities India Private Limited（“HTSIPL”）所发行，包括制作及发布涵盖 BSE Limited（“BSE”）和 National Stock Exchange of India Limited（“NSE”）上市公司（统称为「印度交易所」）的研究报告。HTSIPL 于 2016 年 12 月 22 日被收购并成为海通国际证券集团有限公司（“HTISG”）的一部分。
+所有研究报告均以海通国际为名作为全球品牌，经许可由海通国际证券股份有限公司及 或海通国际证券集团的其他成员在其司法管辖区发布。
+本文件所载信息和观点已被编译或源自可靠来源，但 、 或任何其他属于海通国际证券集团有限公司（ ）的成员对其准确性、完整性和正确性不做任何明示或暗示的声明或保证。本文件中所有观点均截至本报告日期，如有更改，恕不另行通知。本文件仅供参考使用。文件中提及的任何公司或其股票的说明并非意图展示完整的内容，本文件并非/不应被解释为对证券买卖的明示或暗示地出价或征价。在某些司法管辖区，本文件中提及的证券可能无法进行买卖。如果投资产品以投资者本国货币以外的币种进行计价，则汇率变化可能会对投资产生不利影响。过去的表现并不一定代表将来的结果。某些特定交易，包括设计金融衍生工具的，有产生重大风险的可能性，因此并不适合所有的投资者。您还应认识到本文件中的建议并非为您量身定制。分析师并未考虑到您自身的财务情况，如您的财务状况和风险偏好。因此您必须自行分析并在适用的情况下咨询自己的法律、税收、会计、金融和其他方面的专业顾问，以期在投资之前评估该项建议是否适合于您。若由于使用本文件所载的材料而产生任何直接或间接的损失，HTISG 及其董事、雇员或代理人对此均不承担任何责任。
+除对本文内容承担责任的分析师除外， 及我们的关联公司、高级管理人员、董事和雇员，均可不时作为主事人就本文件所述的任何证券或衍生品持有长仓或短仓以及进行买卖。HTISG 的销售员、交易员和其他专业人士均可向 HTISG 的相关客户和公司提供与本文件所述意见相反的口头或书面市场评论意见或交易策略。HTISG 可做出与本文件所述建议或意见不一致的投资决策。但 HTIRL 没有义务来确保本文件的收件人了解到该等交易决定、思路或建议。
+请访问海通国际网站www.equities.htisec.com，查阅更多有关海通国际为预防和避免利益冲突设立的组织和行政安排的内容信息。
+非美国分析师披露信息：本项研究首页上列明的海通国际分析师并未在 FINRA 进行注册或者取得相应的资格，并且不受美国FINRA有关与本项研究目标公司进行沟通、公开露面和自营证券交易的第 2241 条规则之限制。
+# IMPORTANT DISCLAIMER
+For research reports on non-Indian securities: The research report is issued by Haitong International Research Limited (“HTIRL”), a wholly owned subsidiary of Haitong International Securities Group Limited (“HTISGL”) and a licensed corporation to carry on Type 4 regulated activity (advising on securities) for the purpose of the Securities and Futures Ordinance (Cap. 571) of Hong Kong, with the assistance of Haitong International (Japan) K.K. (“HTIJKK”), a wholly owned subsidiary of HTISGL and which is regulated as an Investment Adviser by the Kanto Finance Bureau of Japan.
+For research reports on Indian securities: The research report is issued by Haitong Securities India Private Limited (“HSIPL”), an Indian company and a Securities and Exchange Board of India $\left( \phantom { - } \ S E B \vert \phantom { - } ^ { \prime \prime } \right)$ registered Stock Broker, Merchant Banker and Research Analyst that, inter alia, produces and distributes research reports covering listed entities on the BSE Limited $( ^ { u } { \tt B S E } ^ { \prime \prime } )$ and the National Stock Exchange of India Limited $\binom { \iota \iota } { \Lambda \mathsf { S E } ^ { \prime \prime } }$ (collectively referred to as “Indian Exchanges”). HSIPL was acquired and became part of the Haitong International Securities Group of Companies (“HTISG”) on 22 December 2016.
+All the research reports are globally branded under the name Haitong International and approved for distribution by Haitong International Securities Company Limited (“HTISCL”) and/or any other members within HTISG in their respective jurisdictions.
+The information and opinions contained in this research report have been compiled or arrived at from sources believed to be reliable and in good faith but no representation or warranty, express or implied, is made by HTIRL, HTISCL, HSIPL, HTIJKK or any other members within HTISG from which this research report may be received, as to their accuracy, completeness or correctness. All opinions expressed herein are as of the date of this research report and are subject to change without notice. This research report is for information purpose only. Descriptions of any companies or their
+securities mentioned herein are not intended to be complete and this research report is not, and should not be construed expr essly or impliedly as, an offer to buy or sell securities. The securities referred to in this research report may not be eligible for purchase or sale in some jurisdictions. If an investment product is denominated in a currency other than an investor's home currency, a change in exchange rates may adversely affect the investment. Past performance is not necessarily indicative of future results. Certain transactions, including those involving derivatives, give rise to substantial risk and are not suitable for all investors. You should also bear in mind that recommendations in this research report are not tailor-made for you. The analyst has not taken into account your unique financial circumstances, such as your financial situation and risk appetite. You must, therefore, analyze and should, where applicable, consult your own legal, tax, accounting, financial and other professional advisers to evaluate whether the recommendations suits you before investment. Neither HTISG nor any of its directors, employees or agents accepts any liability whatsoever for any direct or consequential loss arising from any use of the materials contained in this research report.
+HTISG and our affiliates, officers, directors, and employees, excluding the analysts responsible for the content of this document, will from time to time have long or short positions in, act as principal in, and buy or sell, the securities or derivatives, if any, referred to in this research report. Sales, traders, and other professionals of HTISG may provide oral or written market commentary or trading strategies to the relevant clients and the companies within HTISG that reflect opinions that are contrary to the opinions expressed in this research report. HTISG may make investment decisions that are inconsistent with the recommendations or views expressed in this research report. HTI is under no obligation to ensure that such other trading decisions, ideas or recommendations are brought to the attention of any recipient of this research report.
+Please refer to HTI’s website www.equities.htisec.com for further information on HTI’s organizational and administrative arrangements set up for the prevention and avoidance of conflicts of interest with respect to Research.
+Non U.S. Analyst Disclosure: The HTI analyst(s) listed on the cover of this Research is (are) not registered or qualified as a research analyst with FINRA and are not subject to U.S. FINRA Rule 2241 restrictions on communications with companies that are the subject of the Research; public appearances; and trading securities by a research analyst.
+# 分发和地区通知：
+除非下文另有规定，否则任何希望讨论本报告或者就本项研究中讨论的任何证券进行任何交易的收件人均应联系其所在国家或地区的海通国际销售人员。
+香港投资者的通知事项：海通国际证券股份有限公司(“HTISCL”)负责分发该研究报告，HTISCL 是在香港有权实施第 1 类受规管活动（从事证券交易）的持牌公司。该研究报告并不构成《证券及期货条例》（香港法例第 571 章）（以下简称“SFO”）所界定的要约邀请，证券要约或公众要约。本研究报告仅提供给 SFO 所界定的“专业投资者”。本研究报告未经过证券及期货事务监察委员会的审查。您不应仅根据本研究报告中所载的信息做出投资决定。本研究报告的收件人就研究报告中产生或与之相关的任何事宜请联系 HTISCL 销售人员。
+美国投资者的通知事项：本研究报告由 HTIRL，HSIPL 或 HTIJKK 编写。 HTIRL，HSIPL，HTIJKK 以及任何非 HTISG 美国联营公司，均未在美国注册，因此不受美国关于研究报告编制和研究分析人员独立性规定的约束。本研究报告提供给依照 1934 年“美国证券交易法”第 15a-6 条规定的豁免注册的「美国主要机构投资者」（“Major U.S. Institutional Investor”）和「机构投资者」（”U.S. Institutional Investors”）。在向美国机构投资者分发研究报告时，Haitong International Securities (USA) Inc. （“HTI USA”） 将对报告的内容负责。任何收到本研究报告的美国投资者，希望根据本研究报告提供的信息进行任何证券或相关金融工具买卖的交易，只能通过 HTI USA。HTI USA 位于 130 West 42nd Street, FL 18, New York, NY 10036 USA，电话+1 212-351-6052。 HTI USA 是在美国于 U.S. Securities and Exchange Commission（“SEC”）注册的经纪商，也是 Financial Industry Regulatory Authority, Inc.（“FINRA”）的成员。 HTIUSA 不负责编写本研究报告，也不负责其中包含的分析。在任何情况下，收到本研究报告的任何美国投资者，不得直接与分析师直接联系，也不得通过 HSIPL，HTIRL 或 HTIJKK 直接进行买卖证券或相关金融工具的交易。本研究报告中出现的 HSIPL，HTIRL 或 HTIJKK 分析师没有注册或具备 FINRA 的研究分析师资格，因此可能不受 FINRA 第 2241 条规定的与目标公司的交流，公开露面和分析师账户持有的交易证券等限制。投资本研究报告中讨论的任何非美国证</t>
+  </si>
+  <si>
+    <t>2026年02月02日星期一
+# 【First Call 策略】
+张铁言
+852-25321539
+tieyan.zhang@firstshanghai.com.hk
+# 第一上海——一月回顾与二月前瞻
+![](images/108cb55cb6ccdba09d26e12ca10c8b8b4447b7793afa2d835122202f12be0f0e.jpg)  
+图表1：First call 组合明细
+![](images/be5e27567bf76f56a6868522ca69b93a52d458bfb854016cdb9b238a03a6fee9.jpg)  
+资料来源：第一上海
+图表2：组合收益统计  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="3"&gt;累计收益率（2025.10-至今）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;First Call&lt;/td&gt;&lt;td&gt;QQQ&lt;/td&gt;&lt;td&gt;SPY&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;4.48%&lt;/td&gt;&lt;td&gt;4.87%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="14"&gt;First Call月度收益率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Jan&lt;/td&gt;&lt;td&gt;Feb&lt;/td&gt;&lt;td&gt;Mar&lt;/td&gt;&lt;td&gt;Apr&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;Jun&lt;/td&gt;&lt;td&gt;Jul&lt;/td&gt;&lt;td&gt;Aug&lt;/td&gt;&lt;td&gt;Sep&lt;/td&gt;&lt;td&gt;Oct&lt;/td&gt;&lt;td&gt;Nov&lt;/td&gt;&lt;td&gt;Dec&lt;/td&gt;&lt;td&gt;YTD&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026&lt;/td&gt;&lt;td&gt;10.58%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;10.58%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2025&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8.60%&lt;/td&gt;&lt;td&gt;-4.05%&lt;/td&gt;&lt;td&gt;1.44%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：第一上海
+周内调仓：  
+&gt; 核电：清仓高弹性的 uuuu、上调确定性更高的 ccj 仓位至 $10\%$   
+&gt; 大科技：清仓tsla，今年产业环境对musk有利，但本质它仍是个风投仓位，我们希望大科技组合更偏确定性多一点；  
+&gt; 存储：强周期，将总仓位上调至 $24.1\%$   
+金融创新：清仓etha，等待右侧；  
+调高现金比例，预留抄底空间。
+# First Call 策略
+- 一月主旋律是跌美元与涨Agent。
+- 如不考虑最后一天的疯狂波动，一月巴西雷亚尔兑美元升值了 $5.79\%$ ，澳元和瑞士法郎兑美元分别升值了 $5.38\%$ 和 $3.49\%$ ；澳元通常被视为大宗商品的代理货币，瑞郎代表避险，拉美货币代表矿产和资源；这一轮金属行情和美元下跌对照，尤其在1月中旬（下图红圈）特朗普辱骂鲍师傅是骡子、笨蛋，并将攻击上升到刑事指控之后，叠加欧元反弹等外部因素，美元开启了一波流畅下跌，这差不多也是金属涨势最强的一段时间。
+图表3：美元指数走势  
+![](images/000c657804cbc31b404c4edbb6708ffde2e0ba48df1bec13758ec4ede148c3be.jpg)  
+资料来源：MacroMicro  
+注：黄色框-25年10月后美元趋势
+- 跨市场表现，一月新兴市场大幅跑赢美国，前四名分别是：韩国（EWY）25.9%、秘鲁（EPU）19.7%，哥伦比亚（colo）17.73%，巴西（EWZ）16.59%；韩国市场驱动力来自三星和海力士，拉美驱动来自于资源，秘鲁分别是铜和银的全球第三大产地，智利是全球第一大产铜国，巴西是铁矿石（全球第二）、铌（航空航天、超导领域关键材料，巴西产量全球第一）以及铝土主要产地；大国战略性屯资源---拉高价格，叠加本币升值，进一步放大拉美股市的换算收益；这就是我们在一月份看到的最拥挤交易，卖出美国，买入新兴市场；一月份标普和纳指收益都没有超过1.5%，用黄金计价的话，美股是负收益。
+图表4：各重要区域ETF走势  
+![](images/d225d66f4500c935c1d998a7f78a9334e80338c7b647e947f62222ef56d4174f.jpg)  
+资料来源：Seekingalpha  
+注：拉美 ETF（橙）亚洲 ETF（蓝）标普 500ETF（绿）走势对比
+- 一月行情在月末最后一天戛然而止；根据历史经验，联储主席提名被否决的案例几乎没有，提名前大抵是和参议院勾兑过了；所以沃什是确定的，什么样的沃什还不够确定；直线条看，此前市场押注哈塞特上台会让美联储成为财政部的印钞机，是沃什中止了这个趋势；微观层面，聪明的同学已经在铜银价格不同步中，看到了资金撤退的迹象；超买状态，提名刚好成为获利了结的借口；上一个交易日现货白银价格一度跌 $36\%$ ，黄金、铜、铝跌幅也不小，First Call组合中由于有较高的金属敞口，单日回撤超过 $4\%$
+- 一月的AI几乎只有一个主题---Agent；  
+- 几个代表性的应用：Clawdbot---现在叫 OpenClaw，由于没有任何编程经验，部署过程全靠 AI 指导，体验下来 chatgpt 和 gemini 各有卡点，chatgpt 引导 skill 时进入死循环，机械式重复命令；Gemini 则是 Telegram 断线时勾不上；好在 claude 出马挽回了局面，5 分钟解决了全部问题；第二个是 cowork，Anthropic 的独立桌面工具，不受宿主上下文和能力的限制；功能上 Clawdbot 类似操作系统，7x24 小时在线，几乎无所不能（下图），读取 X（API 的形式）、邮件、文档这些就不说了，甚至还可以调用摄像头、智能家居这些本地硬件，足以覆盖绝大部分工作生活需要；但第一个问题是权限，不太敢把账户密码交给它；第二个问题是成本，我在 X 上设置了 200 美元的 API 限额，三天就刷完了；cowork 更适合在工作流中嵌入，它在编程、数据处理上极有优势，行云流水来形容毫不过分；问题也是权限，cowork 在本地不仅仅是读取（过往 AI 的主要工作方式），还能直接操作（新建文件夹、整理分类），当然一个 Agent 必然是有操作能力的，只是我们还没想好如何规避 Agent 的本地风险。
+图表5：Clawbot安装截图  
+```txt
+clawdhub   
+eightctl   
+Skip for now (Continue without installing dependencies)   
+1password   
+apple-notes   
+apple-reminders   
+bear-notes   
+bird   
+blogwatcher   
+blucli   
+camsnap   
+clawdhub   
+eightctl   
+gemini   
+gifgrep   
+gog   
+goplanes   
+himalaya   
+imgs   
+mcporter   
+model-usage   
+nano-banana-pro   
+nano-pdf   
+obsidian   
+openai-whisper   
+openhue   
+oracle 
+```
+- Clawdbot 和 cowork 的价值，第一是“具象化”，虽然还不完善，但轮廓已经描摹清楚，打开了市场对 Agent 的认知和信心；第二，Anthropic 接过了 oai 的叙事权杖，进一步消解了 SaaS 的价值；权限、成本、安全这些问题迟早会解决，链路上云、存储、电力、端侧这些赛道跑起来更踏实了；  
+- 还有一个重要产品，Chrome 增加了 gemini 模式，我们去年猜想 gemini 如何打通 google 生态，没想到一月份就看到了落地，个人非常推荐，上手门槛不高，生态价值强大，google 能做的确实越来越多了。
+图表6：GoogleWorkspace生态  
+![](images/c84cc5a0e002549862046649cda35256ed61984915788dd80559c4a1dd9981e0.jpg)  
+资料来源：公司官网
+# 下月剧本
+- 美元是几个月以来最有效的锚，我们认为目前美元是阶段性的底部，震荡或者上行，长期可能还是向下；委内瑞拉事件时，我们曾讨论美国强力控制拉美会提振对美元，但被特朗普=极度宽松=美元崩盘的单边预期覆盖掉了；沃什不是橡皮图章，空头头寸可能在2月进行平仓，为美元提供技术性支撑；联储在1月议息会议上按兵不动，主要表态是：经济稳健扩张，失业率有企稳迹象，相比于欧洲和日本，美国的经济数据还不错，也会限制美元指数中占比最大的欧元和日元兑美元涨幅；线性推演，美元上行概率更大，当然二月的经济数据、沃什姿态、特朗普不确定的发言都可能改变或者加强美元走势；按目前的剧本，建议下调金属持仓权重（长期确定性不变），等待更好的买点重新入场，同时向AI偏移，平衡存储与核电，放大核心标的持仓。
+# 披露事项与免责声明
+# 披露事项
+![](images/597a63d48311ded97a59ec6b560a375e3f115cbe9916a4d2c4bffb14cd184573.jpg)
+# 免责声明
+本报告由第一上海证券有限公司（“第一上海”）编制，仅供机构投资者一般审阅。未经第一上海事先明确书面许可，就本报告之任何材料、内容或印本，不得以任何方式复制、摘录、引用、更改、转移、传输或分发给任何其他人。本报告所载的数据、工具及材料只提供给阁下作参考之用，并非作为或被视为出售或购买或认购证券或其它金融票据，或就其作出要约或要约邀请，也不构成投资建议。阁下不可依赖本报告中的任何内容作出任何投资决策。本报告及任何资料、材料及内容并未有考虑到个别的投资者的特定投资目标、财务情况、风险承受能力或任何特别需要。阁下应综合考虑到本身的投资目标、风险评估、财务及税务状况等因素，自行作出本身独立的投资决策。
+本报告所载资料及意见来自第一上海认为可靠的来源取得或衍生，但对于本报告所载预测、意见和预期的公平性、准确性、完整性或正确性，并不作任何明示或暗示的陈述或保证。第一上海或其各自的董事、主管人员、职员、雇员或代理均不对因使用本报告或其内容或与此相关的任何损失而承担任何责任。对于本报告所载信息的准确性、公平性、完整性或正确性，不可作出依赖。
+第一上海或其一家或多家关联公司可能或已经，就本报告所载信息、评论或投资策略，发布不一致或得出不同结论的其他报告或观点。信息、意见和估计均按“现况”提供，不提供任何形式的保证，并可随时更改，恕不另行通知。
+第一上海并不是美国一九三四年修订的证券法（「一九三四年证券法」）或其他有关的美国州政府法例下的注册经纪-交易商。此外，第一上海亦不是美国一九四零年修订的投资顾问法(下简称为「投资顾问法」，「投资顾问法」及「一九三四年证券法」一起简称为「有关法例」)或其他有关的美国州政府法例下的注册投资顾问。在没有获得有关法例特别豁免的情况下，任何由第一上海提供的经纪及投资顾问服务，包括(但不限于)在此档内陈述的内容，皆没有意图提供给美国人。此档及其复印本均不可传送或被带往美国、在美国分发或提供给美国人。
+在若干国家或司法管辖区，分发、发行或使用本报告可能会抵触当地法律、规定或其他注册/发牌的规例。本报告不是旨在向该等国家或司法管辖区的任何人或单位分发或由其使用。
+©2026 第一上海证券有限公司 版权所有。保留一切权利
+![](images/95520c6132c1296858429671eb6e594b102125c8da53aa559dc134aad17169bb.jpg)
+第一上海
+FIRST SHANGHAI GROUP
+第一上海证券有限公司
+香港中环德辅道中71号
+永安集团大厦19楼
+电话： (852) 2522-2101
+传真： (852) 2810-6789
+网址：Http://www.myStockhk.com</t>
+  </si>
+  <si>
+    <t>![](images/5ad39dd26b221b99a949e7184c4fc7750b920c41a80a4cfd3f52761dd5c71f0a.jpg)
+# 粤开证券
+# YUEKAI SECURITIES
+2026 年 02 月 03 日
+分析师：孟之绪
+执业编号：S0300524080001
+电话：
+邮箱：mengzhixu@ykzq.com
+# 投资策略研究
+# 粤开市场日报-20260203
+# 投资要点
+# 今日关注
+指数涨跌情况：今日 A股主要指数全数上涨。截止收盘，沪指涨 $1 , 2 9 \%$ ，收报4067.74 点；深证成指涨 $2 . 1 9 \%$ ，收报 14127.11 点；科创 50 涨 $1 , 3 9 \%$ ，收报1471.07 点；创业板指涨 $1 , 8 6 \%$ ，收报3324.89点。总体上，全天个股涨多跌少，Wind数据显示，全市场 4851只个股上涨，529只个股下跌，90 只个股收平。沪深两市今日成交额合计 25442亿元，较上个交易日缩量405亿元。
+行业涨跌情况：今日申万一级行业涨多跌少，综合、国防军工、机械设备、建筑材料和钢铁行业领涨，涨幅分别为 $5 , 6 3 \%$ 、4. $4 2 \%$ 、3.98%、3.52%和 $3 , 2 8 \%$ ，仅银行行业下跌，跌幅为 $0 , 8 5 \%$ 。
+板块涨跌情况：今日涨幅居前概念板块为电源设备精选、TOPcon电池、BC电池、稀土、光伏、钙钛矿电池、光模块(CPO)、硅能源、挖掘机、光通信、HJT电池、光伏玻璃、稀土永磁、航母、新能源。
+# 风险提示
+股市有风险，投资需谨慎。
+# 目 录
+一、市场回顾.. 3  
+二、风险提示... 4
+# 图表目录
+图表 1： 今日主要指数涨跌幅（%）及板块表现.
+# 一、市场回顾
+![](images/fa8e66b3f7eeca2d8b9de7a9a33cadc3cad159cec5984e1b789a4e28e1cba7ef.jpg)  
+图表1：今日主要指数涨跌幅（%）及板块表现  
+三大股指：沪指收涨 1.29%，深证成指收涨 2.19%，创业板指收涨 1.86%
+![](images/4760b90749c46569dd927a4117fb727e174fc786d0d38c66907819ed500f9569.jpg)  
+申万一级板块：综合、国防军工、机械设备上涨；银行、非银金融、煤炭回调  
+概念板块：电源设备精选、TOPcon 电池、BC 电池上涨；央企银行、银行精选、饲料精选回调
+![](images/a6736a684af36a4f205e16113d263c8cca3c5c1c2c8f6b7e06f5f04bf6201d69.jpg)  
+涨幅前15
+跌幅前 15  
+![](images/df6ca4f9d2d61af5f2d0bf82706159f5970af822cf8dab3907c2e7c1d19b7b6b.jpg)  
+资料来源：wind、粤开证券研究院
+# 二、风险提示
+股市有风险，投资需谨慎
+# 分析师简介
+孟之绪，华北电力大学学士、硕士，2022 年 8 月加入粤开证券，现任宏观分析师，证书编号：S0300524080001。
+# 分析师声明
+本报告署名分析师在此声明：本人具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，在执业过程中恪守独立诚信、勤勉尽职、谨慎客观、公平公正的原则，独立、客观地出具本报告，结论不受任何第三方的授意或影响。本报告反映了本人的研究观点，不曾因，不因，也将不会因本报告中的具体推荐意见或观点而直接或间接接收到任何形式的报酬。
+# 与公司有关的信息披露
+粤开证券具备证券投资咨询业务资格，经营证券业务许可证编号：10485001。
+本公司在知晓范围内履行披露义务。
+# 股票投资评级说明
+投资评级分为股票投资评级和行业投资评级。
+# 股票投资评级标准
+报告发布日后的 12 个月内公司股价的涨跌幅度相对同期沪深 300 指数的涨跌幅为基准，投资建议的评级标准为：
+买入：相对大盘涨幅大于 $1 0 \%$
+增持：相对大盘涨幅在 $5 \% { \sim } 1 0 \%$ 之间；
+持有：相对大盘涨幅在- $. 5 \% \sim 5 \%$ 之间；
+减持：相对大盘涨幅小于 $- 5 \%$ 。
+# 行业投资评级标准
+报告发布日后的 12 个月内行业股票指数的涨跌幅度相对同期沪深 300 指数的涨跌幅为基准，投资建议的评级标准为：
+增持：我们预计未来报告期内，行业整体回报高于基准指数 $5 \%$ 以上；
+中性：我们预计未来报告期内，行业整体回报介于基准指数- $- 5 \%$ 与 $5 \%$ 之间；
+减持：我们预计未来报告期内，行业整体回报低于基准指数 $5 \%$ 以下。
+# 免责声明
+本报告由粤开证券股份有限公司（以下简称“本公司”）向专业投资者客户及风险承受能力为稳健型、积极型、激进型的普通投资者客户（以下统称客户）提供。若您并非上述类型的投资者，请取消阅读，请勿收藏、接收或使用本研究报告中的任何信息。公司不会因接收人收到本报告而视其为客户。
+本报告基于本公司认为可靠的公开信息和资料，但本公司不保证信息的准确性和完整性，亦不保证所包含的信息和建议不会发生任何变更。本公司可随时更改报告中的内容、意见和预测，且并不承诺提供任何有关变更的通知。本公司力求报告内容的客观、公正，但文中的观点、结论和建议仅供参考，不构成所述证券的买卖出价或询价，在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司在法律允许的情况下可参与、投资或持有本报告涉及的证券或进行证券交易，或向本报告涉及的公司提供或争取提供包括投资银行业务在内的服务或业务支持。本公司可能与本报告涉及的公司之间存在业务关系，并无需事先或在获得业务关系后通知客户。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，须在允许的范围内使用，并注明出处为“粤开证券研究”，且不得对本报告进行任何有悖意愿的引用、删节和修改。如因侵权行为给本公司造成任何直接或间接的损失，本公司保留追究一切法律责任的权利。本公司并不对其他网站和各类媒体转载、摘编的本公司报告负责。合法取得本报告的途径为本公司网站及本公司授权的渠道，非通过以上渠道获得的报告均为非法，本公司不承担任何法律责任。
+投资者应自主作出投资决策并自行承担投资风险，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+# 联系我们
+广州市黄埔区科学大道 60 号开发区控股中心 19、22、23 层
+北京市西城区广安门外大街 377 号
+网址：www.ykzq.com</t>
+  </si>
+  <si>
+    <t>策略点评（R2）
+2026 年 02 月 02 日
+![](images/f4323deb3bfb33f00d7c8277c494745a34c9d52f297ee5115a4bb06f2f92250b.jpg)  
+上证指数-沪深 300 走势图
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;%&lt;/td&gt;&lt;td&gt;1M&lt;/td&gt;&lt;td&gt;3M&lt;/td&gt;&lt;td&gt;12M&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;3.85&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;26.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深 300&lt;/td&gt;&lt;td&gt;1.44&lt;/td&gt;&lt;td&gt;-0.87&lt;/td&gt;&lt;td&gt;23.30&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+叶彬 分析师
+执业证书编号:S0530523080001
+yebin@hnchasing.com
+# 相关报告
+# 经济金融高频数据周报（02.02-02.06）
+# 投资要点
+ 全球经济及通胀：经济活跃度上行，通胀走高。
+全球经济活跃度有所上行，2026年 1月 24日至 1月 30日 BDI指数当周日均值为 1989点，较上周上涨 248.00点；通胀走高，CRB 商品价格指数当周日均值为 319.08点，较上周上涨 10.02点。
+ 国内经济及通胀：制造业 PMI回落，物价有所回升。
+经济动能回落，2026年 1月中国官方制造业 PMI为 $4 9 . 3 \%$ ，较上月下降 0.8个百分点；通胀有所回升，2026年 1月 16日至 1月 22 日中国猪肉当周日均价为 23.57元/公斤，较上周上涨0.36元/公斤。
+ 工业生产：主要开工率涨跌不一。
+2026年 1月 30日中国高炉当周开工率(247家)为 $7 9 . 0 2 \%$ ，较上周上涨 0.36个百分点，螺纹钢主要钢厂开工率为 $3 7 . 6 8 \%$ ，较上周下降2.00个百分点。
+ 消费：平稳向好。
+必需品消费平稳，2026年 2月 2日柯桥纺织价格指数为 105.08点，较前周上涨 0.05点；可选品消费走高，2026年 1月 18日中国乘用车当周日均销量为 5.12万辆，较上周增加 1.66万辆。
+ 投资：房地产、制造业走高。
+房地产走高，2026年 1月 26日至 2月 1日 30大中城市商品房当周日均成交面积为 21.18万平方米，较上周增加 3.88万平方米；基建走低，2026年 1 月 22 日至 2026 年 1 月 28 日中国石油沥青装置当周开工率为 $2 5 . 5 0 \%$ ，较前一周下降1.30个百分点；制造业走高，2026年1月23日至1月29日中国汽车轮胎半钢胎当周开工率为 $7 4 . 8 4 \%$ ，较上周上涨 0.28个百分点。
+ 出口：运价指数下降。
+2026 年 1 月 30 日出口集装箱运价指数为 1175.59 点，较上周下降33.16点。2026 年 1 月 19日至 1 月 25 日中国主要港口外贸货物吞吐量当周值为25686.7万吨，较前一周减少445万吨。
+ 新兴行业：半导体、光伏景气度上涨。
+半导体指数上涨，2026年 1月 24日至 1月 30日费城半导体指数当周日均值为 8133.97点，较上周上涨 171.63点；光伏指数上涨，2026年 1 月 26 日光伏行业综合价格指数(SPI)为 17.83 点，较上周上涨0.12 点。
+ 风险提示：数据指标具有滞后性，政策变化超预期。
+# 内容目录
+1 本周综述...   
+2 全球经济及通胀.
+2.1 全球经济活跃度.. 4  
+2.2 全球通胀..
+3 国内经济及通胀 .
+3.1 中国经济增长.  
+3.2 中国通胀.. . 8
+4 工业生产.... . 10  
+5 消费 ... 12
+5.1 必需消费品.. 12   
+5.2 可选消费.. 13
+6 投资 ... 14
+6.1 房地产. . 14   
+6.2 基建 .. . 14  
+6.3 制造业. 15
+7 出口 .... 16  
+8 新兴行业景气度... 17
+8.1 半导体景气度. . 17  
+8.2 新能源.. 18
+9 其他经济金融相关指标... 20  
+10 风险提示 ... 21
+# 图表目录
+图 1：波罗的海干散货指数(BDI).. 4  
+图 2：美欧经济不确定指数. 5  
+图 3：CRB 商品价格指数. 6  
+图 4：布伦特原油结算价（美元/桶） 6  
+图 5：美国通胀国债利率（%） 6  
+图 6：PMI（%）.  
+图 7：百度搜索指数（次） 8  
+图 8：中国 OECD 综合领先指数. 8  
+图 9：日耗煤量（万吨） 8  
+图 10：国内猪肉平均价（元/公斤） 9  
+图 11：食用农产品价格指数.. C  
+图 12：南华工业品指数 C  
+图 13：寿光蔬菜价格总指数. 10  
+图 14：全国高炉开工率（247 家， $\%$ ） 10  
+图 15：全国主要钢厂螺纹钢开工率（%） 10  
+图 16：全国 PTA开工率（%） 1  
+图 17：全国周度 PTA产量（万吨）  
+图 18：中国企业经营状况指数（BCI）  
+图 19：工业企业产成品存货同比（%）
+图 20：一线城市地铁客运量（万人次） 12  
+图 21：邮政快递揽收量（亿件） 13  
+图 22：柯桥纺织价格指数（点） 13  
+图 23：全国电影票房收入当周值（万元） 13  
+图 24：全国乘用车当周日均销量（万辆） 13  
+图 25：30 大中城市商品房成交面积（万平方米） 14  
+图 26：100 大中城市成交土地占地面积（万平方米） 14  
+图 27：挖掘机月销量（台） 15  
+图 28：石油沥青装置开工率（%） 15  
+图 29：全国水泥价格指数. 15  
+图 30：汽车轮胎开工率（%） 16  
+图 31：出口集装箱运价指数. 16  
+图 32：港口货物吞吐量（万吨） 16  
+图 33：费城半导体指数 17  
+图 34：DXI 指数.. 17  
+图 35：智能手机产量情况. 18  
+图 36：集成电路产量情况. 18  
+图 37：新能源汽车销售情况（辆，左轴累计、右轴当月） 19  
+图 38：光伏行业综合价格指数. 19  
+图 39：中国社会融资规模数据. 20  
+图 40：花旗中国经济意外指数. 20
+# 1 本周综述
+海外方面，全球贸易活跃度回升，2026 年 1 月 24 日至 2026 年 1 月 30 日波罗的海干散货指数(BDI)当周日平均值为 1989 点，较前一周上涨 248 点，该指标连续两周涨幅较大；原油价格走高，2026 年 1 月 24 日至 2026 年 1 月 30 日布伦特原油期货结算价(连续)当周日均值为 68.59 美元/桶，较前一周上涨 3.78 美元/桶，该指标连续四周上涨。
+国内方面，经济动能有所回落，2026 年 1 月中国官方制造业 PMI 为 $4 9 . 3 \%$ ，较上月下降 0.8 个百分点，制造业新订单 PMI 为 $4 9 . 2 \%$ ，较上月下降 1.6 个百分点，制造业新出口订单 PMI 为 $4 7 . 8 \%$ ，较上月下降 1.2 个百分点，制造业生产 PMI 为 $5 0 . 6 \%$ ，较上月下降 1.1个百分点；光伏景气度上升，2026 年1 月26 日光伏行业综合价格指数(SPI)为17.83点，较前一周上涨 0.12 点，该指标连续五周上涨。
+# 2 全球经济及通胀
+# 2.1 全球经济活跃度
+波罗的海干散货指数(BDI)：
+波罗的海干散货指数(BDI)反映全球经济景气度。散装航运业营运状况与全球经济景气的荣枯、大宗商品行情的高低紧密相关。当全球经济较为景气的时候，国家之间的贸易需求更加旺盛，反映运价的 BDI 指数也会随之上行，反之亦然。2026 年 1 月 30 日波罗的海干散货指数(BDI)当周平均值为 1989 点，较上周上涨 248.00 点。
+图 1：波罗的海干散货指数(BDI)  
+![](images/d1a2a88c30633420f9d562c848742b0ee0a4ce971cad301fb4232e12b2cfd74c.jpg)  
+资料来源：财信证券，wind
+美欧经济不确定指数：
+由于政策对经济有领先作用，该指标对全球经济具有前瞻反映作用。经济政策不确定性指数主要用来反映世界各大经济体经济和政策的不确定性。该指数与经济增长指标有显著的反向关系，甚至对权益市场的大幅波动也有解释作用。2026 年 1 月美国经济不确定指数为 386.57 点，较上月上涨 96.64 点；欧洲经济不确定指数为 371.74 点，较上月上涨 20.24 点。
+图 2：美欧经济不确定指数  
+![](images/873a88a5d27f6dbfc6f2135c4f21fe1cef8a3c72b461e820af03aea587dd19fc.jpg)  
+资料来源：财信证券，wind
+# 2.2 全球通胀
+CRB商品价格指数：
+大宗商品价格对通胀具有前瞻反映作用，可反映全球通胀走势。2026 年 1 月 30 日CRB商品价格指数当周平均值为 319.08 点，较上周上涨 10.02 点。
+图 3：CRB 商品价格指数  
+![](images/467947630d5d1140264894a326de544203c71cfafadeb556348f462c024f54f9.jpg)  
+资料来源：财信证券，wind
+原油价格：
+作为全球重要的能源商品之一，原油价格反映全球经济与通胀情况。原油价格较高往往代表着经济过热或是通胀偏高，反之亦然。2026 年 1 月 30 日布伦特原油期货结算价(连续)当周日均值为 68.59 美元/桶，较上周上涨 3.78美元/桶。
+美国通胀指数国债利率：
+美国通胀指数国债目的是帮助投资者抵消通货膨胀带来的购买力下降的损失，能较为客观反映通胀水平。2026 年 1 月 30 日美国 10 年通胀指数国债(TIPS)周度日均利率为$1 . 8 9 8 \%$ ，较上周下降 4.20BP。
+图 4：布伦特原油结算价（美元/桶）  
+![](images/3b0d4d19bc26bf8884d9679099c8aaa42d410a81b93a1ac84e760fb41dcd4327.jpg)  
+资料来源：财信证券，wind
+图 5：美国通胀国债利率（%）  
+![](images/9b933f1f203de85857005745d3ce2cbf6e87c63c6c747dd4805f5a11ef882d96.jpg)  
+资料来源：财信证券，wind
+# 3 国内经济及通胀
+# 3.1 中国经济增长
+# PMI：
+PMI 通常在当月末的最后一天发布，是所有经济数据中出来最早的数据，及时性好，蕴含信息丰富。2026 年 1 月中国官方制造业 PMI 为 $4 9 . 3 \%$ ，较上月下降 0.8 个百分点；制造业新订单PMI为 $4 9 . 2 \%$ ，较上月下降1.6个百分点；制造业新出口订单PMI为 $4 7 . 8 \%$ ，较上月下降 1.2 个百分点；制造业生产 PMI 为 $5 0 . 6 \%$ ，较上月下降 1.1 个百分点；制造业产成品库存 PMI 为 $4 8 . 6 \%$ ，较上月上升 0.4个百分点。
+图 6：PMI（%）  
+![](images/a21c19348f82da2f6d37814fef234ec5f95dfb56c45c91c2e42fb8a8085bf6cd.jpg)  
+资料来源：财信证券，wind
+# 百度搜索指数：
+百度搜索指数可较为客观、有效、及时反映失业情况。2026 年 2 月 1 日中国百度找工作搜索指数周度日均值为 1075.71 次，较上周增加 38.14 次；中国百度招聘搜索指数周度日均值为 2228.14 次，较上周减少 102.71 次。
+图 7：百度搜索指数（次）  
+![](images/fbaf1419e65f23d36acda0224ed1431b17f2c4e748a7cda7018896fe303921ed.jpg)  
+资料来源：财信证券，wind
+OECD 综合领先指数：
+OECD 的综合领先指标是按照一定标准将国民经济各领域的指标数据合成后构建而成，是反映一个国家宏观经济发展周期的领先指标。2025 年 12 月中国 OECD 综合领先指标为 99.1810 点，较上月下降 0.0402 点。
+日耗煤量：
+全国火力发电量约占总发电量 7 成，同时火电也是调峰调频能源，因此耗煤量是跟踪工业生产的重要指标。2026 年 1 月 24 日六大发电集团日均耗煤量周度日均值为84.17 万吨，较上周增加 3.26 万吨。
+图 8：中国 OECD 综合领先指数  
+![](images/33a84c03c8e126d61c7fd31411d85503fd06dff47f82ae388c7ea8883bbb0942.jpg)  
+资料来源：财信证券，wind
+图 9：日耗煤量（万吨）  
+![](images/b428cdb1bf36325ff11048d976dd533d11638437203688715163c97d28abf430.jpg)  
+资料来源：财信证券，ifind
+# 3.2 中国通胀
+猪肉价格：
+猪价基本决定国内 CPI 走势，该指标对 CPI 通胀预测效果好。2026 年 1 月 22 日
+中国猪肉当周平均价为 23.57 元/公斤，较上周上涨 0.36 元/公斤。
+农产品价格指数：
+商务部公布的食用农产品价格指数，该指标对 CPI 通胀预测效果好。2026 年 1 月23 日食用农产品价格指数为 107.13 点，较上周上涨 0.96 点。
+图 10：国内猪肉平均价（元/公斤）  
+![](images/320acd68c685aa664512a4694034ad809faf1de4fae0993df7fbc123930e53a2.jpg)  
+资料来源：财信证券，wind
+图 11：食用农产品价格指数  
+![](images/b13a93ff50b76f50c6d5401976a4336f9f3dc015436c5913d60d61cc2651b311.jpg)  
+资料来源：财信证券，wind
+南华工业品指数：
+南华工业品指数与 PPI 同比的相关性较高。2026年 1月 30日南华工业品指数当周平均值为 3707.84 点，较上周上涨 93.27 点。
+图 12：南华工业品指数  
+![](images/9bb414ad408d31f4fadc61ee20c5ca64bf96c37e6dc3bf1e09ee8331276505d2.jpg)  
+资料来源：财信证券，wind
+中国寿光蔬菜价格总指数：
+寿光蔬菜总指数能较好反映全国蔬菜价格总体走势。2026 年 2 月 1 日中国寿光蔬菜价格总指数周度日平均值为 131.86 点，较上周上涨 0.74 点。
+图 13：寿光蔬菜价格总指数  
+![](images/da8ee1f0f27460523f5c5f102d5463bce66bbf64e5626d9b312b4151905a0c75.jpg)  
+资料来源：财信证券，wind
+# 4 工业生产
+高炉开工率：
+高炉开工率对整体宏观经济具有较强指示作用。2026 年 1 月 30 日中国高炉当周开工率(247 家)为 $7 9 . 0 2 \%$ ，较上周上涨 0.36个百分点。
+螺纹钢开工率：
+螺纹钢广泛用于房地产、基建、制造业的上游原材料。2026 年 1 月 30 日中国螺纹钢主要钢厂开工率为 $3 7 . 6 8 \%$ ，较上周下降 2.00 个百分点。
+图 14：全国高炉开工率（247 家，%）  
+![](images/9469c9d7ed2c184cef4ec20a9439fea6af861baa0418e0c03705ffec9c166bc6.jpg)  
+资料来源：财信证券，wind
+图 15：全国主要钢厂螺纹钢开工率（%）  
+![](images/6c1a2b82be82fd43e0366f98782b4c1147d7876cd913ff9d0b15c0c411faa779.jpg)  
+资料来源：财信证券，wind
+PTA开工率及产量：
+化工应用于国民经济各行各业，PTA 作为化工关键原料，可较好反映化工景气度和国民经济景气度。2026 年 1 月 29 日中国 PTA当周开工率为 $7 5 . 8 3 \%$ ，较上周持平；中国PTA当周产量为 142.84 万吨，较上周持平。
+图 16：全国 PTA 开工率（%）  
+![](images/de61386c19dc912e01d464990f6f52ff66b662f49698cbfbe12cbfc27b2c2a87.jpg)  
+资料来源：财信证券，wind
+图 17：全国周度PTA 产量（万吨）  
+![](images/2e2d222c81b2ee2a7b79af67cb605f28a38a0b21843444865d25a8d25c72a286.jpg)  
+资料来源：财信证券，wind
+中国企业经营状况指数：
+中国企业经营状况指数(BCI)是由长江商学院向企业对未来 6个月经营情况展望所做的调查，反映企业经营信心，50 为分界线，越高则信心越强。2026 年 1 月中国企业经营状况指数(BCI)为 53.6903 点，较上月上涨 3.8649 点。
+工业企业产成品存货：
+工业企业产成品存货变化情况可较好反映当前库存周期。2025 年 12 月中国工业企业产成品存货同比变化 $3 . 9 \%$ ，较上月下降 0.7 个百分点。
+图 18：中国企业经营状况指数（BCI）  
+![](images/ef4404f6b4bb86f25b39a3042289dd20c6594bd667e67c20549d220f825718ec.jpg)  
+资料来源：财信证券，wind
+图 19：工业企业产成品存货同比（%）  
+![](images/ada7781af4ec95c08d3065e1e26ee911e312630b5e7410b2fff765aee5dd0697.jpg)  
+资料来源：财信证券，wind
+# 5 消费
+# 5.1 必需消费品
+# 一线城市地铁客运量：
+地铁数据分布上具有较强的季节性特征，体现为双休日以及节假日客运量显著回落，因此我们需要观测季节性走势，或者对数据进行同比处理以剔除季节性。经验上来看，十大城市地铁客运量同比与全国社会消费品零售总额同比趋势高度一致。2026 年 2 月 1 日北京地铁客运量周度日平均值为 996.39 万人次，较上周减少 6.25 万人次；上海地铁客运量周度日平均值为 1004.57 万人次，较上周减少 13.29 万人次；广州地铁客运量周度日平均值为 958.77 万人次，较上周增加 12.33 万人次；深圳地铁客运量周度日平均值为 969.99万人次，较上周增加 2.95 万人次。
+图 20：一线城市地铁客运量（万人次）  
+![](images/3e415b17d85ec1c20c5bc75680ab65407309cbedd60a6d6e6809f74b1de25c7d.jpg)  
+资料来源：财信证券，wind
+# 邮政快递揽收量：
+邮政快递揽收量可一定程度反映消费活力。2026 年 1 月 19 日至 2026 年 1 月 25 日中国邮政快递当周揽收量为 43.11 亿件，较上周上涨 2.38 亿件。
+# 柯桥纺织价格指数：
+柯桥纺织价格指数反映纺织服装业的景气度。从历史规律看，柯桥纺织价格指数同
+比基本同步于纺织服装业工业增加值同比，可反映服装类消费情况。2026 年 2 月 2 日柯桥纺织价格指数为 105.08 点，较上周上涨 0.05 点。
+图 21：邮政快递揽收量（亿件）  
+![](images/89c1652b561c4909fc36b8259128b632e04f7cb68b8de65a2c618bd466c04a91.jpg)  
+资料来源：财信证券，wind
+图 22：柯桥纺织价格指数（点）  
+![](images/3f0c6eaee88a4ff6016ad36acb30d1a475fda9a54eb19e05d5cf51afae81d57b.jpg)  
+资料来源：财信证券，wind
+# 5.2 可选消费
+电影票房收入：
+电影票房等数据代表服务类消费的景气度。2026 年 1 月 25 日中国当周电影票房收入为 30400 万元，较上周增加 2400 万元。
+乘用车销量：
+乘用车销量可反映耐用消费品消费情况。2026 年 1 月 18 日中国乘用车当周日均销量为 5.12 万辆，较上周增加 1.66 万辆。
+图 23：全国电影票房收入当周值（万元）  
+![](images/84a8ec8380bcf24b60d16ae780820e3386fb48c5d52549c3f91ffd0a47abfef4.jpg)  
+资料来源：财信证券，wind
+图 24：全国乘用车当周日均销量（万辆）  
+![](images/73387bced7f7371e4ab94fa2af37782ab02b45bdea2e92233336bb2e1abf7e1d.jpg)  
+资料来源：财信证券，wind
+# 6 投资
+# 6.1 房地产
+房地产销售面积：
+房地产销售面积可提前反映房地产投资完成情况。2026 年 2 月 1 日 30 大中城市商品房周度日均成交面积为 21.18 万平方米，较上周增加 3.88 万平方米。
+成交土地占地面积：
+成交土地占地面积指的是土地市场中一周内成交的土地总面积，该指标反映土拍市场景气度，可提前反映房地产投资完成情况。2026 年 2 月 1 日 100 大中城市成交土地占地面积当周值为 808.36 万平方米，较上周增加 83.69 万平方米。
+图 25：30 大中城市商品房成交面积（万平方米）  
+![](images/5e51353fcccb06912181994dc7cb7a7411f684fac693fa7d8a842b442a472c3f.jpg)  
+资料来源：财信证券，wind
+图 26：100 大中城市成交土地占地面积（万平方米）  
+![](images/d2f50e2ae9771269d0fef8257bd376201793e7962cb3616ac0f6f1f4825fe92b.jpg)  
+资料来源：财信证券，wind
+# 6.2 基建
+挖掘机销量：
+挖掘机作为基建前周期机械，对基建有前瞻反映作用。2025 年 12 月中国工程机械行业挖掘机国内销量为 10331 台，较去年同期增加 1019 台。
+石油沥青开工率：
+石油沥青是原油蒸馏后的残渣，消费方向主要是道路建设。其中石油沥青开工率与基建投资的相关系数最高。2026 年 1 月 28 日中国石油沥青装置当周开工率为 $2 5 . 5 \%$ ，较上周下降 1.30 个百分点。
+图 27：挖掘机月销量（台）  
+![](images/60789347b5e1a3894c2297f46cb7c6f182cc74c026e3a1b0800d8ab66eb33552.jpg)  
+资料来源：财信证券，wind
+图 28：石油沥青装置开工率（%）  
+![](images/3b7002d45ef861e3de27073dabf8ca608c31731fbcc5b36c337ae4aabfb4843c.jpg)  
+资料来源：财信证券，wind
+水泥价格走势：
+水泥价格走势可反映建筑行业景气度。2026 年 1 月 24 日水泥价格指数周度日均值为 99.95 点，较上周下降 0.67 点。
+图 29：全国水泥价格指数  
+![](images/1707516ce3efcc4503ec2e5753b763a44857213192d11a3ad08c0cbd283a8eb4.jpg)  
+资料来源：财信证券，wind
+# 6.3 制造业
+汽车轮胎开工率：
+汽车轮胎开工率包括全钢胎和半钢胎两项，分别提前反映乘用车、商用车的景气度。乘用车与下游消费市场景气度密切相关，而商用车与基建及物流景气度密切相关。此外，制造业投资和汽车轮胎开工率的同比增速走势相关度较高，主因是汽车制造业投资占总制造业投资比重较高。2026 年 1 月 29 日中国汽车轮胎半钢胎当周开工率为 $7 4 . 8 4 \%$ ，较上周上涨 0.28 个百分点；中国汽车轮胎全钢胎当周开工率为 $6 2 . 4 4 \%$ ，较上周下降 0.18 个百分点。
+图 30：汽车轮胎开工率（%）  
+![](images/4389b5ecd5f5376ce6214a3e322535ee27c08218cf3e88e2a88cb5b6cad30de1.jpg)  
+资料来源：财信证券，wind
+# 7 出口
+出口集装箱运价指数：
+中国出口集装箱运价指数（CCFI）可同步反映中国出口景气度，但价格容易受供给端扰动。2026 年 1 月 30 日出口集装箱运价指数为 1175.59 点，较上周下降33.16点。
+港口货物吞吐量：
+港口完成货物吞吐量也可一定程度上反映外贸，2026 年 1 月 25 日中国主要港口外贸货物吞吐量当周值为 25686.7 万吨，较前一周减少 445 万吨。
+图 31：出口集装箱运价指数  
+![](images/818813c8d68a3ba93acf4f606426a664ecd7326cdb48abedd2bc01b9308ba03b.jpg)  
+资料来源：财信证券，wind
+图 32：港口货物吞吐量（万吨）  
+![](images/8e6a63c6b7183d66d6a792e65008d833183af35776c9878bddadd5b4d4a1d123.jpg)  
+资料来源：财信证券，ifind
+# 8 新兴行业景气度
+# 8.1 半导体景气度
+费城半导体指数：
+费城半导体指数为半导体市场全球定价，该指数涵盖全球半导体设计、设备、制造、销售等代表性公司综合景气度。2026 年 1 月 30 日费城半导体指数周度日均值为 8133.97点，较上周上涨 171.63 点。
+DXI 指数：
+DXI 指数代表 DRAM 即内存产值变化的景气度指标。2026 年 1 月 30 日 DXI 指数周度日均值为 582569.66 点，较上周上涨 5187.68 点。
+图 33：费城半导体指数  
+![](images/8c15923d10d7a92cf92e47492ef29db64587dd61113ad43d54fb1defd72fb690.jpg)  
+资料来源：财信证券，wind
+图 34：DXI 指数  
+![](images/a964829b3b8b3379f97a280b1d7f38787a38b504df3226712eefce65c192b38c.jpg)  
+资料来源：财信证券，wind
+智能手机产量：
+智能手机产量可反映电子产品市场景气度。2025 年 12 月中国智能手机当年产量累计值为 126950 万台，较去年同期下降 $0 . 9 0 \%$ 。
+图 35：智能手机产量情况  
+![](images/75522d98fea8a2a58be735955c53bf47f05d36e0bc830d02a2aac6a30b37f396.jpg)  
+资料来源：财信证券，wind
+集成电路产量：
+集成电路产量可反映电子产品景气度。2025 年 12 月中国集成电路当年产量累计值为 48427948.1 万块，较去年同期上涨 $1 0 . 9 0 \%$ 。
+图 36：集成电路产量情况  
+![](images/134823ce12bbb79cd7d205572beb2d4562ef938810d1c094e1d215b04c779c4a.jpg)  
+资料来源：财信证券，wind
+# 8.2 新能源
+新能源车销量：
+新能源汽车销售量可反映新能源汽车市场景气度。2025 年 12 月中国新能源汽车销
+量当月值为 1710379 辆，较去年同期增加 114297 辆；新能源汽车销量累计值为 16490301辆，较去年同期增加 3624429 辆。
+图 37：新能源汽车销售情况（辆，左轴累计、右轴当月）  
+![](images/f4bae4f323f99612dc2d3a3f4125be55fea6f3e5fae1711705f605cc043652de.jpg)  
+资料来源：财信证券，wind
+光伏行业价格指数：
+光伏行业综合价格指数（SPI）综合反映光伏产业链景气度。2026 年 1 月 26 日光伏行业综合价格指数(SPI)为 17.83 点，较上周上涨 0.12 点。
+图 38：光伏行业综合价格指数  
+![](images/58bafc8c0fe482e1fb4d48ac8388dfaaa800a5edf53a47b4653c88d0d3009b3a.jpg)  
+资料来源：财信证券，wind
+# 9 其他经济金融相关指标
+社融数据：
+央行通常在每个月中旬（9-15 日）公布上一个月的社融数据，存在一定滞后性；但金融数据的造假空间非常小，社融数据相对真实；即使社融冲量，也容易看出来；社融数据可作为工业企业利润、A股市场估值的有效领先指标。2025 年 12 月中国社会融资规模当月值为 22075 亿元，较去年同期减少 6462 亿元；社会融资规模存量同比增长 $8 . 3 \%$ ，较上月下降 0.2 个百分点。
+图 39：中国社会融资规模数据  
+![](images/0a2eda845a2d3922577302bb927efa9507e81abd49b8e4f8622a17fac2054b49.jpg)  
+资料来源：财信证券，wind
+花旗经济意外指数是实际发布的数据与彭博社调查的媒体预测数据之间的标准差，当为正数的情况下，表示实际经济情况好于人们的普遍预期；负值则表明不及预期。2026年 1 月 30 日花旗中国经济意外指数周度日均值为-16.84 点，较上周上涨2.74点。
+图 40：花旗中国经济意外指数  
+![](images/81b87d1df2c1399d2cbd67210d8e27c31725d1ca93c41eea6206c841f49a5544.jpg)  
+资料来源：财信证券，wind
+# 10风险提示
+数据指标具有滞后性，政策变化超预期。
+# 投资评级系统说明
+以报告发布日后的 6－12 个月内，所评股票/行业涨跌幅相对于同期市场指数的涨跌幅度为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;投资评级&lt;/td&gt;&lt;td&gt;评级说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;投资收益率超越沪深300指数15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为5%一15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为-10%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卖出&lt;/td&gt;&lt;td&gt;投资收益率落后沪深300指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;领先大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅超越沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;同步大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅相对沪深300指数变动幅度为-5%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;落后大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅落后沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 免责声明
+本报告风险等级定为 R2，由财信证券股份有限公司（以下简称“本公司”）制作，本公司具有中国证监会核准的证券投资咨询业务资格。
+根据《证券期货投资者适当性管理办法》，本报告仅供本公司客户中风险评级高于 R2 级（含 R2 级）的投资者使用。本报告对于接收报告的客户而言属于高度机密，只有符合条件的客户才能使用。本公司不会因接收人收到本报告而视其为本公司当然客户。本报告仅在相关法律法规许可的情况下发放，并仅为提供信息而发送，概不构成任何广告。
+本报告所引用信息来源于公开资料，本公司对该信息的准确性、完整性或可靠性不作任何保证。本报告所载的信息、资料、建议及预测仅反映本公司于本报告公开发布当日的判断，且预测方法及结果存在一定程度局限性。在不同时期，本公司可能撰写并发布与本报告所载资料、建议及预测不一致的报告。本公司对已发报告无更新义务，若报告中所含信息发生变化，本公司可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司及本公司员工或者关联机构不承诺投资者一定获利，不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此作出的任何投资决策与本公司及本公司员工或者关联机构无关，投资者自主作出投资决策并自行承担投资风险。
+市场有风险，投资需谨慎。投资者不应将本报告作为投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。本公司或关联机构可能会持有本报告中所提到的公司所发行的证券并进行交易，也可能涉及为该等公司提供或争取提供投资银行、财务顾问、咨询服务、金融产品等相关服务，投资者应充分考虑可能存在的利益冲突。本公司的资产管理部门、自营业务部门及其他投资业务部门可能独立作出与本报告中意见或建议不一致的投资决策。
+本报告版权仅为本公司所有，未经事先书面授权，任何机构和个人（包括本公司客户及员工）均不得以任何形式、任何目的对本报告进行翻版、刊发、转载、复制、发表、篡改、引用或传播，或以任何侵犯本公司版权的其他方式使用，请投资者谨慎使用未经授权刊载、转发或传播的本公司研究报告。经过书面授权的引用、刊载、转发，需注明出处为“财信证券股份有限公司”及发布日期等法律法规规定的相关内容，且不得对本报告进行任何有悖原意的删节和修改。
+本报告由财信证券研究发展中心对许可范围内人员统一发送，任何人不得在公众媒体或其它渠道对外公开发布。任何机构和个人（包括本公司内部客户及员工）对外散发本报告的，则该机构和个人独自为此发送行为负责，本公司不因此承担任何责任并保留对该机构和个人追究相应法律责任的权利。
+# 财信证券研究发展中心
+网址：stock.hnchasing.com
+地址：长沙市岳麓区茶子山东路 112 号湘江财富金融中心 B 座 25楼
+邮编：410005
+电话：0731-84403360
+传真：0731-84403438</t>
+  </si>
+  <si>
+    <t># 证券研究报告
+月度金股 / 2026.02.03
+分析师 徐陈翼
+SAC证书编号：S0160523030003
+xucy@ctsec.com
+联系人 常瑛珞
+changyl@ctsec.com
+# 相关报告
+1. 《白银的历史大顶如何形成？兼论A股独立性--2026年2月策略》 2026-02-01  
+2. 《上市国资重组提速——瞭望国资系列3》 2026-01-28  
+3. 《全球 Risk on》 2026-01-27
+# 核心观点
+白银指标历史位置总览：1）技术面-波动率：历史上 $93\%$ 日期在 $200\%$ 以下，当前达到 $1800\%$ 以上，白银降波的过程多伴随价格调整。2）资金面-交易所提保：历史上两次大顶都伴随交易所提保，当前CME在近1个月内连续提保5次，冷却银价意愿较强。3）大类比价：金银比，当前42逼近区间下沿，2010~2011年达到极值31；银油比，目前1.8以上的比值已大幅突破历史波动区间 $0.2\sim 0.5$   
+后续重要宏观叙事：特朗普访华；沃什接任美联储+美国滞胀环境；特朗普与伊朗。  
+大势研判：以我为主仍从容
+1）市场可能担心中东冲突和沃什交易两个扰动，我们复盘来看，本轮行情受海外影响较小，地缘风险指标与美元指数/10年美债收益率上行期间上证维持韧性。  
+2) 成交额择时模型视角, 最灵敏策略提示卖出, 中等灵敏策略尚未输出卖点。  
+3）本轮行情的驱动一方面来自保险长钱，仍有加仓空间，另一方面关注主动偏股公募净值与发行正反馈可能来临。
+投资组合：马年驾驭“三驾马车”，胜率赔率兼具
+1、成长核心资产—恒生互联网。胜率端，平台经济支持+受益放权给企业，AI方面仍有潜在催化，叠加中美关系进一步改善+人民币升值被动外资流入。  
+2、全球竞争优势一奔马资产（奔马50）。胜率受益全球景气复苏+政策坚定支持+机构资金流入，赔率性价比高：1）AI强产业趋势；2）高端制造受益全球投资周期；3）北美地产链关注中美缓和+出海盈利优势；4）中游资源品供给侧反内卷+外需回升。  
+3、成长新兴赛道一马斯克链映射（短期重点关注算力、地下交通等）。
+各行业2月十大金股：TCL电子、毛戈平、安井食品、诚达药业、新泉股份、江淮汽车、芯原股份、腾讯控股、华润置地、招商轮船  
+风险提示：美国经济衰退风险、海外金融风险超预期、历史经验失效等。
+金股推荐组合及盈利预测  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;代码&lt;/td&gt;&lt;td rowspan="2"&gt;公司&lt;/td&gt;&lt;td rowspan="2"&gt;总市值(亿元)&lt;/td&gt;&lt;td rowspan="2"&gt;收盘价(02.02)&lt;/td&gt;&lt;td colspan="3"&gt;EPS（元）&lt;/td&gt;&lt;td colspan="3"&gt;PE&lt;/td&gt;&lt;td rowspan="2"&gt;投资评级&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2024A&lt;/td&gt;&lt;td&gt;2025E&lt;/td&gt;&lt;td&gt;2026E&lt;/td&gt;&lt;td&gt;2024A&lt;/td&gt;&lt;td&gt;2025E&lt;/td&gt;&lt;td&gt;2026E&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;01070&lt;/td&gt;&lt;td&gt;TCL 电子&lt;/td&gt;&lt;td&gt;294.95&lt;/td&gt;&lt;td&gt;11.70&lt;/td&gt;&lt;td&gt;0.70&lt;/td&gt;&lt;td&gt;0.94&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;16.76&lt;/td&gt;&lt;td&gt;12.41&lt;/td&gt;&lt;td&gt;10.13&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;01318&lt;/td&gt;&lt;td&gt;毛戈平&lt;/td&gt;&lt;td&gt;414.95&lt;/td&gt;&lt;td&gt;84.65&lt;/td&gt;&lt;td&gt;1.80&lt;/td&gt;&lt;td&gt;2.46&lt;/td&gt;&lt;td&gt;3.23&lt;/td&gt;&lt;td&gt;47.12&lt;/td&gt;&lt;td&gt;34.46&lt;/td&gt;&lt;td&gt;26.21&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603345&lt;/td&gt;&lt;td&gt;安井食品&lt;/td&gt;&lt;td&gt;290.03&lt;/td&gt;&lt;td&gt;87.02&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;td&gt;4.26&lt;/td&gt;&lt;td&gt;4.86&lt;/td&gt;&lt;td&gt;19.53&lt;/td&gt;&lt;td&gt;20.44&lt;/td&gt;&lt;td&gt;17.89&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;301201&lt;/td&gt;&lt;td&gt;诚达药业&lt;/td&gt;&lt;td&gt;59.25&lt;/td&gt;&lt;td&gt;38.30&lt;/td&gt;&lt;td&gt;-0.18&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;0.40&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;95.57&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603179&lt;/td&gt;&lt;td&gt;新泉股份&lt;/td&gt;&lt;td&gt;433.93&lt;/td&gt;&lt;td&gt;85.06&lt;/td&gt;&lt;td&gt;1.91&lt;/td&gt;&lt;td&gt;2.08&lt;/td&gt;&lt;td&gt;2.57&lt;/td&gt;&lt;td&gt;44.43&lt;/td&gt;&lt;td&gt;40.94&lt;/td&gt;&lt;td&gt;33.07&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600418&lt;/td&gt;&lt;td&gt;江淮汽车&lt;/td&gt;&lt;td&gt;1,146.82&lt;/td&gt;&lt;td&gt;52.51&lt;/td&gt;&lt;td&gt;-0.82&lt;/td&gt;&lt;td&gt;-0.77&lt;/td&gt;&lt;td&gt;1.17&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;44.78&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688521&lt;/td&gt;&lt;td&gt;芯原股份&lt;/td&gt;&lt;td&gt;1,093.00&lt;/td&gt;&lt;td&gt;207.85&lt;/td&gt;&lt;td&gt;-1.14&lt;/td&gt;&lt;td&gt;-0.37&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;2,277.08&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;00700&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;54,584.64&lt;/td&gt;&lt;td&gt;598.50&lt;/td&gt;&lt;td&gt;21.27&lt;/td&gt;&lt;td&gt;24.57&lt;/td&gt;&lt;td&gt;28.32&lt;/td&gt;&lt;td&gt;28.13&lt;/td&gt;&lt;td&gt;24.36&lt;/td&gt;&lt;td&gt;21.27&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;01109&lt;/td&gt;&lt;td&gt;华润置地&lt;/td&gt;&lt;td&gt;2,117.89&lt;/td&gt;&lt;td&gt;29.70&lt;/td&gt;&lt;td&gt;3.59&lt;/td&gt;&lt;td&gt;2.94&lt;/td&gt;&lt;td&gt;3.32&lt;/td&gt;&lt;td&gt;8.28&lt;/td&gt;&lt;td&gt;10.11&lt;/td&gt;&lt;td&gt;8.93&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601872&lt;/td&gt;&lt;td&gt;招商轮船&lt;/td&gt;&lt;td&gt;871.24&lt;/td&gt;&lt;td&gt;10.79&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;td&gt;0.78&lt;/td&gt;&lt;td&gt;0.94&lt;/td&gt;&lt;td&gt;17.06&lt;/td&gt;&lt;td&gt;13.82&lt;/td&gt;&lt;td&gt;11.46&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，财通证券研究所
+# 内容目录
+1 策略 徐陈翼：白银的历史大顶如何形成？兼论A股独立性——2026年2月投资策略……4  
+2 家电 孙谦：TCL 电子(01070) 5  
+3 商社 耿荣晨：毛戈平(01318) 5  
+4 食品饮料 吴文德：安井食品(603345) 5  
+5医药生物华挺：诚达药业(301201) 5  
+6 机械余炜超：新泉股份(603179) 6   
+7 汽车 吴晓飞：江淮汽车(600418) 6  
+8 电子和新科技朱陈星：芯原股份(688521) 6  
+9海外&amp;互联网传媒郝艳辉：腾讯控股(00700) 7   
+10 房地产 房诚琦：华润置地(01109) 7   
+11 交通运输 祝玉波：招商轮船(601872) 7
+# 1 策略 徐陈翼：白银的历史大顶如何形成？兼论A股独立性——2026年2月投资策略
+# 白银指标历史位置总览：
+1）技术面-波动率：历史上 $93\%$ 日期在 $200\%$ 以下，当前达到 $1800\%$ 以上白银降波的过程多伴随价格调整。  
+2）资金面-交易所提保：历史上两次大顶都伴随交易所提保，当前CME在近1个月内连续提保5次，冷却银价意愿较强。  
+3）大类比价：金银比，当前42逼近区间下沿，2010~2011年达到极值31；银油比，目前1.8以上的比值已大幅突破历史波动区间 $0.2\sim 0.5$
+后续重要宏观叙事：特朗普访华；沃什接任美联储+美国滞胀环境；特朗普与伊朗。
+# 大势研判：以我为主仍从容
+1）市场可能担心中东冲突和沃什交易两个扰动，我们复盘来看，本轮行情受海外影响较小，地缘风险指标与美元指数/10年美债收益率上行期间上证维持韧性。  
+2）成交额择时模型视角，最灵敏策略提示卖出，中等灵敏策略尚未输出卖点。  
+3）本轮行情的驱动一方面来自保险长钱，仍有加仓空间，另一方面关注主动偏股公募净值与发行正反馈可能来临。
+# 投资组合：马年驾驭“三驾马车”，胜率赔率兼具
+1、成长核心资产—恒生互联网。胜率端，平台经济支持+受益放权给企业，AI方面仍有潜在催化，叠加中美关系进一步改善+人民币升值被动外资流入。  
+2、全球竞争优势一奔马资产（奔马50）。胜率受益全球景气复苏+政策坚定支持+机构资金流入，赔率性价比高：1）AI强产业趋势；2）高端制造受益全球投资周期；3）北美地产链关注中美缓和+出海盈利优势；4）中游资源品供给侧反内卷+外需回升。  
+3、成长新兴赛道一马斯克链映射（短期重点关注算力、地下交通等）。
+风险提示：美国经济衰退风险、海外金融风险超预期、历史经验失效等。
+# 2 家电 孙谦：TCL 电子(01070)
+索尼与TCL电子拟成立合资公司，TCL电子持股 $51\%$ 、索尼持股 $49\%$ 。本次收购存在不确定性，双方约定的排他性谈判期截止日期为2026年3月31日。该合资公司通过依托公司在大尺寸+miniLED全产业链垂直整合带来的成本与技术优势，并融合索尼“BRAVIA”品牌影响力与XR芯片画质调校技术，或将加强公司高端产品系列布局能力。
+产品研发不及预期；汇率波动风险；新技术行业竞争风险；合资公司成立失败风险
+# 3 商社 耿荣晨：毛戈平(01318)
+毛戈平品牌在2025年10月初落地香港海港城首店后，近期于香港瑰丽酒店举办“美承东方·光影无界”启幕秀，以东方美学与现代光影艺术的融合盛宴，将品牌核心美学理念推向国际舞台，既是对全球渠道布局的深化，更以自主姿态在全球高端美妆叙事中传递东方美学价值。同时毛戈平美妆教育广州校区开业，加速完善美妆技术教育区域体系。
+风险提示：行业竞争加剧风险；渠道拓展不及预期；产品孵化不及预期
+# 4 食品饮料 吴文德：安井食品(603345)
+拥抱商超定制，顺应渠道和消费趋势：公司正从过去依赖餐饮大B客户的模式，转向“有选择的商超定制”战略。公司把握餐饮零售化趋势，与山姆、沃尔玛、盒马等商超深度合作，推出定制化产品。3Q2025商超渠道收入达2.2亿元，同比增加 $28.1\%$ 。商超模式凭借低费用、快研发和高溢价，成为明确的业绩新引擎。
+风险提示：消费力恢复不及预期，行业竞争加剧，食品安全问题等
+# 5医药生物 华挺：诚达药业(301201)
+公司积极向生物细胞治疗领域的战略转型，通过构建人脐带间充质干细胞（hUC-MSCs）、基因治疗等技术平台的创新药管线，打造继小分子CDMO之后的第二增长极。公司采取"License-in+联合开发"的轻资产模式切入赛道，
+2024年公司与美国ChironPharma的合作取得重要突破，就CX2101（心梗后心衰适应症）和CX2202（脑梗后遗症适应症）两项核心资产达成技术共享协议。ChironPharma的两个细胞治疗项目分别已进入临床II期和1/2a期，并获得400万美元的里程碑付款。这种从传统小分子药物向生物药领域的延伸，标志着公司技术能力的重大升级。
+研发失败及进度滞后风险、公司产品销售不及预期风险、国际认证延期风险提示：期风险、政策双向波动风险、限售股解禁、人民币汇率波动风险、股东减持风险
+# 6 机械 余炜超：新泉股份(603179)
+深耕汽车饰件二十余载，产品丰富，绑定核心客户：公司成立于2001年4月28日，目前国内拥有26家分子公司，海外5家分子公司，1个省级技术中心，1个通过国家CNAS认证的实验中心，公司的汽车饰件总成产品主要包括仪表板总成、顶置文件柜总成、门内护板总成、立柱护板总成、流水槽盖板总成和保险杠总成等。公司与一汽解放、北汽福田、陕西重汽、中国重汽、东风汽车等国内前五大中、重型卡车企业，以及吉利汽车、奇瑞汽车、上海汽车、江铃福特、一汽大众、上海大众、广汽集团、比亚迪、长城汽车、长安福特、蔚来汽车、理想汽车等企业均建立了良好的合作关系。
+市场前景受制于汽车行业发展速度的风险；汽车产业政策变动对行业风险提示：经营环境影响的风险；客户集中的风险；现供车型销量下滑及新供车型销售不畅风险
+# 7 汽车 吴晓飞：江淮汽车(600418)
+公司以电动汽车技术为基础，融合华为等高科技企业智能化、网联化汽车解决方案，开发全新一代高端智能电动平台，推动高效能动力电控技术、先进电机技术、软硬件整合技术，以及平台集成的智能驾驶系统、网联化系统、新材料应用、关键零部件等持续迭代升级，以研究积累的技术为基础，打造全新高端智能系列车型，覆盖轿车、SUV和MPV等乘用车主要品种。
+风险提示：新产品推出进度不及预期；海外竞争加剧；终端消费需求不足
+# 8 电子和新科技 朱陈星：芯原股份(688521)
+芯片设计与量产业务驱动业绩快速增长：公司2025年第三季度实现芯片设计业务收入4.28亿元，环比增长 $290.82\%$ ，同比增长 $80.23\%$ ；实现量产业务收入6.09亿元，环比增长 $132.77\%$ ，同比增长 $157.84\%$ ；实现知识产权授权使用费收入2.12亿元，环比增长 $13.43\%$ ，同比基本持平。
+技术授权风险；产品或服务客户端认证失败风险；研发人员流失风险；海外经营风险；股东减持风险
+# 9 海外&amp;互联网传媒 郝艳辉：腾讯控股(00700)
+业绩超预期，销售、研发费用率高于预期：3Q25公司实现收入1929亿元（同比 $+15.4\%$ ，超出彭博一致预期 $2.15\%$ ），毛利率 $56.4\%$ （超出彭博一致预期0.19pcts），销售费用率 $5.9\%$ （超出彭博一致预期0.6pcts）、研发费用率为 $11.8\%$ （超出彭博一致预期0.9pcts），但分占联/合营公司利润达78.5亿元（超出彭博预期 $62.3\%$ ），推动Non-IFRS归母净利润达705.5亿元（同比 $+18.0\%$ ，超出彭博一致预期 $6.9\%$ ）。
+风险提示： 游戏市场政策监管趋严、宏观经济弱复苏导致广告收入增速放缓风险、竞争加剧风险、投资收益不确定风险
+# 10房地产 房诚琦：华润置地(01109)
+公司的房产生活服务平台实现从“单一销售功能”向“全生命周期服务”的战略跨越。“小润+”微信小程序平台，整合了购房流程、业主服务、社群运营、全渠道经纪、会员权益5大业务，涵盖13个核心模块、174项实操功能，打通地产开发、经纪生态、万象服务、万象商业、城市资源等全域业务，为客户找房、选房、购房、交付、入住等环节提供全周期的服务。
+房地产市场持续承压风险；新的经营性不动产落地不及预期；线下消费复苏不及预期
+# 11交通运输 祝玉波：招商轮船(601872)
+2025年8月以来，受益于OPEC+扩产及Q4旺季带动，原油运价持续走高。2025Q4VLCC单季度平均运价达到9.4万美元/天，创2008年以来历史第二高点（最高点为2008Q2的10.3万美金/天）。公司作为全球最大的权益VLCC船
+东，在油运高景气背景下，业绩逐步兑现（滞后现货约45天），2025Q4油运经营利润同比预计增加 $200\% - 230\%$ 至17.3-19.0亿元。
+原油需求大幅下降，OPEC+增产不及预期或转向减产，制裁落地不及预期，西芒杜投产不及预期，环保政策推进不及预期
+# 信息披露
+# $\bullet$ 分析师承诺
+作者具有中国证券业协会授予的证券投资咨询执业资格，并注册为证券分析师，具备专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解。本报告清晰地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，作者也不会因本报告中的具体推荐意见或观点而直接或间接收到任何形式的补偿。
+# $\bullet$ 资质声明
+财通证券股份有限公司具备中国证券监督管理委员会许可的证券投资咨询业务资格。
+# 公司评级
+以报告发布日后6个月内，证券相对于市场基准指数的涨跌幅为标准：
+买入：相对同期相关证券市场代表性指数涨幅大于 $10\%$
+增持：相对同期相关证券市场代表性指数涨幅在 $5\% \sim 10\%$ 之间；
+中性：相对同期相关证券市场代表性指数涨幅在 $-5\% \sim 5\%$ 之间；
+减持：相对同期相关证券市场代表性指数涨幅小于 $-5\%$
+无评级：由于我们无法获取必要的资料，或者公司面临无法预见结果的重大不确定性事件，或者其他原因，致使我们无法给出明确的投资评级。
+A股市场代表性指数以沪深300指数为基准；中国香港市场代表性指数以恒生指数为基准；美国市场代表性指数以标普500指数为基准。
+# 行业评级
+以报告发布日后6个月内，行业相对于市场基准指数的涨跌幅为标准：
+看好：相对表现优于同期相关证券市场代表性指数；
+中性：相对表现与同期相关证券市场代表性指数持平；
+看淡：相对表现弱于同期相关证券市场代表性指数。
+A股市场代表性指数以沪深300指数为基准；中国香港市场代表性指数以恒生指数为基准；美国市场代表性指数以标普500指数为基准。
+# 免责声明
+本报告仅供财通证券股份有限公司的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。
+本报告的信息来源于已公开的资料，本公司不保证该等信息的准确性、完整性。本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并非作为或被视为出售或购买证券或其他投资标的邀请或向他人作出邀请。
+本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的价格、价值及投资收入可能会波动。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。
+本公司通过信息隔离墙对可能存在利益冲突的业务部门或关联机构之间的信息流动进行控制。因此，客户应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司不对任何人使用本报告中的任何内容所引致的任何损失负任何责任。
+本报告仅作为客户作出投资决策和公司投资顾问为客户提供投资建议的参考。客户应当独立作出投资决策，而基于本报告作出任何投资决定或就本报告要求任何解释前应咨询所在证券机构投资顾问和服务人员的意见；
+何其他人，或以任何侵犯本公司版权的其他方式使用。</t>
+  </si>
+  <si>
+    <t># 策略周报（20260126-20260130）
+# 市场流动性概况
+R007 由 $1 . 5 3 6 0 \%$ 增加至 $1 . 6 4 0 1 \%$ ，较前期增加了 10.41 个 bp；DR007由 $1 . 4 9 3 5 \%$ 上升至 $1 . 5 9 2 6 \%$ ，较前期增加 9.91 个 bp。R007 与 DR007 利差较前期增加了 0.50 个 bp。此外，中美利差在本周增加了 4.34 个 bp。
+本周资金净流出金额为 1969.74 亿元，资金净流入较上周增加了582.68 亿元，其中资金供给为-1544.86 亿元，资金需求为 424.88 亿元。具体来看，资金供给增加了 297.60 亿元，其中融资净买入增加了 8.41 亿元，股票分红减少了 50.83亿元，股票型ETF净申赎增加了 272.70亿元，股票型基金与混合基金成立增加了 67.32亿元；资金需求减少了 285.08亿元。
+# 行业板块流动性跟踪
+本周中信一级行业多数板块下跌，市场风格整体偏弱，板块分化格局延续。从行业数量看，下跌板块多于上涨板块，跌幅面占据主导。在上涨方面，石油石化板块表现最为突出，周涨幅为 $6 . 9 2 \%$ ，同时通信等行业亦有小幅上涨。下跌方面，国防军工、综合金融板块领跌，跌幅分别为 $7 . 6 0 \%$ 、$6 . 1 6 \%$ 。
+从拥挤度排名分位数来看，截止到本周最后一个交易日，有色金属行业的综合拥挤度最高。
+# 风格板块流动性跟踪
+本周各风格指数绝大多数下跌，其中成长风格跌幅最大，为 $2 . 6 6 \%$ ，消费风格紧随其后，为 $1 . 3 2 \%$ 。从日均成交额占比来看，成长风格是市场最活跃的板块，占比达到 $5 5 . 9 1 \%$ ，领先于其他风格。在日均换手率方面，成长风格保持最高，为 $4 . 0 9 \%$ ，金融和稳定风格换手率处于相对低位。
+风险提示：本报告对于行业和风格指数的研究分析均基于历史公开信息，可能受指数样本股的变化而产生一定的分析偏差；行业和风格指数未来表现受宏观环境、市场波动、风格转换等多重因素影响，存在波动风险；数据结果受统计口径与计算方法的影响，结果可能存在误差。
+# 麦高证券 研究发展部
+分析师：刘娟秀
+资格证书：S0650524050001
+联系邮箱：liujuanxiu@mgzq.com
+联系电话：15210154632
+联系人：董荣雨
+资格证书：S0650125070072
+联系邮箱：dongrongyu@mgzq.com
+联系电话：15252679819
+# 相关研究
+《 策 略周 报（ 20260119-20260123 ） 》
+2026.01.26
+《 策 略周 报（ 20260112-20260116 ） 》
+2026.01.19
+《 策 略周 报（ 20260105-20260109 ） 》
+2026.01.12
+《固收+市场全景解析》2026.01.07
+# 正文目录
+# 1 各类市场流动性概况 .. 4
+1.1 货币市场流动性 .. /  
+1.2 资本市场流动性 . 4  
+1.3 主板市场成交数据与流动性追踪 . 5
+# 2 行业板块流动性跟踪 ..
+2.1 本周中信一级行业涨跌幅跟踪 .  
+2.2 行业间资金流向跟踪 .   
+2.3 行业热度纵向对比 . 9  
+2.4 行业拥挤度情况 . 10
+# 3 风格板块流动性跟踪 . 11
+# 风险提示： 13
+# 图表目录
+图表 1： 质押式回购利率（%） 4  
+图表 2： 货币市场流动性(%) 4  
+图表 3： 资金供需与净流入（亿元） 5  
+图表 4： 宽基指数流动性数据追踪热力图  
+图表 5： 中信一级行业本周涨跌幅（%）  
+图表 6： 中信一级行业杠杆资金净买入情况（亿元） 8  
+图表 7： 中信一级行业陆股通重仓股主力资金净买入情况（亿元） 9  
+图表 8： 中信一级行业近 16周两融余额占比热力图... 10  
+图表 9： 中信一级行业近 16周杠杆资金流动性热力图（亿元） .. 10  
+图表 10： 中信行业拥挤度情况 . 11  
+图表 11： 中信风格日均成交额占比 . 12  
+图表 12： 中信风格陆股通重仓股主力资金净买入情况（亿元） 12  
+图表 13： 不同风格板块流动性数据累计汇总 13
+# 1 各类市场流动性概况
+# 1.1 货币市场流动性
+R007 由 $1 . 5 3 6 0 \%$ 增加至 $1 . 6 4 0 1 \%$ ，较前期增加了 10.41 个 bp；DR007 由 $1 . 4 9 3 5 \%$ 上升至 $1 . 5 9 2 6 \%$ ，较前期增加 9.91 个 bp。R007 与 DR007 利差较前期增加了 0.50 个bp。此外，中美利差在本周增加了 4.34 个 bp。
+图表 1：质押式回购利率（%）  
+![](images/1667a5e4ff01d4c3c5b025cf18ca24a0389def37553814bb443345f579020f81.jpg)  
+资料来源：Wind、麦高证券研究发展部
+图表 2：货币市场流动性(%)  
+![](images/ecf7333151175a0cfe2465584d9396401dfd5faa8998b38f106dfe55f1b5a63b.jpg)  
+资料来源：Wind、麦高证券研究发展部
+# 1.2 资本市场流动性
+统计 A 股资本市场资金供给与资金需求，其中资金供给包括融资净买入、股票及混合型基金成立、股票型 ETF净申购、股票分红；资金需求包括一级市场IPO 和增发、股票解禁。
+本周资金净流出金额为 1969.74 亿元，资金净流入较上周增加了 582.68 亿元，其中资金供给为-1544.86亿元，资金需求为 424.88亿元。具体来看，资金供给增加了297.60亿元，其中融资净买入增加了 8.41亿元，股票分红减少了 50.83亿元，股票型ETF净申赎增加了272.70亿元，股票型基金与混合基金成立增加了67.32亿元；资金需求减少了 285.08亿元。
+图表 3：资金供需与净流入（亿元）  
+![](images/b7b2f8ad332c475e58e83522c26f9df9e8df7c3da90e1d6ace191ee11cd9777f.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+# 1.3 主板市场成交数据与流动性追踪
+统计A股各类宽基指数：沪深300 指数，中证500指数，中证 1000指数以及中证2000指数在过去八周内融资融券数据、成交额以及换手率数据。
+本周市场资金面呈现结构性分化：除沪深 300 外，其余宽基指数的融资余额均录得环比下跌；融券余额方面，沪深 300 和中证 1000 较前一周出现环比上涨。资金流向显示，中证 1000和中证2000融资净买入规模有所收缩。市场活跃度方面，各宽基指数的日均成交额和日均换手率同步回升。
+图表 4：宽基指数流动性数据追踪热力图  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;指标名称&lt;/td&gt;&lt;td&gt;前8周&lt;/td&gt;&lt;td&gt;前7周&lt;/td&gt;&lt;td&gt;前6周&lt;/td&gt;&lt;td&gt;前5周&lt;/td&gt;&lt;td&gt;前4周&lt;/td&gt;&lt;td&gt;前3周&lt;/td&gt;&lt;td&gt;前2周&lt;/td&gt;&lt;td&gt;前1周&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;沪深300&lt;/td&gt;&lt;td&gt;融资余额(亿元)&lt;/td&gt;&lt;td&gt;8483.19&lt;/td&gt;&lt;td&gt;8813.44&lt;/td&gt;&lt;td&gt;8899.42&lt;/td&gt;&lt;td&gt;8849.56&lt;/td&gt;&lt;td&gt;9052.85&lt;/td&gt;&lt;td&gt;9514.59&lt;/td&gt;&lt;td&gt;9638.76&lt;/td&gt;&lt;td&gt;9775.29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券余额(亿元)&lt;/td&gt;&lt;td&gt;5306.97&lt;/td&gt;&lt;td&gt;5581.39&lt;/td&gt;&lt;td&gt;5632.41&lt;/td&gt;&lt;td&gt;5280.14&lt;/td&gt;&lt;td&gt;5831.13&lt;/td&gt;&lt;td&gt;5673.58&lt;/td&gt;&lt;td&gt;5331.75&lt;/td&gt;&lt;td&gt;5909.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融资净买入(亿元)&lt;/td&gt;&lt;td&gt;28.33&lt;/td&gt;&lt;td&gt;-33.75&lt;/td&gt;&lt;td&gt;85.91&lt;/td&gt;&lt;td&gt;-49.86&lt;/td&gt;&lt;td&gt;203.29&lt;/td&gt;&lt;td&gt;461.73&lt;/td&gt;&lt;td&gt;121.07&lt;/td&gt;&lt;td&gt;136.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券净卖出(亿元)&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;-0.58&lt;/td&gt;&lt;td&gt;-0.86&lt;/td&gt;&lt;td&gt;-1.11&lt;/td&gt;&lt;td&gt;0.37&lt;/td&gt;&lt;td&gt;-0.71&lt;/td&gt;&lt;td&gt;-0.73&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿元)&lt;/td&gt;&lt;td&gt;4613.15&lt;/td&gt;&lt;td&gt;4042.14&lt;/td&gt;&lt;td&gt;4267.08&lt;/td&gt;&lt;td&gt;4614.30&lt;/td&gt;&lt;td&gt;6640.67&lt;/td&gt;&lt;td&gt;7904.05&lt;/td&gt;&lt;td&gt;6876.59&lt;/td&gt;&lt;td&gt;8020.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均换手率&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.73%&lt;/td&gt;&lt;td&gt;0.88%&lt;/td&gt;&lt;td&gt;0.80%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;中证500&lt;/td&gt;&lt;td&gt;融资余额(亿元)&lt;/td&gt;&lt;td&gt;4927.88&lt;/td&gt;&lt;td&gt;4712.21&lt;/td&gt;&lt;td&gt;4776.41&lt;/td&gt;&lt;td&gt;4811.25&lt;/td&gt;&lt;td&gt;4993.27&lt;/td&gt;&lt;td&gt;5238.72&lt;/td&gt;&lt;td&gt;5126.10&lt;/td&gt;&lt;td&gt;5087.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券余额(亿元)&lt;/td&gt;&lt;td&gt;2289.59&lt;/td&gt;&lt;td&gt;1692.15&lt;/td&gt;&lt;td&gt;1859.25&lt;/td&gt;&lt;td&gt;1794.80&lt;/td&gt;&lt;td&gt;2137.22&lt;/td&gt;&lt;td&gt;2433.98&lt;/td&gt;&lt;td&gt;2582.97&lt;/td&gt;&lt;td&gt;2142.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融资净买入(亿元)&lt;/td&gt;&lt;td&gt;59.48&lt;/td&gt;&lt;td&gt;-12.50&lt;/td&gt;&lt;td&gt;74.10&lt;/td&gt;&lt;td&gt;34.85&lt;/td&gt;&lt;td&gt;182.02&lt;/td&gt;&lt;td&gt;237.19&lt;/td&gt;&lt;td&gt;-111.12&lt;/td&gt;&lt;td&gt;-39.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券净卖出(亿元)&lt;/td&gt;&lt;td&gt;-0.18&lt;/td&gt;&lt;td&gt;-1.56&lt;/td&gt;&lt;td&gt;-1.72&lt;/td&gt;&lt;td&gt;-1.60&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;td&gt;-1.28&lt;/td&gt;&lt;td&gt;-0.46&lt;/td&gt;&lt;td&gt;-3.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿元)&lt;/td&gt;&lt;td&gt;3214.30&lt;/td&gt;&lt;td&gt;2913.30&lt;/td&gt;&lt;td&gt;3421.96&lt;/td&gt;&lt;td&gt;3928.13&lt;/td&gt;&lt;td&gt;5709.41&lt;/td&gt;&lt;td&gt;6907.98&lt;/td&gt;&lt;td&gt;5704.50&lt;/td&gt;&lt;td&gt;6364.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均换手率&lt;/td&gt;&lt;td&gt;1.47%&lt;/td&gt;&lt;td&gt;1.43%&lt;/td&gt;&lt;td&gt;1.49%&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;2.46%&lt;/td&gt;&lt;td&gt;2.86%&lt;/td&gt;&lt;td&gt;2.30%&lt;/td&gt;&lt;td&gt;2.73%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;中证1000&lt;/td&gt;&lt;td&gt;融资余额(亿元)&lt;/td&gt;&lt;td&gt;5127.79&lt;/td&gt;&lt;td&gt;5138.17&lt;/td&gt;&lt;td&gt;5231.44&lt;/td&gt;&lt;td&gt;5248.10&lt;/td&gt;&lt;td&gt;5446.35&lt;/td&gt;&lt;td&gt;5609.68&lt;/td&gt;&lt;td&gt;5574.51&lt;/td&gt;&lt;td&gt;5519.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券余额(亿元)&lt;/td&gt;&lt;td&gt;588.35&lt;/td&gt;&lt;td&gt;488.49&lt;/td&gt;&lt;td&gt;584.97&lt;/td&gt;&lt;td&gt;604.42&lt;/td&gt;&lt;td&gt;709.88&lt;/td&gt;&lt;td&gt;689.43&lt;/td&gt;&lt;td&gt;745.23&lt;/td&gt;&lt;td&gt;768.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融资净买入(亿元)&lt;/td&gt;&lt;td&gt;66.63&lt;/td&gt;&lt;td&gt;3.64&lt;/td&gt;&lt;td&gt;93.20&lt;/td&gt;&lt;td&gt;16.65&lt;/td&gt;&lt;td&gt;198.26&lt;/td&gt;&lt;td&gt;169.29&lt;/td&gt;&lt;td&gt;-34.86&lt;/td&gt;&lt;td&gt;-54.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券净卖出(亿元)&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;td&gt;-0.87&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;0.56&lt;/td&gt;&lt;td&gt;-1.49&lt;/td&gt;&lt;td&gt;0.42&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿元)&lt;/td&gt;&lt;td&gt;3951.49&lt;/td&gt;&lt;td&gt;3623.75&lt;/td&gt;&lt;td&gt;4185.48&lt;/td&gt;&lt;td&gt;4585.23&lt;/td&gt;&lt;td&gt;6103.35&lt;/td&gt;&lt;td&gt;7617.14&lt;/td&gt;&lt;td&gt;5958.37&lt;/td&gt;&lt;td&gt;6470.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均换手率&lt;/td&gt;&lt;td&gt;2.19%&lt;/td&gt;&lt;td&gt;2.03%&lt;/td&gt;&lt;td&gt;2.15%&lt;/td&gt;&lt;td&gt;2.38%&lt;/td&gt;&lt;td&gt;3.08%&lt;/td&gt;&lt;td&gt;3.89%&lt;/td&gt;&lt;td&gt;3.17%&lt;/td&gt;&lt;td&gt;3.49%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;中证2000&lt;/td&gt;&lt;td&gt;融资余额(亿元)&lt;/td&gt;&lt;td&gt;3059.76&lt;/td&gt;&lt;td&gt;3006.69&lt;/td&gt;&lt;td&gt;3088.62&lt;/td&gt;&lt;td&gt;3086.71&lt;/td&gt;&lt;td&gt;3242.23&lt;/td&gt;&lt;td&gt;3337.58&lt;/td&gt;&lt;td&gt;3288.51&lt;/td&gt;&lt;td&gt;3228.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券余额(亿元)&lt;/td&gt;&lt;td&gt;35.57&lt;/td&gt;&lt;td&gt;63.68&lt;/td&gt;&lt;td&gt;67.38&lt;/td&gt;&lt;td&gt;68.08&lt;/td&gt;&lt;td&gt;87.20&lt;/td&gt;&lt;td&gt;88.80&lt;/td&gt;&lt;td&gt;91.35&lt;/td&gt;&lt;td&gt;81.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融资净买入(亿元)&lt;/td&gt;&lt;td&gt;32.76&lt;/td&gt;&lt;td&gt;28.02&lt;/td&gt;&lt;td&gt;81.92&lt;/td&gt;&lt;td&gt;-1.91&lt;/td&gt;&lt;td&gt;155.52&lt;/td&gt;&lt;td&gt;99.74&lt;/td&gt;&lt;td&gt;-49.41&lt;/td&gt;&lt;td&gt;-60.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券净卖出(亿元)&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;1.18&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;-0.06&lt;/td&gt;&lt;td&gt;-0.21&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿元)&lt;/td&gt;&lt;td&gt;4727.22&lt;/td&gt;&lt;td&gt;4227.40&lt;/td&gt;&lt;td&gt;4770.69&lt;/td&gt;&lt;td&gt;5069.28&lt;/td&gt;&lt;td&gt;6242.08&lt;/td&gt;&lt;td&gt;7546.23&lt;/td&gt;&lt;td&gt;5984.01&lt;/td&gt;&lt;td&gt;6118.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均换手率&lt;/td&gt;&lt;td&gt;3.84%&lt;/td&gt;&lt;td&gt;3.47%&lt;/td&gt;&lt;td&gt;3.58%&lt;/td&gt;&lt;td&gt;3.65%&lt;/td&gt;&lt;td&gt;4.31%&lt;/td&gt;&lt;td&gt;5.18%&lt;/td&gt;&lt;td&gt;4.21%&lt;/td&gt;&lt;td&gt;4.39%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;其他股票&lt;/td&gt;&lt;td&gt;融资余额(亿元)&lt;/td&gt;&lt;td&gt;2012.04&lt;/td&gt;&lt;td&gt;1957.16&lt;/td&gt;&lt;td&gt;2019.54&lt;/td&gt;&lt;td&gt;2018.57&lt;/td&gt;&lt;td&gt;2118.67&lt;/td&gt;&lt;td&gt;2173.77&lt;/td&gt;&lt;td&gt;2147.50&lt;/td&gt;&lt;td&gt;2122.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券余额(亿元)&lt;/td&gt;&lt;td&gt;42.71&lt;/td&gt;&lt;td&gt;154.06&lt;/td&gt;&lt;td&gt;173.15&lt;/td&gt;&lt;td&gt;164.43&lt;/td&gt;&lt;td&gt;169.64&lt;/td&gt;&lt;td&gt;157.31&lt;/td&gt;&lt;td&gt;156.80&lt;/td&gt;&lt;td&gt;110.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融资净买入(亿元)&lt;/td&gt;&lt;td&gt;12.52&lt;/td&gt;&lt;td&gt;31.62&lt;/td&gt;&lt;td&gt;62.46&lt;/td&gt;&lt;td&gt;-0.52&lt;/td&gt;&lt;td&gt;100.10&lt;/td&gt;&lt;td&gt;36.65&lt;/td&gt;&lt;td&gt;-25.47&lt;/td&gt;&lt;td&gt;-20.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;融券净卖出(亿元)&lt;/td&gt;&lt;td&gt;0.12&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;-0.08&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;-0.41&lt;/td&gt;&lt;td&gt;-0.18&lt;/td&gt;&lt;td&gt;-0.21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均成交额(亿元)&lt;/td&gt;&lt;td&gt;3029.31&lt;/td&gt;&lt;td&gt;2857.02&lt;/td&gt;&lt;td&gt;3020.15&lt;/td&gt;&lt;td&gt;3146.18&lt;/td&gt;&lt;td&gt;3827.38&lt;/td&gt;&lt;td&gt;4695.62&lt;/td&gt;&lt;td&gt;3470.73&lt;/td&gt;&lt;td&gt;3694.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日均换手率&lt;/td&gt;&lt;td&gt;2.63%&lt;/td&gt;&lt;td&gt;2.60%&lt;/td&gt;&lt;td&gt;2.75%&lt;/td&gt;&lt;td&gt;2.58%&lt;/td&gt;&lt;td&gt;3.06%&lt;/td&gt;&lt;td&gt;3.65%&lt;/td&gt;&lt;td&gt;2.76%&lt;/td&gt;&lt;td&gt;2.95%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：恒生聚源、麦高证券研究发展部
+# 2 行业板块流动性跟踪
+# 2.1 本周中信一级行业涨跌幅跟踪
+本周中信一级行业多数板块下跌，市场风格整体偏弱，板块分化格局延续。从行业数量看，下跌板块多于上涨板块，跌幅面占据主导。在上涨方面，石油石化板块表现最为突出，周涨幅为 $6 . 9 2 \%$ ，同时通信等行业亦有小幅上涨。下跌方面，国防军工、综合金融板块领跌，跌幅分别为 $7 . 6 0 \%$ 、 $6 . 1 6 \%$ 。
+图表 5：中信一级行业本周涨跌幅（%）  
+![](images/c86b43163f50b261ef2a45eac07ecaed3b80bdebe440a34429cf07e664fe65dc.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+# 2.2 行业间资金流向跟踪
+本周行业杠杆资金呈现多数加仓、少数减持的结构性特征。其中，有色金属行业获得的杠杆资金净加仓最多，净流入达102.13亿元；相较之下，电子行业杠杆资金净流出达75.13亿元，为减仓最显著行业。
+图表 6：中信一级行业杠杆资金净买入情况（亿元）  
+![](images/4a5ae61a9055fe477ab04c178ed840be900073a6a07bfede5bf37532d86db525.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+根据最新一期的陆股通持仓，将陆股通持仓占自由流通股占比超过 $5 \%$ ，且自由流通市值大于 200亿元的股票定义为陆股通重仓股，统计这些股票的主力资金净买入情况，并将行业中陆股通重仓股大于 3只的行业进行了拟合。最终我们得到了电子等19个行业中每个行业陆股通重仓股的主力资金净买入数据。
+本周陆股通重仓股主力资金整体呈现多数行业流出态势。其中，通信行业的资金净流入最多，有色金属行业净流出最多。具体来看，通信行业的陆股通重仓股主力资金净流入为 100.86 亿元，有色金属行业的陆股通重仓股主力资金净流出为 180.03亿元。
+图表 7：中信一级行业陆股通重仓股主力资金净买入情况（亿元）  
+![](images/86b685fa71fed4e956e41ed8835758cac10c545c3095635bd865f14a01da5d36.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+# 2.3 行业热度纵向对比
+根据近十六周杠杆资金热力图可得，本周有色金属、食品饮料行业的杠杆资金占比位于 16周高位，医药、商贸零售、房地产、汽车、消费者服务、电力设备及新能源、综合金融、计算机、轻工制造行业的杠杆资金占比位于16 周低位；有色金属行业杠杆资金净买入增加最多，国防军工行业减少最多。
+图表 8：中信一级行业近 16 周两融余额占比热力图  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="18"&gt;中信一级行业近16周两融余额占比&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;前16周&lt;/td&gt;&lt;td&gt;前15周&lt;/td&gt;&lt;td&gt;前14周&lt;/td&gt;&lt;td&gt;前13周&lt;/td&gt;&lt;td&gt;前12周&lt;/td&gt;&lt;td&gt;前11周&lt;/td&gt;&lt;td&gt;前10周&lt;/td&gt;&lt;td&gt;前9周&lt;/td&gt;&lt;td&gt;前8周&lt;/td&gt;&lt;td&gt;前7周&lt;/td&gt;&lt;td&gt;前6周&lt;/td&gt;&lt;td&gt;前5周&lt;/td&gt;&lt;td&gt;前4周&lt;/td&gt;&lt;td&gt;前3周&lt;/td&gt;&lt;td&gt;前2周&lt;/td&gt;&lt;td&gt;前1周&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;1.45%&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;1.40%&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;1.40%&lt;/td&gt;&lt;td&gt;1.44%&lt;/td&gt;&lt;td&gt;1.45%&lt;/td&gt;&lt;td&gt;1.42%&lt;/td&gt;&lt;td&gt;1.40%&lt;/td&gt;&lt;td&gt;1.39%&lt;/td&gt;&lt;td&gt;1.36%&lt;/td&gt;&lt;td&gt;1.37%&lt;/td&gt;&lt;td&gt;1.32%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;2.01%&lt;/td&gt;&lt;td&gt;1.93%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;1.96%&lt;/td&gt;&lt;td&gt;1.96%&lt;/td&gt;&lt;td&gt;2.04%&lt;/td&gt;&lt;td&gt;2.08%&lt;/td&gt;&lt;td&gt;2.03%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;1.95%&lt;/td&gt;&lt;td&gt;1.98%&lt;/td&gt;&lt;td&gt;2.05%&lt;/td&gt;&lt;td&gt;2.21%&lt;/td&gt;&lt;td&gt;2.15%&lt;/td&gt;&lt;td&gt;2.12%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;1.00%&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;0.97%&lt;/td&gt;&lt;td&gt;0.96%&lt;/td&gt;&lt;td&gt;0.99%&lt;/td&gt;&lt;td&gt;1.02%&lt;/td&gt;&lt;td&gt;1.02%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;1.02%&lt;/td&gt;&lt;td&gt;1.04%&lt;/td&gt;&lt;td&gt;1.05%&lt;/td&gt;&lt;td&gt;1.04%&lt;/td&gt;&lt;td&gt;1.00%&lt;/td&gt;&lt;td&gt;0.97%&lt;/td&gt;&lt;td&gt;0.99%&lt;/td&gt;&lt;td&gt;0.97%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;7.17%&lt;/td&gt;&lt;td&gt;6.81%&lt;/td&gt;&lt;td&gt;6.95%&lt;/td&gt;&lt;td&gt;6.85%&lt;/td&gt;&lt;td&gt;7.13%&lt;/td&gt;&lt;td&gt;7.12%&lt;/td&gt;&lt;td&gt;7.02%&lt;/td&gt;&lt;td&gt;6.85%&lt;/td&gt;&lt;td&gt;6.67%&lt;/td&gt;&lt;td&gt;6.73%&lt;/td&gt;&lt;td&gt;6.54%&lt;/td&gt;&lt;td&gt;6.51%&lt;/td&gt;&lt;td&gt;6.46%&lt;/td&gt;&lt;td&gt;6.24%&lt;/td&gt;&lt;td&gt;6.09%&lt;/td&gt;&lt;td&gt;5.99%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;0.76%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;0.70%&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;0.73%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;0.72%&lt;/td&gt;&lt;td&gt;0.77%&lt;/td&gt;&lt;td&gt;0.73%&lt;/td&gt;&lt;td&gt;0.73%&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;2.56%&lt;/td&gt;&lt;td&gt;2.51%&lt;/td&gt;&lt;td&gt;2.51%&lt;/td&gt;&lt;td&gt;2.48%&lt;/td&gt;&lt;td&gt;2.48%&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;td&gt;2.60%&lt;/td&gt;&lt;td&gt;2.66%&lt;/td&gt;&lt;td&gt;2.71%&lt;/td&gt;&lt;td&gt;2.89%&lt;/td&gt;&lt;td&gt;3.00%&lt;/td&gt;&lt;td&gt;3.25%&lt;/td&gt;&lt;td&gt;3.57%&lt;/td&gt;&lt;td&gt;3.41%&lt;/td&gt;&lt;td&gt;3.42%&lt;/td&gt;&lt;td&gt;3.11%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;5.00%&lt;/td&gt;&lt;td&gt;4.80%&lt;/td&gt;&lt;td&gt;4.89%&lt;/td&gt;&lt;td&gt;5.01%&lt;/td&gt;&lt;td&gt;5.26%&lt;/td&gt;&lt;td&gt;5.27%&lt;/td&gt;&lt;td&gt;5.21%&lt;/td&gt;&lt;td&gt;5.09%&lt;/td&gt;&lt;td&gt;5.00%&lt;/td&gt;&lt;td&gt;5.10%&lt;/td&gt;&lt;td&gt;5.13%&lt;/td&gt;&lt;td&gt;5.14%&lt;/td&gt;&lt;td&gt;5.08%&lt;/td&gt;&lt;td&gt;5.03%&lt;/td&gt;&lt;td&gt;5.14%&lt;/td&gt;&lt;td&gt;4.98%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;1.33%&lt;/td&gt;&lt;td&gt;1.27%&lt;/td&gt;&lt;td&gt;1.33%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.33%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.25%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.25%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;1.28%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.55%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.55%&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.51%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;1.32%&lt;/td&gt;&lt;td&gt;1.25%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.24%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;1.25%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;1.21%&lt;/td&gt;&lt;td&gt;1.18%&lt;/td&gt;&lt;td&gt;1.19%&lt;/td&gt;&lt;td&gt;1.14%&lt;/td&gt;&lt;td&gt;1.16%&lt;/td&gt;&lt;td&gt;1.18%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;1.34%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.27%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;1.35%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;1.27%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;1.27%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;1.22%&lt;/td&gt;&lt;td&gt;1.18%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;4.74%&lt;/td&gt;&lt;td&gt;4.44%&lt;/td&gt;&lt;td&gt;4.49%&lt;/td&gt;&lt;td&gt;4.30%&lt;/td&gt;&lt;td&gt;4.47%&lt;/td&gt;&lt;td&gt;4.44%&lt;/td&gt;&lt;td&gt;4.40%&lt;/td&gt;&lt;td&gt;4.44%&lt;/td&gt;&lt;td&gt;4.39%&lt;/td&gt;&lt;td&gt;4.35%&lt;/td&gt;&lt;td&gt;4.48%&lt;/td&gt;&lt;td&gt;4.48%&lt;/td&gt;&lt;td&gt;4.61%&lt;/td&gt;&lt;td&gt;4.69%&lt;/td&gt;&lt;td&gt;5.02%&lt;/td&gt;&lt;td&gt;5.52%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;6.08%&lt;/td&gt;&lt;td&gt;5.95%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;td&gt;5.89%&lt;/td&gt;&lt;td&gt;5.89%&lt;/td&gt;&lt;td&gt;5.90%&lt;/td&gt;&lt;td&gt;5.91%&lt;/td&gt;&lt;td&gt;6.05%&lt;/td&gt;&lt;td&gt;5.99%&lt;/td&gt;&lt;td&gt;5.86%&lt;/td&gt;&lt;td&gt;6.05%&lt;/td&gt;&lt;td&gt;6.19%&lt;/td&gt;&lt;td&gt;6.03%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;td&gt;6.46%&lt;/td&gt;&lt;td&gt;6.17%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;4.47%&lt;/td&gt;&lt;td&gt;4.24%&lt;/td&gt;&lt;td&gt;4.26%&lt;/td&gt;&lt;td&gt;4.18%&lt;/td&gt;&lt;td&gt;4.19%&lt;/td&gt;&lt;td&gt;4.26%&lt;/td&gt;&lt;td&gt;4.22%&lt;/td&gt;&lt;td&gt;4.20%&lt;/td&gt;&lt;td&gt;4.03%&lt;/td&gt;&lt;td&gt;4.05%&lt;/td&gt;&lt;td&gt;4.00%&lt;/td&gt;&lt;td&gt;4.09%&lt;/td&gt;&lt;td&gt;4.04%&lt;/td&gt;&lt;td&gt;3.96%&lt;/td&gt;&lt;td&gt;3.89%&lt;/td&gt;&lt;td&gt;3.75%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.44%&lt;/td&gt;&lt;td&gt;0.42%&lt;/td&gt;&lt;td&gt;0.43%&lt;/td&gt;&lt;td&gt;0.42%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;td&gt;0.55%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.51%&lt;/td&gt;&lt;td&gt;0.51%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;td&gt;0.47%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;0.44%&lt;/td&gt;&lt;td&gt;0.44%&lt;/td&gt;&lt;td&gt;0.46%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;2.28%&lt;/td&gt;&lt;td&gt;2.18%&lt;/td&gt;&lt;td&gt;2.23%&lt;/td&gt;&lt;td&gt;2.18%&lt;/td&gt;&lt;td&gt;2.21%&lt;/td&gt;&lt;td&gt;2.27%&lt;/td&gt;&lt;td&gt;2.24%&lt;/td&gt;&lt;td&gt;2.17%&lt;/td&gt;&lt;td&gt;2.12%&lt;/td&gt;&lt;td&gt;2.16%&lt;/td&gt;&lt;td&gt;2.15%&lt;/td&gt;&lt;td&gt;2.21%&lt;/td&gt;&lt;td&gt;2.09%&lt;/td&gt;&lt;td&gt;2.11%&lt;/td&gt;&lt;td&gt;2.12%&lt;/td&gt;&lt;td&gt;2.11%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;7.37%&lt;/td&gt;&lt;td&gt;7.53%&lt;/td&gt;&lt;td&gt;7.75%&lt;/td&gt;&lt;td&gt;8.36%&lt;/td&gt;&lt;td&gt;8.49%&lt;/td&gt;&lt;td&gt;8.08%&lt;/td&gt;&lt;td&gt;8.59%&lt;/td&gt;&lt;td&gt;8.50%&lt;/td&gt;&lt;td&gt;8.20%&lt;/td&gt;&lt;td&gt;8.03%&lt;/td&gt;&lt;td&gt;8.16%&lt;/td&gt;&lt;td&gt;7.97%&lt;/td&gt;&lt;td&gt;7.64%&lt;/td&gt;&lt;td&gt;7.51%&lt;/td&gt;&lt;td&gt;7.17%&lt;/td&gt;&lt;td&gt;6.83%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;16.82%&lt;/td&gt;&lt;td&gt;18.68%&lt;/td&gt;&lt;td&gt;18.21%&lt;/td&gt;&lt;td&gt;18.17%&lt;/td&gt;&lt;td&gt;16.95%&lt;/td&gt;&lt;td&gt;16.58%&lt;/td&gt;&lt;td&gt;17.17%&lt;/td&gt;&lt;td&gt;17.35%&lt;/td&gt;&lt;td&gt;17.68%&lt;/td&gt;&lt;td&gt;16.60%&lt;/td&gt;&lt;td&gt;16.80%&lt;/td&gt;&lt;td&gt;16.87%&lt;/td&gt;&lt;td&gt;17.54%&lt;/td&gt;&lt;td&gt;17.89%&lt;/td&gt;&lt;td&gt;17.60%&lt;/td&gt;&lt;td&gt;16.62%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;0.90%&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;0.86%&lt;/td&gt;&lt;td&gt;0.84%&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;0.86%&lt;/td&gt;&lt;td&gt;0.84%&lt;/td&gt;&lt;td&gt;0.82%&lt;/td&gt;&lt;td&gt;0.81%&lt;/td&gt;&lt;td&gt;0.78%&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;0.78%&lt;/td&gt;&lt;td&gt;0.75%&lt;/td&gt;&lt;td&gt;0.75%&lt;/td&gt;&lt;td&gt;0.77%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;0.28%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.27%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.27%&lt;/td&gt;&lt;td&gt;0.27%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;0.25%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;td&gt;0.16%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;0.21%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.20%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;7.63%&lt;/td&gt;&lt;td&gt;7.52%&lt;/td&gt;&lt;td&gt;7.78%&lt;/td&gt;&lt;td&gt;7.58%&lt;/td&gt;&lt;td&gt;7.44%&lt;/td&gt;&lt;td&gt;7.49%&lt;/td&gt;&lt;td&gt;7.39%&lt;/td&gt;&lt;td&gt;7.37%&lt;/td&gt;&lt;td&gt;7.08%&lt;/td&gt;&lt;td&gt;7.01%&lt;/td&gt;&lt;td&gt;6.96%&lt;/td&gt;&lt;td&gt;6.96%&lt;/td&gt;&lt;td&gt;6.98%&lt;/td&gt;&lt;td&gt;7.37%&lt;/td&gt;&lt;td&gt;7.36%&lt;/td&gt;&lt;td&gt;6.86%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;0.55%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.51%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.53%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.54%&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.50%&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;4.82%&lt;/td&gt;&lt;td&gt;6.00%&lt;/td&gt;&lt;td&gt;6.16%&lt;/td&gt;&lt;td&gt;6.11%&lt;/td&gt;&lt;td&gt;5.56%&lt;/td&gt;&lt;td&gt;5.60%&lt;/td&gt;&lt;td&gt;6.18%&lt;/td&gt;&lt;td&gt;6.43%&lt;/td&gt;&lt;td&gt;7.03%&lt;/td&gt;&lt;td&gt;7.03%&lt;/td&gt;&lt;td&gt;7.36%&lt;/td&gt;&lt;td&gt;6.94%&lt;/td&gt;&lt;td&gt;6.52%&lt;/td&gt;&lt;td&gt;6.65%&lt;/td&gt;&lt;td&gt;6.62%&lt;/td&gt;&lt;td&gt;7.27%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;0.67%&lt;/td&gt;&lt;td&gt;0.64%&lt;/td&gt;&lt;td&gt;0.66%&lt;/td&gt;&lt;td&gt;0.66%&lt;/td&gt;&lt;td&gt;0.67%&lt;/td&gt;&lt;td&gt;0.67%&lt;/td&gt;&lt;td&gt;0.66%&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;0.63%&lt;/td&gt;&lt;td&gt;0.63%&lt;/td&gt;&lt;td&gt;0.61%&lt;/td&gt;&lt;td&gt;0.61%&lt;/td&gt;&lt;td&gt;0.62%&lt;/td&gt;&lt;td&gt;0.61%&lt;/td&gt;&lt;td&gt;0.61%&lt;/td&gt;&lt;td&gt;0.62%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;2.70%&lt;/td&gt;&lt;td&gt;2.58%&lt;/td&gt;&lt;td&gt;2.63%&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;td&gt;2.62%&lt;/td&gt;&lt;td&gt;2.68%&lt;/td&gt;&lt;td&gt;2.66%&lt;/td&gt;&lt;td&gt;2.62%&lt;/td&gt;&lt;td&gt;2.56%&lt;/td&gt;&lt;td&gt;2.56%&lt;/td&gt;&lt;td&gt;2.49%&lt;/td&gt;&lt;td&gt;2.52%&lt;/td&gt;&lt;td&gt;2.48%&lt;/td&gt;&lt;td&gt;2.48%&lt;/td&gt;&lt;td&gt;2.52%&lt;/td&gt;&lt;td&gt;2.55%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;6.72%&lt;/td&gt;&lt;td&gt;6.52%&lt;/td&gt;&lt;td&gt;6.51%&lt;/td&gt;&lt;td&gt;6.30%&lt;/td&gt;&lt;td&gt;6.37%&lt;/td&gt;&lt;td&gt;6.47%&lt;/td&gt;&lt;td&gt;6.33%&lt;/td&gt;&lt;td&gt;6.34%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;td&gt;6.31%&lt;/td&gt;&lt;td&gt;6.15%&lt;/td&gt;&lt;td&gt;6.08%&lt;/td&gt;&lt;td&gt;5.94%&lt;/td&gt;&lt;td&gt;5.91%&lt;/td&gt;&lt;td&gt;5.97%&lt;/td&gt;&lt;td&gt;6.03%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;8.01%&lt;/td&gt;&lt;td&gt;7.25%&lt;/td&gt;&lt;td&gt;6.25%&lt;/td&gt;&lt;td&gt;7.07%&lt;/td&gt;&lt;td&gt;7.78%&lt;/td&gt;&lt;td&gt;7.81%&lt;/td&gt;&lt;td&gt;6.63%&lt;/td&gt;&lt;td&gt;6.73%&lt;/td&gt;&lt;td&gt;7.41%&lt;/td&gt;&lt;td&gt;8.28%&lt;/td&gt;&lt;td&gt;7.89%&lt;/td&gt;&lt;td&gt;7.76%&lt;/td&gt;&lt;td&gt;8.31%&lt;/td&gt;&lt;td&gt;7.93%&lt;/td&gt;&lt;td&gt;7.94%&lt;/td&gt;&lt;td&gt;9.59%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：恒生聚源、麦高证券研究发展部
+图表 9：中信一级行业近 16 周杠杆资金流动性热力图（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="17"&gt;中信一级行业近16周杠杆资金&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;前16周&lt;/td&gt;&lt;td&gt;前15周&lt;/td&gt;&lt;td&gt;前14周&lt;/td&gt;&lt;td&gt;前13周&lt;/td&gt;&lt;td&gt;前12周&lt;/td&gt;&lt;td&gt;前11周&lt;/td&gt;&lt;td&gt;前10周&lt;/td&gt;&lt;td&gt;前9周&lt;/td&gt;&lt;td&gt;前8周&lt;/td&gt;&lt;td&gt;前7周&lt;/td&gt;&lt;td&gt;前6周&lt;/td&gt;&lt;td&gt;前5周&lt;/td&gt;&lt;td&gt;前4周&lt;/td&gt;&lt;td&gt;前3周&lt;/td&gt;&lt;td&gt;前2周&lt;/td&gt;&lt;td&gt;前1周&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;-1.17&lt;/td&gt;&lt;td&gt;2.52&lt;/td&gt;&lt;td&gt;4.86&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;td&gt;3.37&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;6.84&lt;/td&gt;&lt;td&gt;-3.82&lt;/td&gt;&lt;td&gt;6.98&lt;/td&gt;&lt;td&gt;-11.24&lt;/td&gt;&lt;td&gt;3.58&lt;/td&gt;&lt;td&gt;-1.76&lt;/td&gt;&lt;td&gt;8.19&lt;/td&gt;&lt;td&gt;6.59&lt;/td&gt;&lt;td&gt;-0.76&lt;/td&gt;&lt;td&gt;1.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;-6.53&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;13.30&lt;/td&gt;&lt;td&gt;5.06&lt;/td&gt;&lt;td&gt;-7.39&lt;/td&gt;&lt;td&gt;4.92&lt;/td&gt;&lt;td&gt;7.21&lt;/td&gt;&lt;td&gt;-3.34&lt;/td&gt;&lt;td&gt;-0.85&lt;/td&gt;&lt;td&gt;-5.36&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;9.86&lt;/td&gt;&lt;td&gt;35.64&lt;/td&gt;&lt;td&gt;47.39&lt;/td&gt;&lt;td&gt;-25.03&lt;/td&gt;&lt;td&gt;2.21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;td&gt;1.34&lt;/td&gt;&lt;td&gt;1.68&lt;/td&gt;&lt;td&gt;2.12&lt;/td&gt;&lt;td&gt;4.54&lt;/td&gt;&lt;td&gt;3.54&lt;/td&gt;&lt;td&gt;2.96&lt;/td&gt;&lt;td&gt;5.50&lt;/td&gt;&lt;td&gt;8.71&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;2.45&lt;/td&gt;&lt;td&gt;-6.19&lt;/td&gt;&lt;td&gt;5.85&lt;/td&gt;&lt;td&gt;4.91&lt;/td&gt;&lt;td&gt;0.41&lt;/td&gt;&lt;td&gt;3.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;7.56&lt;/td&gt;&lt;td&gt;1.31&lt;/td&gt;&lt;td&gt;24.54&lt;/td&gt;&lt;td&gt;13.58&lt;/td&gt;&lt;td&gt;12.41&lt;/td&gt;&lt;td&gt;-27.66&lt;/td&gt;&lt;td&gt;-7.77&lt;/td&gt;&lt;td&gt;-3.07&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;-3.02&lt;/td&gt;&lt;td&gt;-2.06&lt;/td&gt;&lt;td&gt;-13.94&lt;/td&gt;&lt;td&gt;22.60&lt;/td&gt;&lt;td&gt;68.36&lt;/td&gt;&lt;td&gt;-22.56&lt;/td&gt;&lt;td&gt;6.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;-1.12&lt;/td&gt;&lt;td&gt;0.94&lt;/td&gt;&lt;td&gt;-1.10&lt;/td&gt;&lt;td&gt;1.23&lt;/td&gt;&lt;td&gt;-1.06&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;-0.51&lt;/td&gt;&lt;td&gt;7.73&lt;/td&gt;&lt;td&gt;12.68&lt;/td&gt;&lt;td&gt;-6.77&lt;/td&gt;&lt;td&gt;-3.46&lt;/td&gt;&lt;td&gt;5.59&lt;/td&gt;&lt;td&gt;2.79&lt;/td&gt;&lt;td&gt;-2.26&lt;/td&gt;&lt;td&gt;-0.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;9.42&lt;/td&gt;&lt;td&gt;4.51&lt;/td&gt;&lt;td&gt;10.73&lt;/td&gt;&lt;td&gt;1.33&lt;/td&gt;&lt;td&gt;-4.11&lt;/td&gt;&lt;td&gt;5.07&lt;/td&gt;&lt;td&gt;11.63&lt;/td&gt;&lt;td&gt;24.44&lt;/td&gt;&lt;td&gt;25.38&lt;/td&gt;&lt;td&gt;33.17&lt;/td&gt;&lt;td&gt;24.61&lt;/td&gt;&lt;td&gt;50.63&lt;/td&gt;&lt;td&gt;85.64&lt;/td&gt;&lt;td&gt;25.94&lt;/td&gt;&lt;td&gt;-6.81&lt;/td&gt;&lt;td&gt;-36.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;7.20&lt;/td&gt;&lt;td&gt;0.23&lt;/td&gt;&lt;td&gt;19.27&lt;/td&gt;&lt;td&gt;35.70&lt;/td&gt;&lt;td&gt;49.35&lt;/td&gt;&lt;td&gt;-5.19&lt;/td&gt;&lt;td&gt;-1.06&lt;/td&gt;&lt;td&gt;-25.52&lt;/td&gt;&lt;td&gt;13.84&lt;/td&gt;&lt;td&gt;-12.66&lt;/td&gt;&lt;td&gt;35.12&lt;/td&gt;&lt;td&gt;-6.23&lt;/td&gt;&lt;td&gt;41.97&lt;/td&gt;&lt;td&gt;36.45&lt;/td&gt;&lt;td&gt;-1.50&lt;/td&gt;&lt;td&gt;-4.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;-6.35&lt;/td&gt;&lt;td&gt;-2.16&lt;/td&gt;&lt;td&gt;6.79&lt;/td&gt;&lt;td&gt;-6.56&lt;/td&gt;&lt;td&gt;1.40&lt;/td&gt;&lt;td&gt;-9.25&lt;/td&gt;&lt;td&gt;-4.92&lt;/td&gt;&lt;td&gt;3.14&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;-1.84&lt;/td&gt;&lt;td&gt;7.64&lt;/td&gt;&lt;td&gt;11.66&lt;/td&gt;&lt;td&gt;6.54&lt;/td&gt;&lt;td&gt;18.75&lt;/td&gt;&lt;td&gt;-4.70&lt;/td&gt;&lt;td&gt;-7.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;1.09&lt;/td&gt;&lt;td&gt;3.23&lt;/td&gt;&lt;td&gt;3.43&lt;/td&gt;&lt;td&gt;-4.31&lt;/td&gt;&lt;td&gt;0.97&lt;/td&gt;&lt;td&gt;-0.80&lt;/td&gt;&lt;td&gt;2.02&lt;/td&gt;&lt;td&gt;5.30&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;5.20&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;td&gt;-3.17&lt;/td&gt;&lt;td&gt;-2.05&lt;/td&gt;&lt;td&gt;3.34&lt;/td&gt;&lt;td&gt;-2.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;-1.04&lt;/td&gt;&lt;td&gt;-2.64&lt;/td&gt;&lt;td&gt;3.80&lt;/td&gt;&lt;td&gt;1.91&lt;/td&gt;&lt;td&gt;1.07&lt;/td&gt;&lt;td&gt;1.03&lt;/td&gt;&lt;td&gt;0.61&lt;/td&gt;&lt;td&gt;-5.98&lt;/td&gt;&lt;td&gt;-1.56&lt;/td&gt;&lt;td&gt;-4.70&lt;/td&gt;&lt;td&gt;-1.97&lt;/td&gt;&lt;td&gt;-0.57&lt;/td&gt;&lt;td&gt;1.30&lt;/td&gt;&lt;td&gt;21.25&lt;/td&gt;&lt;td&gt;6.61&lt;/td&gt;&lt;td&gt;14.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;-4.12&lt;/td&gt;&lt;td&gt;6.61&lt;/td&gt;&lt;td&gt;2.23&lt;/td&gt;&lt;td&gt;1.75&lt;/td&gt;&lt;td&gt;-3.88&lt;/td&gt;&lt;td&gt;2.67&lt;/td&gt;&lt;td&gt;6.33&lt;/td&gt;&lt;td&gt;-1.09&lt;/td&gt;&lt;td&gt;6.28&lt;/td&gt;&lt;td&gt;-2.11&lt;/td&gt;&lt;td&gt;9.48&lt;/td&gt;&lt;td&gt;0.97&lt;/td&gt;&lt;td&gt;9.58&lt;/td&gt;&lt;td&gt;4.07&lt;/td&gt;&lt;td&gt;-2.84&lt;/td&gt;&lt;td&gt;-8.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;51.48&lt;/td&gt;&lt;td&gt;-8.62&lt;/td&gt;&lt;td&gt;1.24&lt;/td&gt;&lt;td&gt;-16.12&lt;/td&gt;&lt;td&gt;26.66&lt;/td&gt;&lt;td&gt;-32.58&lt;/td&gt;&lt;td&gt;-0.54&lt;/td&gt;&lt;td&gt;23.89&lt;/td&gt;&lt;td&gt;16.45&lt;/td&gt;&lt;td&gt;-8.30&lt;/td&gt;&lt;td&gt;38.28&lt;/td&gt;&lt;td&gt;0.82&lt;/td&gt;&lt;td&gt;85.80&lt;/td&gt;&lt;td&gt;62.73&lt;/td&gt;&lt;td&gt;52.34&lt;/td&gt;&lt;td&gt;102.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;-15.75&lt;/td&gt;&lt;td&gt;2.81&lt;/td&gt;&lt;td&gt;26.90&lt;/td&gt;&lt;td&gt;-7.84&lt;/td&gt;&lt;td&gt;-0.55&lt;/td&gt;&lt;td&gt;-25.44&lt;/td&gt;&lt;td&gt;10.68&lt;/td&gt;&lt;td&gt;19.29&lt;/td&gt;&lt;td&gt;1.58&lt;/td&gt;&lt;td&gt;-2.59&lt;/td&gt;&lt;td&gt;61.72&lt;/td&gt;&lt;td&gt;7.26&lt;/td&gt;&lt;td&gt;52.32&lt;/td&gt;&lt;td&gt;45.41&lt;/td&gt;&lt;td&gt;-10.56&lt;/td&gt;&lt;td&gt;-22.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;-15.79&lt;/td&gt;&lt;td&gt;-13.29&lt;/td&gt;&lt;td&gt;11.25&lt;/td&gt;&lt;td&gt;11.34&lt;/td&gt;&lt;td&gt;-21.28&lt;/td&gt;&lt;td&gt;-21.66&lt;/td&gt;&lt;td&gt;3.08&lt;/td&gt;&lt;td&gt;8.55&lt;/td&gt;&lt;td&gt;-13.82&lt;/td&gt;&lt;td&gt;1.28&lt;/td&gt;&lt;td&gt;13.20&lt;/td&gt;&lt;td&gt;12.57&lt;/td&gt;&lt;td&gt;32.61&lt;/td&gt;&lt;td&gt;23.75&lt;/td&gt;&lt;td&gt;-18.12&lt;/td&gt;&lt;td&gt;-18.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;td&gt;1.34&lt;/td&gt;&lt;td&gt;-0.64&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;td&gt;-0.33&lt;/td&gt;&lt;td&gt;-2.58&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;td&gt;1.31&lt;/td&gt;&lt;td&gt;-3.84&lt;/td&gt;&lt;td&gt;-0.43&lt;/td&gt;&lt;td&gt;1.56&lt;/td&gt;&lt;td&gt;-1.32&lt;/td&gt;&lt;td&gt;5.80&lt;/td&gt;&lt;td&gt;-3.83&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0.37&lt;/td&gt;&lt;td&gt;5.25&lt;/td&gt;&lt;td&gt;-1.20&lt;/td&gt;&lt;td&gt;-2.59&lt;/td&gt;&lt;td&gt;-0.12&lt;/td&gt;&lt;td&gt;-3.51&lt;/td&gt;&lt;td&gt;0.41&lt;/td&gt;&lt;td&gt;-0.67&lt;/td&gt;&lt;td&gt;1.40&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;0.56&lt;/td&gt;&lt;td&gt;-1.29&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;2.24&lt;/td&gt;&lt;td&gt;1.64&lt;/td&gt;&lt;td&gt;5.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;-0.58&lt;/td&gt;&lt;td&gt;1.22&lt;/td&gt;&lt;td&gt;9.31&lt;/td&gt;&lt;td&gt;1.36&lt;/td&gt;&lt;td&gt;0.51&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;-0.80&lt;/td&gt;&lt;td&gt;-11.69&lt;/td&gt;&lt;td&gt;2.38&lt;/td&gt;&lt;td&gt;3.69&lt;/td&gt;&lt;td&gt;4.89&lt;/td&gt;&lt;td&gt;11.51&lt;/td&gt;&lt;td&gt;0.17&lt;/td&gt;&lt;td&gt;35.52&lt;/td&gt;&lt;td&gt;-3.36&lt;/td&gt;&lt;td&gt;6.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;-5.16&lt;/td&gt;&lt;td&gt;13.17&lt;/td&gt;&lt;td&gt;40.62&lt;/td&gt;&lt;td&gt;95.15&lt;/td&gt;&lt;td&gt;10.95&lt;/td&gt;&lt;td&gt;-37.94&lt;/td&gt;&lt;td&gt;3.67&lt;/td&gt;&lt;td&gt;0.79&lt;/td&gt;&lt;td&gt;9.28&lt;/td&gt;&lt;td&gt;4.45&lt;/td&gt;&lt;td&gt;67.07&lt;/td&gt;&lt;td&gt;-19.37&lt;/td&gt;&lt;td&gt;47.91&lt;/td&gt;&lt;td&gt;62.67&lt;/td&gt;&lt;td&gt;-0.87&lt;/td&gt;&lt;td&gt;-18.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;-62.31&lt;/td&gt;&lt;td&gt;144.23&lt;/td&gt;&lt;td&gt;5.52&lt;/td&gt;&lt;td&gt;-23.39&lt;/td&gt;&lt;td&gt;-17.23&lt;/td&gt;&lt;td&gt;-105.94&lt;/td&gt;&lt;td&gt;63.30&lt;/td&gt;&lt;td&gt;1.52&lt;/td&gt;&lt;td&gt;50.52&lt;/td&gt;&lt;td&gt;12.25&lt;/td&gt;&lt;td&gt;88.28&lt;/td&gt;&lt;td&gt;-15.02&lt;/td&gt;&lt;td&gt;124.82&lt;/td&gt;&lt;td&gt;201.63&lt;/td&gt;&lt;td&gt;-49.85&lt;/td&gt;&lt;td&gt;-75.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;2.50&lt;/td&gt;&lt;td&gt;2.23&lt;/td&gt;&lt;td&gt;-2.04&lt;/td&gt;&lt;td&gt;-1.08&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;td&gt;-3.87&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;-4.56&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;-5.71&lt;/td&gt;&lt;td&gt;-6.56&lt;/td&gt;&lt;td&gt;-5.00&lt;/td&gt;&lt;td&gt;14.44&lt;/td&gt;&lt;td&gt;0.22&lt;/td&gt;&lt;td&gt;-7.64&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;0.13&lt;/td&gt;&lt;td&gt;0.95&lt;/td&gt;&lt;td&gt;-0.92&lt;/td&gt;&lt;td&gt;0.61&lt;/td&gt;&lt;td&gt;0.17&lt;/td&gt;&lt;td&gt;-0.64&lt;/td&gt;&lt;td&gt;-1.15&lt;/td&gt;&lt;td&gt;1.60&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;4.06&lt;/td&gt;&lt;td&gt;2.08&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;0.41&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;0.94&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;td&gt;-0.28&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;-0.38&lt;/td&gt;&lt;td&gt;-2.13&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;-0.75&lt;/td&gt;&lt;td&gt;1.41&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;td&gt;0.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;0.99&lt;/td&gt;&lt;td&gt;-1.72&lt;/td&gt;&lt;td&gt;2.51&lt;/td&gt;&lt;td&gt;-0.18&lt;/td&gt;&lt;td&gt;-0.79&lt;/td&gt;&lt;td&gt;-1.43&lt;/td&gt;&lt;td&gt;-2.04&lt;/td&gt;&lt;td&gt;-0.84&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;td&gt;1.40&lt;/td&gt;&lt;td&gt;3.96&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;0.73&lt;/td&gt;&lt;td&gt;-2.06&lt;/td&gt;&lt;td&gt;-2.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-26.38&lt;/td&gt;&lt;td&gt;22.37&lt;/td&gt;&lt;td&gt;34.28&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;td&gt;-37.28&lt;/td&gt;&lt;td&gt;-19.56&lt;/td&gt;&lt;td&gt;7.24&lt;/td&gt;&lt;td&gt;10.15&lt;/td&gt;&lt;td&gt;-9.15&lt;/td&gt;&lt;td&gt;-2.05&lt;/td&gt;&lt;td&gt;6.31&lt;/td&gt;&lt;td&gt;-6.89&lt;/td&gt;&lt;td&gt;67.65&lt;/td&gt;&lt;td&gt;104.02&lt;/td&gt;&lt;td&gt;-25.87&lt;/td&gt;&lt;td&gt;-35.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-0.52&lt;/td&gt;&lt;td&gt;-0.94&lt;/td&gt;&lt;td&gt;-0.26&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;-1.01&lt;/td&gt;&lt;td&gt;-1.24&lt;/td&gt;&lt;td&gt;1.87&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;8.58&lt;/td&gt;&lt;td&gt;-3.56&lt;/td&gt;&lt;td&gt;-0.30&lt;/td&gt;&lt;td&gt;2.03&lt;/td&gt;&lt;td&gt;3.05&lt;/td&gt;&lt;td&gt;1.41&lt;/td&gt;&lt;td&gt;-4.03&lt;/td&gt;&lt;td&gt;-1.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;-48.98&lt;/td&gt;&lt;td&gt;44.72&lt;/td&gt;&lt;td&gt;31.07&lt;/td&gt;&lt;td&gt;-9.37&lt;/td&gt;&lt;td&gt;-14.09&lt;/td&gt;&lt;td&gt;-23.30&lt;/td&gt;&lt;td&gt;60.50&lt;/td&gt;&lt;td&gt;10.09&lt;/td&gt;&lt;td&gt;33.88&lt;/td&gt;&lt;td&gt;8.93&lt;/td&gt;&lt;td&gt;50.59&lt;/td&gt;&lt;td&gt;-5.11&lt;/td&gt;&lt;td&gt;47.55&lt;/td&gt;&lt;td&gt;73.63&lt;/td&gt;&lt;td&gt;-6.07&lt;/td&gt;&lt;td&gt;18.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;td&gt;-0.75&lt;/td&gt;&lt;td&gt;3.57&lt;/td&gt;&lt;td&gt;4.59&lt;/td&gt;&lt;td&gt;-1.10&lt;/td&gt;&lt;td&gt;-2.71&lt;/td&gt;&lt;td&gt;-1.23&lt;/td&gt;&lt;td&gt;-1.17&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;td&gt;-2.01&lt;/td&gt;&lt;td&gt;-2.38&lt;/td&gt;&lt;td&gt;-0.75&lt;/td&gt;&lt;td&gt;10.98&lt;/td&gt;&lt;td&gt;4.50&lt;/td&gt;&lt;td&gt;-1.76&lt;/td&gt;&lt;td&gt;4.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;-19.44&lt;/td&gt;&lt;td&gt;-0.61&lt;/td&gt;&lt;td&gt;20.94&lt;/td&gt;&lt;td&gt;-11.06&lt;/td&gt;&lt;td&gt;-4.08&lt;/td&gt;&lt;td&gt;-2.32&lt;/td&gt;&lt;td&gt;2.47&lt;/td&gt;&lt;td&gt;5.19&lt;/td&gt;&lt;td&gt;11.13&lt;/td&gt;&lt;td&gt;-10.32&lt;/td&gt;&lt;td&gt;-1.67&lt;/td&gt;&lt;td&gt;-7.81&lt;/td&gt;&lt;td&gt;38.97&lt;/td&gt;&lt;td&gt;29.50&lt;/td&gt;&lt;td&gt;14.34&lt;/td&gt;&lt;td&gt;7.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;-18.03&lt;/td&gt;&lt;td&gt;24.80&lt;/td&gt;&lt;td&gt;2.94&lt;/td&gt;&lt;td&gt;-23.54&lt;/td&gt;&lt;td&gt;-12.49&lt;/td&gt;&lt;td&gt;-13.63&lt;/td&gt;&lt;td&gt;-22.57&lt;/td&gt;&lt;td&gt;-4.42&lt;/td&gt;&lt;td&gt;4.57&lt;/td&gt;&lt;td&gt;14.13&lt;/td&gt;&lt;td&gt;-16.14&lt;/td&gt;&lt;td&gt;-25.03&lt;/td&gt;&lt;td&gt;66.05&lt;/td&gt;&lt;td&gt;79.21&lt;/td&gt;&lt;td&gt;23.64&lt;/td&gt;&lt;td&gt;7.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;-12.43&lt;/td&gt;&lt;td&gt;-1.75&lt;/td&gt;&lt;td&gt;-10.34&lt;/td&gt;&lt;td&gt;-3.08&lt;/td&gt;&lt;td&gt;-7.21&lt;/td&gt;&lt;td&gt;-9.46&lt;/td&gt;&lt;td&gt;1.23&lt;/td&gt;&lt;td&gt;8.72&lt;/td&gt;&lt;td&gt;7.03&lt;/td&gt;&lt;td&gt;-11.79&lt;/td&gt;&lt;td&gt;-0.77&lt;/td&gt;&lt;td&gt;4.62&lt;/td&gt;&lt;td&gt;-7.14&lt;/td&gt;&lt;td&gt;23.72&lt;/td&gt;&lt;td&gt;9.69&lt;/td&gt;&lt;td&gt;1.14&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：恒生聚源、麦高证券研究发展部
+# 2.4 行业拥挤度情况
+分别统计了每个行业过去 5 个交易日的波动率、动量、换手率和量价相关性情况，并计算指标在过去 5 年的（1250交易日，其中综合金融为发布日起）分位数情况（量价相关性指标为倒序），并计算总的拥挤度得分。
+从拥挤度排名分位数来看，截止到本周最后一个交易日，有色金属行业的综合拥挤度最高。
+图表 10：中信行业拥挤度情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;行业名称&lt;/td&gt;&lt;td&gt;波动率&lt;/td&gt;&lt;td&gt;动量&lt;/td&gt;&lt;td&gt;换手率&lt;/td&gt;&lt;td&gt;量价相关性&lt;/td&gt;&lt;td&gt;拥挤度&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;90.00%&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;23.33%&lt;/td&gt;&lt;td&gt;78.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;73.33%&lt;/td&gt;&lt;td&gt;96.67%&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;td&gt;96.67%&lt;/td&gt;&lt;td&gt;75.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;86.67%&lt;/td&gt;&lt;td&gt;73.33%&lt;/td&gt;&lt;td&gt;96.67%&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;td&gt;71.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;56.67%&lt;/td&gt;&lt;td&gt;70.00%&lt;/td&gt;&lt;td&gt;66.67%&lt;/td&gt;&lt;td&gt;90.00%&lt;/td&gt;&lt;td&gt;70.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;90.00%&lt;/td&gt;&lt;td&gt;43.33%&lt;/td&gt;&lt;td&gt;80.00%&lt;/td&gt;&lt;td&gt;60.00%&lt;/td&gt;&lt;td&gt;68.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;63.33%&lt;/td&gt;&lt;td&gt;83.33%&lt;/td&gt;&lt;td&gt;83.33%&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;td&gt;65.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;76.67%&lt;/td&gt;&lt;td&gt;53.33%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;83.33%&lt;/td&gt;&lt;td&gt;65.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;93.33%&lt;/td&gt;&lt;td&gt;3.33%&lt;/td&gt;&lt;td&gt;93.33%&lt;/td&gt;&lt;td&gt;66.67%&lt;/td&gt;&lt;td&gt;64.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;26.67%&lt;/td&gt;&lt;td&gt;40.00%&lt;/td&gt;&lt;td&gt;76.67%&lt;/td&gt;&lt;td&gt;93.33%&lt;/td&gt;&lt;td&gt;59.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;60.00%&lt;/td&gt;&lt;td&gt;26.67%&lt;/td&gt;&lt;td&gt;73.33%&lt;/td&gt;&lt;td&gt;70.00%&lt;/td&gt;&lt;td&gt;57.50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;36.67%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;56.67%&lt;/td&gt;&lt;td&gt;80.00%&lt;/td&gt;&lt;td&gt;55.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;83.33%&lt;/td&gt;&lt;td&gt;93.33%&lt;/td&gt;&lt;td&gt;36.67%&lt;/td&gt;&lt;td&gt;10.00%&lt;/td&gt;&lt;td&gt;55.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;66.67%&lt;/td&gt;&lt;td&gt;80.00%&lt;/td&gt;&lt;td&gt;10.00%&lt;/td&gt;&lt;td&gt;56.67%&lt;/td&gt;&lt;td&gt;53.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;96.67%&lt;/td&gt;&lt;td&gt;86.67%&lt;/td&gt;&lt;td&gt;20.00%&lt;/td&gt;&lt;td&gt;3.33%&lt;/td&gt;&lt;td&gt;51.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;13.33%&lt;/td&gt;&lt;td&gt;63.33%&lt;/td&gt;&lt;td&gt;40.00%&lt;/td&gt;&lt;td&gt;86.67%&lt;/td&gt;&lt;td&gt;50.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;10.00%&lt;/td&gt;&lt;td&gt;60.00%&lt;/td&gt;&lt;td&gt;60.00%&lt;/td&gt;&lt;td&gt;73.33%&lt;/td&gt;&lt;td&gt;50.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;40.00%&lt;/td&gt;&lt;td&gt;16.67%&lt;/td&gt;&lt;td&gt;86.67%&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;48.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;70.00%&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;13.33%&lt;/td&gt;&lt;td&gt;6.67%&lt;/td&gt;&lt;td&gt;47.50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;td&gt;20.00%&lt;/td&gt;&lt;td&gt;70.00%&lt;/td&gt;&lt;td&gt;53.33%&lt;/td&gt;&lt;td&gt;47.50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;80.00%&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;td&gt;43.33%&lt;/td&gt;&lt;td&gt;16.67%&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;td&gt;76.67%&lt;/td&gt;&lt;td&gt;3.33%&lt;/td&gt;&lt;td&gt;76.67%&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;20.00%&lt;/td&gt;&lt;td&gt;23.33%&lt;/td&gt;&lt;td&gt;63.33%&lt;/td&gt;&lt;td&gt;40.00%&lt;/td&gt;&lt;td&gt;36.67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;43.33%&lt;/td&gt;&lt;td&gt;10.00%&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;td&gt;43.33%&lt;/td&gt;&lt;td&gt;35.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;6.67%&lt;/td&gt;&lt;td&gt;66.67%&lt;/td&gt;&lt;td&gt;6.67%&lt;/td&gt;&lt;td&gt;63.33%&lt;/td&gt;&lt;td&gt;35.83%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;50.00%&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;td&gt;26.67%&lt;/td&gt;&lt;td&gt;35.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;23.33%&lt;/td&gt;&lt;td&gt;36.67%&lt;/td&gt;&lt;td&gt;26.67%&lt;/td&gt;&lt;td&gt;46.67%&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备及新能源&lt;/td&gt;&lt;td&gt;16.67%&lt;/td&gt;&lt;td&gt;13.33%&lt;/td&gt;&lt;td&gt;90.00%&lt;/td&gt;&lt;td&gt;13.33%&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合金融&lt;/td&gt;&lt;td&gt;53.33%&lt;/td&gt;&lt;td&gt;6.67%&lt;/td&gt;&lt;td&gt;23.33%&lt;/td&gt;&lt;td&gt;36.67%&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;33.33%&lt;/td&gt;&lt;td&gt;30.00%&lt;/td&gt;&lt;td&gt;53.33%&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;29.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力及公用事业&lt;/td&gt;&lt;td&gt;3.33%&lt;/td&gt;&lt;td&gt;56.67%&lt;/td&gt;&lt;td&gt;16.67%&lt;/td&gt;&lt;td&gt;20.00%&lt;/td&gt;&lt;td&gt;24.17%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：恒生聚源、麦高证券研究发展部
+# 3 风格板块流动性跟踪
+本周周期、消费、稳定、金融风格日均成交额占比出现了增加，成长风格日均成交额占比出现了回落。具体来看，日均成交额占比增加最大的为周期风格，上升了$0 . 9 8 \%$ ；成长风格回落幅度最大，下降了 $2 . 2 4 \%$ 。
+图表 11：中信风格日均成交额占比  
+![](images/c16ef10e11875146e2e7332d6681977003cc3ab2d3708286d5a07daae214a05d.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+本周陆股通重仓股主力资金在各个风格板块上总体以减持为主，金融风格增持力度最大，成长风格减持力度最大。具体来看，本周陆股通重仓股主力资金对金融风格增持42.22 亿元，对成长风格减持302.57亿元。
+图表 12：中信风格陆股通重仓股主力资金净买入情况（亿元）  
+![](images/3ec7bea12717b4e6f319c6f0ddf15dde4c2b6df8b5f7bb6cac4904dc9a897ea9.jpg)  
+资料来源：恒生聚源、麦高证券研究发展部
+本周各风格指数绝大多数下跌，其中成长风格跌幅最大，为 $2 . 6 6 \%$ ，消费风格紧随其后，为 $1 . 3 2 \%$ 。从日均成交额占比来看，成长风格是市场最活跃的板块，占比达到 $5 5 . 9 1 \%$ ，领先于其他风格。在日均换手率方面，成长风格保持最高，为 $4 . 0 9 \%$ ，金融和稳定风格换手率处于相对低位。
+图表 13：不同风格板块流动性数据累计汇总  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;风格&lt;/td&gt;&lt;td colspan="4"&gt;涨跌幅&lt;/td&gt;&lt;td colspan="4"&gt;日均成交额占比&lt;/td&gt;&lt;td colspan="4"&gt;日均换手率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;近一周&lt;/td&gt;&lt;td&gt;近一个月&lt;/td&gt;&lt;td&gt;近三个月&lt;/td&gt;&lt;td&gt;近六个月&lt;/td&gt;&lt;td&gt;近一周&lt;/td&gt;&lt;td&gt;近一个月&lt;/td&gt;&lt;td&gt;近三个月&lt;/td&gt;&lt;td&gt;近六个月&lt;/td&gt;&lt;td&gt;近一周&lt;/td&gt;&lt;td&gt;近一个月&lt;/td&gt;&lt;td&gt;近三个月&lt;/td&gt;&lt;td&gt;近六个月&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;-2.66%&lt;/td&gt;&lt;td&gt;7.92%&lt;/td&gt;&lt;td&gt;6.49%&lt;/td&gt;&lt;td&gt;33.59%&lt;/td&gt;&lt;td&gt;55.91%&lt;/td&gt;&lt;td&gt;58.78%&lt;/td&gt;&lt;td&gt;57.61%&lt;/td&gt;&lt;td&gt;57.73%&lt;/td&gt;&lt;td&gt;4.09%&lt;/td&gt;&lt;td&gt;4.17%&lt;/td&gt;&lt;td&gt;3.26%&lt;/td&gt;&lt;td&gt;3.33%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;-3.24%&lt;/td&gt;&lt;td&gt;-2.89%&lt;/td&gt;&lt;td&gt;-2.54%&lt;/td&gt;&lt;td&gt;5.04%&lt;/td&gt;&lt;td&gt;4.91%&lt;/td&gt;&lt;td&gt;5.14%&lt;/td&gt;&lt;td&gt;5.89%&lt;/td&gt;&lt;td&gt;0.78%&lt;/td&gt;&lt;td&gt;0.73%&lt;/td&gt;&lt;td&gt;0.63%&lt;/td&gt;&lt;td&gt;0.70%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;稳定&lt;/td&gt;&lt;td&gt;-0.86%&lt;/td&gt;&lt;td&gt;0.69%&lt;/td&gt;&lt;td&gt;-3.04%&lt;/td&gt;&lt;td&gt;-0.16%&lt;/td&gt;&lt;td&gt;3.43%&lt;/td&gt;&lt;td&gt;3.01%&lt;/td&gt;&lt;td&gt;3.24%&lt;/td&gt;&lt;td&gt;3.29%&lt;/td&gt;&lt;td&gt;1.42%&lt;/td&gt;&lt;td&gt;1.18%&lt;/td&gt;&lt;td&gt;0.96%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;-1.32%&lt;/td&gt;&lt;td&gt;1.06%&lt;/td&gt;&lt;td&gt;-0.61%&lt;/td&gt;&lt;td&gt;0.71%&lt;/td&gt;&lt;td&gt;9.78%&lt;/td&gt;&lt;td&gt;9.91%&lt;/td&gt;&lt;td&gt;10.88%&lt;/td&gt;&lt;td&gt;10.95%&lt;/td&gt;&lt;td&gt;2.59%&lt;/td&gt;&lt;td&gt;2.59%&lt;/td&gt;&lt;td&gt;2.42%&lt;/td&gt;&lt;td&gt;2.36%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期&lt;/td&gt;&lt;td&gt;-0.78%&lt;/td&gt;&lt;td&gt;11.10%&lt;/td&gt;&lt;td&gt;14.16%&lt;/td&gt;&lt;td&gt;30.90%&lt;/td&gt;&lt;td&gt;25.84%&lt;/td&gt;&lt;td&gt;23.39%&lt;/td&gt;&lt;td&gt;23.12%&lt;/td&gt;&lt;td&gt;22.14%&lt;/td&gt;&lt;td&gt;2.72%&lt;/td&gt;&lt;td&gt;2.45%&lt;/td&gt;&lt;td&gt;1.99%&lt;/td&gt;&lt;td&gt;1.98%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：恒生聚源、麦高证券研究发展部
+# 风险提示：
+本报告对于行业和风格指数的研究分析均基于历史公开信息，可能受指数样本股的变化而产生一定的分析偏差；行业和风格指数未来表现受宏观环境、市场波动、风格转换等多重因素影响，存在波动风险；数据结果受统计口径与计算方法的影响，结果可能存在误差。
+# 【分析师承诺】
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格，并在中国证券业协会注册登记为证券分析师。本报告所采用的数据、资料的来源合法、合规，分析师基于独立、客观、专业、审慎的原则出具本报告，并对本报告的内容和观点负责。报告结论未受任何第三方的授意或影响。分析师承诺不曾、不因、也将不会因报告中的具体推荐意见或观点而直接或间接获取任何形式补偿。
+# 【重要声明】
+麦高证券有限责任公司（以下简称“本公司”）具有中国证券监督管理委员会核准的证券投资咨询业务资格。
+本公司与作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。本公司或关联机构可能会持有报告中提到的公司所发行的证券并进行交易，并在法律许可的情况下不进行披露；可能为这些公司提供或争取提供投资银行或财务顾问服务。
+本报告中的信息均来源于公开资料，本公司对这些信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告，本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告仅供参考，不构成出售或购买证券或其他投资标的的要约或邀请。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的证券买卖建议。投资者应结合自己的投资目标和财务状况自行判断是否采用本报告所载信息和意见并自行承担风险。本公司及其雇员不承诺投资者一定获利，不与投资者分享投资收益，在任何情况下，本公司及其雇员对任何人使用本报告及其内容所引发的任何直接或间接损失概不负责。
+本报告仅供本公司签约客户使用，若您并非本公司签约客户，为控制投资风险，请取消接收、订阅或使用本报告中的任何信息。本公司也不会因接收人收到、阅读或关注自媒体推送本报告中的内容而视其为客户。若本公司客户（以下称“该客户”）向第三方发送本报告，则由该客户独自为此发送行为负责。提醒通过此途径获得本报告的投资者注意，本公司不对通过此种途径获得本报告所引起的任何损失承担任何责任。
+本报告版权归本公司所有，未经本公司书面许可，任何机构和个人不得以任何形式翻版、复制发表或引用。如征得本公司同意进行引用、刊发的，须在本公司允许的范围内使用，且不得对本报告及附录进行有悖原意的引用、删节和修改，并注明本报告的发布人和发布日期，提示使用本报告的风险。未经授权刊载或者转发本报告的，本公司将保留向其追究法律责任的权利。
+麦高证券有限责任公司研究发展部  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;沈阳&lt;/td&gt;&lt;td&gt;上海&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地址&lt;/td&gt;&lt;td&gt;沈阳市沈河区热闹路49号&lt;/td&gt;&lt;td&gt;上海市浦东新区滨江大道257弄10号&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;邮编&lt;/td&gt;&lt;td&gt;110014&lt;/td&gt;&lt;td&gt;陆家嘴滨江中心T1座801室&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+麦高证券机构销售团队  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王佳瑜&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15393708503&lt;/td&gt;&lt;td&gt;wangjiayu@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘沁然&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15190951726&lt;/td&gt;&lt;td&gt;liuqinran@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>证券研究报告
+2026年2月4日
+星期三
+# 【A股市场大势研判】
+# 大盘探底回升，三大指数集体收红
+市场表现：  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;收盘点位&lt;/td&gt;&lt;td&gt;涨跌幅&lt;/td&gt;&lt;td&gt;涨跌&lt;/td&gt;&lt;td&gt;上证指数分时图&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;4067.74&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;51.99&lt;/td&gt;&lt;td rowspan="6"&gt;4136分时走势 上证指数领先 4100.48 最新 4067.743.00%
+41192.58%
+41022.15%
+40851.73%
+40671.29%
+40500.85%
+40030.85%
+40160.00%
+3999-0.42%
+3982-0.85%
+3965-1.27%
+3947-1.71%
+3930-2.14%
+3913-2.56%
+3985-3.00%
+129548
+96880
+65337
+32699
+X100
+09:30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;14127.11&lt;/td&gt;&lt;td&gt;2.19%&lt;/td&gt;&lt;td&gt;302.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深 300&lt;/td&gt;&lt;td&gt;4660.11&lt;/td&gt;&lt;td&gt;1.18%&lt;/td&gt;&lt;td&gt;54.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板&lt;/td&gt;&lt;td&gt;3324.89&lt;/td&gt;&lt;td&gt;1.86%&lt;/td&gt;&lt;td&gt;60.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创 50&lt;/td&gt;&lt;td&gt;1471.07&lt;/td&gt;&lt;td&gt;1.39%&lt;/td&gt;&lt;td&gt;20.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;北证 50&lt;/td&gt;&lt;td&gt;1549.51&lt;/td&gt;&lt;td&gt;3.27%&lt;/td&gt;&lt;td&gt;49.08&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：东莞证券研究所，iFinD数据
+板块排名：  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;申万行业表现前五&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="2"&gt;申万行业表现后五&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="2"&gt;概念板块表现前五&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td colspan="2"&gt;概念板块表现后五&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;5.63%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;-0.85%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;BC电池&lt;/td&gt;&lt;td&gt;7.33%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;动物疫苗&lt;/td&gt;&lt;td&gt;0.18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;4.42%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;钙钛矿电池&lt;/td&gt;&lt;td&gt;6.23%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;猪肉&lt;/td&gt;&lt;td&gt;0.28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;3.98%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0.38%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;TOPCON电池&lt;/td&gt;&lt;td&gt;6.00%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;啤酒概念&lt;/td&gt;&lt;td&gt;0.29%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;3.52%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;0.44%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;HJT电池&lt;/td&gt;&lt;td&gt;5.79%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;大豆&lt;/td&gt;&lt;td&gt;0.41%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;3.28%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;0.67%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;光纤概念&lt;/td&gt;&lt;td&gt;4.97%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;乳业&lt;/td&gt;&lt;td&gt;0.49%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：东莞证券研究所，iFinD数据
+# 后市展望：
+周二，市场全天探底回升，三大指数集体收红。早盘三大指数集体高开，随后市场震荡回落，午盘休市前有所企稳，午后大盘延续上行势头。截至收盘，三大指数全线收红，深证成指领涨。盘面上，商业航天概念爆发，太空光伏概念持续走强，化工板块表现活跃，贵金属概念探底回升，AI应用概念反复活跃。下跌方面，银行板块走势较弱。总体上个股普涨，综合、国防军工、机械设备、建筑材料和钢铁等行业表现靠前；银行、非银金融、煤炭、石油石化和公用事业等行业表现靠后。概念指数方面，BC电池、钙钛矿电池、TOPCON电池、HJT电池和光纤概念等板块表现靠前；动物疫苗、猪肉、啤酒概念、大豆和乳业等板块表现靠后。
+消息方面，中共中央、国务院发布关于《现代化首都都市圈空间协同规划（2023—2035年）》的批复。规划提出，要建成以首都为核心的世界一流都市圈、先行示范中国式现代化的首善之区；高标准高质量建设河北雄安新区，把北京城市副中心建设成为首都发展新的增长极。上海收购二手住房用于保障性租赁住房项目工作实质性启动。上海市浦东新区、静安区、徐汇区作为首批试点区。市场监管总局等十部门联合发布《低空经济标准体系建设指南（2025年版）》。其中提出，到2027年，低空经济标准体系基本建立，基本满足低空经济安全健康发展需求。A股2025年报预告披露基本告一段落，截至1月31日，全市场目前披露率达 $54.2\%$ ，其中，近 $37\%$ 个股业绩交出“预喜”答卷。美国劳工统计局表示，由于联邦政府部分“停摆”，原定于6日发布的美1月就业报告将不会按时公布。
+周二，市场探底回升，沪指、创业板指均涨超 $1\%$ ，深成指涨超 $2\%$ 。沪深两市成交额2.54万亿，较上一个交易日缩量405亿。盘面上，市场热点快速轮动，全市场超4800只个股上涨。海外方面，美国1月ISM制造业PMI意外从上个月的 $47.9\%$ 大幅升至 $52.6\%$ 远高于预期的 $48.5\%$ ，近一年来首次进入扩张区间，增速创下自2022年以来最快水平，主要受新订单和产出稳健增长的提振。值得注意的是，美国政府部分“停摆”将致今年1月的就业报告推迟发布，市场将面临关键数据空窗期。市场方面，我们认为，A股和港股周一的调整更多受到外围扰动，而非基本面变化，温和上涨预期与政策和产业催化仍在。短期来看，随着贵金属价格回升，以及春节后两会政策窗口来临，市场情绪将逐步企稳。配置方面，当前内外宏观扰动增大，高股息板块防御配置价值显现，此外业绩确定性的电力设备、存储及半导体设备、化工、工程机械等板块仍然值得关注。
+# 风险提示：
+海外经济超预期下滑，以及中美贸易摩擦超预期恶化，导致外需回落，国内出口承压；全球主要经济体超预期延长加息周期，高利率环境使全球经济增速明显放缓，压缩国内资金面；海外信用收缩引发风险事件，可能对市场流动性造成冲击，干扰利率和汇率走势。
+# 东莞证券宏观策略研究团队：
+分析师：费小平
+SAC执业证书编号：S0340518010002
+电话：0769-22111089
+邮箱：fxp@dgzq.com.cn
+分析师：曾浩
+SAC执业证书编号：S0340523110001
+电话：0769-22119276
+邮箱：zenghao@dgzq.com.cn
+分析师：叶子沛
+SAC执业证书编号：S0340525070001
+电话：0769-22119276
+邮箱：yezipei@dgzq.com.cn
+分析师：尹炜祺
+SAC执业证书编号：S0340522120001
+电话：0769-22118627
+邮箱：yinweiqi@dgzq.com.cn
+分析师：熊越
+SAC执业证书编号：S0340524080001
+电话：0769-22118627
+邮箱：xiongyue@dgzq.com.cn
+# ## 东莞证券研究报告评级体系：
+公司投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现强于市场指数15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现强于市场指数5%-15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现介于市场指数±5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现弱于市场指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;无评级&lt;/td&gt;&lt;td&gt;因无法获取必要的资料，或者公司面临无法预见结果的重大不确定性事件，或者其他原因，导致无法给出明确的投资评级；股票不在常规研究覆盖范围之内&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+行业投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现强于市场指数 10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现介于市场指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;低配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现弱于市场指数 10%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+说明：本评级体系的“市场指数”，A股参照标的为沪深300指数；新三板参照标的为三板成指。
+证券研究报告风险等级及适当性匹配关系  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;低风险&lt;/td&gt;&lt;td&gt;宏观经济及政策、财经资讯、国债等方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中低风险&lt;/td&gt;&lt;td&gt;债券、货币市场基金、债券基金等方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中风险&lt;/td&gt;&lt;td&gt;主板股票及基金、可转债等方面的研究报告，市场策略研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中高风险&lt;/td&gt;&lt;td&gt;创业板、科创板、北京证券交易所、新三板（含退市整理期）等板块的股票、基金、可转债等
+方面的研究报告，港股股票、基金研究报告以及非上市公司的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;高风险&lt;/td&gt;&lt;td&gt;期货、期权等衍生品方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+投资者与证券研究报告的适当性匹配关系：“保守型”投资者仅适合使用“低风险”级别的研报，“谨慎型”投资者仅适合使用风险级别不高于“中低风险”的研报，“稳健型”投资者仅适合使用风险级别不高于“中风险”的研报，“积极型”投资者仅适合使用风险级别不高于“中高风险”的研报，“激进型”投资者适合使用我司各类风险级别的研报。
+# 证券分析师承诺：
+本人具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，以勤勉的职业态度，独立、客观地在所知情的范围内出具本报告。本报告清晰准确地反映了本人的研究观点，不受本公司相关业务部门、证券发行人、上市公司、基金管理公司、资产管理公司等利益相关者的干涉和影响。本人保证与本报告所指的证券或投资标的无任何利害关系，没有利用发布本报告为自身及其利益相关者谋取不当利益，或者在发布证券研究报告前泄露证券研究报告的内容和观点。
+# 声明：
+东莞证券股份有限公司为全国性综合类证券公司，具备证券投资咨询业务资格。
+本报告仅供东莞证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为客户。本报告所载资料及观点均为合规合法来源且被本公司认为可靠，但本公司对这些信息的准确性及完整性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，可随时更改。本报告所指的证券或投资标的价格、价值及投资收入可跌可升。本公司可发出其它与本报告所载资料不一致及有不同结论的报告，亦可因使用不同假设和标准、采用不同观点和分析方法而与本公司其他业务部门或单位所给出的意见不同或者相反。在任何情况下，本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并不构成对任何人的投资建议。投资者需自主作出投资决策并自行承担投资风险，据此报告做出的任何投资决策与本公司和作者无关。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。本公司及其所属关联机构在法律许可的情况下可能会持有本报告中提及公司所发行的证券头寸并进行交易，还可能为这些公司提供或争取提供投资银行、经纪、资产管理等服务。本报告版权归东莞证券股份有限公司及相关内容提供方所有，未经本公司事先书面许可，任何人不得以任何形式翻版、复制、刊登。如引用、刊发，需注明本报告的机构来源、作者和发布日期，并提示使用本报告的风险，不得对本报告进行有悖原意的引用、删节和修改。未经授权刊载或者转发本证券研究报告的，应当承担相应的法律责任。
+东莞证券股份有限公司研究所
+广东省东莞市可园南路1号金源中心24楼
+邮政编码：523000
+电话：（0769）22115843
+网址：www.dgzq.com.cn</t>
+  </si>
+  <si>
+    <t>分析师：徐至
+登记编码：S0730525040001
+xuzhi@ccnew.com
+# 温和修复中的震荡蓄势
+—月度策略
+证券研究报告-月度策略
+发布日期：2026 年 02 月 04 日
+# 相关报告
+《月度策略：继续关注科技成长及高股息“哑铃”策略——月度策略》 2026-01-07
+《月度策略：平稳收官, 高股息防御与科技成长布局——月度策略》 2025-12-03
+《月度策略：增配价值资产，等待成长资产性价比回归——月度策略》 2025-11-05
+联系人：李智
+电话： 0371-65585629
+地址： 郑州郑东新区商务外环路10号18楼
+地址： 上海浦东新区世纪大道1788号T1座22楼
+# 投资要点：
+股市回顾。1月 A 股市场整体表现强劲，主要指数普遍上涨，上证指数、深证成指和创业板指分别录得 $3 . 7 6 \%$ 、 $5 . 0 3 \%$ 和 $4 . 4 7 \%$ 的月度涨幅，北证 50 和科创 50 更是大幅领涨，涨幅达 $6 . 3 3 \%$ 和$12 . 2 9 \%$ ，中证 1000 与中证 2000 等中小盘指数也同步走高，显示市场风格延续小盘成长为主，成长价值共振的局面。
+ 债市回顾。利率走势方面，2026 年 1 月国债期货市场迎来小幅反弹，十年期主力合约上涨 $0 . 4 5 \%$ ，超长端的 30 年期国债期货涨幅略高，达 $0 . 4 8 \%$ 。值得注意的是，近期利率债走势与基本面的相关性有所减弱。
+宏观现状。综合 PMI、三驾马车、价格与社融四大维度，当前中国经济处于类美林时钟中的“复苏早期”阶段，主要表象是价格端开始回升，但内需依然较弱，企业扩张意愿不强，内生动能不足。从企业端看，PMI 重回收缩，被动累库与成本压力并存，盈利修复仍需政策进一步加码。从增长端看，外需暂时托底，但内需方面，无论是消费、地产还是民企投资均持续疲软。从通胀端看，PPI 持续回升、CPI 温和上行，再通胀交易窗口开启，但终端需求能否承接成本传导仍是关键变量。从信用端看，社融依赖财政发力，近期M1 同比下行，货币活性不足，宽信用尚未有效转化为真实需求，若后续财政支出加快、地产政策见效，或能激活 M1 并改善实体流动性。
+配置建议：展望 2月份，股票型 ETF 净赎回在 1 月底达到峰值，后续逐步减弱，另外，春节后复工复产推进、两会政策预期升温以及外资持续回流，为股市提供温和上行的基础。债市方面，10 年期与 30 年期国债收益率预计区间震荡，需等待降准或降息等实质性宽松政策落地。行业配置方面，建议采取均衡策略：一是中长期继续聚焦科技主线，关注电气设备、软件服务等方向；二是关注原材料价格上涨带动的成本传导机会，以化工行业为重点；三是布局受益于城市更新政策与稳增长逻辑的建筑建材板块；四是配置具备防御属性的高股息资产，如煤炭等行业。
+风险提示：政策及经济数据不及预期，风险事件冲击市场流动性。报告样本数据有限，历史过往数据不代表未来表现。
+# 内容目录
+# 1. 市场回顾 .... 3
+1.1. 股市回顾. 3   
+1.2. 债市回顾. 4
+# 2. 宏观数据 ... 5
+2.1. PMI . . 5   
+2.2. 投资、消费、净出口 6  
+2.3. 物价方面 CPI 和 PPI 情况. .8  
+2.4. 社融情况. 9
+# 3. 宏观事件 .... 11
+# 4. 月度配置建议... . 12
+# 5. 风险提示 ... 13
+# 图表目录
+图 1：全球市场走势（%） .3  
+图 2：国内主要指数走势（%） 3  
+图 3：上中游月度行业走势（%） 3  
+图 4：下游及金融、地产、公用事业月度行业走势（%） 3  
+图 5：行业净融资额情况（亿） 4  
+图 6：PE 估值及分位数（%） 4  
+图 7：货币投放、回笼统计（周:亿元） 5  
+图 8：资金利率走势（%） 5  
+图 9：国债期限结构走势（BP） 5  
+图 10：国债期货走势（元） 5  
+图 11：1月制造业 PMI 重回收缩区间（%） . 6  
+图 12：PMI 细分项情况（%） . 6  
+图 13：2025 年 12 月固定资产投资同比增速继续下滑（%）  
+图 14：2025 年 12 月社会消费品零售总额同比继续回落（%）  
+图 15：主要社消分项同比继续下降(%).  
+图 16：2025 年 12 月进出口同比表现良好（ $( \%$ ） 8  
+图 17：2026 年 1 月 PMI 新出口订单回落（%） 8  
+图 18：CPI 当月同比继续回升（%） 8  
+图 19：PPI 同比逐步回升（%） . 8  
+图 20：食用农产品价格指数负增速进一步收窄（%） 9  
+图 21：国内生产资料价格指数和大宗商品价格指数继续上涨（%） 9  
+图 22：12 月社融规模增量及存量同比（亿，%） 9  
+图 23：社融与 M2 同比剪刀差（%） . 10  
+图 24：M1 与 M2 同比剪刀差（%） ..10  
+图 25：近 3个月社融分项变化情况（亿） .. 10
+表 1：宏观指标对股债影响. .11  
+表 2：宏观及行业相关事件汇总. 11
+# 1. 市场回顾
+# 1.1. 股市回顾
+1 月 A 股市场整体表现强劲，主要指数普遍上涨，上证指数、深证成指和创业板指分别录得 $3 . 7 6 \%$ 、 $5 . 0 3 \%$ 和 $4 . 4 7 \%$ 的月度涨幅，北证 50 和科创 50 更是大幅领涨，涨幅达 $6 . 3 3 \%$ 和$12 . 2 9 \%$ ，中证 1000 与中证 2000 等中小盘指数也同步走高，显示市场风格延续小盘成长为主，成长价值共振的局面。
+从行业表现来看，1 月份有色金属、传媒、石油石化、化工、建材等板块涨幅居前，而银行等传统金融行业则出现明显回调。整体来看，资源端和 AI 应用领域表现较强，市场主题轮动较为迅速。在行业融资方面，电子、有色金属、机械设备成为净融资流入的主要领域，而银行、传媒、公用事业等行业则出现资金净流出。
+图 1：全球市场走势（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;全球市场&lt;/td&gt;&lt;td&gt;2026/1/31&lt;/td&gt;&lt;td&gt;周涨跌&lt;/td&gt;&lt;td&gt;月涨跌&lt;/td&gt;&lt;td&gt;2025年涨跌&lt;/td&gt;&lt;td&gt;2024年涨跌&lt;/td&gt;&lt;td&gt;2023年涨跌&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;中国市场&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;-0.44&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;td&gt;12.67&lt;/td&gt;&lt;td&gt;-3.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;-1.62&lt;/td&gt;&lt;td&gt;5.03&lt;/td&gt;&lt;td&gt;5.03&lt;/td&gt;&lt;td&gt;9.34&lt;/td&gt;&lt;td&gt;-13.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;2.38&lt;/td&gt;&lt;td&gt;6.85&lt;/td&gt;&lt;td&gt;6.85&lt;/td&gt;&lt;td&gt;17.67&lt;/td&gt;&lt;td&gt;-13.82&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;台湾加权&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;10.70&lt;/td&gt;&lt;td&gt;10.70&lt;/td&gt;&lt;td&gt;28.47&lt;/td&gt;&lt;td&gt;26.83&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;发达市场&lt;/td&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;1.37&lt;/td&gt;&lt;td&gt;1.37&lt;/td&gt;&lt;td&gt;23.31&lt;/td&gt;&lt;td&gt;24.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;道琼斯工业平均&lt;/td&gt;&lt;td&gt;-0.42&lt;/td&gt;&lt;td&gt;1.73&lt;/td&gt;&lt;td&gt;1.73&lt;/td&gt;&lt;td&gt;12.88&lt;/td&gt;&lt;td&gt;13.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克指数&lt;/td&gt;&lt;td&gt;-0.17&lt;/td&gt;&lt;td&gt;0.95&lt;/td&gt;&lt;td&gt;0.95&lt;/td&gt;&lt;td&gt;28.64&lt;/td&gt;&lt;td&gt;43.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;富时100&lt;/td&gt;&lt;td&gt;0.79&lt;/td&gt;&lt;td&gt;2.94&lt;/td&gt;&lt;td&gt;2.94&lt;/td&gt;&lt;td&gt;5.69&lt;/td&gt;&lt;td&gt;3.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;法国CAC40&lt;/td&gt;&lt;td&gt;-0.20&lt;/td&gt;&lt;td&gt;-0.28&lt;/td&gt;&lt;td&gt;-0.28&lt;/td&gt;&lt;td&gt;-2.15&lt;/td&gt;&lt;td&gt;16.52&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX&lt;/td&gt;&lt;td&gt;-1.45&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;18.85&lt;/td&gt;&lt;td&gt;20.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;-0.97&lt;/td&gt;&lt;td&gt;5.93&lt;/td&gt;&lt;td&gt;5.93&lt;/td&gt;&lt;td&gt;19.22&lt;/td&gt;&lt;td&gt;28.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;新兴市场&lt;/td&gt;&lt;td&gt;俄罗斯RTS&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;td&gt;3.90&lt;/td&gt;&lt;td&gt;3.90&lt;/td&gt;&lt;td&gt;-17.56&lt;/td&gt;&lt;td&gt;11.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;印度Sensex30&lt;/td&gt;&lt;td&gt;0.90&lt;/td&gt;&lt;td&gt;-3.46&lt;/td&gt;&lt;td&gt;-3.46&lt;/td&gt;&lt;td&gt;8.17&lt;/td&gt;&lt;td&gt;18.74&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;韩国综指&lt;/td&gt;&lt;td&gt;4.70&lt;/td&gt;&lt;td&gt;23.97&lt;/td&gt;&lt;td&gt;23.97&lt;/td&gt;&lt;td&gt;9.63&lt;/td&gt;&lt;td&gt;18.73&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;胡志明股市指数&lt;/td&gt;&lt;td&gt;-2.23&lt;/td&gt;&lt;td&gt;2.50&lt;/td&gt;&lt;td&gt;2.50&lt;/td&gt;&lt;td&gt;12.11&lt;/td&gt;&lt;td&gt;12.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;富时南非指数&lt;/td&gt;&lt;td&gt;-2.46&lt;/td&gt;&lt;td&gt;4.56&lt;/td&gt;&lt;td&gt;4.56&lt;/td&gt;&lt;td&gt;8.66&lt;/td&gt;&lt;td&gt;5.13&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：iFinD，中原证券研究所
+图 3：上中游月度行业走势（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2026/1/31&lt;/td&gt;&lt;td&gt;月涨跌(%)&lt;/td&gt;&lt;td&gt;2025年涨跌&lt;/td&gt;&lt;td&gt;成交额（亿）&lt;/td&gt;&lt;td&gt;月换手率(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;上游&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;7.86&lt;/td&gt;&lt;td&gt;2.16&lt;/td&gt;&lt;td&gt;2,980.63&lt;/td&gt;&lt;td&gt;38.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;16.31&lt;/td&gt;&lt;td&gt;10.38&lt;/td&gt;&lt;td&gt;5,206.84&lt;/td&gt;&lt;td&gt;18.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;22.59&lt;/td&gt;&lt;td&gt;16.93&lt;/td&gt;&lt;td&gt;45,484.69&lt;/td&gt;&lt;td&gt;92.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;中游&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;7.07&lt;/td&gt;&lt;td&gt;4.03&lt;/td&gt;&lt;td&gt;3,989.21&lt;/td&gt;&lt;td&gt;43.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;12.72&lt;/td&gt;&lt;td&gt;9.72&lt;/td&gt;&lt;td&gt;28,384.60&lt;/td&gt;&lt;td&gt;68.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;13.31&lt;/td&gt;&lt;td&gt;12.58&lt;/td&gt;&lt;td&gt;5,081.38&lt;/td&gt;&lt;td&gt;63.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;6.32&lt;/td&gt;&lt;td&gt;8.42&lt;/td&gt;&lt;td&gt;42,776.46&lt;/td&gt;&lt;td&gt;73.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;4.05&lt;/td&gt;&lt;td&gt;6.53&lt;/td&gt;&lt;td&gt;63,448.07&lt;/td&gt;&lt;td&gt;101.99&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;4.09&lt;/td&gt;&lt;td&gt;6.80&lt;/td&gt;&lt;td&gt;37,691.38&lt;/td&gt;&lt;td&gt;130.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;TMT&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.51&lt;/td&gt;&lt;td&gt;8.30&lt;/td&gt;&lt;td&gt;102,666.28&lt;/td&gt;&lt;td&gt;84.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;6.94&lt;/td&gt;&lt;td&gt;6.87&lt;/td&gt;&lt;td&gt;48,494.74&lt;/td&gt;&lt;td&gt;114.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;17.94&lt;/td&gt;&lt;td&gt;18.67&lt;/td&gt;&lt;td&gt;24,082.17&lt;/td&gt;&lt;td&gt;117.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;6.81&lt;/td&gt;&lt;td&gt;6.02&lt;/td&gt;&lt;td&gt;33,976.54&lt;/td&gt;&lt;td&gt;56.93&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;必选消费&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;td&gt;7,515.98&lt;/td&gt;&lt;td&gt;34.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;-0.15&lt;/td&gt;&lt;td&gt;-2.76&lt;/td&gt;&lt;td&gt;5,850.69&lt;/td&gt;&lt;td&gt;63.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;3.14&lt;/td&gt;&lt;td&gt;2.19&lt;/td&gt;&lt;td&gt;28,140.04&lt;/td&gt;&lt;td&gt;54.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;5.93&lt;/td&gt;&lt;td&gt;5.27&lt;/td&gt;&lt;td&gt;3,743.60&lt;/td&gt;&lt;td&gt;54.76&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：iFinD，中原证券研究所
+图 2：国内主要指数走势（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;2026/1/31&lt;/td&gt;&lt;td&gt;月涨跌(%)&lt;/td&gt;&lt;td&gt;2025年涨跌&lt;/td&gt;&lt;td&gt;成交额（亿）&lt;/td&gt;&lt;td&gt;月换手率(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="9"&gt;宽基指数&lt;/td&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;259,545.97&lt;/td&gt;&lt;td&gt;31.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;5.03&lt;/td&gt;&lt;td&gt;4.45&lt;/td&gt;&lt;td&gt;343,396.06&lt;/td&gt;&lt;td&gt;57.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;1.65&lt;/td&gt;&lt;td&gt;0.65&lt;/td&gt;&lt;td&gt;147,207.00&lt;/td&gt;&lt;td&gt;18.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;北证50&lt;/td&gt;&lt;td&gt;6.33&lt;/td&gt;&lt;td&gt;7.57&lt;/td&gt;&lt;td&gt;6,072.71&lt;/td&gt;&lt;td&gt;64.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;12.29&lt;/td&gt;&lt;td&gt;9.44&lt;/td&gt;&lt;td&gt;20,278.48&lt;/td&gt;&lt;td&gt;45.52&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;td&gt;3.80&lt;/td&gt;&lt;td&gt;163,684.58&lt;/td&gt;&lt;td&gt;89.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;8.68&lt;/td&gt;&lt;td&gt;8.08&lt;/td&gt;&lt;td&gt;130,746.62&lt;/td&gt;&lt;td&gt;74.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;8.16&lt;/td&gt;&lt;td&gt;8.54&lt;/td&gt;&lt;td&gt;129,451.99&lt;/td&gt;&lt;td&gt;99.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;4.52&lt;/td&gt;&lt;td&gt;3.71&lt;/td&gt;&lt;td&gt;227,361.46&lt;/td&gt;&lt;td&gt;29.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="7"&gt;风格指数&lt;/td&gt;&lt;td&gt;800成长&lt;/td&gt;&lt;td&gt;9.36&lt;/td&gt;&lt;td&gt;6.65&lt;/td&gt;&lt;td&gt;70,744.25&lt;/td&gt;&lt;td&gt;37.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;800价值&lt;/td&gt;&lt;td&gt;1.07&lt;/td&gt;&lt;td&gt;-0.52&lt;/td&gt;&lt;td&gt;53,742.71&lt;/td&gt;&lt;td&gt;15.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融&lt;/td&gt;&lt;td&gt;-2.71&lt;/td&gt;&lt;td&gt;-3.78&lt;/td&gt;&lt;td&gt;28,845.78&lt;/td&gt;&lt;td&gt;15.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期&lt;/td&gt;&lt;td&gt;10.00&lt;/td&gt;&lt;td&gt;8.38&lt;/td&gt;&lt;td&gt;138,897.63&lt;/td&gt;&lt;td&gt;52.58&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;1.81&lt;/td&gt;&lt;td&gt;2.02&lt;/td&gt;&lt;td&gt;58,767.16&lt;/td&gt;&lt;td&gt;56.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;7.95&lt;/td&gt;&lt;td&gt;7.61&lt;/td&gt;&lt;td&gt;353,715.94&lt;/td&gt;&lt;td&gt;93.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;稳定&lt;/td&gt;&lt;td&gt;1.77&lt;/td&gt;&lt;td&gt;0.52&lt;/td&gt;&lt;td&gt;18,070.70&lt;/td&gt;&lt;td&gt;25.26&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：iFinD，中原证券研究所
+图 4：下游及金融、地产、公用事业月度行业走势（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;2026/1/31&lt;/td&gt;&lt;td colspan="2"&gt;月涨跌(%)&lt;/td&gt;&lt;td&gt;2025年涨跌&lt;/td&gt;&lt;td&gt;成交额（亿）&lt;/td&gt;&lt;td colspan="2"&gt;月换手率 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;可选消费&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td colspan="2"&gt;0.53&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;7,989.24&lt;/td&gt;&lt;td colspan="2"&gt;67.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美容护理&lt;/td&gt;&lt;td colspan="2"&gt;0.44&lt;/td&gt;&lt;td&gt;1.77&lt;/td&gt;&lt;td&gt;1,069.08&lt;/td&gt;&lt;td colspan="2"&gt;52.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td colspan="2"&gt;-0.97&lt;/td&gt;&lt;td&gt;-0.58&lt;/td&gt;&lt;td&gt;8,836.75&lt;/td&gt;&lt;td colspan="2"&gt;53.74&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td colspan="2"&gt;0.26&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;24,711.16&lt;/td&gt;&lt;td colspan="2"&gt;64.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td colspan="2"&gt;5.93&lt;/td&gt;&lt;td&gt;6.25&lt;/td&gt;&lt;td&gt;4,396.16&lt;/td&gt;&lt;td colspan="2"&gt;89.57&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td colspan="2"&gt;5.07&lt;/td&gt;&lt;td&gt;3.86&lt;/td&gt;&lt;td&gt;5,932.68&lt;/td&gt;&lt;td colspan="2"&gt;65.66&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;金融地产&lt;/td&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td colspan="2"&gt;-6.65&lt;/td&gt;&lt;td&gt;-7.29&lt;/td&gt;&lt;td&gt;7,078.03&lt;/td&gt;&lt;td colspan="2"&gt;6.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td colspan="2"&gt;-0.53&lt;/td&gt;&lt;td&gt;-1.81&lt;/td&gt;&lt;td&gt;16,075.35&lt;/td&gt;&lt;td colspan="2"&gt;27.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td colspan="2"&gt;4.30&lt;/td&gt;&lt;td&gt;2.66&lt;/td&gt;&lt;td&gt;6,106.21&lt;/td&gt;&lt;td colspan="2"&gt;51.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;红利公共事业&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td colspan="2"&gt;3.19&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;td&gt;9,135.43&lt;/td&gt;&lt;td colspan="2"&gt;28.32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td colspan="2"&gt;-0.38&lt;/td&gt;&lt;td&gt;-0.73&lt;/td&gt;&lt;td&gt;5,992.71&lt;/td&gt;&lt;td colspan="2"&gt;19.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td colspan="2"&gt;6.44&lt;/td&gt;&lt;td&gt;5.59&lt;/td&gt;&lt;td&gt;9,807.07&lt;/td&gt;&lt;td colspan="2"&gt;44.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td colspan="2"&gt;5.94&lt;/td&gt;&lt;td&gt;5.70&lt;/td&gt;&lt;td&gt;4,530.08&lt;/td&gt;&lt;td colspan="2"&gt;47.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td colspan="2"&gt;9.97&lt;/td&gt;&lt;td&gt;12.15&lt;/td&gt;&lt;td&gt;1,145.61&lt;/td&gt;&lt;td colspan="2"&gt;67.59&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：iFinD，中原证券研究所
+图 5：行业净融资额情况（亿）  
+![](images/3aa51ca480e7f2a868aa7a75f8ef1a8e938742772fcbfb1645a9f3aedd0c3dd9.jpg)  
+资料来源：iFinD，中原证券研究所
+当期 PE 排名前五的分别是国防军工、电子、计算机、综合、商贸零售；3年 PE 分位数看，排名前五的分别为建筑材料、石油石化、轻工制造、通信、纺织服饰。整体来看，当前市场呈现出科技高估值、消费低估值的格局，资金偏好向具备技术壁垒和业绩弹性的硬科技领域集中。
+图 6：PE 估值及分位数（%）  
+![](images/357834390fc22a5b1905e0c93abcbf49872d45f9af2ea8f6a4659600cdba4d12.jpg)  
+资料来源：iFinD，中原证券研究所
+# 1.2. 债市回顾
+从资金面看，央行通过公开市场操作持续投放流动性，1 月中下旬净投放量显著回升，配合政府债发行，整体货币环境保持宽松；DR007、R007 及同业存单利率均在经历 1 月初短暂上行后回落，至月底基本回归 $1 . 4 \% - 1 . 6 \%$ 区间，表明短期资金利率趋于稳定，市场情绪平稳。
+在利率走势方面，2026 年 1 月国债期货市场迎来小幅反弹，十年期主力合约上涨 $0 . 4 5 \%$ ，超长端的 30 年期国债期货涨幅略高，达 $0 . 4 8 \%$ 。值得注意的是，近期利率债走势与基本面的相关性有所减弱。
+图 7：货币投放、回笼统计（周:亿元）  
+![](images/e1afd2e0c2f2e95b9dcbe8a95cb83ca74dcf423a29c4ac265c2d6e83d30aee39.jpg)  
+资料来源：iFinD，中原证券研究所
+图 8：资金利率走势（%）  
+![](images/fdf8c67a36408859c875337de7feab311a11e46c4bf5a97ed8e8fd04d4d3e25c.jpg)  
+资料来源：iFinD，中原证券研究所
+图 9：国债期限结构走势（BP）  
+![](images/3e6278c608bbb4d3a3b550a16302b18a34311e44f9e3f164aec7419715ca7fc4.jpg)  
+资料来源：iFinD，中原证券研究所
+图 10：国债期货走势（元）  
+![](images/64363a6a43c69e90b94b64556d56dfb61cee50d65a16a4fb9d80e0b7e779667a.jpg)  
+资料来源：iFinD，中原证券研究所
+# 2. 宏观数据
+# 2.1. PMI
+2026 年 1 月制造业 PMI 回落至 $4 9 . 3 \%$ ，重新进入收缩区间。需求端，需求受到明显承压，新订单指数降至 $4 9 . 2 \%$ ，连续两个月低于荣枯线，反映内需复苏乏力，终端消费与投资拉动不足；出口订单较上月下降 1.2 个百分点，整体订单动能显著放缓。供给端，供给虽仍处扩张区间（生产指数 $50 . 6 \%$ ），但环比下滑 1.1 个百分点，显示企业在订单减少和成本上升的双重约束下，主动控制产出节奏。库存方面，出现被动累积迹象，原材料库存指数微降至 $4 7 . 8 \%$ ，而产成品库存指数则升至 $4 9 . 0 \%$ ，尽管仍在收缩区间，但降幅收窄甚至局部反弹，表明销售不畅导致库存去化速度放缓。价格维度，原材料购进价格指数大幅跃升至 $5 6 . 1 \%$ ，创近年高点，主因国际大宗商品价格反弹叠加国内部分原材料供应阶段性趋紧；出厂价格指数同步回升至$50 . 6 \%$ ，为近半年首次回到扩张区间，说明企业正尝试向下游传导成本压力，但能否持续取决
+于终端需求恢复强度。综合来看，当前制造业处于需求走弱、供给韧性减弱、被动累库、成本压力回升的特征，若后续政策未能有效提振终端消费或稳定大宗价格，企业盈利和产能扩张意愿或将进一步受限。
+图 11：1 月制造业 PMI 重回收缩区间（%）  
+![](images/9a1a83c203c06667ec33a4858f42e7cd467ec5a0b57096574e43514233b65ec8.jpg)  
+资料来源：iFinD，中原证券研究所
+图 12：PMI 细分项情况（%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指标名称&lt;/td&gt;&lt;td&gt;2026/1/31&lt;/td&gt;&lt;td&gt;2025/12/31&lt;/td&gt;&lt;td&gt;变化 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:主要原材料购进价格&lt;/td&gt;&lt;td&gt;56.1&lt;/td&gt;&lt;td&gt;53.1&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:生产经营活动预期&lt;/td&gt;&lt;td&gt;52.6&lt;/td&gt;&lt;td&gt;55.5&lt;/td&gt;&lt;td&gt;-2.9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:高技术制造业&lt;/td&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;52.5&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:生产&lt;/td&gt;&lt;td&gt;50.6&lt;/td&gt;&lt;td&gt;51.7&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:出厂价格&lt;/td&gt;&lt;td&gt;50.6&lt;/td&gt;&lt;td&gt;48.9&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:大型企业&lt;/td&gt;&lt;td&gt;50.3&lt;/td&gt;&lt;td&gt;50.8&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:供应商配送时间&lt;/td&gt;&lt;td&gt;50.1&lt;/td&gt;&lt;td&gt;50.2&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:装备制造业&lt;/td&gt;&lt;td&gt;50.1&lt;/td&gt;&lt;td&gt;50.4&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI&lt;/td&gt;&lt;td&gt;49.3&lt;/td&gt;&lt;td&gt;50.1&lt;/td&gt;&lt;td&gt;-0.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:新订单&lt;/td&gt;&lt;td&gt;49.2&lt;/td&gt;&lt;td&gt;50.8&lt;/td&gt;&lt;td&gt;-1.6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:采购量&lt;/td&gt;&lt;td&gt;48.7&lt;/td&gt;&lt;td&gt;51.1&lt;/td&gt;&lt;td&gt;-2.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:中型企业&lt;/td&gt;&lt;td&gt;48.7&lt;/td&gt;&lt;td&gt;49.8&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:产成品库存&lt;/td&gt;&lt;td&gt;48.6&lt;/td&gt;&lt;td&gt;48.2&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:消费品行业&lt;/td&gt;&lt;td&gt;48.3&lt;/td&gt;&lt;td&gt;50.4&lt;/td&gt;&lt;td&gt;-2.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:消费品行业&lt;/td&gt;&lt;td&gt;48.3&lt;/td&gt;&lt;td&gt;50.4&lt;/td&gt;&lt;td&gt;-2.1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:基础原材料行业&lt;/td&gt;&lt;td&gt;47.9&lt;/td&gt;&lt;td&gt;48.9&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:新出口订单&lt;/td&gt;&lt;td&gt;47.8&lt;/td&gt;&lt;td&gt;49&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:原材料库存&lt;/td&gt;&lt;td&gt;47.4&lt;/td&gt;&lt;td&gt;47.8&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:小型企业&lt;/td&gt;&lt;td&gt;47.4&lt;/td&gt;&lt;td&gt;48.6&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:进口&lt;/td&gt;&lt;td&gt;47.3&lt;/td&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造业PMI:在手订单&lt;/td&gt;&lt;td&gt;45.1&lt;/td&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：iFinD，中原证券研究所
+# 2.2. 投资、消费、净出口
+2025 年 12 月固定资产投资累计同比继续下滑，房地产开发投资增速降至- $- 1 7 . 2 \%$ ，基建投
+资首次转负（ $( - 1 . 4 8 \%$ ），制造业投资接近零增长，民间投资持续走弱，反映实体信心不足。消费方面，社零同比仅 $3 . 7 \%$ ，耐用品（汽车、家电）大幅下滑，居民消费意愿偏弱。出口表现亮眼（ $+ 6 . 6 \%$ ），进口 $+ 5 . 7 \%$ ，外需形成支撑；但 2026 年 1月 PMI 新出口订单已回落至 $4 7 . 8 \%$ ，后续出口动能可能减弱。
+图 13：2025 年 12 月固定资产投资同比增速继续下滑（%）  
+![](images/6d6698dd1e1d8ca06da7360dfb26c51529be85420472e0b1add22142bc611607.jpg)  
+资料来源：iFinD，中原证券研究所
+图 14：2025 年 12 月社会消费品零售总额同比继续回落（%）  
+![](images/c414a46bb836c96a1212eaf863203818d368ed547f3a4fced29a654e5c236878.jpg)  
+资料来源：iFinD，中原证券研究所
+图 15：主要社消分项同比继续下降(%)  
+![](images/30206c961f999326318ef1a5fa0476acd100b00d9279153f9dae9e0c2e15b55e.jpg)  
+资料来源：iFinD，中原证券研究所
+图 16：2025 年 12 月进出口同比表现良好（%）  
+![](images/a4212f382fed95af27ccb2ad8bb2b8fd12bbf4930558dec5f564465fd1055127.jpg)  
+资料来源：iFinD，中原证券研究所
+图 17：2026 年 1 月 PMI 新出口订单回落（%）  
+![](images/2732750bcf19db26586d23ef4ba1f9f2764c9955213fe04f4bc1402721fd7606.jpg)  
+资料来源：iFinD，中原证券研究所
+# 2.3. 物价方面 CPI 和 PPI 情况
+从 2025 年 12 月数据看，CPI 与 PPI 均呈现回升趋势，显示出价格中枢逐步上移的迹象。CPI 同比上涨 $0 . 8 \%$ ，较前值小幅回升，核心 CPI（不含食品和能源）升至 $1 . 2 \%$ ，连续数月维持在 $1 \%$ 以上，反映居民消费端非必需品和服务价格稳中有升；而食品项 CPI 虽仍为负增长，但跌幅已显著收窄（高频数据看，食用农产品价格指数同比降幅由- $13 \%$ 收窄至 $- 1 \%$ 左右），主要受生猪产能去化、冬季蔬菜供应偏紧等因素推动，叠加春节临近需求季节性抬升，预计后续食品价格将温和反弹。
+PPI 方面，12 月 PPI 同比为- $1 . 9 \%$ （上期- $- 2 . 2 \%$ ），高频数据上，生产资料价格指数同步回暖，反映出工业品供需关系改善，特别是上游原材料价格持续走强，主要由于全球大宗商品市场强势上涨，国内制造业成本压力加大。
+预计 2月 CPI 同比将升至 $0 . 9 \% - 1 . 0 \%$ 区间；PPI 同比有望进一步上行。
+图 18：CPI 当月同比继续回升（%）  
+![](images/579edb4811c77ad85face4c79598cf6ae890de729ffd01fe42d7feeffbbf35ec.jpg)  
+资料来源：iFinD，中原证券研究所
+图 19：PPI 同比逐步回升（%）  
+![](images/34da52bfaa226a48e524fd7faa578f597305600716318f8b72adbd11283f89a2.jpg)  
+资料来源：iFinD，中原证券研究所
+图 20：食用农产品价格指数负增速进一步收窄（%）  
+![](images/4da2c096faa0b9bce9ad8762a4ae46ba5e32098f90a739d28b43efb4e28c99ad.jpg)  
+资料来源：iFinD，中原证券研究所
+图 21：国内生产资料价格指数和大宗商品价格指数继续上涨（%）  
+![](images/407bcf402e465e661a5a7dcfcc106ed9947e82f70df64526f64ffdf7f43d06e0.jpg)  
+资料来源：iFinD，中原证券研究所
+# 2.4. 社融情况
+2025 年 12 月社会融资规模增量为 2.2 万亿元，同比多增约 4300 亿元，环比有所回落，实体企业融资的扩张动能不足。
+从结构上看，政府债券融资贡献显著，当月新增 6833 亿元，成为主要支撑项，反映出财政政策持续发力、专项债发行节奏前置；人民币贷款新增 9804 亿元，其中企业中长期贷款表现优于去年同期，说明政策性金融工具和结构性货币政策仍在引导资金流向制造业和基础设施领域；而居民贷款和企业短期贷款则继续疲软。与此同时，社融与 M2 同比剪刀差在 12 月收窄至接近零，表明新增融资未能有效转化为货币供应增长，资金在银行体系内沉淀较多，传导效率偏低；M1-M2 剪刀差进一步扩大至- $. 1 2 \%$ 左右，M1 同比增速持续下滑，凸显企业活期存款减少、经营活跃度不高，经济内生需求依然疲弱。
+展望后续，若财政支出延续靠前发力、地产政策进一步优化，社融有望在 2026 年初保持平稳，但居民端信心修复仍需时间。
+图 22：12 月社融规模增量及存量同比（亿，%）  
+![](images/295ca2d990771b089fc7dc3a203d88c217ab4fd2380a21672a37dc8b4d35eccf.jpg)  
+资料来源：iFinD，中原证券研究所
+图 23：社融与 M2 同比剪刀差（%）  
+![](images/08e3b9fcbf3ad11624291e2c89f0c62c157d48970e60e93728c4f05a26733c20.jpg)  
+资料来源：iFinD，中原证券研究所
+图 24：M1 与 M2同比剪刀差（%）  
+![](images/1c6776141a457d0319e55508c91398ee1472d0ebc6a5497f3919c2e46057ea33.jpg)  
+资料来源：iFinD，中原证券研究所
+图 25：近 3 个月社融分项变化情况（亿）  
+![](images/1a56519b0cc192e3e01aa26b52e0e227f4173e6861e9dcf142b0be4f3ddd3743.jpg)  
+资料来源：iFinD，中原证券研究所
+总结：综合 PMI、三驾马车、价格与社融四大维度，当前中国经济处于类美林时钟中的“复苏早期”阶段，主要表象是价格端开始回升，但内需依然较弱，企业扩张意愿不强，内生动能不足。从企业端看，PMI 重回收缩，被动累库与成本压力并存，盈利修复仍需政策进一步加码。从增长端看，外需暂时托底，但内需方面，无论是消费、地产还是民企投资均持续疲软。从通胀端看，PPI 持续回升、CPI 温和上行，再通胀交易窗口开启，但终端需求能否承接成本传导仍是关键变量。从信用端看，社融依赖财政发力，近期 M1 同比下行，货币活性不足，宽信用尚未有效转化为真实需求，若后续财政支出加快、地产政策见效，或能激活 M1 并改善实体流动性。
+表 1：宏观指标对股债影响  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;宏观指标&lt;/td&gt;&lt;td&gt;强弱走势&lt;/td&gt;&lt;td&gt;对股市影响&lt;/td&gt;&lt;td&gt;对债市影响&lt;/td&gt;&lt;td&gt;补充说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PMI&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;投资&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;利空建筑、建材等传统周期行业&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;新出口订单减弱，以及2025年高基数影响，后续可能环比走弱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;净出口&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPI和PPI&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;M1-M2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;存款活期化程度减弱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社融-M2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;+&lt;/td&gt;&lt;td&gt;融资需求弱于供给&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：中原证券研究所
+# 3. 宏观事件
+2026年 1 月中央部委密集出台的政策主要有稳内需、强科技、稳价格、防风险和优结构的四条主线。一方面通过绿色消费推进行动、城市更新支持、中小微企业贴息及社区服务税费延续等举措，配合央行结构降息，以及“降准降息仍有空间”的货币宽松信号，形成财政与货币协同发力的内需提振组合；另一方面聚焦“新质生产力”，以《“人工智能+制造”专项行动》和电池产业规范为抓手，推动产业升级与技术自主，同时通过取消光伏出口退税等政策主动化解结构性过剩风险，后续将继续提振价格端的持续修复；在市场层面，融资保证金比例上调、基金业绩基准规范、严打财务造假等措施强化基础制度，抑制杠杆投机，引导资金向长期化、实体化、绿色化方向配置。
+表 2：宏观及行业相关事件汇总  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;时间&lt;/td&gt;&lt;td&gt;事件名称&lt;/td&gt;&lt;td&gt;发布单位&lt;/td&gt;&lt;td&gt;主要内容摘要&lt;/td&gt;&lt;td&gt;对股市影响&lt;/td&gt;&lt;td&gt;对债市影响&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-05&lt;/td&gt;&lt;td&gt;《关于实施绿色消费推行动的通知》&lt;/td&gt;&lt;td&gt;商务部牵头,联合发改委、工信部、财政部、人民银行等9部门&lt;/td&gt;&lt;td&gt;提出7方面20条举措,推动绿色家电、新能源汽车、绿色家装、二手商品交易等消费,完善回收体系和金融支持。&lt;/td&gt;&lt;td&gt;利好白电、新能源车、绿色建材、循环经济企业;提振可选消费板块&lt;/td&gt;&lt;td&gt;正面:绿色消费信贷和ABS支持增强,利好绿色债券及相关产业债&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-05&lt;/td&gt;&lt;td&gt;2026年中国人民银行工作会议&lt;/td&gt;&lt;td&gt;中国人民银行&lt;/td&gt;&lt;td&gt;强调“稳增长、稳就业、稳物价”,提出“适时降准降息仍有空间”,加大结构性工具对科创、绿色、普惠领域支持。&lt;/td&gt;&lt;td&gt;提振风险偏好,利好利率敏感型成长股(科技、医药、高端制造)&lt;/td&gt;&lt;td&gt;显著利好:降准降息预期支撑短端利率下行,长端情绪改善&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-07&lt;/td&gt;&lt;td&gt;规范动力和储能电池产业竞争秩序工作部署会&lt;/td&gt;&lt;td&gt;工业和信息化部&lt;/td&gt;&lt;td&gt;研究遏制低效重复建设与恶性价格战,推动行业高质量发展,强化技术标准与产能调控。&lt;/td&gt;&lt;td&gt;利好动力电池、储能电池、锂电材料、新能源车,行业集中度提升&lt;/td&gt;&lt;td&gt;正面:优质企业信用资质改善,利好头部电池企业产业债&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-09&lt;/td&gt;&lt;td&gt;国务院常务会议:部署财政&lt;/td&gt;&lt;td&gt;国务院&lt;/td&gt;&lt;td&gt;推出设备更新、消费品以旧换新、中小微融资支持&lt;/td&gt;&lt;td&gt;利好高端制造、专精特新、消费&lt;/td&gt;&lt;td&gt;中性偏多:若内需回暖带动通胀预期&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;金融协同促内需一揽子政策&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;等组合政策，强化财政与货币协同发力。&lt;/td&gt;&lt;td&gt;复苏主线；强化“新质生产力”逻辑&lt;/td&gt;&lt;td&gt;回升，或小幅压制长端利率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-14&lt;/td&gt;&lt;td&gt;调整融资保证金比例&lt;/td&gt;&lt;td&gt;沪深北交易所&lt;/td&gt;&lt;td&gt;将融资保证金最低比例由80%提高至100%，自1月15日起实施，抑制杠杆投机。&lt;/td&gt;&lt;td&gt;短期压制题材炒作，引导资金流向基本面扎实的蓝筹与成长龙头&lt;/td&gt;&lt;td&gt;降低市场波动风险，增强长期资金入市信心&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-15&lt;/td&gt;&lt;td&gt;证监会2026年系统工作会议&lt;/td&gt;&lt;td&gt;中国证监会&lt;/td&gt;&lt;td&gt;强调“稳字当头、防止大起大落”，严打财务造假，深化注册制改革，推动分红回购常态化。&lt;/td&gt;&lt;td&gt;利好治理规范、高ROE、高分红企业；壳资源进一步贬值&lt;/td&gt;&lt;td&gt;增强制度信心，利好长期配置型资金入场，支撑权益市场估值中枢&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-15&lt;/td&gt;&lt;td&gt;货币金融政策“组合拳”八项措施&lt;/td&gt;&lt;td&gt;中国人民银行&lt;/td&gt;&lt;td&gt;包括新增再贷款额度、拓展碳减排工具、下调再贴现利率0.25个百分点等，明确“降准降息仍有空间”。&lt;/td&gt;&lt;td&gt;利好轻资产、高成长企业估值修复；银行净息差压力仍存&lt;/td&gt;&lt;td&gt;利好短端利率债；长端受政策托底但受通胀制约，维持震荡偏强&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-20&lt;/td&gt;&lt;td&gt;中小微企业贷款贴息政策&lt;/td&gt;&lt;td&gt;财政部、人民银行、工信部、银保监会、国家发改委&lt;/td&gt;&lt;td&gt;对符合条件的中小微企业贷款给予贴息，单户最高1000万元，期限最长3年。&lt;/td&gt;&lt;td&gt;利好中证1000/2000成分股，尤其是专精特新、科技型中小企业&lt;/td&gt;&lt;td&gt;改善民企融资环境，利好优质中小企业信用债&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-20&lt;/td&gt;&lt;td&gt;延续实施社区家庭服务业税费优惠政策&lt;/td&gt;&lt;td&gt;财政部、税务总局&lt;/td&gt;&lt;td&gt;养老、托育、家政等社区家庭服务业继续享受增值税、所得税减免至2027年底。&lt;/td&gt;&lt;td&gt;利好相关服务运营商；提升民生服务板块关注度&lt;/td&gt;&lt;td&gt;影响有限，但有助于稳定小微服务主体信用风险&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-20&lt;/td&gt;&lt;td&gt;《关于进一步支持城市更新行动若干措施的通知》&lt;/td&gt;&lt;td&gt;住建部、财政部、发改委等&lt;/td&gt;&lt;td&gt;鼓励发行城市更新专项债，支持老旧小区改造、适老化改造、智慧社区建设。&lt;/td&gt;&lt;td&gt;利好建筑央企、防水材料、智能家居企业&lt;/td&gt;&lt;td&gt;正面：专项债扩容利好基建类城投债；地产链仍受销售制约，影响有限&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026-01-23&lt;/td&gt;&lt;td&gt;《公开募集证券投资基金业绩比较基准指引》及操作细则&lt;/td&gt;&lt;td&gt;证监会、中国证券投资基金业协会&lt;/td&gt;&lt;td&gt;规范基金业绩宣传，要求科学设定和披露业绩比较基准，防止误导投资者。&lt;/td&gt;&lt;td&gt;推动行业回归长期业绩导向，提升投资者稳定性。&lt;/td&gt;&lt;td&gt;中性偏正面&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：中原证券研究所
+# 4. 月度配置建议
+2026 年 1月，A 股市场延续震荡上行态势，上证指数突破 4100 点，市场风格显著偏向成长与中小盘，资源品、半导体、商业航天等新质生产力主线领涨。核心驱动因素：政策层面，中央经济工作会议明确“以进促稳”的总方向，地方两会密集聚焦“新质生产力”，叠加“设备更新”“人工智能+”等产业政策持续落地，显著提振了科技与制造板块的盈利预期。流动性方面，春节前央行加大公开市场投放力度，市场对降准的预期不断升温；同时近期人民币兑美
+元大幅升值、美元走弱，推动资金流向人民币资产。基本面亦提供支撑，PPI 同比降幅收窄、CPI 实现转正，部分半导体和先进制造企业年报预告符合预期，进一步强化了业绩确定性。情绪面，大市值品种受到宽基 ETF 赎回压力，小市值品种在调整中呈现韧性，主题投资活跃。
+债市方面，30 年期国债期货在 1 月企稳反弹，主要受益于保险、银行等配置型机构年初布局，有效对冲了前期交易拥挤带来的止盈压力。
+展望 2月份，股票型 ETF 净赎回在 1月底达到峰值，后续逐步减弱，另外，春节后复工复产推进、两会政策预期升温以及外资持续回流，为股市提供温和上行的基础。债市方面，10 年期与 30 年期国债收益率预计区间震荡，需等待降准或降息等实质性宽松政策落地。
+中期来看，二季度将成为市场方向选择的关键窗口，核心变量在于内需能否实质性修复。乐观情景下，若内需回暖、财政政策发力见效，PPI 转正与 M1 回升将有利于顺周期行业走势，股市有望进入普涨阶段，债市则将面临调整压力；悲观情景下，若地产拖累未能缓解、居民信心依旧疲软，政策加码预期将再度升温，市场或延续高股息与科技双主线并行的结构性特征，债市也有望获得支撑。
+配置方面，建议采取均衡策略：一是中长期继续聚焦科技主线，关注电气设备、软件服务等方向；二是关注原材料价格上涨带动的成本传导机会，以化工行业为重点；三是布局受益于城市更新政策与稳增长逻辑的建筑建材板块；四是配置具备防御属性的高股息资产，如煤炭等行业。
+# 5. 风险提示
+1、政策及经济数据不及预期。  
+2、风险事件冲击市场流动性。  
+3、报告样本数据有限，历史过往数据不代表未来表现。
+# 行业投资评级
+强于大市：未来 6 个月内行业指数相对沪深 300 涨幅 $10 \%$ 以上；
+同步大市：未来 6 个月内行业指数相对沪深 300 涨幅－ $10 \%$ 至 $10 \%$ 之间；
+弱于大市：未来 6 个月内行业指数相对沪深 300 跌幅 $10 \%$ 以上。
+# 公司投资评级
+买入： 未来 6 个月内公司相对沪深 300 涨幅 $15 \%$ 以上；
+增持： 未来 6 个月内公司相对沪深 300 涨幅 $5 \%$ 至 $15 \%$ ；
+谨慎增持：未来 6 个月内公司相对沪深 300 涨幅－ $10 \%$ 至 $5 \%$ ；
+减持： 未来 6 个月内公司相对沪深 300 涨幅－ $15 \%$ 至－ $10 \%$ ；
+卖出： 未来 6 个月内公司相对沪深 300 跌幅 $15 \%$ 以上。
+# 证券分析师承诺
+本报告署名分析师具有中国证券业协会授予的证券分析师执业资格，本人任职符合监管机构相关合规要求。本人基于认真审慎的职业态度、专业严谨的研究方法与分析逻辑，独立、客观的制作本报告。本报告准确的反映了本人的研究观点，本人对报告内容和观点负责，保证报告信息来源合法合规。
+# 重要声明
+中原证券股份有限公司具备证券投资咨询业务资格。本报告由中原证券股份有限公司（以下简称“本公司”）制作并仅向本公司客户发布，本公司不会因任何机构或个人接收到本报告而视其为本公司的当然客户。
+本报告中的信息均来源于已公开的资料，本公司对这些信息的准确性及完整性不作任何保证，也不保证所含的信息不会发生任何变更。本报告中的推测、预测、评估、建议均为报告发布日的判断，本报告中的证券或投资标的价格、价值及投资带来的收益可能会波动，过往的业绩表现也不应当作为未来证券或投资标的表现的依据和担保。报告中的信息或所表达的意见并不构成所述证券买卖的出价或征价。本报告所含观点和建议并未考虑投资者的具体投资目标、财务状况以及特殊需求，任何时候不应视为对特定投资者关于特定证券或投资标的的推荐。
+本报告具有专业性，仅供专业投资者和合格投资者参考。根据《证券期货投资者适当性管理办法》相关规定，本报告作为资讯类服务属于低风险（R1）等级，普通投资者应在投资顾问指导下谨慎使用。
+或本报告任何部分，不得以任何侵犯本公司版权的其他方式使用。未经授权的刊载、转发，本公司不承担任何刊载、转发责任。获得本公司书面授权的刊载、转发、引用，须在本公司允许的范围内使用，并注明报告出处、发布人、发布日期，提示使用本报告的风险。
+若本公司客户（以下简称“该客户”）向第三方发送本报告，则由该客户独自为其发送行为负责，提醒通过该种途径获得本报告的投资者注意，本公司不对通过该种途径获得本报告所引起的任何损失承担任何责任。
+# 特别声明
+在合法合规的前提下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券头寸并进行交易，还可能为这些公司提供或争取提供投资银行、财务顾问等各种服务。本公司资产管理部门、自营部门以及其他投资业务部门可能独立做出与本报告意见或者建议不一致的投资决策。投资者应当考虑到潜在的利益冲突，勿将本报告作为投资或者其他决定的唯一信赖依据。</t>
+  </si>
+  <si>
+    <t># 港股 IPO 投资指南
+# 华泰研究
+2026 年 2 月 02 日
+深度研究
+2025 年港股 IPO 规模重回全球首位，上市首日平均涨幅接近 $40 \%$ ，成为增强收益的重要选择之一。当前项目储备依然充沛，各类资金参与兴趣较高，本文我们回答三个重要问题，何时、何种方式、参加何项目是更优的选择。
+# 港股 IPO快速回暖的背后
+香港 IPO 市场快速回暖是制度优化与流动性宽松共振的结果。一方面国内企业仍有融资需求，香港对此针对性改革，“A+H”上市提速与科企专线降低了企业赴港上市的门槛、时间成本与不确定性。另一方面，弱美元、低Hibor 与二级市场的表现也促进上市意愿回暖，一二级市场在 2025 年共振改善。往后看，我们预计 2026 年主板 IPO融资规模在 3100 亿港元左右。
+# 香港 IPO制度特点
+香港 IPO 为注册制上市，一般从筹备到最终上市耗时半年至一年时间，除了上市标准和发行制度与 A股不同外，港股还有一些比较特殊的机制：1）发行结构分为国际配售和公开发售，国际配售占主导地位。2）如果采取回拨机制 A，公开发售火热可以平衡机构与公众需求。3）绿鞋机制用来稳定后市。4）红鞋机制保护中小投资者中签率。同时为了更好服务不同类型企业上市诉求，针对生物科技公司、AtoH 上市、中概股回归和特专科技等，港交所持续进行上市制度改革。
+# 如何参与香港 IPO
+参与港股 IPO 有基石、锚定和公开发售三种形式，参与资金规模依次递减、灵活性依次递增。1）基石一般最早且较为深入地接触项目，份额受法律保护，但存在锁定期，且由于下单较早，面对发行价不确定性也相对更大。适合长线投资者参加，尤其是参与非常热门需要确保持有份额的项目时。2）锚定在建簿下单前一般已经接触项目，获得了相对充分的信息，且并无锁定期，灵活性更高，但劣势在于获配规模并不由申购规模决定。3）公开发售更多针对零售投资者，了解项目的时间最靠后，是定价的接受者。国内资金可以通过 QDI、QDII等合规跨境通道参与，南向暂无法直接参与。
+# 如何精选港股 IPO项目
+基石投资能否获利，市场大势研判和公司质地分析是两个关键的决策维度，此外仍需关注对主营业务的协同、投资组合补充和资产稀缺性，若禁售期结束后有获利需求，还需研判市场彼时流动性环境及公司能否入通。针对锚定和零售投资者，我们构建了定量化的打新筛选模型以降低投资于破发项目的概率，模型选中的项目开盘涨幅相对未筛选高出 10 个点；12月报告发布至今真实环境中，模型选中项目收益高出 15个点。
+# 对参与香港 IPO投资者的 10条建议
+对于希望锁定份额的长期投资者，尽量以基石身份参与投资。
+基石需关注公司价值、业务协同、资产组合补充效果和稀缺性。
+锚定投资者也建议尽早与发行人及中介接触。
+零售投资者分散资金参与多个可行项目相比集中打新效果或更好。
+理性参与打新，若首日卖出，可参考华泰港股打新评分模型选择高分项目。
+无论何种持有期限，都建议对二级市场流动性提前研判。
+在二级市场买入时，暂时规避刚入通的上市公司。
+IPO 数量本身不是二级市场走势的主要因素，更重要的是质量和行业。
+以杠杆融资形式参与 IPO 市场是风险与收益并存的。
+港股注册制上市，需谨慎评估，避免盲目跟风“看起来”热门的项目。
+风险提示：港股上市节奏放缓，市场流动性收紧，模型失效风险。
+李雨婕 研究员
+SAC No. S0570525050001 liyujie@htsc.com
+SFC No. BRG962 +(852) 3658 6000
+孙瀚文 研究员
+SAC No. S0570524040002 sunhanwen@htsc.com
+SFC No. BVB302 +(86) 21 2897 2228
+何康，PhD 研究员
+SAC No. S0570520080004 hekang@htsc.com
+SFC No. BRB318 +(86) 21 2897 2202
+易峘 研究员
+SAC No. S0570520100005 evayi@htsc.com
+SFC No. AMH263 +(852) 3658 6000
+栾迪* 联系人
+SAC No. S0570124120013 luandi@htsc.com
++(86) 10 6321 1166
+# 正文目录
+# 引言 ...
+# IPO 市场快速回暖的背后..
+制度影响：更开放的融资环境和针对性的制度优化.  
+市场环境：流动性宽松、二级市场走强促进上市意愿回暖. .4  
+后续展望：预计 2026 年上市约百家，融资规模与 2025 年相当..
+# 香港 IPO 制度特点...
+上市流程：耗时半年至一年左右，材料审核和推介环节顺利与否是关键.  
+特殊机制：发行结构、回拨机制、绿鞋和红鞋机制. 8   
+上市标准：多通道、更包容、更灵活............ .9  
+上市制度改革沿革：同股不同权、ADR 回归、未盈利生物科技、特专科技、AtoH 上市 .10
+# 如何参与香港 IPO..... .12
+基石、锚定与公开发售的优劣与参与时间线 . .12   
+渠道：内地机构直接参与需通过 QDI、QDII 等合规跨境通道 .13
+# 如何精选港股 IPO项目.... .14
+基石投资者如何筛选项目. .14  
+针对锚定及零售交易者的打新筛选模型. .15
+# 对参与香港 IPO投资者的 10 条建议... .18
+风险提示.... ..19
+# 引言
+2025 年，香港市场共上市 116 家项目，募资 2867 亿港币规模，一跃成为全球募资规模最大的交易所。市场整体活跃叠加项目质量提升，2025 年港股 IPO 开盘的平均收益率接近$40 \%$ ，如果事前做项目筛选，收益率则会进一步提升，参与 IPO 成为投资者创造超额收益的重要渠道。
+在 IPO快速回暖的同时，我们也注意到一些具有特殊意义的现象，例如：1）上市结构发生了明显变化，越来越多的稀缺性和核心 A股资产在港股上市，2025 年，包括宁德时代、赛力斯等在内的 19 家 A 股公司赴香港上市，募资总额占中国香港市场全年募资额的 $49 \%$ ，行业主要集中在高端制造及 TMT。2）基石投资者占比维持高位。2025 年新上市个股共 89家公司存在基石投资者，占比提升至 $7 7 \%$ ，2024 年为 $70 \%$ 。3）外资在港股 IPO市场参与度上升。外资参与过的项目及认购金额占总基石比例均达到 $3 5 \%$ 左右。4）打新收益率明显上升，2025 年港股 IPO 开盘的平均收益率约 $40 \%$ ，破发率降至 $28 \%$ 的历史低位，显著低于 2018 年至今的平均水平。
+当前港股 IPO 项目储备库依然非常充分，截至目前还有 300 余家公司在排队聆讯。在各类资金对港股 IPO 兴趣依然较高的同时，我们也注意到一些投资者由于对港股发行制度不熟悉，不清楚何时接触、以何种方式参与、挑选什么样的项目才能更适合自己。本文我们就以这三个投资中遇到的关键问题作为出发点，介绍香港 IPO 上市流程、参与方式和渠道、以及如何定量化的筛选项目。最后，我们也总结出 10 条普适性的建议，供投资者参考。
+图表1： 2016-2025年港股募资情况（单位：亿港元）  
+![](images/01c876e8455f2d2fbb6d303df784e4cd63aeaf2b87094bbc2817dc2d11f01339.jpg)  
+资料来源：iFind，华泰研究
+# IPO 市场快速回暖的背后
+# 制度影响：更开放的融资环境和针对性的制度优化
+港股 IPO成为当前中国公司 IPO的主要渠道。2025 年，116 家公司在港股主板上市，合计募资近 2900 亿港元，金额比 2024 年增长 $320 \%$ ，募资规模是 2021 年以来新高。港股市场成为了今年中国公司 IPO 募资的主要渠道，占比达到 $67 \%$ ，占比创近 10 年新高。
+港股市场针对性地推出一系列制度优化，核心围绕 $\mathbf { \hat { \mu } } ^ { 6 6 } \mathbf { A } + \mathbf { H } ^ { 9 3 }$ 机制深化与科技企业上市加速两大主线，系统性降低了企业赴港上市的门槛、时间成本与不确定性。
+在“A+H”领域，改革通过降低公众持股要求与提升审核协同效率双管齐下。一方面，自 2026年起， $\ " \mathsf { A } + \mathsf { H } ^ { \prime \prime }$ 公司 H 股的持续公众持股量要求可低至公司总股本的 $5 \%$ ，或市值不低于 10亿港元即可；另一方面，两地监管机构协作提速，对市值超百亿港元的 A 股公司，港交所承诺 30 天内完成审核。这些措施直接驱动了 $\mathsf { A } { + } \mathsf { H } ^ { \ast }$ 及“A 拆 H”模式持续火热，2025 年有超170 家 A股公司或子公司公布赴港计划，其中近 20 家已成功上市，成为市场的中坚力量。
+此外，为巩固新经济融资中心地位，港交所联合证监会在 2025年 5月推出“科企专线”。该专线为特专科技及生物科技公司提供上市前的一对一指引，并允许以保密形式提交申请，有效解决了早期科技企业的信息保护与流程不确定性痛点。政策效果显著，专线推出半年，已有 70家左右的企业成功在港上市，高效吸引了以人工智能为代表的硬科技企业集群，形成了独特的市场竞争力。
+图表2： 2025年以来，港股 IPO显著回暖  
+![](images/29ff1aee59f4118ac23566a64900e8274a0a058101cc6e47a8d8d6ef61000788.jpg)  
+资料来源：Bloomberg，Wind，华泰研究
+# 市场环境：流动性宽松、二级市场走强促进上市意愿回暖
+弱美元促进金融条件宽松，提振港股一二级市场表现。美元指数是全球流动性分配的锚，弱美元环境下，投资者往往会减配美国资产而增配全球其他市场的资产，港股是潜在选项之一。外资主要通过在二级市场交易来增配港股，以基石投资者的方式认购则是另一种途径，投资者参与度高往往会提升 IPO 募资的积极性。从数据看上，港股一级市场的融资与同期的恒生综指表现正相关，两者可能是互为因果。
+低Hibor利率降低了融资成本，尤其是在公开发售时的打新阶段。2025年5月是典型案例，美元兑港元触及 7.75 的强方兑换保证水平，香港金管局卖出港币，买入美元，使得 3 个月Hibor 利率大幅下行甚至一度到 $1 . 3 \%$ 附近，隔夜 Hibor 更是接近 $0 \%$ 。港股允许投资者使用“孖展”（Margin）进行融资申购，该融资成本紧密挂钩 Hibor。
+图表3： 港股融资规模上升经常与恒生综指的上涨同步发生  
+![](images/3971bc88df031236b341d5774f4ad08080e736836388d28a3f4ecd995d1abd79.jpg)  
+资料来源：Bloomberg，Wind，华泰研究
+图表4： 港股融资绝对规模与二级市场表现同步正相关  
+![](images/6c28132c7c07aac644a99ded728f7deba4cfa8645ad6227e752774f9c838dccf.jpg)  
+资料来源：Bloomberg，Wind，华泰研究
+图表5： 低 Hibor利率对港股市场募资有利  
+![](images/a029767f9660d3b0bba745f2dc9760fa3763b9bab6f532f8248846892fdaf546.jpg)  
+资料来源：Bloomberg，Wind，华泰研究
+图表6： 弱美元同样对港股市场募资有利  
+![](images/a3df75255da2732de96f379967eb50d30be3e339711345576fe10db3e88b3a66.jpg)  
+资料来源：Bloomberg，Wind，华泰研究
+# 后续展望：预计 2026 年上市约百家，融资规模与 2025 年相当
+根据定量估算，预计 2026 年港股主板 IPO融资规模中枢或在 3100 亿港元左右，Wind统计口径下，与 2021 年规模相当，较 2025 年提升 $10 \%$ 左右。我们的简化估算公式是 2026年港股主板 IPO规模 $\underline { { \underline { { \mathbf { \Pi } } } } } =$ （当前处理中聆讯家数 $^ +$ 明年上半年的递表家数）（申请后上市概率）**（每单 IPO 平均融资规模）。其中，当前处理中家数为 358 家。明年上半年的潜在递表数量假设为今年上半年实际递表数量的 $70 \%$ （考虑到今年上半年 A股 IPO 节奏慢且港股市场表现很强），两者合计约 442 家。申请后上市概率参照 2016 年以来的年度数据，中位数约为 $3 8 \%$ ，为便于计算，我们假设为 $3 5 \%$ （与 2025 年一致），每单 IPO 平均融资规模同样参考 2016 年以来的年度数据，中位数约为 20 亿港元，对应融资规模中枢约 3100 亿港元。
+图表7： 我们预计 2026 年港股主板 IPO 融资规模中枢或在 3100 亿港元左右  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2" colspan="2"&gt;&lt;/td&gt;&lt;td colspan="5"&gt;平均融资规模（亿港元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;预估上市数(家)&lt;/td&gt;&lt;td&gt;111&lt;/td&gt;&lt;td&gt;1332&lt;/td&gt;&lt;td&gt;1776&lt;/td&gt;&lt;td&gt;2220&lt;/td&gt;&lt;td&gt;2664&lt;/td&gt;&lt;td&gt;3108&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;133&lt;/td&gt;&lt;td&gt;1596&lt;/td&gt;&lt;td&gt;2128&lt;/td&gt;&lt;td&gt;2660&lt;/td&gt;&lt;td&gt;3192&lt;/td&gt;&lt;td&gt;3724&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;155&lt;/td&gt;&lt;td&gt;1860&lt;/td&gt;&lt;td&gt;2480&lt;/td&gt;&lt;td&gt;3100&lt;/td&gt;&lt;td&gt;3720&lt;/td&gt;&lt;td&gt;4340&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;177&lt;/td&gt;&lt;td&gt;2124&lt;/td&gt;&lt;td&gt;2832&lt;/td&gt;&lt;td&gt;3540&lt;/td&gt;&lt;td&gt;4248&lt;/td&gt;&lt;td&gt;4956&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;199&lt;/td&gt;&lt;td&gt;2388&lt;/td&gt;&lt;td&gt;3184&lt;/td&gt;&lt;td&gt;3980&lt;/td&gt;&lt;td&gt;4776&lt;/td&gt;&lt;td&gt;5572&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+注：数据截至 2025 年 12 月 31 日  
+资料来源：Bloomberg，Wind，华泰研究
+# 香港 IPO 制度特点
+上市流程：耗时半年至一年左右，材料审核和推介环节顺利与否是关键
+今年港股 IPO 交表数量大幅上升，但需要注意的是并非所有交表项目均可如期上市。港股IPO 采取注册制，但上市前依然需要进行材料审核和路演推介两个关键环节，材料审核及后续问询回复的顺利与否，以及推介环节的成功与否是公司能否如期发行的关键点。2016年来港交所IPO的上市成功率平均仅 $3 8 \%$ （当年上市数/剔除处理中家数后的当年总递表数），低于同期 A 股上市成功率 $89 \%$ （以审核通过家数统计）。截至 2025 年 12 月 31 日，港股2025 年递表并上市的企业 104 家，失效 188 家，上市成功率为 $36 \%$ 。截至 2026 年 1 月27 日，尚在上市处理流程中项目 358 个，平均排队时长 74 天，最长排队时长 200 天。
+具体来看，港股 IPO 可以分为如下四大阶段：
+初步准备阶段（约 3 个月），完成项目筹备和材料准备，同时与重点投资人进行初步沟通。发行人任命符合港交所规定的保荐人，并聘请法律、会计等领域专业顾问，发行人须通过保荐人与港交所开展上市前咨询，随后进行全维度尽职调查，完成材料准备后提交上市申请，需要呈交包含业务模式、募资计划等核心信息的 A1 表格。如果为 H 股上市，还需向中国证监会履行备案程序。
+监管审查阶段（约 6 到 9 个月不等），交易所/证监会审核材料并给出反馈意见，承销团队同步准备推介材料。港交所上市科将围绕业务合规性、信息披露充分性展开深度审阅并进行 2-3 轮反馈，发行人需联合中介机构逐项回应并补充材料；若上市科最终驳回申请，发行人可启动申诉程序，待上市科审核通过，申请将被推荐至上市委员会，由其对公司上市合规性进行最终审议聆讯。在本阶段，承销团队同步准备推介材料。分析师在分析师会议后撰写研究报告。A股赴港上市该流程有机会加速。
+市场推介与定价阶段（约 1个月），承销团队路演、确认市场需求并确定发行价格区间和簿记建档后的最终发行价格。在聆讯通过后，上市委员会发布聆讯后资料集（PHIP）以更新最新信息。上市人印发“红鲱鱼招股书”（初步招股书），向机构投资者展示价值逻辑并开展预路演，与基石投资者签订基石投资协议，并在路演过程中结合机构投资者反馈锚定初步价格区间。预路演结束后发布公开招股书，披露最终发行价区间与申购规则，进入管理层路演和簿记建档阶段。该阶段发行人和中介会充分与机构投资者沟通，明确下单意愿。机构和零售投资者都可以在该阶段参与申购，机构下单时需明确申购份额与报价（在价格区间内），零售投资者按最高发行价申购。结合机构询价结果与公众申购热度完成最终股份定价与配售分配后，发行人完成股权登记，正式挂牌上市，实现股权的公开市场流通。
+后市支持阶段（1个月），成功上市后，稳定后市交易商会通过绿鞋机制进行稳市操作。
+图表8： 香港 IPO过程中的主要文件披露时间  
+![](images/8f011507651f59284d4423ca3339734946450c76c501ebd08f9030f343c74e97.jpg)  
+资料来源：HKEX，华泰研究
+图表9： 香港联交所的上市审核流程一览  
+![](images/5cbb23e4982ce8298f534cb8092f0783508e4f2fa8e2b3734ef4fa714d0fafb5.jpg)  
+註：上圆僅为示意性表述：實跨操作中可能有所不同  
+资料来源：香港联交所，华泰研究
+图表10： 香港 IPO主要上市流程  
+![](images/1d88d9dadac56482da85a790a3ba19ebb113c712f723d7f03af6808af4e339bd.jpg)  
+资料来源：HKEX，华泰研究
+# 特殊机制：发行结构、回拨机制、绿鞋和红鞋机制
+发行结构，大规模且长线投资者更容易获得份额。港股 IPO 的发行份额分为“国际配售”和“公开发售”两部分，其中国际配售占主导地位。国际配售是指企业通过向全球投资者发行股票实现跨境融资的资本市场手段，主要面向国际机构投资者及高净值个人，是机构投资者的主要参与方式。港交所目前要求将至少 $40 \%$ 的拟发行股份进行建簿配售。建簿配售部分不包含基石投资者，所以假如至少 $40 \%$ 要分配给建簿配售部分的投资者，而公开发售部分至少占 $10 \%$ ，则分配给基石投资者的股份最多占发行总数的 $50 \%$ 。
+回拨机制，平衡公众与机构的需求。指当港股公开发售的超额认购达到一定倍数时，交易所从建簿配售部分向公开发售部分回拨股份，回拨比例越高，国际配售被稀释的幅度就越大，基石投资者不受影响。2025 年 8 月港交所发布新规，设定两种机制供公司选择，A机制沿用了原有超额倍数回拨思路，但整体下调了回拨比例，提高了机构持股的稳定性。B机制要求提前确定分配至公开发售部分的比例，不根据超额认购倍数进行事后回拨。新规整体上有利于提高机构投资者的持股比例和稳定性。
+图表11： 回拨机制上，25 年 8 月新规前后对比  
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="4"&gt;旧规：单一强制回拨机制&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="3"&gt;公开认购&lt;/td&gt;&lt;td&gt;国际配售&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;初始公开发售比例/超额认购倍数小于15倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td colspan="3"&gt;90%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数介于15-50倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;30%&lt;/td&gt;&lt;td colspan="3"&gt;70%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数介于50-100倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td colspan="3"&gt;60%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数大于等于100倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td colspan="3"&gt;50%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;新规-机制A：双轨制可选（保留回拨）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公开认购&lt;/td&gt;&lt;td&gt;基石占比最高可达&lt;/td&gt;&lt;td colspan="2"&gt;建簿配售&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;初始公开发售比例/超额认购倍数小于15倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5%&lt;/td&gt;&lt;td&gt;55%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数介于15-50倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15%&lt;/td&gt;&lt;td&gt;45%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数介于50-100倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;超额认购倍数大于等于100倍：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;新规-机制B：双轨制可选（无回拨）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公开认购&lt;/td&gt;&lt;td&gt;基石占比最高可达&lt;/td&gt;&lt;td colspan="2"&gt;建簿配售&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;初始公开发售比例（超额认购倍数小于15倍）：&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="4"&gt;最高上限&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;60%&lt;/td&gt;&lt;td colspan="2"&gt;40%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：HKEX，华泰研究
+绿鞋机制，主要用来稳定后市。又称超额配售选择权，是新股发行人授予承销商在新股上市后 30天内，可以根据市场情况额外发行最多 $1 5 \%$ 股份的权利，该规定旨在稳定上市后股价。具体机制如下，承销商在发行时多卖出比原始发行规模更多的股票，这部分股票多数是从与发行人达成延期交付协议的战略投资者处借来的。若上市后股价下跌，承销商可以从市场买入股票抬高股价，并填补多卖出的空仓；股价上涨时，可以使用绿鞋机制，要求发行人发行超额股份，以增加二级市场供给规模。
+红鞋机制，保障中签率的机制。港股打新时按照账户分配新股，而不是像 A 股按照资金量来分配，这种机制被称为红鞋机制。这种发行制度尽量保障每个申购账户都可以得到一定数量的新股，可以保护中小投资者的中签率。
+# 上市标准：多通道、更包容、更灵活
+港股现行上市制度采用多通道设计，形成了传统行业与新经济并重的多元上市体系。港股主板的核心上市财务门槛为三套平行测试标准，企业符合其一即可：1）盈利测试，要求最近一年盈利不低于 3500 万港元，前两年累计不低于 4500 万港元，三年累计不低于 8000万港元，上市时市值须达 5 亿港元；2）市值/收入/现金流测试，适用于盈利未达标但具备规模的企业，要求上市时市值不低于 40 亿港元、最近一年收入不低于 5 亿港元，且前三个财年现金流净额累计不低于 1 亿港元；3）市值/收入测试，面向高成长性企业，要求上市时市值不低于 20 亿港元、最近一年收入不低于 5 亿港元，且拥有至少三个财年的营运记录。除主板外，港交所通过多层次规则设计为特定企业提供灵活上市通道。GEM（创业板）定位为中小型成长企业的融资平台，财务门槛显著低于主板。
+架构方面，港股作为中资企业境外上市的核心目的地，目前主流架构有 H 股、红筹、VIE架构，其核心差异在于企业控制境内运营实体（WFOE）的法律基础。H 股架构作为境内注册公司直接发行外资股上市的模式，具备最明确的监管路径和最稳定的股权结构。红筹架构通过于境外设立控股公司并实现股权控制，达成了股份全流通与灵活的公司治理。而对于存在外资准入壁垒的行业（如互联 、教育培训等），VIE 架构则以“协议控制”替代“股权控制”，成为特定监管环境下的特殊产物。
+图表12： 港股现行上市要求  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;主板&lt;/td&gt;&lt;td rowspan="5"&gt;财务要求&lt;/td&gt;&lt;td&gt;测试标准&lt;/td&gt;&lt;td&gt;盈利测试&lt;/td&gt;&lt;td&gt;市值/收入测试&lt;/td&gt;&lt;td&gt;市值/收入/现金流测试&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;盈利要求&lt;/td&gt;&lt;td&gt;过去三年累计盈利≥8000万港元(最近一年≥3500万,前两年累计≥4500万)&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;市值要求&lt;/td&gt;&lt;td&gt;≥5亿港元&lt;/td&gt;&lt;td&gt;≥40亿港元&lt;/td&gt;&lt;td&gt;≥20亿港元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;收入要求&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;最近一个经审计财政年度收入≥5亿港元&lt;/td&gt;&lt;td&gt;最近一个经审计财政年度收入≥5亿港元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;现金流要求&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;前三个财政年度来自营运业务的现金流入合计≥1亿港元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;创业板(GEM)&lt;/td&gt;&lt;td&gt;测试标准&lt;/td&gt;&lt;td colspan="2"&gt;市值/现金流测试&lt;/td&gt;&lt;td colspan="2"&gt;市值/收入测试&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;财务要求&lt;/td&gt;&lt;td colspan="2"&gt;市值至少1.5亿港元,且在业务记录期内来自经营活动的净现金流入合计至少3000万港元&lt;/td&gt;&lt;td colspan="2"&gt;市值至少4亿港元,且在业务记录期内总收入至少2亿港元&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;特定类型发行人&lt;/td&gt;&lt;td&gt;未盈利生物科技公司&lt;/td&gt;&lt;td colspan="4"&gt;1)无盈利、无收入要求;2)市值至少为15亿港元;3)至少有一项核心产品已通过概念阶段,主要专注于研发以及开发核心产品,拥有与其核心产品有关的专利;4)上市前已获得资深投资者相当数额的投资&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;特专科技公司&lt;/td&gt;&lt;td colspan="4"&gt;1)已商业化公司:市值≥40亿港元,最近一个财年收入≥2.5亿港元,研发开支占比≥15%(过去三个财年合计)未商业化公司:市值≥80亿港元,研发开支占比≥30%;2)经营业务至少3年;3)上市前已获得资深投资者相当数额的投资&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;同股不同权(WVR)公司&lt;/td&gt;&lt;td colspan="4"&gt;市值≥400亿港元或市值≥100亿港元且最近一个财年收入≥10亿港元;不同投票权股份的投票权不得超过普通股投票权的10倍&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：HKEX，华泰研究
+图表13： H 股、红筹、VIE 架构对比  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;对比维度&lt;/td&gt;&lt;td&gt;H股架构&lt;/td&gt;&lt;td&gt;红筹架构&lt;/td&gt;&lt;td&gt;VIE 架构&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上市主体&lt;/td&gt;&lt;td&gt;境内公司&lt;/td&gt;&lt;td&gt;境外公司&lt;/td&gt;&lt;td&gt;境外公司&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;控制境内运营实体的方式&lt;/td&gt;&lt;td&gt;直接股权控制&lt;/td&gt;&lt;td&gt;直接股权控制&lt;/td&gt;&lt;td&gt;协议控制&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;是否适用于部分行业外资限制&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股份是否可全流通&lt;/td&gt;&lt;td&gt;可申请&lt;/td&gt;&lt;td&gt;可全流通，无需申请&lt;/td&gt;&lt;td&gt;可全流通，无需申请&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合规风险&lt;/td&gt;&lt;td&gt;较低&lt;/td&gt;&lt;td&gt;中等&lt;/td&gt;&lt;td&gt;较高&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：华泰研究
+上市制度改革沿革：同股不同权、ADR 回归、未盈利生物科技、特专科技、AtoH 上市香港 IPO 募资制度以市场化、透明化和国际化为核心，强调信息披露，并持续改革以适应不同类型的企业需求：
+1）在扩大上市范围方面，2018 年起，港交所推动上市制度改革，新增了第 8A、18A、19C等关键章节，允许同股不同权公司、未盈利生物科技公司上市等。2023 年，改革范围扩展到更广泛的硬科技领域（第 18C 章），旨在吸引处于高研发投入阶段的“特专科技公司”，如AI、芯片、新能源等。
+此外，为巩固新经济融资中心地位，港交所联合证监会在 2025年 5月推出“科企专线”。该专线为特专科技及生物科技公司提供上市前的一对一指引，并允许以保密形式提交申请，有效解决了早期科技企业的信息保护与流程不确定性痛点。
+2）在中概股（ADR）回归方面，香港市场已形成二次上市及双重主要上市两条较为完善的渠道接纳中概股回港上市。 $\textcircled{1}$ 对于二次上市公司而言，香港作为第二上市地，股份可以与ADR 完全互换，通过存托银行实现跨市场流通，但对应公司无法纳入港股通； $\textcircled{2}$ 对于双重主要上市公司而言，须完全遵守两地的上市规则，不再享受豁免，优势是可以符合纳入港股通的资格，能够吸引内地资金，且当美股退市风险出现时，香港上市地位不受影响。
+针对两种不同的回归路径，港交所明确了不同的上市标准： $\textcircled{1}$ 第二上市途径下，除 VIE 架构存在对于利润的额外要求，满足相应最低市值及上市时间要求即可，要求相对较低。此外，港交所允许在招股书中豁免部分重复披露要求（如可引用美国 SEC 存档的 F-20 表格等公开文件），并免除 IPO 的部分上市程序。 $\textcircled{2}$ 通过双重主要上市的公司适用传统港股 IPO标准，港交所将进行完整的审核流程，要求与在港首次上市标准相同，流程相对较长。
+3）在“A+H”领域，需完成内地及香港双线审批，但流程已大幅简化提速。目前，上市申请人需在向香港联交所递交上市申请（A1）后 3 个工作日内向中国证监会提交备案文件，而在 2023 年 3 月改革前，境内企业赴港上市需先向证监会提交相关上市材料，获受理通知书（即“小路条”）后方可向港交所递表，获得证监会核准上市的批复（即“大路条”）后方可安排聆讯。2024 年 10 月 18日，香港证监会与联交所做出联合声明，宣布将优化新上市申请审批流程时间表，市值超百亿港币的公司承诺 30天之内完成审核。
+此外，自 2026 年起， $\ " { A } { + } { \sf H } ^ { \prime \prime }$ 公司 H 股的持续公众持股量要求可低至公司总股本的 $5 \%$ ，或市值不低于 10亿港元即可，为发行人的资本管理提供更大灵活性。
+图表14： 港股 IPO制度重要改革  
+![](images/1aed2adcaf38cb459722cb0f7ed9bded8912091856a125cc47ca520854031e49.jpg)  
+资料来源：Wind，华泰研究
+# 如何参与香港 IPO
+# 基石、锚定与公开发售的优劣与参与时间线
+港股 IPO 市场的参与方式主要分为基石投资、锚定投资和公开发售，三者在法律约束、获配确定性及流动性限制上存在本质差异。1）基石投资者是指在 IPO 路演前与发行人签订具有法律约束力的认购协议，承诺按最终发行价认购特定份额，并必须在招股书中公开披露身份的机构。2）锚定投资者则是在国际配售簿记建档期下达大额意向订单的机构，其身份无需强制披露，且不签署单独的认购协议，不能保证配售，但通常长期投资者和申购份额更高的投资者更容易获得配售。3）公众投资者则通过香港公开发售渠道参与，初始占比通常较低，但其认购有机会通过回拨机制影响机构投资者的最终获配比例。
+基石投资者的核心优势在于获配的绝对确定性，但代价是必须接受长达 6 个月的锁定期，且面对更大的发行价不确定性。从时间线看，基石投资者的接洽窗口期远早于其他投资者。有意成为基石投资者的机构一般须在公司递交上市申请后的早期阶段介入，最迟不晚于聆讯通过前。这个阶段包括与保荐人和管理层沟通行业逻辑、进行尽职调查以及谈判估值，所有的基石协议一般在公开发售前签署完毕。一旦签署合约，无论市场超额认购倍数多高，基石投资者的份额会受到法律保障，这为管理大规模资金的机构提供了不受市场热度干扰的入场保障。此外，知名机构作为基石入局能产生“认证效应”，向市场释放看多信号。然而，由于接触项目和下达购入意向最早，基石投资者面对的最终发行价不确定性也最大。6 个月的禁售期使得基石投资者必须承担上市初期的市场波动风险。
+锚定投资者以牺牲获配确定性为代价，换取了极高的资金流动性。锚定投资者作为国际配售的核心参与力量，在路演阶段即可接触到“红鲱鱼”招股书（Red Herring Prospectus），该本通常在正式路演前印刷，除了最终确定的发行价格外，已几乎涵盖了有关上市发行的所有信息及初步的价格区间。最终决策与博弈主要发生在上市前的最后两周，在路演与簿记建档期间，锚定投资者参与询价并下达订单。锚定投资者在上市首日即可自由卖出股份，无需承担锁定期风险，这使其能够灵活捕捉首日溢价或在市场转弱时迅速止损。但其弊端在于获配没有法律保障，在热门项目中，承销商可能会为了平衡而削减锚定投资者的订单。
+公众投资者通过公开发售渠道参与，份额相对低且定价能力弱。普通散户投资者可以在公开发售阶段查阅定稿后的招股章程（Final Prospectus），由于已经进入公开发售阶段，参与公开发售的投资者几乎没有定价权。公开发售时投资者获得的份额普遍更少，更适用于灵活打新资金，不适合希望获得大额份额的机构投资者。
+不同参与方式适合不同属性的资金，投资者需在流动性、信息充分度与获配确定性之间做出权衡。基石最适合长期看好公司基本面的战略资本、主权基金等长线资金。如果是那些极度热门、必须确保拿货额度的项目，对冲基金等也可以基石身份参与。锚定则更适合对冲基金、多策略基金或高净值个人，这些资金更看重估值安全垫，且倾向于在上市初期根据市场情绪灵活调仓。部分因投资组合流动性要求，无法以基石形式参与的长线资金也可以选择以锚定形式参与。对于个人闲置资金或打新套利资金，公开发售是门槛最低的选择。
+图表15： 港股 IPO投资者参与时间线  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;比较维度&lt;/td&gt;&lt;td&gt;基石投资者 (Cornerstone)&lt;/td&gt;&lt;td&gt;锁定投资者 (Anchor)&lt;/td&gt;&lt;td&gt;公众投资者 (Retail)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;资金门槛&lt;/td&gt;&lt;td&gt;较高（通常千万美元起，上不封顶）&lt;/td&gt;&lt;td&gt;较高（百万美元级，视项目规模而定）&lt;/td&gt;&lt;td&gt;较低（一手入场，约几千至几万港币）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;获配确定性&lt;/td&gt;&lt;td&gt;较高（受法律保障，不受回拨影响）&lt;/td&gt;&lt;td&gt;中等（与投行关系及市场热度有关）&lt;/td&gt;&lt;td&gt;较低（依赖抽签，热门股中签率低）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;锁定期&lt;/td&gt;&lt;td&gt;有（通常6个月）&lt;/td&gt;&lt;td&gt;无&lt;/td&gt;&lt;td&gt;无&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;信息优势&lt;/td&gt;&lt;td&gt;较高（可接触管理层，签署保密协议（NDA））&lt;/td&gt;&lt;td&gt;中等（非交易路演，分析师预路演）&lt;/td&gt;&lt;td&gt;较低（仅限公开招股书及媒体报道）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;主要风险&lt;/td&gt;&lt;td&gt;流动性风险（锁定期内股价破发）&lt;/td&gt;&lt;td rowspan="3"&gt;获配不足风险、上市首日价格波动&lt;/td&gt;&lt;td&gt;中签率低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;估值陷阱&lt;/td&gt;&lt;td&gt;纾展利息成本&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;破发亏损&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;适用资金&lt;/td&gt;&lt;td&gt;长期配置资金（主权基金、保险）&lt;/td&gt;&lt;td&gt;对冲基金、多策略基金、高净值专户、&lt;/td&gt;&lt;td rowspan="2"&gt;个人闲置资金、打新套利资金&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;战略资本&lt;/td&gt;&lt;td&gt;受限制无法参与基石的长线资金&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：HKEX，华泰研究
+图表16： 港股 IPO 投资者参与时间线  
+![](images/bc3cbfaf81414a457628057b969cfc6cd6d5eebd2c6c9099a855337b9f32217b.jpg)  
+资料来源：HKEX，华泰研究
+# 渠道：内地机构直接参与需通过 QDI、QDII等合规跨境通道
+境内机构作为基石或锚定投资者参与 H 股发行，需在满足港交所关于锁定、独立性及信息披露等合规要求的前提下，通过境内监管机构批准的合规路径实现资金出境。境内投资者参与港股 IPO 基石投资主要依托于 QDII、QDLP/QDIE 及 ODI 等合规跨境通道，其核心差异在于准入门槛、额度分配以及审批流程。1）ODI（境外直接投资）是具备产业背景或战略意图的境内企业实现长期持股的核心路径。2）QDII（合格境内机构投资者）是目前金融机构和专业投资人最为常用且标准化的参与渠道，其核心优势在于全球市场覆盖广且产品形式灵活。3）QDLP/QDIE（合格境内有限合伙人/投资企业）作为地方试点的跨境通道，为私募基金提供了在特定额度内直投境外市场的灵活性。4）其他金融衍生工具。
+南向港股通投资者目前无法通过直接渠道参与新股申购。但由于南向可交易入通后股份，新股若满足入通条件，往往股价会得到一定的预期支撑。一旦新股成功入通，南向资金通常会在其后的半年内持续增加持股比例，成为支撑股价的重要增量资金来源。根据历史样本数据显示，新股从上市到正式入通之间的窗口期是博弈的较好窗口。
+图表17： 内地资金合规出境路径  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;QDI&lt;/td&gt;&lt;td&gt;QDII&lt;/td&gt;&lt;td&gt;QDLP&lt;/td&gt;&lt;td&gt;QDIE&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;直接/间接投资&lt;/td&gt;&lt;td&gt;直接投资&lt;/td&gt;&lt;td&gt;间接投资&lt;/td&gt;&lt;td&gt;间接投资&lt;/td&gt;&lt;td&gt;间接投资（深圳版 QDLP）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;资金出海额度&lt;/td&gt;&lt;td&gt;没有固定标准，根据项目的投资规模和需求而定&lt;/td&gt;&lt;td&gt;出海限额由外汇管理局根据市场情况和机构需求进行分配。每家获得QDII资格的机构都有一定的投资额度限制&lt;/td&gt;&lt;td&gt;出海限额由地方政府根据试点情况和市场需求进行分配。试点企业在获得额度后，可在额度范围内进行投资&lt;/td&gt;&lt;td&gt;同QDLP&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;申请机构&lt;/td&gt;&lt;td&gt;境内企业&lt;/td&gt;&lt;td&gt;境内金融机构（包括商业银行、信托公司、证券公司、公募基金管理公司和保险公司）&lt;/td&gt;&lt;td&gt;主要为符合条件的境外资产管理机构，部分试点城市允许符合条件的境内私募基金管理人&lt;/td&gt;&lt;td&gt;境内金融机构（包括商业银行、信托公司、证券公司、公募基金管理公司和保险公司）、股权投资基金管理企业及境外投资管理企业&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;审批机构&lt;/td&gt;&lt;td&gt;商务部、发改委、外汇部门&lt;/td&gt;&lt;td&gt;金融机构各自的监管部门及外管局&lt;/td&gt;&lt;td&gt;各地金融局及外管局&lt;/td&gt;&lt;td&gt;深圳等试点城市金融局、外管局&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;投资范围&lt;/td&gt;&lt;td&gt;境外非二级市场，一级市场、股权市场、实体投资；投资范围分为鼓励类、限制类、禁止类&lt;/td&gt;&lt;td&gt;境外证券市场（主要为境外二级市场），包括：股票、债券、基金、挂牌交易的股权产品、衍生品等，以各自监管规定为准&lt;/td&gt;&lt;td&gt;主要为境外证券投资&lt;/td&gt;&lt;td&gt;对比QDLP，QDIE的投资范围更广泛，包括：境外证券投资，境外非上市公司股权、债权、对冲基金以及不动产、实物资产等&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;试点地区&lt;/td&gt;&lt;td&gt;/&lt;/td&gt;&lt;td&gt;/&lt;/td&gt;&lt;td&gt;上海、天津、青岛、北京、海南、重庆、广东、江苏等&lt;/td&gt;&lt;td&gt;深圳&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：中国证监会，HKEX，深圳市人民政府，华泰研究
+# 如何精选港股 IPO项目
+# 基石投资者如何筛选项目
+基石投资能否获利，市场大势研判和公司质地分析是两个最关键的决策维度。受制于至少六个月的锁定期因素，基石投资的决策依据不是短期博弈，而是基于中长期判断的价值投资。这种判断除需按照策略框架对市场进行 6-12 个月的整体大势研判展望外，还需要用自下而上的财务分析框架对公司进行盈利及估值等综合评判。除此之外，我们提供一些筛选项目的思路供基石投资者参考：
+1） 协同效应。对于部分产业资本而言，其追求“协同效应”，投资目的是为自身主营业务获取技术、渠道或生态优势，短时期的财务回报有时是次要的，因此核心筛选因素在于分析其业务结构以及是否能对自身主营业务产生明确的技术互补、客户导流、供应链整合或生态闭环价值，如宁德时代基石投资者中包括中石化、奇瑞汽车基石投资者中包括地平线等。  
+2） 投资组合补充。大型配置型主权基金重视优化组合风险收益特征，降低整体波动，因此通过基石投资者获取某一标的的较大敞口，可以相对二级市场直接购入更为便捷且能获得一定的相对折价。在参与时这些投资者往往关注自身投资与标的公司的相关性，同时要求公司拥有较好的质地以及相对合理的估值水平。  
+3） 稀缺性。稀缺性是公司质地的一部分，部分项目具有不可复制性的资产如独特牌照、技术专利、品牌护城河，享受稀缺性溢价。对于看好某一产业、某一产品特征且希望持有较大比例的投资者，参与基石投资相较二级市场参与更加迅速。  
+4） 若非长期持有，而是关注 6 个月后的解禁减持环境，除了分析市场大势外，还可以关注公司是否可以入通。加入港股通可以使得公司股东多样性提升，有助于稳定市值、提升流动性。新股纳入恒生综合指数并最终进入港股通的路径，主要有定期检讨纳入、快速纳入、AH 股纳入： $\textcircled{1}$ 大型新股（市值门槛 2000 亿附近，如紫金黄金国际）可通过快速纳入机制进入港股通； $\textcircled{2}$ 中大型市值的公司（市值门槛 200 亿附近）可通过季度快速纳入，③AH 股一般无市值门槛要求，股价稳定期后自动纳入； $\textcircled{4}$ 同股不同权公司无法通过快速机制入通，需满足额外上市时间、市值及成交要求； $\textcircled{5}$ 其他公司可通过常规纳入进入港股通，需满足恒生小型股市值门槛（目前约 90 亿）及换手等相关要求。
+图表18： 港股新股不同入通路径比较  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;入通路径&lt;/td&gt;&lt;td&gt;准入要求与核心门槛&lt;/td&gt;&lt;td&gt;审核与生效耗时&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;快速纳入&lt;/td&gt;&lt;td&gt;新股上市首日收盘总市值排在恒生综合指数（HSCI）现 有成份股的前10%。&lt;/td&gt;&lt;td&gt;上市后的第10个交易日收市后加入综合指数并实施，同 时加入港股通。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;AH股同步&lt;/td&gt;&lt;td&gt;AH两地上市公司，在H股的价格稳定期结束且相应A 股上市满10个交易日&lt;/td&gt;&lt;td&gt;通常在上市后1个月左右入通&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;常规检讨纳入&lt;/td&gt;&lt;td&gt;1)大中型股：市值覆盖率需达恒生综指前93%；在 6/12月季度检讨中，标的须满足中型股标准且为前一季 度新上市。 2)小型股：市值覆盖率在93%之外；且调整考察日前 12个月(不足则从上市起算)的平均月底市值不低于50 亿港元，并需通过换手率测试。&lt;/td&gt;&lt;td&gt;1)大中型股：通常随3月或9月综指半年度实施日直 接生效。 2)小型股：仅限半年度检讨；需参与6月或12月正 常检讨后，在随后的3月或9月半年度实施日方可正 式生效。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;同股不同权&lt;/td&gt;&lt;td&gt;1) 满足恒生综指要求 2) 上市满6个月+20个交易日。 3) 在*首次纳入考察日*前183日（含考察日当日）中 的港股交易日的日均市值不低于200亿港币 4) 在首次纳入考察日前183日（含考察日当日）中的 港股总成交额不低于港币60亿&lt;/td&gt;&lt;td&gt;实际等待时间通常在7个月左右。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：上海证券交易所、深圳证券交易所、HKEX、华泰研究
+图表19： 上市后 20 个交易日内入通样本的分阶段收益情况  
+![](images/99f9f61e7e86495e2f8a0c447e4e8ba8ee52f1a4c00b41f269e7731f6dfac0fa.jpg)  
+注：数据截至 2025 年  
+资料来源：Bloomberg，Wind，华泰研究
+图表20： 上市后 180 个交易日内入通样本的分阶段收益情况  
+![](images/43833ce25e23b966dae42e86f050d98ceaf3b11c98de601b6476dd539925cd58.jpg)  
+注：数据截至 2025 年  
+资料来源：Bloomberg，Wind，华泰研究
+# 针对锚定及零售交易者的打新筛选模型
+港股新股上市后的表现分化较大，因此参与项目前必须做好严谨的定量化与定性化筛选工作。由于港股市场具备高度市场化的定价机制和多元化的投资者结构，首日表现的波动程度自 2023 年以来持续提升，并在 2025 年上行至历史最高位，择股的重要性已大幅超越了单纯的资金博弈。统计显示，港股打新的历史平均破发率约为 $50 \%$ ，这意味着“盲打”策略在当前环境下难以获得稳定超额收益。
+针对短期打新套利策略，我们构建了一套涵盖市场情绪、公司基本面及发行特征的五维度打分模型，以实现收益最大化。参考我们此前发布的《港股 IPO 放量的影响与高效打新策略》（2025.12.16），该模型旨在事前定量筛选出破发率更低、收益空间更大的优质个股，实测显示，选取得分中值 2.5 分以上的标的参与，其收益水平较未筛选项目可提高约 15 个百分点。随着模型评分的提高，打新的胜率及赔率均呈现显著上升趋势。
+图表21： 港股历史打新胜率约 $50 \%$   
+![](images/fbeb55e1af103db34ff5ef600731f805a2b7b794f677af751443959d3e609164.jpg)  
+注：数据选取 2017 年至 2025 年预计募资超过 5 亿港币的港股 IPO 项目，下同。  
+资料来源：Wind，华泰研究
+图表22： 近年来打新收益分化程度逐步提升  
+![](images/a0d475459e8a446c6ce424d373f752a978985681a37278d04a4430cba4a9a36a.jpg)  
+资料来源：Wind，华泰研究
+图表23： 打新模型构建及指标有效性分析  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指标名&lt;/td&gt;&lt;td&gt;类型&lt;/td&gt;&lt;td&gt;简介&lt;/td&gt;&lt;td&gt;有效性分析&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;市场表现&lt;/td&gt;&lt;td&gt;市场情绪&lt;/td&gt;&lt;td&gt;所在行业近期二级市场表现&lt;/td&gt;&lt;td&gt;有效，已纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;打新收益&lt;/td&gt;&lt;td&gt;市场情绪&lt;/td&gt;&lt;td&gt;近期港股市场整体打新平均收益&lt;/td&gt;&lt;td&gt;有效，已纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;破发率&lt;/td&gt;&lt;td&gt;市场情绪&lt;/td&gt;&lt;td&gt;近期上市新股中出现股价跌破发行价的新股所占的比例&lt;/td&gt;&lt;td&gt;与近期打新收益相似，未纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;估值&lt;/td&gt;&lt;td&gt;公司基本面&lt;/td&gt;&lt;td&gt;公司发行时的估值水平（静态）相对于对应行业估值&lt;/td&gt;&lt;td&gt;有效，已纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;定价价差&lt;/td&gt;&lt;td&gt;公司基本面&lt;/td&gt;&lt;td&gt;招股价的区间上下限价差&lt;/td&gt;&lt;td&gt;有效，已纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;所处行业&lt;/td&gt;&lt;td&gt;公司基本面&lt;/td&gt;&lt;td&gt;公司所处的二级行业&lt;/td&gt;&lt;td&gt;有效但合理性存疑，未纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基石投资者&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;基石投资者持股占比&lt;/td&gt;&lt;td&gt;有效，已纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;绿鞋机制&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;是否有超额配售选择权&lt;/td&gt;&lt;td&gt;无影响&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;募资规模&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;IPO募资总规模&lt;/td&gt;&lt;td&gt;无影响&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;超额认购比例&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;认购金额／募资额&lt;/td&gt;&lt;td&gt;未来函数，未纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;主承销商&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;所有主承销商的平均得分&lt;/td&gt;&lt;td&gt;相对有效，未纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;保荐人&lt;/td&gt;&lt;td&gt;发行特征&lt;/td&gt;&lt;td&gt;所有保荐人的平均得分&lt;/td&gt;&lt;td&gt;相对有效，未纳入模型&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：华泰研究
+我们简要介绍模型构建方式如下：我们结合市场情绪变动与个股自身的特性构建了打新性价比体系，作为申购决策的核心依据。在打分上，我们对各指标进行等权分配，同时按照因子所贡献的涨跌幅区间进行打分。
+1） 样本内部分：结果显示，样本内新股得分与新股开盘表现的相关性接近 $50 \%$ ；从得分分布上，得分高于 2.5 的项目占比约 $21 \%$ ，参与得分 2.5 以上的标的将使平均收益率由样本内的 $1 0 . 5 \%$ 提升至 $2 2 . 2 \%$ ，同时伴随着得分的提高，打新的胜率及赔率均在显著提升。对于散户投资者而言，若只以最小规模申购，按照实际中签率收益计算一手新股的打新收益，规避 1.5 分以下的项目可使得期望收益提升约 $1 3 . 5 \%$ 。  
+2） 样本外部分：考虑到可能存在的过度拟合影响，我们选择样本外数据对模型效果进行检验，发现指标仍保持了较高的有效性。样本外，IPO 打分大于 2.5 的标的平均收益率达$4 1 . 7 \%$ （未筛选时为 $1 4 . 8 \%$ ），得分高的个股收益率同样较高。
+参与得分较高的个股可显著提升打新的赔率及胜率。样本内外结合来看，若不进行筛选，则上市开盘收益为 $1 1 . 8 \%$ ，破发率约 $50 \%$ 。但若仅参与得分 2.5 以上的个股（即参与 $3 7 \%$ 的项目），开盘收益可以提升至 $2 6 . 3 \%$ ，破发率降低至 $32 \%$ 。若打新范围进一步缩窄，仅参与 3 分以上的项目（参与 $18 \%$ ），则开盘收益可以提升至 $4 4 . 2 \%$ ，破发率降低至 $23 \%$ 。
+在报告发布后（《港股 IPO放量的影响与高效打新策略》，2025.12.16），真实运行一个月内的效果同样较好。若参与 3 分以上的个股，开盘平均收益将由全样本的 $2 5 \%$ 提升至 $40 \%$ ，打新胜率（收益大于等于 0）将由全样本 $7 7 \%$ 提升至 $100 \%$ ，展现出良好的筛选效果。
+图表24： 样本内得分高的打新个股收益率显著高于低分个股  
+![](images/d278b8b1fc58f15fbae852c15eae20a7a189f3f82294fbbace9dc213231c542b.jpg)  
+资料来源：Wind，华泰研究
+图表25： 样本内打分分布一览  
+![](images/cda748302a96b75868d668422b6baacaca59a966e1dec1137068366355862c24.jpg)  
+注：纵轴为数量。  
+资料来源：Wind，华泰研究
+图表26： 样本内，得分更高的 IPO 项目收益率与胜率都相对更高  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;得分区间&lt;/td&gt;&lt;td&gt;样本数&lt;/td&gt;&lt;td&gt;累计覆盖&lt;/td&gt;&lt;td&gt;平均收益率&lt;/td&gt;&lt;td&gt;中位数收益率&lt;/td&gt;&lt;td&gt;胜率(&amp;gt;0)&lt;/td&gt;&lt;td&gt;胜率(≥0)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;[0.5,1]&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td&gt;-3.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(1,1.5]&lt;/td&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;22%&lt;/td&gt;&lt;td&gt;70%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(1.5,2]&lt;/td&gt;&lt;td&gt;57&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;44%&lt;/td&gt;&lt;td&gt;63%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(2,2.5]&lt;/td&gt;&lt;td&gt;41&lt;/td&gt;&lt;td&gt;57%&lt;/td&gt;&lt;td&gt;5.3&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;49%&lt;/td&gt;&lt;td&gt;76%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(2.5,3]&lt;/td&gt;&lt;td&gt;55&lt;/td&gt;&lt;td&gt;79%&lt;/td&gt;&lt;td&gt;9.4&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;78%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(3,3.5]&lt;/td&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;88%&lt;/td&gt;&lt;td&gt;27.8&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;68%&lt;/td&gt;&lt;td&gt;86%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(3.5,4]&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;92%&lt;/td&gt;&lt;td&gt;31.1&lt;/td&gt;&lt;td&gt;21.6&lt;/td&gt;&lt;td&gt;70%&lt;/td&gt;&lt;td&gt;80%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(4,4.5]&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;96%&lt;/td&gt;&lt;td&gt;10.6&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;56%&lt;/td&gt;&lt;td&gt;67%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;(4.5,5]&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;68.7&lt;/td&gt;&lt;td&gt;46.6&lt;/td&gt;&lt;td&gt;91%&lt;/td&gt;&lt;td&gt;91%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+注：胜率（&gt;0）指开盘价相较于发行价收益率大于 0 时，我们才认定为打新成功。  
+资料来源：Wind，华泰研究
+图表27： 样本外，得分高的打新个股收益率显著高于低分个股  
+![](images/34e29405fd101c7b8a8d9989a3efe1a37680a5d1c0464f0f3fd811b4ec074892.jpg)  
+资料来源：Wind，华泰研究
+图表28： 样本外，得分 2.5以上的项目占比约 $2 7 \%$   
+![](images/c6c2a3e1e1a54ec4370ac099adfcf8ef44c6d35bd753f1dbbdde99d159c23aa8.jpg)  
+资料来源：Wind，华泰研究
+# 对参与香港 IPO投资者的 10条建议
+最后，我们将上述制度、分析和模型浓缩成如下 10条建议，供投资者参考：
+香港 IPO 份额配售并不严格按照申购规模进行线性增长，国际配售部分长线资金和大额申购相对优先，公开发售部分在红鞋机制下更侧重于账户间的分配。这个机制与 A 股不同，需要特别注意，我们有三条建议：
+1） 对于希望锁定份额的长期投资者，尽量以基石身份参与投资。  
+2） 对于希望有一定灵活度，但又同时想拿到较大份额的投资者，需要尽早与发行人及中介接触，且最好自身为愿意长期持有的高质量投资者。  
+3） 对于零售投资者，若有多个希望参与但又几乎同时上市的项目，分散资金参与相比集中火力打新一个公司效果或更好。
+# 针对上市后不同周期下的表现差异，我们建议在项目之间优先选择：
+4） 战略性长期投资者除了关注市场总体走势及研判公司基本面外，也需要关注待投公司与自身业务是否可以协同、资产组合补充效果和稀缺性。  
+5） 希望短期获得超额表现的投资者，勿盲目打新，港股首日破发率相对 A 股显著更高。项目选择可参考华泰策略港股打新评分模型进行，2.5 分以上的标的具有性价比，3 分以上的标的赔率胜率均更优。  
+6） 无论何种持有期限，都建议对相应期限下的二级市场流动性和走势做提前研判。
+# 对无法直接参与港股 IPO的投资者，我们建议：
+7） 在二级市场买入时，暂时规避刚入通的上市公司。通常入通新股在一周内由于资金博弈使得波动率相对更高，尤其是在入通交易大幅前置化的当下。参考《港股通调整效应进一步增强》（2025.8.22），上一次港股通集中调整标的时出现了大幅抢跑，我们预测的纳入个股 7 月 1 日至 8 月 22 日跑赢恒生指数的平均值/中位数分别为 $2 9 . 2 \% / 1 7 . 3 \%$ ，远超历史平均水平，而在 9月初实际入通后短期大幅跑输恒指。  
+8） 即便不参与 IPO，也需要关注 IPO 对二级市场的影响。IPO 的数量本身并不构成短期市场上涨下跌的主要因素，更重要的是质量和行业。参考《港股 IPO 放量的影响与高效打新策略》（2025.12.16），上市前后，恒生综指在大型 IPO 前的表现没有明显规律，行业层面，以 20 日内行业指数的绝对收益和超额收益看，医药和科技行业 IPO 对行业整体表现形成正催化。基石投资者解禁前后，我们发现行业间分化较为明显，科技在解禁前后表现均较好，必需消费和能源解禁前后表现均不佳，可选消费解禁后有望补涨，医药可能在解禁后补跌。
+# 我们也需要提示港股 IPO 市场的一些风险：
+9） 港股 IPO 可以融资打新，对本金占用更低。但以融资形式参与 IPO 市场是风险与收益并存的，需要严格按照自身财务质量和资质选择融资与否及融资比例。  
+10）注册制上市制度下，公司可投资性审查的责任实际交给了投资者个人。我们建议避免盲目跟风那些看起来热门的项目，而是要对准备参与的项目尽可能充分地进行事前了解，降低上市后股价大规模破发承受损失的风险。
+# 风险提示
+港股上市节奏放缓：新股发行与上市节奏可能由于政策等原因出现阶段性放缓，可能导致市场的实际新发规模与我们的测算有所差异。
+市场流动性收紧：全球或区域性的宏观政策调整、市场情绪变化、国际资金流向波动等因素，均可能导致香港市场流动性整体或结构性收紧，导致投资标的的买卖价差扩大、大额资金交易执行难度增加及变现成本上升，使得投资收益与我们预测的有所差异。
+模型失效风险：量化模型、估值模型及各类投资策略的有效性依赖于历史数据，当市场发生结构性变化、出现极端行情或历史规律被打破时，相关模型与策略可能暂时或长期失效，导致市场的走势与我们的测算有所差异。
+# 免责声明
+# 分析师声明
+本人，李雨婕、孙瀚文、何康、易峘，兹证明本报告所表达的观点准确地反映了分析师对标的证券或发行人的个人意见；彼以往、现在或未来并无就其研究报告所提供的具体建议或所表迖的意见直接或间接收取任何报酬。请注意，标*的人员并非香港证券及期货事务监察委员会的注册持牌人，不可在香港从事受监管活动。
+# 一般声明及披露
+本报告由华泰证券股份有限公司或其关联机构制作，华泰证券股份有限公司和其关联机构统称为“华泰证券”(华泰证券股份有限公司已具备中国证监会批准的证券投资咨询业务资格) 。本报告所载资料是仅供接收人的严格保密资料。本报告仅供华泰证券及其客户和其关联机构使用。华泰证券不因接收人收到本报告而视其为客户。
+本报告基于华泰证券认为可靠的、已公开的信息编制，但华泰证券对该等信息的准确性及完整性不作任何保证。
+本报告所载的意见、评估及预测仅反映报告发布当日的观点和判断。在不同时期，华泰证券可能会发出与本报告所载意见、评估及预测不一致的研究报告。同时，本报告所指的证券或投资标的的价格、价值及投资收入可能会波动。以往表现并不能指引未来，未来回报并不能得到保证，并存在损失本金的可能。华泰证券不保证本报告所含信息保持在最新状态。华泰证券对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+华泰证券（华泰证券（美国）有限公司除外）不是 FINRA 的注册会员，其研究分析师亦没有注册为 FINRA 的研究分析师/不具有 FINRA 分析师的注册资格。
+华泰证券力求报告内容客观、公正，但本报告所载的观点、结论和建议仅供参考，不构成购买或出售所述证券的要约或招揽。该等观点、建议并未考虑到个别投资者的具体投资目的、财务状况以及特定需求，在任何时候均不构成对客户私人投资建议。投资者应当充分考虑自身特定状况，并完整理解和使用本报告内容，不应视本报告为做出投资决策的唯一因素。对依据或者使用本报告所造成的一切后果，华泰证券及作者均不承担任何法律责任。任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+除非另行说明，本报告中所引用的关于业绩的数据代表过往表现，过往的业绩表现不应作为日后回报的预示。华泰证券不承诺也不保证任何预示的回报会得以实现，分析中所做的预测可能是基于相应的假设，任何假设的变化可能会显著影响所预测的回报。
+华泰证券及作者在自身所知情的范围内，与本报告所指的证券或投资标的不存在法律禁止的利害关系。在法律许可的情况下，华泰证券可能会持有报告中提到的公司所发行的证券头寸并进行交易，为该公司提供投资银行、财务顾问或者金融产品等相关服务或向该公司招揽业务。
+华泰证券的销售人员、交易人员或其他专业人士可能会依据不同假设和标准、采用不同的分析方法而口头或书面发表与本报告意见及建议不一致的市场评论和/或交易观点。华泰证券没有将此意见及建议向报告所有接收者进行更新的义务。华泰证券的资产管理部门、自营部门以及其他投资业务部门可能独立做出与本报告中的意见或建议不一致的投资决策。投资者应当考虑到华泰证券及/或其相关人员可能存在影响本报告观点客观性的潜在利益冲突。投资者请勿将本报告视为投资或其他决定的唯一信赖依据。有关该方面的具体披露请参照本报告尾部。
+本报告并非意图发送、发布给在当地法律或监管规则下不允许向其发送、发布的机构或人员，也并非意图发送、发布给因可得到、使用本报告的行为而使华泰证券违反或受制于当地法律或监管规则的机构或人员。
+本报告 权仅为华泰证券所有。未经华泰证券书面许可，任何机构或个人不得以翻 、复制、发表、引用或再次分发他人(无论整份或部分)等任何形式侵犯华泰证券 权。如征得华泰证券同意进行引用、刊发的，需在允许的范围内使用，并需在使用前获取独立的法律意见，以确定该引用、刊发符合当地适用法规的要求，同时注明出处为“华泰证券研究所”，且不得对本报告进行任何有悖原意的引用、删节和修改。华泰证券保留追究相关责任的权利。所有本报告中使用的商标、服务标记及标记均为华泰证券的商标、服务标记及标记。
+# 中国香港
+本报告由华泰证券股份有限公司或其关联机构制作,在香港由华泰金融控股（香港）有限公司向符合《证券及期货条例》及其附属法律规定的机构投资者和专业投资者的客户进行分发。华泰金融控股（香港）有限公司受香港证券及期货事务监察委员会监管，是华泰国际金融控股有限公司的全资子公司，后者为华泰证券股份有限公司的全资子公司。在香港获得本报告的人员若有任何有关本报告的问题,请与华泰金融控股（香港）有限公司联系。
+# 香港-重要监管披露
+• 华泰金融控股（香港）有限公司的雇员或其关联人士没有担任本报告中提及的公司或发行人的高级人员。  
+• 有关重要的披露信息，请参华泰金融控股（香港）有限公司的 页 https://www.htsc.com.hk/stock_disclosure其他信息请参见下方 “美国-重要监管披露”。
+# 美国
+在美国本报告由华泰证券（美国）有限公司向符合美国监管规定的机构投资者进行发表与分发。华泰证券（美国）有限公司是美国注册经纪商和美国金融业监管局（FINRA）的注册会员。对于其在美国分发的研究报告，华泰证券（美国）有限公司根据《1934 年证券交易法》（修订 ）第 15a-6 条规定以及美国证券交易委员会人员解释，对本研究报告内容负责。华泰证券（美国）有限公司联营公司的分析师不具有美国金融监管（FINRA）分析师的注册资格，可能不属于华泰证券（美国）有限公司的关联人员，因此可能不受 FINRA 关于分析师与标的公司沟通、公开露面和所持交易证券的限制。华泰证券（美国）有限公司是华泰国际金融控股有限公司的全资子公司，后者为华泰证券股份有限公司的全资子公司。任何直接从华泰证券（美国）有限公司收到此报告并希望就本报告所述任何证券进行交易的人士，应通过华泰证券（美国）有限公司进行交易。
+# 美国-重要监管披露
+• 分析师李雨婕、孙瀚文、何康、易峘本人及相关人士并不担任本报告所提及的标的证券或发行人的高级人员、董事或顾问。分析师及相关人士与本报告所提及的标的证券或发行人并无任何相关财务利益。本披露中所提及的“相关人士”包括 FINRA 定义下分析师的家庭成员。分析师根据华泰证券的整体收入和盈利能力获得薪酬，包括源自公司投资银行业务的收入。  
+• 华泰证券股份有限公司、其子公司和/或其联营公司, 及/或不时会以自身或代理形式向客户出售及购买华泰证券研究所覆盖公司的证券/衍生工具，包括股票及债券（包括衍生品）华泰证券研究所覆盖公司的证券/衍生工具，包括股票及债券（包括衍生品）。  
+• 华泰证券股份有限公司、其子公司和/或其联营公司, 及/或其高级管理层、董事和雇员可能会持有本报告中所提到的任何证券（或任何相关投资）头寸，并可能不时进行增持或减持该证券（或投资）。因此，投资者应该意识到可能存在利益冲突。
+# 新加坡
+华泰证券（新加坡）有限公司持有新加坡金融管理局颁发的资本市场服务许可证，可从事资本市场产品交易，包括证券、集体投资计划中的单位、交易所交易的衍生品合约和场外衍生品合约，并且是《财务顾问法》规定的豁免财务顾问，就投资产品向他人提供建议，包括发布或公布研究分析或研究报告。华泰证券（新加坡）有限公司可能会根据《财务顾问条例》第 32C 条的规定分发其在华泰证券内的外国附属公司各自制作的信息/研究。本报告仅供认可投资者、专家投资者或机构投资者使用，华泰证券（新加坡）有限公司不对本报告内容承担法律责任。如果您是非预期接收者，请您立即通知并直接将本报告返回给华泰证券（新加坡）有限公司。本报告的新加坡接收者应联系您的华泰证券（新加坡）有限公司关系经理或客户主管，了解来自或与所分发的信息相关的事宜。
+# 评级说明
+投资评级基于分析师对报告发布日后 6 至 12个月内行业或公司回报潜力（含此期间的股息回报）相对基准表现的预期（A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普 500 指数，台湾市场基准为台湾加权指数，日本市场基准为日经 225 指数，新加坡市场基准为海峡时报指数，韩国市场基准为韩国有价证券指数，英国市场基准为富时 100 指数，德国市场基准为 DAX 指数），具体如下：
+# 行业评级
+增持：预计行业股票指数超越基准
+中性：预计行业股票指数基本与基准持平
+减持：预计行业股票指数明显弱于基准
+# 公司评级
+买入：预计股价超越基准 15%以上
+增持：预计股价超越基准 5%~15%
+持有：预计股价相对基准波动在-15%~5%之间
+卖出：预计股价弱于基准 15%以上
+暂停评级：已暂停评级、目标价及预测，以遵守适用法规及/或公司政策
+无评级：股票不在常规研究覆盖范围内。投资者不应期待华泰提供该等证券及/或公司相关的持续或补充信息
+# 法律实体披露
+中国：华泰证券股份有限公司具有中国证监会核准的“证券投资咨询”业务资格，经营许可证编号为：91320000704041011J
+香港：华泰金融控股（香港）有限公司具有香港证监会核准的“就证券提供意见”业务资格，经营许可证编号为：AOK809
+美国：华泰证券（美国）有限公司为美国金融业监管局（FINRA）成员，具有在美国开展经纪交易商业务的资格，经营业务许可编号为：CRD#:298809/SEC#:8-70231
+新加坡：华泰证券（新加坡）有限公司具有新加坡金融管理局颁发的资本市场服务许可证，并且是豁免财务顾问，经营许可证编号为：202233398E
+# 华泰证券股份有限公司
+# 南京
+南京市建邺区江东中路228号华泰证券广场1号楼/邮政编码：210019
+电话：86 25 83389999/传真：86 25 83387521
+电子邮件：ht-rd@htsc.com
+# 深圳
+深圳市福田区益田路5999 号基金大厦10 楼/邮政编码：518017
+电话：86 755 82493932/传真：86 755 82492062
+电子邮件：ht-rd@htsc.com
+# 华泰金融控股（香港）有限公司
+香港中环皇后大道中 99号中环中心 53楼
+电话：+852-3658-6000/传真：+852-2567-6123
+电子邮件：research@htsc.com
+http://www.htsc.com.hk
+# 华泰证券（美国）有限公司
+美国纽约公园大道 280号 21楼东（纽约 10017）
+电话：+212-763-8160/传真：+917-725-9702
+电子邮件: Huatai@htsc-us.com
+http://www.htsc-us.com
+# 华泰证券（新加坡）有限公司
+滨海湾金融中心 1 号大厦, #08-02, 新加坡 018981
+电话： $+ 6 5$ 68603600
+传真： $+ 6 5$ 65091183
+https://www.htsc.com.sg
+© 权所有 2026年华泰证券股份有限公司
+#
+北京市西城区太平桥大街丰盛胡同28号太平洋保险大厦A座18层/
+邮政编码：100032
+电话：86 10 63211166/传真：86 10 63211275
+电子邮件：ht-rd@htsc.com
+# 上海
+上海市浦东新区东方路18 号保利广场E 栋23 楼/邮政编码：200120
+电话：86 21 28972098/传真：86 21 28972068
+电子邮件：ht-rd@htsc.com</t>
+  </si>
+  <si>
+    <t># 双融日报
+--鑫融讯
+分析师：万蓉 S1050511020001
+wanrong@cfsc.com.cn
+![](images/bd226afca4af1c688d6dbd9f16fa8ac344146f7bb9a3916c0ecbb361ce4fe2b4.jpg)  
+市场情绪：71 分（较热）
+最近一年大盘走势  
+![](images/17d066f87de3aaf203e19f83742c7be7ebaa4c8b09e0909dc1fbb61dc19b017b.jpg)  
+资料来源：Wind，华鑫证券研究
+# 相关研究
+1、《双融日报》2026-02-03  
+2、《双融日报》2026-02-02  
+3、《双融日报》2026-01-30
+# ▌ 华鑫市场情绪温度指标：（较热）
+华鑫市场情绪温度指标显示，昨日市场情绪综合评分为71 分，市场情绪处于“较热”。历史市场情绪趋势变化可参考图表 1
+# ▌ 热点主题追踪
+# 今日热点主题：电网设备、银行、消费
+1、电网设备主题：全球 AI 数据中心（AIDC）耗电量巨大，催生了对高功率、高稳定性变压器等核心电力设备的刚性需求。目前全球供需严重失衡，美国市场交货周期已长达 127周。与此同时，国内“十五五”期间，国家电网 4 万亿元的巨额投资将重点投向特高压、智能化配电网等新型电力系统，为行业带来了明确的长期订单支撑。相关标的：中国西电（601179）、特变电工（600089）
+2、银行主题：银行股具有高股息特性，如中证银行指数的股息率高达 $6 . 0 2 \%$ ，显著高于 10 年期国债收益率。在经济增速放缓和市场波动加大时，银行股凭借稳定的分红能力，成为险资、社保等长期资金的重要配置标的。相关标的：农业银行（601288）、宁波银行（002142）
+3、消费主题：作为“十五五”规划的开局之年，2026 年宏观政策明确将扩大内需、促进消费置于核心，市场对此抱有积极的预期。与此同时，消费市场本身正经历深刻变迁，呈现出以“情绪价值”（黄金珠宝悦己消费）、“极致质价比”（量贩零食与折扣店）及“效率革新”（AI 电商与品牌出 海 ） 为 代 表 的 三 大 新 趋 势 。 相 关 标 的 ： 永 辉 超 市（601933）、王府井（600859）
+# 风险提示
+宏观经济意外下滑、地缘政治风险、流动性收紧超预期、行业政策低于预期。
+根据我们华鑫市场情绪温度指标监控显示：当前市场情绪综合评分为 71 分，市场情绪处于“较热”（指标含义可参考备注 5）。随着外围市场波动加剧，市场进入整理阶段，参考近一个月的行情，我们发现当情绪值低于或接近 50 分时，市场将获得一定的支撑，而当情绪值高于 80 分时，将出现一定的阻力。
+图表 1: 华鑫市场情绪温度指标  
+![](images/1e3baec27f6248a37e5f761841d423d151b1144b9bd664b4e90dae701ec3d043.jpg)  
+资料来源：Wind，华鑫证券研究
+图表 2: 主力资金前一交易日净流入前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;主力净流入额（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000547.SZ&lt;/td&gt;&lt;td&gt;航天发展&lt;/td&gt;&lt;td&gt;201,247.78&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600410.SH&lt;/td&gt;&lt;td&gt;华胜天成&lt;/td&gt;&lt;td&gt;121,201.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300136.SZ&lt;/td&gt;&lt;td&gt;信维通信&lt;/td&gt;&lt;td&gt;110,171.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002792.SZ&lt;/td&gt;&lt;td&gt;通宇通讯&lt;/td&gt;&lt;td&gt;105,657.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300065.SZ&lt;/td&gt;&lt;td&gt;海兰信&lt;/td&gt;&lt;td&gt;104,102.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600986.SH&lt;/td&gt;&lt;td&gt;浙文互联&lt;/td&gt;&lt;td&gt;87,581.31&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002050.SZ&lt;/td&gt;&lt;td&gt;三花智控&lt;/td&gt;&lt;td&gt;79,705.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002195.SZ&lt;/td&gt;&lt;td&gt;岩山科技&lt;/td&gt;&lt;td&gt;77,122.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002165.SZ&lt;/td&gt;&lt;td&gt;红宝丽&lt;/td&gt;&lt;td&gt;73,084.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002342.SZ&lt;/td&gt;&lt;td&gt;巨力索具&lt;/td&gt;&lt;td&gt;69,173.86&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图表 4:融资前一交易日净买入前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;融资净买入额（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000547.SZ&lt;/td&gt;&lt;td&gt;航天发展&lt;/td&gt;&lt;td&gt;97,040.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300394.SZ&lt;/td&gt;&lt;td&gt;天孚通信&lt;/td&gt;&lt;td&gt;72,211.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300136.SZ&lt;/td&gt;&lt;td&gt;信维通信&lt;/td&gt;&lt;td&gt;50,059.41&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000426.SZ&lt;/td&gt;&lt;td&gt;兴业银锡&lt;/td&gt;&lt;td&gt;43,370.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002602.SZ&lt;/td&gt;&lt;td&gt;世纪华通&lt;/td&gt;&lt;td&gt;34,513.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300017.SZ&lt;/td&gt;&lt;td&gt;网宿科技&lt;/td&gt;&lt;td&gt;32,616.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;29,842.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002792.SZ&lt;/td&gt;&lt;td&gt;通宇通讯&lt;/td&gt;&lt;td&gt;26,686.98&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000630.SZ&lt;/td&gt;&lt;td&gt;铜陵有色&lt;/td&gt;&lt;td&gt;23,071.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601688.SH&lt;/td&gt;&lt;td&gt;华泰证券&lt;/td&gt;&lt;td&gt;22,485.74&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，华鑫证券研究
+图表 3:主力资金前一交易日净流出前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;主力净流出额（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;-192,061.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300058.SZ&lt;/td&gt;&lt;td&gt;蓝色光标&lt;/td&gt;&lt;td&gt;-107,414.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;-102,299.30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600531.SH&lt;/td&gt;&lt;td&gt;豫光金铅&lt;/td&gt;&lt;td&gt;-77,733.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002149.SZ&lt;/td&gt;&lt;td&gt;西部材料&lt;/td&gt;&lt;td&gt;-74,304.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300476.SZ&lt;/td&gt;&lt;td&gt;胜宏科技&lt;/td&gt;&lt;td&gt;-55,301.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000426.SZ&lt;/td&gt;&lt;td&gt;兴业银锡&lt;/td&gt;&lt;td&gt;-53,185.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002155.SZ&lt;/td&gt;&lt;td&gt;湖南黄金&lt;/td&gt;&lt;td&gt;-48,917.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000063.SZ&lt;/td&gt;&lt;td&gt;中兴通讯&lt;/td&gt;&lt;td&gt;-42,918.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002594.SZ&lt;/td&gt;&lt;td&gt;比亚迪&lt;/td&gt;&lt;td&gt;-39,579.73&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+图表 5:融券前一交易日净卖出前十（万元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;融券净卖出（万元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600487.SH&lt;/td&gt;&lt;td&gt;亨通光电&lt;/td&gt;&lt;td&gt;1,303.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300059.SZ&lt;/td&gt;&lt;td&gt;东方财富&lt;/td&gt;&lt;td&gt;1,008.87&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600988.SH&lt;/td&gt;&lt;td&gt;赤峰黄金&lt;/td&gt;&lt;td&gt;977.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002837.SZ&lt;/td&gt;&lt;td&gt;英维克&lt;/td&gt;&lt;td&gt;961.66&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000426.SZ&lt;/td&gt;&lt;td&gt;兴业银锡&lt;/td&gt;&lt;td&gt;921.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603920.SH&lt;/td&gt;&lt;td&gt;世运电路&lt;/td&gt;&lt;td&gt;864.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;775.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300394.SZ&lt;/td&gt;&lt;td&gt;天孚通信&lt;/td&gt;&lt;td&gt;628.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600879.SH&lt;/td&gt;&lt;td&gt;航天电子&lt;/td&gt;&lt;td&gt;606.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;599.82&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+![](images/f915584e8a5ca26fa91d27d06d26117acb02422f33d147f9025aba5ef9fd6e90.jpg)  
+图表 6: 主力资金前一日净流入前十行业（万元）  
+图表 8:融资前一日净买入前十行业（万元）
+![](images/4dabe507f7890c5b7a67bc165ffba5f7124bf72d02d0d41eefedc6bb71bd5d7f.jpg)  
+资料来源：Wind，华鑫证券研究
+![](images/f6943ae0ceb75124e256c22da6c4843707b77bd5902f23b1d32ea483b0a3d363.jpg)  
+图表 7: 主力资金前一日净流出前十行业（万元）  
+图表 9:融券前一日净卖出前十行业（万元）
+![](images/55e2debca1d69443da40e94349633eda385c9e8ca2829b8c9d27cb68a508b234.jpg)
+# 备注：
+1. 融资净买入：通常表明投资者对市场或特定股票持乐观态度，愿意借款买入股票，预期未来股价上涨后能够获利。虽然融资净买入表明投资者对市场的积极态度，但如果融资余额过高，也可能意味着市场存在过度投机的风险。一旦市场出现调整，高杠杆的投资者可能会面临较大的亏损压力，甚至触发强制平仓，加剧市场波动。  
+2. 融券净卖出：通常表明投资者对市场或特定股票持悲观态度，预计未来股价将会下跌。融券卖出是一种高风险的交易策略，因为如果市场走势与投资者的预期相反，即股票价格上涨，那么投资者可能面临无限亏损的风险。此外，融券卖出还可能涉及较高的交易成本和潜在的法律风险。  
+3. 期间净买入额=融资净买入-融券净卖出  
+4. 华鑫市场情绪温度指标：通过对过去 5 年的历史数据进行统计及回测，分别从指数涨跌幅、成交量、涨跌家数、KDJ、北向资金及融资融券数据 6 大维度搭建华鑫市场情绪指标。从大的归类上来讲，该指标属于摆荡指标，可以参照常用的 RSI 指标，更多提供在震荡市时的高抛低吸，对于趋势缺乏预测效果。比较适用的行情是区间震荡，当市场出现趋势时，可能出现钝化现象，换言之，钝化某种程度上意味着趋势的出现，换一个观察角度，如果指标较长时间维持在 80 附近及以上或 20 附近及以下，需要重新判断该指标的适用。  
+5. 市场情绪：综合评分：过冷（0-19）、较冷（20-39）、中性（40-59）、较热（60-79）及过热（80-100）。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;情绪&lt;/td&gt;&lt;td&gt;市场特征&lt;/td&gt;&lt;td&gt;策略建议&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过冷&lt;/td&gt;&lt;td&gt;股价普遍下跌，市场前景不明朗&lt;/td&gt;&lt;td&gt;找价值投资机会的时期，但需注意风险控制&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;较冷&lt;/td&gt;&lt;td&gt;市场波动较小，投资者观望情绪浓厚&lt;/td&gt;&lt;td&gt;谨慎操作，关注基本面良好的股票，避免追高&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;市场波动适中，投资者情绪稳定&lt;/td&gt;&lt;td&gt;根据个股表现和市场信息进行投资，保持灵活性&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;较热&lt;/td&gt;&lt;td&gt;市场活跃，投资者信心较强&lt;/td&gt;&lt;td&gt;可以适度增加投资，但需警惕市场过热带来的风险&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过热&lt;/td&gt;&lt;td&gt;市场极度活跃，投资者情绪极度乐观&lt;/td&gt;&lt;td&gt;考虑适时减仓，避免在市场高点买入，关注市场泡沫风险&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 行业组介绍
+万蓉：华鑫证券分析师，商业管理硕士，2007 年 7 月加入华鑫证券研发部。
+# 证券分析师承诺
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格并注册为证券分析师，以勤勉的职业态度，独立、客观地出具本报告。本报告清晰准确地反映了本人的研究观点。本人不曾因，不因，也将不会因本报告中的具体推荐意见或观点而直接或间接收到任何形式的补偿。
+# 证券投资评级说明
+股票投资评级说明：  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;投资建议&lt;/td&gt;&lt;td&gt;预测个股相对同期证券市场代表性指数涨幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;＞20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;10%—20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;-10%—10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;卖出&lt;/td&gt;&lt;td&gt;&amp;lt;-10%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+行业投资评级说明：  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;投资建议&lt;/td&gt;&lt;td&gt;行业指数相对同期证券市场代表性指数涨幅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;推荐&lt;/td&gt;&lt;td&gt;＞10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;-10%—10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;回避&lt;/td&gt;&lt;td&gt;&amp;lt;-10%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+以报告日后的 12 个月内，预测个股或行业指数相对于相关证券市场主要指数的涨跌幅为标准。
+相关证券市场代表性指数说明：A 股市场以沪深 300 指数为基准；新三板市场以三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的）为基准；香港市场以恒生指数为基准；美国市场以道琼斯指数为基准。
+# 免责条款
+华鑫证券有限责任公司（以下简称“华鑫证券”）具有中国证监会核准的证券投资咨询业务资格。本报告由华鑫证券制作，仅供华鑫证券的客户使用。本公司不会因接收人收到本报告而视其为客户。
+本报告中的信息均来源于公开资料，华鑫证券研究部门及相关研究人员力求准确可靠，但对这些信息的准确性及完整性不作任何保证。我们已力求报告内容客观、公正，但报告中的信息与所表达的观点不构成所述证券买卖的出价或询
+价的依据，该等信息、意见并未考虑到获取本报告人员的具体投资目的、财务状况以及特定需求，在任何时候均不构成对任何人的个人推荐。投资者应当对本报告中的信息和意见进行独立评估，并应同时结合各自的投资目的、财务状况和特定需求，必要时就财务、法律、商业、税收等方面咨询专业顾问的意见。对依据或者使用本报告所造成的一切后果，华鑫证券及/或其关联人员均不承担任何法律责任。本公司或关联机构可能会持有报告中所提到的公司所发行的证券头寸并进行交易，还可能为这些公司提供或争取提供投资银行、财务顾问或者金融产品等服务。本公司在知晓范围内依法合规地履行披露。
+本报告中的资料、意见、预测均只反映报告初次发布时的判断，可能会随时调整。该等意见、评估及预测无需通知即可随时更改。在不同时期，华鑫证券可能会发出与本报告所载意见、评估及预测不一致的研究报告。华鑫证券没有将此意见及建议向报告所有接收者进行更新的义务。
+本报告版权仅为华鑫证券所有，未经华鑫证券书面授权，任何机构和个人不得以任何形式刊载、翻版、复制、发布、转发或引用本报告的任何部分。若华鑫证券以外的机构向其客户发放本报告，则由该机构独自为此发送行为负责，华鑫证券对此等行为不承担任何责任。本报告同时不构成华鑫证券向发送本报告的机构之客户提供的投资建议。如未经华鑫证券授权，私自转载或者转发本报告，所引起的一切后果及法律责任由私自转载或转发者承担。华鑫证券将保留随时追究其法律责任的权利。请投资者慎重使用未经授权刊载或者转发的华鑫证券研究报告。</t>
+  </si>
+  <si>
+    <t># 沪深 300 成交额放量，周期风格 PE 估值分位领涨
+# 情绪与估值 1 月第 3 期
+◼ 内容要点：上周（1.22-1.28）A 股市场两融余额增加，换手率普涨。主要指数 PE估值分位普涨，其中中证 500领涨。主要风格 PE估值分位跌多涨少，其中消费风格领跌。全行业估值分位数家电领跌，石油石化领涨。（*本篇报告根据研究需要，“上周”统一为非自然周。）
+# 情绪：两融余额增加，市场换手率普涨，成交额普涨
+1） 股债收益率上行，投资性价比较高。截至 2026 年 1 月 28 日，沪深 300股息率为 $2 . 7 7 \%$ ，10 年国债收益率为 $1 . 8 2 \%$ ，股债收益率为- $0 . 9 5 \%$ ，周环比上行 0.11pct。股债收益率高于 2026 年初以来均值 0.08pct，仍处于2012 年以来相对低点，这也意味着当前 A 股市场依然具备较高的投资性价比。  
+2） 两融余额增加，融资买入额占比下行。上周（1.22-1.28）两融余额均值约 2.73 万亿元，较上上周均值增加 $0 . 2 6 \%$ ；融资买入额占全 A 成交额比例下行，上周融资买入额占全 A 成交额比例为 $1 0 . 9 7 \%$ ，较上上周下行 0.67pct。  
+3） 市场换手率普涨，成交额普涨，沪深 300 成交额环比涨幅最大。换手率方面，上周（1.22-1.28）各主要指数换手率普涨。其中，深证成指换手率上行最多为 0.293pct；成交额方面，上周各主要指数成交额普涨，其中沪深 300 成交金额环比涨幅最大为 $9 . 7 1 \%$ ，其次是上证综指成交额上涨 $8 . 8 4 \%$ 。
+# 估值：指数 PE估值分位普涨，消费风格领跌，家电领跌
+1） 指数 PE 估值分位普涨，中证 500 领涨。各主要指数 PE（TTM）历史分位层面，上周（1.22-1.28）各主要指数 PE 估值分位数普涨，其中，中证 500 涨幅最大为 1.23 个百分点，其次是创业板指上涨 1.18 个百分点。各主要指数 PB（LF）历史分位层面，上周各主要指数 PB 估值分位普涨，其中中证 1000 上涨最多 2.6 个百分点。  
+2） 风格 PE 估值分位跌多涨少，消费风格领跌。从 PE（TTM）历史分位层面来看，上周（1.22-1.28）各风格板块 PE 分位数跌多涨少。其中，消费风格领跌 2.66 个百分点，其次是金融风格下跌 2.57 个百分点。从PB 历史分位层面来看，上周各风格板块 PB 分位涨多跌少，其中成长风格涨幅最大为 62.1 个百分点。  
+3） 行业 PE估值分位跌多涨少，其中家电领跌，石油石化领涨。上周（1.22-1.28）行业 PE 估值分位跌多涨少，板块层面，1）周期板块 PE 估值分位涨多跌少，石油石化行业领涨（+6.4pct）；2）消费板块 PE 分位跌多涨少，家电行业领跌（-10.7pct）；3）成长板块 PE 分位涨多跌少，通信领涨（ $+ 0 . 9 \mathrm { p c t } )$ ）；4）金融板块 PE 分位普跌，银行行业领跌（-5.0pct）。
+# ◼ 风险提示
+上市公司业绩不及预期、市场波动超预期、海外经济增速不及预期。
+![](images/2e1a37c851e343a519004bd02aa859e6e2c756a3c87c923261feab01b1210438.jpg)
+日期： yxzqdatemark2026年02月03日
+分析师： 唐文卿
+E-mail： tangwenqing@yongxi ngsec.com
+SAC编号： S1760524050001
+# 相关报告：
+《市场交易情绪降温，金融风格估值分位领跌 》
+2026 年 01 月 28 日
+《10 年期国债收益率下行，传媒南向资金净流入居前》
+2026 年 01 月 21 日
+《两融余额创新高，传媒行业PE 估值分位领涨》
+2026 年 01 月 19 日
+# 正文目录
+1. 情绪：股债收益率上行，两融余额增加 .
+1.1. 股债收益率上行，权益投资性价比较高  
+1.2. 两融余额增加，融资买入额占比下行..   
+1.3. 主要指数换手率普涨，沪深300成交额领涨. 4
+2. 估值：指数 PE估值分位普涨，消费风格领跌，家电领跌，石油石化领涨 .... ..5
+2.1. 指数PE估值分位普涨，中证 500领涨..  
+2.2. 风格PE估值分位跌多涨少，消费风格领跌.. .6   
+2.3. 行业PE估值分位跌多涨少，家电领跌，石油石化领涨.. ...8
+3. 风险提示
+# 图目录
+图 1: 股债收益率显示当前 A股市场依然具备较高投资性价比.... .  
+图 2: 上周两融余额均值环比增加 $0 . 2 6 \%$ ...  
+图 3: 上周融资买入额占 A 股成交额比例下行 0.67pct......  
+图 4: 上周创业板指换手率（%）环比上行 0.217pct....  
+图 5: 上周创业板指成交额环比上行 $2 . 2 1 \%$ ....  
+图 6: 上周主要指数 PE 估值分位数值普涨，中证 500 领涨 1.23pct............5  
+图 7: 上周创业板指 PE（TTM）分位依然处于历史相对低位.................. .  
+图 8: 上周上证综指 PE（TTM）处于历史分位 $9 3 . 4 \%$ ，较上上周上行0.95个百分点 ..... ....6  
+图 9: 上周深证成指 PE（TTM）处于历史分位 $9 1 . 3 \%$ ，较上上周上行 0.54个百分点.... ....6  
+图 10: 上周创业板指PE（TTM）处于历史分位 $4 0 . 3 \%$ ，较上上周上行1.18个百分点... .....6  
+图 11: 上周沪深 300 PE（TTM）处于历史分位 $8 0 . 1 \%$ ，较上上周上行0.44个百分点 ..... ....6  
+图 12: 上周主要风格 PE 分位跌多涨少，消费风格跌幅最大..................... ..7  
+图 13: 上周消费风格PE估值分位相对其他风格位于低位...  
+图 14: 上周金融板块PE（TTM）处于历史分位 $6 3 . 8 \%$ ，较上上周下跌2.57个百分点... ....7  
+图 15: 上周周期板块PE（TTM）处于历史分位 $7 6 . 8 \%$ ，较上上周上涨1.20个百分点... .7  
+图 16: 上周消费板块PE（TTM）处于历史分位 $3 6 . 4 \%$ ，较上上周下跌2.66个百分点... ...8  
+图 17: 上周成长板块PE（TTM）处于历史分位 $9 3 . 3 \%$ ，较上上周上涨0.52个百分点... ....8
+# 表目录
+表 1: 上周深证成指换手率环比上行最多为 0.293pct...  
+表 2: 上周沪深 300成交金额环比涨幅最大为 $9 . 7 1 \%$ ......  
+表 3: 上周中证 500PE(TTM)估值分位领涨 1.23 个百分点，其次是创业板指上涨 1.18 个百分点... ..5  
+表 4: 上周各主要风格PE（TTM）估值分位数跌多涨少，PB（LF）分位数涨多跌少 ..... .7  
+表 5: 上周行业 PE（TTM）估值分位跌多涨少，家电行业领跌 10.7pct，石油石化行业领涨 6.4pct.... ...9
+# 1. 情绪：股债收益率上行，两融余额增加
+# 1.1. 股债收益率上行，权益投资性价比较高
+股债收益率：上周（1.22-1.28）股债收益率上行 0.11 个百分点。截至2026 年 1 月 28 日，沪深 300 股息率为 $2 . 7 7 \%$ ，10 年国债收益率为 $1 . 8 2 \%$ ，股债收益率为- $. 0 . 9 5 \%$ ，较上上周上行 0.11个百分点。股债收益率高于 2026年初至今（截至 1.28）均值 0.08 个百分点，仍处于 2012 年以来相对低点，这也意味着当前A 股市场依然具备较高的投资性价比。
+图1:股债收益率显示当前A股市场依然具备较高投资性价比   
+![](images/b438cbc6af2ee0789ef7def441b90f8b702609448b95faf74d2d62dfe28fe971.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 1.2. 两融余额增加，融资买入额占比下行
+上周（1.22-1.28）两融余额均值约2.73万亿元，较上上周均值增加 $0 . 2 6 \%$ ；融资买入额占全A 成交额比例下行，上周融资买入额占全A 成交额比例为$1 0 . 9 7 \%$ ，较上上周下行 0.67 个百分点。
+图2:上周两融余额均值环比增加 $0 . 2 6 \%$   
+![](images/00745f7cabf12accd452b636e259bcc900330564de87230f16bf769a1f02496f.jpg)  
+资料来源：Wind，甬兴证券研究所
+图3:上周融资买入额占 A 股成交额比例下行 0.67pct   
+![](images/b9aaee6e53b73e1a7567ee97f06b8e74999097b86d0eb5d8d5b303b5c03dfd55.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 1.3. 主要指数换手率普涨，沪深 300成交额领涨
+上周（1.22-1.28）主要指数换手率普涨，成交额普涨。换手率方面，上周各主要指数换手率普涨。其中，深证成指换手率上行最多为0.293个百分点，其次是中证 1000 换手率上行 0.291 个百分点；成交额方面，上周各主要指数成交额普涨，其中沪深 300成交金额环比涨幅最大为 $9 . 7 1 \%$ ，其次是上证综指成交金额上涨 $8 . 8 4 \%$ 。
+表1:上周深证成指换手率环比上行最多为 0.293pct  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;主要指数换手率&lt;/td&gt;&lt;td&gt;上周均值(%)&lt;/td&gt;&lt;td&gt;上上周均值 (%)&lt;/td&gt;&lt;td&gt;较上上周涨跌 (pct)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;1.48&lt;/td&gt;&lt;td&gt;0.181&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind全A&lt;/td&gt;&lt;td&gt;2.40&lt;/td&gt;&lt;td&gt;2.22&lt;/td&gt;&lt;td&gt;0.183&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind双创&lt;/td&gt;&lt;td&gt;4.69&lt;/td&gt;&lt;td&gt;4.59&lt;/td&gt;&lt;td&gt;0.100&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;2.86&lt;/td&gt;&lt;td&gt;2.57&lt;/td&gt;&lt;td&gt;0.293&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;0.99&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;td&gt;0.145&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;2.78&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;0.290&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;4.08&lt;/td&gt;&lt;td&gt;3.86&lt;/td&gt;&lt;td&gt;0.217&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;3.70&lt;/td&gt;&lt;td&gt;3.41&lt;/td&gt;&lt;td&gt;0.291&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，甬兴证券研究所
+表2:上周沪深 300 成交金额环比涨幅最大为 $9 . 7 1 \%$   
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;主要指数成交金额&lt;/td&gt;&lt;td&gt;上周均值(亿 元)&lt;/td&gt;&lt;td&gt;上上周均值(亿 元)&lt;/td&gt;&lt;td&gt;较上上周涨跌&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;13290.88&lt;/td&gt;&lt;td&gt;12211.48&lt;/td&gt;&lt;td&gt;8.84%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind全A&lt;/td&gt;&lt;td&gt;30057.80&lt;/td&gt;&lt;td&gt;28310.43&lt;/td&gt;&lt;td&gt;6.17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind双创&lt;/td&gt;&lt;td&gt;10970.06&lt;/td&gt;&lt;td&gt;10670.62&lt;/td&gt;&lt;td&gt;2.81%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;16480.22&lt;/td&gt;&lt;td&gt;15825.19&lt;/td&gt;&lt;td&gt;4.14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;7574.74&lt;/td&gt;&lt;td&gt;6904.25&lt;/td&gt;&lt;td&gt;9.71%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;6202.56&lt;/td&gt;&lt;td&gt;5767.35&lt;/td&gt;&lt;td&gt;7.55%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;7652.31&lt;/td&gt;&lt;td&gt;7487.00&lt;/td&gt;&lt;td&gt;2.21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;6429.00&lt;/td&gt;&lt;td&gt;5995.01&lt;/td&gt;&lt;td&gt;7.24%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，甬兴证券研究所
+图4:上周创业板指换手率（%）环比上行 0.217pct  
+![](images/8517a28b72f5b2cc1220aec186749c7c2bc3065d8f32f89370e236241ed9d748.jpg)  
+资料来源：Wind，甬兴证券研究所
+图5:上周创业板指成交额环比上行 $2 . 2 1 \%$   
+![](images/bf5cffe72f53668fb134809c654cccdfcf89351db24339deb33596eb86c7aa21.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2. 估值：指数 PE估值分位普涨，消费风格领跌，家电领跌，石油石化领涨
+# 2.1. 指数 PE 估值分位普涨，中证 500 领涨
+指数层面，上周各主要指数 PE估值分位普涨，中证 500领涨。总体来看，各主要指数 PE（TTM）历史分位层面，上周（1.22-1.28）各主要指数PE 估值分位数普涨，其中中证 500涨幅最大为1.23个百分点，其次是创业板指上涨1.18个百分点。各主要指数 PB（LF）历史分位层面，上周各主要指数PB估值分位普涨，其中中证 1000上涨最多为2.6个百分点。
+表3:上周中证 500PE(TTM)估值分位领涨 1.23 个百分点，其次是创业板指上涨 1.18 个百分点  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;PE百分位&lt;/td&gt;&lt;td&gt;PE (TTM)&lt;/td&gt;&lt;td&gt;上周PE百分位变动(pct)&lt;/td&gt;&lt;td&gt;上周PE变动&lt;/td&gt;&lt;td&gt;PB 百分位&lt;/td&gt;&lt;td&gt;PB (LF)&lt;/td&gt;&lt;td&gt;上周PB百分位变动(pct)&lt;/td&gt;&lt;td&gt;上周PB变动(pct)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证综指&lt;/td&gt;&lt;td&gt;93.4%&lt;/td&gt;&lt;td&gt;17.23&lt;/td&gt;&lt;td&gt;0.95&lt;/td&gt;&lt;td&gt;0.18&lt;/td&gt;&lt;td&gt;62.3%&lt;/td&gt;&lt;td&gt;1.57&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;深证成指&lt;/td&gt;&lt;td&gt;91.3%&lt;/td&gt;&lt;td&gt;33.07&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;59.1%&lt;/td&gt;&lt;td&gt;2.91&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;40.3%&lt;/td&gt;&lt;td&gt;42.54&lt;/td&gt;&lt;td&gt;1.18&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;66.8%&lt;/td&gt;&lt;td&gt;5.73&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;80.1%&lt;/td&gt;&lt;td&gt;14.20&lt;/td&gt;&lt;td&gt;0.44&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;50.7%&lt;/td&gt;&lt;td&gt;1.50&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;78.6%&lt;/td&gt;&lt;td&gt;38.95&lt;/td&gt;&lt;td&gt;1.23&lt;/td&gt;&lt;td&gt;1.13&lt;/td&gt;&lt;td&gt;70.3%&lt;/td&gt;&lt;td&gt;2.68&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;73.9%&lt;/td&gt;&lt;td&gt;51.12&lt;/td&gt;&lt;td&gt;0.80&lt;/td&gt;&lt;td&gt;0.92&lt;/td&gt;&lt;td&gt;60.7%&lt;/td&gt;&lt;td&gt;2.72&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind双创&lt;/td&gt;&lt;td&gt;90.3%&lt;/td&gt;&lt;td&gt;107.50&lt;/td&gt;&lt;td&gt;0.36&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;td&gt;89.7%&lt;/td&gt;&lt;td&gt;5.21&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wind全A&lt;/td&gt;&lt;td&gt;95.2%&lt;/td&gt;&lt;td&gt;23.53&lt;/td&gt;&lt;td&gt;0.67&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;58.2%&lt;/td&gt;&lt;td&gt;1.94&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证180&lt;/td&gt;&lt;td&gt;77.4%&lt;/td&gt;&lt;td&gt;12.21&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;td&gt;41.1%&lt;/td&gt;&lt;td&gt;1.28&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;79.5%&lt;/td&gt;&lt;td&gt;11.67&lt;/td&gt;&lt;td&gt;0.23&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;53.2%&lt;/td&gt;&lt;td&gt;1.28&lt;/td&gt;&lt;td&gt;0.6&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，甬兴证券研究所
+图6:上周主要指数 PE 估值分位数值普涨，中证 500领涨 1.23pct  
+![](images/24e6a80d241a21668d899fb9d28a3791cf232d39683a34d045488427c0316eb6.jpg)  
+资料来源：Wind，甬兴证券研究所
+图7:上周创业板指 PE（TTM）分位依然处于历史相对低位  
+![](images/42d831140ab2118cd77000a9020e7959c59783cae4cc3038c28b9f3444e56250.jpg)  
+资料来源：Wind，甬兴证券研究所
+图8:上周上证综指 PE（TTM）处于历史分位 $9 3 . 4 \%$ ，较上上周上行 0.95 个百分点  
+![](images/ea898fc2f08417a8dc4d7aee2ad9a8cbeadec3c7e4c8b7fbe0821bd78e6a3e4e.jpg)  
+资料来源：Wind，甬兴证券研究所
+图9:上周深证成指 PE（TTM）处于历史分位 $9 1 . 3 \%$ ，较上上周上行 0.54 个百分点  
+![](images/7be437e6e8153eced68a9922f60d36042d55ea0a6a6c8a6fd0b334712dc5f968.jpg)  
+资料来源：Wind，甬兴证券研究所
+图10:上周创业板指 PE（TTM）处于历史分位 $4 0 . 3 \%$ ，较上上周上行1.18个百分点  
+![](images/84d4e912674e3e016e3f665c78b55a09c78657bc1e9241d11970e9b57f54ec99.jpg)  
+资料来源：Wind，甬兴证券研究所
+图11:上周沪深 300 PE（TTM）处于历史分位 $8 0 . 1 \%$ ，较上上周上行0.44个百分点  
+![](images/77169a4a03aa088b24d11e0f679478f246250ef6088ba2d7151926b7dfb51965.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2.2. 风格 PE 估值分位跌多涨少，消费风格领跌
+上周各主要风格PE估值分位跌多涨少，消费风格领跌，PB估值分位涨多跌少。从 PE（TTM）历史分位层面来看，上周（1.22-1.28）各风格板块PE 分位数跌多涨少。其中，消费风格领跌2.66个百分点，其次是金融风格下跌2.57个百分点。从PB历史分位层面来看，上周各风格板块 PB分位涨多跌少，其中成长风格涨幅最大为 62.1 个百分点，其次是周期风格上行49.4个百分点。
+表4:上周各主要风格PE（TTM）估值分位数跌多涨少，PB（LF）分位数涨多跌少  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;风格指数&lt;/td&gt;&lt;td&gt;PE 百分位&lt;/td&gt;&lt;td&gt;PE (TTM)&lt;/td&gt;&lt;td&gt;上周PE百分位变动（pct）&lt;/td&gt;&lt;td&gt;上周PE变动&lt;/td&gt;&lt;td&gt;PB 百分位&lt;/td&gt;&lt;td&gt;PB (LF )&lt;/td&gt;&lt;td&gt;上周PB百分位变动（pct）&lt;/td&gt;&lt;td&gt;上周PB变动&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融&lt;/td&gt;&lt;td&gt;63.8%&lt;/td&gt;&lt;td&gt;8.74&lt;/td&gt;&lt;td&gt;-2.57&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;20.6%&lt;/td&gt;&lt;td&gt;0.82&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期&lt;/td&gt;&lt;td&gt;76.8%&lt;/td&gt;&lt;td&gt;29.45&lt;/td&gt;&lt;td&gt;1.20&lt;/td&gt;&lt;td&gt;1.11&lt;/td&gt;&lt;td&gt;87.4%&lt;/td&gt;&lt;td&gt;2.30&lt;/td&gt;&lt;td&gt;49.4&lt;/td&gt;&lt;td&gt;0.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;36.4%&lt;/td&gt;&lt;td&gt;28.01&lt;/td&gt;&lt;td&gt;-2.66&lt;/td&gt;&lt;td&gt;-0.56&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;td&gt;2.78&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;稳定&lt;/td&gt;&lt;td&gt;46.6%&lt;/td&gt;&lt;td&gt;15.20&lt;/td&gt;&lt;td&gt;-0.94&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;29.3%&lt;/td&gt;&lt;td&gt;1.26&lt;/td&gt;&lt;td&gt;-24.7&lt;/td&gt;&lt;td&gt;-0.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;93.3%&lt;/td&gt;&lt;td&gt;89.97&lt;/td&gt;&lt;td&gt;0.52&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;td&gt;81.9%&lt;/td&gt;&lt;td&gt;4.45&lt;/td&gt;&lt;td&gt;62.1&lt;/td&gt;&lt;td&gt;1.50&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，甬兴证券研究所
+图12:上周主要风格PE分位跌多涨少，消费风格跌幅最大  
+![](images/a9dc9e065864a3d078e89ef74192e7bb67149062bbf250491a730b9fceef266b.jpg)  
+资料来源：Wind，甬兴证券研究所
+图13:上周消费风格 PE 估值分位相对其他风格位于低位  
+![](images/6dea7cd14746ca1ff4594c5260c7ca29241ab1ad643ec4fe97d8bd64d24bde74.jpg)  
+资料来源：Wind，甬兴证券研究所
+图14:上周金融板块PE（TTM）处于历史分位 $6 3 . 8 \%$ ，较上上周下跌2.57个百分点  
+![](images/1ad340989d8488d74a3f4686ae7f5a8b2739506b150d8efb9aa3df21c643ca85.jpg)  
+资料来源：Wind，甬兴证券研究所
+图15:上周周期板块 PE（TTM）处于历史分位 $7 6 . 8 \%$ ，较上上周上涨1.20个百分点  
+![](images/0b62b72600cc1adaf899102ca9c290e7c4b7d3d4de75ad80118511829252a992.jpg)  
+资料来源：Wind，甬兴证券研究所
+图16:上周消费板块 PE（TTM）处于历史分位 $3 6 . 4 \%$ ，较上上周下跌2.66个百分点  
+![](images/fa706c14374c5e89932d82831d3da84afe62d5349268bbaa577f242989e2580d.jpg)  
+资料来源：Wind，甬兴证券研究所
+图17:上周成长板块 PE（TTM）处于历史分位 $9 3 . 3 \%$ ，较上上周上涨0.52个百分点  
+![](images/96fd5c45f05a0adc1f6f31c0dd944b6f7521630ecd71e1765be497da8873bf4a.jpg)  
+资料来源：Wind，甬兴证券研究所
+# 2.3. 行业 PE估值分位跌多涨少，家电领跌，石油石化领涨
+行业层面，上周（1.22-1.28）行业 PE估值分位跌多涨少，其中家电领跌，石油石化领涨。板块层面，1）周期板块 PE 估值分位涨多跌少，石油石化行业领涨，较上上周上涨 6.4 个百分点；2）消费板块 PE 分位跌多涨少，家电行业领跌 10.7 个百分点，其次是汽车行业下跌 2.0 个百分点；3）成长板块 PE 分位涨多跌少，通信行业领涨 0.9个百分点；4）金融板块PE分位普跌，银行行业领跌5.0个百分点，非银行金融行业下跌0.2个百分点。
+表5:上周行业 PE（TTM）估值分位跌多涨少，家电行业领跌 10.7pct，石油石化行业领涨 6.4pct  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;PE 百分 位&lt;/td&gt;&lt;td&gt;PE (TTM)&lt;/td&gt;&lt;td&gt;上周PE百分 位变动&lt;/td&gt;&lt;td&gt;上周PE 变动&lt;/td&gt;&lt;td&gt;PB 百分 位&lt;/td&gt;&lt;td&gt;PB (LF)&lt;/td&gt;&lt;td&gt;上周PB百分位 变动&lt;/td&gt;&lt;td&gt;上周PB变动&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;58.3%&lt;/td&gt;&lt;td&gt;16.24&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;1.47&lt;/td&gt;&lt;td&gt;77.0%&lt;/td&gt;&lt;td&gt;1.51&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;42.6%&lt;/td&gt;&lt;td&gt;39.74&lt;/td&gt;&lt;td&gt;4.2%&lt;/td&gt;&lt;td&gt;4.66&lt;/td&gt;&lt;td&gt;92.7%&lt;/td&gt;&lt;td&gt;4.72&lt;/td&gt;&lt;td&gt;4.4%&lt;/td&gt;&lt;td&gt;0.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;81.0%&lt;/td&gt;&lt;td&gt;63.95&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;2.89&lt;/td&gt;&lt;td&gt;63.6%&lt;/td&gt;&lt;td&gt;1.34&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;76.1%&lt;/td&gt;&lt;td&gt;17.59&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;td&gt;66.8%&lt;/td&gt;&lt;td&gt;1.59&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;24.3%&lt;/td&gt;&lt;td&gt;26.87&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.69&lt;/td&gt;&lt;td&gt;40.0%&lt;/td&gt;&lt;td&gt;2.43&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建材&lt;/td&gt;&lt;td&gt;91.0%&lt;/td&gt;&lt;td&gt;45.49&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;1.98&lt;/td&gt;&lt;td&gt;17.2%&lt;/td&gt;&lt;td&gt;1.45&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;15.4%&lt;/td&gt;&lt;td&gt;26.75&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.07&lt;/td&gt;&lt;td&gt;14.0%&lt;/td&gt;&lt;td&gt;2.60&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;75.0%&lt;/td&gt;&lt;td&gt;51.51&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.78&lt;/td&gt;&lt;td&gt;56.9%&lt;/td&gt;&lt;td&gt;2.89&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;94.4%&lt;/td&gt;&lt;td&gt;102.26&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.39&lt;/td&gt;&lt;td&gt;46.3%&lt;/td&gt;&lt;td&gt;1.80&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械&lt;/td&gt;&lt;td&gt;74.5%&lt;/td&gt;&lt;td&gt;51.60&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;78.1%&lt;/td&gt;&lt;td&gt;3.26&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;99.2%&lt;/td&gt;&lt;td&gt;200.73&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;91.6%&lt;/td&gt;&lt;td&gt;5.12&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;95.6%&lt;/td&gt;&lt;td&gt;88.36&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.72&lt;/td&gt;&lt;td&gt;98.8%&lt;/td&gt;&lt;td&gt;5.67&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;96.6%&lt;/td&gt;&lt;td&gt;88.64&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;-0.40&lt;/td&gt;&lt;td&gt;44.3%&lt;/td&gt;&lt;td&gt;2.37&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑&lt;/td&gt;&lt;td&gt;65.5%&lt;/td&gt;&lt;td&gt;13.08&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;13.7%&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;非银行金融&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;11.36&lt;/td&gt;&lt;td&gt;-0.2%&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;24.9%&lt;/td&gt;&lt;td&gt;1.50&lt;/td&gt;&lt;td&gt;-0.4%&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;94.6%&lt;/td&gt;&lt;td&gt;66.32&lt;/td&gt;&lt;td&gt;-0.2%&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;td&gt;67.6%&lt;/td&gt;&lt;td&gt;3.45&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;77.9%&lt;/td&gt;&lt;td&gt;76.45&lt;/td&gt;&lt;td&gt;-0.2%&lt;/td&gt;&lt;td&gt;-0.39&lt;/td&gt;&lt;td&gt;51.9%&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;89.5%&lt;/td&gt;&lt;td&gt;141.59&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;td&gt;-1.44&lt;/td&gt;&lt;td&gt;83.9%&lt;/td&gt;&lt;td&gt;5.74&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费者服务&lt;/td&gt;&lt;td&gt;75.0%&lt;/td&gt;&lt;td&gt;70.64&lt;/td&gt;&lt;td&gt;-0.9%&lt;/td&gt;&lt;td&gt;-2.16&lt;/td&gt;&lt;td&gt;20.7%&lt;/td&gt;&lt;td&gt;3.10&lt;/td&gt;&lt;td&gt;-5.4%&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;37.0%&lt;/td&gt;&lt;td&gt;20.64&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;-0.14&lt;/td&gt;&lt;td&gt;41.9%&lt;/td&gt;&lt;td&gt;1.78&lt;/td&gt;&lt;td&gt;-2.3%&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纺织服装&lt;/td&gt;&lt;td&gt;93.1%&lt;/td&gt;&lt;td&gt;46.63&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;-0.52&lt;/td&gt;&lt;td&gt;40.3%&lt;/td&gt;&lt;td&gt;1.93&lt;/td&gt;&lt;td&gt;-2.0%&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;83.8%&lt;/td&gt;&lt;td&gt;48.93&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;-0.78&lt;/td&gt;&lt;td&gt;11.5%&lt;/td&gt;&lt;td&gt;3.09&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;12.1%&lt;/td&gt;&lt;td&gt;20.38&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-0.51&lt;/td&gt;&lt;td&gt;13.3%&lt;/td&gt;&lt;td&gt;4.00&lt;/td&gt;&lt;td&gt;-2.3%&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;74.9%&lt;/td&gt;&lt;td&gt;33.35&lt;/td&gt;&lt;td&gt;-2.0%&lt;/td&gt;&lt;td&gt;-0.97&lt;/td&gt;&lt;td&gt;74.2%&lt;/td&gt;&lt;td&gt;2.66&lt;/td&gt;&lt;td&gt;-4.3%&lt;/td&gt;&lt;td&gt;-0.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;31.6%&lt;/td&gt;&lt;td&gt;18.01&lt;/td&gt;&lt;td&gt;-3.0%&lt;/td&gt;&lt;td&gt;-0.29&lt;/td&gt;&lt;td&gt;25.0%&lt;/td&gt;&lt;td&gt;1.41&lt;/td&gt;&lt;td&gt;-3.5%&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行&lt;/td&gt;&lt;td&gt;62.8%&lt;/td&gt;&lt;td&gt;6.63&lt;/td&gt;&lt;td&gt;-5.0%&lt;/td&gt;&lt;td&gt;-0.12&lt;/td&gt;&lt;td&gt;19.4%&lt;/td&gt;&lt;td&gt;0.65&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家电&lt;/td&gt;&lt;td&gt;32.7%&lt;/td&gt;&lt;td&gt;15.83&lt;/td&gt;&lt;td&gt;-10.7%&lt;/td&gt;&lt;td&gt;-0.62&lt;/td&gt;&lt;td&gt;32.0%&lt;/td&gt;&lt;td&gt;2.59&lt;/td&gt;&lt;td&gt;-7.4%&lt;/td&gt;&lt;td&gt;-0.08&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind，甬兴证券研究所  
+注：灰色代表周期板块，蓝色代表消费板块，粉色代表成长板块，红色代表金融板块；房地产PE估值为负，综合以及综合金融数据不完整，因此未放入表格中。
+# 3. 风险提示
+上市公司业绩不及预期：上市公司存在业绩不及预期的可能，进而影响估值水平；
+市场波动超预期：实际市场行为与预期有显著偏差，以至于市场出现意料之外的波动；
+海外经济增速不及预期：海外经济增长动能放缓或将影响部分出口产业的营收规模和盈利增速。
+# 分析师声明
+本报告署名分析师具有中国证券业协会授予的证券投资咨询执业资格并注册为证券分析师，以勤勉尽责的职业态度，专业审慎的研究方法，独立、客观地出具本报告，保证报告采用的信息均来自合规渠道，并对本报告的内容和观点负责。负责准备以及撰写本报告的所有研究人员在此保证，本报告所发表的任何观点均清晰、准确、如实地反映了研究人员的观点和结论，并不受任何第三方的授意或影响。此外，所有研究人员薪酬的任何部分不曾、不与、也将不会与本报告中的具体推荐意见或观点直接或间接相关。
+# 公司业务资格说明
+甬兴证券有限公司经中国证券监督管理委员会核准，取得证券投资咨询业务许可，具备证券投资咨询业务资格。
+投资评级体系与评级定义  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;股票投资评级:&lt;/td&gt;&lt;td colspan="2"&gt;分析师给出下列评级中的其中一项代表其根据公司基本面及(或)估值预期以报告日起6个月内公司股价相对于同期市场基准指数表现的看法。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;股价表现将强于基准指数20%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;股价表现将强于基准指数5-20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;股价表现将介于基准指数±5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;股价表现将弱于基准指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;行业投资评级:&lt;/td&gt;&lt;td colspan="2"&gt;分析师给出下列评级中的其中一项代表其根据行业基本面及(或)估值对所研究行业以报告日起12个月内的基本面和行业指数相对于同期市场基准指数表现的看法。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;行业基本面看好,相对表现优于同期基准指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;行业基本面稳定,相对表现与同期基准指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;行业基本面看淡,相对表现弱于同期基准指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="3"&gt;相关证券市场基准指数说明:A股市场以沪深300指数为基准;港股市场以恒生指数为基准;新三板市场以三板成指(针对协议转让标的)或三板做市指数(针对做市转让标的)为基准指数。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+投资评级说明：
+不同证券研究机构采用不同的评级术语及评级标准，投资者应区分不同机构在相同评级名称下的定义差异。本评级体系采用的是相对评级体系。投资者买卖证券的决定取决于个人的实际情况。投资者应阅读整篇报告，以获取比较完整的观点与信息，投资者不应以分析师的投资评级取代个人的分析与判断。
+# 特别声明
+在法律许可的情况下，甬兴证券有限公司(以下简称“本公司”）或其关联机构可能会持有报告中涉及的公司所发行的证券或期权并进行交易，也可能为这些公司提供或争取提供投资银行、财务顾问以及金融产品等各种服务。因此，投资者应当考虑到本公司或其相关人员可能存在影响本报告观点客观性的潜在利益冲突，投资者请勿将本报告视为投资或其他决定的唯一参考依据。也不应当认为本报告可以取代自己的判断。
+# 版权声明
+本报告版权归属于本公司所有，属于非公开资料。本公司对本报告保留一切权利。未经本公司事先书面许可，任何机构或个人不得以任何形式翻版、复制、转载、刊登和引用本报告中的任何内容。否则由此造成的一切不良后果及法律责任由私自翻版、复制、转载、刊登和引用者承担。
+# 重要声明
+本报告由本公司
+径收到或阅读本报告而视其为本公司的客户。客户应当认识到有关本报告的短信提示、电话推荐及其他交流方式等只是研究观点的简要沟通，需以本公司发布的完整报告为准，本公司接受客户的后续问询。本报告首页列示的联系人，除非另有说明，仅作为本公司就本报告与客户的联络人，承担联络工作，不从事任何证券投资咨询服务业务。
+本报告中的信息均来源于我们认为可靠的已公开资料，本公司对这些信息的真实性、准确性及完整性不作任何保证。本报告中的信息、意见等均仅供客户参考，该等信息、意见并未考虑到获取本报告人员的具体投资目的、财务状况以及特定需求，在任何时候均不构成对任何人的个人推荐。客户应当对本报告中的信息和意见进行独立评估，并应同时思量各自的投资目的、财务状况以及特定需求，必要时就法律、商业、财务、税收等方面咨询专家的意见。客户应自主作出投资决策并自行承担投资风险。本公司特别提示，本公司不会与任何客户以任何形式分享证券投资收益或分担证券投资损失，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。市场有风险，投资须谨慎。对依据或者使用本报告所造成的一切后果，本公司和关联人员均不承担任何法律责任。
+本报告所载的意见、评估及预测仅反映本公司于发布本报告当日的判断。该等意见、评估及预测无需通知即可随时更改。过往的表现亦不应作为日后表现的预示和担保。在不同时期，本公司可发出与本报告所载意见、评估及预测不一致的研究报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司的销售人员、交易人员以及其他专业人士可能会依据不同假设和标准、采用不同的分析方法而口头或书面发表与本报告意见及建议不一致的市场评论或交易观点。本公司没有将此意见及建议向报告所有接收者进行更新的义务。投资者应当自行关注相应的更新或修改。</t>
   </si>
   <si>
     <t># 策略深度报告 20260202
@@ -8902,6 +15364,12 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;备注&lt;/td&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券简称&lt;/td&gt;&lt;td&gt;备注&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;830806&lt;/td&gt;&lt;td&gt;亚锦科技&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;874299&lt;/td&gt;&lt;td&gt;卫禾传动&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;831756&lt;/td&gt;&lt;td&gt;德高化成&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;874343&lt;/td&gt;&lt;td&gt;新纳科技&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;832989&lt;/td&gt;&lt;td&gt;鑫博技术&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;874387&lt;/td&gt;&lt;td&gt;百英生物&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;835906&lt;/td&gt;&lt;td&gt;科润股份&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;874473&lt;/td&gt;&lt;td&gt;八桂种苗&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;836159&lt;/td&gt;&lt;td&gt;跃飞新材&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;874484&lt;/td&gt;&lt;td&gt;中裕铁信&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;871703&lt;/td&gt;&lt;td&gt;宝泉旅游&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;874508&lt;/td&gt;&lt;td&gt;天健新材&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/</t>
   </si>
   <si>
+    <t>2026-02-05 12:05:27</t>
+  </si>
+  <si>
+    <t>2026-02-04 21:58:30</t>
+  </si>
+  <si>
     <t>2026-02-03 13:10:24</t>
   </si>
   <si>
@@ -9577,8 +16045,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9876,38 +16347,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9919,19 +16402,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>15281</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
+        <v>16237</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9942,19 +16419,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>5343</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
+        <v>14651</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9965,19 +16436,13 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>13801</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
+        <v>30149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9988,19 +16453,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>12649</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
+        <v>24563</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10011,19 +16470,13 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>6907</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
+        <v>13684</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10034,19 +16487,13 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>7082</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
+        <v>24552</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10057,19 +16504,13 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>7082</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
+        <v>28533</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10080,19 +16521,13 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>45745</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
+        <v>3992</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10103,19 +16538,13 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>53862</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
+        <v>4161</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10126,19 +16555,13 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>8376</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
+        <v>10194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10149,19 +16572,13 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>7753</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
+        <v>13659</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10172,19 +16589,13 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>3110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
+        <v>39954</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10195,19 +16606,13 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>15433</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
+        <v>7519</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10218,19 +16623,13 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>10554</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
+        <v>7557</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10241,22 +16640,16 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>5362</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
+        <v>15151</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -10264,22 +16657,16 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>16113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
+        <v>7198</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -10287,22 +16674,16 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>5210</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
+        <v>46408</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -10310,22 +16691,16 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>51991</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
+        <v>15672</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -10333,22 +16708,16 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>9233</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
+        <v>24474</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -10356,22 +16725,16 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>6135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
+        <v>115104</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -10379,22 +16742,16 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>41570</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
+        <v>3805</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -10402,22 +16759,16 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>26418</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
+        <v>4569</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -10425,22 +16776,16 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>4370</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
+        <v>3688</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -10448,22 +16793,16 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>21715</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
+        <v>3940</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -10471,22 +16810,16 @@
         <v>33</v>
       </c>
       <c r="E26">
-        <v>12610</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
+        <v>15045</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -10494,22 +16827,16 @@
         <v>34</v>
       </c>
       <c r="E27">
-        <v>19227</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
+        <v>6810</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -10517,22 +16844,16 @@
         <v>35</v>
       </c>
       <c r="E28">
-        <v>20590</v>
-      </c>
-      <c r="F28" t="s">
-        <v>92</v>
+        <v>9390</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -10540,22 +16861,16 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>38279</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
+        <v>9464</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -10563,22 +16878,16 @@
         <v>37</v>
       </c>
       <c r="E30">
-        <v>22182</v>
-      </c>
-      <c r="F30" t="s">
-        <v>94</v>
+        <v>47895</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -10586,22 +16895,16 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>10105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
+        <v>5277</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -10609,19 +16912,13 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>29799</v>
-      </c>
-      <c r="F32" t="s">
-        <v>96</v>
+        <v>3075</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -10632,19 +16929,13 @@
         <v>40</v>
       </c>
       <c r="E33">
-        <v>25511</v>
-      </c>
-      <c r="F33" t="s">
-        <v>97</v>
+        <v>14940</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -10655,19 +16946,13 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>9769</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
+        <v>8171</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -10678,19 +16963,13 @@
         <v>42</v>
       </c>
       <c r="E35">
-        <v>4210</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
+        <v>31228</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -10701,19 +16980,13 @@
         <v>43</v>
       </c>
       <c r="E36">
-        <v>18371</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
+        <v>5476</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -10724,19 +16997,13 @@
         <v>44</v>
       </c>
       <c r="E37">
-        <v>22597</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
+        <v>21287</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -10747,19 +17014,13 @@
         <v>45</v>
       </c>
       <c r="E38">
-        <v>21162</v>
-      </c>
-      <c r="F38" t="s">
-        <v>102</v>
+        <v>30231</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -10770,19 +17031,13 @@
         <v>46</v>
       </c>
       <c r="E39">
-        <v>19204</v>
-      </c>
-      <c r="F39" t="s">
-        <v>103</v>
+        <v>7201</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -10793,19 +17048,13 @@
         <v>47</v>
       </c>
       <c r="E40">
-        <v>10072</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
+        <v>17119</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -10816,19 +17065,19 @@
         <v>48</v>
       </c>
       <c r="E41">
-        <v>13218</v>
-      </c>
-      <c r="F41" t="s">
-        <v>105</v>
+        <v>15281</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -10839,19 +17088,19 @@
         <v>49</v>
       </c>
       <c r="E42">
-        <v>14939</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
+        <v>5343</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -10862,19 +17111,19 @@
         <v>50</v>
       </c>
       <c r="E43">
-        <v>11343</v>
-      </c>
-      <c r="F43" t="s">
-        <v>107</v>
+        <v>13801</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -10885,19 +17134,19 @@
         <v>51</v>
       </c>
       <c r="E44">
-        <v>14485</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
+        <v>12649</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -10908,19 +17157,19 @@
         <v>52</v>
       </c>
       <c r="E45">
-        <v>5772</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
+        <v>6907</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -10931,19 +17180,19 @@
         <v>53</v>
       </c>
       <c r="E46">
-        <v>5109</v>
-      </c>
-      <c r="F46" t="s">
-        <v>110</v>
+        <v>7082</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="I46" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -10954,19 +17203,19 @@
         <v>54</v>
       </c>
       <c r="E47">
-        <v>19472</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
+        <v>7082</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -10977,19 +17226,19 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>7082</v>
-      </c>
-      <c r="F48" t="s">
-        <v>112</v>
+        <v>45745</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="I48" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -11000,19 +17249,19 @@
         <v>56</v>
       </c>
       <c r="E49">
-        <v>26810</v>
-      </c>
-      <c r="F49" t="s">
-        <v>113</v>
+        <v>53862</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -11023,19 +17272,19 @@
         <v>57</v>
       </c>
       <c r="E50">
-        <v>7200</v>
-      </c>
-      <c r="F50" t="s">
-        <v>114</v>
+        <v>8376</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="I50" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -11046,19 +17295,19 @@
         <v>58</v>
       </c>
       <c r="E51">
-        <v>12672</v>
-      </c>
-      <c r="F51" t="s">
-        <v>115</v>
+        <v>7753</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="I51" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -11069,19 +17318,19 @@
         <v>59</v>
       </c>
       <c r="E52">
-        <v>22548</v>
-      </c>
-      <c r="F52" t="s">
-        <v>116</v>
+        <v>3110</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -11092,19 +17341,19 @@
         <v>60</v>
       </c>
       <c r="E53">
-        <v>4571</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
+        <v>15433</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="I53" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -11115,19 +17364,19 @@
         <v>61</v>
       </c>
       <c r="E54">
-        <v>60756</v>
-      </c>
-      <c r="F54" t="s">
-        <v>118</v>
+        <v>10554</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="I54" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -11138,19 +17387,19 @@
         <v>62</v>
       </c>
       <c r="E55">
-        <v>44306</v>
-      </c>
-      <c r="F55" t="s">
-        <v>119</v>
+        <v>5362</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="I55" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -11161,19 +17410,19 @@
         <v>63</v>
       </c>
       <c r="E56">
-        <v>47292</v>
-      </c>
-      <c r="F56" t="s">
-        <v>120</v>
+        <v>16113</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -11184,19 +17433,19 @@
         <v>64</v>
       </c>
       <c r="E57">
-        <v>79389</v>
-      </c>
-      <c r="F57" t="s">
-        <v>121</v>
+        <v>5210</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -11207,19 +17456,916 @@
         <v>65</v>
       </c>
       <c r="E58">
+        <v>51991</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59">
+        <v>9233</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <v>6135</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61">
+        <v>41570</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>26418</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63">
+        <v>4370</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <v>21715</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>12610</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66">
+        <v>19227</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <v>20590</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68">
+        <v>38279</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>204</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>22182</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" t="s">
+        <v>204</v>
+      </c>
+      <c r="H69" t="s">
+        <v>233</v>
+      </c>
+      <c r="I69" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70">
+        <v>10105</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H70" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71">
+        <v>29799</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" t="s">
+        <v>235</v>
+      </c>
+      <c r="I71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72">
+        <v>25511</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" t="s">
+        <v>236</v>
+      </c>
+      <c r="I72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73">
+        <v>9769</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" t="s">
+        <v>237</v>
+      </c>
+      <c r="I73" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74">
+        <v>4210</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74" t="s">
+        <v>238</v>
+      </c>
+      <c r="I74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>18371</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" t="s">
+        <v>204</v>
+      </c>
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76">
+        <v>22597</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" t="s">
+        <v>204</v>
+      </c>
+      <c r="H76" t="s">
+        <v>240</v>
+      </c>
+      <c r="I76" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77">
+        <v>21162</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" t="s">
+        <v>204</v>
+      </c>
+      <c r="H77" t="s">
+        <v>241</v>
+      </c>
+      <c r="I77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78">
+        <v>19204</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" t="s">
+        <v>204</v>
+      </c>
+      <c r="H78" t="s">
+        <v>242</v>
+      </c>
+      <c r="I78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79">
+        <v>10072</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80">
+        <v>13218</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s">
+        <v>204</v>
+      </c>
+      <c r="H80" t="s">
+        <v>244</v>
+      </c>
+      <c r="I80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81">
+        <v>14939</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" t="s">
+        <v>204</v>
+      </c>
+      <c r="H81" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82">
+        <v>11343</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G82" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" t="s">
+        <v>246</v>
+      </c>
+      <c r="I82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83">
+        <v>14485</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G83" t="s">
+        <v>204</v>
+      </c>
+      <c r="H83" t="s">
+        <v>247</v>
+      </c>
+      <c r="I83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84">
+        <v>5772</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" t="s">
+        <v>248</v>
+      </c>
+      <c r="I84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>5109</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G85" t="s">
+        <v>204</v>
+      </c>
+      <c r="H85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86">
+        <v>19472</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G86" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87">
+        <v>7082</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G87" t="s">
+        <v>204</v>
+      </c>
+      <c r="H87" t="s">
+        <v>251</v>
+      </c>
+      <c r="I87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88">
+        <v>26810</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" t="s">
+        <v>204</v>
+      </c>
+      <c r="H88" t="s">
+        <v>252</v>
+      </c>
+      <c r="I88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89">
+        <v>7200</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G89" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" t="s">
+        <v>253</v>
+      </c>
+      <c r="I89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90">
+        <v>12672</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" t="s">
+        <v>204</v>
+      </c>
+      <c r="H90" t="s">
+        <v>254</v>
+      </c>
+      <c r="I90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91">
+        <v>22548</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" t="s">
+        <v>204</v>
+      </c>
+      <c r="H91" t="s">
+        <v>255</v>
+      </c>
+      <c r="I91" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92">
+        <v>4571</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H92" t="s">
+        <v>256</v>
+      </c>
+      <c r="I92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <v>60756</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" t="s">
+        <v>204</v>
+      </c>
+      <c r="H93" t="s">
+        <v>257</v>
+      </c>
+      <c r="I93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94">
+        <v>44306</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" t="s">
+        <v>204</v>
+      </c>
+      <c r="H94" t="s">
+        <v>258</v>
+      </c>
+      <c r="I94" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95">
+        <v>47292</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G95" t="s">
+        <v>204</v>
+      </c>
+      <c r="H95" t="s">
+        <v>259</v>
+      </c>
+      <c r="I95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96">
+        <v>79389</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" t="s">
+        <v>204</v>
+      </c>
+      <c r="H96" t="s">
+        <v>260</v>
+      </c>
+      <c r="I96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97">
         <v>71256</v>
       </c>
-      <c r="F58" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" t="s">
-        <v>181</v>
-      </c>
-      <c r="I58" t="s">
-        <v>219</v>
+      <c r="F97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" t="s">
+        <v>261</v>
+      </c>
+      <c r="I97" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
